--- a/data/Calama.xlsx
+++ b/data/Calama.xlsx
@@ -3640,7 +3640,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Verano de San Juan I</t>
+          <t>MODIFICACIONES AL PROYECTO EXTRACCIÓN Y MOVIMIENTO DE MINERALES MINA RADOMIRO TOMIC</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3655,11 +3655,11 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Victoria Solar SpA</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>15000</v>
+        <v>208848</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
@@ -3668,12 +3668,12 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138522682&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138513102&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Verano de San Juan II</t>
+          <t>Parque Fotovoltaico Verano de San Juan I</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3703,7 +3703,7 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Paine Energy SpA</t>
+          <t>Victoria Solar SpA</t>
         </is>
       </c>
       <c r="F70" t="n">
@@ -3721,7 +3721,7 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138526892&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138522682&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -3736,7 +3736,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>MODIFICACIONES AL PROYECTO EXTRACCIÓN Y MOVIMIENTO DE MINERALES MINA RADOMIRO TOMIC</t>
+          <t>Parque Fotovoltaico Verano de San Juan II</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3751,11 +3751,11 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Paine Energy SpA</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>208848</v>
+        <v>15000</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
@@ -3764,12 +3764,12 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138513102&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138526892&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -7624,7 +7624,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>BARRIO CONTRATISTA GERENCIA DE PROYECTOS</t>
+          <t>AUMENTO CAPACIDAD DE TRATAMIENTO DE EFLUENTES DE FUNDICIÓN</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -7643,7 +7643,7 @@
         </is>
       </c>
       <c r="F152" t="n">
-        <v>8000</v>
+        <v>67700</v>
       </c>
       <c r="G152" t="inlineStr">
         <is>
@@ -7657,7 +7657,7 @@
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128904823&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128952737&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
@@ -7816,7 +7816,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>AUMENTO CAPACIDAD DE TRATAMIENTO DE EFLUENTES DE FUNDICIÓN</t>
+          <t>BARRIO CONTRATISTA GERENCIA DE PROYECTOS</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -7835,7 +7835,7 @@
         </is>
       </c>
       <c r="F156" t="n">
-        <v>67700</v>
+        <v>8000</v>
       </c>
       <c r="G156" t="inlineStr">
         <is>
@@ -7849,7 +7849,7 @@
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128952737&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128904823&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -7864,7 +7864,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Aumento Áreas de Lixiviación, sector Quebrada Portezuelo</t>
+          <t>Remodelación Parque El Loa</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -7879,11 +7879,11 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>Codelco Chile, División Chuquicamata</t>
+          <t>Ilustre Municipalidad de Calama</t>
         </is>
       </c>
       <c r="F157" t="n">
-        <v>5888</v>
+        <v>9074</v>
       </c>
       <c r="G157" t="inlineStr">
         <is>
@@ -7897,7 +7897,7 @@
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128955081&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128906904&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -7912,7 +7912,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Remodelación Parque El Loa</t>
+          <t>Aumento Áreas de Lixiviación, sector Quebrada Portezuelo</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -7927,11 +7927,11 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Calama</t>
+          <t>Codelco Chile, División Chuquicamata</t>
         </is>
       </c>
       <c r="F158" t="n">
-        <v>9074</v>
+        <v>5888</v>
       </c>
       <c r="G158" t="inlineStr">
         <is>
@@ -7945,7 +7945,7 @@
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128906904&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128955081&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -8536,7 +8536,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -8551,11 +8551,11 @@
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F171" t="n">
-        <v>12500</v>
+        <v>219</v>
       </c>
       <c r="G171" t="inlineStr">
         <is>
@@ -8564,12 +8564,12 @@
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556590&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
@@ -8584,7 +8584,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
+          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -8603,7 +8603,7 @@
         </is>
       </c>
       <c r="F172" t="n">
-        <v>10000</v>
+        <v>12500</v>
       </c>
       <c r="G172" t="inlineStr">
         <is>
@@ -8617,7 +8617,7 @@
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
@@ -8632,7 +8632,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -8647,11 +8647,11 @@
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F173" t="n">
-        <v>219</v>
+        <v>10000</v>
       </c>
       <c r="G173" t="inlineStr">
         <is>
@@ -8660,12 +8660,12 @@
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556590&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -9160,26 +9160,26 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>RT Sulfuros</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F184" t="n">
-        <v>2050</v>
+        <v>5.4</v>
       </c>
       <c r="G184" t="inlineStr">
         <is>
@@ -9188,12 +9188,12 @@
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
@@ -9208,26 +9208,26 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>RT Sulfuros</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F185" t="n">
-        <v>5.4</v>
+        <v>2050</v>
       </c>
       <c r="G185" t="inlineStr">
         <is>
@@ -9236,12 +9236,12 @@
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -12808,7 +12808,7 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>Portal del Inca</t>
+          <t>Línea de Transmisión Eléctrica 220 kv Encuentro - MH</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
@@ -12823,11 +12823,11 @@
       </c>
       <c r="E260" t="inlineStr">
         <is>
-          <t>Inmobiliaria Inca Dos Ltda.</t>
+          <t>División Ministro Hales de Codelco Chile</t>
         </is>
       </c>
       <c r="F260" t="n">
-        <v>13948</v>
+        <v>45000</v>
       </c>
       <c r="G260" t="inlineStr">
         <is>
@@ -12836,12 +12836,12 @@
       </c>
       <c r="H260" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I260" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5787635&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5773970&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J260" t="inlineStr">
@@ -12856,7 +12856,7 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Eléctrica 220 kv Encuentro - MH</t>
+          <t>Portal del Inca</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
@@ -12871,11 +12871,11 @@
       </c>
       <c r="E261" t="inlineStr">
         <is>
-          <t>División Ministro Hales de Codelco Chile</t>
+          <t>Inmobiliaria Inca Dos Ltda.</t>
         </is>
       </c>
       <c r="F261" t="n">
-        <v>45000</v>
+        <v>13948</v>
       </c>
       <c r="G261" t="inlineStr">
         <is>
@@ -12884,12 +12884,12 @@
       </c>
       <c r="H261" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I261" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5773970&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5787635&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J261" t="inlineStr">
@@ -13624,7 +13624,7 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
@@ -13639,11 +13639,11 @@
       </c>
       <c r="E277" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F277" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G277" t="inlineStr">
         <is>
@@ -13652,12 +13652,12 @@
       </c>
       <c r="H277" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I277" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J277" t="inlineStr">
@@ -13672,7 +13672,7 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
@@ -13687,11 +13687,11 @@
       </c>
       <c r="E278" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F278" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G278" t="inlineStr">
         <is>
@@ -13700,12 +13700,12 @@
       </c>
       <c r="H278" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I278" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J278" t="inlineStr">
@@ -19480,7 +19480,7 @@
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>Proyecto Explotación Subterránea Mina Santa Rosa (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C399" t="inlineStr">
@@ -19490,16 +19490,16 @@
       </c>
       <c r="D399" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E399" t="inlineStr">
         <is>
-          <t>Minera Quimal.S.A.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F399" t="n">
-        <v>500</v>
+        <v>1750</v>
       </c>
       <c r="G399" t="inlineStr">
         <is>
@@ -19508,12 +19508,12 @@
       </c>
       <c r="H399" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I399" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3310659&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J399" t="inlineStr">
@@ -19528,7 +19528,7 @@
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Proyecto Explotación Subterránea Mina Santa Rosa (e-seia)</t>
         </is>
       </c>
       <c r="C400" t="inlineStr">
@@ -19538,16 +19538,16 @@
       </c>
       <c r="D400" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E400" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Minera Quimal.S.A.</t>
         </is>
       </c>
       <c r="F400" t="n">
-        <v>1750</v>
+        <v>500</v>
       </c>
       <c r="G400" t="inlineStr">
         <is>
@@ -19556,12 +19556,12 @@
       </c>
       <c r="H400" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I400" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3310659&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J400" t="inlineStr">
@@ -20008,7 +20008,7 @@
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>Tratamiento de Impurezas en Ánodos y Cátodos de División Codelco Norte (e-seia)</t>
         </is>
       </c>
       <c r="C410" t="inlineStr">
@@ -20018,16 +20018,16 @@
       </c>
       <c r="D410" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E410" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Codelco Chile, División Chuquicamata</t>
         </is>
       </c>
       <c r="F410" t="n">
-        <v>250</v>
+        <v>50000</v>
       </c>
       <c r="G410" t="inlineStr">
         <is>
@@ -20036,12 +20036,12 @@
       </c>
       <c r="H410" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I410" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3118819&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J410" t="inlineStr">
@@ -20056,7 +20056,7 @@
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>Tratamiento de Impurezas en Ánodos y Cátodos de División Codelco Norte (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C411" t="inlineStr">
@@ -20066,16 +20066,16 @@
       </c>
       <c r="D411" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E411" t="inlineStr">
         <is>
-          <t>Codelco Chile, División Chuquicamata</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F411" t="n">
-        <v>50000</v>
+        <v>250</v>
       </c>
       <c r="G411" t="inlineStr">
         <is>
@@ -20084,12 +20084,12 @@
       </c>
       <c r="H411" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I411" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3118819&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J411" t="inlineStr">
@@ -20200,7 +20200,7 @@
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>Proyecto Exploración Minera Macarena - Leo (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C414" t="inlineStr">
@@ -20210,16 +20210,16 @@
       </c>
       <c r="D414" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E414" t="inlineStr">
         <is>
-          <t>Minera Fuego Limitada</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F414" t="n">
-        <v>150</v>
+        <v>1650</v>
       </c>
       <c r="G414" t="inlineStr">
         <is>
@@ -20233,7 +20233,7 @@
       </c>
       <c r="I414" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088992&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J414" t="inlineStr">
@@ -20248,7 +20248,7 @@
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>Proyecto Exploración Minera Macarena - Leo (e-seia)</t>
         </is>
       </c>
       <c r="C415" t="inlineStr">
@@ -20258,16 +20258,16 @@
       </c>
       <c r="D415" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E415" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Minera Fuego Limitada</t>
         </is>
       </c>
       <c r="F415" t="n">
-        <v>1650</v>
+        <v>150</v>
       </c>
       <c r="G415" t="inlineStr">
         <is>
@@ -20281,7 +20281,7 @@
       </c>
       <c r="I415" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088992&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J415" t="inlineStr">
@@ -23224,26 +23224,26 @@
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
+          <t>LIXIVIACIÓN DE SULFUROS SULFOLIX</t>
         </is>
       </c>
       <c r="C477" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D477" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E477" t="inlineStr">
         <is>
-          <t>Empresa de Residuos RESITER S.A.</t>
+          <t>SOCIEDAD CONTRACTUAL MINERA EL ABRA</t>
         </is>
       </c>
       <c r="F477" t="n">
-        <v>1</v>
+        <v>343000</v>
       </c>
       <c r="G477" t="inlineStr">
         <is>
@@ -23257,7 +23257,7 @@
       </c>
       <c r="I477" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2088630&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J477" t="inlineStr">
@@ -23272,26 +23272,26 @@
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>LIXIVIACIÓN DE SULFUROS SULFOLIX</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C478" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D478" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E478" t="inlineStr">
         <is>
-          <t>SOCIEDAD CONTRACTUAL MINERA EL ABRA</t>
+          <t>Empresa de Residuos RESITER S.A.</t>
         </is>
       </c>
       <c r="F478" t="n">
-        <v>343000</v>
+        <v>1</v>
       </c>
       <c r="G478" t="inlineStr">
         <is>
@@ -23305,7 +23305,7 @@
       </c>
       <c r="I478" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2088630&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J478" t="inlineStr">

--- a/data/Calama.xlsx
+++ b/data/Calama.xlsx
@@ -10964,7 +10964,7 @@
       </c>
       <c r="H221" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I221" t="inlineStr">

--- a/data/Calama.xlsx
+++ b/data/Calama.xlsx
@@ -3640,7 +3640,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>MODIFICACIONES AL PROYECTO EXTRACCIÓN Y MOVIMIENTO DE MINERALES MINA RADOMIRO TOMIC</t>
+          <t>Parque Fotovoltaico Verano de San Juan I</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3655,11 +3655,11 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Victoria Solar SpA</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>208848</v>
+        <v>15000</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
@@ -3668,12 +3668,12 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138513102&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138522682&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Verano de San Juan I</t>
+          <t>Parque Fotovoltaico Verano de San Juan II</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3703,7 +3703,7 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Victoria Solar SpA</t>
+          <t>Paine Energy SpA</t>
         </is>
       </c>
       <c r="F70" t="n">
@@ -3721,7 +3721,7 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138522682&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138526892&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -3736,7 +3736,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Verano de San Juan II</t>
+          <t>MODIFICACIONES AL PROYECTO EXTRACCIÓN Y MOVIMIENTO DE MINERALES MINA RADOMIRO TOMIC</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3751,11 +3751,11 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Paine Energy SpA</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>15000</v>
+        <v>208848</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
@@ -3764,12 +3764,12 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138526892&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138513102&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -7672,7 +7672,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>BARRIO CONTRATISTA GERENCIA DE PROYECTOS</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -7682,16 +7682,16 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>Codelco Chile, División Chuquicamata</t>
         </is>
       </c>
       <c r="F153" t="n">
-        <v>1200</v>
+        <v>8000</v>
       </c>
       <c r="G153" t="inlineStr">
         <is>
@@ -7705,7 +7705,7 @@
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128904823&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
@@ -7720,7 +7720,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Proyecto Fotovoltaico Azabache</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -7730,16 +7730,16 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>Almeyda Solar SpA.</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F154" t="n">
-        <v>140000</v>
+        <v>1200</v>
       </c>
       <c r="G154" t="inlineStr">
         <is>
@@ -7753,7 +7753,7 @@
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128969457&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -7768,7 +7768,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Proyecto Fotovoltaico Azabache</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -7778,16 +7778,16 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Almeyda Solar SpA.</t>
         </is>
       </c>
       <c r="F155" t="n">
-        <v>0</v>
+        <v>140000</v>
       </c>
       <c r="G155" t="inlineStr">
         <is>
@@ -7801,7 +7801,7 @@
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128969457&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -7816,7 +7816,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>BARRIO CONTRATISTA GERENCIA DE PROYECTOS</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -7826,16 +7826,16 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>Codelco Chile, División Chuquicamata</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F156" t="n">
-        <v>8000</v>
+        <v>0</v>
       </c>
       <c r="G156" t="inlineStr">
         <is>
@@ -7849,7 +7849,7 @@
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128904823&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -8536,7 +8536,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -8551,11 +8551,11 @@
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F171" t="n">
-        <v>219</v>
+        <v>12500</v>
       </c>
       <c r="G171" t="inlineStr">
         <is>
@@ -8564,12 +8564,12 @@
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556590&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
@@ -8584,7 +8584,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -8603,7 +8603,7 @@
         </is>
       </c>
       <c r="F172" t="n">
-        <v>12500</v>
+        <v>10000</v>
       </c>
       <c r="G172" t="inlineStr">
         <is>
@@ -8617,7 +8617,7 @@
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
@@ -8632,7 +8632,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -8647,11 +8647,11 @@
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F173" t="n">
-        <v>10000</v>
+        <v>219</v>
       </c>
       <c r="G173" t="inlineStr">
         <is>
@@ -8660,12 +8660,12 @@
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556590&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -9160,26 +9160,26 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>RT Sulfuros</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F184" t="n">
-        <v>5.4</v>
+        <v>2050</v>
       </c>
       <c r="G184" t="inlineStr">
         <is>
@@ -9188,12 +9188,12 @@
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
@@ -9208,26 +9208,26 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>RT Sulfuros</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F185" t="n">
-        <v>2050</v>
+        <v>5.4</v>
       </c>
       <c r="G185" t="inlineStr">
         <is>
@@ -9236,12 +9236,12 @@
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -12808,7 +12808,7 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Eléctrica 220 kv Encuentro - MH</t>
+          <t>Portal del Inca</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
@@ -12823,11 +12823,11 @@
       </c>
       <c r="E260" t="inlineStr">
         <is>
-          <t>División Ministro Hales de Codelco Chile</t>
+          <t>Inmobiliaria Inca Dos Ltda.</t>
         </is>
       </c>
       <c r="F260" t="n">
-        <v>45000</v>
+        <v>13948</v>
       </c>
       <c r="G260" t="inlineStr">
         <is>
@@ -12836,12 +12836,12 @@
       </c>
       <c r="H260" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I260" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5773970&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5787635&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J260" t="inlineStr">
@@ -12856,7 +12856,7 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>Portal del Inca</t>
+          <t>Línea de Transmisión Eléctrica 220 kv Encuentro - MH</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
@@ -12871,11 +12871,11 @@
       </c>
       <c r="E261" t="inlineStr">
         <is>
-          <t>Inmobiliaria Inca Dos Ltda.</t>
+          <t>División Ministro Hales de Codelco Chile</t>
         </is>
       </c>
       <c r="F261" t="n">
-        <v>13948</v>
+        <v>45000</v>
       </c>
       <c r="G261" t="inlineStr">
         <is>
@@ -12884,12 +12884,12 @@
       </c>
       <c r="H261" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I261" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5787635&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5773970&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J261" t="inlineStr">
@@ -13624,7 +13624,7 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
@@ -13639,11 +13639,11 @@
       </c>
       <c r="E277" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F277" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G277" t="inlineStr">
         <is>
@@ -13652,12 +13652,12 @@
       </c>
       <c r="H277" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I277" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J277" t="inlineStr">
@@ -13672,7 +13672,7 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
@@ -13687,11 +13687,11 @@
       </c>
       <c r="E278" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F278" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G278" t="inlineStr">
         <is>
@@ -13700,12 +13700,12 @@
       </c>
       <c r="H278" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I278" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J278" t="inlineStr">
@@ -18184,7 +18184,7 @@
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>Sondajes Prospección Ingeniería de Detalles Explotación Subterránea Yacimiento Chuquicamata (e-seia)</t>
+          <t>Planta de Tratamiento de Efluentes Hospital del Cobre (e-seia)</t>
         </is>
       </c>
       <c r="C372" t="inlineStr">
@@ -18203,7 +18203,7 @@
         </is>
       </c>
       <c r="F372" t="n">
-        <v>83584</v>
+        <v>200</v>
       </c>
       <c r="G372" t="inlineStr">
         <is>
@@ -18217,7 +18217,7 @@
       </c>
       <c r="I372" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3737660&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3826608&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J372" t="inlineStr">
@@ -18232,7 +18232,7 @@
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Efluentes Hospital del Cobre (e-seia)</t>
+          <t>Sondajes Prospección Ingeniería de Detalles Explotación Subterránea Yacimiento Chuquicamata (e-seia)</t>
         </is>
       </c>
       <c r="C373" t="inlineStr">
@@ -18251,7 +18251,7 @@
         </is>
       </c>
       <c r="F373" t="n">
-        <v>200</v>
+        <v>83584</v>
       </c>
       <c r="G373" t="inlineStr">
         <is>
@@ -18265,7 +18265,7 @@
       </c>
       <c r="I373" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3826608&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3737660&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J373" t="inlineStr">
@@ -19480,7 +19480,7 @@
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Proyecto Explotación Subterránea Mina Santa Rosa (e-seia)</t>
         </is>
       </c>
       <c r="C399" t="inlineStr">
@@ -19490,16 +19490,16 @@
       </c>
       <c r="D399" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E399" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Minera Quimal.S.A.</t>
         </is>
       </c>
       <c r="F399" t="n">
-        <v>1750</v>
+        <v>500</v>
       </c>
       <c r="G399" t="inlineStr">
         <is>
@@ -19508,12 +19508,12 @@
       </c>
       <c r="H399" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I399" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3310659&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J399" t="inlineStr">
@@ -19528,7 +19528,7 @@
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>Proyecto Explotación Subterránea Mina Santa Rosa (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C400" t="inlineStr">
@@ -19538,16 +19538,16 @@
       </c>
       <c r="D400" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E400" t="inlineStr">
         <is>
-          <t>Minera Quimal.S.A.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F400" t="n">
-        <v>500</v>
+        <v>1750</v>
       </c>
       <c r="G400" t="inlineStr">
         <is>
@@ -19556,12 +19556,12 @@
       </c>
       <c r="H400" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I400" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3310659&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J400" t="inlineStr">
@@ -20008,7 +20008,7 @@
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>Tratamiento de Impurezas en Ánodos y Cátodos de División Codelco Norte (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C410" t="inlineStr">
@@ -20018,16 +20018,16 @@
       </c>
       <c r="D410" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E410" t="inlineStr">
         <is>
-          <t>Codelco Chile, División Chuquicamata</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F410" t="n">
-        <v>50000</v>
+        <v>250</v>
       </c>
       <c r="G410" t="inlineStr">
         <is>
@@ -20036,12 +20036,12 @@
       </c>
       <c r="H410" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I410" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3118819&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J410" t="inlineStr">
@@ -20056,7 +20056,7 @@
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>Tratamiento de Impurezas en Ánodos y Cátodos de División Codelco Norte (e-seia)</t>
         </is>
       </c>
       <c r="C411" t="inlineStr">
@@ -20066,16 +20066,16 @@
       </c>
       <c r="D411" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E411" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Codelco Chile, División Chuquicamata</t>
         </is>
       </c>
       <c r="F411" t="n">
-        <v>250</v>
+        <v>50000</v>
       </c>
       <c r="G411" t="inlineStr">
         <is>
@@ -20084,12 +20084,12 @@
       </c>
       <c r="H411" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I411" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3118819&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J411" t="inlineStr">
@@ -20200,7 +20200,7 @@
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>Proyecto Exploración Minera Macarena - Leo (e-seia)</t>
         </is>
       </c>
       <c r="C414" t="inlineStr">
@@ -20210,16 +20210,16 @@
       </c>
       <c r="D414" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E414" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Minera Fuego Limitada</t>
         </is>
       </c>
       <c r="F414" t="n">
-        <v>1650</v>
+        <v>150</v>
       </c>
       <c r="G414" t="inlineStr">
         <is>
@@ -20233,7 +20233,7 @@
       </c>
       <c r="I414" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088992&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J414" t="inlineStr">
@@ -20248,7 +20248,7 @@
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>Proyecto Exploración Minera Macarena - Leo (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C415" t="inlineStr">
@@ -20258,16 +20258,16 @@
       </c>
       <c r="D415" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E415" t="inlineStr">
         <is>
-          <t>Minera Fuego Limitada</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F415" t="n">
-        <v>150</v>
+        <v>1650</v>
       </c>
       <c r="G415" t="inlineStr">
         <is>
@@ -20281,7 +20281,7 @@
       </c>
       <c r="I415" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088992&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J415" t="inlineStr">
@@ -23224,26 +23224,26 @@
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>LIXIVIACIÓN DE SULFUROS SULFOLIX</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C477" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D477" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E477" t="inlineStr">
         <is>
-          <t>SOCIEDAD CONTRACTUAL MINERA EL ABRA</t>
+          <t>Empresa de Residuos RESITER S.A.</t>
         </is>
       </c>
       <c r="F477" t="n">
-        <v>343000</v>
+        <v>1</v>
       </c>
       <c r="G477" t="inlineStr">
         <is>
@@ -23257,7 +23257,7 @@
       </c>
       <c r="I477" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2088630&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J477" t="inlineStr">
@@ -23272,26 +23272,26 @@
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
+          <t>LIXIVIACIÓN DE SULFUROS SULFOLIX</t>
         </is>
       </c>
       <c r="C478" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D478" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E478" t="inlineStr">
         <is>
-          <t>Empresa de Residuos RESITER S.A.</t>
+          <t>SOCIEDAD CONTRACTUAL MINERA EL ABRA</t>
         </is>
       </c>
       <c r="F478" t="n">
-        <v>1</v>
+        <v>343000</v>
       </c>
       <c r="G478" t="inlineStr">
         <is>
@@ -23305,7 +23305,7 @@
       </c>
       <c r="I478" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2088630&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J478" t="inlineStr">

--- a/data/Calama.xlsx
+++ b/data/Calama.xlsx
@@ -3640,7 +3640,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Verano de San Juan I</t>
+          <t>MODIFICACIONES AL PROYECTO EXTRACCIÓN Y MOVIMIENTO DE MINERALES MINA RADOMIRO TOMIC</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3655,11 +3655,11 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Victoria Solar SpA</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>15000</v>
+        <v>208848</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
@@ -3668,12 +3668,12 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138522682&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138513102&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Verano de San Juan II</t>
+          <t>Parque Fotovoltaico Verano de San Juan I</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3703,7 +3703,7 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Paine Energy SpA</t>
+          <t>Victoria Solar SpA</t>
         </is>
       </c>
       <c r="F70" t="n">
@@ -3721,7 +3721,7 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138526892&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138522682&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -3736,7 +3736,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>MODIFICACIONES AL PROYECTO EXTRACCIÓN Y MOVIMIENTO DE MINERALES MINA RADOMIRO TOMIC</t>
+          <t>Parque Fotovoltaico Verano de San Juan II</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3751,11 +3751,11 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Paine Energy SpA</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>208848</v>
+        <v>15000</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
@@ -3764,12 +3764,12 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138513102&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138526892&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -7672,7 +7672,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>BARRIO CONTRATISTA GERENCIA DE PROYECTOS</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -7682,16 +7682,16 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>Codelco Chile, División Chuquicamata</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F153" t="n">
-        <v>8000</v>
+        <v>1200</v>
       </c>
       <c r="G153" t="inlineStr">
         <is>
@@ -7705,7 +7705,7 @@
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128904823&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
@@ -7720,7 +7720,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Proyecto Fotovoltaico Azabache</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -7730,16 +7730,16 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>Almeyda Solar SpA.</t>
         </is>
       </c>
       <c r="F154" t="n">
-        <v>1200</v>
+        <v>140000</v>
       </c>
       <c r="G154" t="inlineStr">
         <is>
@@ -7753,7 +7753,7 @@
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128969457&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -7768,7 +7768,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Proyecto Fotovoltaico Azabache</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -7778,16 +7778,16 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>Almeyda Solar SpA.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F155" t="n">
-        <v>140000</v>
+        <v>0</v>
       </c>
       <c r="G155" t="inlineStr">
         <is>
@@ -7801,7 +7801,7 @@
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128969457&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -7816,7 +7816,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>BARRIO CONTRATISTA GERENCIA DE PROYECTOS</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -7826,16 +7826,16 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Codelco Chile, División Chuquicamata</t>
         </is>
       </c>
       <c r="F156" t="n">
-        <v>0</v>
+        <v>8000</v>
       </c>
       <c r="G156" t="inlineStr">
         <is>
@@ -7849,7 +7849,7 @@
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128904823&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -8536,7 +8536,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -8551,11 +8551,11 @@
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F171" t="n">
-        <v>12500</v>
+        <v>219</v>
       </c>
       <c r="G171" t="inlineStr">
         <is>
@@ -8564,12 +8564,12 @@
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556590&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
@@ -8584,7 +8584,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
+          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -8603,7 +8603,7 @@
         </is>
       </c>
       <c r="F172" t="n">
-        <v>10000</v>
+        <v>12500</v>
       </c>
       <c r="G172" t="inlineStr">
         <is>
@@ -8617,7 +8617,7 @@
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
@@ -8632,7 +8632,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -8647,11 +8647,11 @@
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F173" t="n">
-        <v>219</v>
+        <v>10000</v>
       </c>
       <c r="G173" t="inlineStr">
         <is>
@@ -8660,12 +8660,12 @@
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556590&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -9160,26 +9160,26 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>RT Sulfuros</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F184" t="n">
-        <v>2050</v>
+        <v>5.4</v>
       </c>
       <c r="G184" t="inlineStr">
         <is>
@@ -9188,12 +9188,12 @@
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
@@ -9208,26 +9208,26 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>RT Sulfuros</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F185" t="n">
-        <v>5.4</v>
+        <v>2050</v>
       </c>
       <c r="G185" t="inlineStr">
         <is>
@@ -9236,12 +9236,12 @@
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -12808,7 +12808,7 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>Portal del Inca</t>
+          <t>Línea de Transmisión Eléctrica 220 kv Encuentro - MH</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
@@ -12823,11 +12823,11 @@
       </c>
       <c r="E260" t="inlineStr">
         <is>
-          <t>Inmobiliaria Inca Dos Ltda.</t>
+          <t>División Ministro Hales de Codelco Chile</t>
         </is>
       </c>
       <c r="F260" t="n">
-        <v>13948</v>
+        <v>45000</v>
       </c>
       <c r="G260" t="inlineStr">
         <is>
@@ -12836,12 +12836,12 @@
       </c>
       <c r="H260" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I260" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5787635&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5773970&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J260" t="inlineStr">
@@ -12856,7 +12856,7 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Eléctrica 220 kv Encuentro - MH</t>
+          <t>Portal del Inca</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
@@ -12871,11 +12871,11 @@
       </c>
       <c r="E261" t="inlineStr">
         <is>
-          <t>División Ministro Hales de Codelco Chile</t>
+          <t>Inmobiliaria Inca Dos Ltda.</t>
         </is>
       </c>
       <c r="F261" t="n">
-        <v>45000</v>
+        <v>13948</v>
       </c>
       <c r="G261" t="inlineStr">
         <is>
@@ -12884,12 +12884,12 @@
       </c>
       <c r="H261" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I261" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5773970&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5787635&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J261" t="inlineStr">
@@ -13624,7 +13624,7 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
@@ -13639,11 +13639,11 @@
       </c>
       <c r="E277" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F277" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G277" t="inlineStr">
         <is>
@@ -13652,12 +13652,12 @@
       </c>
       <c r="H277" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I277" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J277" t="inlineStr">
@@ -13672,7 +13672,7 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
@@ -13687,11 +13687,11 @@
       </c>
       <c r="E278" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F278" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G278" t="inlineStr">
         <is>
@@ -13700,12 +13700,12 @@
       </c>
       <c r="H278" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I278" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J278" t="inlineStr">
@@ -18184,7 +18184,7 @@
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Efluentes Hospital del Cobre (e-seia)</t>
+          <t>Sondajes Prospección Ingeniería de Detalles Explotación Subterránea Yacimiento Chuquicamata (e-seia)</t>
         </is>
       </c>
       <c r="C372" t="inlineStr">
@@ -18203,7 +18203,7 @@
         </is>
       </c>
       <c r="F372" t="n">
-        <v>200</v>
+        <v>83584</v>
       </c>
       <c r="G372" t="inlineStr">
         <is>
@@ -18217,7 +18217,7 @@
       </c>
       <c r="I372" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3826608&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3737660&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J372" t="inlineStr">
@@ -18232,7 +18232,7 @@
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>Sondajes Prospección Ingeniería de Detalles Explotación Subterránea Yacimiento Chuquicamata (e-seia)</t>
+          <t>Planta de Tratamiento de Efluentes Hospital del Cobre (e-seia)</t>
         </is>
       </c>
       <c r="C373" t="inlineStr">
@@ -18251,7 +18251,7 @@
         </is>
       </c>
       <c r="F373" t="n">
-        <v>83584</v>
+        <v>200</v>
       </c>
       <c r="G373" t="inlineStr">
         <is>
@@ -18265,7 +18265,7 @@
       </c>
       <c r="I373" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3737660&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3826608&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J373" t="inlineStr">
@@ -19480,7 +19480,7 @@
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>Proyecto Explotación Subterránea Mina Santa Rosa (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C399" t="inlineStr">
@@ -19490,16 +19490,16 @@
       </c>
       <c r="D399" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E399" t="inlineStr">
         <is>
-          <t>Minera Quimal.S.A.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F399" t="n">
-        <v>500</v>
+        <v>1750</v>
       </c>
       <c r="G399" t="inlineStr">
         <is>
@@ -19508,12 +19508,12 @@
       </c>
       <c r="H399" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I399" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3310659&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J399" t="inlineStr">
@@ -19528,7 +19528,7 @@
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Proyecto Explotación Subterránea Mina Santa Rosa (e-seia)</t>
         </is>
       </c>
       <c r="C400" t="inlineStr">
@@ -19538,16 +19538,16 @@
       </c>
       <c r="D400" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E400" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Minera Quimal.S.A.</t>
         </is>
       </c>
       <c r="F400" t="n">
-        <v>1750</v>
+        <v>500</v>
       </c>
       <c r="G400" t="inlineStr">
         <is>
@@ -19556,12 +19556,12 @@
       </c>
       <c r="H400" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I400" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3310659&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J400" t="inlineStr">
@@ -20008,7 +20008,7 @@
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>Tratamiento de Impurezas en Ánodos y Cátodos de División Codelco Norte (e-seia)</t>
         </is>
       </c>
       <c r="C410" t="inlineStr">
@@ -20018,16 +20018,16 @@
       </c>
       <c r="D410" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E410" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Codelco Chile, División Chuquicamata</t>
         </is>
       </c>
       <c r="F410" t="n">
-        <v>250</v>
+        <v>50000</v>
       </c>
       <c r="G410" t="inlineStr">
         <is>
@@ -20036,12 +20036,12 @@
       </c>
       <c r="H410" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I410" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3118819&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J410" t="inlineStr">
@@ -20056,7 +20056,7 @@
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>Tratamiento de Impurezas en Ánodos y Cátodos de División Codelco Norte (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C411" t="inlineStr">
@@ -20066,16 +20066,16 @@
       </c>
       <c r="D411" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E411" t="inlineStr">
         <is>
-          <t>Codelco Chile, División Chuquicamata</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F411" t="n">
-        <v>50000</v>
+        <v>250</v>
       </c>
       <c r="G411" t="inlineStr">
         <is>
@@ -20084,12 +20084,12 @@
       </c>
       <c r="H411" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I411" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3118819&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J411" t="inlineStr">
@@ -20200,7 +20200,7 @@
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>Proyecto Exploración Minera Macarena - Leo (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C414" t="inlineStr">
@@ -20210,16 +20210,16 @@
       </c>
       <c r="D414" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E414" t="inlineStr">
         <is>
-          <t>Minera Fuego Limitada</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F414" t="n">
-        <v>150</v>
+        <v>1650</v>
       </c>
       <c r="G414" t="inlineStr">
         <is>
@@ -20233,7 +20233,7 @@
       </c>
       <c r="I414" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088992&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J414" t="inlineStr">
@@ -20248,7 +20248,7 @@
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>Proyecto Exploración Minera Macarena - Leo (e-seia)</t>
         </is>
       </c>
       <c r="C415" t="inlineStr">
@@ -20258,16 +20258,16 @@
       </c>
       <c r="D415" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E415" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Minera Fuego Limitada</t>
         </is>
       </c>
       <c r="F415" t="n">
-        <v>1650</v>
+        <v>150</v>
       </c>
       <c r="G415" t="inlineStr">
         <is>
@@ -20281,7 +20281,7 @@
       </c>
       <c r="I415" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088992&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J415" t="inlineStr">
@@ -23224,26 +23224,26 @@
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
+          <t>LIXIVIACIÓN DE SULFUROS SULFOLIX</t>
         </is>
       </c>
       <c r="C477" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D477" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E477" t="inlineStr">
         <is>
-          <t>Empresa de Residuos RESITER S.A.</t>
+          <t>SOCIEDAD CONTRACTUAL MINERA EL ABRA</t>
         </is>
       </c>
       <c r="F477" t="n">
-        <v>1</v>
+        <v>343000</v>
       </c>
       <c r="G477" t="inlineStr">
         <is>
@@ -23257,7 +23257,7 @@
       </c>
       <c r="I477" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2088630&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J477" t="inlineStr">
@@ -23272,26 +23272,26 @@
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>LIXIVIACIÓN DE SULFUROS SULFOLIX</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C478" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D478" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E478" t="inlineStr">
         <is>
-          <t>SOCIEDAD CONTRACTUAL MINERA EL ABRA</t>
+          <t>Empresa de Residuos RESITER S.A.</t>
         </is>
       </c>
       <c r="F478" t="n">
-        <v>343000</v>
+        <v>1</v>
       </c>
       <c r="G478" t="inlineStr">
         <is>
@@ -23305,7 +23305,7 @@
       </c>
       <c r="I478" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2088630&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J478" t="inlineStr">

--- a/data/Calama.xlsx
+++ b/data/Calama.xlsx
@@ -788,7 +788,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -3640,7 +3640,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>MODIFICACIONES AL PROYECTO EXTRACCIÓN Y MOVIMIENTO DE MINERALES MINA RADOMIRO TOMIC</t>
+          <t>Parque Fotovoltaico Verano de San Juan I</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3655,11 +3655,11 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Victoria Solar SpA</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>208848</v>
+        <v>15000</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
@@ -3668,12 +3668,12 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138513102&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138522682&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Verano de San Juan I</t>
+          <t>Parque Fotovoltaico Verano de San Juan II</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3703,7 +3703,7 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Victoria Solar SpA</t>
+          <t>Paine Energy SpA</t>
         </is>
       </c>
       <c r="F70" t="n">
@@ -3721,7 +3721,7 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138522682&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138526892&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -3736,7 +3736,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Verano de San Juan II</t>
+          <t>MODIFICACIONES AL PROYECTO EXTRACCIÓN Y MOVIMIENTO DE MINERALES MINA RADOMIRO TOMIC</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3751,11 +3751,11 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Paine Energy SpA</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>15000</v>
+        <v>208848</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
@@ -3764,12 +3764,12 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138526892&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138513102&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -8536,7 +8536,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -8551,11 +8551,11 @@
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F171" t="n">
-        <v>219</v>
+        <v>12500</v>
       </c>
       <c r="G171" t="inlineStr">
         <is>
@@ -8564,12 +8564,12 @@
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556590&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
@@ -8584,7 +8584,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -8603,7 +8603,7 @@
         </is>
       </c>
       <c r="F172" t="n">
-        <v>12500</v>
+        <v>10000</v>
       </c>
       <c r="G172" t="inlineStr">
         <is>
@@ -8617,7 +8617,7 @@
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
@@ -8632,7 +8632,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -8647,11 +8647,11 @@
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F173" t="n">
-        <v>10000</v>
+        <v>219</v>
       </c>
       <c r="G173" t="inlineStr">
         <is>
@@ -8660,12 +8660,12 @@
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556590&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -9160,26 +9160,26 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>RT Sulfuros</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F184" t="n">
-        <v>5.4</v>
+        <v>2050</v>
       </c>
       <c r="G184" t="inlineStr">
         <is>
@@ -9188,12 +9188,12 @@
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
@@ -9208,26 +9208,26 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>RT Sulfuros</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F185" t="n">
-        <v>2050</v>
+        <v>5.4</v>
       </c>
       <c r="G185" t="inlineStr">
         <is>
@@ -9236,12 +9236,12 @@
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -12808,7 +12808,7 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Eléctrica 220 kv Encuentro - MH</t>
+          <t>Portal del Inca</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
@@ -12823,11 +12823,11 @@
       </c>
       <c r="E260" t="inlineStr">
         <is>
-          <t>División Ministro Hales de Codelco Chile</t>
+          <t>Inmobiliaria Inca Dos Ltda.</t>
         </is>
       </c>
       <c r="F260" t="n">
-        <v>45000</v>
+        <v>13948</v>
       </c>
       <c r="G260" t="inlineStr">
         <is>
@@ -12836,12 +12836,12 @@
       </c>
       <c r="H260" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I260" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5773970&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5787635&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J260" t="inlineStr">
@@ -12856,7 +12856,7 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>Portal del Inca</t>
+          <t>Línea de Transmisión Eléctrica 220 kv Encuentro - MH</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
@@ -12871,11 +12871,11 @@
       </c>
       <c r="E261" t="inlineStr">
         <is>
-          <t>Inmobiliaria Inca Dos Ltda.</t>
+          <t>División Ministro Hales de Codelco Chile</t>
         </is>
       </c>
       <c r="F261" t="n">
-        <v>13948</v>
+        <v>45000</v>
       </c>
       <c r="G261" t="inlineStr">
         <is>
@@ -12884,12 +12884,12 @@
       </c>
       <c r="H261" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I261" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5787635&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5773970&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J261" t="inlineStr">
@@ -13624,7 +13624,7 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
@@ -13639,11 +13639,11 @@
       </c>
       <c r="E277" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F277" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G277" t="inlineStr">
         <is>
@@ -13652,12 +13652,12 @@
       </c>
       <c r="H277" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I277" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J277" t="inlineStr">
@@ -13672,7 +13672,7 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
@@ -13687,11 +13687,11 @@
       </c>
       <c r="E278" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F278" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G278" t="inlineStr">
         <is>
@@ -13700,12 +13700,12 @@
       </c>
       <c r="H278" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I278" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J278" t="inlineStr">
@@ -18184,7 +18184,7 @@
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>Sondajes Prospección Ingeniería de Detalles Explotación Subterránea Yacimiento Chuquicamata (e-seia)</t>
+          <t>Planta de Tratamiento de Efluentes Hospital del Cobre (e-seia)</t>
         </is>
       </c>
       <c r="C372" t="inlineStr">
@@ -18203,7 +18203,7 @@
         </is>
       </c>
       <c r="F372" t="n">
-        <v>83584</v>
+        <v>200</v>
       </c>
       <c r="G372" t="inlineStr">
         <is>
@@ -18217,7 +18217,7 @@
       </c>
       <c r="I372" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3737660&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3826608&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J372" t="inlineStr">
@@ -18232,7 +18232,7 @@
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Efluentes Hospital del Cobre (e-seia)</t>
+          <t>Sondajes Prospección Ingeniería de Detalles Explotación Subterránea Yacimiento Chuquicamata (e-seia)</t>
         </is>
       </c>
       <c r="C373" t="inlineStr">
@@ -18251,7 +18251,7 @@
         </is>
       </c>
       <c r="F373" t="n">
-        <v>200</v>
+        <v>83584</v>
       </c>
       <c r="G373" t="inlineStr">
         <is>
@@ -18265,7 +18265,7 @@
       </c>
       <c r="I373" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3826608&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3737660&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J373" t="inlineStr">
@@ -19480,7 +19480,7 @@
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Proyecto Explotación Subterránea Mina Santa Rosa (e-seia)</t>
         </is>
       </c>
       <c r="C399" t="inlineStr">
@@ -19490,16 +19490,16 @@
       </c>
       <c r="D399" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E399" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Minera Quimal.S.A.</t>
         </is>
       </c>
       <c r="F399" t="n">
-        <v>1750</v>
+        <v>500</v>
       </c>
       <c r="G399" t="inlineStr">
         <is>
@@ -19508,12 +19508,12 @@
       </c>
       <c r="H399" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I399" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3310659&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J399" t="inlineStr">
@@ -19528,7 +19528,7 @@
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>Proyecto Explotación Subterránea Mina Santa Rosa (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C400" t="inlineStr">
@@ -19538,16 +19538,16 @@
       </c>
       <c r="D400" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E400" t="inlineStr">
         <is>
-          <t>Minera Quimal.S.A.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F400" t="n">
-        <v>500</v>
+        <v>1750</v>
       </c>
       <c r="G400" t="inlineStr">
         <is>
@@ -19556,12 +19556,12 @@
       </c>
       <c r="H400" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I400" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3310659&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J400" t="inlineStr">
@@ -20008,7 +20008,7 @@
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>Tratamiento de Impurezas en Ánodos y Cátodos de División Codelco Norte (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C410" t="inlineStr">
@@ -20018,16 +20018,16 @@
       </c>
       <c r="D410" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E410" t="inlineStr">
         <is>
-          <t>Codelco Chile, División Chuquicamata</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F410" t="n">
-        <v>50000</v>
+        <v>250</v>
       </c>
       <c r="G410" t="inlineStr">
         <is>
@@ -20036,12 +20036,12 @@
       </c>
       <c r="H410" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I410" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3118819&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J410" t="inlineStr">
@@ -20056,7 +20056,7 @@
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>Tratamiento de Impurezas en Ánodos y Cátodos de División Codelco Norte (e-seia)</t>
         </is>
       </c>
       <c r="C411" t="inlineStr">
@@ -20066,16 +20066,16 @@
       </c>
       <c r="D411" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E411" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Codelco Chile, División Chuquicamata</t>
         </is>
       </c>
       <c r="F411" t="n">
-        <v>250</v>
+        <v>50000</v>
       </c>
       <c r="G411" t="inlineStr">
         <is>
@@ -20084,12 +20084,12 @@
       </c>
       <c r="H411" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I411" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3118819&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J411" t="inlineStr">
@@ -20200,7 +20200,7 @@
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>Proyecto Exploración Minera Macarena - Leo (e-seia)</t>
         </is>
       </c>
       <c r="C414" t="inlineStr">
@@ -20210,16 +20210,16 @@
       </c>
       <c r="D414" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E414" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Minera Fuego Limitada</t>
         </is>
       </c>
       <c r="F414" t="n">
-        <v>1650</v>
+        <v>150</v>
       </c>
       <c r="G414" t="inlineStr">
         <is>
@@ -20233,7 +20233,7 @@
       </c>
       <c r="I414" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088992&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J414" t="inlineStr">
@@ -20248,7 +20248,7 @@
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>Proyecto Exploración Minera Macarena - Leo (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C415" t="inlineStr">
@@ -20258,16 +20258,16 @@
       </c>
       <c r="D415" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E415" t="inlineStr">
         <is>
-          <t>Minera Fuego Limitada</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F415" t="n">
-        <v>150</v>
+        <v>1650</v>
       </c>
       <c r="G415" t="inlineStr">
         <is>
@@ -20281,7 +20281,7 @@
       </c>
       <c r="I415" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088992&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J415" t="inlineStr">
@@ -23224,26 +23224,26 @@
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>LIXIVIACIÓN DE SULFUROS SULFOLIX</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C477" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D477" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E477" t="inlineStr">
         <is>
-          <t>SOCIEDAD CONTRACTUAL MINERA EL ABRA</t>
+          <t>Empresa de Residuos RESITER S.A.</t>
         </is>
       </c>
       <c r="F477" t="n">
-        <v>343000</v>
+        <v>1</v>
       </c>
       <c r="G477" t="inlineStr">
         <is>
@@ -23257,7 +23257,7 @@
       </c>
       <c r="I477" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2088630&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J477" t="inlineStr">
@@ -23272,26 +23272,26 @@
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
+          <t>LIXIVIACIÓN DE SULFUROS SULFOLIX</t>
         </is>
       </c>
       <c r="C478" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D478" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E478" t="inlineStr">
         <is>
-          <t>Empresa de Residuos RESITER S.A.</t>
+          <t>SOCIEDAD CONTRACTUAL MINERA EL ABRA</t>
         </is>
       </c>
       <c r="F478" t="n">
-        <v>1</v>
+        <v>343000</v>
       </c>
       <c r="G478" t="inlineStr">
         <is>
@@ -23305,7 +23305,7 @@
       </c>
       <c r="I478" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2088630&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J478" t="inlineStr">

--- a/data/Calama.xlsx
+++ b/data/Calama.xlsx
@@ -3640,7 +3640,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Verano de San Juan I</t>
+          <t>MODIFICACIONES AL PROYECTO EXTRACCIÓN Y MOVIMIENTO DE MINERALES MINA RADOMIRO TOMIC</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3655,11 +3655,11 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Victoria Solar SpA</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>15000</v>
+        <v>208848</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
@@ -3668,12 +3668,12 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138522682&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138513102&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Verano de San Juan II</t>
+          <t>Parque Fotovoltaico Verano de San Juan I</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3703,7 +3703,7 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Paine Energy SpA</t>
+          <t>Victoria Solar SpA</t>
         </is>
       </c>
       <c r="F70" t="n">
@@ -3721,7 +3721,7 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138526892&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138522682&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -3736,7 +3736,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>MODIFICACIONES AL PROYECTO EXTRACCIÓN Y MOVIMIENTO DE MINERALES MINA RADOMIRO TOMIC</t>
+          <t>Parque Fotovoltaico Verano de San Juan II</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3751,11 +3751,11 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Paine Energy SpA</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>208848</v>
+        <v>15000</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
@@ -3764,12 +3764,12 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138513102&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138526892&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -8536,7 +8536,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -8551,11 +8551,11 @@
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F171" t="n">
-        <v>12500</v>
+        <v>219</v>
       </c>
       <c r="G171" t="inlineStr">
         <is>
@@ -8564,12 +8564,12 @@
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556590&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
@@ -8584,7 +8584,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
+          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -8603,7 +8603,7 @@
         </is>
       </c>
       <c r="F172" t="n">
-        <v>10000</v>
+        <v>12500</v>
       </c>
       <c r="G172" t="inlineStr">
         <is>
@@ -8617,7 +8617,7 @@
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
@@ -8632,7 +8632,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -8647,11 +8647,11 @@
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F173" t="n">
-        <v>219</v>
+        <v>10000</v>
       </c>
       <c r="G173" t="inlineStr">
         <is>
@@ -8660,12 +8660,12 @@
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556590&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -9160,26 +9160,26 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>RT Sulfuros</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F184" t="n">
-        <v>2050</v>
+        <v>5.4</v>
       </c>
       <c r="G184" t="inlineStr">
         <is>
@@ -9188,12 +9188,12 @@
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
@@ -9208,26 +9208,26 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>RT Sulfuros</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F185" t="n">
-        <v>5.4</v>
+        <v>2050</v>
       </c>
       <c r="G185" t="inlineStr">
         <is>
@@ -9236,12 +9236,12 @@
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -12808,7 +12808,7 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>Portal del Inca</t>
+          <t>Línea de Transmisión Eléctrica 220 kv Encuentro - MH</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
@@ -12823,11 +12823,11 @@
       </c>
       <c r="E260" t="inlineStr">
         <is>
-          <t>Inmobiliaria Inca Dos Ltda.</t>
+          <t>División Ministro Hales de Codelco Chile</t>
         </is>
       </c>
       <c r="F260" t="n">
-        <v>13948</v>
+        <v>45000</v>
       </c>
       <c r="G260" t="inlineStr">
         <is>
@@ -12836,12 +12836,12 @@
       </c>
       <c r="H260" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I260" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5787635&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5773970&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J260" t="inlineStr">
@@ -12856,7 +12856,7 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Eléctrica 220 kv Encuentro - MH</t>
+          <t>Portal del Inca</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
@@ -12871,11 +12871,11 @@
       </c>
       <c r="E261" t="inlineStr">
         <is>
-          <t>División Ministro Hales de Codelco Chile</t>
+          <t>Inmobiliaria Inca Dos Ltda.</t>
         </is>
       </c>
       <c r="F261" t="n">
-        <v>45000</v>
+        <v>13948</v>
       </c>
       <c r="G261" t="inlineStr">
         <is>
@@ -12884,12 +12884,12 @@
       </c>
       <c r="H261" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I261" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5773970&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5787635&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J261" t="inlineStr">
@@ -13624,7 +13624,7 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
@@ -13639,11 +13639,11 @@
       </c>
       <c r="E277" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F277" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G277" t="inlineStr">
         <is>
@@ -13652,12 +13652,12 @@
       </c>
       <c r="H277" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I277" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J277" t="inlineStr">
@@ -13672,7 +13672,7 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
@@ -13687,11 +13687,11 @@
       </c>
       <c r="E278" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F278" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G278" t="inlineStr">
         <is>
@@ -13700,12 +13700,12 @@
       </c>
       <c r="H278" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I278" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J278" t="inlineStr">
@@ -18184,7 +18184,7 @@
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Efluentes Hospital del Cobre (e-seia)</t>
+          <t>Sondajes Prospección Ingeniería de Detalles Explotación Subterránea Yacimiento Chuquicamata (e-seia)</t>
         </is>
       </c>
       <c r="C372" t="inlineStr">
@@ -18203,7 +18203,7 @@
         </is>
       </c>
       <c r="F372" t="n">
-        <v>200</v>
+        <v>83584</v>
       </c>
       <c r="G372" t="inlineStr">
         <is>
@@ -18217,7 +18217,7 @@
       </c>
       <c r="I372" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3826608&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3737660&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J372" t="inlineStr">
@@ -18232,7 +18232,7 @@
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>Sondajes Prospección Ingeniería de Detalles Explotación Subterránea Yacimiento Chuquicamata (e-seia)</t>
+          <t>Planta de Tratamiento de Efluentes Hospital del Cobre (e-seia)</t>
         </is>
       </c>
       <c r="C373" t="inlineStr">
@@ -18251,7 +18251,7 @@
         </is>
       </c>
       <c r="F373" t="n">
-        <v>83584</v>
+        <v>200</v>
       </c>
       <c r="G373" t="inlineStr">
         <is>
@@ -18265,7 +18265,7 @@
       </c>
       <c r="I373" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3737660&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3826608&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J373" t="inlineStr">
@@ -19480,7 +19480,7 @@
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>Proyecto Explotación Subterránea Mina Santa Rosa (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C399" t="inlineStr">
@@ -19490,16 +19490,16 @@
       </c>
       <c r="D399" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E399" t="inlineStr">
         <is>
-          <t>Minera Quimal.S.A.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F399" t="n">
-        <v>500</v>
+        <v>1750</v>
       </c>
       <c r="G399" t="inlineStr">
         <is>
@@ -19508,12 +19508,12 @@
       </c>
       <c r="H399" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I399" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3310659&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J399" t="inlineStr">
@@ -19528,7 +19528,7 @@
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Proyecto Explotación Subterránea Mina Santa Rosa (e-seia)</t>
         </is>
       </c>
       <c r="C400" t="inlineStr">
@@ -19538,16 +19538,16 @@
       </c>
       <c r="D400" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E400" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Minera Quimal.S.A.</t>
         </is>
       </c>
       <c r="F400" t="n">
-        <v>1750</v>
+        <v>500</v>
       </c>
       <c r="G400" t="inlineStr">
         <is>
@@ -19556,12 +19556,12 @@
       </c>
       <c r="H400" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I400" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3310659&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J400" t="inlineStr">
@@ -20008,7 +20008,7 @@
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>Tratamiento de Impurezas en Ánodos y Cátodos de División Codelco Norte (e-seia)</t>
         </is>
       </c>
       <c r="C410" t="inlineStr">
@@ -20018,16 +20018,16 @@
       </c>
       <c r="D410" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E410" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Codelco Chile, División Chuquicamata</t>
         </is>
       </c>
       <c r="F410" t="n">
-        <v>250</v>
+        <v>50000</v>
       </c>
       <c r="G410" t="inlineStr">
         <is>
@@ -20036,12 +20036,12 @@
       </c>
       <c r="H410" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I410" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3118819&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J410" t="inlineStr">
@@ -20056,7 +20056,7 @@
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>Tratamiento de Impurezas en Ánodos y Cátodos de División Codelco Norte (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C411" t="inlineStr">
@@ -20066,16 +20066,16 @@
       </c>
       <c r="D411" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E411" t="inlineStr">
         <is>
-          <t>Codelco Chile, División Chuquicamata</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F411" t="n">
-        <v>50000</v>
+        <v>250</v>
       </c>
       <c r="G411" t="inlineStr">
         <is>
@@ -20084,12 +20084,12 @@
       </c>
       <c r="H411" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I411" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3118819&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J411" t="inlineStr">
@@ -20200,7 +20200,7 @@
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>Proyecto Exploración Minera Macarena - Leo (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C414" t="inlineStr">
@@ -20210,16 +20210,16 @@
       </c>
       <c r="D414" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E414" t="inlineStr">
         <is>
-          <t>Minera Fuego Limitada</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F414" t="n">
-        <v>150</v>
+        <v>1650</v>
       </c>
       <c r="G414" t="inlineStr">
         <is>
@@ -20233,7 +20233,7 @@
       </c>
       <c r="I414" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088992&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J414" t="inlineStr">
@@ -20248,7 +20248,7 @@
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>Proyecto Exploración Minera Macarena - Leo (e-seia)</t>
         </is>
       </c>
       <c r="C415" t="inlineStr">
@@ -20258,16 +20258,16 @@
       </c>
       <c r="D415" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E415" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Minera Fuego Limitada</t>
         </is>
       </c>
       <c r="F415" t="n">
-        <v>1650</v>
+        <v>150</v>
       </c>
       <c r="G415" t="inlineStr">
         <is>
@@ -20281,7 +20281,7 @@
       </c>
       <c r="I415" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088992&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J415" t="inlineStr">
@@ -23224,26 +23224,26 @@
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
+          <t>LIXIVIACIÓN DE SULFUROS SULFOLIX</t>
         </is>
       </c>
       <c r="C477" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D477" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E477" t="inlineStr">
         <is>
-          <t>Empresa de Residuos RESITER S.A.</t>
+          <t>SOCIEDAD CONTRACTUAL MINERA EL ABRA</t>
         </is>
       </c>
       <c r="F477" t="n">
-        <v>1</v>
+        <v>343000</v>
       </c>
       <c r="G477" t="inlineStr">
         <is>
@@ -23257,7 +23257,7 @@
       </c>
       <c r="I477" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2088630&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J477" t="inlineStr">
@@ -23272,26 +23272,26 @@
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>LIXIVIACIÓN DE SULFUROS SULFOLIX</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C478" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D478" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E478" t="inlineStr">
         <is>
-          <t>SOCIEDAD CONTRACTUAL MINERA EL ABRA</t>
+          <t>Empresa de Residuos RESITER S.A.</t>
         </is>
       </c>
       <c r="F478" t="n">
-        <v>343000</v>
+        <v>1</v>
       </c>
       <c r="G478" t="inlineStr">
         <is>
@@ -23305,7 +23305,7 @@
       </c>
       <c r="I478" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2088630&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J478" t="inlineStr">

--- a/data/Calama.xlsx
+++ b/data/Calama.xlsx
@@ -3640,7 +3640,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>MODIFICACIONES AL PROYECTO EXTRACCIÓN Y MOVIMIENTO DE MINERALES MINA RADOMIRO TOMIC</t>
+          <t>Parque Fotovoltaico Verano de San Juan I</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3655,11 +3655,11 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Victoria Solar SpA</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>208848</v>
+        <v>15000</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
@@ -3668,12 +3668,12 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138513102&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138522682&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Verano de San Juan I</t>
+          <t>Parque Fotovoltaico Verano de San Juan II</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3703,7 +3703,7 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Victoria Solar SpA</t>
+          <t>Paine Energy SpA</t>
         </is>
       </c>
       <c r="F70" t="n">
@@ -3721,7 +3721,7 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138522682&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138526892&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -3736,7 +3736,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Verano de San Juan II</t>
+          <t>MODIFICACIONES AL PROYECTO EXTRACCIÓN Y MOVIMIENTO DE MINERALES MINA RADOMIRO TOMIC</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3751,11 +3751,11 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Paine Energy SpA</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>15000</v>
+        <v>208848</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
@@ -3764,12 +3764,12 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138526892&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138513102&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -8536,7 +8536,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -8551,11 +8551,11 @@
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F171" t="n">
-        <v>219</v>
+        <v>12500</v>
       </c>
       <c r="G171" t="inlineStr">
         <is>
@@ -8564,12 +8564,12 @@
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556590&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
@@ -8584,7 +8584,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -8603,7 +8603,7 @@
         </is>
       </c>
       <c r="F172" t="n">
-        <v>12500</v>
+        <v>10000</v>
       </c>
       <c r="G172" t="inlineStr">
         <is>
@@ -8617,7 +8617,7 @@
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
@@ -8632,7 +8632,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -8647,11 +8647,11 @@
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F173" t="n">
-        <v>10000</v>
+        <v>219</v>
       </c>
       <c r="G173" t="inlineStr">
         <is>
@@ -8660,12 +8660,12 @@
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556590&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -9160,26 +9160,26 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>RT Sulfuros</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F184" t="n">
-        <v>5.4</v>
+        <v>2050</v>
       </c>
       <c r="G184" t="inlineStr">
         <is>
@@ -9188,12 +9188,12 @@
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
@@ -9208,26 +9208,26 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>RT Sulfuros</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F185" t="n">
-        <v>2050</v>
+        <v>5.4</v>
       </c>
       <c r="G185" t="inlineStr">
         <is>
@@ -9236,12 +9236,12 @@
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -12808,7 +12808,7 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Eléctrica 220 kv Encuentro - MH</t>
+          <t>Portal del Inca</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
@@ -12823,11 +12823,11 @@
       </c>
       <c r="E260" t="inlineStr">
         <is>
-          <t>División Ministro Hales de Codelco Chile</t>
+          <t>Inmobiliaria Inca Dos Ltda.</t>
         </is>
       </c>
       <c r="F260" t="n">
-        <v>45000</v>
+        <v>13948</v>
       </c>
       <c r="G260" t="inlineStr">
         <is>
@@ -12836,12 +12836,12 @@
       </c>
       <c r="H260" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I260" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5773970&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5787635&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J260" t="inlineStr">
@@ -12856,7 +12856,7 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>Portal del Inca</t>
+          <t>Línea de Transmisión Eléctrica 220 kv Encuentro - MH</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
@@ -12871,11 +12871,11 @@
       </c>
       <c r="E261" t="inlineStr">
         <is>
-          <t>Inmobiliaria Inca Dos Ltda.</t>
+          <t>División Ministro Hales de Codelco Chile</t>
         </is>
       </c>
       <c r="F261" t="n">
-        <v>13948</v>
+        <v>45000</v>
       </c>
       <c r="G261" t="inlineStr">
         <is>
@@ -12884,12 +12884,12 @@
       </c>
       <c r="H261" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I261" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5787635&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5773970&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J261" t="inlineStr">
@@ -13624,7 +13624,7 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
@@ -13639,11 +13639,11 @@
       </c>
       <c r="E277" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F277" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G277" t="inlineStr">
         <is>
@@ -13652,12 +13652,12 @@
       </c>
       <c r="H277" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I277" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J277" t="inlineStr">
@@ -13672,7 +13672,7 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
@@ -13687,11 +13687,11 @@
       </c>
       <c r="E278" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F278" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G278" t="inlineStr">
         <is>
@@ -13700,12 +13700,12 @@
       </c>
       <c r="H278" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I278" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J278" t="inlineStr">
@@ -18184,7 +18184,7 @@
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>Sondajes Prospección Ingeniería de Detalles Explotación Subterránea Yacimiento Chuquicamata (e-seia)</t>
+          <t>Planta de Tratamiento de Efluentes Hospital del Cobre (e-seia)</t>
         </is>
       </c>
       <c r="C372" t="inlineStr">
@@ -18203,7 +18203,7 @@
         </is>
       </c>
       <c r="F372" t="n">
-        <v>83584</v>
+        <v>200</v>
       </c>
       <c r="G372" t="inlineStr">
         <is>
@@ -18217,7 +18217,7 @@
       </c>
       <c r="I372" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3737660&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3826608&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J372" t="inlineStr">
@@ -18232,7 +18232,7 @@
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Efluentes Hospital del Cobre (e-seia)</t>
+          <t>Sondajes Prospección Ingeniería de Detalles Explotación Subterránea Yacimiento Chuquicamata (e-seia)</t>
         </is>
       </c>
       <c r="C373" t="inlineStr">
@@ -18251,7 +18251,7 @@
         </is>
       </c>
       <c r="F373" t="n">
-        <v>200</v>
+        <v>83584</v>
       </c>
       <c r="G373" t="inlineStr">
         <is>
@@ -18265,7 +18265,7 @@
       </c>
       <c r="I373" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3826608&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3737660&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J373" t="inlineStr">
@@ -19480,7 +19480,7 @@
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Proyecto Explotación Subterránea Mina Santa Rosa (e-seia)</t>
         </is>
       </c>
       <c r="C399" t="inlineStr">
@@ -19490,16 +19490,16 @@
       </c>
       <c r="D399" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E399" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Minera Quimal.S.A.</t>
         </is>
       </c>
       <c r="F399" t="n">
-        <v>1750</v>
+        <v>500</v>
       </c>
       <c r="G399" t="inlineStr">
         <is>
@@ -19508,12 +19508,12 @@
       </c>
       <c r="H399" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I399" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3310659&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J399" t="inlineStr">
@@ -19528,7 +19528,7 @@
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>Proyecto Explotación Subterránea Mina Santa Rosa (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C400" t="inlineStr">
@@ -19538,16 +19538,16 @@
       </c>
       <c r="D400" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E400" t="inlineStr">
         <is>
-          <t>Minera Quimal.S.A.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F400" t="n">
-        <v>500</v>
+        <v>1750</v>
       </c>
       <c r="G400" t="inlineStr">
         <is>
@@ -19556,12 +19556,12 @@
       </c>
       <c r="H400" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I400" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3310659&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J400" t="inlineStr">
@@ -20008,7 +20008,7 @@
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>Tratamiento de Impurezas en Ánodos y Cátodos de División Codelco Norte (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C410" t="inlineStr">
@@ -20018,16 +20018,16 @@
       </c>
       <c r="D410" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E410" t="inlineStr">
         <is>
-          <t>Codelco Chile, División Chuquicamata</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F410" t="n">
-        <v>50000</v>
+        <v>250</v>
       </c>
       <c r="G410" t="inlineStr">
         <is>
@@ -20036,12 +20036,12 @@
       </c>
       <c r="H410" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I410" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3118819&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J410" t="inlineStr">
@@ -20056,7 +20056,7 @@
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>Tratamiento de Impurezas en Ánodos y Cátodos de División Codelco Norte (e-seia)</t>
         </is>
       </c>
       <c r="C411" t="inlineStr">
@@ -20066,16 +20066,16 @@
       </c>
       <c r="D411" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E411" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Codelco Chile, División Chuquicamata</t>
         </is>
       </c>
       <c r="F411" t="n">
-        <v>250</v>
+        <v>50000</v>
       </c>
       <c r="G411" t="inlineStr">
         <is>
@@ -20084,12 +20084,12 @@
       </c>
       <c r="H411" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I411" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3118819&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J411" t="inlineStr">
@@ -20200,7 +20200,7 @@
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>Proyecto Exploración Minera Macarena - Leo (e-seia)</t>
         </is>
       </c>
       <c r="C414" t="inlineStr">
@@ -20210,16 +20210,16 @@
       </c>
       <c r="D414" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E414" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Minera Fuego Limitada</t>
         </is>
       </c>
       <c r="F414" t="n">
-        <v>1650</v>
+        <v>150</v>
       </c>
       <c r="G414" t="inlineStr">
         <is>
@@ -20233,7 +20233,7 @@
       </c>
       <c r="I414" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088992&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J414" t="inlineStr">
@@ -20248,7 +20248,7 @@
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>Proyecto Exploración Minera Macarena - Leo (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C415" t="inlineStr">
@@ -20258,16 +20258,16 @@
       </c>
       <c r="D415" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E415" t="inlineStr">
         <is>
-          <t>Minera Fuego Limitada</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F415" t="n">
-        <v>150</v>
+        <v>1650</v>
       </c>
       <c r="G415" t="inlineStr">
         <is>
@@ -20281,7 +20281,7 @@
       </c>
       <c r="I415" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088992&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J415" t="inlineStr">
@@ -23224,26 +23224,26 @@
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>LIXIVIACIÓN DE SULFUROS SULFOLIX</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C477" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D477" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E477" t="inlineStr">
         <is>
-          <t>SOCIEDAD CONTRACTUAL MINERA EL ABRA</t>
+          <t>Empresa de Residuos RESITER S.A.</t>
         </is>
       </c>
       <c r="F477" t="n">
-        <v>343000</v>
+        <v>1</v>
       </c>
       <c r="G477" t="inlineStr">
         <is>
@@ -23257,7 +23257,7 @@
       </c>
       <c r="I477" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2088630&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J477" t="inlineStr">
@@ -23272,26 +23272,26 @@
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
+          <t>LIXIVIACIÓN DE SULFUROS SULFOLIX</t>
         </is>
       </c>
       <c r="C478" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D478" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E478" t="inlineStr">
         <is>
-          <t>Empresa de Residuos RESITER S.A.</t>
+          <t>SOCIEDAD CONTRACTUAL MINERA EL ABRA</t>
         </is>
       </c>
       <c r="F478" t="n">
-        <v>1</v>
+        <v>343000</v>
       </c>
       <c r="G478" t="inlineStr">
         <is>
@@ -23305,7 +23305,7 @@
       </c>
       <c r="I478" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2088630&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J478" t="inlineStr">

--- a/data/Calama.xlsx
+++ b/data/Calama.xlsx
@@ -3688,7 +3688,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>MODIFICACIONES AL PROYECTO EXTRACCIÓN Y MOVIMIENTO DE MINERALES MINA RADOMIRO TOMIC</t>
+          <t>Parque Fotovoltaico Verano de San Juan I</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3703,11 +3703,11 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Victoria Solar SpA</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>208848</v>
+        <v>15000</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
@@ -3716,12 +3716,12 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138513102&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138522682&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -3736,7 +3736,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Verano de San Juan I</t>
+          <t>Parque Fotovoltaico Verano de San Juan II</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3751,7 +3751,7 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Victoria Solar SpA</t>
+          <t>Paine Energy SpA</t>
         </is>
       </c>
       <c r="F71" t="n">
@@ -3769,7 +3769,7 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138522682&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138526892&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3784,7 +3784,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Verano de San Juan II</t>
+          <t>MODIFICACIONES AL PROYECTO EXTRACCIÓN Y MOVIMIENTO DE MINERALES MINA RADOMIRO TOMIC</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3799,11 +3799,11 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Paine Energy SpA</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>15000</v>
+        <v>208848</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
@@ -3812,12 +3812,12 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138526892&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138513102&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -7720,7 +7720,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>BARRIO CONTRATISTA GERENCIA DE PROYECTOS</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -7730,16 +7730,16 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>Codelco Chile, División Chuquicamata</t>
         </is>
       </c>
       <c r="F154" t="n">
-        <v>1200</v>
+        <v>8000</v>
       </c>
       <c r="G154" t="inlineStr">
         <is>
@@ -7753,7 +7753,7 @@
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128904823&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -7768,7 +7768,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Proyecto Fotovoltaico Azabache</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -7778,16 +7778,16 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>Almeyda Solar SpA.</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F155" t="n">
-        <v>140000</v>
+        <v>1200</v>
       </c>
       <c r="G155" t="inlineStr">
         <is>
@@ -7801,7 +7801,7 @@
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128969457&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -7816,7 +7816,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Proyecto Fotovoltaico Azabache</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -7826,16 +7826,16 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Almeyda Solar SpA.</t>
         </is>
       </c>
       <c r="F156" t="n">
-        <v>0</v>
+        <v>140000</v>
       </c>
       <c r="G156" t="inlineStr">
         <is>
@@ -7849,7 +7849,7 @@
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128969457&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -7864,7 +7864,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>BARRIO CONTRATISTA GERENCIA DE PROYECTOS</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -7874,16 +7874,16 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>Codelco Chile, División Chuquicamata</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F157" t="n">
-        <v>8000</v>
+        <v>0</v>
       </c>
       <c r="G157" t="inlineStr">
         <is>
@@ -7897,7 +7897,7 @@
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128904823&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -8584,7 +8584,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -8599,11 +8599,11 @@
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F172" t="n">
-        <v>219</v>
+        <v>12500</v>
       </c>
       <c r="G172" t="inlineStr">
         <is>
@@ -8612,12 +8612,12 @@
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556590&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
@@ -8632,7 +8632,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -8651,7 +8651,7 @@
         </is>
       </c>
       <c r="F173" t="n">
-        <v>12500</v>
+        <v>10000</v>
       </c>
       <c r="G173" t="inlineStr">
         <is>
@@ -8665,7 +8665,7 @@
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -8680,7 +8680,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -8695,11 +8695,11 @@
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F174" t="n">
-        <v>10000</v>
+        <v>219</v>
       </c>
       <c r="G174" t="inlineStr">
         <is>
@@ -8708,12 +8708,12 @@
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556590&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -9208,26 +9208,26 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>RT Sulfuros</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F185" t="n">
-        <v>5.4</v>
+        <v>2050</v>
       </c>
       <c r="G185" t="inlineStr">
         <is>
@@ -9236,12 +9236,12 @@
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -9256,26 +9256,26 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>RT Sulfuros</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F186" t="n">
-        <v>2050</v>
+        <v>5.4</v>
       </c>
       <c r="G186" t="inlineStr">
         <is>
@@ -9284,12 +9284,12 @@
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
@@ -12856,7 +12856,7 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Eléctrica 220 kv Encuentro - MH</t>
+          <t>Portal del Inca</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
@@ -12871,11 +12871,11 @@
       </c>
       <c r="E261" t="inlineStr">
         <is>
-          <t>División Ministro Hales de Codelco Chile</t>
+          <t>Inmobiliaria Inca Dos Ltda.</t>
         </is>
       </c>
       <c r="F261" t="n">
-        <v>45000</v>
+        <v>13948</v>
       </c>
       <c r="G261" t="inlineStr">
         <is>
@@ -12884,12 +12884,12 @@
       </c>
       <c r="H261" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I261" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5773970&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5787635&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J261" t="inlineStr">
@@ -12904,7 +12904,7 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>Portal del Inca</t>
+          <t>Línea de Transmisión Eléctrica 220 kv Encuentro - MH</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
@@ -12919,11 +12919,11 @@
       </c>
       <c r="E262" t="inlineStr">
         <is>
-          <t>Inmobiliaria Inca Dos Ltda.</t>
+          <t>División Ministro Hales de Codelco Chile</t>
         </is>
       </c>
       <c r="F262" t="n">
-        <v>13948</v>
+        <v>45000</v>
       </c>
       <c r="G262" t="inlineStr">
         <is>
@@ -12932,12 +12932,12 @@
       </c>
       <c r="H262" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I262" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5787635&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5773970&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J262" t="inlineStr">
@@ -13672,7 +13672,7 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
@@ -13687,11 +13687,11 @@
       </c>
       <c r="E278" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F278" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G278" t="inlineStr">
         <is>
@@ -13700,12 +13700,12 @@
       </c>
       <c r="H278" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I278" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J278" t="inlineStr">
@@ -13720,7 +13720,7 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
@@ -13735,11 +13735,11 @@
       </c>
       <c r="E279" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F279" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G279" t="inlineStr">
         <is>
@@ -13748,12 +13748,12 @@
       </c>
       <c r="H279" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I279" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J279" t="inlineStr">
@@ -19528,7 +19528,7 @@
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Proyecto Explotación Subterránea Mina Santa Rosa (e-seia)</t>
         </is>
       </c>
       <c r="C400" t="inlineStr">
@@ -19538,16 +19538,16 @@
       </c>
       <c r="D400" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E400" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Minera Quimal.S.A.</t>
         </is>
       </c>
       <c r="F400" t="n">
-        <v>1750</v>
+        <v>500</v>
       </c>
       <c r="G400" t="inlineStr">
         <is>
@@ -19556,12 +19556,12 @@
       </c>
       <c r="H400" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I400" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3310659&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J400" t="inlineStr">
@@ -19576,7 +19576,7 @@
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>Proyecto Explotación Subterránea Mina Santa Rosa (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C401" t="inlineStr">
@@ -19586,16 +19586,16 @@
       </c>
       <c r="D401" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E401" t="inlineStr">
         <is>
-          <t>Minera Quimal.S.A.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F401" t="n">
-        <v>500</v>
+        <v>1750</v>
       </c>
       <c r="G401" t="inlineStr">
         <is>
@@ -19604,12 +19604,12 @@
       </c>
       <c r="H401" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I401" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3310659&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J401" t="inlineStr">
@@ -20056,7 +20056,7 @@
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>Tratamiento de Impurezas en Ánodos y Cátodos de División Codelco Norte (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C411" t="inlineStr">
@@ -20066,16 +20066,16 @@
       </c>
       <c r="D411" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E411" t="inlineStr">
         <is>
-          <t>Codelco Chile, División Chuquicamata</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F411" t="n">
-        <v>50000</v>
+        <v>250</v>
       </c>
       <c r="G411" t="inlineStr">
         <is>
@@ -20084,12 +20084,12 @@
       </c>
       <c r="H411" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I411" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3118819&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J411" t="inlineStr">
@@ -20104,7 +20104,7 @@
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>Tratamiento de Impurezas en Ánodos y Cátodos de División Codelco Norte (e-seia)</t>
         </is>
       </c>
       <c r="C412" t="inlineStr">
@@ -20114,16 +20114,16 @@
       </c>
       <c r="D412" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E412" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Codelco Chile, División Chuquicamata</t>
         </is>
       </c>
       <c r="F412" t="n">
-        <v>250</v>
+        <v>50000</v>
       </c>
       <c r="G412" t="inlineStr">
         <is>
@@ -20132,12 +20132,12 @@
       </c>
       <c r="H412" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I412" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3118819&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J412" t="inlineStr">
@@ -20248,7 +20248,7 @@
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>Proyecto Exploración Minera Macarena - Leo (e-seia)</t>
         </is>
       </c>
       <c r="C415" t="inlineStr">
@@ -20258,16 +20258,16 @@
       </c>
       <c r="D415" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E415" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Minera Fuego Limitada</t>
         </is>
       </c>
       <c r="F415" t="n">
-        <v>1650</v>
+        <v>150</v>
       </c>
       <c r="G415" t="inlineStr">
         <is>
@@ -20281,7 +20281,7 @@
       </c>
       <c r="I415" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088992&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J415" t="inlineStr">
@@ -20296,7 +20296,7 @@
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>Proyecto Exploración Minera Macarena - Leo (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C416" t="inlineStr">
@@ -20306,16 +20306,16 @@
       </c>
       <c r="D416" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E416" t="inlineStr">
         <is>
-          <t>Minera Fuego Limitada</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F416" t="n">
-        <v>150</v>
+        <v>1650</v>
       </c>
       <c r="G416" t="inlineStr">
         <is>
@@ -20329,7 +20329,7 @@
       </c>
       <c r="I416" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088992&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J416" t="inlineStr">
@@ -23272,26 +23272,26 @@
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>LIXIVIACIÓN DE SULFUROS SULFOLIX</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C478" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D478" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E478" t="inlineStr">
         <is>
-          <t>SOCIEDAD CONTRACTUAL MINERA EL ABRA</t>
+          <t>Empresa de Residuos RESITER S.A.</t>
         </is>
       </c>
       <c r="F478" t="n">
-        <v>343000</v>
+        <v>1</v>
       </c>
       <c r="G478" t="inlineStr">
         <is>
@@ -23305,7 +23305,7 @@
       </c>
       <c r="I478" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2088630&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J478" t="inlineStr">
@@ -23320,26 +23320,26 @@
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
+          <t>LIXIVIACIÓN DE SULFUROS SULFOLIX</t>
         </is>
       </c>
       <c r="C479" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D479" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E479" t="inlineStr">
         <is>
-          <t>Empresa de Residuos RESITER S.A.</t>
+          <t>SOCIEDAD CONTRACTUAL MINERA EL ABRA</t>
         </is>
       </c>
       <c r="F479" t="n">
-        <v>1</v>
+        <v>343000</v>
       </c>
       <c r="G479" t="inlineStr">
         <is>
@@ -23353,7 +23353,7 @@
       </c>
       <c r="I479" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2088630&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J479" t="inlineStr">

--- a/data/Calama.xlsx
+++ b/data/Calama.xlsx
@@ -3688,7 +3688,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Verano de San Juan I</t>
+          <t>MODIFICACIONES AL PROYECTO EXTRACCIÓN Y MOVIMIENTO DE MINERALES MINA RADOMIRO TOMIC</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3703,11 +3703,11 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Victoria Solar SpA</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>15000</v>
+        <v>208848</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
@@ -3716,12 +3716,12 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138522682&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138513102&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -3736,7 +3736,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Verano de San Juan II</t>
+          <t>Parque Fotovoltaico Verano de San Juan I</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3751,7 +3751,7 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Paine Energy SpA</t>
+          <t>Victoria Solar SpA</t>
         </is>
       </c>
       <c r="F71" t="n">
@@ -3769,7 +3769,7 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138526892&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138522682&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3784,7 +3784,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>MODIFICACIONES AL PROYECTO EXTRACCIÓN Y MOVIMIENTO DE MINERALES MINA RADOMIRO TOMIC</t>
+          <t>Parque Fotovoltaico Verano de San Juan II</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3799,11 +3799,11 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Paine Energy SpA</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>208848</v>
+        <v>15000</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
@@ -3812,12 +3812,12 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138513102&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138526892&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -7720,7 +7720,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>BARRIO CONTRATISTA GERENCIA DE PROYECTOS</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -7730,16 +7730,16 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>Codelco Chile, División Chuquicamata</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F154" t="n">
-        <v>8000</v>
+        <v>1200</v>
       </c>
       <c r="G154" t="inlineStr">
         <is>
@@ -7753,7 +7753,7 @@
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128904823&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -7768,7 +7768,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Proyecto Fotovoltaico Azabache</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -7778,16 +7778,16 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>Almeyda Solar SpA.</t>
         </is>
       </c>
       <c r="F155" t="n">
-        <v>1200</v>
+        <v>140000</v>
       </c>
       <c r="G155" t="inlineStr">
         <is>
@@ -7801,7 +7801,7 @@
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128969457&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -7816,7 +7816,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Proyecto Fotovoltaico Azabache</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -7826,16 +7826,16 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>Almeyda Solar SpA.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F156" t="n">
-        <v>140000</v>
+        <v>0</v>
       </c>
       <c r="G156" t="inlineStr">
         <is>
@@ -7849,7 +7849,7 @@
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128969457&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -7864,7 +7864,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>BARRIO CONTRATISTA GERENCIA DE PROYECTOS</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -7874,16 +7874,16 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Codelco Chile, División Chuquicamata</t>
         </is>
       </c>
       <c r="F157" t="n">
-        <v>0</v>
+        <v>8000</v>
       </c>
       <c r="G157" t="inlineStr">
         <is>
@@ -7897,7 +7897,7 @@
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128904823&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -8584,7 +8584,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -8599,11 +8599,11 @@
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F172" t="n">
-        <v>12500</v>
+        <v>219</v>
       </c>
       <c r="G172" t="inlineStr">
         <is>
@@ -8612,12 +8612,12 @@
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556590&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
@@ -8632,7 +8632,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
+          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -8651,7 +8651,7 @@
         </is>
       </c>
       <c r="F173" t="n">
-        <v>10000</v>
+        <v>12500</v>
       </c>
       <c r="G173" t="inlineStr">
         <is>
@@ -8665,7 +8665,7 @@
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -8680,7 +8680,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -8695,11 +8695,11 @@
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F174" t="n">
-        <v>219</v>
+        <v>10000</v>
       </c>
       <c r="G174" t="inlineStr">
         <is>
@@ -8708,12 +8708,12 @@
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556590&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -9208,26 +9208,26 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>RT Sulfuros</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F185" t="n">
-        <v>2050</v>
+        <v>5.4</v>
       </c>
       <c r="G185" t="inlineStr">
         <is>
@@ -9236,12 +9236,12 @@
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -9256,26 +9256,26 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>RT Sulfuros</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F186" t="n">
-        <v>5.4</v>
+        <v>2050</v>
       </c>
       <c r="G186" t="inlineStr">
         <is>
@@ -9284,12 +9284,12 @@
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
@@ -12856,7 +12856,7 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>Portal del Inca</t>
+          <t>Línea de Transmisión Eléctrica 220 kv Encuentro - MH</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
@@ -12871,11 +12871,11 @@
       </c>
       <c r="E261" t="inlineStr">
         <is>
-          <t>Inmobiliaria Inca Dos Ltda.</t>
+          <t>División Ministro Hales de Codelco Chile</t>
         </is>
       </c>
       <c r="F261" t="n">
-        <v>13948</v>
+        <v>45000</v>
       </c>
       <c r="G261" t="inlineStr">
         <is>
@@ -12884,12 +12884,12 @@
       </c>
       <c r="H261" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I261" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5787635&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5773970&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J261" t="inlineStr">
@@ -12904,7 +12904,7 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Eléctrica 220 kv Encuentro - MH</t>
+          <t>Portal del Inca</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
@@ -12919,11 +12919,11 @@
       </c>
       <c r="E262" t="inlineStr">
         <is>
-          <t>División Ministro Hales de Codelco Chile</t>
+          <t>Inmobiliaria Inca Dos Ltda.</t>
         </is>
       </c>
       <c r="F262" t="n">
-        <v>45000</v>
+        <v>13948</v>
       </c>
       <c r="G262" t="inlineStr">
         <is>
@@ -12932,12 +12932,12 @@
       </c>
       <c r="H262" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I262" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5773970&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5787635&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J262" t="inlineStr">
@@ -13672,7 +13672,7 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
@@ -13687,11 +13687,11 @@
       </c>
       <c r="E278" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F278" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G278" t="inlineStr">
         <is>
@@ -13700,12 +13700,12 @@
       </c>
       <c r="H278" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I278" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J278" t="inlineStr">
@@ -13720,7 +13720,7 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
@@ -13735,11 +13735,11 @@
       </c>
       <c r="E279" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F279" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G279" t="inlineStr">
         <is>
@@ -13748,12 +13748,12 @@
       </c>
       <c r="H279" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I279" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J279" t="inlineStr">
@@ -19528,7 +19528,7 @@
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>Proyecto Explotación Subterránea Mina Santa Rosa (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C400" t="inlineStr">
@@ -19538,16 +19538,16 @@
       </c>
       <c r="D400" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E400" t="inlineStr">
         <is>
-          <t>Minera Quimal.S.A.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F400" t="n">
-        <v>500</v>
+        <v>1750</v>
       </c>
       <c r="G400" t="inlineStr">
         <is>
@@ -19556,12 +19556,12 @@
       </c>
       <c r="H400" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I400" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3310659&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J400" t="inlineStr">
@@ -19576,7 +19576,7 @@
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Proyecto Explotación Subterránea Mina Santa Rosa (e-seia)</t>
         </is>
       </c>
       <c r="C401" t="inlineStr">
@@ -19586,16 +19586,16 @@
       </c>
       <c r="D401" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E401" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Minera Quimal.S.A.</t>
         </is>
       </c>
       <c r="F401" t="n">
-        <v>1750</v>
+        <v>500</v>
       </c>
       <c r="G401" t="inlineStr">
         <is>
@@ -19604,12 +19604,12 @@
       </c>
       <c r="H401" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I401" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3310659&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J401" t="inlineStr">
@@ -20056,7 +20056,7 @@
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>Tratamiento de Impurezas en Ánodos y Cátodos de División Codelco Norte (e-seia)</t>
         </is>
       </c>
       <c r="C411" t="inlineStr">
@@ -20066,16 +20066,16 @@
       </c>
       <c r="D411" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E411" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Codelco Chile, División Chuquicamata</t>
         </is>
       </c>
       <c r="F411" t="n">
-        <v>250</v>
+        <v>50000</v>
       </c>
       <c r="G411" t="inlineStr">
         <is>
@@ -20084,12 +20084,12 @@
       </c>
       <c r="H411" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I411" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3118819&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J411" t="inlineStr">
@@ -20104,7 +20104,7 @@
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>Tratamiento de Impurezas en Ánodos y Cátodos de División Codelco Norte (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C412" t="inlineStr">
@@ -20114,16 +20114,16 @@
       </c>
       <c r="D412" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E412" t="inlineStr">
         <is>
-          <t>Codelco Chile, División Chuquicamata</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F412" t="n">
-        <v>50000</v>
+        <v>250</v>
       </c>
       <c r="G412" t="inlineStr">
         <is>
@@ -20132,12 +20132,12 @@
       </c>
       <c r="H412" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I412" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3118819&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J412" t="inlineStr">
@@ -20248,7 +20248,7 @@
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>Proyecto Exploración Minera Macarena - Leo (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C415" t="inlineStr">
@@ -20258,16 +20258,16 @@
       </c>
       <c r="D415" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E415" t="inlineStr">
         <is>
-          <t>Minera Fuego Limitada</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F415" t="n">
-        <v>150</v>
+        <v>1650</v>
       </c>
       <c r="G415" t="inlineStr">
         <is>
@@ -20281,7 +20281,7 @@
       </c>
       <c r="I415" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088992&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J415" t="inlineStr">
@@ -20296,7 +20296,7 @@
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>Proyecto Exploración Minera Macarena - Leo (e-seia)</t>
         </is>
       </c>
       <c r="C416" t="inlineStr">
@@ -20306,16 +20306,16 @@
       </c>
       <c r="D416" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E416" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Minera Fuego Limitada</t>
         </is>
       </c>
       <c r="F416" t="n">
-        <v>1650</v>
+        <v>150</v>
       </c>
       <c r="G416" t="inlineStr">
         <is>
@@ -20329,7 +20329,7 @@
       </c>
       <c r="I416" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088992&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J416" t="inlineStr">
@@ -23272,26 +23272,26 @@
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
+          <t>LIXIVIACIÓN DE SULFUROS SULFOLIX</t>
         </is>
       </c>
       <c r="C478" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D478" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E478" t="inlineStr">
         <is>
-          <t>Empresa de Residuos RESITER S.A.</t>
+          <t>SOCIEDAD CONTRACTUAL MINERA EL ABRA</t>
         </is>
       </c>
       <c r="F478" t="n">
-        <v>1</v>
+        <v>343000</v>
       </c>
       <c r="G478" t="inlineStr">
         <is>
@@ -23305,7 +23305,7 @@
       </c>
       <c r="I478" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2088630&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J478" t="inlineStr">
@@ -23320,26 +23320,26 @@
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>LIXIVIACIÓN DE SULFUROS SULFOLIX</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C479" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D479" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E479" t="inlineStr">
         <is>
-          <t>SOCIEDAD CONTRACTUAL MINERA EL ABRA</t>
+          <t>Empresa de Residuos RESITER S.A.</t>
         </is>
       </c>
       <c r="F479" t="n">
-        <v>343000</v>
+        <v>1</v>
       </c>
       <c r="G479" t="inlineStr">
         <is>
@@ -23353,7 +23353,7 @@
       </c>
       <c r="I479" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2088630&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J479" t="inlineStr">

--- a/data/Calama.xlsx
+++ b/data/Calama.xlsx
@@ -1748,7 +1748,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Verano de San Juan I</t>
+          <t>MODIFICACIONES AL PROYECTO EXTRACCIÓN Y MOVIMIENTO DE MINERALES MINA RADOMIRO TOMIC</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3703,11 +3703,11 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Victoria Solar SpA</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>15000</v>
+        <v>208848</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
@@ -3716,12 +3716,12 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138522682&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138513102&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -3736,7 +3736,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Verano de San Juan II</t>
+          <t>Parque Fotovoltaico Verano de San Juan I</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3751,7 +3751,7 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Paine Energy SpA</t>
+          <t>Victoria Solar SpA</t>
         </is>
       </c>
       <c r="F71" t="n">
@@ -3769,7 +3769,7 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138526892&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138522682&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3784,7 +3784,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>MODIFICACIONES AL PROYECTO EXTRACCIÓN Y MOVIMIENTO DE MINERALES MINA RADOMIRO TOMIC</t>
+          <t>Parque Fotovoltaico Verano de San Juan II</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3799,11 +3799,11 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Paine Energy SpA</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>208848</v>
+        <v>15000</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
@@ -3812,12 +3812,12 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138513102&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138526892&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -7720,7 +7720,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>BARRIO CONTRATISTA GERENCIA DE PROYECTOS</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -7730,16 +7730,16 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>Codelco Chile, División Chuquicamata</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F154" t="n">
-        <v>8000</v>
+        <v>1200</v>
       </c>
       <c r="G154" t="inlineStr">
         <is>
@@ -7753,7 +7753,7 @@
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128904823&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -7768,7 +7768,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Proyecto Fotovoltaico Azabache</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -7778,16 +7778,16 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>Almeyda Solar SpA.</t>
         </is>
       </c>
       <c r="F155" t="n">
-        <v>1200</v>
+        <v>140000</v>
       </c>
       <c r="G155" t="inlineStr">
         <is>
@@ -7801,7 +7801,7 @@
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128969457&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -7816,7 +7816,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Proyecto Fotovoltaico Azabache</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -7826,16 +7826,16 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>Almeyda Solar SpA.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F156" t="n">
-        <v>140000</v>
+        <v>0</v>
       </c>
       <c r="G156" t="inlineStr">
         <is>
@@ -7849,7 +7849,7 @@
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128969457&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -7864,7 +7864,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>BARRIO CONTRATISTA GERENCIA DE PROYECTOS</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -7874,16 +7874,16 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Codelco Chile, División Chuquicamata</t>
         </is>
       </c>
       <c r="F157" t="n">
-        <v>0</v>
+        <v>8000</v>
       </c>
       <c r="G157" t="inlineStr">
         <is>
@@ -7897,7 +7897,7 @@
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128904823&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -8584,7 +8584,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -8599,11 +8599,11 @@
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F172" t="n">
-        <v>12500</v>
+        <v>219</v>
       </c>
       <c r="G172" t="inlineStr">
         <is>
@@ -8612,12 +8612,12 @@
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556590&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
@@ -8632,7 +8632,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
+          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -8651,7 +8651,7 @@
         </is>
       </c>
       <c r="F173" t="n">
-        <v>10000</v>
+        <v>12500</v>
       </c>
       <c r="G173" t="inlineStr">
         <is>
@@ -8665,7 +8665,7 @@
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -8680,7 +8680,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -8695,11 +8695,11 @@
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F174" t="n">
-        <v>219</v>
+        <v>10000</v>
       </c>
       <c r="G174" t="inlineStr">
         <is>
@@ -8708,12 +8708,12 @@
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556590&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -9208,26 +9208,26 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>RT Sulfuros</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F185" t="n">
-        <v>2050</v>
+        <v>5.4</v>
       </c>
       <c r="G185" t="inlineStr">
         <is>
@@ -9236,12 +9236,12 @@
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -9256,26 +9256,26 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>RT Sulfuros</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F186" t="n">
-        <v>5.4</v>
+        <v>2050</v>
       </c>
       <c r="G186" t="inlineStr">
         <is>
@@ -9284,12 +9284,12 @@
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
@@ -12856,7 +12856,7 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>Portal del Inca</t>
+          <t>Línea de Transmisión Eléctrica 220 kv Encuentro - MH</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
@@ -12871,11 +12871,11 @@
       </c>
       <c r="E261" t="inlineStr">
         <is>
-          <t>Inmobiliaria Inca Dos Ltda.</t>
+          <t>División Ministro Hales de Codelco Chile</t>
         </is>
       </c>
       <c r="F261" t="n">
-        <v>13948</v>
+        <v>45000</v>
       </c>
       <c r="G261" t="inlineStr">
         <is>
@@ -12884,12 +12884,12 @@
       </c>
       <c r="H261" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I261" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5787635&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5773970&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J261" t="inlineStr">
@@ -12904,7 +12904,7 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Eléctrica 220 kv Encuentro - MH</t>
+          <t>Portal del Inca</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
@@ -12919,11 +12919,11 @@
       </c>
       <c r="E262" t="inlineStr">
         <is>
-          <t>División Ministro Hales de Codelco Chile</t>
+          <t>Inmobiliaria Inca Dos Ltda.</t>
         </is>
       </c>
       <c r="F262" t="n">
-        <v>45000</v>
+        <v>13948</v>
       </c>
       <c r="G262" t="inlineStr">
         <is>
@@ -12932,12 +12932,12 @@
       </c>
       <c r="H262" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I262" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5773970&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5787635&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J262" t="inlineStr">
@@ -13672,7 +13672,7 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
@@ -13687,11 +13687,11 @@
       </c>
       <c r="E278" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F278" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G278" t="inlineStr">
         <is>
@@ -13700,12 +13700,12 @@
       </c>
       <c r="H278" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I278" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J278" t="inlineStr">
@@ -13720,7 +13720,7 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
@@ -13735,11 +13735,11 @@
       </c>
       <c r="E279" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F279" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G279" t="inlineStr">
         <is>
@@ -13748,12 +13748,12 @@
       </c>
       <c r="H279" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I279" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J279" t="inlineStr">
@@ -19528,7 +19528,7 @@
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>Proyecto Explotación Subterránea Mina Santa Rosa (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C400" t="inlineStr">
@@ -19538,16 +19538,16 @@
       </c>
       <c r="D400" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E400" t="inlineStr">
         <is>
-          <t>Minera Quimal.S.A.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F400" t="n">
-        <v>500</v>
+        <v>1750</v>
       </c>
       <c r="G400" t="inlineStr">
         <is>
@@ -19556,12 +19556,12 @@
       </c>
       <c r="H400" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I400" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3310659&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J400" t="inlineStr">
@@ -19576,7 +19576,7 @@
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Proyecto Explotación Subterránea Mina Santa Rosa (e-seia)</t>
         </is>
       </c>
       <c r="C401" t="inlineStr">
@@ -19586,16 +19586,16 @@
       </c>
       <c r="D401" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E401" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Minera Quimal.S.A.</t>
         </is>
       </c>
       <c r="F401" t="n">
-        <v>1750</v>
+        <v>500</v>
       </c>
       <c r="G401" t="inlineStr">
         <is>
@@ -19604,12 +19604,12 @@
       </c>
       <c r="H401" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I401" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3310659&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J401" t="inlineStr">
@@ -20056,7 +20056,7 @@
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>Tratamiento de Impurezas en Ánodos y Cátodos de División Codelco Norte (e-seia)</t>
         </is>
       </c>
       <c r="C411" t="inlineStr">
@@ -20066,16 +20066,16 @@
       </c>
       <c r="D411" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E411" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Codelco Chile, División Chuquicamata</t>
         </is>
       </c>
       <c r="F411" t="n">
-        <v>250</v>
+        <v>50000</v>
       </c>
       <c r="G411" t="inlineStr">
         <is>
@@ -20084,12 +20084,12 @@
       </c>
       <c r="H411" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I411" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3118819&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J411" t="inlineStr">
@@ -20104,7 +20104,7 @@
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>Tratamiento de Impurezas en Ánodos y Cátodos de División Codelco Norte (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C412" t="inlineStr">
@@ -20114,16 +20114,16 @@
       </c>
       <c r="D412" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E412" t="inlineStr">
         <is>
-          <t>Codelco Chile, División Chuquicamata</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F412" t="n">
-        <v>50000</v>
+        <v>250</v>
       </c>
       <c r="G412" t="inlineStr">
         <is>
@@ -20132,12 +20132,12 @@
       </c>
       <c r="H412" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I412" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3118819&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J412" t="inlineStr">
@@ -20248,7 +20248,7 @@
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>Proyecto Exploración Minera Macarena - Leo (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C415" t="inlineStr">
@@ -20258,16 +20258,16 @@
       </c>
       <c r="D415" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E415" t="inlineStr">
         <is>
-          <t>Minera Fuego Limitada</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F415" t="n">
-        <v>150</v>
+        <v>1650</v>
       </c>
       <c r="G415" t="inlineStr">
         <is>
@@ -20281,7 +20281,7 @@
       </c>
       <c r="I415" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088992&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J415" t="inlineStr">
@@ -20296,7 +20296,7 @@
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>Proyecto Exploración Minera Macarena - Leo (e-seia)</t>
         </is>
       </c>
       <c r="C416" t="inlineStr">
@@ -20306,16 +20306,16 @@
       </c>
       <c r="D416" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E416" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Minera Fuego Limitada</t>
         </is>
       </c>
       <c r="F416" t="n">
-        <v>1650</v>
+        <v>150</v>
       </c>
       <c r="G416" t="inlineStr">
         <is>
@@ -20329,7 +20329,7 @@
       </c>
       <c r="I416" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088992&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J416" t="inlineStr">
@@ -23272,26 +23272,26 @@
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
+          <t>LIXIVIACIÓN DE SULFUROS SULFOLIX</t>
         </is>
       </c>
       <c r="C478" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D478" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E478" t="inlineStr">
         <is>
-          <t>Empresa de Residuos RESITER S.A.</t>
+          <t>SOCIEDAD CONTRACTUAL MINERA EL ABRA</t>
         </is>
       </c>
       <c r="F478" t="n">
-        <v>1</v>
+        <v>343000</v>
       </c>
       <c r="G478" t="inlineStr">
         <is>
@@ -23305,7 +23305,7 @@
       </c>
       <c r="I478" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2088630&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J478" t="inlineStr">
@@ -23320,26 +23320,26 @@
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>LIXIVIACIÓN DE SULFUROS SULFOLIX</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C479" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D479" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E479" t="inlineStr">
         <is>
-          <t>SOCIEDAD CONTRACTUAL MINERA EL ABRA</t>
+          <t>Empresa de Residuos RESITER S.A.</t>
         </is>
       </c>
       <c r="F479" t="n">
-        <v>343000</v>
+        <v>1</v>
       </c>
       <c r="G479" t="inlineStr">
         <is>
@@ -23353,7 +23353,7 @@
       </c>
       <c r="I479" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2088630&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J479" t="inlineStr">

--- a/data/Calama.xlsx
+++ b/data/Calama.xlsx
@@ -3688,7 +3688,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>MODIFICACIONES AL PROYECTO EXTRACCIÓN Y MOVIMIENTO DE MINERALES MINA RADOMIRO TOMIC</t>
+          <t>Parque Fotovoltaico Verano de San Juan I</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3703,11 +3703,11 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Victoria Solar SpA</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>208848</v>
+        <v>15000</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
@@ -3716,12 +3716,12 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138513102&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138522682&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -3736,7 +3736,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Verano de San Juan I</t>
+          <t>Parque Fotovoltaico Verano de San Juan II</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3751,7 +3751,7 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Victoria Solar SpA</t>
+          <t>Paine Energy SpA</t>
         </is>
       </c>
       <c r="F71" t="n">
@@ -3769,7 +3769,7 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138522682&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138526892&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3784,7 +3784,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Verano de San Juan II</t>
+          <t>MODIFICACIONES AL PROYECTO EXTRACCIÓN Y MOVIMIENTO DE MINERALES MINA RADOMIRO TOMIC</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3799,11 +3799,11 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Paine Energy SpA</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>15000</v>
+        <v>208848</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
@@ -3812,12 +3812,12 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138526892&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138513102&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -8584,7 +8584,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -8599,11 +8599,11 @@
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F172" t="n">
-        <v>219</v>
+        <v>12500</v>
       </c>
       <c r="G172" t="inlineStr">
         <is>
@@ -8612,12 +8612,12 @@
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556590&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
@@ -8632,7 +8632,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -8651,7 +8651,7 @@
         </is>
       </c>
       <c r="F173" t="n">
-        <v>12500</v>
+        <v>10000</v>
       </c>
       <c r="G173" t="inlineStr">
         <is>
@@ -8665,7 +8665,7 @@
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -8680,7 +8680,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -8695,11 +8695,11 @@
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F174" t="n">
-        <v>10000</v>
+        <v>219</v>
       </c>
       <c r="G174" t="inlineStr">
         <is>
@@ -8708,12 +8708,12 @@
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556590&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -9208,26 +9208,26 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>RT Sulfuros</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F185" t="n">
-        <v>5.4</v>
+        <v>2050</v>
       </c>
       <c r="G185" t="inlineStr">
         <is>
@@ -9236,12 +9236,12 @@
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -9256,26 +9256,26 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>RT Sulfuros</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F186" t="n">
-        <v>2050</v>
+        <v>5.4</v>
       </c>
       <c r="G186" t="inlineStr">
         <is>
@@ -9284,12 +9284,12 @@
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
@@ -12856,7 +12856,7 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Eléctrica 220 kv Encuentro - MH</t>
+          <t>Portal del Inca</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
@@ -12871,11 +12871,11 @@
       </c>
       <c r="E261" t="inlineStr">
         <is>
-          <t>División Ministro Hales de Codelco Chile</t>
+          <t>Inmobiliaria Inca Dos Ltda.</t>
         </is>
       </c>
       <c r="F261" t="n">
-        <v>45000</v>
+        <v>13948</v>
       </c>
       <c r="G261" t="inlineStr">
         <is>
@@ -12884,12 +12884,12 @@
       </c>
       <c r="H261" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I261" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5773970&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5787635&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J261" t="inlineStr">
@@ -12904,7 +12904,7 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>Portal del Inca</t>
+          <t>Línea de Transmisión Eléctrica 220 kv Encuentro - MH</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
@@ -12919,11 +12919,11 @@
       </c>
       <c r="E262" t="inlineStr">
         <is>
-          <t>Inmobiliaria Inca Dos Ltda.</t>
+          <t>División Ministro Hales de Codelco Chile</t>
         </is>
       </c>
       <c r="F262" t="n">
-        <v>13948</v>
+        <v>45000</v>
       </c>
       <c r="G262" t="inlineStr">
         <is>
@@ -12932,12 +12932,12 @@
       </c>
       <c r="H262" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I262" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5787635&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5773970&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J262" t="inlineStr">
@@ -13672,7 +13672,7 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
@@ -13687,11 +13687,11 @@
       </c>
       <c r="E278" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F278" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G278" t="inlineStr">
         <is>
@@ -13700,12 +13700,12 @@
       </c>
       <c r="H278" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I278" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J278" t="inlineStr">
@@ -13720,7 +13720,7 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
@@ -13735,11 +13735,11 @@
       </c>
       <c r="E279" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F279" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G279" t="inlineStr">
         <is>
@@ -13748,12 +13748,12 @@
       </c>
       <c r="H279" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I279" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J279" t="inlineStr">
@@ -19528,7 +19528,7 @@
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Proyecto Explotación Subterránea Mina Santa Rosa (e-seia)</t>
         </is>
       </c>
       <c r="C400" t="inlineStr">
@@ -19538,16 +19538,16 @@
       </c>
       <c r="D400" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E400" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Minera Quimal.S.A.</t>
         </is>
       </c>
       <c r="F400" t="n">
-        <v>1750</v>
+        <v>500</v>
       </c>
       <c r="G400" t="inlineStr">
         <is>
@@ -19556,12 +19556,12 @@
       </c>
       <c r="H400" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I400" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3310659&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J400" t="inlineStr">
@@ -19576,7 +19576,7 @@
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>Proyecto Explotación Subterránea Mina Santa Rosa (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C401" t="inlineStr">
@@ -19586,16 +19586,16 @@
       </c>
       <c r="D401" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E401" t="inlineStr">
         <is>
-          <t>Minera Quimal.S.A.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F401" t="n">
-        <v>500</v>
+        <v>1750</v>
       </c>
       <c r="G401" t="inlineStr">
         <is>
@@ -19604,12 +19604,12 @@
       </c>
       <c r="H401" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I401" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3310659&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J401" t="inlineStr">
@@ -20056,7 +20056,7 @@
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>Tratamiento de Impurezas en Ánodos y Cátodos de División Codelco Norte (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C411" t="inlineStr">
@@ -20066,16 +20066,16 @@
       </c>
       <c r="D411" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E411" t="inlineStr">
         <is>
-          <t>Codelco Chile, División Chuquicamata</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F411" t="n">
-        <v>50000</v>
+        <v>250</v>
       </c>
       <c r="G411" t="inlineStr">
         <is>
@@ -20084,12 +20084,12 @@
       </c>
       <c r="H411" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I411" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3118819&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J411" t="inlineStr">
@@ -20104,7 +20104,7 @@
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>Tratamiento de Impurezas en Ánodos y Cátodos de División Codelco Norte (e-seia)</t>
         </is>
       </c>
       <c r="C412" t="inlineStr">
@@ -20114,16 +20114,16 @@
       </c>
       <c r="D412" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E412" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Codelco Chile, División Chuquicamata</t>
         </is>
       </c>
       <c r="F412" t="n">
-        <v>250</v>
+        <v>50000</v>
       </c>
       <c r="G412" t="inlineStr">
         <is>
@@ -20132,12 +20132,12 @@
       </c>
       <c r="H412" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I412" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3118819&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J412" t="inlineStr">
@@ -20248,7 +20248,7 @@
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>Proyecto Exploración Minera Macarena - Leo (e-seia)</t>
         </is>
       </c>
       <c r="C415" t="inlineStr">
@@ -20258,16 +20258,16 @@
       </c>
       <c r="D415" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E415" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Minera Fuego Limitada</t>
         </is>
       </c>
       <c r="F415" t="n">
-        <v>1650</v>
+        <v>150</v>
       </c>
       <c r="G415" t="inlineStr">
         <is>
@@ -20281,7 +20281,7 @@
       </c>
       <c r="I415" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088992&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J415" t="inlineStr">
@@ -20296,7 +20296,7 @@
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>Proyecto Exploración Minera Macarena - Leo (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C416" t="inlineStr">
@@ -20306,16 +20306,16 @@
       </c>
       <c r="D416" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E416" t="inlineStr">
         <is>
-          <t>Minera Fuego Limitada</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F416" t="n">
-        <v>150</v>
+        <v>1650</v>
       </c>
       <c r="G416" t="inlineStr">
         <is>
@@ -20329,7 +20329,7 @@
       </c>
       <c r="I416" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088992&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J416" t="inlineStr">
@@ -23272,26 +23272,26 @@
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>LIXIVIACIÓN DE SULFUROS SULFOLIX</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C478" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D478" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E478" t="inlineStr">
         <is>
-          <t>SOCIEDAD CONTRACTUAL MINERA EL ABRA</t>
+          <t>Empresa de Residuos RESITER S.A.</t>
         </is>
       </c>
       <c r="F478" t="n">
-        <v>343000</v>
+        <v>1</v>
       </c>
       <c r="G478" t="inlineStr">
         <is>
@@ -23305,7 +23305,7 @@
       </c>
       <c r="I478" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2088630&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J478" t="inlineStr">
@@ -23320,26 +23320,26 @@
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
+          <t>LIXIVIACIÓN DE SULFUROS SULFOLIX</t>
         </is>
       </c>
       <c r="C479" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D479" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E479" t="inlineStr">
         <is>
-          <t>Empresa de Residuos RESITER S.A.</t>
+          <t>SOCIEDAD CONTRACTUAL MINERA EL ABRA</t>
         </is>
       </c>
       <c r="F479" t="n">
-        <v>1</v>
+        <v>343000</v>
       </c>
       <c r="G479" t="inlineStr">
         <is>
@@ -23353,7 +23353,7 @@
       </c>
       <c r="I479" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2088630&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J479" t="inlineStr">

--- a/data/Calama.xlsx
+++ b/data/Calama.xlsx
@@ -500,7 +500,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -3736,7 +3736,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Verano de San Juan I</t>
+          <t>MODIFICACIONES AL PROYECTO EXTRACCIÓN Y MOVIMIENTO DE MINERALES MINA RADOMIRO TOMIC</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3751,11 +3751,11 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Victoria Solar SpA</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>15000</v>
+        <v>208848</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
@@ -3764,12 +3764,12 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138522682&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138513102&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3784,7 +3784,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Verano de San Juan II</t>
+          <t>Parque Fotovoltaico Verano de San Juan I</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3799,7 +3799,7 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Paine Energy SpA</t>
+          <t>Victoria Solar SpA</t>
         </is>
       </c>
       <c r="F72" t="n">
@@ -3817,7 +3817,7 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138526892&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138522682&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3832,7 +3832,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>MODIFICACIONES AL PROYECTO EXTRACCIÓN Y MOVIMIENTO DE MINERALES MINA RADOMIRO TOMIC</t>
+          <t>Parque Fotovoltaico Verano de San Juan II</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3847,11 +3847,11 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Paine Energy SpA</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>208848</v>
+        <v>15000</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
@@ -3860,12 +3860,12 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138513102&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138526892&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -7768,7 +7768,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>BARRIO CONTRATISTA GERENCIA DE PROYECTOS</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -7778,16 +7778,16 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>Codelco Chile, División Chuquicamata</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F155" t="n">
-        <v>8000</v>
+        <v>1200</v>
       </c>
       <c r="G155" t="inlineStr">
         <is>
@@ -7801,7 +7801,7 @@
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128904823&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -7816,7 +7816,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Proyecto Fotovoltaico Azabache</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -7826,16 +7826,16 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>Almeyda Solar SpA.</t>
         </is>
       </c>
       <c r="F156" t="n">
-        <v>1200</v>
+        <v>140000</v>
       </c>
       <c r="G156" t="inlineStr">
         <is>
@@ -7849,7 +7849,7 @@
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128969457&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -7864,7 +7864,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Proyecto Fotovoltaico Azabache</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -7874,16 +7874,16 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>Almeyda Solar SpA.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F157" t="n">
-        <v>140000</v>
+        <v>0</v>
       </c>
       <c r="G157" t="inlineStr">
         <is>
@@ -7897,7 +7897,7 @@
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128969457&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -7912,7 +7912,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>BARRIO CONTRATISTA GERENCIA DE PROYECTOS</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -7922,16 +7922,16 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Codelco Chile, División Chuquicamata</t>
         </is>
       </c>
       <c r="F158" t="n">
-        <v>0</v>
+        <v>8000</v>
       </c>
       <c r="G158" t="inlineStr">
         <is>
@@ -7945,7 +7945,7 @@
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128904823&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -8632,7 +8632,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -8647,11 +8647,11 @@
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F173" t="n">
-        <v>12500</v>
+        <v>219</v>
       </c>
       <c r="G173" t="inlineStr">
         <is>
@@ -8660,12 +8660,12 @@
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556590&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -8680,7 +8680,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
+          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -8699,7 +8699,7 @@
         </is>
       </c>
       <c r="F174" t="n">
-        <v>10000</v>
+        <v>12500</v>
       </c>
       <c r="G174" t="inlineStr">
         <is>
@@ -8713,7 +8713,7 @@
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -8728,7 +8728,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -8743,11 +8743,11 @@
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F175" t="n">
-        <v>219</v>
+        <v>10000</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
@@ -8756,12 +8756,12 @@
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556590&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -9256,26 +9256,26 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>RT Sulfuros</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F186" t="n">
-        <v>2050</v>
+        <v>5.4</v>
       </c>
       <c r="G186" t="inlineStr">
         <is>
@@ -9284,12 +9284,12 @@
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
@@ -9304,26 +9304,26 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>RT Sulfuros</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F187" t="n">
-        <v>5.4</v>
+        <v>2050</v>
       </c>
       <c r="G187" t="inlineStr">
         <is>
@@ -9332,12 +9332,12 @@
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
@@ -12904,7 +12904,7 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>Portal del Inca</t>
+          <t>Línea de Transmisión Eléctrica 220 kv Encuentro - MH</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
@@ -12919,11 +12919,11 @@
       </c>
       <c r="E262" t="inlineStr">
         <is>
-          <t>Inmobiliaria Inca Dos Ltda.</t>
+          <t>División Ministro Hales de Codelco Chile</t>
         </is>
       </c>
       <c r="F262" t="n">
-        <v>13948</v>
+        <v>45000</v>
       </c>
       <c r="G262" t="inlineStr">
         <is>
@@ -12932,12 +12932,12 @@
       </c>
       <c r="H262" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I262" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5787635&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5773970&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J262" t="inlineStr">
@@ -12952,7 +12952,7 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Eléctrica 220 kv Encuentro - MH</t>
+          <t>Portal del Inca</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
@@ -12967,11 +12967,11 @@
       </c>
       <c r="E263" t="inlineStr">
         <is>
-          <t>División Ministro Hales de Codelco Chile</t>
+          <t>Inmobiliaria Inca Dos Ltda.</t>
         </is>
       </c>
       <c r="F263" t="n">
-        <v>45000</v>
+        <v>13948</v>
       </c>
       <c r="G263" t="inlineStr">
         <is>
@@ -12980,12 +12980,12 @@
       </c>
       <c r="H263" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I263" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5773970&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5787635&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J263" t="inlineStr">
@@ -13720,7 +13720,7 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
@@ -13735,11 +13735,11 @@
       </c>
       <c r="E279" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F279" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G279" t="inlineStr">
         <is>
@@ -13748,12 +13748,12 @@
       </c>
       <c r="H279" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I279" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J279" t="inlineStr">
@@ -13768,7 +13768,7 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
@@ -13783,11 +13783,11 @@
       </c>
       <c r="E280" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F280" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G280" t="inlineStr">
         <is>
@@ -13796,12 +13796,12 @@
       </c>
       <c r="H280" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I280" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J280" t="inlineStr">
@@ -19576,7 +19576,7 @@
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>Proyecto Explotación Subterránea Mina Santa Rosa (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C401" t="inlineStr">
@@ -19586,16 +19586,16 @@
       </c>
       <c r="D401" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E401" t="inlineStr">
         <is>
-          <t>Minera Quimal.S.A.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F401" t="n">
-        <v>500</v>
+        <v>1750</v>
       </c>
       <c r="G401" t="inlineStr">
         <is>
@@ -19604,12 +19604,12 @@
       </c>
       <c r="H401" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I401" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3310659&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J401" t="inlineStr">
@@ -19624,7 +19624,7 @@
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Proyecto Explotación Subterránea Mina Santa Rosa (e-seia)</t>
         </is>
       </c>
       <c r="C402" t="inlineStr">
@@ -19634,16 +19634,16 @@
       </c>
       <c r="D402" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E402" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Minera Quimal.S.A.</t>
         </is>
       </c>
       <c r="F402" t="n">
-        <v>1750</v>
+        <v>500</v>
       </c>
       <c r="G402" t="inlineStr">
         <is>
@@ -19652,12 +19652,12 @@
       </c>
       <c r="H402" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I402" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3310659&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J402" t="inlineStr">
@@ -20104,7 +20104,7 @@
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>Tratamiento de Impurezas en Ánodos y Cátodos de División Codelco Norte (e-seia)</t>
         </is>
       </c>
       <c r="C412" t="inlineStr">
@@ -20114,16 +20114,16 @@
       </c>
       <c r="D412" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E412" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Codelco Chile, División Chuquicamata</t>
         </is>
       </c>
       <c r="F412" t="n">
-        <v>250</v>
+        <v>50000</v>
       </c>
       <c r="G412" t="inlineStr">
         <is>
@@ -20132,12 +20132,12 @@
       </c>
       <c r="H412" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I412" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3118819&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J412" t="inlineStr">
@@ -20152,7 +20152,7 @@
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>Tratamiento de Impurezas en Ánodos y Cátodos de División Codelco Norte (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C413" t="inlineStr">
@@ -20162,16 +20162,16 @@
       </c>
       <c r="D413" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E413" t="inlineStr">
         <is>
-          <t>Codelco Chile, División Chuquicamata</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F413" t="n">
-        <v>50000</v>
+        <v>250</v>
       </c>
       <c r="G413" t="inlineStr">
         <is>
@@ -20180,12 +20180,12 @@
       </c>
       <c r="H413" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I413" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3118819&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J413" t="inlineStr">
@@ -23320,26 +23320,26 @@
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
+          <t>LIXIVIACIÓN DE SULFUROS SULFOLIX</t>
         </is>
       </c>
       <c r="C479" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D479" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E479" t="inlineStr">
         <is>
-          <t>Empresa de Residuos RESITER S.A.</t>
+          <t>SOCIEDAD CONTRACTUAL MINERA EL ABRA</t>
         </is>
       </c>
       <c r="F479" t="n">
-        <v>1</v>
+        <v>343000</v>
       </c>
       <c r="G479" t="inlineStr">
         <is>
@@ -23353,7 +23353,7 @@
       </c>
       <c r="I479" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2088630&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J479" t="inlineStr">
@@ -23368,26 +23368,26 @@
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>LIXIVIACIÓN DE SULFUROS SULFOLIX</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C480" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D480" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E480" t="inlineStr">
         <is>
-          <t>SOCIEDAD CONTRACTUAL MINERA EL ABRA</t>
+          <t>Empresa de Residuos RESITER S.A.</t>
         </is>
       </c>
       <c r="F480" t="n">
-        <v>343000</v>
+        <v>1</v>
       </c>
       <c r="G480" t="inlineStr">
         <is>
@@ -23401,7 +23401,7 @@
       </c>
       <c r="I480" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2088630&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J480" t="inlineStr">

--- a/data/Calama.xlsx
+++ b/data/Calama.xlsx
@@ -3736,7 +3736,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>MODIFICACIONES AL PROYECTO EXTRACCIÓN Y MOVIMIENTO DE MINERALES MINA RADOMIRO TOMIC</t>
+          <t>Parque Fotovoltaico Verano de San Juan I</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3751,11 +3751,11 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Victoria Solar SpA</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>208848</v>
+        <v>15000</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
@@ -3764,12 +3764,12 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138513102&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138522682&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3784,7 +3784,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Verano de San Juan I</t>
+          <t>Parque Fotovoltaico Verano de San Juan II</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3799,7 +3799,7 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Victoria Solar SpA</t>
+          <t>Paine Energy SpA</t>
         </is>
       </c>
       <c r="F72" t="n">
@@ -3817,7 +3817,7 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138522682&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138526892&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3832,7 +3832,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Verano de San Juan II</t>
+          <t>MODIFICACIONES AL PROYECTO EXTRACCIÓN Y MOVIMIENTO DE MINERALES MINA RADOMIRO TOMIC</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3847,11 +3847,11 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Paine Energy SpA</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>15000</v>
+        <v>208848</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
@@ -3860,12 +3860,12 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138526892&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138513102&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -8632,7 +8632,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -8647,11 +8647,11 @@
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F173" t="n">
-        <v>219</v>
+        <v>12500</v>
       </c>
       <c r="G173" t="inlineStr">
         <is>
@@ -8660,12 +8660,12 @@
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556590&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -8680,7 +8680,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -8699,7 +8699,7 @@
         </is>
       </c>
       <c r="F174" t="n">
-        <v>12500</v>
+        <v>10000</v>
       </c>
       <c r="G174" t="inlineStr">
         <is>
@@ -8713,7 +8713,7 @@
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -8728,7 +8728,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -8743,11 +8743,11 @@
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F175" t="n">
-        <v>10000</v>
+        <v>219</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
@@ -8756,12 +8756,12 @@
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556590&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -9256,26 +9256,26 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>RT Sulfuros</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F186" t="n">
-        <v>5.4</v>
+        <v>2050</v>
       </c>
       <c r="G186" t="inlineStr">
         <is>
@@ -9284,12 +9284,12 @@
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
@@ -9304,26 +9304,26 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>RT Sulfuros</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F187" t="n">
-        <v>2050</v>
+        <v>5.4</v>
       </c>
       <c r="G187" t="inlineStr">
         <is>
@@ -9332,12 +9332,12 @@
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
@@ -12904,7 +12904,7 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Eléctrica 220 kv Encuentro - MH</t>
+          <t>Portal del Inca</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
@@ -12919,11 +12919,11 @@
       </c>
       <c r="E262" t="inlineStr">
         <is>
-          <t>División Ministro Hales de Codelco Chile</t>
+          <t>Inmobiliaria Inca Dos Ltda.</t>
         </is>
       </c>
       <c r="F262" t="n">
-        <v>45000</v>
+        <v>13948</v>
       </c>
       <c r="G262" t="inlineStr">
         <is>
@@ -12932,12 +12932,12 @@
       </c>
       <c r="H262" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I262" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5773970&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5787635&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J262" t="inlineStr">
@@ -12952,7 +12952,7 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>Portal del Inca</t>
+          <t>Línea de Transmisión Eléctrica 220 kv Encuentro - MH</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
@@ -12967,11 +12967,11 @@
       </c>
       <c r="E263" t="inlineStr">
         <is>
-          <t>Inmobiliaria Inca Dos Ltda.</t>
+          <t>División Ministro Hales de Codelco Chile</t>
         </is>
       </c>
       <c r="F263" t="n">
-        <v>13948</v>
+        <v>45000</v>
       </c>
       <c r="G263" t="inlineStr">
         <is>
@@ -12980,12 +12980,12 @@
       </c>
       <c r="H263" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I263" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5787635&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5773970&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J263" t="inlineStr">
@@ -13720,7 +13720,7 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
@@ -13735,11 +13735,11 @@
       </c>
       <c r="E279" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F279" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G279" t="inlineStr">
         <is>
@@ -13748,12 +13748,12 @@
       </c>
       <c r="H279" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I279" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J279" t="inlineStr">
@@ -13768,7 +13768,7 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
@@ -13783,11 +13783,11 @@
       </c>
       <c r="E280" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F280" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G280" t="inlineStr">
         <is>
@@ -13796,12 +13796,12 @@
       </c>
       <c r="H280" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I280" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J280" t="inlineStr">
@@ -19576,7 +19576,7 @@
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Proyecto Explotación Subterránea Mina Santa Rosa (e-seia)</t>
         </is>
       </c>
       <c r="C401" t="inlineStr">
@@ -19586,16 +19586,16 @@
       </c>
       <c r="D401" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E401" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Minera Quimal.S.A.</t>
         </is>
       </c>
       <c r="F401" t="n">
-        <v>1750</v>
+        <v>500</v>
       </c>
       <c r="G401" t="inlineStr">
         <is>
@@ -19604,12 +19604,12 @@
       </c>
       <c r="H401" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I401" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3310659&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J401" t="inlineStr">
@@ -19624,7 +19624,7 @@
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>Proyecto Explotación Subterránea Mina Santa Rosa (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C402" t="inlineStr">
@@ -19634,16 +19634,16 @@
       </c>
       <c r="D402" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E402" t="inlineStr">
         <is>
-          <t>Minera Quimal.S.A.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F402" t="n">
-        <v>500</v>
+        <v>1750</v>
       </c>
       <c r="G402" t="inlineStr">
         <is>
@@ -19652,12 +19652,12 @@
       </c>
       <c r="H402" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I402" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3310659&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J402" t="inlineStr">
@@ -20104,7 +20104,7 @@
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>Tratamiento de Impurezas en Ánodos y Cátodos de División Codelco Norte (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C412" t="inlineStr">
@@ -20114,16 +20114,16 @@
       </c>
       <c r="D412" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E412" t="inlineStr">
         <is>
-          <t>Codelco Chile, División Chuquicamata</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F412" t="n">
-        <v>50000</v>
+        <v>250</v>
       </c>
       <c r="G412" t="inlineStr">
         <is>
@@ -20132,12 +20132,12 @@
       </c>
       <c r="H412" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I412" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3118819&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J412" t="inlineStr">
@@ -20152,7 +20152,7 @@
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>Tratamiento de Impurezas en Ánodos y Cátodos de División Codelco Norte (e-seia)</t>
         </is>
       </c>
       <c r="C413" t="inlineStr">
@@ -20162,16 +20162,16 @@
       </c>
       <c r="D413" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E413" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Codelco Chile, División Chuquicamata</t>
         </is>
       </c>
       <c r="F413" t="n">
-        <v>250</v>
+        <v>50000</v>
       </c>
       <c r="G413" t="inlineStr">
         <is>
@@ -20180,12 +20180,12 @@
       </c>
       <c r="H413" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I413" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3118819&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J413" t="inlineStr">
@@ -20296,7 +20296,7 @@
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>Proyecto Exploración Minera Macarena - Leo (e-seia)</t>
         </is>
       </c>
       <c r="C416" t="inlineStr">
@@ -20306,16 +20306,16 @@
       </c>
       <c r="D416" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E416" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Minera Fuego Limitada</t>
         </is>
       </c>
       <c r="F416" t="n">
-        <v>1650</v>
+        <v>150</v>
       </c>
       <c r="G416" t="inlineStr">
         <is>
@@ -20329,7 +20329,7 @@
       </c>
       <c r="I416" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088992&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J416" t="inlineStr">
@@ -20344,7 +20344,7 @@
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>Proyecto Exploración Minera Macarena - Leo (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C417" t="inlineStr">
@@ -20354,16 +20354,16 @@
       </c>
       <c r="D417" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E417" t="inlineStr">
         <is>
-          <t>Minera Fuego Limitada</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F417" t="n">
-        <v>150</v>
+        <v>1650</v>
       </c>
       <c r="G417" t="inlineStr">
         <is>
@@ -20377,7 +20377,7 @@
       </c>
       <c r="I417" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088992&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J417" t="inlineStr">
@@ -23320,26 +23320,26 @@
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>LIXIVIACIÓN DE SULFUROS SULFOLIX</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C479" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D479" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E479" t="inlineStr">
         <is>
-          <t>SOCIEDAD CONTRACTUAL MINERA EL ABRA</t>
+          <t>Empresa de Residuos RESITER S.A.</t>
         </is>
       </c>
       <c r="F479" t="n">
-        <v>343000</v>
+        <v>1</v>
       </c>
       <c r="G479" t="inlineStr">
         <is>
@@ -23353,7 +23353,7 @@
       </c>
       <c r="I479" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2088630&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J479" t="inlineStr">
@@ -23368,26 +23368,26 @@
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
+          <t>LIXIVIACIÓN DE SULFUROS SULFOLIX</t>
         </is>
       </c>
       <c r="C480" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D480" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E480" t="inlineStr">
         <is>
-          <t>Empresa de Residuos RESITER S.A.</t>
+          <t>SOCIEDAD CONTRACTUAL MINERA EL ABRA</t>
         </is>
       </c>
       <c r="F480" t="n">
-        <v>1</v>
+        <v>343000</v>
       </c>
       <c r="G480" t="inlineStr">
         <is>
@@ -23401,7 +23401,7 @@
       </c>
       <c r="I480" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2088630&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J480" t="inlineStr">

--- a/data/Calama.xlsx
+++ b/data/Calama.xlsx
@@ -3736,7 +3736,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Verano de San Juan I</t>
+          <t>MODIFICACIONES AL PROYECTO EXTRACCIÓN Y MOVIMIENTO DE MINERALES MINA RADOMIRO TOMIC</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3751,11 +3751,11 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Victoria Solar SpA</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>15000</v>
+        <v>208848</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
@@ -3764,12 +3764,12 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138522682&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138513102&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3784,7 +3784,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Verano de San Juan II</t>
+          <t>Parque Fotovoltaico Verano de San Juan I</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3799,7 +3799,7 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Paine Energy SpA</t>
+          <t>Victoria Solar SpA</t>
         </is>
       </c>
       <c r="F72" t="n">
@@ -3817,7 +3817,7 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138526892&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138522682&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3832,7 +3832,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>MODIFICACIONES AL PROYECTO EXTRACCIÓN Y MOVIMIENTO DE MINERALES MINA RADOMIRO TOMIC</t>
+          <t>Parque Fotovoltaico Verano de San Juan II</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3847,11 +3847,11 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Paine Energy SpA</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>208848</v>
+        <v>15000</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
@@ -3860,12 +3860,12 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138513102&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138526892&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -8632,7 +8632,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -8647,11 +8647,11 @@
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F173" t="n">
-        <v>12500</v>
+        <v>219</v>
       </c>
       <c r="G173" t="inlineStr">
         <is>
@@ -8660,12 +8660,12 @@
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556590&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -8680,7 +8680,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
+          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -8699,7 +8699,7 @@
         </is>
       </c>
       <c r="F174" t="n">
-        <v>10000</v>
+        <v>12500</v>
       </c>
       <c r="G174" t="inlineStr">
         <is>
@@ -8713,7 +8713,7 @@
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -8728,7 +8728,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -8743,11 +8743,11 @@
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F175" t="n">
-        <v>219</v>
+        <v>10000</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
@@ -8756,12 +8756,12 @@
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556590&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -9256,26 +9256,26 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>RT Sulfuros</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F186" t="n">
-        <v>2050</v>
+        <v>5.4</v>
       </c>
       <c r="G186" t="inlineStr">
         <is>
@@ -9284,12 +9284,12 @@
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
@@ -9304,26 +9304,26 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>RT Sulfuros</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F187" t="n">
-        <v>5.4</v>
+        <v>2050</v>
       </c>
       <c r="G187" t="inlineStr">
         <is>
@@ -9332,12 +9332,12 @@
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
@@ -12904,7 +12904,7 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>Portal del Inca</t>
+          <t>Línea de Transmisión Eléctrica 220 kv Encuentro - MH</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
@@ -12919,11 +12919,11 @@
       </c>
       <c r="E262" t="inlineStr">
         <is>
-          <t>Inmobiliaria Inca Dos Ltda.</t>
+          <t>División Ministro Hales de Codelco Chile</t>
         </is>
       </c>
       <c r="F262" t="n">
-        <v>13948</v>
+        <v>45000</v>
       </c>
       <c r="G262" t="inlineStr">
         <is>
@@ -12932,12 +12932,12 @@
       </c>
       <c r="H262" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I262" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5787635&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5773970&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J262" t="inlineStr">
@@ -12952,7 +12952,7 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Eléctrica 220 kv Encuentro - MH</t>
+          <t>Portal del Inca</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
@@ -12967,11 +12967,11 @@
       </c>
       <c r="E263" t="inlineStr">
         <is>
-          <t>División Ministro Hales de Codelco Chile</t>
+          <t>Inmobiliaria Inca Dos Ltda.</t>
         </is>
       </c>
       <c r="F263" t="n">
-        <v>45000</v>
+        <v>13948</v>
       </c>
       <c r="G263" t="inlineStr">
         <is>
@@ -12980,12 +12980,12 @@
       </c>
       <c r="H263" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I263" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5773970&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5787635&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J263" t="inlineStr">
@@ -13720,7 +13720,7 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
@@ -13735,11 +13735,11 @@
       </c>
       <c r="E279" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F279" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G279" t="inlineStr">
         <is>
@@ -13748,12 +13748,12 @@
       </c>
       <c r="H279" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I279" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J279" t="inlineStr">
@@ -13768,7 +13768,7 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
@@ -13783,11 +13783,11 @@
       </c>
       <c r="E280" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F280" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G280" t="inlineStr">
         <is>
@@ -13796,12 +13796,12 @@
       </c>
       <c r="H280" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I280" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J280" t="inlineStr">
@@ -19576,7 +19576,7 @@
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>Proyecto Explotación Subterránea Mina Santa Rosa (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C401" t="inlineStr">
@@ -19586,16 +19586,16 @@
       </c>
       <c r="D401" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E401" t="inlineStr">
         <is>
-          <t>Minera Quimal.S.A.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F401" t="n">
-        <v>500</v>
+        <v>1750</v>
       </c>
       <c r="G401" t="inlineStr">
         <is>
@@ -19604,12 +19604,12 @@
       </c>
       <c r="H401" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I401" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3310659&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J401" t="inlineStr">
@@ -19624,7 +19624,7 @@
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Proyecto Explotación Subterránea Mina Santa Rosa (e-seia)</t>
         </is>
       </c>
       <c r="C402" t="inlineStr">
@@ -19634,16 +19634,16 @@
       </c>
       <c r="D402" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E402" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Minera Quimal.S.A.</t>
         </is>
       </c>
       <c r="F402" t="n">
-        <v>1750</v>
+        <v>500</v>
       </c>
       <c r="G402" t="inlineStr">
         <is>
@@ -19652,12 +19652,12 @@
       </c>
       <c r="H402" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I402" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3310659&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J402" t="inlineStr">
@@ -20104,7 +20104,7 @@
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>Tratamiento de Impurezas en Ánodos y Cátodos de División Codelco Norte (e-seia)</t>
         </is>
       </c>
       <c r="C412" t="inlineStr">
@@ -20114,16 +20114,16 @@
       </c>
       <c r="D412" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E412" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Codelco Chile, División Chuquicamata</t>
         </is>
       </c>
       <c r="F412" t="n">
-        <v>250</v>
+        <v>50000</v>
       </c>
       <c r="G412" t="inlineStr">
         <is>
@@ -20132,12 +20132,12 @@
       </c>
       <c r="H412" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I412" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3118819&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J412" t="inlineStr">
@@ -20152,7 +20152,7 @@
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>Tratamiento de Impurezas en Ánodos y Cátodos de División Codelco Norte (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C413" t="inlineStr">
@@ -20162,16 +20162,16 @@
       </c>
       <c r="D413" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E413" t="inlineStr">
         <is>
-          <t>Codelco Chile, División Chuquicamata</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F413" t="n">
-        <v>50000</v>
+        <v>250</v>
       </c>
       <c r="G413" t="inlineStr">
         <is>
@@ -20180,12 +20180,12 @@
       </c>
       <c r="H413" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I413" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3118819&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J413" t="inlineStr">
@@ -20296,7 +20296,7 @@
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>Proyecto Exploración Minera Macarena - Leo (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C416" t="inlineStr">
@@ -20306,16 +20306,16 @@
       </c>
       <c r="D416" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E416" t="inlineStr">
         <is>
-          <t>Minera Fuego Limitada</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F416" t="n">
-        <v>150</v>
+        <v>1650</v>
       </c>
       <c r="G416" t="inlineStr">
         <is>
@@ -20329,7 +20329,7 @@
       </c>
       <c r="I416" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088992&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J416" t="inlineStr">
@@ -20344,7 +20344,7 @@
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>Proyecto Exploración Minera Macarena - Leo (e-seia)</t>
         </is>
       </c>
       <c r="C417" t="inlineStr">
@@ -20354,16 +20354,16 @@
       </c>
       <c r="D417" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E417" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Minera Fuego Limitada</t>
         </is>
       </c>
       <c r="F417" t="n">
-        <v>1650</v>
+        <v>150</v>
       </c>
       <c r="G417" t="inlineStr">
         <is>
@@ -20377,7 +20377,7 @@
       </c>
       <c r="I417" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088992&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J417" t="inlineStr">
@@ -23320,26 +23320,26 @@
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
+          <t>LIXIVIACIÓN DE SULFUROS SULFOLIX</t>
         </is>
       </c>
       <c r="C479" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D479" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E479" t="inlineStr">
         <is>
-          <t>Empresa de Residuos RESITER S.A.</t>
+          <t>SOCIEDAD CONTRACTUAL MINERA EL ABRA</t>
         </is>
       </c>
       <c r="F479" t="n">
-        <v>1</v>
+        <v>343000</v>
       </c>
       <c r="G479" t="inlineStr">
         <is>
@@ -23353,7 +23353,7 @@
       </c>
       <c r="I479" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2088630&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J479" t="inlineStr">
@@ -23368,26 +23368,26 @@
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>LIXIVIACIÓN DE SULFUROS SULFOLIX</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C480" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D480" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E480" t="inlineStr">
         <is>
-          <t>SOCIEDAD CONTRACTUAL MINERA EL ABRA</t>
+          <t>Empresa de Residuos RESITER S.A.</t>
         </is>
       </c>
       <c r="F480" t="n">
-        <v>343000</v>
+        <v>1</v>
       </c>
       <c r="G480" t="inlineStr">
         <is>
@@ -23401,7 +23401,7 @@
       </c>
       <c r="I480" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2088630&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J480" t="inlineStr">

--- a/data/Calama.xlsx
+++ b/data/Calama.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>01/03/2022</t>
+          <t>07/03/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -1543,7 +1543,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>MINERA DEL NORTE SPA</t>
+          <t>Minera del Norte SpA</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -2503,7 +2503,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>MINERA DEL NORTE SPA</t>
+          <t>Minera del Norte SpA</t>
         </is>
       </c>
       <c r="F45" t="n">
@@ -11431,7 +11431,7 @@
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>Minera Cerro Dominador S.A.</t>
+          <t>Minera del Norte SpA</t>
         </is>
       </c>
       <c r="F231" t="n">

--- a/data/Calama.xlsx
+++ b/data/Calama.xlsx
@@ -980,7 +980,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -3736,7 +3736,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Verano de San Juan I</t>
+          <t>MODIFICACIONES AL PROYECTO EXTRACCIÓN Y MOVIMIENTO DE MINERALES MINA RADOMIRO TOMIC</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3751,11 +3751,11 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Victoria Solar SpA</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>15000</v>
+        <v>208848</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
@@ -3764,12 +3764,12 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138522682&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138513102&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3784,7 +3784,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Verano de San Juan II</t>
+          <t>Parque Fotovoltaico Verano de San Juan I</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3799,7 +3799,7 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Paine Energy SpA</t>
+          <t>Victoria Solar SpA</t>
         </is>
       </c>
       <c r="F72" t="n">
@@ -3817,7 +3817,7 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138526892&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138522682&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3832,7 +3832,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>MODIFICACIONES AL PROYECTO EXTRACCIÓN Y MOVIMIENTO DE MINERALES MINA RADOMIRO TOMIC</t>
+          <t>Parque Fotovoltaico Verano de San Juan II</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3847,11 +3847,11 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Paine Energy SpA</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>208848</v>
+        <v>15000</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
@@ -3860,12 +3860,12 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138513102&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138526892&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -8632,7 +8632,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -8647,11 +8647,11 @@
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F173" t="n">
-        <v>12500</v>
+        <v>219</v>
       </c>
       <c r="G173" t="inlineStr">
         <is>
@@ -8660,12 +8660,12 @@
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556590&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -8680,7 +8680,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
+          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -8699,7 +8699,7 @@
         </is>
       </c>
       <c r="F174" t="n">
-        <v>10000</v>
+        <v>12500</v>
       </c>
       <c r="G174" t="inlineStr">
         <is>
@@ -8713,7 +8713,7 @@
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -8728,7 +8728,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -8743,11 +8743,11 @@
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F175" t="n">
-        <v>219</v>
+        <v>10000</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
@@ -8756,12 +8756,12 @@
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556590&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -9256,26 +9256,26 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>RT Sulfuros</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F186" t="n">
-        <v>2050</v>
+        <v>5.4</v>
       </c>
       <c r="G186" t="inlineStr">
         <is>
@@ -9284,12 +9284,12 @@
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
@@ -9304,26 +9304,26 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>RT Sulfuros</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F187" t="n">
-        <v>5.4</v>
+        <v>2050</v>
       </c>
       <c r="G187" t="inlineStr">
         <is>
@@ -9332,12 +9332,12 @@
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
@@ -12904,7 +12904,7 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>Portal del Inca</t>
+          <t>Línea de Transmisión Eléctrica 220 kv Encuentro - MH</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
@@ -12919,11 +12919,11 @@
       </c>
       <c r="E262" t="inlineStr">
         <is>
-          <t>Inmobiliaria Inca Dos Ltda.</t>
+          <t>División Ministro Hales de Codelco Chile</t>
         </is>
       </c>
       <c r="F262" t="n">
-        <v>13948</v>
+        <v>45000</v>
       </c>
       <c r="G262" t="inlineStr">
         <is>
@@ -12932,12 +12932,12 @@
       </c>
       <c r="H262" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I262" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5787635&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5773970&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J262" t="inlineStr">
@@ -12952,7 +12952,7 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Eléctrica 220 kv Encuentro - MH</t>
+          <t>Portal del Inca</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
@@ -12967,11 +12967,11 @@
       </c>
       <c r="E263" t="inlineStr">
         <is>
-          <t>División Ministro Hales de Codelco Chile</t>
+          <t>Inmobiliaria Inca Dos Ltda.</t>
         </is>
       </c>
       <c r="F263" t="n">
-        <v>45000</v>
+        <v>13948</v>
       </c>
       <c r="G263" t="inlineStr">
         <is>
@@ -12980,12 +12980,12 @@
       </c>
       <c r="H263" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I263" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5773970&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5787635&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J263" t="inlineStr">
@@ -13720,7 +13720,7 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
@@ -13735,11 +13735,11 @@
       </c>
       <c r="E279" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F279" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G279" t="inlineStr">
         <is>
@@ -13748,12 +13748,12 @@
       </c>
       <c r="H279" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I279" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J279" t="inlineStr">
@@ -13768,7 +13768,7 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
@@ -13783,11 +13783,11 @@
       </c>
       <c r="E280" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F280" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G280" t="inlineStr">
         <is>
@@ -13796,12 +13796,12 @@
       </c>
       <c r="H280" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I280" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J280" t="inlineStr">
@@ -19576,7 +19576,7 @@
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>Proyecto Explotación Subterránea Mina Santa Rosa (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C401" t="inlineStr">
@@ -19586,16 +19586,16 @@
       </c>
       <c r="D401" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E401" t="inlineStr">
         <is>
-          <t>Minera Quimal.S.A.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F401" t="n">
-        <v>500</v>
+        <v>1750</v>
       </c>
       <c r="G401" t="inlineStr">
         <is>
@@ -19604,12 +19604,12 @@
       </c>
       <c r="H401" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I401" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3310659&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J401" t="inlineStr">
@@ -19624,7 +19624,7 @@
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Proyecto Explotación Subterránea Mina Santa Rosa (e-seia)</t>
         </is>
       </c>
       <c r="C402" t="inlineStr">
@@ -19634,16 +19634,16 @@
       </c>
       <c r="D402" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E402" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Minera Quimal.S.A.</t>
         </is>
       </c>
       <c r="F402" t="n">
-        <v>1750</v>
+        <v>500</v>
       </c>
       <c r="G402" t="inlineStr">
         <is>
@@ -19652,12 +19652,12 @@
       </c>
       <c r="H402" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I402" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3310659&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J402" t="inlineStr">
@@ -20104,7 +20104,7 @@
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>Tratamiento de Impurezas en Ánodos y Cátodos de División Codelco Norte (e-seia)</t>
         </is>
       </c>
       <c r="C412" t="inlineStr">
@@ -20114,16 +20114,16 @@
       </c>
       <c r="D412" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E412" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Codelco Chile, División Chuquicamata</t>
         </is>
       </c>
       <c r="F412" t="n">
-        <v>250</v>
+        <v>50000</v>
       </c>
       <c r="G412" t="inlineStr">
         <is>
@@ -20132,12 +20132,12 @@
       </c>
       <c r="H412" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I412" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3118819&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J412" t="inlineStr">
@@ -20152,7 +20152,7 @@
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>Tratamiento de Impurezas en Ánodos y Cátodos de División Codelco Norte (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C413" t="inlineStr">
@@ -20162,16 +20162,16 @@
       </c>
       <c r="D413" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E413" t="inlineStr">
         <is>
-          <t>Codelco Chile, División Chuquicamata</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F413" t="n">
-        <v>50000</v>
+        <v>250</v>
       </c>
       <c r="G413" t="inlineStr">
         <is>
@@ -20180,12 +20180,12 @@
       </c>
       <c r="H413" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I413" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3118819&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J413" t="inlineStr">
@@ -20296,7 +20296,7 @@
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>Proyecto Exploración Minera Macarena - Leo (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C416" t="inlineStr">
@@ -20306,16 +20306,16 @@
       </c>
       <c r="D416" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E416" t="inlineStr">
         <is>
-          <t>Minera Fuego Limitada</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F416" t="n">
-        <v>150</v>
+        <v>1650</v>
       </c>
       <c r="G416" t="inlineStr">
         <is>
@@ -20329,7 +20329,7 @@
       </c>
       <c r="I416" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088992&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J416" t="inlineStr">
@@ -20344,7 +20344,7 @@
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>Proyecto Exploración Minera Macarena - Leo (e-seia)</t>
         </is>
       </c>
       <c r="C417" t="inlineStr">
@@ -20354,16 +20354,16 @@
       </c>
       <c r="D417" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E417" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Minera Fuego Limitada</t>
         </is>
       </c>
       <c r="F417" t="n">
-        <v>1650</v>
+        <v>150</v>
       </c>
       <c r="G417" t="inlineStr">
         <is>
@@ -20377,7 +20377,7 @@
       </c>
       <c r="I417" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088992&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J417" t="inlineStr">
@@ -23320,26 +23320,26 @@
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
+          <t>LIXIVIACIÓN DE SULFUROS SULFOLIX</t>
         </is>
       </c>
       <c r="C479" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D479" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E479" t="inlineStr">
         <is>
-          <t>Empresa de Residuos RESITER S.A.</t>
+          <t>SOCIEDAD CONTRACTUAL MINERA EL ABRA</t>
         </is>
       </c>
       <c r="F479" t="n">
-        <v>1</v>
+        <v>343000</v>
       </c>
       <c r="G479" t="inlineStr">
         <is>
@@ -23353,7 +23353,7 @@
       </c>
       <c r="I479" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2088630&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J479" t="inlineStr">
@@ -23368,26 +23368,26 @@
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>LIXIVIACIÓN DE SULFUROS SULFOLIX</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C480" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D480" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E480" t="inlineStr">
         <is>
-          <t>SOCIEDAD CONTRACTUAL MINERA EL ABRA</t>
+          <t>Empresa de Residuos RESITER S.A.</t>
         </is>
       </c>
       <c r="F480" t="n">
-        <v>343000</v>
+        <v>1</v>
       </c>
       <c r="G480" t="inlineStr">
         <is>
@@ -23401,7 +23401,7 @@
       </c>
       <c r="I480" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2088630&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J480" t="inlineStr">

--- a/data/Calama.xlsx
+++ b/data/Calama.xlsx
@@ -3736,7 +3736,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>MODIFICACIONES AL PROYECTO EXTRACCIÓN Y MOVIMIENTO DE MINERALES MINA RADOMIRO TOMIC</t>
+          <t>Parque Fotovoltaico Verano de San Juan I</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3751,11 +3751,11 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Victoria Solar SpA</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>208848</v>
+        <v>15000</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
@@ -3764,12 +3764,12 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138513102&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138522682&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3784,7 +3784,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Verano de San Juan I</t>
+          <t>Parque Fotovoltaico Verano de San Juan II</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3799,7 +3799,7 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Victoria Solar SpA</t>
+          <t>Paine Energy SpA</t>
         </is>
       </c>
       <c r="F72" t="n">
@@ -3817,7 +3817,7 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138522682&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138526892&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3832,7 +3832,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Verano de San Juan II</t>
+          <t>MODIFICACIONES AL PROYECTO EXTRACCIÓN Y MOVIMIENTO DE MINERALES MINA RADOMIRO TOMIC</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3847,11 +3847,11 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Paine Energy SpA</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>15000</v>
+        <v>208848</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
@@ -3860,12 +3860,12 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138526892&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138513102&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -7720,7 +7720,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>AUMENTO CAPACIDAD DE TRATAMIENTO DE EFLUENTES DE FUNDICIÓN</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -7730,16 +7730,16 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>Codelco Chile, División Chuquicamata</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F154" t="n">
-        <v>67700</v>
+        <v>1200</v>
       </c>
       <c r="G154" t="inlineStr">
         <is>
@@ -7753,7 +7753,7 @@
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128952737&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -7768,7 +7768,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Proyecto Fotovoltaico Azabache</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -7778,16 +7778,16 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>Almeyda Solar SpA.</t>
         </is>
       </c>
       <c r="F155" t="n">
-        <v>1200</v>
+        <v>140000</v>
       </c>
       <c r="G155" t="inlineStr">
         <is>
@@ -7801,7 +7801,7 @@
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128969457&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -7816,7 +7816,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Proyecto Fotovoltaico Azabache</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -7826,16 +7826,16 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>Almeyda Solar SpA.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F156" t="n">
-        <v>140000</v>
+        <v>0</v>
       </c>
       <c r="G156" t="inlineStr">
         <is>
@@ -7849,7 +7849,7 @@
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128969457&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -7864,7 +7864,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>AUMENTO CAPACIDAD DE TRATAMIENTO DE EFLUENTES DE FUNDICIÓN</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -7874,16 +7874,16 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Codelco Chile, División Chuquicamata</t>
         </is>
       </c>
       <c r="F157" t="n">
-        <v>0</v>
+        <v>67700</v>
       </c>
       <c r="G157" t="inlineStr">
         <is>
@@ -7897,7 +7897,7 @@
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128952737&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -8632,7 +8632,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -8647,11 +8647,11 @@
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F173" t="n">
-        <v>219</v>
+        <v>12500</v>
       </c>
       <c r="G173" t="inlineStr">
         <is>
@@ -8660,12 +8660,12 @@
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556590&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -8680,7 +8680,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -8699,7 +8699,7 @@
         </is>
       </c>
       <c r="F174" t="n">
-        <v>12500</v>
+        <v>10000</v>
       </c>
       <c r="G174" t="inlineStr">
         <is>
@@ -8713,7 +8713,7 @@
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -8728,7 +8728,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -8743,11 +8743,11 @@
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F175" t="n">
-        <v>10000</v>
+        <v>219</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
@@ -8756,12 +8756,12 @@
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556590&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -9256,26 +9256,26 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>RT Sulfuros</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F186" t="n">
-        <v>5.4</v>
+        <v>2050</v>
       </c>
       <c r="G186" t="inlineStr">
         <is>
@@ -9284,12 +9284,12 @@
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
@@ -9304,26 +9304,26 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>RT Sulfuros</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F187" t="n">
-        <v>2050</v>
+        <v>5.4</v>
       </c>
       <c r="G187" t="inlineStr">
         <is>
@@ -9332,12 +9332,12 @@
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
@@ -10744,7 +10744,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Planta Fotovoltaica San Pedro de Atacama IV</t>
+          <t>Procesamiento de Óxidos DMH</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -10759,11 +10759,11 @@
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>GPG Solar Chile 2017 SpA</t>
+          <t>División Ministro Hales de Codelco Chile</t>
         </is>
       </c>
       <c r="F217" t="n">
-        <v>105250</v>
+        <v>70000</v>
       </c>
       <c r="G217" t="inlineStr">
         <is>
@@ -10777,7 +10777,7 @@
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7052315&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7040302&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J217" t="inlineStr">
@@ -10792,7 +10792,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Procesamiento de Óxidos DMH</t>
+          <t>Planta Fotovoltaica San Pedro de Atacama IV</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -10807,11 +10807,11 @@
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>División Ministro Hales de Codelco Chile</t>
+          <t>GPG Solar Chile 2017 SpA</t>
         </is>
       </c>
       <c r="F218" t="n">
-        <v>70000</v>
+        <v>105250</v>
       </c>
       <c r="G218" t="inlineStr">
         <is>
@@ -10825,7 +10825,7 @@
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7040302&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7052315&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">
@@ -10868,7 +10868,7 @@
       </c>
       <c r="H219" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I219" t="inlineStr">
@@ -12904,7 +12904,7 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Eléctrica 220 kv Encuentro - MH</t>
+          <t>Portal del Inca</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
@@ -12919,11 +12919,11 @@
       </c>
       <c r="E262" t="inlineStr">
         <is>
-          <t>División Ministro Hales de Codelco Chile</t>
+          <t>Inmobiliaria Inca Dos Ltda.</t>
         </is>
       </c>
       <c r="F262" t="n">
-        <v>45000</v>
+        <v>13948</v>
       </c>
       <c r="G262" t="inlineStr">
         <is>
@@ -12932,12 +12932,12 @@
       </c>
       <c r="H262" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I262" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5773970&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5787635&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J262" t="inlineStr">
@@ -12952,7 +12952,7 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>Portal del Inca</t>
+          <t>Línea de Transmisión Eléctrica 220 kv Encuentro - MH</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
@@ -12967,11 +12967,11 @@
       </c>
       <c r="E263" t="inlineStr">
         <is>
-          <t>Inmobiliaria Inca Dos Ltda.</t>
+          <t>División Ministro Hales de Codelco Chile</t>
         </is>
       </c>
       <c r="F263" t="n">
-        <v>13948</v>
+        <v>45000</v>
       </c>
       <c r="G263" t="inlineStr">
         <is>
@@ -12980,12 +12980,12 @@
       </c>
       <c r="H263" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I263" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5787635&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5773970&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J263" t="inlineStr">
@@ -13720,7 +13720,7 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
@@ -13735,11 +13735,11 @@
       </c>
       <c r="E279" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F279" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G279" t="inlineStr">
         <is>
@@ -13748,12 +13748,12 @@
       </c>
       <c r="H279" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I279" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J279" t="inlineStr">
@@ -13768,7 +13768,7 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
@@ -13783,11 +13783,11 @@
       </c>
       <c r="E280" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F280" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G280" t="inlineStr">
         <is>
@@ -13796,12 +13796,12 @@
       </c>
       <c r="H280" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I280" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J280" t="inlineStr">
@@ -18280,7 +18280,7 @@
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>Sondajes Prospección Ingeniería de Detalles Explotación Subterránea Yacimiento Chuquicamata (e-seia)</t>
+          <t>Planta de Tratamiento de Efluentes Hospital del Cobre (e-seia)</t>
         </is>
       </c>
       <c r="C374" t="inlineStr">
@@ -18299,7 +18299,7 @@
         </is>
       </c>
       <c r="F374" t="n">
-        <v>83584</v>
+        <v>200</v>
       </c>
       <c r="G374" t="inlineStr">
         <is>
@@ -18313,7 +18313,7 @@
       </c>
       <c r="I374" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3737660&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3826608&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J374" t="inlineStr">
@@ -18328,7 +18328,7 @@
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Efluentes Hospital del Cobre (e-seia)</t>
+          <t>Sondajes Prospección Ingeniería de Detalles Explotación Subterránea Yacimiento Chuquicamata (e-seia)</t>
         </is>
       </c>
       <c r="C375" t="inlineStr">
@@ -18347,7 +18347,7 @@
         </is>
       </c>
       <c r="F375" t="n">
-        <v>200</v>
+        <v>83584</v>
       </c>
       <c r="G375" t="inlineStr">
         <is>
@@ -18361,7 +18361,7 @@
       </c>
       <c r="I375" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3826608&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3737660&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J375" t="inlineStr">
@@ -19576,7 +19576,7 @@
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Proyecto Explotación Subterránea Mina Santa Rosa (e-seia)</t>
         </is>
       </c>
       <c r="C401" t="inlineStr">
@@ -19586,16 +19586,16 @@
       </c>
       <c r="D401" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E401" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Minera Quimal.S.A.</t>
         </is>
       </c>
       <c r="F401" t="n">
-        <v>1750</v>
+        <v>500</v>
       </c>
       <c r="G401" t="inlineStr">
         <is>
@@ -19604,12 +19604,12 @@
       </c>
       <c r="H401" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I401" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3310659&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J401" t="inlineStr">
@@ -19624,7 +19624,7 @@
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>Proyecto Explotación Subterránea Mina Santa Rosa (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C402" t="inlineStr">
@@ -19634,16 +19634,16 @@
       </c>
       <c r="D402" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E402" t="inlineStr">
         <is>
-          <t>Minera Quimal.S.A.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F402" t="n">
-        <v>500</v>
+        <v>1750</v>
       </c>
       <c r="G402" t="inlineStr">
         <is>
@@ -19652,12 +19652,12 @@
       </c>
       <c r="H402" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I402" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3310659&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J402" t="inlineStr">
@@ -20104,7 +20104,7 @@
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>Tratamiento de Impurezas en Ánodos y Cátodos de División Codelco Norte (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C412" t="inlineStr">
@@ -20114,16 +20114,16 @@
       </c>
       <c r="D412" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E412" t="inlineStr">
         <is>
-          <t>Codelco Chile, División Chuquicamata</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F412" t="n">
-        <v>50000</v>
+        <v>250</v>
       </c>
       <c r="G412" t="inlineStr">
         <is>
@@ -20132,12 +20132,12 @@
       </c>
       <c r="H412" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I412" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3118819&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J412" t="inlineStr">
@@ -20152,7 +20152,7 @@
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>Tratamiento de Impurezas en Ánodos y Cátodos de División Codelco Norte (e-seia)</t>
         </is>
       </c>
       <c r="C413" t="inlineStr">
@@ -20162,16 +20162,16 @@
       </c>
       <c r="D413" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E413" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Codelco Chile, División Chuquicamata</t>
         </is>
       </c>
       <c r="F413" t="n">
-        <v>250</v>
+        <v>50000</v>
       </c>
       <c r="G413" t="inlineStr">
         <is>
@@ -20180,12 +20180,12 @@
       </c>
       <c r="H413" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I413" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3118819&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J413" t="inlineStr">
@@ -20296,7 +20296,7 @@
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>Proyecto Exploración Minera Macarena - Leo (e-seia)</t>
         </is>
       </c>
       <c r="C416" t="inlineStr">
@@ -20306,16 +20306,16 @@
       </c>
       <c r="D416" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E416" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Minera Fuego Limitada</t>
         </is>
       </c>
       <c r="F416" t="n">
-        <v>1650</v>
+        <v>150</v>
       </c>
       <c r="G416" t="inlineStr">
         <is>
@@ -20329,7 +20329,7 @@
       </c>
       <c r="I416" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088992&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J416" t="inlineStr">
@@ -20344,7 +20344,7 @@
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>Proyecto Exploración Minera Macarena - Leo (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C417" t="inlineStr">
@@ -20354,16 +20354,16 @@
       </c>
       <c r="D417" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E417" t="inlineStr">
         <is>
-          <t>Minera Fuego Limitada</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F417" t="n">
-        <v>150</v>
+        <v>1650</v>
       </c>
       <c r="G417" t="inlineStr">
         <is>
@@ -20377,7 +20377,7 @@
       </c>
       <c r="I417" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088992&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J417" t="inlineStr">
@@ -23320,26 +23320,26 @@
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>LIXIVIACIÓN DE SULFUROS SULFOLIX</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C479" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D479" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E479" t="inlineStr">
         <is>
-          <t>SOCIEDAD CONTRACTUAL MINERA EL ABRA</t>
+          <t>Empresa de Residuos RESITER S.A.</t>
         </is>
       </c>
       <c r="F479" t="n">
-        <v>343000</v>
+        <v>1</v>
       </c>
       <c r="G479" t="inlineStr">
         <is>
@@ -23353,7 +23353,7 @@
       </c>
       <c r="I479" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2088630&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J479" t="inlineStr">
@@ -23368,26 +23368,26 @@
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
+          <t>LIXIVIACIÓN DE SULFUROS SULFOLIX</t>
         </is>
       </c>
       <c r="C480" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D480" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E480" t="inlineStr">
         <is>
-          <t>Empresa de Residuos RESITER S.A.</t>
+          <t>SOCIEDAD CONTRACTUAL MINERA EL ABRA</t>
         </is>
       </c>
       <c r="F480" t="n">
-        <v>1</v>
+        <v>343000</v>
       </c>
       <c r="G480" t="inlineStr">
         <is>
@@ -23401,7 +23401,7 @@
       </c>
       <c r="I480" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2088630&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J480" t="inlineStr">

--- a/data/Calama.xlsx
+++ b/data/Calama.xlsx
@@ -3736,7 +3736,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Verano de San Juan I</t>
+          <t>MODIFICACIONES AL PROYECTO EXTRACCIÓN Y MOVIMIENTO DE MINERALES MINA RADOMIRO TOMIC</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3751,11 +3751,11 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Victoria Solar SpA</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>15000</v>
+        <v>208848</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
@@ -3764,12 +3764,12 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138522682&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138513102&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3784,7 +3784,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Verano de San Juan II</t>
+          <t>Parque Fotovoltaico Verano de San Juan I</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3799,7 +3799,7 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Paine Energy SpA</t>
+          <t>Victoria Solar SpA</t>
         </is>
       </c>
       <c r="F72" t="n">
@@ -3817,7 +3817,7 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138526892&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138522682&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3832,7 +3832,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>MODIFICACIONES AL PROYECTO EXTRACCIÓN Y MOVIMIENTO DE MINERALES MINA RADOMIRO TOMIC</t>
+          <t>Parque Fotovoltaico Verano de San Juan II</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3847,11 +3847,11 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Paine Energy SpA</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>208848</v>
+        <v>15000</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
@@ -3860,12 +3860,12 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138513102&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138526892&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -7720,7 +7720,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>AUMENTO CAPACIDAD DE TRATAMIENTO DE EFLUENTES DE FUNDICIÓN</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -7730,16 +7730,16 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>Codelco Chile, División Chuquicamata</t>
         </is>
       </c>
       <c r="F154" t="n">
-        <v>1200</v>
+        <v>67700</v>
       </c>
       <c r="G154" t="inlineStr">
         <is>
@@ -7753,7 +7753,7 @@
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128952737&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -7768,7 +7768,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Proyecto Fotovoltaico Azabache</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -7778,16 +7778,16 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>Almeyda Solar SpA.</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F155" t="n">
-        <v>140000</v>
+        <v>1200</v>
       </c>
       <c r="G155" t="inlineStr">
         <is>
@@ -7801,7 +7801,7 @@
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128969457&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -7816,7 +7816,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Proyecto Fotovoltaico Azabache</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -7826,16 +7826,16 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Almeyda Solar SpA.</t>
         </is>
       </c>
       <c r="F156" t="n">
-        <v>0</v>
+        <v>140000</v>
       </c>
       <c r="G156" t="inlineStr">
         <is>
@@ -7849,7 +7849,7 @@
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128969457&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -7864,7 +7864,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>AUMENTO CAPACIDAD DE TRATAMIENTO DE EFLUENTES DE FUNDICIÓN</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -7874,16 +7874,16 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>Codelco Chile, División Chuquicamata</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F157" t="n">
-        <v>67700</v>
+        <v>0</v>
       </c>
       <c r="G157" t="inlineStr">
         <is>
@@ -7897,7 +7897,7 @@
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128952737&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -8632,7 +8632,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -8647,11 +8647,11 @@
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F173" t="n">
-        <v>12500</v>
+        <v>219</v>
       </c>
       <c r="G173" t="inlineStr">
         <is>
@@ -8660,12 +8660,12 @@
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556590&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -8680,7 +8680,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
+          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -8699,7 +8699,7 @@
         </is>
       </c>
       <c r="F174" t="n">
-        <v>10000</v>
+        <v>12500</v>
       </c>
       <c r="G174" t="inlineStr">
         <is>
@@ -8713,7 +8713,7 @@
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -8728,7 +8728,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -8743,11 +8743,11 @@
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F175" t="n">
-        <v>219</v>
+        <v>10000</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
@@ -8756,12 +8756,12 @@
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556590&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -9256,26 +9256,26 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>RT Sulfuros</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F186" t="n">
-        <v>2050</v>
+        <v>5.4</v>
       </c>
       <c r="G186" t="inlineStr">
         <is>
@@ -9284,12 +9284,12 @@
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
@@ -9304,26 +9304,26 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>RT Sulfuros</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F187" t="n">
-        <v>5.4</v>
+        <v>2050</v>
       </c>
       <c r="G187" t="inlineStr">
         <is>
@@ -9332,12 +9332,12 @@
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
@@ -10744,7 +10744,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Procesamiento de Óxidos DMH</t>
+          <t>Planta Fotovoltaica San Pedro de Atacama IV</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -10759,11 +10759,11 @@
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>División Ministro Hales de Codelco Chile</t>
+          <t>GPG Solar Chile 2017 SpA</t>
         </is>
       </c>
       <c r="F217" t="n">
-        <v>70000</v>
+        <v>105250</v>
       </c>
       <c r="G217" t="inlineStr">
         <is>
@@ -10777,7 +10777,7 @@
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7040302&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7052315&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J217" t="inlineStr">
@@ -10792,7 +10792,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Planta Fotovoltaica San Pedro de Atacama IV</t>
+          <t>Procesamiento de Óxidos DMH</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -10807,11 +10807,11 @@
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>GPG Solar Chile 2017 SpA</t>
+          <t>División Ministro Hales de Codelco Chile</t>
         </is>
       </c>
       <c r="F218" t="n">
-        <v>105250</v>
+        <v>70000</v>
       </c>
       <c r="G218" t="inlineStr">
         <is>
@@ -10825,7 +10825,7 @@
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7052315&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7040302&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">
@@ -12904,7 +12904,7 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>Portal del Inca</t>
+          <t>Línea de Transmisión Eléctrica 220 kv Encuentro - MH</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
@@ -12919,11 +12919,11 @@
       </c>
       <c r="E262" t="inlineStr">
         <is>
-          <t>Inmobiliaria Inca Dos Ltda.</t>
+          <t>División Ministro Hales de Codelco Chile</t>
         </is>
       </c>
       <c r="F262" t="n">
-        <v>13948</v>
+        <v>45000</v>
       </c>
       <c r="G262" t="inlineStr">
         <is>
@@ -12932,12 +12932,12 @@
       </c>
       <c r="H262" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I262" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5787635&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5773970&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J262" t="inlineStr">
@@ -12952,7 +12952,7 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Eléctrica 220 kv Encuentro - MH</t>
+          <t>Portal del Inca</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
@@ -12967,11 +12967,11 @@
       </c>
       <c r="E263" t="inlineStr">
         <is>
-          <t>División Ministro Hales de Codelco Chile</t>
+          <t>Inmobiliaria Inca Dos Ltda.</t>
         </is>
       </c>
       <c r="F263" t="n">
-        <v>45000</v>
+        <v>13948</v>
       </c>
       <c r="G263" t="inlineStr">
         <is>
@@ -12980,12 +12980,12 @@
       </c>
       <c r="H263" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I263" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5773970&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5787635&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J263" t="inlineStr">
@@ -13720,7 +13720,7 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
@@ -13735,11 +13735,11 @@
       </c>
       <c r="E279" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F279" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G279" t="inlineStr">
         <is>
@@ -13748,12 +13748,12 @@
       </c>
       <c r="H279" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I279" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J279" t="inlineStr">
@@ -13768,7 +13768,7 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
@@ -13783,11 +13783,11 @@
       </c>
       <c r="E280" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F280" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G280" t="inlineStr">
         <is>
@@ -13796,12 +13796,12 @@
       </c>
       <c r="H280" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I280" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J280" t="inlineStr">
@@ -18280,7 +18280,7 @@
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Efluentes Hospital del Cobre (e-seia)</t>
+          <t>Sondajes Prospección Ingeniería de Detalles Explotación Subterránea Yacimiento Chuquicamata (e-seia)</t>
         </is>
       </c>
       <c r="C374" t="inlineStr">
@@ -18299,7 +18299,7 @@
         </is>
       </c>
       <c r="F374" t="n">
-        <v>200</v>
+        <v>83584</v>
       </c>
       <c r="G374" t="inlineStr">
         <is>
@@ -18313,7 +18313,7 @@
       </c>
       <c r="I374" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3826608&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3737660&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J374" t="inlineStr">
@@ -18328,7 +18328,7 @@
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>Sondajes Prospección Ingeniería de Detalles Explotación Subterránea Yacimiento Chuquicamata (e-seia)</t>
+          <t>Planta de Tratamiento de Efluentes Hospital del Cobre (e-seia)</t>
         </is>
       </c>
       <c r="C375" t="inlineStr">
@@ -18347,7 +18347,7 @@
         </is>
       </c>
       <c r="F375" t="n">
-        <v>83584</v>
+        <v>200</v>
       </c>
       <c r="G375" t="inlineStr">
         <is>
@@ -18361,7 +18361,7 @@
       </c>
       <c r="I375" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3737660&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3826608&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J375" t="inlineStr">
@@ -19576,7 +19576,7 @@
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>Proyecto Explotación Subterránea Mina Santa Rosa (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C401" t="inlineStr">
@@ -19586,16 +19586,16 @@
       </c>
       <c r="D401" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E401" t="inlineStr">
         <is>
-          <t>Minera Quimal.S.A.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F401" t="n">
-        <v>500</v>
+        <v>1750</v>
       </c>
       <c r="G401" t="inlineStr">
         <is>
@@ -19604,12 +19604,12 @@
       </c>
       <c r="H401" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I401" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3310659&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J401" t="inlineStr">
@@ -19624,7 +19624,7 @@
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Proyecto Explotación Subterránea Mina Santa Rosa (e-seia)</t>
         </is>
       </c>
       <c r="C402" t="inlineStr">
@@ -19634,16 +19634,16 @@
       </c>
       <c r="D402" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E402" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Minera Quimal.S.A.</t>
         </is>
       </c>
       <c r="F402" t="n">
-        <v>1750</v>
+        <v>500</v>
       </c>
       <c r="G402" t="inlineStr">
         <is>
@@ -19652,12 +19652,12 @@
       </c>
       <c r="H402" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I402" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3310659&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J402" t="inlineStr">
@@ -20104,7 +20104,7 @@
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>Tratamiento de Impurezas en Ánodos y Cátodos de División Codelco Norte (e-seia)</t>
         </is>
       </c>
       <c r="C412" t="inlineStr">
@@ -20114,16 +20114,16 @@
       </c>
       <c r="D412" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E412" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Codelco Chile, División Chuquicamata</t>
         </is>
       </c>
       <c r="F412" t="n">
-        <v>250</v>
+        <v>50000</v>
       </c>
       <c r="G412" t="inlineStr">
         <is>
@@ -20132,12 +20132,12 @@
       </c>
       <c r="H412" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I412" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3118819&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J412" t="inlineStr">
@@ -20152,7 +20152,7 @@
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>Tratamiento de Impurezas en Ánodos y Cátodos de División Codelco Norte (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C413" t="inlineStr">
@@ -20162,16 +20162,16 @@
       </c>
       <c r="D413" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E413" t="inlineStr">
         <is>
-          <t>Codelco Chile, División Chuquicamata</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F413" t="n">
-        <v>50000</v>
+        <v>250</v>
       </c>
       <c r="G413" t="inlineStr">
         <is>
@@ -20180,12 +20180,12 @@
       </c>
       <c r="H413" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I413" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3118819&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J413" t="inlineStr">
@@ -20296,7 +20296,7 @@
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>Proyecto Exploración Minera Macarena - Leo (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C416" t="inlineStr">
@@ -20306,16 +20306,16 @@
       </c>
       <c r="D416" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E416" t="inlineStr">
         <is>
-          <t>Minera Fuego Limitada</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F416" t="n">
-        <v>150</v>
+        <v>1650</v>
       </c>
       <c r="G416" t="inlineStr">
         <is>
@@ -20329,7 +20329,7 @@
       </c>
       <c r="I416" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088992&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J416" t="inlineStr">
@@ -20344,7 +20344,7 @@
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>Proyecto Exploración Minera Macarena - Leo (e-seia)</t>
         </is>
       </c>
       <c r="C417" t="inlineStr">
@@ -20354,16 +20354,16 @@
       </c>
       <c r="D417" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E417" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Minera Fuego Limitada</t>
         </is>
       </c>
       <c r="F417" t="n">
-        <v>1650</v>
+        <v>150</v>
       </c>
       <c r="G417" t="inlineStr">
         <is>
@@ -20377,7 +20377,7 @@
       </c>
       <c r="I417" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088992&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J417" t="inlineStr">
@@ -23320,26 +23320,26 @@
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
+          <t>LIXIVIACIÓN DE SULFUROS SULFOLIX</t>
         </is>
       </c>
       <c r="C479" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D479" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E479" t="inlineStr">
         <is>
-          <t>Empresa de Residuos RESITER S.A.</t>
+          <t>SOCIEDAD CONTRACTUAL MINERA EL ABRA</t>
         </is>
       </c>
       <c r="F479" t="n">
-        <v>1</v>
+        <v>343000</v>
       </c>
       <c r="G479" t="inlineStr">
         <is>
@@ -23353,7 +23353,7 @@
       </c>
       <c r="I479" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2088630&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J479" t="inlineStr">
@@ -23368,26 +23368,26 @@
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>LIXIVIACIÓN DE SULFUROS SULFOLIX</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C480" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D480" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E480" t="inlineStr">
         <is>
-          <t>SOCIEDAD CONTRACTUAL MINERA EL ABRA</t>
+          <t>Empresa de Residuos RESITER S.A.</t>
         </is>
       </c>
       <c r="F480" t="n">
-        <v>343000</v>
+        <v>1</v>
       </c>
       <c r="G480" t="inlineStr">
         <is>
@@ -23401,7 +23401,7 @@
       </c>
       <c r="I480" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2088630&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J480" t="inlineStr">

--- a/data/Calama.xlsx
+++ b/data/Calama.xlsx
@@ -3736,7 +3736,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>MODIFICACIONES AL PROYECTO EXTRACCIÓN Y MOVIMIENTO DE MINERALES MINA RADOMIRO TOMIC</t>
+          <t>Parque Fotovoltaico Verano de San Juan I</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3751,11 +3751,11 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Victoria Solar SpA</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>208848</v>
+        <v>15000</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
@@ -3764,12 +3764,12 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138513102&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138522682&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3784,7 +3784,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Verano de San Juan I</t>
+          <t>Parque Fotovoltaico Verano de San Juan II</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3799,7 +3799,7 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Victoria Solar SpA</t>
+          <t>Paine Energy SpA</t>
         </is>
       </c>
       <c r="F72" t="n">
@@ -3817,7 +3817,7 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138522682&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138526892&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3832,7 +3832,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Verano de San Juan II</t>
+          <t>MODIFICACIONES AL PROYECTO EXTRACCIÓN Y MOVIMIENTO DE MINERALES MINA RADOMIRO TOMIC</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3847,11 +3847,11 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Paine Energy SpA</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>15000</v>
+        <v>208848</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
@@ -3860,12 +3860,12 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138526892&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138513102&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -7720,7 +7720,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>AUMENTO CAPACIDAD DE TRATAMIENTO DE EFLUENTES DE FUNDICIÓN</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -7730,16 +7730,16 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>Codelco Chile, División Chuquicamata</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F154" t="n">
-        <v>67700</v>
+        <v>1200</v>
       </c>
       <c r="G154" t="inlineStr">
         <is>
@@ -7753,7 +7753,7 @@
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128952737&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -7768,7 +7768,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Proyecto Fotovoltaico Azabache</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -7778,16 +7778,16 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>Almeyda Solar SpA.</t>
         </is>
       </c>
       <c r="F155" t="n">
-        <v>1200</v>
+        <v>140000</v>
       </c>
       <c r="G155" t="inlineStr">
         <is>
@@ -7801,7 +7801,7 @@
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128969457&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -7816,7 +7816,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Proyecto Fotovoltaico Azabache</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -7826,16 +7826,16 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>Almeyda Solar SpA.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F156" t="n">
-        <v>140000</v>
+        <v>0</v>
       </c>
       <c r="G156" t="inlineStr">
         <is>
@@ -7849,7 +7849,7 @@
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128969457&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -7864,7 +7864,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>AUMENTO CAPACIDAD DE TRATAMIENTO DE EFLUENTES DE FUNDICIÓN</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -7874,16 +7874,16 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Codelco Chile, División Chuquicamata</t>
         </is>
       </c>
       <c r="F157" t="n">
-        <v>0</v>
+        <v>67700</v>
       </c>
       <c r="G157" t="inlineStr">
         <is>
@@ -7897,7 +7897,7 @@
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128952737&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -8632,7 +8632,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -8647,11 +8647,11 @@
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F173" t="n">
-        <v>219</v>
+        <v>12500</v>
       </c>
       <c r="G173" t="inlineStr">
         <is>
@@ -8660,12 +8660,12 @@
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556590&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -8680,7 +8680,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -8699,7 +8699,7 @@
         </is>
       </c>
       <c r="F174" t="n">
-        <v>12500</v>
+        <v>10000</v>
       </c>
       <c r="G174" t="inlineStr">
         <is>
@@ -8713,7 +8713,7 @@
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -8728,7 +8728,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -8743,11 +8743,11 @@
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F175" t="n">
-        <v>10000</v>
+        <v>219</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
@@ -8756,12 +8756,12 @@
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556590&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -9256,26 +9256,26 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>RT Sulfuros</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F186" t="n">
-        <v>5.4</v>
+        <v>2050</v>
       </c>
       <c r="G186" t="inlineStr">
         <is>
@@ -9284,12 +9284,12 @@
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
@@ -9304,26 +9304,26 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>RT Sulfuros</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F187" t="n">
-        <v>2050</v>
+        <v>5.4</v>
       </c>
       <c r="G187" t="inlineStr">
         <is>
@@ -9332,12 +9332,12 @@
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
@@ -10744,7 +10744,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Planta Fotovoltaica San Pedro de Atacama IV</t>
+          <t>Procesamiento de Óxidos DMH</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -10759,11 +10759,11 @@
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>GPG Solar Chile 2017 SpA</t>
+          <t>División Ministro Hales de Codelco Chile</t>
         </is>
       </c>
       <c r="F217" t="n">
-        <v>105250</v>
+        <v>70000</v>
       </c>
       <c r="G217" t="inlineStr">
         <is>
@@ -10777,7 +10777,7 @@
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7052315&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7040302&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J217" t="inlineStr">
@@ -10792,7 +10792,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Procesamiento de Óxidos DMH</t>
+          <t>Planta Fotovoltaica San Pedro de Atacama IV</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -10807,11 +10807,11 @@
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>División Ministro Hales de Codelco Chile</t>
+          <t>GPG Solar Chile 2017 SpA</t>
         </is>
       </c>
       <c r="F218" t="n">
-        <v>70000</v>
+        <v>105250</v>
       </c>
       <c r="G218" t="inlineStr">
         <is>
@@ -10825,7 +10825,7 @@
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7040302&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7052315&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">
@@ -12904,7 +12904,7 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Eléctrica 220 kv Encuentro - MH</t>
+          <t>Portal del Inca</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
@@ -12919,11 +12919,11 @@
       </c>
       <c r="E262" t="inlineStr">
         <is>
-          <t>División Ministro Hales de Codelco Chile</t>
+          <t>Inmobiliaria Inca Dos Ltda.</t>
         </is>
       </c>
       <c r="F262" t="n">
-        <v>45000</v>
+        <v>13948</v>
       </c>
       <c r="G262" t="inlineStr">
         <is>
@@ -12932,12 +12932,12 @@
       </c>
       <c r="H262" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I262" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5773970&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5787635&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J262" t="inlineStr">
@@ -12952,7 +12952,7 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>Portal del Inca</t>
+          <t>Línea de Transmisión Eléctrica 220 kv Encuentro - MH</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
@@ -12967,11 +12967,11 @@
       </c>
       <c r="E263" t="inlineStr">
         <is>
-          <t>Inmobiliaria Inca Dos Ltda.</t>
+          <t>División Ministro Hales de Codelco Chile</t>
         </is>
       </c>
       <c r="F263" t="n">
-        <v>13948</v>
+        <v>45000</v>
       </c>
       <c r="G263" t="inlineStr">
         <is>
@@ -12980,12 +12980,12 @@
       </c>
       <c r="H263" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I263" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5787635&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5773970&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J263" t="inlineStr">
@@ -13720,7 +13720,7 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
@@ -13735,11 +13735,11 @@
       </c>
       <c r="E279" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F279" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G279" t="inlineStr">
         <is>
@@ -13748,12 +13748,12 @@
       </c>
       <c r="H279" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I279" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J279" t="inlineStr">
@@ -13768,7 +13768,7 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
@@ -13783,11 +13783,11 @@
       </c>
       <c r="E280" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F280" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G280" t="inlineStr">
         <is>
@@ -13796,12 +13796,12 @@
       </c>
       <c r="H280" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I280" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J280" t="inlineStr">
@@ -18280,7 +18280,7 @@
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>Sondajes Prospección Ingeniería de Detalles Explotación Subterránea Yacimiento Chuquicamata (e-seia)</t>
+          <t>Planta de Tratamiento de Efluentes Hospital del Cobre (e-seia)</t>
         </is>
       </c>
       <c r="C374" t="inlineStr">
@@ -18299,7 +18299,7 @@
         </is>
       </c>
       <c r="F374" t="n">
-        <v>83584</v>
+        <v>200</v>
       </c>
       <c r="G374" t="inlineStr">
         <is>
@@ -18313,7 +18313,7 @@
       </c>
       <c r="I374" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3737660&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3826608&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J374" t="inlineStr">
@@ -18328,7 +18328,7 @@
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Efluentes Hospital del Cobre (e-seia)</t>
+          <t>Sondajes Prospección Ingeniería de Detalles Explotación Subterránea Yacimiento Chuquicamata (e-seia)</t>
         </is>
       </c>
       <c r="C375" t="inlineStr">
@@ -18347,7 +18347,7 @@
         </is>
       </c>
       <c r="F375" t="n">
-        <v>200</v>
+        <v>83584</v>
       </c>
       <c r="G375" t="inlineStr">
         <is>
@@ -18361,7 +18361,7 @@
       </c>
       <c r="I375" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3826608&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3737660&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J375" t="inlineStr">
@@ -19576,7 +19576,7 @@
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Proyecto Explotación Subterránea Mina Santa Rosa (e-seia)</t>
         </is>
       </c>
       <c r="C401" t="inlineStr">
@@ -19586,16 +19586,16 @@
       </c>
       <c r="D401" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E401" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Minera Quimal.S.A.</t>
         </is>
       </c>
       <c r="F401" t="n">
-        <v>1750</v>
+        <v>500</v>
       </c>
       <c r="G401" t="inlineStr">
         <is>
@@ -19604,12 +19604,12 @@
       </c>
       <c r="H401" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I401" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3310659&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J401" t="inlineStr">
@@ -19624,7 +19624,7 @@
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>Proyecto Explotación Subterránea Mina Santa Rosa (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C402" t="inlineStr">
@@ -19634,16 +19634,16 @@
       </c>
       <c r="D402" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E402" t="inlineStr">
         <is>
-          <t>Minera Quimal.S.A.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F402" t="n">
-        <v>500</v>
+        <v>1750</v>
       </c>
       <c r="G402" t="inlineStr">
         <is>
@@ -19652,12 +19652,12 @@
       </c>
       <c r="H402" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I402" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3310659&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J402" t="inlineStr">
@@ -20104,7 +20104,7 @@
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>Tratamiento de Impurezas en Ánodos y Cátodos de División Codelco Norte (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C412" t="inlineStr">
@@ -20114,16 +20114,16 @@
       </c>
       <c r="D412" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E412" t="inlineStr">
         <is>
-          <t>Codelco Chile, División Chuquicamata</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F412" t="n">
-        <v>50000</v>
+        <v>250</v>
       </c>
       <c r="G412" t="inlineStr">
         <is>
@@ -20132,12 +20132,12 @@
       </c>
       <c r="H412" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I412" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3118819&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J412" t="inlineStr">
@@ -20152,7 +20152,7 @@
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>Tratamiento de Impurezas en Ánodos y Cátodos de División Codelco Norte (e-seia)</t>
         </is>
       </c>
       <c r="C413" t="inlineStr">
@@ -20162,16 +20162,16 @@
       </c>
       <c r="D413" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E413" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Codelco Chile, División Chuquicamata</t>
         </is>
       </c>
       <c r="F413" t="n">
-        <v>250</v>
+        <v>50000</v>
       </c>
       <c r="G413" t="inlineStr">
         <is>
@@ -20180,12 +20180,12 @@
       </c>
       <c r="H413" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I413" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3118819&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J413" t="inlineStr">
@@ -20296,7 +20296,7 @@
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>Proyecto Exploración Minera Macarena - Leo (e-seia)</t>
         </is>
       </c>
       <c r="C416" t="inlineStr">
@@ -20306,16 +20306,16 @@
       </c>
       <c r="D416" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E416" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Minera Fuego Limitada</t>
         </is>
       </c>
       <c r="F416" t="n">
-        <v>1650</v>
+        <v>150</v>
       </c>
       <c r="G416" t="inlineStr">
         <is>
@@ -20329,7 +20329,7 @@
       </c>
       <c r="I416" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088992&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J416" t="inlineStr">
@@ -20344,7 +20344,7 @@
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>Proyecto Exploración Minera Macarena - Leo (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C417" t="inlineStr">
@@ -20354,16 +20354,16 @@
       </c>
       <c r="D417" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E417" t="inlineStr">
         <is>
-          <t>Minera Fuego Limitada</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F417" t="n">
-        <v>150</v>
+        <v>1650</v>
       </c>
       <c r="G417" t="inlineStr">
         <is>
@@ -20377,7 +20377,7 @@
       </c>
       <c r="I417" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088992&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J417" t="inlineStr">
@@ -23320,26 +23320,26 @@
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>LIXIVIACIÓN DE SULFUROS SULFOLIX</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C479" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D479" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E479" t="inlineStr">
         <is>
-          <t>SOCIEDAD CONTRACTUAL MINERA EL ABRA</t>
+          <t>Empresa de Residuos RESITER S.A.</t>
         </is>
       </c>
       <c r="F479" t="n">
-        <v>343000</v>
+        <v>1</v>
       </c>
       <c r="G479" t="inlineStr">
         <is>
@@ -23353,7 +23353,7 @@
       </c>
       <c r="I479" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2088630&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J479" t="inlineStr">
@@ -23368,26 +23368,26 @@
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
+          <t>LIXIVIACIÓN DE SULFUROS SULFOLIX</t>
         </is>
       </c>
       <c r="C480" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D480" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E480" t="inlineStr">
         <is>
-          <t>Empresa de Residuos RESITER S.A.</t>
+          <t>SOCIEDAD CONTRACTUAL MINERA EL ABRA</t>
         </is>
       </c>
       <c r="F480" t="n">
-        <v>1</v>
+        <v>343000</v>
       </c>
       <c r="G480" t="inlineStr">
         <is>
@@ -23401,7 +23401,7 @@
       </c>
       <c r="I480" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2088630&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J480" t="inlineStr">

--- a/data/Calama.xlsx
+++ b/data/Calama.xlsx
@@ -1124,7 +1124,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">

--- a/data/Calama.xlsx
+++ b/data/Calama.xlsx
@@ -836,7 +836,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">

--- a/data/Calama.xlsx
+++ b/data/Calama.xlsx
@@ -3736,7 +3736,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>MODIFICACIONES AL PROYECTO EXTRACCIÓN Y MOVIMIENTO DE MINERALES MINA RADOMIRO TOMIC</t>
+          <t>Parque Fotovoltaico Verano de San Juan I</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3751,11 +3751,11 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Victoria Solar SpA</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>208848</v>
+        <v>15000</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
@@ -3764,12 +3764,12 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138513102&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138522682&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3784,7 +3784,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Verano de San Juan I</t>
+          <t>Parque Fotovoltaico Verano de San Juan II</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3799,7 +3799,7 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Victoria Solar SpA</t>
+          <t>Paine Energy SpA</t>
         </is>
       </c>
       <c r="F72" t="n">
@@ -3817,7 +3817,7 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138522682&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138526892&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3832,7 +3832,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Verano de San Juan II</t>
+          <t>MODIFICACIONES AL PROYECTO EXTRACCIÓN Y MOVIMIENTO DE MINERALES MINA RADOMIRO TOMIC</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3847,11 +3847,11 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Paine Energy SpA</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>15000</v>
+        <v>208848</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
@@ -3860,12 +3860,12 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138526892&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138513102&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -7720,7 +7720,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>AUMENTO CAPACIDAD DE TRATAMIENTO DE EFLUENTES DE FUNDICIÓN</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -7730,16 +7730,16 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>Codelco Chile, División Chuquicamata</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F154" t="n">
-        <v>67700</v>
+        <v>1200</v>
       </c>
       <c r="G154" t="inlineStr">
         <is>
@@ -7753,7 +7753,7 @@
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128952737&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -7768,7 +7768,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Proyecto Fotovoltaico Azabache</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -7778,16 +7778,16 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>Almeyda Solar SpA.</t>
         </is>
       </c>
       <c r="F155" t="n">
-        <v>1200</v>
+        <v>140000</v>
       </c>
       <c r="G155" t="inlineStr">
         <is>
@@ -7801,7 +7801,7 @@
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128969457&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -7816,7 +7816,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Proyecto Fotovoltaico Azabache</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -7826,16 +7826,16 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>Almeyda Solar SpA.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F156" t="n">
-        <v>140000</v>
+        <v>0</v>
       </c>
       <c r="G156" t="inlineStr">
         <is>
@@ -7849,7 +7849,7 @@
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128969457&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -7864,7 +7864,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>BARRIO CONTRATISTA GERENCIA DE PROYECTOS</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -7874,16 +7874,16 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Codelco Chile, División Chuquicamata</t>
         </is>
       </c>
       <c r="F157" t="n">
-        <v>0</v>
+        <v>8000</v>
       </c>
       <c r="G157" t="inlineStr">
         <is>
@@ -7897,7 +7897,7 @@
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128904823&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -7912,7 +7912,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>BARRIO CONTRATISTA GERENCIA DE PROYECTOS</t>
+          <t>AUMENTO CAPACIDAD DE TRATAMIENTO DE EFLUENTES DE FUNDICIÓN</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -7931,7 +7931,7 @@
         </is>
       </c>
       <c r="F158" t="n">
-        <v>8000</v>
+        <v>67700</v>
       </c>
       <c r="G158" t="inlineStr">
         <is>
@@ -7945,7 +7945,7 @@
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128904823&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128952737&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -7960,7 +7960,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Remodelación Parque El Loa</t>
+          <t>Aumento Áreas de Lixiviación, sector Quebrada Portezuelo</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -7975,11 +7975,11 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Calama</t>
+          <t>Codelco Chile, División Chuquicamata</t>
         </is>
       </c>
       <c r="F159" t="n">
-        <v>9074</v>
+        <v>5888</v>
       </c>
       <c r="G159" t="inlineStr">
         <is>
@@ -7993,7 +7993,7 @@
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128906904&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128955081&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -8008,7 +8008,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Aumento Áreas de Lixiviación, sector Quebrada Portezuelo</t>
+          <t>Remodelación Parque El Loa</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -8023,11 +8023,11 @@
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>Codelco Chile, División Chuquicamata</t>
+          <t>Ilustre Municipalidad de Calama</t>
         </is>
       </c>
       <c r="F160" t="n">
-        <v>5888</v>
+        <v>9074</v>
       </c>
       <c r="G160" t="inlineStr">
         <is>
@@ -8041,7 +8041,7 @@
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128955081&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128906904&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
@@ -8632,7 +8632,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -8647,11 +8647,11 @@
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F173" t="n">
-        <v>219</v>
+        <v>12500</v>
       </c>
       <c r="G173" t="inlineStr">
         <is>
@@ -8660,12 +8660,12 @@
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556590&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -8680,7 +8680,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -8699,7 +8699,7 @@
         </is>
       </c>
       <c r="F174" t="n">
-        <v>12500</v>
+        <v>10000</v>
       </c>
       <c r="G174" t="inlineStr">
         <is>
@@ -8713,7 +8713,7 @@
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -8728,7 +8728,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -8743,11 +8743,11 @@
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F175" t="n">
-        <v>10000</v>
+        <v>219</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
@@ -8756,12 +8756,12 @@
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556590&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -9256,26 +9256,26 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>RT Sulfuros</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F186" t="n">
-        <v>5.4</v>
+        <v>2050</v>
       </c>
       <c r="G186" t="inlineStr">
         <is>
@@ -9284,12 +9284,12 @@
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
@@ -9304,26 +9304,26 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>RT Sulfuros</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F187" t="n">
-        <v>2050</v>
+        <v>5.4</v>
       </c>
       <c r="G187" t="inlineStr">
         <is>
@@ -9332,12 +9332,12 @@
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
@@ -10744,7 +10744,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Planta Fotovoltaica San Pedro de Atacama IV</t>
+          <t>Procesamiento de Óxidos DMH</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -10759,11 +10759,11 @@
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>GPG Solar Chile 2017 SpA</t>
+          <t>División Ministro Hales de Codelco Chile</t>
         </is>
       </c>
       <c r="F217" t="n">
-        <v>105250</v>
+        <v>70000</v>
       </c>
       <c r="G217" t="inlineStr">
         <is>
@@ -10777,7 +10777,7 @@
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7052315&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7040302&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J217" t="inlineStr">
@@ -10792,7 +10792,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Procesamiento de Óxidos DMH</t>
+          <t>Planta Fotovoltaica San Pedro de Atacama IV</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -10807,11 +10807,11 @@
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>División Ministro Hales de Codelco Chile</t>
+          <t>GPG Solar Chile 2017 SpA</t>
         </is>
       </c>
       <c r="F218" t="n">
-        <v>70000</v>
+        <v>105250</v>
       </c>
       <c r="G218" t="inlineStr">
         <is>
@@ -10825,7 +10825,7 @@
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7040302&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7052315&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">
@@ -12904,7 +12904,7 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Eléctrica 220 kv Encuentro - MH</t>
+          <t>Portal del Inca</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
@@ -12919,11 +12919,11 @@
       </c>
       <c r="E262" t="inlineStr">
         <is>
-          <t>División Ministro Hales de Codelco Chile</t>
+          <t>Inmobiliaria Inca Dos Ltda.</t>
         </is>
       </c>
       <c r="F262" t="n">
-        <v>45000</v>
+        <v>13948</v>
       </c>
       <c r="G262" t="inlineStr">
         <is>
@@ -12932,12 +12932,12 @@
       </c>
       <c r="H262" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I262" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5773970&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5787635&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J262" t="inlineStr">
@@ -12952,7 +12952,7 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>Portal del Inca</t>
+          <t>Línea de Transmisión Eléctrica 220 kv Encuentro - MH</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
@@ -12967,11 +12967,11 @@
       </c>
       <c r="E263" t="inlineStr">
         <is>
-          <t>Inmobiliaria Inca Dos Ltda.</t>
+          <t>División Ministro Hales de Codelco Chile</t>
         </is>
       </c>
       <c r="F263" t="n">
-        <v>13948</v>
+        <v>45000</v>
       </c>
       <c r="G263" t="inlineStr">
         <is>
@@ -12980,12 +12980,12 @@
       </c>
       <c r="H263" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I263" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5787635&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5773970&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J263" t="inlineStr">
@@ -13720,7 +13720,7 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
@@ -13735,11 +13735,11 @@
       </c>
       <c r="E279" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F279" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G279" t="inlineStr">
         <is>
@@ -13748,12 +13748,12 @@
       </c>
       <c r="H279" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I279" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J279" t="inlineStr">
@@ -13768,7 +13768,7 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
@@ -13783,11 +13783,11 @@
       </c>
       <c r="E280" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F280" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G280" t="inlineStr">
         <is>
@@ -13796,12 +13796,12 @@
       </c>
       <c r="H280" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I280" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J280" t="inlineStr">
@@ -18280,7 +18280,7 @@
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>Sondajes Prospección Ingeniería de Detalles Explotación Subterránea Yacimiento Chuquicamata (e-seia)</t>
+          <t>Planta de Tratamiento de Efluentes Hospital del Cobre (e-seia)</t>
         </is>
       </c>
       <c r="C374" t="inlineStr">
@@ -18299,7 +18299,7 @@
         </is>
       </c>
       <c r="F374" t="n">
-        <v>83584</v>
+        <v>200</v>
       </c>
       <c r="G374" t="inlineStr">
         <is>
@@ -18313,7 +18313,7 @@
       </c>
       <c r="I374" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3737660&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3826608&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J374" t="inlineStr">
@@ -18328,7 +18328,7 @@
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Efluentes Hospital del Cobre (e-seia)</t>
+          <t>Sondajes Prospección Ingeniería de Detalles Explotación Subterránea Yacimiento Chuquicamata (e-seia)</t>
         </is>
       </c>
       <c r="C375" t="inlineStr">
@@ -18347,7 +18347,7 @@
         </is>
       </c>
       <c r="F375" t="n">
-        <v>200</v>
+        <v>83584</v>
       </c>
       <c r="G375" t="inlineStr">
         <is>
@@ -18361,7 +18361,7 @@
       </c>
       <c r="I375" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3826608&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3737660&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J375" t="inlineStr">
@@ -19576,7 +19576,7 @@
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Proyecto Explotación Subterránea Mina Santa Rosa (e-seia)</t>
         </is>
       </c>
       <c r="C401" t="inlineStr">
@@ -19586,16 +19586,16 @@
       </c>
       <c r="D401" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E401" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Minera Quimal.S.A.</t>
         </is>
       </c>
       <c r="F401" t="n">
-        <v>1750</v>
+        <v>500</v>
       </c>
       <c r="G401" t="inlineStr">
         <is>
@@ -19604,12 +19604,12 @@
       </c>
       <c r="H401" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I401" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3310659&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J401" t="inlineStr">
@@ -19624,7 +19624,7 @@
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>Proyecto Explotación Subterránea Mina Santa Rosa (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C402" t="inlineStr">
@@ -19634,16 +19634,16 @@
       </c>
       <c r="D402" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E402" t="inlineStr">
         <is>
-          <t>Minera Quimal.S.A.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F402" t="n">
-        <v>500</v>
+        <v>1750</v>
       </c>
       <c r="G402" t="inlineStr">
         <is>
@@ -19652,12 +19652,12 @@
       </c>
       <c r="H402" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I402" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3310659&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J402" t="inlineStr">
@@ -20104,7 +20104,7 @@
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>Tratamiento de Impurezas en Ánodos y Cátodos de División Codelco Norte (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C412" t="inlineStr">
@@ -20114,16 +20114,16 @@
       </c>
       <c r="D412" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E412" t="inlineStr">
         <is>
-          <t>Codelco Chile, División Chuquicamata</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F412" t="n">
-        <v>50000</v>
+        <v>250</v>
       </c>
       <c r="G412" t="inlineStr">
         <is>
@@ -20132,12 +20132,12 @@
       </c>
       <c r="H412" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I412" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3118819&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J412" t="inlineStr">
@@ -20152,7 +20152,7 @@
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>Tratamiento de Impurezas en Ánodos y Cátodos de División Codelco Norte (e-seia)</t>
         </is>
       </c>
       <c r="C413" t="inlineStr">
@@ -20162,16 +20162,16 @@
       </c>
       <c r="D413" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E413" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Codelco Chile, División Chuquicamata</t>
         </is>
       </c>
       <c r="F413" t="n">
-        <v>250</v>
+        <v>50000</v>
       </c>
       <c r="G413" t="inlineStr">
         <is>
@@ -20180,12 +20180,12 @@
       </c>
       <c r="H413" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I413" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3118819&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J413" t="inlineStr">
@@ -20296,7 +20296,7 @@
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>Proyecto Exploración Minera Macarena - Leo (e-seia)</t>
         </is>
       </c>
       <c r="C416" t="inlineStr">
@@ -20306,16 +20306,16 @@
       </c>
       <c r="D416" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E416" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Minera Fuego Limitada</t>
         </is>
       </c>
       <c r="F416" t="n">
-        <v>1650</v>
+        <v>150</v>
       </c>
       <c r="G416" t="inlineStr">
         <is>
@@ -20329,7 +20329,7 @@
       </c>
       <c r="I416" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088992&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J416" t="inlineStr">
@@ -20344,7 +20344,7 @@
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>Proyecto Exploración Minera Macarena - Leo (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C417" t="inlineStr">
@@ -20354,16 +20354,16 @@
       </c>
       <c r="D417" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E417" t="inlineStr">
         <is>
-          <t>Minera Fuego Limitada</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F417" t="n">
-        <v>150</v>
+        <v>1650</v>
       </c>
       <c r="G417" t="inlineStr">
         <is>
@@ -20377,7 +20377,7 @@
       </c>
       <c r="I417" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088992&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J417" t="inlineStr">
@@ -23320,26 +23320,26 @@
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>LIXIVIACIÓN DE SULFUROS SULFOLIX</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C479" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D479" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E479" t="inlineStr">
         <is>
-          <t>SOCIEDAD CONTRACTUAL MINERA EL ABRA</t>
+          <t>Empresa de Residuos RESITER S.A.</t>
         </is>
       </c>
       <c r="F479" t="n">
-        <v>343000</v>
+        <v>1</v>
       </c>
       <c r="G479" t="inlineStr">
         <is>
@@ -23353,7 +23353,7 @@
       </c>
       <c r="I479" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2088630&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J479" t="inlineStr">
@@ -23368,26 +23368,26 @@
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
+          <t>LIXIVIACIÓN DE SULFUROS SULFOLIX</t>
         </is>
       </c>
       <c r="C480" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D480" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E480" t="inlineStr">
         <is>
-          <t>Empresa de Residuos RESITER S.A.</t>
+          <t>SOCIEDAD CONTRACTUAL MINERA EL ABRA</t>
         </is>
       </c>
       <c r="F480" t="n">
-        <v>1</v>
+        <v>343000</v>
       </c>
       <c r="G480" t="inlineStr">
         <is>
@@ -23401,7 +23401,7 @@
       </c>
       <c r="I480" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2088630&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J480" t="inlineStr">

--- a/data/Calama.xlsx
+++ b/data/Calama.xlsx
@@ -3736,7 +3736,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Verano de San Juan I</t>
+          <t>MODIFICACIONES AL PROYECTO EXTRACCIÓN Y MOVIMIENTO DE MINERALES MINA RADOMIRO TOMIC</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3751,11 +3751,11 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Victoria Solar SpA</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>15000</v>
+        <v>208848</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
@@ -3764,12 +3764,12 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138522682&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138513102&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3784,7 +3784,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Verano de San Juan II</t>
+          <t>Parque Fotovoltaico Verano de San Juan I</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3799,7 +3799,7 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Paine Energy SpA</t>
+          <t>Victoria Solar SpA</t>
         </is>
       </c>
       <c r="F72" t="n">
@@ -3817,7 +3817,7 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138526892&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138522682&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3832,7 +3832,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>MODIFICACIONES AL PROYECTO EXTRACCIÓN Y MOVIMIENTO DE MINERALES MINA RADOMIRO TOMIC</t>
+          <t>Parque Fotovoltaico Verano de San Juan II</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3847,11 +3847,11 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Paine Energy SpA</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>208848</v>
+        <v>15000</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
@@ -3860,12 +3860,12 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138513102&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138526892&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -7720,7 +7720,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>AUMENTO CAPACIDAD DE TRATAMIENTO DE EFLUENTES DE FUNDICIÓN</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -7730,16 +7730,16 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>Codelco Chile, División Chuquicamata</t>
         </is>
       </c>
       <c r="F154" t="n">
-        <v>1200</v>
+        <v>67700</v>
       </c>
       <c r="G154" t="inlineStr">
         <is>
@@ -7753,7 +7753,7 @@
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128952737&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -7768,7 +7768,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Proyecto Fotovoltaico Azabache</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -7778,16 +7778,16 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>Almeyda Solar SpA.</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F155" t="n">
-        <v>140000</v>
+        <v>1200</v>
       </c>
       <c r="G155" t="inlineStr">
         <is>
@@ -7801,7 +7801,7 @@
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128969457&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -7816,7 +7816,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Proyecto Fotovoltaico Azabache</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -7826,16 +7826,16 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Almeyda Solar SpA.</t>
         </is>
       </c>
       <c r="F156" t="n">
-        <v>0</v>
+        <v>140000</v>
       </c>
       <c r="G156" t="inlineStr">
         <is>
@@ -7849,7 +7849,7 @@
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128969457&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -7864,7 +7864,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>BARRIO CONTRATISTA GERENCIA DE PROYECTOS</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -7874,16 +7874,16 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>Codelco Chile, División Chuquicamata</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F157" t="n">
-        <v>8000</v>
+        <v>0</v>
       </c>
       <c r="G157" t="inlineStr">
         <is>
@@ -7897,7 +7897,7 @@
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128904823&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -7912,7 +7912,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>AUMENTO CAPACIDAD DE TRATAMIENTO DE EFLUENTES DE FUNDICIÓN</t>
+          <t>BARRIO CONTRATISTA GERENCIA DE PROYECTOS</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -7931,7 +7931,7 @@
         </is>
       </c>
       <c r="F158" t="n">
-        <v>67700</v>
+        <v>8000</v>
       </c>
       <c r="G158" t="inlineStr">
         <is>
@@ -7945,7 +7945,7 @@
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128952737&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128904823&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -7960,7 +7960,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Aumento Áreas de Lixiviación, sector Quebrada Portezuelo</t>
+          <t>Remodelación Parque El Loa</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -7975,11 +7975,11 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>Codelco Chile, División Chuquicamata</t>
+          <t>Ilustre Municipalidad de Calama</t>
         </is>
       </c>
       <c r="F159" t="n">
-        <v>5888</v>
+        <v>9074</v>
       </c>
       <c r="G159" t="inlineStr">
         <is>
@@ -7993,7 +7993,7 @@
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128955081&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128906904&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -8008,7 +8008,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Remodelación Parque El Loa</t>
+          <t>Aumento Áreas de Lixiviación, sector Quebrada Portezuelo</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -8023,11 +8023,11 @@
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Calama</t>
+          <t>Codelco Chile, División Chuquicamata</t>
         </is>
       </c>
       <c r="F160" t="n">
-        <v>9074</v>
+        <v>5888</v>
       </c>
       <c r="G160" t="inlineStr">
         <is>
@@ -8041,7 +8041,7 @@
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128906904&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128955081&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
@@ -8632,7 +8632,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -8647,11 +8647,11 @@
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F173" t="n">
-        <v>12500</v>
+        <v>219</v>
       </c>
       <c r="G173" t="inlineStr">
         <is>
@@ -8660,12 +8660,12 @@
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556590&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -8680,7 +8680,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
+          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -8699,7 +8699,7 @@
         </is>
       </c>
       <c r="F174" t="n">
-        <v>10000</v>
+        <v>12500</v>
       </c>
       <c r="G174" t="inlineStr">
         <is>
@@ -8713,7 +8713,7 @@
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -8728,7 +8728,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -8743,11 +8743,11 @@
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F175" t="n">
-        <v>219</v>
+        <v>10000</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
@@ -8756,12 +8756,12 @@
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556590&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -9256,26 +9256,26 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>RT Sulfuros</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F186" t="n">
-        <v>2050</v>
+        <v>5.4</v>
       </c>
       <c r="G186" t="inlineStr">
         <is>
@@ -9284,12 +9284,12 @@
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
@@ -9304,26 +9304,26 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>RT Sulfuros</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F187" t="n">
-        <v>5.4</v>
+        <v>2050</v>
       </c>
       <c r="G187" t="inlineStr">
         <is>
@@ -9332,12 +9332,12 @@
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
@@ -10744,7 +10744,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Procesamiento de Óxidos DMH</t>
+          <t>Planta Fotovoltaica San Pedro de Atacama IV</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -10759,11 +10759,11 @@
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>División Ministro Hales de Codelco Chile</t>
+          <t>GPG Solar Chile 2017 SpA</t>
         </is>
       </c>
       <c r="F217" t="n">
-        <v>70000</v>
+        <v>105250</v>
       </c>
       <c r="G217" t="inlineStr">
         <is>
@@ -10777,7 +10777,7 @@
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7040302&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7052315&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J217" t="inlineStr">
@@ -10792,7 +10792,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Planta Fotovoltaica San Pedro de Atacama IV</t>
+          <t>Procesamiento de Óxidos DMH</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -10807,11 +10807,11 @@
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>GPG Solar Chile 2017 SpA</t>
+          <t>División Ministro Hales de Codelco Chile</t>
         </is>
       </c>
       <c r="F218" t="n">
-        <v>105250</v>
+        <v>70000</v>
       </c>
       <c r="G218" t="inlineStr">
         <is>
@@ -10825,7 +10825,7 @@
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7052315&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7040302&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">
@@ -12904,7 +12904,7 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>Portal del Inca</t>
+          <t>Línea de Transmisión Eléctrica 220 kv Encuentro - MH</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
@@ -12919,11 +12919,11 @@
       </c>
       <c r="E262" t="inlineStr">
         <is>
-          <t>Inmobiliaria Inca Dos Ltda.</t>
+          <t>División Ministro Hales de Codelco Chile</t>
         </is>
       </c>
       <c r="F262" t="n">
-        <v>13948</v>
+        <v>45000</v>
       </c>
       <c r="G262" t="inlineStr">
         <is>
@@ -12932,12 +12932,12 @@
       </c>
       <c r="H262" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I262" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5787635&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5773970&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J262" t="inlineStr">
@@ -12952,7 +12952,7 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Eléctrica 220 kv Encuentro - MH</t>
+          <t>Portal del Inca</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
@@ -12967,11 +12967,11 @@
       </c>
       <c r="E263" t="inlineStr">
         <is>
-          <t>División Ministro Hales de Codelco Chile</t>
+          <t>Inmobiliaria Inca Dos Ltda.</t>
         </is>
       </c>
       <c r="F263" t="n">
-        <v>45000</v>
+        <v>13948</v>
       </c>
       <c r="G263" t="inlineStr">
         <is>
@@ -12980,12 +12980,12 @@
       </c>
       <c r="H263" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I263" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5773970&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5787635&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J263" t="inlineStr">
@@ -13720,7 +13720,7 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
@@ -13735,11 +13735,11 @@
       </c>
       <c r="E279" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F279" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G279" t="inlineStr">
         <is>
@@ -13748,12 +13748,12 @@
       </c>
       <c r="H279" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I279" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J279" t="inlineStr">
@@ -13768,7 +13768,7 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
@@ -13783,11 +13783,11 @@
       </c>
       <c r="E280" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F280" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G280" t="inlineStr">
         <is>
@@ -13796,12 +13796,12 @@
       </c>
       <c r="H280" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I280" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J280" t="inlineStr">
@@ -18280,7 +18280,7 @@
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Efluentes Hospital del Cobre (e-seia)</t>
+          <t>Sondajes Prospección Ingeniería de Detalles Explotación Subterránea Yacimiento Chuquicamata (e-seia)</t>
         </is>
       </c>
       <c r="C374" t="inlineStr">
@@ -18299,7 +18299,7 @@
         </is>
       </c>
       <c r="F374" t="n">
-        <v>200</v>
+        <v>83584</v>
       </c>
       <c r="G374" t="inlineStr">
         <is>
@@ -18313,7 +18313,7 @@
       </c>
       <c r="I374" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3826608&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3737660&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J374" t="inlineStr">
@@ -18328,7 +18328,7 @@
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>Sondajes Prospección Ingeniería de Detalles Explotación Subterránea Yacimiento Chuquicamata (e-seia)</t>
+          <t>Planta de Tratamiento de Efluentes Hospital del Cobre (e-seia)</t>
         </is>
       </c>
       <c r="C375" t="inlineStr">
@@ -18347,7 +18347,7 @@
         </is>
       </c>
       <c r="F375" t="n">
-        <v>83584</v>
+        <v>200</v>
       </c>
       <c r="G375" t="inlineStr">
         <is>
@@ -18361,7 +18361,7 @@
       </c>
       <c r="I375" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3737660&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3826608&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J375" t="inlineStr">
@@ -19576,7 +19576,7 @@
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>Proyecto Explotación Subterránea Mina Santa Rosa (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C401" t="inlineStr">
@@ -19586,16 +19586,16 @@
       </c>
       <c r="D401" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E401" t="inlineStr">
         <is>
-          <t>Minera Quimal.S.A.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F401" t="n">
-        <v>500</v>
+        <v>1750</v>
       </c>
       <c r="G401" t="inlineStr">
         <is>
@@ -19604,12 +19604,12 @@
       </c>
       <c r="H401" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I401" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3310659&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J401" t="inlineStr">
@@ -19624,7 +19624,7 @@
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Proyecto Explotación Subterránea Mina Santa Rosa (e-seia)</t>
         </is>
       </c>
       <c r="C402" t="inlineStr">
@@ -19634,16 +19634,16 @@
       </c>
       <c r="D402" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E402" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Minera Quimal.S.A.</t>
         </is>
       </c>
       <c r="F402" t="n">
-        <v>1750</v>
+        <v>500</v>
       </c>
       <c r="G402" t="inlineStr">
         <is>
@@ -19652,12 +19652,12 @@
       </c>
       <c r="H402" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I402" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3310659&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J402" t="inlineStr">
@@ -20104,7 +20104,7 @@
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>Tratamiento de Impurezas en Ánodos y Cátodos de División Codelco Norte (e-seia)</t>
         </is>
       </c>
       <c r="C412" t="inlineStr">
@@ -20114,16 +20114,16 @@
       </c>
       <c r="D412" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E412" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Codelco Chile, División Chuquicamata</t>
         </is>
       </c>
       <c r="F412" t="n">
-        <v>250</v>
+        <v>50000</v>
       </c>
       <c r="G412" t="inlineStr">
         <is>
@@ -20132,12 +20132,12 @@
       </c>
       <c r="H412" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I412" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3118819&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J412" t="inlineStr">
@@ -20152,7 +20152,7 @@
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>Tratamiento de Impurezas en Ánodos y Cátodos de División Codelco Norte (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C413" t="inlineStr">
@@ -20162,16 +20162,16 @@
       </c>
       <c r="D413" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E413" t="inlineStr">
         <is>
-          <t>Codelco Chile, División Chuquicamata</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F413" t="n">
-        <v>50000</v>
+        <v>250</v>
       </c>
       <c r="G413" t="inlineStr">
         <is>
@@ -20180,12 +20180,12 @@
       </c>
       <c r="H413" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I413" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3118819&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J413" t="inlineStr">
@@ -20296,7 +20296,7 @@
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>Proyecto Exploración Minera Macarena - Leo (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C416" t="inlineStr">
@@ -20306,16 +20306,16 @@
       </c>
       <c r="D416" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E416" t="inlineStr">
         <is>
-          <t>Minera Fuego Limitada</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F416" t="n">
-        <v>150</v>
+        <v>1650</v>
       </c>
       <c r="G416" t="inlineStr">
         <is>
@@ -20329,7 +20329,7 @@
       </c>
       <c r="I416" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088992&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J416" t="inlineStr">
@@ -20344,7 +20344,7 @@
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>Proyecto Exploración Minera Macarena - Leo (e-seia)</t>
         </is>
       </c>
       <c r="C417" t="inlineStr">
@@ -20354,16 +20354,16 @@
       </c>
       <c r="D417" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E417" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Minera Fuego Limitada</t>
         </is>
       </c>
       <c r="F417" t="n">
-        <v>1650</v>
+        <v>150</v>
       </c>
       <c r="G417" t="inlineStr">
         <is>
@@ -20377,7 +20377,7 @@
       </c>
       <c r="I417" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088992&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J417" t="inlineStr">
@@ -23320,26 +23320,26 @@
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
+          <t>LIXIVIACIÓN DE SULFUROS SULFOLIX</t>
         </is>
       </c>
       <c r="C479" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D479" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E479" t="inlineStr">
         <is>
-          <t>Empresa de Residuos RESITER S.A.</t>
+          <t>SOCIEDAD CONTRACTUAL MINERA EL ABRA</t>
         </is>
       </c>
       <c r="F479" t="n">
-        <v>1</v>
+        <v>343000</v>
       </c>
       <c r="G479" t="inlineStr">
         <is>
@@ -23353,7 +23353,7 @@
       </c>
       <c r="I479" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2088630&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J479" t="inlineStr">
@@ -23368,26 +23368,26 @@
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>LIXIVIACIÓN DE SULFUROS SULFOLIX</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C480" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D480" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E480" t="inlineStr">
         <is>
-          <t>SOCIEDAD CONTRACTUAL MINERA EL ABRA</t>
+          <t>Empresa de Residuos RESITER S.A.</t>
         </is>
       </c>
       <c r="F480" t="n">
-        <v>343000</v>
+        <v>1</v>
       </c>
       <c r="G480" t="inlineStr">
         <is>
@@ -23401,7 +23401,7 @@
       </c>
       <c r="I480" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2088630&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J480" t="inlineStr">

--- a/data/Calama.xlsx
+++ b/data/Calama.xlsx
@@ -932,7 +932,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -3736,7 +3736,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>MODIFICACIONES AL PROYECTO EXTRACCIÓN Y MOVIMIENTO DE MINERALES MINA RADOMIRO TOMIC</t>
+          <t>Parque Fotovoltaico Verano de San Juan I</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3751,11 +3751,11 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Victoria Solar SpA</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>208848</v>
+        <v>15000</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
@@ -3764,12 +3764,12 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138513102&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138522682&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3784,7 +3784,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Verano de San Juan I</t>
+          <t>Parque Fotovoltaico Verano de San Juan II</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3799,7 +3799,7 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Victoria Solar SpA</t>
+          <t>Paine Energy SpA</t>
         </is>
       </c>
       <c r="F72" t="n">
@@ -3817,7 +3817,7 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138522682&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138526892&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3832,7 +3832,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Verano de San Juan II</t>
+          <t>MODIFICACIONES AL PROYECTO EXTRACCIÓN Y MOVIMIENTO DE MINERALES MINA RADOMIRO TOMIC</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3847,11 +3847,11 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Paine Energy SpA</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>15000</v>
+        <v>208848</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
@@ -3860,12 +3860,12 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138526892&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138513102&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -7720,7 +7720,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>AUMENTO CAPACIDAD DE TRATAMIENTO DE EFLUENTES DE FUNDICIÓN</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -7730,16 +7730,16 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>Codelco Chile, División Chuquicamata</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F154" t="n">
-        <v>67700</v>
+        <v>1200</v>
       </c>
       <c r="G154" t="inlineStr">
         <is>
@@ -7753,7 +7753,7 @@
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128952737&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -7768,7 +7768,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Proyecto Fotovoltaico Azabache</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -7778,16 +7778,16 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>Almeyda Solar SpA.</t>
         </is>
       </c>
       <c r="F155" t="n">
-        <v>1200</v>
+        <v>140000</v>
       </c>
       <c r="G155" t="inlineStr">
         <is>
@@ -7801,7 +7801,7 @@
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128969457&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -7816,7 +7816,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Proyecto Fotovoltaico Azabache</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -7826,16 +7826,16 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>Almeyda Solar SpA.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F156" t="n">
-        <v>140000</v>
+        <v>0</v>
       </c>
       <c r="G156" t="inlineStr">
         <is>
@@ -7849,7 +7849,7 @@
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128969457&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -7864,7 +7864,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>BARRIO CONTRATISTA GERENCIA DE PROYECTOS</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -7874,16 +7874,16 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Codelco Chile, División Chuquicamata</t>
         </is>
       </c>
       <c r="F157" t="n">
-        <v>0</v>
+        <v>8000</v>
       </c>
       <c r="G157" t="inlineStr">
         <is>
@@ -7897,7 +7897,7 @@
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128904823&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -7912,7 +7912,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>BARRIO CONTRATISTA GERENCIA DE PROYECTOS</t>
+          <t>AUMENTO CAPACIDAD DE TRATAMIENTO DE EFLUENTES DE FUNDICIÓN</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -7931,7 +7931,7 @@
         </is>
       </c>
       <c r="F158" t="n">
-        <v>8000</v>
+        <v>67700</v>
       </c>
       <c r="G158" t="inlineStr">
         <is>
@@ -7945,7 +7945,7 @@
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128904823&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128952737&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -7960,7 +7960,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Remodelación Parque El Loa</t>
+          <t>Aumento Áreas de Lixiviación, sector Quebrada Portezuelo</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -7975,11 +7975,11 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Calama</t>
+          <t>Codelco Chile, División Chuquicamata</t>
         </is>
       </c>
       <c r="F159" t="n">
-        <v>9074</v>
+        <v>5888</v>
       </c>
       <c r="G159" t="inlineStr">
         <is>
@@ -7993,7 +7993,7 @@
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128906904&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128955081&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -8008,7 +8008,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Aumento Áreas de Lixiviación, sector Quebrada Portezuelo</t>
+          <t>Remodelación Parque El Loa</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -8023,11 +8023,11 @@
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>Codelco Chile, División Chuquicamata</t>
+          <t>Ilustre Municipalidad de Calama</t>
         </is>
       </c>
       <c r="F160" t="n">
-        <v>5888</v>
+        <v>9074</v>
       </c>
       <c r="G160" t="inlineStr">
         <is>
@@ -8041,7 +8041,7 @@
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128955081&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128906904&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
@@ -8632,7 +8632,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -8647,11 +8647,11 @@
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F173" t="n">
-        <v>219</v>
+        <v>12500</v>
       </c>
       <c r="G173" t="inlineStr">
         <is>
@@ -8660,12 +8660,12 @@
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556590&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -8680,7 +8680,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -8699,7 +8699,7 @@
         </is>
       </c>
       <c r="F174" t="n">
-        <v>12500</v>
+        <v>10000</v>
       </c>
       <c r="G174" t="inlineStr">
         <is>
@@ -8713,7 +8713,7 @@
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -8728,7 +8728,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -8743,11 +8743,11 @@
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F175" t="n">
-        <v>10000</v>
+        <v>219</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
@@ -8756,12 +8756,12 @@
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556590&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -9256,26 +9256,26 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>RT Sulfuros</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F186" t="n">
-        <v>5.4</v>
+        <v>2050</v>
       </c>
       <c r="G186" t="inlineStr">
         <is>
@@ -9284,12 +9284,12 @@
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
@@ -9304,26 +9304,26 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>RT Sulfuros</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F187" t="n">
-        <v>2050</v>
+        <v>5.4</v>
       </c>
       <c r="G187" t="inlineStr">
         <is>
@@ -9332,12 +9332,12 @@
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
@@ -10744,7 +10744,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Planta Fotovoltaica San Pedro de Atacama IV</t>
+          <t>Procesamiento de Óxidos DMH</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -10759,11 +10759,11 @@
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>GPG Solar Chile 2017 SpA</t>
+          <t>División Ministro Hales de Codelco Chile</t>
         </is>
       </c>
       <c r="F217" t="n">
-        <v>105250</v>
+        <v>70000</v>
       </c>
       <c r="G217" t="inlineStr">
         <is>
@@ -10777,7 +10777,7 @@
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7052315&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7040302&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J217" t="inlineStr">
@@ -10792,7 +10792,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Procesamiento de Óxidos DMH</t>
+          <t>Planta Fotovoltaica San Pedro de Atacama IV</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -10807,11 +10807,11 @@
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>División Ministro Hales de Codelco Chile</t>
+          <t>GPG Solar Chile 2017 SpA</t>
         </is>
       </c>
       <c r="F218" t="n">
-        <v>70000</v>
+        <v>105250</v>
       </c>
       <c r="G218" t="inlineStr">
         <is>
@@ -10825,7 +10825,7 @@
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7040302&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7052315&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">
@@ -12904,7 +12904,7 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Eléctrica 220 kv Encuentro - MH</t>
+          <t>Portal del Inca</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
@@ -12919,11 +12919,11 @@
       </c>
       <c r="E262" t="inlineStr">
         <is>
-          <t>División Ministro Hales de Codelco Chile</t>
+          <t>Inmobiliaria Inca Dos Ltda.</t>
         </is>
       </c>
       <c r="F262" t="n">
-        <v>45000</v>
+        <v>13948</v>
       </c>
       <c r="G262" t="inlineStr">
         <is>
@@ -12932,12 +12932,12 @@
       </c>
       <c r="H262" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I262" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5773970&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5787635&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J262" t="inlineStr">
@@ -12952,7 +12952,7 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>Portal del Inca</t>
+          <t>Línea de Transmisión Eléctrica 220 kv Encuentro - MH</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
@@ -12967,11 +12967,11 @@
       </c>
       <c r="E263" t="inlineStr">
         <is>
-          <t>Inmobiliaria Inca Dos Ltda.</t>
+          <t>División Ministro Hales de Codelco Chile</t>
         </is>
       </c>
       <c r="F263" t="n">
-        <v>13948</v>
+        <v>45000</v>
       </c>
       <c r="G263" t="inlineStr">
         <is>
@@ -12980,12 +12980,12 @@
       </c>
       <c r="H263" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I263" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5787635&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5773970&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J263" t="inlineStr">
@@ -13720,7 +13720,7 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
@@ -13735,11 +13735,11 @@
       </c>
       <c r="E279" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F279" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G279" t="inlineStr">
         <is>
@@ -13748,12 +13748,12 @@
       </c>
       <c r="H279" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I279" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J279" t="inlineStr">
@@ -13768,7 +13768,7 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
@@ -13783,11 +13783,11 @@
       </c>
       <c r="E280" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F280" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G280" t="inlineStr">
         <is>
@@ -13796,12 +13796,12 @@
       </c>
       <c r="H280" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I280" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J280" t="inlineStr">
@@ -18280,7 +18280,7 @@
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>Sondajes Prospección Ingeniería de Detalles Explotación Subterránea Yacimiento Chuquicamata (e-seia)</t>
+          <t>Planta de Tratamiento de Efluentes Hospital del Cobre (e-seia)</t>
         </is>
       </c>
       <c r="C374" t="inlineStr">
@@ -18299,7 +18299,7 @@
         </is>
       </c>
       <c r="F374" t="n">
-        <v>83584</v>
+        <v>200</v>
       </c>
       <c r="G374" t="inlineStr">
         <is>
@@ -18313,7 +18313,7 @@
       </c>
       <c r="I374" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3737660&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3826608&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J374" t="inlineStr">
@@ -18328,7 +18328,7 @@
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Efluentes Hospital del Cobre (e-seia)</t>
+          <t>Sondajes Prospección Ingeniería de Detalles Explotación Subterránea Yacimiento Chuquicamata (e-seia)</t>
         </is>
       </c>
       <c r="C375" t="inlineStr">
@@ -18347,7 +18347,7 @@
         </is>
       </c>
       <c r="F375" t="n">
-        <v>200</v>
+        <v>83584</v>
       </c>
       <c r="G375" t="inlineStr">
         <is>
@@ -18361,7 +18361,7 @@
       </c>
       <c r="I375" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3826608&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3737660&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J375" t="inlineStr">
@@ -19576,7 +19576,7 @@
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Proyecto Explotación Subterránea Mina Santa Rosa (e-seia)</t>
         </is>
       </c>
       <c r="C401" t="inlineStr">
@@ -19586,16 +19586,16 @@
       </c>
       <c r="D401" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E401" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Minera Quimal.S.A.</t>
         </is>
       </c>
       <c r="F401" t="n">
-        <v>1750</v>
+        <v>500</v>
       </c>
       <c r="G401" t="inlineStr">
         <is>
@@ -19604,12 +19604,12 @@
       </c>
       <c r="H401" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I401" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3310659&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J401" t="inlineStr">
@@ -19624,7 +19624,7 @@
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>Proyecto Explotación Subterránea Mina Santa Rosa (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C402" t="inlineStr">
@@ -19634,16 +19634,16 @@
       </c>
       <c r="D402" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E402" t="inlineStr">
         <is>
-          <t>Minera Quimal.S.A.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F402" t="n">
-        <v>500</v>
+        <v>1750</v>
       </c>
       <c r="G402" t="inlineStr">
         <is>
@@ -19652,12 +19652,12 @@
       </c>
       <c r="H402" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I402" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3310659&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J402" t="inlineStr">
@@ -20104,7 +20104,7 @@
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>Tratamiento de Impurezas en Ánodos y Cátodos de División Codelco Norte (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C412" t="inlineStr">
@@ -20114,16 +20114,16 @@
       </c>
       <c r="D412" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E412" t="inlineStr">
         <is>
-          <t>Codelco Chile, División Chuquicamata</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F412" t="n">
-        <v>50000</v>
+        <v>250</v>
       </c>
       <c r="G412" t="inlineStr">
         <is>
@@ -20132,12 +20132,12 @@
       </c>
       <c r="H412" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I412" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3118819&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J412" t="inlineStr">
@@ -20152,7 +20152,7 @@
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>Tratamiento de Impurezas en Ánodos y Cátodos de División Codelco Norte (e-seia)</t>
         </is>
       </c>
       <c r="C413" t="inlineStr">
@@ -20162,16 +20162,16 @@
       </c>
       <c r="D413" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E413" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Codelco Chile, División Chuquicamata</t>
         </is>
       </c>
       <c r="F413" t="n">
-        <v>250</v>
+        <v>50000</v>
       </c>
       <c r="G413" t="inlineStr">
         <is>
@@ -20180,12 +20180,12 @@
       </c>
       <c r="H413" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I413" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3118819&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J413" t="inlineStr">
@@ -20296,7 +20296,7 @@
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>Proyecto Exploración Minera Macarena - Leo (e-seia)</t>
         </is>
       </c>
       <c r="C416" t="inlineStr">
@@ -20306,16 +20306,16 @@
       </c>
       <c r="D416" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E416" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Minera Fuego Limitada</t>
         </is>
       </c>
       <c r="F416" t="n">
-        <v>1650</v>
+        <v>150</v>
       </c>
       <c r="G416" t="inlineStr">
         <is>
@@ -20329,7 +20329,7 @@
       </c>
       <c r="I416" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088992&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J416" t="inlineStr">
@@ -20344,7 +20344,7 @@
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>Proyecto Exploración Minera Macarena - Leo (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C417" t="inlineStr">
@@ -20354,16 +20354,16 @@
       </c>
       <c r="D417" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E417" t="inlineStr">
         <is>
-          <t>Minera Fuego Limitada</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F417" t="n">
-        <v>150</v>
+        <v>1650</v>
       </c>
       <c r="G417" t="inlineStr">
         <is>
@@ -20377,7 +20377,7 @@
       </c>
       <c r="I417" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088992&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J417" t="inlineStr">
@@ -23320,26 +23320,26 @@
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>LIXIVIACIÓN DE SULFUROS SULFOLIX</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C479" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D479" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E479" t="inlineStr">
         <is>
-          <t>SOCIEDAD CONTRACTUAL MINERA EL ABRA</t>
+          <t>Empresa de Residuos RESITER S.A.</t>
         </is>
       </c>
       <c r="F479" t="n">
-        <v>343000</v>
+        <v>1</v>
       </c>
       <c r="G479" t="inlineStr">
         <is>
@@ -23353,7 +23353,7 @@
       </c>
       <c r="I479" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2088630&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J479" t="inlineStr">
@@ -23368,26 +23368,26 @@
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
+          <t>LIXIVIACIÓN DE SULFUROS SULFOLIX</t>
         </is>
       </c>
       <c r="C480" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D480" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E480" t="inlineStr">
         <is>
-          <t>Empresa de Residuos RESITER S.A.</t>
+          <t>SOCIEDAD CONTRACTUAL MINERA EL ABRA</t>
         </is>
       </c>
       <c r="F480" t="n">
-        <v>1</v>
+        <v>343000</v>
       </c>
       <c r="G480" t="inlineStr">
         <is>
@@ -23401,7 +23401,7 @@
       </c>
       <c r="I480" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2088630&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J480" t="inlineStr">

--- a/data/Calama.xlsx
+++ b/data/Calama.xlsx
@@ -1303,7 +1303,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>CAUCE SOLAR SpA</t>
+          <t>Cauce Solar SpA</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -3736,7 +3736,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Verano de San Juan I</t>
+          <t>MODIFICACIONES AL PROYECTO EXTRACCIÓN Y MOVIMIENTO DE MINERALES MINA RADOMIRO TOMIC</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3751,11 +3751,11 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Victoria Solar SpA</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>15000</v>
+        <v>208848</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
@@ -3764,12 +3764,12 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138522682&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138513102&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3784,7 +3784,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Verano de San Juan II</t>
+          <t>Parque Fotovoltaico Verano de San Juan I</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3799,7 +3799,7 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Paine Energy SpA</t>
+          <t>Victoria Solar SpA</t>
         </is>
       </c>
       <c r="F72" t="n">
@@ -3817,7 +3817,7 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138526892&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138522682&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3832,7 +3832,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>MODIFICACIONES AL PROYECTO EXTRACCIÓN Y MOVIMIENTO DE MINERALES MINA RADOMIRO TOMIC</t>
+          <t>Parque Fotovoltaico Verano de San Juan II</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3847,11 +3847,11 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Paine Energy SpA</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>208848</v>
+        <v>15000</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
@@ -3860,12 +3860,12 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138513102&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138526892&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -7720,7 +7720,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>AUMENTO CAPACIDAD DE TRATAMIENTO DE EFLUENTES DE FUNDICIÓN</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -7730,16 +7730,16 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>Codelco Chile, División Chuquicamata</t>
         </is>
       </c>
       <c r="F154" t="n">
-        <v>1200</v>
+        <v>67700</v>
       </c>
       <c r="G154" t="inlineStr">
         <is>
@@ -7753,7 +7753,7 @@
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128952737&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -7768,7 +7768,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Proyecto Fotovoltaico Azabache</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -7778,16 +7778,16 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>Almeyda Solar SpA.</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F155" t="n">
-        <v>140000</v>
+        <v>1200</v>
       </c>
       <c r="G155" t="inlineStr">
         <is>
@@ -7801,7 +7801,7 @@
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128969457&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -7816,7 +7816,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Proyecto Fotovoltaico Azabache</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -7826,16 +7826,16 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Almeyda Solar SpA.</t>
         </is>
       </c>
       <c r="F156" t="n">
-        <v>0</v>
+        <v>140000</v>
       </c>
       <c r="G156" t="inlineStr">
         <is>
@@ -7849,7 +7849,7 @@
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128969457&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -7864,7 +7864,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>BARRIO CONTRATISTA GERENCIA DE PROYECTOS</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -7874,16 +7874,16 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>Codelco Chile, División Chuquicamata</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F157" t="n">
-        <v>8000</v>
+        <v>0</v>
       </c>
       <c r="G157" t="inlineStr">
         <is>
@@ -7897,7 +7897,7 @@
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128904823&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -7912,7 +7912,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>AUMENTO CAPACIDAD DE TRATAMIENTO DE EFLUENTES DE FUNDICIÓN</t>
+          <t>BARRIO CONTRATISTA GERENCIA DE PROYECTOS</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -7931,7 +7931,7 @@
         </is>
       </c>
       <c r="F158" t="n">
-        <v>67700</v>
+        <v>8000</v>
       </c>
       <c r="G158" t="inlineStr">
         <is>
@@ -7945,7 +7945,7 @@
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128952737&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128904823&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -7960,7 +7960,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Aumento Áreas de Lixiviación, sector Quebrada Portezuelo</t>
+          <t>Remodelación Parque El Loa</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -7975,11 +7975,11 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>Codelco Chile, División Chuquicamata</t>
+          <t>Ilustre Municipalidad de Calama</t>
         </is>
       </c>
       <c r="F159" t="n">
-        <v>5888</v>
+        <v>9074</v>
       </c>
       <c r="G159" t="inlineStr">
         <is>
@@ -7993,7 +7993,7 @@
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128955081&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128906904&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -8008,7 +8008,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Remodelación Parque El Loa</t>
+          <t>Aumento Áreas de Lixiviación, sector Quebrada Portezuelo</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -8023,11 +8023,11 @@
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Calama</t>
+          <t>Codelco Chile, División Chuquicamata</t>
         </is>
       </c>
       <c r="F160" t="n">
-        <v>9074</v>
+        <v>5888</v>
       </c>
       <c r="G160" t="inlineStr">
         <is>
@@ -8041,7 +8041,7 @@
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128906904&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128955081&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
@@ -8632,7 +8632,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -8647,11 +8647,11 @@
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F173" t="n">
-        <v>12500</v>
+        <v>219</v>
       </c>
       <c r="G173" t="inlineStr">
         <is>
@@ -8660,12 +8660,12 @@
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556590&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -8680,7 +8680,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
+          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -8699,7 +8699,7 @@
         </is>
       </c>
       <c r="F174" t="n">
-        <v>10000</v>
+        <v>12500</v>
       </c>
       <c r="G174" t="inlineStr">
         <is>
@@ -8713,7 +8713,7 @@
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -8728,7 +8728,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -8743,11 +8743,11 @@
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F175" t="n">
-        <v>219</v>
+        <v>10000</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
@@ -8756,12 +8756,12 @@
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556590&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -9256,26 +9256,26 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>RT Sulfuros</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F186" t="n">
-        <v>2050</v>
+        <v>5.4</v>
       </c>
       <c r="G186" t="inlineStr">
         <is>
@@ -9284,12 +9284,12 @@
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
@@ -9304,26 +9304,26 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>RT Sulfuros</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F187" t="n">
-        <v>5.4</v>
+        <v>2050</v>
       </c>
       <c r="G187" t="inlineStr">
         <is>
@@ -9332,12 +9332,12 @@
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
@@ -10744,7 +10744,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Procesamiento de Óxidos DMH</t>
+          <t>Planta Fotovoltaica San Pedro de Atacama IV</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -10759,11 +10759,11 @@
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>División Ministro Hales de Codelco Chile</t>
+          <t>GPG Solar Chile 2017 SpA</t>
         </is>
       </c>
       <c r="F217" t="n">
-        <v>70000</v>
+        <v>105250</v>
       </c>
       <c r="G217" t="inlineStr">
         <is>
@@ -10777,7 +10777,7 @@
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7040302&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7052315&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J217" t="inlineStr">
@@ -10792,7 +10792,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Planta Fotovoltaica San Pedro de Atacama IV</t>
+          <t>Procesamiento de Óxidos DMH</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -10807,11 +10807,11 @@
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>GPG Solar Chile 2017 SpA</t>
+          <t>División Ministro Hales de Codelco Chile</t>
         </is>
       </c>
       <c r="F218" t="n">
-        <v>105250</v>
+        <v>70000</v>
       </c>
       <c r="G218" t="inlineStr">
         <is>
@@ -10825,7 +10825,7 @@
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7052315&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7040302&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">
@@ -12904,7 +12904,7 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>Portal del Inca</t>
+          <t>Línea de Transmisión Eléctrica 220 kv Encuentro - MH</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
@@ -12919,11 +12919,11 @@
       </c>
       <c r="E262" t="inlineStr">
         <is>
-          <t>Inmobiliaria Inca Dos Ltda.</t>
+          <t>División Ministro Hales de Codelco Chile</t>
         </is>
       </c>
       <c r="F262" t="n">
-        <v>13948</v>
+        <v>45000</v>
       </c>
       <c r="G262" t="inlineStr">
         <is>
@@ -12932,12 +12932,12 @@
       </c>
       <c r="H262" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I262" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5787635&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5773970&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J262" t="inlineStr">
@@ -12952,7 +12952,7 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Eléctrica 220 kv Encuentro - MH</t>
+          <t>Portal del Inca</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
@@ -12967,11 +12967,11 @@
       </c>
       <c r="E263" t="inlineStr">
         <is>
-          <t>División Ministro Hales de Codelco Chile</t>
+          <t>Inmobiliaria Inca Dos Ltda.</t>
         </is>
       </c>
       <c r="F263" t="n">
-        <v>45000</v>
+        <v>13948</v>
       </c>
       <c r="G263" t="inlineStr">
         <is>
@@ -12980,12 +12980,12 @@
       </c>
       <c r="H263" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I263" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5773970&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5787635&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J263" t="inlineStr">
@@ -13720,7 +13720,7 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
@@ -13735,11 +13735,11 @@
       </c>
       <c r="E279" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F279" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G279" t="inlineStr">
         <is>
@@ -13748,12 +13748,12 @@
       </c>
       <c r="H279" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I279" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J279" t="inlineStr">
@@ -13768,7 +13768,7 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
@@ -13783,11 +13783,11 @@
       </c>
       <c r="E280" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F280" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G280" t="inlineStr">
         <is>
@@ -13796,12 +13796,12 @@
       </c>
       <c r="H280" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I280" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J280" t="inlineStr">
@@ -18280,7 +18280,7 @@
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Efluentes Hospital del Cobre (e-seia)</t>
+          <t>Sondajes Prospección Ingeniería de Detalles Explotación Subterránea Yacimiento Chuquicamata (e-seia)</t>
         </is>
       </c>
       <c r="C374" t="inlineStr">
@@ -18299,7 +18299,7 @@
         </is>
       </c>
       <c r="F374" t="n">
-        <v>200</v>
+        <v>83584</v>
       </c>
       <c r="G374" t="inlineStr">
         <is>
@@ -18313,7 +18313,7 @@
       </c>
       <c r="I374" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3826608&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3737660&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J374" t="inlineStr">
@@ -18328,7 +18328,7 @@
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>Sondajes Prospección Ingeniería de Detalles Explotación Subterránea Yacimiento Chuquicamata (e-seia)</t>
+          <t>Planta de Tratamiento de Efluentes Hospital del Cobre (e-seia)</t>
         </is>
       </c>
       <c r="C375" t="inlineStr">
@@ -18347,7 +18347,7 @@
         </is>
       </c>
       <c r="F375" t="n">
-        <v>83584</v>
+        <v>200</v>
       </c>
       <c r="G375" t="inlineStr">
         <is>
@@ -18361,7 +18361,7 @@
       </c>
       <c r="I375" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3737660&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3826608&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J375" t="inlineStr">
@@ -19576,7 +19576,7 @@
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>Proyecto Explotación Subterránea Mina Santa Rosa (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C401" t="inlineStr">
@@ -19586,16 +19586,16 @@
       </c>
       <c r="D401" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E401" t="inlineStr">
         <is>
-          <t>Minera Quimal.S.A.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F401" t="n">
-        <v>500</v>
+        <v>1750</v>
       </c>
       <c r="G401" t="inlineStr">
         <is>
@@ -19604,12 +19604,12 @@
       </c>
       <c r="H401" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I401" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3310659&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J401" t="inlineStr">
@@ -19624,7 +19624,7 @@
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Proyecto Explotación Subterránea Mina Santa Rosa (e-seia)</t>
         </is>
       </c>
       <c r="C402" t="inlineStr">
@@ -19634,16 +19634,16 @@
       </c>
       <c r="D402" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E402" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Minera Quimal.S.A.</t>
         </is>
       </c>
       <c r="F402" t="n">
-        <v>1750</v>
+        <v>500</v>
       </c>
       <c r="G402" t="inlineStr">
         <is>
@@ -19652,12 +19652,12 @@
       </c>
       <c r="H402" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I402" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3310659&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J402" t="inlineStr">
@@ -20104,7 +20104,7 @@
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>Tratamiento de Impurezas en Ánodos y Cátodos de División Codelco Norte (e-seia)</t>
         </is>
       </c>
       <c r="C412" t="inlineStr">
@@ -20114,16 +20114,16 @@
       </c>
       <c r="D412" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E412" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Codelco Chile, División Chuquicamata</t>
         </is>
       </c>
       <c r="F412" t="n">
-        <v>250</v>
+        <v>50000</v>
       </c>
       <c r="G412" t="inlineStr">
         <is>
@@ -20132,12 +20132,12 @@
       </c>
       <c r="H412" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I412" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3118819&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J412" t="inlineStr">
@@ -20152,7 +20152,7 @@
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>Tratamiento de Impurezas en Ánodos y Cátodos de División Codelco Norte (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C413" t="inlineStr">
@@ -20162,16 +20162,16 @@
       </c>
       <c r="D413" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E413" t="inlineStr">
         <is>
-          <t>Codelco Chile, División Chuquicamata</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F413" t="n">
-        <v>50000</v>
+        <v>250</v>
       </c>
       <c r="G413" t="inlineStr">
         <is>
@@ -20180,12 +20180,12 @@
       </c>
       <c r="H413" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I413" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3118819&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J413" t="inlineStr">
@@ -20296,7 +20296,7 @@
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>Proyecto Exploración Minera Macarena - Leo (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C416" t="inlineStr">
@@ -20306,16 +20306,16 @@
       </c>
       <c r="D416" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E416" t="inlineStr">
         <is>
-          <t>Minera Fuego Limitada</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F416" t="n">
-        <v>150</v>
+        <v>1650</v>
       </c>
       <c r="G416" t="inlineStr">
         <is>
@@ -20329,7 +20329,7 @@
       </c>
       <c r="I416" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088992&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J416" t="inlineStr">
@@ -20344,7 +20344,7 @@
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>Proyecto Exploración Minera Macarena - Leo (e-seia)</t>
         </is>
       </c>
       <c r="C417" t="inlineStr">
@@ -20354,16 +20354,16 @@
       </c>
       <c r="D417" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E417" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Minera Fuego Limitada</t>
         </is>
       </c>
       <c r="F417" t="n">
-        <v>1650</v>
+        <v>150</v>
       </c>
       <c r="G417" t="inlineStr">
         <is>
@@ -20377,7 +20377,7 @@
       </c>
       <c r="I417" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088992&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J417" t="inlineStr">
@@ -23320,26 +23320,26 @@
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
+          <t>LIXIVIACIÓN DE SULFUROS SULFOLIX</t>
         </is>
       </c>
       <c r="C479" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D479" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E479" t="inlineStr">
         <is>
-          <t>Empresa de Residuos RESITER S.A.</t>
+          <t>SOCIEDAD CONTRACTUAL MINERA EL ABRA</t>
         </is>
       </c>
       <c r="F479" t="n">
-        <v>1</v>
+        <v>343000</v>
       </c>
       <c r="G479" t="inlineStr">
         <is>
@@ -23353,7 +23353,7 @@
       </c>
       <c r="I479" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2088630&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J479" t="inlineStr">
@@ -23368,26 +23368,26 @@
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>LIXIVIACIÓN DE SULFUROS SULFOLIX</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C480" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D480" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E480" t="inlineStr">
         <is>
-          <t>SOCIEDAD CONTRACTUAL MINERA EL ABRA</t>
+          <t>Empresa de Residuos RESITER S.A.</t>
         </is>
       </c>
       <c r="F480" t="n">
-        <v>343000</v>
+        <v>1</v>
       </c>
       <c r="G480" t="inlineStr">
         <is>
@@ -23401,7 +23401,7 @@
       </c>
       <c r="I480" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2088630&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J480" t="inlineStr">

--- a/data/Calama.xlsx
+++ b/data/Calama.xlsx
@@ -12679,7 +12679,7 @@
       </c>
       <c r="E257" t="inlineStr">
         <is>
-          <t>SERVICIO DE VIVIENDA Y URBANÍSMO</t>
+          <t>Servicio de Vivienda y Urbanísmo (SERVIU) Región de Antofagasta</t>
         </is>
       </c>
       <c r="F257" t="n">

--- a/data/Calama.xlsx
+++ b/data/Calama.xlsx
@@ -21463,7 +21463,7 @@
       </c>
       <c r="E440" t="inlineStr">
         <is>
-          <t>Minera Cerro Dominador S.A.</t>
+          <t>Salva-21 SpA</t>
         </is>
       </c>
       <c r="F440" t="n">

--- a/data/Calama.xlsx
+++ b/data/Calama.xlsx
@@ -2756,7 +2756,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -18280,7 +18280,7 @@
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Efluentes Hospital del Cobre (e-seia)</t>
+          <t>Sondajes Prospección Ingeniería de Detalles Explotación Subterránea Yacimiento Chuquicamata (e-seia)</t>
         </is>
       </c>
       <c r="C374" t="inlineStr">
@@ -18299,7 +18299,7 @@
         </is>
       </c>
       <c r="F374" t="n">
-        <v>200</v>
+        <v>83584</v>
       </c>
       <c r="G374" t="inlineStr">
         <is>
@@ -18313,7 +18313,7 @@
       </c>
       <c r="I374" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3826608&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3737660&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J374" t="inlineStr">
@@ -18328,7 +18328,7 @@
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>Sondajes Prospección Ingeniería de Detalles Explotación Subterránea Yacimiento Chuquicamata (e-seia)</t>
+          <t>Planta de Tratamiento de Efluentes Hospital del Cobre (e-seia)</t>
         </is>
       </c>
       <c r="C375" t="inlineStr">
@@ -18347,7 +18347,7 @@
         </is>
       </c>
       <c r="F375" t="n">
-        <v>83584</v>
+        <v>200</v>
       </c>
       <c r="G375" t="inlineStr">
         <is>
@@ -18361,7 +18361,7 @@
       </c>
       <c r="I375" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3737660&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3826608&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J375" t="inlineStr">

--- a/data/Calama.xlsx
+++ b/data/Calama.xlsx
@@ -3736,7 +3736,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Verano de San Juan I</t>
+          <t>MODIFICACIONES AL PROYECTO EXTRACCIÓN Y MOVIMIENTO DE MINERALES MINA RADOMIRO TOMIC</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3751,11 +3751,11 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Victoria Solar SpA</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>15000</v>
+        <v>208848</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
@@ -3764,12 +3764,12 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138522682&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138513102&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3784,7 +3784,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Verano de San Juan II</t>
+          <t>Parque Fotovoltaico Verano de San Juan I</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3799,7 +3799,7 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Paine Energy SpA</t>
+          <t>Victoria Solar SpA</t>
         </is>
       </c>
       <c r="F72" t="n">
@@ -3817,7 +3817,7 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138526892&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138522682&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3832,7 +3832,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>MODIFICACIONES AL PROYECTO EXTRACCIÓN Y MOVIMIENTO DE MINERALES MINA RADOMIRO TOMIC</t>
+          <t>Parque Fotovoltaico Verano de San Juan II</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3847,11 +3847,11 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Paine Energy SpA</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>208848</v>
+        <v>15000</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
@@ -3860,12 +3860,12 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138513102&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138526892&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -7720,7 +7720,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>AUMENTO CAPACIDAD DE TRATAMIENTO DE EFLUENTES DE FUNDICIÓN</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -7730,16 +7730,16 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>Codelco Chile, División Chuquicamata</t>
         </is>
       </c>
       <c r="F154" t="n">
-        <v>1200</v>
+        <v>67700</v>
       </c>
       <c r="G154" t="inlineStr">
         <is>
@@ -7753,7 +7753,7 @@
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128952737&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -7768,7 +7768,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Proyecto Fotovoltaico Azabache</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -7778,16 +7778,16 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>Almeyda Solar SpA.</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F155" t="n">
-        <v>140000</v>
+        <v>1200</v>
       </c>
       <c r="G155" t="inlineStr">
         <is>
@@ -7801,7 +7801,7 @@
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128969457&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -7816,7 +7816,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Proyecto Fotovoltaico Azabache</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -7826,16 +7826,16 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Almeyda Solar SpA.</t>
         </is>
       </c>
       <c r="F156" t="n">
-        <v>0</v>
+        <v>140000</v>
       </c>
       <c r="G156" t="inlineStr">
         <is>
@@ -7849,7 +7849,7 @@
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128969457&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -7864,7 +7864,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>BARRIO CONTRATISTA GERENCIA DE PROYECTOS</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -7874,16 +7874,16 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>Codelco Chile, División Chuquicamata</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F157" t="n">
-        <v>8000</v>
+        <v>0</v>
       </c>
       <c r="G157" t="inlineStr">
         <is>
@@ -7897,7 +7897,7 @@
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128904823&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -7912,7 +7912,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>AUMENTO CAPACIDAD DE TRATAMIENTO DE EFLUENTES DE FUNDICIÓN</t>
+          <t>BARRIO CONTRATISTA GERENCIA DE PROYECTOS</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -7931,7 +7931,7 @@
         </is>
       </c>
       <c r="F158" t="n">
-        <v>67700</v>
+        <v>8000</v>
       </c>
       <c r="G158" t="inlineStr">
         <is>
@@ -7945,7 +7945,7 @@
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128952737&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128904823&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -7960,7 +7960,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Aumento Áreas de Lixiviación, sector Quebrada Portezuelo</t>
+          <t>Remodelación Parque El Loa</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -7975,11 +7975,11 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>Codelco Chile, División Chuquicamata</t>
+          <t>Ilustre Municipalidad de Calama</t>
         </is>
       </c>
       <c r="F159" t="n">
-        <v>5888</v>
+        <v>9074</v>
       </c>
       <c r="G159" t="inlineStr">
         <is>
@@ -7993,7 +7993,7 @@
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128955081&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128906904&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -8008,7 +8008,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Remodelación Parque El Loa</t>
+          <t>Aumento Áreas de Lixiviación, sector Quebrada Portezuelo</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -8023,11 +8023,11 @@
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Calama</t>
+          <t>Codelco Chile, División Chuquicamata</t>
         </is>
       </c>
       <c r="F160" t="n">
-        <v>9074</v>
+        <v>5888</v>
       </c>
       <c r="G160" t="inlineStr">
         <is>
@@ -8041,7 +8041,7 @@
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128906904&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128955081&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
@@ -8632,7 +8632,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -8647,11 +8647,11 @@
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F173" t="n">
-        <v>12500</v>
+        <v>219</v>
       </c>
       <c r="G173" t="inlineStr">
         <is>
@@ -8660,12 +8660,12 @@
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556590&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -8680,7 +8680,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
+          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -8699,7 +8699,7 @@
         </is>
       </c>
       <c r="F174" t="n">
-        <v>10000</v>
+        <v>12500</v>
       </c>
       <c r="G174" t="inlineStr">
         <is>
@@ -8713,7 +8713,7 @@
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -8728,7 +8728,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -8743,11 +8743,11 @@
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F175" t="n">
-        <v>219</v>
+        <v>10000</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
@@ -8756,12 +8756,12 @@
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556590&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -9256,26 +9256,26 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>RT Sulfuros</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F186" t="n">
-        <v>2050</v>
+        <v>5.4</v>
       </c>
       <c r="G186" t="inlineStr">
         <is>
@@ -9284,12 +9284,12 @@
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
@@ -9304,26 +9304,26 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>RT Sulfuros</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F187" t="n">
-        <v>5.4</v>
+        <v>2050</v>
       </c>
       <c r="G187" t="inlineStr">
         <is>
@@ -9332,12 +9332,12 @@
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
@@ -10744,7 +10744,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Procesamiento de Óxidos DMH</t>
+          <t>Planta Fotovoltaica San Pedro de Atacama IV</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -10759,11 +10759,11 @@
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>División Ministro Hales de Codelco Chile</t>
+          <t>GPG Solar Chile 2017 SpA</t>
         </is>
       </c>
       <c r="F217" t="n">
-        <v>70000</v>
+        <v>105250</v>
       </c>
       <c r="G217" t="inlineStr">
         <is>
@@ -10777,7 +10777,7 @@
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7040302&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7052315&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J217" t="inlineStr">
@@ -10792,7 +10792,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Planta Fotovoltaica San Pedro de Atacama IV</t>
+          <t>Procesamiento de Óxidos DMH</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -10807,11 +10807,11 @@
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>GPG Solar Chile 2017 SpA</t>
+          <t>División Ministro Hales de Codelco Chile</t>
         </is>
       </c>
       <c r="F218" t="n">
-        <v>105250</v>
+        <v>70000</v>
       </c>
       <c r="G218" t="inlineStr">
         <is>
@@ -10825,7 +10825,7 @@
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7052315&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7040302&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">
@@ -12904,7 +12904,7 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>Portal del Inca</t>
+          <t>Línea de Transmisión Eléctrica 220 kv Encuentro - MH</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
@@ -12919,11 +12919,11 @@
       </c>
       <c r="E262" t="inlineStr">
         <is>
-          <t>Inmobiliaria Inca Dos Ltda.</t>
+          <t>División Ministro Hales de Codelco Chile</t>
         </is>
       </c>
       <c r="F262" t="n">
-        <v>13948</v>
+        <v>45000</v>
       </c>
       <c r="G262" t="inlineStr">
         <is>
@@ -12932,12 +12932,12 @@
       </c>
       <c r="H262" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I262" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5787635&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5773970&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J262" t="inlineStr">
@@ -12952,7 +12952,7 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Eléctrica 220 kv Encuentro - MH</t>
+          <t>Portal del Inca</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
@@ -12967,11 +12967,11 @@
       </c>
       <c r="E263" t="inlineStr">
         <is>
-          <t>División Ministro Hales de Codelco Chile</t>
+          <t>Inmobiliaria Inca Dos Ltda.</t>
         </is>
       </c>
       <c r="F263" t="n">
-        <v>45000</v>
+        <v>13948</v>
       </c>
       <c r="G263" t="inlineStr">
         <is>
@@ -12980,12 +12980,12 @@
       </c>
       <c r="H263" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I263" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5773970&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5787635&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J263" t="inlineStr">
@@ -13720,7 +13720,7 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
@@ -13735,11 +13735,11 @@
       </c>
       <c r="E279" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F279" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G279" t="inlineStr">
         <is>
@@ -13748,12 +13748,12 @@
       </c>
       <c r="H279" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I279" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J279" t="inlineStr">
@@ -13768,7 +13768,7 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
@@ -13783,11 +13783,11 @@
       </c>
       <c r="E280" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F280" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G280" t="inlineStr">
         <is>
@@ -13796,12 +13796,12 @@
       </c>
       <c r="H280" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I280" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J280" t="inlineStr">
@@ -19576,7 +19576,7 @@
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>Proyecto Explotación Subterránea Mina Santa Rosa (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C401" t="inlineStr">
@@ -19586,16 +19586,16 @@
       </c>
       <c r="D401" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E401" t="inlineStr">
         <is>
-          <t>Minera Quimal.S.A.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F401" t="n">
-        <v>500</v>
+        <v>1750</v>
       </c>
       <c r="G401" t="inlineStr">
         <is>
@@ -19604,12 +19604,12 @@
       </c>
       <c r="H401" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I401" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3310659&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J401" t="inlineStr">
@@ -19624,7 +19624,7 @@
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Proyecto Explotación Subterránea Mina Santa Rosa (e-seia)</t>
         </is>
       </c>
       <c r="C402" t="inlineStr">
@@ -19634,16 +19634,16 @@
       </c>
       <c r="D402" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E402" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Minera Quimal.S.A.</t>
         </is>
       </c>
       <c r="F402" t="n">
-        <v>1750</v>
+        <v>500</v>
       </c>
       <c r="G402" t="inlineStr">
         <is>
@@ -19652,12 +19652,12 @@
       </c>
       <c r="H402" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I402" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3310659&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J402" t="inlineStr">
@@ -20104,7 +20104,7 @@
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>Tratamiento de Impurezas en Ánodos y Cátodos de División Codelco Norte (e-seia)</t>
         </is>
       </c>
       <c r="C412" t="inlineStr">
@@ -20114,16 +20114,16 @@
       </c>
       <c r="D412" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E412" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Codelco Chile, División Chuquicamata</t>
         </is>
       </c>
       <c r="F412" t="n">
-        <v>250</v>
+        <v>50000</v>
       </c>
       <c r="G412" t="inlineStr">
         <is>
@@ -20132,12 +20132,12 @@
       </c>
       <c r="H412" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I412" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3118819&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J412" t="inlineStr">
@@ -20152,7 +20152,7 @@
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>Tratamiento de Impurezas en Ánodos y Cátodos de División Codelco Norte (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C413" t="inlineStr">
@@ -20162,16 +20162,16 @@
       </c>
       <c r="D413" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E413" t="inlineStr">
         <is>
-          <t>Codelco Chile, División Chuquicamata</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F413" t="n">
-        <v>50000</v>
+        <v>250</v>
       </c>
       <c r="G413" t="inlineStr">
         <is>
@@ -20180,12 +20180,12 @@
       </c>
       <c r="H413" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I413" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3118819&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J413" t="inlineStr">
@@ -20296,7 +20296,7 @@
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>Proyecto Exploración Minera Macarena - Leo (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C416" t="inlineStr">
@@ -20306,16 +20306,16 @@
       </c>
       <c r="D416" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E416" t="inlineStr">
         <is>
-          <t>Minera Fuego Limitada</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F416" t="n">
-        <v>150</v>
+        <v>1650</v>
       </c>
       <c r="G416" t="inlineStr">
         <is>
@@ -20329,7 +20329,7 @@
       </c>
       <c r="I416" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088992&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J416" t="inlineStr">
@@ -20344,7 +20344,7 @@
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>Proyecto Exploración Minera Macarena - Leo (e-seia)</t>
         </is>
       </c>
       <c r="C417" t="inlineStr">
@@ -20354,16 +20354,16 @@
       </c>
       <c r="D417" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E417" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Minera Fuego Limitada</t>
         </is>
       </c>
       <c r="F417" t="n">
-        <v>1650</v>
+        <v>150</v>
       </c>
       <c r="G417" t="inlineStr">
         <is>
@@ -20377,7 +20377,7 @@
       </c>
       <c r="I417" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088992&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J417" t="inlineStr">
@@ -23320,26 +23320,26 @@
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
+          <t>LIXIVIACIÓN DE SULFUROS SULFOLIX</t>
         </is>
       </c>
       <c r="C479" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D479" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E479" t="inlineStr">
         <is>
-          <t>Empresa de Residuos RESITER S.A.</t>
+          <t>SOCIEDAD CONTRACTUAL MINERA EL ABRA</t>
         </is>
       </c>
       <c r="F479" t="n">
-        <v>1</v>
+        <v>343000</v>
       </c>
       <c r="G479" t="inlineStr">
         <is>
@@ -23353,7 +23353,7 @@
       </c>
       <c r="I479" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2088630&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J479" t="inlineStr">
@@ -23368,26 +23368,26 @@
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>LIXIVIACIÓN DE SULFUROS SULFOLIX</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C480" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D480" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E480" t="inlineStr">
         <is>
-          <t>SOCIEDAD CONTRACTUAL MINERA EL ABRA</t>
+          <t>Empresa de Residuos RESITER S.A.</t>
         </is>
       </c>
       <c r="F480" t="n">
-        <v>343000</v>
+        <v>1</v>
       </c>
       <c r="G480" t="inlineStr">
         <is>
@@ -23401,7 +23401,7 @@
       </c>
       <c r="I480" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2088630&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J480" t="inlineStr">

--- a/data/Calama.xlsx
+++ b/data/Calama.xlsx
@@ -2756,7 +2756,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">

--- a/data/Calama.xlsx
+++ b/data/Calama.xlsx
@@ -3784,7 +3784,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>MODIFICACIONES AL PROYECTO EXTRACCIÓN Y MOVIMIENTO DE MINERALES MINA RADOMIRO TOMIC</t>
+          <t>Parque Fotovoltaico Verano de San Juan I</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3799,11 +3799,11 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Victoria Solar SpA</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>208848</v>
+        <v>15000</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
@@ -3812,12 +3812,12 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138513102&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138522682&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3832,7 +3832,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Verano de San Juan I</t>
+          <t>Parque Fotovoltaico Verano de San Juan II</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3847,7 +3847,7 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Victoria Solar SpA</t>
+          <t>Paine Energy SpA</t>
         </is>
       </c>
       <c r="F73" t="n">
@@ -3865,7 +3865,7 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138522682&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138526892&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -3880,7 +3880,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Verano de San Juan II</t>
+          <t>MODIFICACIONES AL PROYECTO EXTRACCIÓN Y MOVIMIENTO DE MINERALES MINA RADOMIRO TOMIC</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3895,11 +3895,11 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Paine Energy SpA</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>15000</v>
+        <v>208848</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
@@ -3908,12 +3908,12 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138526892&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138513102&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -7768,7 +7768,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>AUMENTO CAPACIDAD DE TRATAMIENTO DE EFLUENTES DE FUNDICIÓN</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -7778,16 +7778,16 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>Codelco Chile, División Chuquicamata</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F155" t="n">
-        <v>67700</v>
+        <v>1200</v>
       </c>
       <c r="G155" t="inlineStr">
         <is>
@@ -7801,7 +7801,7 @@
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128952737&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -7816,7 +7816,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Proyecto Fotovoltaico Azabache</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -7826,16 +7826,16 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>Almeyda Solar SpA.</t>
         </is>
       </c>
       <c r="F156" t="n">
-        <v>1200</v>
+        <v>140000</v>
       </c>
       <c r="G156" t="inlineStr">
         <is>
@@ -7849,7 +7849,7 @@
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128969457&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -7864,7 +7864,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Proyecto Fotovoltaico Azabache</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -7874,16 +7874,16 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>Almeyda Solar SpA.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F157" t="n">
-        <v>140000</v>
+        <v>0</v>
       </c>
       <c r="G157" t="inlineStr">
         <is>
@@ -7897,7 +7897,7 @@
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128969457&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -7912,7 +7912,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>BARRIO CONTRATISTA GERENCIA DE PROYECTOS</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -7922,16 +7922,16 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Codelco Chile, División Chuquicamata</t>
         </is>
       </c>
       <c r="F158" t="n">
-        <v>0</v>
+        <v>8000</v>
       </c>
       <c r="G158" t="inlineStr">
         <is>
@@ -7945,7 +7945,7 @@
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128904823&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -7960,7 +7960,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>BARRIO CONTRATISTA GERENCIA DE PROYECTOS</t>
+          <t>AUMENTO CAPACIDAD DE TRATAMIENTO DE EFLUENTES DE FUNDICIÓN</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -7979,7 +7979,7 @@
         </is>
       </c>
       <c r="F159" t="n">
-        <v>8000</v>
+        <v>67700</v>
       </c>
       <c r="G159" t="inlineStr">
         <is>
@@ -7993,7 +7993,7 @@
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128904823&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128952737&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -8008,7 +8008,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Remodelación Parque El Loa</t>
+          <t>Aumento Áreas de Lixiviación, sector Quebrada Portezuelo</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -8023,11 +8023,11 @@
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Calama</t>
+          <t>Codelco Chile, División Chuquicamata</t>
         </is>
       </c>
       <c r="F160" t="n">
-        <v>9074</v>
+        <v>5888</v>
       </c>
       <c r="G160" t="inlineStr">
         <is>
@@ -8041,7 +8041,7 @@
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128906904&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128955081&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
@@ -8056,7 +8056,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Aumento Áreas de Lixiviación, sector Quebrada Portezuelo</t>
+          <t>Remodelación Parque El Loa</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -8071,11 +8071,11 @@
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>Codelco Chile, División Chuquicamata</t>
+          <t>Ilustre Municipalidad de Calama</t>
         </is>
       </c>
       <c r="F161" t="n">
-        <v>5888</v>
+        <v>9074</v>
       </c>
       <c r="G161" t="inlineStr">
         <is>
@@ -8089,7 +8089,7 @@
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128955081&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128906904&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
@@ -8680,7 +8680,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -8695,11 +8695,11 @@
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F174" t="n">
-        <v>219</v>
+        <v>12500</v>
       </c>
       <c r="G174" t="inlineStr">
         <is>
@@ -8708,12 +8708,12 @@
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556590&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -8728,7 +8728,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -8747,7 +8747,7 @@
         </is>
       </c>
       <c r="F175" t="n">
-        <v>12500</v>
+        <v>10000</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
@@ -8761,7 +8761,7 @@
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -8776,7 +8776,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -8791,11 +8791,11 @@
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F176" t="n">
-        <v>10000</v>
+        <v>219</v>
       </c>
       <c r="G176" t="inlineStr">
         <is>
@@ -8804,12 +8804,12 @@
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556590&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -9304,26 +9304,26 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>RT Sulfuros</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F187" t="n">
-        <v>5.4</v>
+        <v>2050</v>
       </c>
       <c r="G187" t="inlineStr">
         <is>
@@ -9332,12 +9332,12 @@
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
@@ -9352,26 +9352,26 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>RT Sulfuros</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F188" t="n">
-        <v>2050</v>
+        <v>5.4</v>
       </c>
       <c r="G188" t="inlineStr">
         <is>
@@ -9380,12 +9380,12 @@
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
@@ -10792,7 +10792,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Planta Fotovoltaica San Pedro de Atacama IV</t>
+          <t>Procesamiento de Óxidos DMH</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -10807,11 +10807,11 @@
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>GPG Solar Chile 2017 SpA</t>
+          <t>División Ministro Hales de Codelco Chile</t>
         </is>
       </c>
       <c r="F218" t="n">
-        <v>105250</v>
+        <v>70000</v>
       </c>
       <c r="G218" t="inlineStr">
         <is>
@@ -10825,7 +10825,7 @@
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7052315&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7040302&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">
@@ -10840,7 +10840,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Procesamiento de Óxidos DMH</t>
+          <t>Planta Fotovoltaica San Pedro de Atacama IV</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -10855,11 +10855,11 @@
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>División Ministro Hales de Codelco Chile</t>
+          <t>GPG Solar Chile 2017 SpA</t>
         </is>
       </c>
       <c r="F219" t="n">
-        <v>70000</v>
+        <v>105250</v>
       </c>
       <c r="G219" t="inlineStr">
         <is>
@@ -10873,7 +10873,7 @@
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7040302&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7052315&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J219" t="inlineStr">
@@ -12952,7 +12952,7 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Eléctrica 220 kv Encuentro - MH</t>
+          <t>Portal del Inca</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
@@ -12967,11 +12967,11 @@
       </c>
       <c r="E263" t="inlineStr">
         <is>
-          <t>División Ministro Hales de Codelco Chile</t>
+          <t>Inmobiliaria Inca Dos Ltda.</t>
         </is>
       </c>
       <c r="F263" t="n">
-        <v>45000</v>
+        <v>13948</v>
       </c>
       <c r="G263" t="inlineStr">
         <is>
@@ -12980,12 +12980,12 @@
       </c>
       <c r="H263" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I263" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5773970&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5787635&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J263" t="inlineStr">
@@ -13000,7 +13000,7 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>Portal del Inca</t>
+          <t>Línea de Transmisión Eléctrica 220 kv Encuentro - MH</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
@@ -13015,11 +13015,11 @@
       </c>
       <c r="E264" t="inlineStr">
         <is>
-          <t>Inmobiliaria Inca Dos Ltda.</t>
+          <t>División Ministro Hales de Codelco Chile</t>
         </is>
       </c>
       <c r="F264" t="n">
-        <v>13948</v>
+        <v>45000</v>
       </c>
       <c r="G264" t="inlineStr">
         <is>
@@ -13028,12 +13028,12 @@
       </c>
       <c r="H264" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I264" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5787635&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5773970&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J264" t="inlineStr">
@@ -13768,7 +13768,7 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
@@ -13783,11 +13783,11 @@
       </c>
       <c r="E280" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F280" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G280" t="inlineStr">
         <is>
@@ -13796,12 +13796,12 @@
       </c>
       <c r="H280" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I280" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J280" t="inlineStr">
@@ -13816,7 +13816,7 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
@@ -13831,11 +13831,11 @@
       </c>
       <c r="E281" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F281" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G281" t="inlineStr">
         <is>
@@ -13844,12 +13844,12 @@
       </c>
       <c r="H281" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I281" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J281" t="inlineStr">
@@ -18328,7 +18328,7 @@
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>Sondajes Prospección Ingeniería de Detalles Explotación Subterránea Yacimiento Chuquicamata (e-seia)</t>
+          <t>Planta de Tratamiento de Efluentes Hospital del Cobre (e-seia)</t>
         </is>
       </c>
       <c r="C375" t="inlineStr">
@@ -18347,7 +18347,7 @@
         </is>
       </c>
       <c r="F375" t="n">
-        <v>83584</v>
+        <v>200</v>
       </c>
       <c r="G375" t="inlineStr">
         <is>
@@ -18361,7 +18361,7 @@
       </c>
       <c r="I375" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3737660&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3826608&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J375" t="inlineStr">
@@ -18376,7 +18376,7 @@
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Efluentes Hospital del Cobre (e-seia)</t>
+          <t>Sondajes Prospección Ingeniería de Detalles Explotación Subterránea Yacimiento Chuquicamata (e-seia)</t>
         </is>
       </c>
       <c r="C376" t="inlineStr">
@@ -18395,7 +18395,7 @@
         </is>
       </c>
       <c r="F376" t="n">
-        <v>200</v>
+        <v>83584</v>
       </c>
       <c r="G376" t="inlineStr">
         <is>
@@ -18409,7 +18409,7 @@
       </c>
       <c r="I376" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3826608&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3737660&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J376" t="inlineStr">
@@ -19624,7 +19624,7 @@
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Proyecto Explotación Subterránea Mina Santa Rosa (e-seia)</t>
         </is>
       </c>
       <c r="C402" t="inlineStr">
@@ -19634,16 +19634,16 @@
       </c>
       <c r="D402" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E402" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Minera Quimal.S.A.</t>
         </is>
       </c>
       <c r="F402" t="n">
-        <v>1750</v>
+        <v>500</v>
       </c>
       <c r="G402" t="inlineStr">
         <is>
@@ -19652,12 +19652,12 @@
       </c>
       <c r="H402" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I402" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3310659&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J402" t="inlineStr">
@@ -19672,7 +19672,7 @@
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>Proyecto Explotación Subterránea Mina Santa Rosa (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C403" t="inlineStr">
@@ -19682,16 +19682,16 @@
       </c>
       <c r="D403" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E403" t="inlineStr">
         <is>
-          <t>Minera Quimal.S.A.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F403" t="n">
-        <v>500</v>
+        <v>1750</v>
       </c>
       <c r="G403" t="inlineStr">
         <is>
@@ -19700,12 +19700,12 @@
       </c>
       <c r="H403" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I403" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3310659&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J403" t="inlineStr">
@@ -20152,7 +20152,7 @@
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>Tratamiento de Impurezas en Ánodos y Cátodos de División Codelco Norte (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C413" t="inlineStr">
@@ -20162,16 +20162,16 @@
       </c>
       <c r="D413" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E413" t="inlineStr">
         <is>
-          <t>Codelco Chile, División Chuquicamata</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F413" t="n">
-        <v>50000</v>
+        <v>250</v>
       </c>
       <c r="G413" t="inlineStr">
         <is>
@@ -20180,12 +20180,12 @@
       </c>
       <c r="H413" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I413" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3118819&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J413" t="inlineStr">
@@ -20200,7 +20200,7 @@
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>Tratamiento de Impurezas en Ánodos y Cátodos de División Codelco Norte (e-seia)</t>
         </is>
       </c>
       <c r="C414" t="inlineStr">
@@ -20210,16 +20210,16 @@
       </c>
       <c r="D414" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E414" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Codelco Chile, División Chuquicamata</t>
         </is>
       </c>
       <c r="F414" t="n">
-        <v>250</v>
+        <v>50000</v>
       </c>
       <c r="G414" t="inlineStr">
         <is>
@@ -20228,12 +20228,12 @@
       </c>
       <c r="H414" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I414" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3118819&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J414" t="inlineStr">
@@ -20344,7 +20344,7 @@
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>Proyecto Exploración Minera Macarena - Leo (e-seia)</t>
         </is>
       </c>
       <c r="C417" t="inlineStr">
@@ -20354,16 +20354,16 @@
       </c>
       <c r="D417" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E417" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Minera Fuego Limitada</t>
         </is>
       </c>
       <c r="F417" t="n">
-        <v>1650</v>
+        <v>150</v>
       </c>
       <c r="G417" t="inlineStr">
         <is>
@@ -20377,7 +20377,7 @@
       </c>
       <c r="I417" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088992&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J417" t="inlineStr">
@@ -20392,7 +20392,7 @@
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>Proyecto Exploración Minera Macarena - Leo (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C418" t="inlineStr">
@@ -20402,16 +20402,16 @@
       </c>
       <c r="D418" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E418" t="inlineStr">
         <is>
-          <t>Minera Fuego Limitada</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F418" t="n">
-        <v>150</v>
+        <v>1650</v>
       </c>
       <c r="G418" t="inlineStr">
         <is>
@@ -20425,7 +20425,7 @@
       </c>
       <c r="I418" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088992&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J418" t="inlineStr">
@@ -23368,26 +23368,26 @@
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>LIXIVIACIÓN DE SULFUROS SULFOLIX</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C480" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D480" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E480" t="inlineStr">
         <is>
-          <t>SOCIEDAD CONTRACTUAL MINERA EL ABRA</t>
+          <t>Empresa de Residuos RESITER S.A.</t>
         </is>
       </c>
       <c r="F480" t="n">
-        <v>343000</v>
+        <v>1</v>
       </c>
       <c r="G480" t="inlineStr">
         <is>
@@ -23401,7 +23401,7 @@
       </c>
       <c r="I480" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2088630&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J480" t="inlineStr">
@@ -23416,26 +23416,26 @@
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
+          <t>LIXIVIACIÓN DE SULFUROS SULFOLIX</t>
         </is>
       </c>
       <c r="C481" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D481" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E481" t="inlineStr">
         <is>
-          <t>Empresa de Residuos RESITER S.A.</t>
+          <t>SOCIEDAD CONTRACTUAL MINERA EL ABRA</t>
         </is>
       </c>
       <c r="F481" t="n">
-        <v>1</v>
+        <v>343000</v>
       </c>
       <c r="G481" t="inlineStr">
         <is>
@@ -23449,7 +23449,7 @@
       </c>
       <c r="I481" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2088630&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J481" t="inlineStr">

--- a/data/Calama.xlsx
+++ b/data/Calama.xlsx
@@ -3784,7 +3784,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Verano de San Juan I</t>
+          <t>MODIFICACIONES AL PROYECTO EXTRACCIÓN Y MOVIMIENTO DE MINERALES MINA RADOMIRO TOMIC</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3799,11 +3799,11 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Victoria Solar SpA</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>15000</v>
+        <v>208848</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
@@ -3812,12 +3812,12 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138522682&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138513102&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3832,7 +3832,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Verano de San Juan II</t>
+          <t>Parque Fotovoltaico Verano de San Juan I</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3847,7 +3847,7 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Paine Energy SpA</t>
+          <t>Victoria Solar SpA</t>
         </is>
       </c>
       <c r="F73" t="n">
@@ -3865,7 +3865,7 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138526892&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138522682&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -3880,7 +3880,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>MODIFICACIONES AL PROYECTO EXTRACCIÓN Y MOVIMIENTO DE MINERALES MINA RADOMIRO TOMIC</t>
+          <t>Parque Fotovoltaico Verano de San Juan II</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3895,11 +3895,11 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Paine Energy SpA</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>208848</v>
+        <v>15000</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
@@ -3908,12 +3908,12 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138513102&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138526892&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -7768,7 +7768,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>AUMENTO CAPACIDAD DE TRATAMIENTO DE EFLUENTES DE FUNDICIÓN</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -7778,16 +7778,16 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>Codelco Chile, División Chuquicamata</t>
         </is>
       </c>
       <c r="F155" t="n">
-        <v>1200</v>
+        <v>67700</v>
       </c>
       <c r="G155" t="inlineStr">
         <is>
@@ -7801,7 +7801,7 @@
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128952737&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -7816,7 +7816,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Proyecto Fotovoltaico Azabache</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -7826,16 +7826,16 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>Almeyda Solar SpA.</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F156" t="n">
-        <v>140000</v>
+        <v>1200</v>
       </c>
       <c r="G156" t="inlineStr">
         <is>
@@ -7849,7 +7849,7 @@
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128969457&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -7864,7 +7864,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Proyecto Fotovoltaico Azabache</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -7874,16 +7874,16 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Almeyda Solar SpA.</t>
         </is>
       </c>
       <c r="F157" t="n">
-        <v>0</v>
+        <v>140000</v>
       </c>
       <c r="G157" t="inlineStr">
         <is>
@@ -7897,7 +7897,7 @@
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128969457&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -7912,7 +7912,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>BARRIO CONTRATISTA GERENCIA DE PROYECTOS</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -7922,16 +7922,16 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>Codelco Chile, División Chuquicamata</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F158" t="n">
-        <v>8000</v>
+        <v>0</v>
       </c>
       <c r="G158" t="inlineStr">
         <is>
@@ -7945,7 +7945,7 @@
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128904823&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -7960,7 +7960,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>AUMENTO CAPACIDAD DE TRATAMIENTO DE EFLUENTES DE FUNDICIÓN</t>
+          <t>BARRIO CONTRATISTA GERENCIA DE PROYECTOS</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -7979,7 +7979,7 @@
         </is>
       </c>
       <c r="F159" t="n">
-        <v>67700</v>
+        <v>8000</v>
       </c>
       <c r="G159" t="inlineStr">
         <is>
@@ -7993,7 +7993,7 @@
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128952737&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128904823&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -8008,7 +8008,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Aumento Áreas de Lixiviación, sector Quebrada Portezuelo</t>
+          <t>Remodelación Parque El Loa</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -8023,11 +8023,11 @@
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>Codelco Chile, División Chuquicamata</t>
+          <t>Ilustre Municipalidad de Calama</t>
         </is>
       </c>
       <c r="F160" t="n">
-        <v>5888</v>
+        <v>9074</v>
       </c>
       <c r="G160" t="inlineStr">
         <is>
@@ -8041,7 +8041,7 @@
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128955081&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128906904&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
@@ -8056,7 +8056,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Remodelación Parque El Loa</t>
+          <t>Aumento Áreas de Lixiviación, sector Quebrada Portezuelo</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -8071,11 +8071,11 @@
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Calama</t>
+          <t>Codelco Chile, División Chuquicamata</t>
         </is>
       </c>
       <c r="F161" t="n">
-        <v>9074</v>
+        <v>5888</v>
       </c>
       <c r="G161" t="inlineStr">
         <is>
@@ -8089,7 +8089,7 @@
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128906904&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128955081&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
@@ -8680,7 +8680,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -8695,11 +8695,11 @@
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F174" t="n">
-        <v>12500</v>
+        <v>219</v>
       </c>
       <c r="G174" t="inlineStr">
         <is>
@@ -8708,12 +8708,12 @@
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556590&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -8728,7 +8728,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
+          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -8747,7 +8747,7 @@
         </is>
       </c>
       <c r="F175" t="n">
-        <v>10000</v>
+        <v>12500</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
@@ -8761,7 +8761,7 @@
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -8776,7 +8776,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -8791,11 +8791,11 @@
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F176" t="n">
-        <v>219</v>
+        <v>10000</v>
       </c>
       <c r="G176" t="inlineStr">
         <is>
@@ -8804,12 +8804,12 @@
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556590&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -9304,26 +9304,26 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>RT Sulfuros</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F187" t="n">
-        <v>2050</v>
+        <v>5.4</v>
       </c>
       <c r="G187" t="inlineStr">
         <is>
@@ -9332,12 +9332,12 @@
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
@@ -9352,26 +9352,26 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>RT Sulfuros</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F188" t="n">
-        <v>5.4</v>
+        <v>2050</v>
       </c>
       <c r="G188" t="inlineStr">
         <is>
@@ -9380,12 +9380,12 @@
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
@@ -10792,7 +10792,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Procesamiento de Óxidos DMH</t>
+          <t>Planta Fotovoltaica San Pedro de Atacama IV</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -10807,11 +10807,11 @@
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>División Ministro Hales de Codelco Chile</t>
+          <t>GPG Solar Chile 2017 SpA</t>
         </is>
       </c>
       <c r="F218" t="n">
-        <v>70000</v>
+        <v>105250</v>
       </c>
       <c r="G218" t="inlineStr">
         <is>
@@ -10825,7 +10825,7 @@
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7040302&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7052315&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">
@@ -10840,7 +10840,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Planta Fotovoltaica San Pedro de Atacama IV</t>
+          <t>Procesamiento de Óxidos DMH</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -10855,11 +10855,11 @@
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>GPG Solar Chile 2017 SpA</t>
+          <t>División Ministro Hales de Codelco Chile</t>
         </is>
       </c>
       <c r="F219" t="n">
-        <v>105250</v>
+        <v>70000</v>
       </c>
       <c r="G219" t="inlineStr">
         <is>
@@ -10873,7 +10873,7 @@
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7052315&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7040302&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J219" t="inlineStr">
@@ -12952,7 +12952,7 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>Portal del Inca</t>
+          <t>Línea de Transmisión Eléctrica 220 kv Encuentro - MH</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
@@ -12967,11 +12967,11 @@
       </c>
       <c r="E263" t="inlineStr">
         <is>
-          <t>Inmobiliaria Inca Dos Ltda.</t>
+          <t>División Ministro Hales de Codelco Chile</t>
         </is>
       </c>
       <c r="F263" t="n">
-        <v>13948</v>
+        <v>45000</v>
       </c>
       <c r="G263" t="inlineStr">
         <is>
@@ -12980,12 +12980,12 @@
       </c>
       <c r="H263" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I263" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5787635&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5773970&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J263" t="inlineStr">
@@ -13000,7 +13000,7 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Eléctrica 220 kv Encuentro - MH</t>
+          <t>Portal del Inca</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
@@ -13015,11 +13015,11 @@
       </c>
       <c r="E264" t="inlineStr">
         <is>
-          <t>División Ministro Hales de Codelco Chile</t>
+          <t>Inmobiliaria Inca Dos Ltda.</t>
         </is>
       </c>
       <c r="F264" t="n">
-        <v>45000</v>
+        <v>13948</v>
       </c>
       <c r="G264" t="inlineStr">
         <is>
@@ -13028,12 +13028,12 @@
       </c>
       <c r="H264" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I264" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5773970&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5787635&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J264" t="inlineStr">
@@ -13768,7 +13768,7 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
@@ -13783,11 +13783,11 @@
       </c>
       <c r="E280" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F280" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G280" t="inlineStr">
         <is>
@@ -13796,12 +13796,12 @@
       </c>
       <c r="H280" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I280" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J280" t="inlineStr">
@@ -13816,7 +13816,7 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
@@ -13831,11 +13831,11 @@
       </c>
       <c r="E281" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F281" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G281" t="inlineStr">
         <is>
@@ -13844,12 +13844,12 @@
       </c>
       <c r="H281" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I281" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J281" t="inlineStr">
@@ -18328,7 +18328,7 @@
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Efluentes Hospital del Cobre (e-seia)</t>
+          <t>Sondajes Prospección Ingeniería de Detalles Explotación Subterránea Yacimiento Chuquicamata (e-seia)</t>
         </is>
       </c>
       <c r="C375" t="inlineStr">
@@ -18347,7 +18347,7 @@
         </is>
       </c>
       <c r="F375" t="n">
-        <v>200</v>
+        <v>83584</v>
       </c>
       <c r="G375" t="inlineStr">
         <is>
@@ -18361,7 +18361,7 @@
       </c>
       <c r="I375" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3826608&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3737660&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J375" t="inlineStr">
@@ -18376,7 +18376,7 @@
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>Sondajes Prospección Ingeniería de Detalles Explotación Subterránea Yacimiento Chuquicamata (e-seia)</t>
+          <t>Planta de Tratamiento de Efluentes Hospital del Cobre (e-seia)</t>
         </is>
       </c>
       <c r="C376" t="inlineStr">
@@ -18395,7 +18395,7 @@
         </is>
       </c>
       <c r="F376" t="n">
-        <v>83584</v>
+        <v>200</v>
       </c>
       <c r="G376" t="inlineStr">
         <is>
@@ -18409,7 +18409,7 @@
       </c>
       <c r="I376" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3737660&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3826608&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J376" t="inlineStr">
@@ -19624,7 +19624,7 @@
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>Proyecto Explotación Subterránea Mina Santa Rosa (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C402" t="inlineStr">
@@ -19634,16 +19634,16 @@
       </c>
       <c r="D402" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E402" t="inlineStr">
         <is>
-          <t>Minera Quimal.S.A.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F402" t="n">
-        <v>500</v>
+        <v>1750</v>
       </c>
       <c r="G402" t="inlineStr">
         <is>
@@ -19652,12 +19652,12 @@
       </c>
       <c r="H402" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I402" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3310659&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J402" t="inlineStr">
@@ -19672,7 +19672,7 @@
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Proyecto Explotación Subterránea Mina Santa Rosa (e-seia)</t>
         </is>
       </c>
       <c r="C403" t="inlineStr">
@@ -19682,16 +19682,16 @@
       </c>
       <c r="D403" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E403" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Minera Quimal.S.A.</t>
         </is>
       </c>
       <c r="F403" t="n">
-        <v>1750</v>
+        <v>500</v>
       </c>
       <c r="G403" t="inlineStr">
         <is>
@@ -19700,12 +19700,12 @@
       </c>
       <c r="H403" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I403" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3310659&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J403" t="inlineStr">
@@ -20152,7 +20152,7 @@
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>Tratamiento de Impurezas en Ánodos y Cátodos de División Codelco Norte (e-seia)</t>
         </is>
       </c>
       <c r="C413" t="inlineStr">
@@ -20162,16 +20162,16 @@
       </c>
       <c r="D413" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E413" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Codelco Chile, División Chuquicamata</t>
         </is>
       </c>
       <c r="F413" t="n">
-        <v>250</v>
+        <v>50000</v>
       </c>
       <c r="G413" t="inlineStr">
         <is>
@@ -20180,12 +20180,12 @@
       </c>
       <c r="H413" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I413" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3118819&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J413" t="inlineStr">
@@ -20200,7 +20200,7 @@
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>Tratamiento de Impurezas en Ánodos y Cátodos de División Codelco Norte (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C414" t="inlineStr">
@@ -20210,16 +20210,16 @@
       </c>
       <c r="D414" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E414" t="inlineStr">
         <is>
-          <t>Codelco Chile, División Chuquicamata</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F414" t="n">
-        <v>50000</v>
+        <v>250</v>
       </c>
       <c r="G414" t="inlineStr">
         <is>
@@ -20228,12 +20228,12 @@
       </c>
       <c r="H414" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I414" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3118819&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J414" t="inlineStr">
@@ -20344,7 +20344,7 @@
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>Proyecto Exploración Minera Macarena - Leo (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C417" t="inlineStr">
@@ -20354,16 +20354,16 @@
       </c>
       <c r="D417" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E417" t="inlineStr">
         <is>
-          <t>Minera Fuego Limitada</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F417" t="n">
-        <v>150</v>
+        <v>1650</v>
       </c>
       <c r="G417" t="inlineStr">
         <is>
@@ -20377,7 +20377,7 @@
       </c>
       <c r="I417" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088992&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J417" t="inlineStr">
@@ -20392,7 +20392,7 @@
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>Proyecto Exploración Minera Macarena - Leo (e-seia)</t>
         </is>
       </c>
       <c r="C418" t="inlineStr">
@@ -20402,16 +20402,16 @@
       </c>
       <c r="D418" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E418" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Minera Fuego Limitada</t>
         </is>
       </c>
       <c r="F418" t="n">
-        <v>1650</v>
+        <v>150</v>
       </c>
       <c r="G418" t="inlineStr">
         <is>
@@ -20425,7 +20425,7 @@
       </c>
       <c r="I418" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088992&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J418" t="inlineStr">
@@ -23368,26 +23368,26 @@
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
+          <t>LIXIVIACIÓN DE SULFUROS SULFOLIX</t>
         </is>
       </c>
       <c r="C480" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D480" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E480" t="inlineStr">
         <is>
-          <t>Empresa de Residuos RESITER S.A.</t>
+          <t>SOCIEDAD CONTRACTUAL MINERA EL ABRA</t>
         </is>
       </c>
       <c r="F480" t="n">
-        <v>1</v>
+        <v>343000</v>
       </c>
       <c r="G480" t="inlineStr">
         <is>
@@ -23401,7 +23401,7 @@
       </c>
       <c r="I480" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2088630&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J480" t="inlineStr">
@@ -23416,26 +23416,26 @@
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>LIXIVIACIÓN DE SULFUROS SULFOLIX</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C481" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D481" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E481" t="inlineStr">
         <is>
-          <t>SOCIEDAD CONTRACTUAL MINERA EL ABRA</t>
+          <t>Empresa de Residuos RESITER S.A.</t>
         </is>
       </c>
       <c r="F481" t="n">
-        <v>343000</v>
+        <v>1</v>
       </c>
       <c r="G481" t="inlineStr">
         <is>
@@ -23449,7 +23449,7 @@
       </c>
       <c r="I481" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2088630&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J481" t="inlineStr">

--- a/data/Calama.xlsx
+++ b/data/Calama.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>18/10/2022</t>
+          <t>20/10/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Calama.xlsx
+++ b/data/Calama.xlsx
@@ -3832,7 +3832,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Verano de San Juan I</t>
+          <t>MODIFICACIONES AL PROYECTO EXTRACCIÓN Y MOVIMIENTO DE MINERALES MINA RADOMIRO TOMIC</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3847,11 +3847,11 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Victoria Solar SpA</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>15000</v>
+        <v>208848</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
@@ -3860,12 +3860,12 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138522682&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138513102&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -3880,7 +3880,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Verano de San Juan II</t>
+          <t>Parque Fotovoltaico Verano de San Juan I</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3895,7 +3895,7 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Paine Energy SpA</t>
+          <t>Victoria Solar SpA</t>
         </is>
       </c>
       <c r="F74" t="n">
@@ -3913,7 +3913,7 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138526892&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138522682&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -3928,7 +3928,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>MODIFICACIONES AL PROYECTO EXTRACCIÓN Y MOVIMIENTO DE MINERALES MINA RADOMIRO TOMIC</t>
+          <t>Parque Fotovoltaico Verano de San Juan II</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3943,11 +3943,11 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Paine Energy SpA</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>208848</v>
+        <v>15000</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
@@ -3956,12 +3956,12 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138513102&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138526892&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -7816,7 +7816,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>AUMENTO CAPACIDAD DE TRATAMIENTO DE EFLUENTES DE FUNDICIÓN</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -7826,16 +7826,16 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>Codelco Chile, División Chuquicamata</t>
         </is>
       </c>
       <c r="F156" t="n">
-        <v>1200</v>
+        <v>67700</v>
       </c>
       <c r="G156" t="inlineStr">
         <is>
@@ -7849,7 +7849,7 @@
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128952737&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -7864,7 +7864,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Proyecto Fotovoltaico Azabache</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -7874,16 +7874,16 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>Almeyda Solar SpA.</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F157" t="n">
-        <v>140000</v>
+        <v>1200</v>
       </c>
       <c r="G157" t="inlineStr">
         <is>
@@ -7897,7 +7897,7 @@
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128969457&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -7912,7 +7912,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Proyecto Fotovoltaico Azabache</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -7922,16 +7922,16 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Almeyda Solar SpA.</t>
         </is>
       </c>
       <c r="F158" t="n">
-        <v>0</v>
+        <v>140000</v>
       </c>
       <c r="G158" t="inlineStr">
         <is>
@@ -7945,7 +7945,7 @@
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128969457&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -7960,7 +7960,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>BARRIO CONTRATISTA GERENCIA DE PROYECTOS</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -7970,16 +7970,16 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>Codelco Chile, División Chuquicamata</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F159" t="n">
-        <v>8000</v>
+        <v>0</v>
       </c>
       <c r="G159" t="inlineStr">
         <is>
@@ -7993,7 +7993,7 @@
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128904823&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -8008,7 +8008,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>AUMENTO CAPACIDAD DE TRATAMIENTO DE EFLUENTES DE FUNDICIÓN</t>
+          <t>BARRIO CONTRATISTA GERENCIA DE PROYECTOS</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -8027,7 +8027,7 @@
         </is>
       </c>
       <c r="F160" t="n">
-        <v>67700</v>
+        <v>8000</v>
       </c>
       <c r="G160" t="inlineStr">
         <is>
@@ -8041,7 +8041,7 @@
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128952737&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128904823&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
@@ -8056,7 +8056,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Aumento Áreas de Lixiviación, sector Quebrada Portezuelo</t>
+          <t>Remodelación Parque El Loa</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -8071,11 +8071,11 @@
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>Codelco Chile, División Chuquicamata</t>
+          <t>Ilustre Municipalidad de Calama</t>
         </is>
       </c>
       <c r="F161" t="n">
-        <v>5888</v>
+        <v>9074</v>
       </c>
       <c r="G161" t="inlineStr">
         <is>
@@ -8089,7 +8089,7 @@
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128955081&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128906904&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
@@ -8104,7 +8104,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Remodelación Parque El Loa</t>
+          <t>Aumento Áreas de Lixiviación, sector Quebrada Portezuelo</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -8119,11 +8119,11 @@
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Calama</t>
+          <t>Codelco Chile, División Chuquicamata</t>
         </is>
       </c>
       <c r="F162" t="n">
-        <v>9074</v>
+        <v>5888</v>
       </c>
       <c r="G162" t="inlineStr">
         <is>
@@ -8137,7 +8137,7 @@
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128906904&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128955081&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
@@ -8728,7 +8728,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -8743,11 +8743,11 @@
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F175" t="n">
-        <v>12500</v>
+        <v>219</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
@@ -8756,12 +8756,12 @@
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556590&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -8776,7 +8776,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
+          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -8795,7 +8795,7 @@
         </is>
       </c>
       <c r="F176" t="n">
-        <v>10000</v>
+        <v>12500</v>
       </c>
       <c r="G176" t="inlineStr">
         <is>
@@ -8809,7 +8809,7 @@
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -8824,7 +8824,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -8839,11 +8839,11 @@
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F177" t="n">
-        <v>219</v>
+        <v>10000</v>
       </c>
       <c r="G177" t="inlineStr">
         <is>
@@ -8852,12 +8852,12 @@
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556590&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
@@ -9352,26 +9352,26 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>RT Sulfuros</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F188" t="n">
-        <v>2050</v>
+        <v>5.4</v>
       </c>
       <c r="G188" t="inlineStr">
         <is>
@@ -9380,12 +9380,12 @@
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
@@ -9400,26 +9400,26 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>RT Sulfuros</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F189" t="n">
-        <v>5.4</v>
+        <v>2050</v>
       </c>
       <c r="G189" t="inlineStr">
         <is>
@@ -9428,12 +9428,12 @@
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
@@ -10840,7 +10840,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Procesamiento de Óxidos DMH</t>
+          <t>Planta Fotovoltaica San Pedro de Atacama IV</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -10855,11 +10855,11 @@
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>División Ministro Hales de Codelco Chile</t>
+          <t>GPG Solar Chile 2017 SpA</t>
         </is>
       </c>
       <c r="F219" t="n">
-        <v>70000</v>
+        <v>105250</v>
       </c>
       <c r="G219" t="inlineStr">
         <is>
@@ -10873,7 +10873,7 @@
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7040302&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7052315&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J219" t="inlineStr">
@@ -10888,7 +10888,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Planta Fotovoltaica San Pedro de Atacama IV</t>
+          <t>Procesamiento de Óxidos DMH</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -10903,11 +10903,11 @@
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>GPG Solar Chile 2017 SpA</t>
+          <t>División Ministro Hales de Codelco Chile</t>
         </is>
       </c>
       <c r="F220" t="n">
-        <v>105250</v>
+        <v>70000</v>
       </c>
       <c r="G220" t="inlineStr">
         <is>
@@ -10921,7 +10921,7 @@
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7052315&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7040302&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J220" t="inlineStr">
@@ -13000,7 +13000,7 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>Portal del Inca</t>
+          <t>Línea de Transmisión Eléctrica 220 kv Encuentro - MH</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
@@ -13015,11 +13015,11 @@
       </c>
       <c r="E264" t="inlineStr">
         <is>
-          <t>Inmobiliaria Inca Dos Ltda.</t>
+          <t>División Ministro Hales de Codelco Chile</t>
         </is>
       </c>
       <c r="F264" t="n">
-        <v>13948</v>
+        <v>45000</v>
       </c>
       <c r="G264" t="inlineStr">
         <is>
@@ -13028,12 +13028,12 @@
       </c>
       <c r="H264" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I264" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5787635&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5773970&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J264" t="inlineStr">
@@ -13048,7 +13048,7 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Eléctrica 220 kv Encuentro - MH</t>
+          <t>Portal del Inca</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
@@ -13063,11 +13063,11 @@
       </c>
       <c r="E265" t="inlineStr">
         <is>
-          <t>División Ministro Hales de Codelco Chile</t>
+          <t>Inmobiliaria Inca Dos Ltda.</t>
         </is>
       </c>
       <c r="F265" t="n">
-        <v>45000</v>
+        <v>13948</v>
       </c>
       <c r="G265" t="inlineStr">
         <is>
@@ -13076,12 +13076,12 @@
       </c>
       <c r="H265" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I265" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5773970&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5787635&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J265" t="inlineStr">
@@ -13816,7 +13816,7 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
@@ -13831,11 +13831,11 @@
       </c>
       <c r="E281" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F281" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G281" t="inlineStr">
         <is>
@@ -13844,12 +13844,12 @@
       </c>
       <c r="H281" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I281" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J281" t="inlineStr">
@@ -13864,7 +13864,7 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
@@ -13879,11 +13879,11 @@
       </c>
       <c r="E282" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F282" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G282" t="inlineStr">
         <is>
@@ -13892,12 +13892,12 @@
       </c>
       <c r="H282" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I282" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J282" t="inlineStr">
@@ -18376,7 +18376,7 @@
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Efluentes Hospital del Cobre (e-seia)</t>
+          <t>Sondajes Prospección Ingeniería de Detalles Explotación Subterránea Yacimiento Chuquicamata (e-seia)</t>
         </is>
       </c>
       <c r="C376" t="inlineStr">
@@ -18395,7 +18395,7 @@
         </is>
       </c>
       <c r="F376" t="n">
-        <v>200</v>
+        <v>83584</v>
       </c>
       <c r="G376" t="inlineStr">
         <is>
@@ -18409,7 +18409,7 @@
       </c>
       <c r="I376" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3826608&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3737660&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J376" t="inlineStr">
@@ -18424,7 +18424,7 @@
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>Sondajes Prospección Ingeniería de Detalles Explotación Subterránea Yacimiento Chuquicamata (e-seia)</t>
+          <t>Planta de Tratamiento de Efluentes Hospital del Cobre (e-seia)</t>
         </is>
       </c>
       <c r="C377" t="inlineStr">
@@ -18443,7 +18443,7 @@
         </is>
       </c>
       <c r="F377" t="n">
-        <v>83584</v>
+        <v>200</v>
       </c>
       <c r="G377" t="inlineStr">
         <is>
@@ -18457,7 +18457,7 @@
       </c>
       <c r="I377" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3737660&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3826608&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J377" t="inlineStr">
@@ -19672,7 +19672,7 @@
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>Proyecto Explotación Subterránea Mina Santa Rosa (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C403" t="inlineStr">
@@ -19682,16 +19682,16 @@
       </c>
       <c r="D403" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E403" t="inlineStr">
         <is>
-          <t>Minera Quimal.S.A.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F403" t="n">
-        <v>500</v>
+        <v>1750</v>
       </c>
       <c r="G403" t="inlineStr">
         <is>
@@ -19700,12 +19700,12 @@
       </c>
       <c r="H403" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I403" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3310659&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J403" t="inlineStr">
@@ -19720,7 +19720,7 @@
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Proyecto Explotación Subterránea Mina Santa Rosa (e-seia)</t>
         </is>
       </c>
       <c r="C404" t="inlineStr">
@@ -19730,16 +19730,16 @@
       </c>
       <c r="D404" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E404" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Minera Quimal.S.A.</t>
         </is>
       </c>
       <c r="F404" t="n">
-        <v>1750</v>
+        <v>500</v>
       </c>
       <c r="G404" t="inlineStr">
         <is>
@@ -19748,12 +19748,12 @@
       </c>
       <c r="H404" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I404" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3310659&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J404" t="inlineStr">
@@ -20200,7 +20200,7 @@
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>Tratamiento de Impurezas en Ánodos y Cátodos de División Codelco Norte (e-seia)</t>
         </is>
       </c>
       <c r="C414" t="inlineStr">
@@ -20210,16 +20210,16 @@
       </c>
       <c r="D414" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E414" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Codelco Chile, División Chuquicamata</t>
         </is>
       </c>
       <c r="F414" t="n">
-        <v>250</v>
+        <v>50000</v>
       </c>
       <c r="G414" t="inlineStr">
         <is>
@@ -20228,12 +20228,12 @@
       </c>
       <c r="H414" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I414" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3118819&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J414" t="inlineStr">
@@ -20248,7 +20248,7 @@
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>Tratamiento de Impurezas en Ánodos y Cátodos de División Codelco Norte (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C415" t="inlineStr">
@@ -20258,16 +20258,16 @@
       </c>
       <c r="D415" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E415" t="inlineStr">
         <is>
-          <t>Codelco Chile, División Chuquicamata</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F415" t="n">
-        <v>50000</v>
+        <v>250</v>
       </c>
       <c r="G415" t="inlineStr">
         <is>
@@ -20276,12 +20276,12 @@
       </c>
       <c r="H415" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I415" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3118819&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J415" t="inlineStr">
@@ -20392,7 +20392,7 @@
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>Proyecto Exploración Minera Macarena - Leo (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C418" t="inlineStr">
@@ -20402,16 +20402,16 @@
       </c>
       <c r="D418" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E418" t="inlineStr">
         <is>
-          <t>Minera Fuego Limitada</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F418" t="n">
-        <v>150</v>
+        <v>1650</v>
       </c>
       <c r="G418" t="inlineStr">
         <is>
@@ -20425,7 +20425,7 @@
       </c>
       <c r="I418" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088992&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J418" t="inlineStr">
@@ -20440,7 +20440,7 @@
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>Proyecto Exploración Minera Macarena - Leo (e-seia)</t>
         </is>
       </c>
       <c r="C419" t="inlineStr">
@@ -20450,16 +20450,16 @@
       </c>
       <c r="D419" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E419" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Minera Fuego Limitada</t>
         </is>
       </c>
       <c r="F419" t="n">
-        <v>1650</v>
+        <v>150</v>
       </c>
       <c r="G419" t="inlineStr">
         <is>
@@ -20473,7 +20473,7 @@
       </c>
       <c r="I419" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088992&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J419" t="inlineStr">
@@ -23416,26 +23416,26 @@
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
+          <t>LIXIVIACIÓN DE SULFUROS SULFOLIX</t>
         </is>
       </c>
       <c r="C481" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D481" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E481" t="inlineStr">
         <is>
-          <t>Empresa de Residuos RESITER S.A.</t>
+          <t>SOCIEDAD CONTRACTUAL MINERA EL ABRA</t>
         </is>
       </c>
       <c r="F481" t="n">
-        <v>1</v>
+        <v>343000</v>
       </c>
       <c r="G481" t="inlineStr">
         <is>
@@ -23449,7 +23449,7 @@
       </c>
       <c r="I481" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2088630&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J481" t="inlineStr">
@@ -23464,26 +23464,26 @@
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>LIXIVIACIÓN DE SULFUROS SULFOLIX</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C482" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D482" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E482" t="inlineStr">
         <is>
-          <t>SOCIEDAD CONTRACTUAL MINERA EL ABRA</t>
+          <t>Empresa de Residuos RESITER S.A.</t>
         </is>
       </c>
       <c r="F482" t="n">
-        <v>343000</v>
+        <v>1</v>
       </c>
       <c r="G482" t="inlineStr">
         <is>
@@ -23497,7 +23497,7 @@
       </c>
       <c r="I482" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2088630&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J482" t="inlineStr">

--- a/data/Calama.xlsx
+++ b/data/Calama.xlsx
@@ -3832,7 +3832,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>MODIFICACIONES AL PROYECTO EXTRACCIÓN Y MOVIMIENTO DE MINERALES MINA RADOMIRO TOMIC</t>
+          <t>Parque Fotovoltaico Verano de San Juan I</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3847,11 +3847,11 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Victoria Solar SpA</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>208848</v>
+        <v>15000</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
@@ -3860,12 +3860,12 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138513102&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138522682&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -3880,7 +3880,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Verano de San Juan I</t>
+          <t>Parque Fotovoltaico Verano de San Juan II</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3895,7 +3895,7 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Victoria Solar SpA</t>
+          <t>Paine Energy SpA</t>
         </is>
       </c>
       <c r="F74" t="n">
@@ -3913,7 +3913,7 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138522682&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138526892&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -3928,7 +3928,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Verano de San Juan II</t>
+          <t>MODIFICACIONES AL PROYECTO EXTRACCIÓN Y MOVIMIENTO DE MINERALES MINA RADOMIRO TOMIC</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3943,11 +3943,11 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Paine Energy SpA</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>15000</v>
+        <v>208848</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
@@ -3956,12 +3956,12 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138526892&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138513102&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -7816,7 +7816,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>AUMENTO CAPACIDAD DE TRATAMIENTO DE EFLUENTES DE FUNDICIÓN</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -7826,16 +7826,16 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>Codelco Chile, División Chuquicamata</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F156" t="n">
-        <v>67700</v>
+        <v>1200</v>
       </c>
       <c r="G156" t="inlineStr">
         <is>
@@ -7849,7 +7849,7 @@
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128952737&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -7864,7 +7864,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Proyecto Fotovoltaico Azabache</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -7874,16 +7874,16 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>Almeyda Solar SpA.</t>
         </is>
       </c>
       <c r="F157" t="n">
-        <v>1200</v>
+        <v>140000</v>
       </c>
       <c r="G157" t="inlineStr">
         <is>
@@ -7897,7 +7897,7 @@
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128969457&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -7912,7 +7912,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Proyecto Fotovoltaico Azabache</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -7922,16 +7922,16 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>Almeyda Solar SpA.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F158" t="n">
-        <v>140000</v>
+        <v>0</v>
       </c>
       <c r="G158" t="inlineStr">
         <is>
@@ -7945,7 +7945,7 @@
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128969457&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -7960,7 +7960,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>BARRIO CONTRATISTA GERENCIA DE PROYECTOS</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -7970,16 +7970,16 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Codelco Chile, División Chuquicamata</t>
         </is>
       </c>
       <c r="F159" t="n">
-        <v>0</v>
+        <v>8000</v>
       </c>
       <c r="G159" t="inlineStr">
         <is>
@@ -7993,7 +7993,7 @@
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128904823&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -8008,7 +8008,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>BARRIO CONTRATISTA GERENCIA DE PROYECTOS</t>
+          <t>AUMENTO CAPACIDAD DE TRATAMIENTO DE EFLUENTES DE FUNDICIÓN</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -8027,7 +8027,7 @@
         </is>
       </c>
       <c r="F160" t="n">
-        <v>8000</v>
+        <v>67700</v>
       </c>
       <c r="G160" t="inlineStr">
         <is>
@@ -8041,7 +8041,7 @@
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128904823&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128952737&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
@@ -8056,7 +8056,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Remodelación Parque El Loa</t>
+          <t>Aumento Áreas de Lixiviación, sector Quebrada Portezuelo</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -8071,11 +8071,11 @@
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Calama</t>
+          <t>Codelco Chile, División Chuquicamata</t>
         </is>
       </c>
       <c r="F161" t="n">
-        <v>9074</v>
+        <v>5888</v>
       </c>
       <c r="G161" t="inlineStr">
         <is>
@@ -8089,7 +8089,7 @@
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128906904&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128955081&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
@@ -8104,7 +8104,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Aumento Áreas de Lixiviación, sector Quebrada Portezuelo</t>
+          <t>Remodelación Parque El Loa</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -8119,11 +8119,11 @@
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>Codelco Chile, División Chuquicamata</t>
+          <t>Ilustre Municipalidad de Calama</t>
         </is>
       </c>
       <c r="F162" t="n">
-        <v>5888</v>
+        <v>9074</v>
       </c>
       <c r="G162" t="inlineStr">
         <is>
@@ -8137,7 +8137,7 @@
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128955081&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128906904&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
@@ -8728,7 +8728,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -8743,11 +8743,11 @@
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F175" t="n">
-        <v>219</v>
+        <v>12500</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
@@ -8756,12 +8756,12 @@
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556590&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -8776,7 +8776,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -8795,7 +8795,7 @@
         </is>
       </c>
       <c r="F176" t="n">
-        <v>12500</v>
+        <v>10000</v>
       </c>
       <c r="G176" t="inlineStr">
         <is>
@@ -8809,7 +8809,7 @@
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -8824,7 +8824,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -8839,11 +8839,11 @@
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F177" t="n">
-        <v>10000</v>
+        <v>219</v>
       </c>
       <c r="G177" t="inlineStr">
         <is>
@@ -8852,12 +8852,12 @@
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556590&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
@@ -9352,26 +9352,26 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>RT Sulfuros</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F188" t="n">
-        <v>5.4</v>
+        <v>2050</v>
       </c>
       <c r="G188" t="inlineStr">
         <is>
@@ -9380,12 +9380,12 @@
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
@@ -9400,26 +9400,26 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>RT Sulfuros</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F189" t="n">
-        <v>2050</v>
+        <v>5.4</v>
       </c>
       <c r="G189" t="inlineStr">
         <is>
@@ -9428,12 +9428,12 @@
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
@@ -10840,7 +10840,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Planta Fotovoltaica San Pedro de Atacama IV</t>
+          <t>Procesamiento de Óxidos DMH</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -10855,11 +10855,11 @@
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>GPG Solar Chile 2017 SpA</t>
+          <t>División Ministro Hales de Codelco Chile</t>
         </is>
       </c>
       <c r="F219" t="n">
-        <v>105250</v>
+        <v>70000</v>
       </c>
       <c r="G219" t="inlineStr">
         <is>
@@ -10873,7 +10873,7 @@
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7052315&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7040302&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J219" t="inlineStr">
@@ -10888,7 +10888,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Procesamiento de Óxidos DMH</t>
+          <t>Planta Fotovoltaica San Pedro de Atacama IV</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -10903,11 +10903,11 @@
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>División Ministro Hales de Codelco Chile</t>
+          <t>GPG Solar Chile 2017 SpA</t>
         </is>
       </c>
       <c r="F220" t="n">
-        <v>70000</v>
+        <v>105250</v>
       </c>
       <c r="G220" t="inlineStr">
         <is>
@@ -10921,7 +10921,7 @@
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7040302&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7052315&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J220" t="inlineStr">
@@ -13000,7 +13000,7 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Eléctrica 220 kv Encuentro - MH</t>
+          <t>Portal del Inca</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
@@ -13015,11 +13015,11 @@
       </c>
       <c r="E264" t="inlineStr">
         <is>
-          <t>División Ministro Hales de Codelco Chile</t>
+          <t>Inmobiliaria Inca Dos Ltda.</t>
         </is>
       </c>
       <c r="F264" t="n">
-        <v>45000</v>
+        <v>13948</v>
       </c>
       <c r="G264" t="inlineStr">
         <is>
@@ -13028,12 +13028,12 @@
       </c>
       <c r="H264" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I264" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5773970&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5787635&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J264" t="inlineStr">
@@ -13048,7 +13048,7 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>Portal del Inca</t>
+          <t>Línea de Transmisión Eléctrica 220 kv Encuentro - MH</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
@@ -13063,11 +13063,11 @@
       </c>
       <c r="E265" t="inlineStr">
         <is>
-          <t>Inmobiliaria Inca Dos Ltda.</t>
+          <t>División Ministro Hales de Codelco Chile</t>
         </is>
       </c>
       <c r="F265" t="n">
-        <v>13948</v>
+        <v>45000</v>
       </c>
       <c r="G265" t="inlineStr">
         <is>
@@ -13076,12 +13076,12 @@
       </c>
       <c r="H265" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I265" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5787635&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5773970&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J265" t="inlineStr">
@@ -13816,7 +13816,7 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
@@ -13831,11 +13831,11 @@
       </c>
       <c r="E281" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F281" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G281" t="inlineStr">
         <is>
@@ -13844,12 +13844,12 @@
       </c>
       <c r="H281" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I281" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J281" t="inlineStr">
@@ -13864,7 +13864,7 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
@@ -13879,11 +13879,11 @@
       </c>
       <c r="E282" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F282" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G282" t="inlineStr">
         <is>
@@ -13892,12 +13892,12 @@
       </c>
       <c r="H282" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I282" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J282" t="inlineStr">
@@ -18376,7 +18376,7 @@
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>Sondajes Prospección Ingeniería de Detalles Explotación Subterránea Yacimiento Chuquicamata (e-seia)</t>
+          <t>Planta de Tratamiento de Efluentes Hospital del Cobre (e-seia)</t>
         </is>
       </c>
       <c r="C376" t="inlineStr">
@@ -18395,7 +18395,7 @@
         </is>
       </c>
       <c r="F376" t="n">
-        <v>83584</v>
+        <v>200</v>
       </c>
       <c r="G376" t="inlineStr">
         <is>
@@ -18409,7 +18409,7 @@
       </c>
       <c r="I376" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3737660&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3826608&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J376" t="inlineStr">
@@ -18424,7 +18424,7 @@
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Efluentes Hospital del Cobre (e-seia)</t>
+          <t>Sondajes Prospección Ingeniería de Detalles Explotación Subterránea Yacimiento Chuquicamata (e-seia)</t>
         </is>
       </c>
       <c r="C377" t="inlineStr">
@@ -18443,7 +18443,7 @@
         </is>
       </c>
       <c r="F377" t="n">
-        <v>200</v>
+        <v>83584</v>
       </c>
       <c r="G377" t="inlineStr">
         <is>
@@ -18457,7 +18457,7 @@
       </c>
       <c r="I377" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3826608&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3737660&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J377" t="inlineStr">
@@ -19672,7 +19672,7 @@
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Proyecto Explotación Subterránea Mina Santa Rosa (e-seia)</t>
         </is>
       </c>
       <c r="C403" t="inlineStr">
@@ -19682,16 +19682,16 @@
       </c>
       <c r="D403" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E403" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Minera Quimal.S.A.</t>
         </is>
       </c>
       <c r="F403" t="n">
-        <v>1750</v>
+        <v>500</v>
       </c>
       <c r="G403" t="inlineStr">
         <is>
@@ -19700,12 +19700,12 @@
       </c>
       <c r="H403" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I403" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3310659&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J403" t="inlineStr">
@@ -19720,7 +19720,7 @@
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>Proyecto Explotación Subterránea Mina Santa Rosa (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C404" t="inlineStr">
@@ -19730,16 +19730,16 @@
       </c>
       <c r="D404" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E404" t="inlineStr">
         <is>
-          <t>Minera Quimal.S.A.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F404" t="n">
-        <v>500</v>
+        <v>1750</v>
       </c>
       <c r="G404" t="inlineStr">
         <is>
@@ -19748,12 +19748,12 @@
       </c>
       <c r="H404" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I404" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3310659&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J404" t="inlineStr">
@@ -20200,7 +20200,7 @@
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>Tratamiento de Impurezas en Ánodos y Cátodos de División Codelco Norte (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C414" t="inlineStr">
@@ -20210,16 +20210,16 @@
       </c>
       <c r="D414" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E414" t="inlineStr">
         <is>
-          <t>Codelco Chile, División Chuquicamata</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F414" t="n">
-        <v>50000</v>
+        <v>250</v>
       </c>
       <c r="G414" t="inlineStr">
         <is>
@@ -20228,12 +20228,12 @@
       </c>
       <c r="H414" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I414" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3118819&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J414" t="inlineStr">
@@ -20248,7 +20248,7 @@
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>Tratamiento de Impurezas en Ánodos y Cátodos de División Codelco Norte (e-seia)</t>
         </is>
       </c>
       <c r="C415" t="inlineStr">
@@ -20258,16 +20258,16 @@
       </c>
       <c r="D415" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E415" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Codelco Chile, División Chuquicamata</t>
         </is>
       </c>
       <c r="F415" t="n">
-        <v>250</v>
+        <v>50000</v>
       </c>
       <c r="G415" t="inlineStr">
         <is>
@@ -20276,12 +20276,12 @@
       </c>
       <c r="H415" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I415" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3118819&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J415" t="inlineStr">
@@ -20392,7 +20392,7 @@
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>Proyecto Exploración Minera Macarena - Leo (e-seia)</t>
         </is>
       </c>
       <c r="C418" t="inlineStr">
@@ -20402,16 +20402,16 @@
       </c>
       <c r="D418" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E418" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Minera Fuego Limitada</t>
         </is>
       </c>
       <c r="F418" t="n">
-        <v>1650</v>
+        <v>150</v>
       </c>
       <c r="G418" t="inlineStr">
         <is>
@@ -20425,7 +20425,7 @@
       </c>
       <c r="I418" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088992&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J418" t="inlineStr">
@@ -20440,7 +20440,7 @@
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>Proyecto Exploración Minera Macarena - Leo (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C419" t="inlineStr">
@@ -20450,16 +20450,16 @@
       </c>
       <c r="D419" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E419" t="inlineStr">
         <is>
-          <t>Minera Fuego Limitada</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F419" t="n">
-        <v>150</v>
+        <v>1650</v>
       </c>
       <c r="G419" t="inlineStr">
         <is>
@@ -20473,7 +20473,7 @@
       </c>
       <c r="I419" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088992&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J419" t="inlineStr">
@@ -23416,26 +23416,26 @@
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>LIXIVIACIÓN DE SULFUROS SULFOLIX</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C481" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D481" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E481" t="inlineStr">
         <is>
-          <t>SOCIEDAD CONTRACTUAL MINERA EL ABRA</t>
+          <t>Empresa de Residuos RESITER S.A.</t>
         </is>
       </c>
       <c r="F481" t="n">
-        <v>343000</v>
+        <v>1</v>
       </c>
       <c r="G481" t="inlineStr">
         <is>
@@ -23449,7 +23449,7 @@
       </c>
       <c r="I481" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2088630&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J481" t="inlineStr">
@@ -23464,26 +23464,26 @@
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
+          <t>LIXIVIACIÓN DE SULFUROS SULFOLIX</t>
         </is>
       </c>
       <c r="C482" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D482" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E482" t="inlineStr">
         <is>
-          <t>Empresa de Residuos RESITER S.A.</t>
+          <t>SOCIEDAD CONTRACTUAL MINERA EL ABRA</t>
         </is>
       </c>
       <c r="F482" t="n">
-        <v>1</v>
+        <v>343000</v>
       </c>
       <c r="G482" t="inlineStr">
         <is>
@@ -23497,7 +23497,7 @@
       </c>
       <c r="I482" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2088630&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J482" t="inlineStr">

--- a/data/Calama.xlsx
+++ b/data/Calama.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>17/11/2022</t>
+          <t>16/12/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Ingresados Art.94 RSEIA</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -495,12 +495,12 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>15/11/2022</t>
+          <t>16/12/2022</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Ingresados Art.94 RSEIA</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">

--- a/data/Calama.xlsx
+++ b/data/Calama.xlsx
@@ -3880,7 +3880,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Verano de San Juan I</t>
+          <t>MODIFICACIONES AL PROYECTO EXTRACCIÓN Y MOVIMIENTO DE MINERALES MINA RADOMIRO TOMIC</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3895,11 +3895,11 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Victoria Solar SpA</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>15000</v>
+        <v>208848</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
@@ -3908,12 +3908,12 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138522682&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138513102&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -3928,7 +3928,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Verano de San Juan II</t>
+          <t>Parque Fotovoltaico Verano de San Juan I</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3943,7 +3943,7 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Paine Energy SpA</t>
+          <t>Victoria Solar SpA</t>
         </is>
       </c>
       <c r="F75" t="n">
@@ -3961,7 +3961,7 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138526892&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138522682&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3976,7 +3976,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>MODIFICACIONES AL PROYECTO EXTRACCIÓN Y MOVIMIENTO DE MINERALES MINA RADOMIRO TOMIC</t>
+          <t>Parque Fotovoltaico Verano de San Juan II</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3991,11 +3991,11 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Paine Energy SpA</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>208848</v>
+        <v>15000</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
@@ -4004,12 +4004,12 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138513102&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138526892&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -7864,7 +7864,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>AUMENTO CAPACIDAD DE TRATAMIENTO DE EFLUENTES DE FUNDICIÓN</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -7874,16 +7874,16 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>Codelco Chile, División Chuquicamata</t>
         </is>
       </c>
       <c r="F157" t="n">
-        <v>1200</v>
+        <v>67700</v>
       </c>
       <c r="G157" t="inlineStr">
         <is>
@@ -7897,7 +7897,7 @@
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128952737&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -7912,7 +7912,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Proyecto Fotovoltaico Azabache</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -7922,16 +7922,16 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>Almeyda Solar SpA.</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F158" t="n">
-        <v>140000</v>
+        <v>1200</v>
       </c>
       <c r="G158" t="inlineStr">
         <is>
@@ -7945,7 +7945,7 @@
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128969457&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -7960,7 +7960,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Proyecto Fotovoltaico Azabache</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -7970,16 +7970,16 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Almeyda Solar SpA.</t>
         </is>
       </c>
       <c r="F159" t="n">
-        <v>0</v>
+        <v>140000</v>
       </c>
       <c r="G159" t="inlineStr">
         <is>
@@ -7993,7 +7993,7 @@
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128969457&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -8008,7 +8008,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>BARRIO CONTRATISTA GERENCIA DE PROYECTOS</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -8018,16 +8018,16 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>Codelco Chile, División Chuquicamata</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F160" t="n">
-        <v>8000</v>
+        <v>0</v>
       </c>
       <c r="G160" t="inlineStr">
         <is>
@@ -8041,7 +8041,7 @@
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128904823&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
@@ -8056,7 +8056,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>AUMENTO CAPACIDAD DE TRATAMIENTO DE EFLUENTES DE FUNDICIÓN</t>
+          <t>BARRIO CONTRATISTA GERENCIA DE PROYECTOS</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -8075,7 +8075,7 @@
         </is>
       </c>
       <c r="F161" t="n">
-        <v>67700</v>
+        <v>8000</v>
       </c>
       <c r="G161" t="inlineStr">
         <is>
@@ -8089,7 +8089,7 @@
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128952737&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128904823&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
@@ -8104,7 +8104,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Aumento Áreas de Lixiviación, sector Quebrada Portezuelo</t>
+          <t>Remodelación Parque El Loa</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -8119,11 +8119,11 @@
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>Codelco Chile, División Chuquicamata</t>
+          <t>Ilustre Municipalidad de Calama</t>
         </is>
       </c>
       <c r="F162" t="n">
-        <v>5888</v>
+        <v>9074</v>
       </c>
       <c r="G162" t="inlineStr">
         <is>
@@ -8137,7 +8137,7 @@
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128955081&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128906904&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
@@ -8152,7 +8152,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Remodelación Parque El Loa</t>
+          <t>Aumento Áreas de Lixiviación, sector Quebrada Portezuelo</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -8167,11 +8167,11 @@
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Calama</t>
+          <t>Codelco Chile, División Chuquicamata</t>
         </is>
       </c>
       <c r="F163" t="n">
-        <v>9074</v>
+        <v>5888</v>
       </c>
       <c r="G163" t="inlineStr">
         <is>
@@ -8185,7 +8185,7 @@
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128906904&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128955081&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -8776,7 +8776,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -8791,11 +8791,11 @@
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F176" t="n">
-        <v>12500</v>
+        <v>219</v>
       </c>
       <c r="G176" t="inlineStr">
         <is>
@@ -8804,12 +8804,12 @@
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556590&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -8824,7 +8824,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
+          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -8843,7 +8843,7 @@
         </is>
       </c>
       <c r="F177" t="n">
-        <v>10000</v>
+        <v>12500</v>
       </c>
       <c r="G177" t="inlineStr">
         <is>
@@ -8857,7 +8857,7 @@
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
@@ -8872,7 +8872,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -8887,11 +8887,11 @@
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F178" t="n">
-        <v>219</v>
+        <v>10000</v>
       </c>
       <c r="G178" t="inlineStr">
         <is>
@@ -8900,12 +8900,12 @@
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556590&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
@@ -9400,26 +9400,26 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>RT Sulfuros</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F189" t="n">
-        <v>2050</v>
+        <v>5.4</v>
       </c>
       <c r="G189" t="inlineStr">
         <is>
@@ -9428,12 +9428,12 @@
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
@@ -9448,26 +9448,26 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>RT Sulfuros</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F190" t="n">
-        <v>5.4</v>
+        <v>2050</v>
       </c>
       <c r="G190" t="inlineStr">
         <is>
@@ -9476,12 +9476,12 @@
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
@@ -10888,7 +10888,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Procesamiento de Óxidos DMH</t>
+          <t>Planta Fotovoltaica San Pedro de Atacama IV</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -10903,11 +10903,11 @@
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>División Ministro Hales de Codelco Chile</t>
+          <t>GPG Solar Chile 2017 SpA</t>
         </is>
       </c>
       <c r="F220" t="n">
-        <v>70000</v>
+        <v>105250</v>
       </c>
       <c r="G220" t="inlineStr">
         <is>
@@ -10921,7 +10921,7 @@
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7040302&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7052315&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J220" t="inlineStr">
@@ -10936,7 +10936,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Planta Fotovoltaica San Pedro de Atacama IV</t>
+          <t>Procesamiento de Óxidos DMH</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -10951,11 +10951,11 @@
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>GPG Solar Chile 2017 SpA</t>
+          <t>División Ministro Hales de Codelco Chile</t>
         </is>
       </c>
       <c r="F221" t="n">
-        <v>105250</v>
+        <v>70000</v>
       </c>
       <c r="G221" t="inlineStr">
         <is>
@@ -10969,7 +10969,7 @@
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7052315&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7040302&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">
@@ -13048,7 +13048,7 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>Portal del Inca</t>
+          <t>Línea de Transmisión Eléctrica 220 kv Encuentro - MH</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
@@ -13063,11 +13063,11 @@
       </c>
       <c r="E265" t="inlineStr">
         <is>
-          <t>Inmobiliaria Inca Dos Ltda.</t>
+          <t>División Ministro Hales de Codelco Chile</t>
         </is>
       </c>
       <c r="F265" t="n">
-        <v>13948</v>
+        <v>45000</v>
       </c>
       <c r="G265" t="inlineStr">
         <is>
@@ -13076,12 +13076,12 @@
       </c>
       <c r="H265" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I265" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5787635&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5773970&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J265" t="inlineStr">
@@ -13096,7 +13096,7 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Eléctrica 220 kv Encuentro - MH</t>
+          <t>Portal del Inca</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
@@ -13111,11 +13111,11 @@
       </c>
       <c r="E266" t="inlineStr">
         <is>
-          <t>División Ministro Hales de Codelco Chile</t>
+          <t>Inmobiliaria Inca Dos Ltda.</t>
         </is>
       </c>
       <c r="F266" t="n">
-        <v>45000</v>
+        <v>13948</v>
       </c>
       <c r="G266" t="inlineStr">
         <is>
@@ -13124,12 +13124,12 @@
       </c>
       <c r="H266" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I266" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5773970&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5787635&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J266" t="inlineStr">
@@ -13864,7 +13864,7 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
@@ -13879,11 +13879,11 @@
       </c>
       <c r="E282" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F282" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G282" t="inlineStr">
         <is>
@@ -13892,12 +13892,12 @@
       </c>
       <c r="H282" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I282" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J282" t="inlineStr">
@@ -13912,7 +13912,7 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
@@ -13927,11 +13927,11 @@
       </c>
       <c r="E283" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F283" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G283" t="inlineStr">
         <is>
@@ -13940,12 +13940,12 @@
       </c>
       <c r="H283" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I283" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J283" t="inlineStr">
@@ -18424,7 +18424,7 @@
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Efluentes Hospital del Cobre (e-seia)</t>
+          <t>Sondajes Prospección Ingeniería de Detalles Explotación Subterránea Yacimiento Chuquicamata (e-seia)</t>
         </is>
       </c>
       <c r="C377" t="inlineStr">
@@ -18443,7 +18443,7 @@
         </is>
       </c>
       <c r="F377" t="n">
-        <v>200</v>
+        <v>83584</v>
       </c>
       <c r="G377" t="inlineStr">
         <is>
@@ -18457,7 +18457,7 @@
       </c>
       <c r="I377" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3826608&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3737660&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J377" t="inlineStr">
@@ -18472,7 +18472,7 @@
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>Sondajes Prospección Ingeniería de Detalles Explotación Subterránea Yacimiento Chuquicamata (e-seia)</t>
+          <t>Planta de Tratamiento de Efluentes Hospital del Cobre (e-seia)</t>
         </is>
       </c>
       <c r="C378" t="inlineStr">
@@ -18491,7 +18491,7 @@
         </is>
       </c>
       <c r="F378" t="n">
-        <v>83584</v>
+        <v>200</v>
       </c>
       <c r="G378" t="inlineStr">
         <is>
@@ -18505,7 +18505,7 @@
       </c>
       <c r="I378" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3737660&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3826608&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J378" t="inlineStr">
@@ -19720,7 +19720,7 @@
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>Proyecto Explotación Subterránea Mina Santa Rosa (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C404" t="inlineStr">
@@ -19730,16 +19730,16 @@
       </c>
       <c r="D404" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E404" t="inlineStr">
         <is>
-          <t>Minera Quimal.S.A.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F404" t="n">
-        <v>500</v>
+        <v>1750</v>
       </c>
       <c r="G404" t="inlineStr">
         <is>
@@ -19748,12 +19748,12 @@
       </c>
       <c r="H404" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I404" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3310659&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J404" t="inlineStr">
@@ -19768,7 +19768,7 @@
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Proyecto Explotación Subterránea Mina Santa Rosa (e-seia)</t>
         </is>
       </c>
       <c r="C405" t="inlineStr">
@@ -19778,16 +19778,16 @@
       </c>
       <c r="D405" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E405" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Minera Quimal.S.A.</t>
         </is>
       </c>
       <c r="F405" t="n">
-        <v>1750</v>
+        <v>500</v>
       </c>
       <c r="G405" t="inlineStr">
         <is>
@@ -19796,12 +19796,12 @@
       </c>
       <c r="H405" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I405" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3310659&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J405" t="inlineStr">
@@ -20248,7 +20248,7 @@
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>Tratamiento de Impurezas en Ánodos y Cátodos de División Codelco Norte (e-seia)</t>
         </is>
       </c>
       <c r="C415" t="inlineStr">
@@ -20258,16 +20258,16 @@
       </c>
       <c r="D415" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E415" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Codelco Chile, División Chuquicamata</t>
         </is>
       </c>
       <c r="F415" t="n">
-        <v>250</v>
+        <v>50000</v>
       </c>
       <c r="G415" t="inlineStr">
         <is>
@@ -20276,12 +20276,12 @@
       </c>
       <c r="H415" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I415" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3118819&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J415" t="inlineStr">
@@ -20296,7 +20296,7 @@
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>Tratamiento de Impurezas en Ánodos y Cátodos de División Codelco Norte (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C416" t="inlineStr">
@@ -20306,16 +20306,16 @@
       </c>
       <c r="D416" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E416" t="inlineStr">
         <is>
-          <t>Codelco Chile, División Chuquicamata</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F416" t="n">
-        <v>50000</v>
+        <v>250</v>
       </c>
       <c r="G416" t="inlineStr">
         <is>
@@ -20324,12 +20324,12 @@
       </c>
       <c r="H416" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I416" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3118819&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J416" t="inlineStr">
@@ -20440,7 +20440,7 @@
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>Proyecto Exploración Minera Macarena - Leo (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C419" t="inlineStr">
@@ -20450,16 +20450,16 @@
       </c>
       <c r="D419" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E419" t="inlineStr">
         <is>
-          <t>Minera Fuego Limitada</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F419" t="n">
-        <v>150</v>
+        <v>1650</v>
       </c>
       <c r="G419" t="inlineStr">
         <is>
@@ -20473,7 +20473,7 @@
       </c>
       <c r="I419" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088992&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J419" t="inlineStr">
@@ -20488,7 +20488,7 @@
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>Proyecto Exploración Minera Macarena - Leo (e-seia)</t>
         </is>
       </c>
       <c r="C420" t="inlineStr">
@@ -20498,16 +20498,16 @@
       </c>
       <c r="D420" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E420" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Minera Fuego Limitada</t>
         </is>
       </c>
       <c r="F420" t="n">
-        <v>1650</v>
+        <v>150</v>
       </c>
       <c r="G420" t="inlineStr">
         <is>
@@ -20521,7 +20521,7 @@
       </c>
       <c r="I420" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088992&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J420" t="inlineStr">
@@ -23464,26 +23464,26 @@
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
+          <t>LIXIVIACIÓN DE SULFUROS SULFOLIX</t>
         </is>
       </c>
       <c r="C482" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D482" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E482" t="inlineStr">
         <is>
-          <t>Empresa de Residuos RESITER S.A.</t>
+          <t>SOCIEDAD CONTRACTUAL MINERA EL ABRA</t>
         </is>
       </c>
       <c r="F482" t="n">
-        <v>1</v>
+        <v>343000</v>
       </c>
       <c r="G482" t="inlineStr">
         <is>
@@ -23497,7 +23497,7 @@
       </c>
       <c r="I482" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2088630&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J482" t="inlineStr">
@@ -23512,26 +23512,26 @@
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>LIXIVIACIÓN DE SULFUROS SULFOLIX</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C483" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D483" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E483" t="inlineStr">
         <is>
-          <t>SOCIEDAD CONTRACTUAL MINERA EL ABRA</t>
+          <t>Empresa de Residuos RESITER S.A.</t>
         </is>
       </c>
       <c r="F483" t="n">
-        <v>343000</v>
+        <v>1</v>
       </c>
       <c r="G483" t="inlineStr">
         <is>
@@ -23545,7 +23545,7 @@
       </c>
       <c r="I483" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2088630&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J483" t="inlineStr">

--- a/data/Calama.xlsx
+++ b/data/Calama.xlsx
@@ -3880,7 +3880,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>MODIFICACIONES AL PROYECTO EXTRACCIÓN Y MOVIMIENTO DE MINERALES MINA RADOMIRO TOMIC</t>
+          <t>Parque Fotovoltaico Verano de San Juan I</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3895,11 +3895,11 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Victoria Solar SpA</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>208848</v>
+        <v>15000</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
@@ -3908,12 +3908,12 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138513102&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138522682&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -3928,7 +3928,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Verano de San Juan I</t>
+          <t>Parque Fotovoltaico Verano de San Juan II</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3943,7 +3943,7 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Victoria Solar SpA</t>
+          <t>Paine Energy SpA</t>
         </is>
       </c>
       <c r="F75" t="n">
@@ -3961,7 +3961,7 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138522682&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138526892&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3976,7 +3976,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Verano de San Juan II</t>
+          <t>MODIFICACIONES AL PROYECTO EXTRACCIÓN Y MOVIMIENTO DE MINERALES MINA RADOMIRO TOMIC</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3991,11 +3991,11 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Paine Energy SpA</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>15000</v>
+        <v>208848</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
@@ -4004,12 +4004,12 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138526892&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138513102&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -7864,7 +7864,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>AUMENTO CAPACIDAD DE TRATAMIENTO DE EFLUENTES DE FUNDICIÓN</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -7874,16 +7874,16 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>Codelco Chile, División Chuquicamata</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F157" t="n">
-        <v>67700</v>
+        <v>1200</v>
       </c>
       <c r="G157" t="inlineStr">
         <is>
@@ -7897,7 +7897,7 @@
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128952737&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -7912,7 +7912,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Proyecto Fotovoltaico Azabache</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -7922,16 +7922,16 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>Almeyda Solar SpA.</t>
         </is>
       </c>
       <c r="F158" t="n">
-        <v>1200</v>
+        <v>140000</v>
       </c>
       <c r="G158" t="inlineStr">
         <is>
@@ -7945,7 +7945,7 @@
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128969457&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -7960,7 +7960,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Proyecto Fotovoltaico Azabache</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -7970,16 +7970,16 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>Almeyda Solar SpA.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F159" t="n">
-        <v>140000</v>
+        <v>0</v>
       </c>
       <c r="G159" t="inlineStr">
         <is>
@@ -7993,7 +7993,7 @@
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128969457&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -8008,7 +8008,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>BARRIO CONTRATISTA GERENCIA DE PROYECTOS</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -8018,16 +8018,16 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Codelco Chile, División Chuquicamata</t>
         </is>
       </c>
       <c r="F160" t="n">
-        <v>0</v>
+        <v>8000</v>
       </c>
       <c r="G160" t="inlineStr">
         <is>
@@ -8041,7 +8041,7 @@
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128904823&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
@@ -8056,7 +8056,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>BARRIO CONTRATISTA GERENCIA DE PROYECTOS</t>
+          <t>AUMENTO CAPACIDAD DE TRATAMIENTO DE EFLUENTES DE FUNDICIÓN</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -8075,7 +8075,7 @@
         </is>
       </c>
       <c r="F161" t="n">
-        <v>8000</v>
+        <v>67700</v>
       </c>
       <c r="G161" t="inlineStr">
         <is>
@@ -8089,7 +8089,7 @@
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128904823&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128952737&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
@@ -8104,7 +8104,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Remodelación Parque El Loa</t>
+          <t>Aumento Áreas de Lixiviación, sector Quebrada Portezuelo</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -8119,11 +8119,11 @@
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Calama</t>
+          <t>Codelco Chile, División Chuquicamata</t>
         </is>
       </c>
       <c r="F162" t="n">
-        <v>9074</v>
+        <v>5888</v>
       </c>
       <c r="G162" t="inlineStr">
         <is>
@@ -8137,7 +8137,7 @@
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128906904&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128955081&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
@@ -8152,7 +8152,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Aumento Áreas de Lixiviación, sector Quebrada Portezuelo</t>
+          <t>Remodelación Parque El Loa</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -8167,11 +8167,11 @@
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>Codelco Chile, División Chuquicamata</t>
+          <t>Ilustre Municipalidad de Calama</t>
         </is>
       </c>
       <c r="F163" t="n">
-        <v>5888</v>
+        <v>9074</v>
       </c>
       <c r="G163" t="inlineStr">
         <is>
@@ -8185,7 +8185,7 @@
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128955081&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128906904&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -8776,7 +8776,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -8791,11 +8791,11 @@
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F176" t="n">
-        <v>219</v>
+        <v>12500</v>
       </c>
       <c r="G176" t="inlineStr">
         <is>
@@ -8804,12 +8804,12 @@
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556590&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -8824,7 +8824,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -8843,7 +8843,7 @@
         </is>
       </c>
       <c r="F177" t="n">
-        <v>12500</v>
+        <v>10000</v>
       </c>
       <c r="G177" t="inlineStr">
         <is>
@@ -8857,7 +8857,7 @@
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
@@ -8872,7 +8872,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -8887,11 +8887,11 @@
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F178" t="n">
-        <v>10000</v>
+        <v>219</v>
       </c>
       <c r="G178" t="inlineStr">
         <is>
@@ -8900,12 +8900,12 @@
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556590&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
@@ -9400,26 +9400,26 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>RT Sulfuros</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F189" t="n">
-        <v>5.4</v>
+        <v>2050</v>
       </c>
       <c r="G189" t="inlineStr">
         <is>
@@ -9428,12 +9428,12 @@
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
@@ -9448,26 +9448,26 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>RT Sulfuros</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F190" t="n">
-        <v>2050</v>
+        <v>5.4</v>
       </c>
       <c r="G190" t="inlineStr">
         <is>
@@ -9476,12 +9476,12 @@
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
@@ -10888,7 +10888,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Planta Fotovoltaica San Pedro de Atacama IV</t>
+          <t>Procesamiento de Óxidos DMH</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -10903,11 +10903,11 @@
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>GPG Solar Chile 2017 SpA</t>
+          <t>División Ministro Hales de Codelco Chile</t>
         </is>
       </c>
       <c r="F220" t="n">
-        <v>105250</v>
+        <v>70000</v>
       </c>
       <c r="G220" t="inlineStr">
         <is>
@@ -10921,7 +10921,7 @@
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7052315&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7040302&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J220" t="inlineStr">
@@ -10936,7 +10936,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Procesamiento de Óxidos DMH</t>
+          <t>Planta Fotovoltaica San Pedro de Atacama IV</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -10951,11 +10951,11 @@
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>División Ministro Hales de Codelco Chile</t>
+          <t>GPG Solar Chile 2017 SpA</t>
         </is>
       </c>
       <c r="F221" t="n">
-        <v>70000</v>
+        <v>105250</v>
       </c>
       <c r="G221" t="inlineStr">
         <is>
@@ -10969,7 +10969,7 @@
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7040302&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7052315&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">
@@ -13048,7 +13048,7 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Eléctrica 220 kv Encuentro - MH</t>
+          <t>Portal del Inca</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
@@ -13063,11 +13063,11 @@
       </c>
       <c r="E265" t="inlineStr">
         <is>
-          <t>División Ministro Hales de Codelco Chile</t>
+          <t>Inmobiliaria Inca Dos Ltda.</t>
         </is>
       </c>
       <c r="F265" t="n">
-        <v>45000</v>
+        <v>13948</v>
       </c>
       <c r="G265" t="inlineStr">
         <is>
@@ -13076,12 +13076,12 @@
       </c>
       <c r="H265" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I265" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5773970&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5787635&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J265" t="inlineStr">
@@ -13096,7 +13096,7 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>Portal del Inca</t>
+          <t>Línea de Transmisión Eléctrica 220 kv Encuentro - MH</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
@@ -13111,11 +13111,11 @@
       </c>
       <c r="E266" t="inlineStr">
         <is>
-          <t>Inmobiliaria Inca Dos Ltda.</t>
+          <t>División Ministro Hales de Codelco Chile</t>
         </is>
       </c>
       <c r="F266" t="n">
-        <v>13948</v>
+        <v>45000</v>
       </c>
       <c r="G266" t="inlineStr">
         <is>
@@ -13124,12 +13124,12 @@
       </c>
       <c r="H266" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I266" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5787635&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5773970&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J266" t="inlineStr">
@@ -13864,7 +13864,7 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
@@ -13879,11 +13879,11 @@
       </c>
       <c r="E282" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F282" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G282" t="inlineStr">
         <is>
@@ -13892,12 +13892,12 @@
       </c>
       <c r="H282" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I282" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J282" t="inlineStr">
@@ -13912,7 +13912,7 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
@@ -13927,11 +13927,11 @@
       </c>
       <c r="E283" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F283" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G283" t="inlineStr">
         <is>
@@ -13940,12 +13940,12 @@
       </c>
       <c r="H283" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I283" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J283" t="inlineStr">
@@ -18424,7 +18424,7 @@
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>Sondajes Prospección Ingeniería de Detalles Explotación Subterránea Yacimiento Chuquicamata (e-seia)</t>
+          <t>Planta de Tratamiento de Efluentes Hospital del Cobre (e-seia)</t>
         </is>
       </c>
       <c r="C377" t="inlineStr">
@@ -18443,7 +18443,7 @@
         </is>
       </c>
       <c r="F377" t="n">
-        <v>83584</v>
+        <v>200</v>
       </c>
       <c r="G377" t="inlineStr">
         <is>
@@ -18457,7 +18457,7 @@
       </c>
       <c r="I377" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3737660&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3826608&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J377" t="inlineStr">
@@ -18472,7 +18472,7 @@
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Efluentes Hospital del Cobre (e-seia)</t>
+          <t>Sondajes Prospección Ingeniería de Detalles Explotación Subterránea Yacimiento Chuquicamata (e-seia)</t>
         </is>
       </c>
       <c r="C378" t="inlineStr">
@@ -18491,7 +18491,7 @@
         </is>
       </c>
       <c r="F378" t="n">
-        <v>200</v>
+        <v>83584</v>
       </c>
       <c r="G378" t="inlineStr">
         <is>
@@ -18505,7 +18505,7 @@
       </c>
       <c r="I378" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3826608&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3737660&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J378" t="inlineStr">
@@ -19720,7 +19720,7 @@
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Proyecto Explotación Subterránea Mina Santa Rosa (e-seia)</t>
         </is>
       </c>
       <c r="C404" t="inlineStr">
@@ -19730,16 +19730,16 @@
       </c>
       <c r="D404" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E404" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Minera Quimal.S.A.</t>
         </is>
       </c>
       <c r="F404" t="n">
-        <v>1750</v>
+        <v>500</v>
       </c>
       <c r="G404" t="inlineStr">
         <is>
@@ -19748,12 +19748,12 @@
       </c>
       <c r="H404" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I404" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3310659&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J404" t="inlineStr">
@@ -19768,7 +19768,7 @@
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>Proyecto Explotación Subterránea Mina Santa Rosa (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C405" t="inlineStr">
@@ -19778,16 +19778,16 @@
       </c>
       <c r="D405" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E405" t="inlineStr">
         <is>
-          <t>Minera Quimal.S.A.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F405" t="n">
-        <v>500</v>
+        <v>1750</v>
       </c>
       <c r="G405" t="inlineStr">
         <is>
@@ -19796,12 +19796,12 @@
       </c>
       <c r="H405" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I405" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3310659&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J405" t="inlineStr">
@@ -20248,7 +20248,7 @@
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>Tratamiento de Impurezas en Ánodos y Cátodos de División Codelco Norte (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C415" t="inlineStr">
@@ -20258,16 +20258,16 @@
       </c>
       <c r="D415" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E415" t="inlineStr">
         <is>
-          <t>Codelco Chile, División Chuquicamata</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F415" t="n">
-        <v>50000</v>
+        <v>250</v>
       </c>
       <c r="G415" t="inlineStr">
         <is>
@@ -20276,12 +20276,12 @@
       </c>
       <c r="H415" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I415" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3118819&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J415" t="inlineStr">
@@ -20296,7 +20296,7 @@
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>Tratamiento de Impurezas en Ánodos y Cátodos de División Codelco Norte (e-seia)</t>
         </is>
       </c>
       <c r="C416" t="inlineStr">
@@ -20306,16 +20306,16 @@
       </c>
       <c r="D416" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E416" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Codelco Chile, División Chuquicamata</t>
         </is>
       </c>
       <c r="F416" t="n">
-        <v>250</v>
+        <v>50000</v>
       </c>
       <c r="G416" t="inlineStr">
         <is>
@@ -20324,12 +20324,12 @@
       </c>
       <c r="H416" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I416" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3118819&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J416" t="inlineStr">
@@ -20440,7 +20440,7 @@
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>Proyecto Exploración Minera Macarena - Leo (e-seia)</t>
         </is>
       </c>
       <c r="C419" t="inlineStr">
@@ -20450,16 +20450,16 @@
       </c>
       <c r="D419" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E419" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Minera Fuego Limitada</t>
         </is>
       </c>
       <c r="F419" t="n">
-        <v>1650</v>
+        <v>150</v>
       </c>
       <c r="G419" t="inlineStr">
         <is>
@@ -20473,7 +20473,7 @@
       </c>
       <c r="I419" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088992&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J419" t="inlineStr">
@@ -20488,7 +20488,7 @@
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>Proyecto Exploración Minera Macarena - Leo (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C420" t="inlineStr">
@@ -20498,16 +20498,16 @@
       </c>
       <c r="D420" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E420" t="inlineStr">
         <is>
-          <t>Minera Fuego Limitada</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F420" t="n">
-        <v>150</v>
+        <v>1650</v>
       </c>
       <c r="G420" t="inlineStr">
         <is>
@@ -20521,7 +20521,7 @@
       </c>
       <c r="I420" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088992&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J420" t="inlineStr">
@@ -23464,26 +23464,26 @@
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>LIXIVIACIÓN DE SULFUROS SULFOLIX</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C482" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D482" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E482" t="inlineStr">
         <is>
-          <t>SOCIEDAD CONTRACTUAL MINERA EL ABRA</t>
+          <t>Empresa de Residuos RESITER S.A.</t>
         </is>
       </c>
       <c r="F482" t="n">
-        <v>343000</v>
+        <v>1</v>
       </c>
       <c r="G482" t="inlineStr">
         <is>
@@ -23497,7 +23497,7 @@
       </c>
       <c r="I482" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2088630&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J482" t="inlineStr">
@@ -23512,26 +23512,26 @@
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
+          <t>LIXIVIACIÓN DE SULFUROS SULFOLIX</t>
         </is>
       </c>
       <c r="C483" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D483" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E483" t="inlineStr">
         <is>
-          <t>Empresa de Residuos RESITER S.A.</t>
+          <t>SOCIEDAD CONTRACTUAL MINERA EL ABRA</t>
         </is>
       </c>
       <c r="F483" t="n">
-        <v>1</v>
+        <v>343000</v>
       </c>
       <c r="G483" t="inlineStr">
         <is>
@@ -23545,7 +23545,7 @@
       </c>
       <c r="I483" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2088630&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J483" t="inlineStr">

--- a/data/Calama.xlsx
+++ b/data/Calama.xlsx
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Tendido segundo circuito Línea 2x220 kV Nueva Chuquicamata - Calama</t>
+          <t>Parque Fotovoltaico Parina Solar</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -439,25 +439,25 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Engie Energía Chile S.A.</t>
+          <t>Parina Solar SpA</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>6500</v>
+        <v>248000</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>16/12/2022</t>
+          <t>21/11/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157658825&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157664677&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Parina Solar</t>
+          <t>Tendido segundo circuito Línea 2x220 kV Nueva Chuquicamata - Calama</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -487,15 +487,15 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Parina Solar SpA</t>
+          <t>Engie Energía Chile S.A.</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>248000</v>
+        <v>6500</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>16/12/2022</t>
+          <t>18/11/2022</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -505,7 +505,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157664677&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157658825&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">

--- a/data/Calama.xlsx
+++ b/data/Calama.xlsx
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Parina Solar</t>
+          <t>Tendido segundo circuito Línea 2x220 kV Nueva Chuquicamata - Calama</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -439,15 +439,15 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Parina Solar SpA</t>
+          <t>Engie Energía Chile S.A.</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>248000</v>
+        <v>6500</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>21/11/2022</t>
+          <t>22/11/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -457,7 +457,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157664677&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157658825&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Tendido segundo circuito Línea 2x220 kV Nueva Chuquicamata - Calama</t>
+          <t>Parque Fotovoltaico Parina Solar</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -487,25 +487,25 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Engie Energía Chile S.A.</t>
+          <t>Parina Solar SpA</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>6500</v>
+        <v>248000</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>18/11/2022</t>
+          <t>21/11/2022</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157658825&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157664677&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -8008,7 +8008,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>BARRIO CONTRATISTA GERENCIA DE PROYECTOS</t>
+          <t>AUMENTO CAPACIDAD DE TRATAMIENTO DE EFLUENTES DE FUNDICIÓN</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -8027,7 +8027,7 @@
         </is>
       </c>
       <c r="F160" t="n">
-        <v>8000</v>
+        <v>67700</v>
       </c>
       <c r="G160" t="inlineStr">
         <is>
@@ -8041,7 +8041,7 @@
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128904823&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128952737&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
@@ -8056,7 +8056,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>AUMENTO CAPACIDAD DE TRATAMIENTO DE EFLUENTES DE FUNDICIÓN</t>
+          <t>BARRIO CONTRATISTA GERENCIA DE PROYECTOS</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -8075,7 +8075,7 @@
         </is>
       </c>
       <c r="F161" t="n">
-        <v>67700</v>
+        <v>8000</v>
       </c>
       <c r="G161" t="inlineStr">
         <is>
@@ -8089,7 +8089,7 @@
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128952737&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128904823&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
@@ -8104,7 +8104,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Aumento Áreas de Lixiviación, sector Quebrada Portezuelo</t>
+          <t>Remodelación Parque El Loa</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -8119,11 +8119,11 @@
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>Codelco Chile, División Chuquicamata</t>
+          <t>Ilustre Municipalidad de Calama</t>
         </is>
       </c>
       <c r="F162" t="n">
-        <v>5888</v>
+        <v>9074</v>
       </c>
       <c r="G162" t="inlineStr">
         <is>
@@ -8137,7 +8137,7 @@
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128955081&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128906904&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
@@ -8152,7 +8152,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Remodelación Parque El Loa</t>
+          <t>Aumento Áreas de Lixiviación, sector Quebrada Portezuelo</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -8167,11 +8167,11 @@
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Calama</t>
+          <t>Codelco Chile, División Chuquicamata</t>
         </is>
       </c>
       <c r="F163" t="n">
-        <v>9074</v>
+        <v>5888</v>
       </c>
       <c r="G163" t="inlineStr">
         <is>
@@ -8185,7 +8185,7 @@
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128906904&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128955081&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -18424,7 +18424,7 @@
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Efluentes Hospital del Cobre (e-seia)</t>
+          <t>Sondajes Prospección Ingeniería de Detalles Explotación Subterránea Yacimiento Chuquicamata (e-seia)</t>
         </is>
       </c>
       <c r="C377" t="inlineStr">
@@ -18443,7 +18443,7 @@
         </is>
       </c>
       <c r="F377" t="n">
-        <v>200</v>
+        <v>83584</v>
       </c>
       <c r="G377" t="inlineStr">
         <is>
@@ -18457,7 +18457,7 @@
       </c>
       <c r="I377" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3826608&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3737660&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J377" t="inlineStr">
@@ -18472,7 +18472,7 @@
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>Sondajes Prospección Ingeniería de Detalles Explotación Subterránea Yacimiento Chuquicamata (e-seia)</t>
+          <t>Planta de Tratamiento de Efluentes Hospital del Cobre (e-seia)</t>
         </is>
       </c>
       <c r="C378" t="inlineStr">
@@ -18491,7 +18491,7 @@
         </is>
       </c>
       <c r="F378" t="n">
-        <v>83584</v>
+        <v>200</v>
       </c>
       <c r="G378" t="inlineStr">
         <is>
@@ -18505,7 +18505,7 @@
       </c>
       <c r="I378" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3737660&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3826608&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J378" t="inlineStr">
@@ -20440,7 +20440,7 @@
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>Proyecto Exploración Minera Macarena - Leo (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C419" t="inlineStr">
@@ -20450,16 +20450,16 @@
       </c>
       <c r="D419" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E419" t="inlineStr">
         <is>
-          <t>Minera Fuego Limitada</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F419" t="n">
-        <v>150</v>
+        <v>1650</v>
       </c>
       <c r="G419" t="inlineStr">
         <is>
@@ -20473,7 +20473,7 @@
       </c>
       <c r="I419" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088992&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J419" t="inlineStr">
@@ -20488,7 +20488,7 @@
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>Proyecto Exploración Minera Macarena - Leo (e-seia)</t>
         </is>
       </c>
       <c r="C420" t="inlineStr">
@@ -20498,16 +20498,16 @@
       </c>
       <c r="D420" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E420" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Minera Fuego Limitada</t>
         </is>
       </c>
       <c r="F420" t="n">
-        <v>1650</v>
+        <v>150</v>
       </c>
       <c r="G420" t="inlineStr">
         <is>
@@ -20521,7 +20521,7 @@
       </c>
       <c r="I420" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088992&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J420" t="inlineStr">

--- a/data/Calama.xlsx
+++ b/data/Calama.xlsx
@@ -3880,7 +3880,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Verano de San Juan I</t>
+          <t>MODIFICACIONES AL PROYECTO EXTRACCIÓN Y MOVIMIENTO DE MINERALES MINA RADOMIRO TOMIC</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3895,11 +3895,11 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Victoria Solar SpA</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>15000</v>
+        <v>208848</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
@@ -3908,12 +3908,12 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138522682&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138513102&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -3928,7 +3928,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Verano de San Juan II</t>
+          <t>Parque Fotovoltaico Verano de San Juan I</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3943,7 +3943,7 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Paine Energy SpA</t>
+          <t>Victoria Solar SpA</t>
         </is>
       </c>
       <c r="F75" t="n">
@@ -3961,7 +3961,7 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138526892&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138522682&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3976,7 +3976,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>MODIFICACIONES AL PROYECTO EXTRACCIÓN Y MOVIMIENTO DE MINERALES MINA RADOMIRO TOMIC</t>
+          <t>Parque Fotovoltaico Verano de San Juan II</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3991,11 +3991,11 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Paine Energy SpA</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>208848</v>
+        <v>15000</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
@@ -4004,12 +4004,12 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138513102&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138526892&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -7864,7 +7864,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>AUMENTO CAPACIDAD DE TRATAMIENTO DE EFLUENTES DE FUNDICIÓN</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -7874,16 +7874,16 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>Codelco Chile, División Chuquicamata</t>
         </is>
       </c>
       <c r="F157" t="n">
-        <v>1200</v>
+        <v>67700</v>
       </c>
       <c r="G157" t="inlineStr">
         <is>
@@ -7897,7 +7897,7 @@
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128952737&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -7912,7 +7912,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Proyecto Fotovoltaico Azabache</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -7922,16 +7922,16 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>Almeyda Solar SpA.</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F158" t="n">
-        <v>140000</v>
+        <v>1200</v>
       </c>
       <c r="G158" t="inlineStr">
         <is>
@@ -7945,7 +7945,7 @@
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128969457&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -7960,7 +7960,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Proyecto Fotovoltaico Azabache</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -7970,16 +7970,16 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Almeyda Solar SpA.</t>
         </is>
       </c>
       <c r="F159" t="n">
-        <v>0</v>
+        <v>140000</v>
       </c>
       <c r="G159" t="inlineStr">
         <is>
@@ -7993,7 +7993,7 @@
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128969457&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -8008,7 +8008,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>AUMENTO CAPACIDAD DE TRATAMIENTO DE EFLUENTES DE FUNDICIÓN</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -8018,16 +8018,16 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>Codelco Chile, División Chuquicamata</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F160" t="n">
-        <v>67700</v>
+        <v>0</v>
       </c>
       <c r="G160" t="inlineStr">
         <is>
@@ -8041,7 +8041,7 @@
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128952737&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
@@ -8776,7 +8776,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -8791,11 +8791,11 @@
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F176" t="n">
-        <v>12500</v>
+        <v>219</v>
       </c>
       <c r="G176" t="inlineStr">
         <is>
@@ -8804,12 +8804,12 @@
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556590&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -8824,7 +8824,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
+          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -8843,7 +8843,7 @@
         </is>
       </c>
       <c r="F177" t="n">
-        <v>10000</v>
+        <v>12500</v>
       </c>
       <c r="G177" t="inlineStr">
         <is>
@@ -8857,7 +8857,7 @@
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
@@ -8872,7 +8872,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -8887,11 +8887,11 @@
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F178" t="n">
-        <v>219</v>
+        <v>10000</v>
       </c>
       <c r="G178" t="inlineStr">
         <is>
@@ -8900,12 +8900,12 @@
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556590&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
@@ -9400,26 +9400,26 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>RT Sulfuros</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F189" t="n">
-        <v>2050</v>
+        <v>5.4</v>
       </c>
       <c r="G189" t="inlineStr">
         <is>
@@ -9428,12 +9428,12 @@
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
@@ -9448,26 +9448,26 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>RT Sulfuros</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F190" t="n">
-        <v>5.4</v>
+        <v>2050</v>
       </c>
       <c r="G190" t="inlineStr">
         <is>
@@ -9476,12 +9476,12 @@
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
@@ -10888,7 +10888,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Procesamiento de Óxidos DMH</t>
+          <t>Planta Fotovoltaica San Pedro de Atacama IV</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -10903,11 +10903,11 @@
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>División Ministro Hales de Codelco Chile</t>
+          <t>GPG Solar Chile 2017 SpA</t>
         </is>
       </c>
       <c r="F220" t="n">
-        <v>70000</v>
+        <v>105250</v>
       </c>
       <c r="G220" t="inlineStr">
         <is>
@@ -10921,7 +10921,7 @@
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7040302&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7052315&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J220" t="inlineStr">
@@ -10936,7 +10936,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Planta Fotovoltaica San Pedro de Atacama IV</t>
+          <t>Procesamiento de Óxidos DMH</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -10951,11 +10951,11 @@
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>GPG Solar Chile 2017 SpA</t>
+          <t>División Ministro Hales de Codelco Chile</t>
         </is>
       </c>
       <c r="F221" t="n">
-        <v>105250</v>
+        <v>70000</v>
       </c>
       <c r="G221" t="inlineStr">
         <is>
@@ -10969,7 +10969,7 @@
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7052315&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7040302&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">
@@ -13048,7 +13048,7 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>Portal del Inca</t>
+          <t>Línea de Transmisión Eléctrica 220 kv Encuentro - MH</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
@@ -13063,11 +13063,11 @@
       </c>
       <c r="E265" t="inlineStr">
         <is>
-          <t>Inmobiliaria Inca Dos Ltda.</t>
+          <t>División Ministro Hales de Codelco Chile</t>
         </is>
       </c>
       <c r="F265" t="n">
-        <v>13948</v>
+        <v>45000</v>
       </c>
       <c r="G265" t="inlineStr">
         <is>
@@ -13076,12 +13076,12 @@
       </c>
       <c r="H265" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I265" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5787635&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5773970&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J265" t="inlineStr">
@@ -13096,7 +13096,7 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Eléctrica 220 kv Encuentro - MH</t>
+          <t>Portal del Inca</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
@@ -13111,11 +13111,11 @@
       </c>
       <c r="E266" t="inlineStr">
         <is>
-          <t>División Ministro Hales de Codelco Chile</t>
+          <t>Inmobiliaria Inca Dos Ltda.</t>
         </is>
       </c>
       <c r="F266" t="n">
-        <v>45000</v>
+        <v>13948</v>
       </c>
       <c r="G266" t="inlineStr">
         <is>
@@ -13124,12 +13124,12 @@
       </c>
       <c r="H266" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I266" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5773970&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5787635&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J266" t="inlineStr">
@@ -13864,7 +13864,7 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
@@ -13879,11 +13879,11 @@
       </c>
       <c r="E282" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F282" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G282" t="inlineStr">
         <is>
@@ -13892,12 +13892,12 @@
       </c>
       <c r="H282" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I282" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J282" t="inlineStr">
@@ -13912,7 +13912,7 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
@@ -13927,11 +13927,11 @@
       </c>
       <c r="E283" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F283" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G283" t="inlineStr">
         <is>
@@ -13940,12 +13940,12 @@
       </c>
       <c r="H283" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I283" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J283" t="inlineStr">
@@ -19720,7 +19720,7 @@
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>Proyecto Explotación Subterránea Mina Santa Rosa (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C404" t="inlineStr">
@@ -19730,16 +19730,16 @@
       </c>
       <c r="D404" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E404" t="inlineStr">
         <is>
-          <t>Minera Quimal.S.A.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F404" t="n">
-        <v>500</v>
+        <v>1750</v>
       </c>
       <c r="G404" t="inlineStr">
         <is>
@@ -19748,12 +19748,12 @@
       </c>
       <c r="H404" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I404" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3310659&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J404" t="inlineStr">
@@ -19768,7 +19768,7 @@
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Proyecto Explotación Subterránea Mina Santa Rosa (e-seia)</t>
         </is>
       </c>
       <c r="C405" t="inlineStr">
@@ -19778,16 +19778,16 @@
       </c>
       <c r="D405" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E405" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Minera Quimal.S.A.</t>
         </is>
       </c>
       <c r="F405" t="n">
-        <v>1750</v>
+        <v>500</v>
       </c>
       <c r="G405" t="inlineStr">
         <is>
@@ -19796,12 +19796,12 @@
       </c>
       <c r="H405" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I405" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3310659&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J405" t="inlineStr">
@@ -20248,7 +20248,7 @@
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>Tratamiento de Impurezas en Ánodos y Cátodos de División Codelco Norte (e-seia)</t>
         </is>
       </c>
       <c r="C415" t="inlineStr">
@@ -20258,16 +20258,16 @@
       </c>
       <c r="D415" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E415" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Codelco Chile, División Chuquicamata</t>
         </is>
       </c>
       <c r="F415" t="n">
-        <v>250</v>
+        <v>50000</v>
       </c>
       <c r="G415" t="inlineStr">
         <is>
@@ -20276,12 +20276,12 @@
       </c>
       <c r="H415" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I415" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3118819&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J415" t="inlineStr">
@@ -20296,7 +20296,7 @@
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>Tratamiento de Impurezas en Ánodos y Cátodos de División Codelco Norte (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C416" t="inlineStr">
@@ -20306,16 +20306,16 @@
       </c>
       <c r="D416" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E416" t="inlineStr">
         <is>
-          <t>Codelco Chile, División Chuquicamata</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F416" t="n">
-        <v>50000</v>
+        <v>250</v>
       </c>
       <c r="G416" t="inlineStr">
         <is>
@@ -20324,12 +20324,12 @@
       </c>
       <c r="H416" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I416" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3118819&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J416" t="inlineStr">
@@ -23464,26 +23464,26 @@
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
+          <t>LIXIVIACIÓN DE SULFUROS SULFOLIX</t>
         </is>
       </c>
       <c r="C482" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D482" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E482" t="inlineStr">
         <is>
-          <t>Empresa de Residuos RESITER S.A.</t>
+          <t>SOCIEDAD CONTRACTUAL MINERA EL ABRA</t>
         </is>
       </c>
       <c r="F482" t="n">
-        <v>1</v>
+        <v>343000</v>
       </c>
       <c r="G482" t="inlineStr">
         <is>
@@ -23497,7 +23497,7 @@
       </c>
       <c r="I482" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2088630&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J482" t="inlineStr">
@@ -23512,26 +23512,26 @@
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>LIXIVIACIÓN DE SULFUROS SULFOLIX</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C483" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D483" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E483" t="inlineStr">
         <is>
-          <t>SOCIEDAD CONTRACTUAL MINERA EL ABRA</t>
+          <t>Empresa de Residuos RESITER S.A.</t>
         </is>
       </c>
       <c r="F483" t="n">
-        <v>343000</v>
+        <v>1</v>
       </c>
       <c r="G483" t="inlineStr">
         <is>
@@ -23545,7 +23545,7 @@
       </c>
       <c r="I483" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2088630&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J483" t="inlineStr">

--- a/data/Calama.xlsx
+++ b/data/Calama.xlsx
@@ -3880,7 +3880,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>MODIFICACIONES AL PROYECTO EXTRACCIÓN Y MOVIMIENTO DE MINERALES MINA RADOMIRO TOMIC</t>
+          <t>Parque Fotovoltaico Verano de San Juan I</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3895,11 +3895,11 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Victoria Solar SpA</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>208848</v>
+        <v>15000</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
@@ -3908,12 +3908,12 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138513102&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138522682&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -3928,7 +3928,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Verano de San Juan I</t>
+          <t>Parque Fotovoltaico Verano de San Juan II</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3943,7 +3943,7 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Victoria Solar SpA</t>
+          <t>Paine Energy SpA</t>
         </is>
       </c>
       <c r="F75" t="n">
@@ -3961,7 +3961,7 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138522682&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138526892&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3976,7 +3976,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Verano de San Juan II</t>
+          <t>MODIFICACIONES AL PROYECTO EXTRACCIÓN Y MOVIMIENTO DE MINERALES MINA RADOMIRO TOMIC</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3991,11 +3991,11 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Paine Energy SpA</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>15000</v>
+        <v>208848</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
@@ -4004,12 +4004,12 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138526892&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138513102&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -7864,7 +7864,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>AUMENTO CAPACIDAD DE TRATAMIENTO DE EFLUENTES DE FUNDICIÓN</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -7874,16 +7874,16 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>Codelco Chile, División Chuquicamata</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F157" t="n">
-        <v>67700</v>
+        <v>1200</v>
       </c>
       <c r="G157" t="inlineStr">
         <is>
@@ -7897,7 +7897,7 @@
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128952737&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -7912,7 +7912,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Proyecto Fotovoltaico Azabache</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -7922,16 +7922,16 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>Almeyda Solar SpA.</t>
         </is>
       </c>
       <c r="F158" t="n">
-        <v>1200</v>
+        <v>140000</v>
       </c>
       <c r="G158" t="inlineStr">
         <is>
@@ -7945,7 +7945,7 @@
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128969457&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -7960,7 +7960,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Proyecto Fotovoltaico Azabache</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -7970,16 +7970,16 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>Almeyda Solar SpA.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F159" t="n">
-        <v>140000</v>
+        <v>0</v>
       </c>
       <c r="G159" t="inlineStr">
         <is>
@@ -7993,7 +7993,7 @@
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128969457&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -8008,7 +8008,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>AUMENTO CAPACIDAD DE TRATAMIENTO DE EFLUENTES DE FUNDICIÓN</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -8018,16 +8018,16 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Codelco Chile, División Chuquicamata</t>
         </is>
       </c>
       <c r="F160" t="n">
-        <v>0</v>
+        <v>67700</v>
       </c>
       <c r="G160" t="inlineStr">
         <is>
@@ -8041,7 +8041,7 @@
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128952737&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
@@ -8776,7 +8776,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -8791,11 +8791,11 @@
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F176" t="n">
-        <v>219</v>
+        <v>12500</v>
       </c>
       <c r="G176" t="inlineStr">
         <is>
@@ -8804,12 +8804,12 @@
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556590&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -8824,7 +8824,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -8843,7 +8843,7 @@
         </is>
       </c>
       <c r="F177" t="n">
-        <v>12500</v>
+        <v>10000</v>
       </c>
       <c r="G177" t="inlineStr">
         <is>
@@ -8857,7 +8857,7 @@
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
@@ -8872,7 +8872,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -8887,11 +8887,11 @@
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F178" t="n">
-        <v>10000</v>
+        <v>219</v>
       </c>
       <c r="G178" t="inlineStr">
         <is>
@@ -8900,12 +8900,12 @@
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556590&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
@@ -9400,26 +9400,26 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>RT Sulfuros</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F189" t="n">
-        <v>5.4</v>
+        <v>2050</v>
       </c>
       <c r="G189" t="inlineStr">
         <is>
@@ -9428,12 +9428,12 @@
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
@@ -9448,26 +9448,26 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>RT Sulfuros</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F190" t="n">
-        <v>2050</v>
+        <v>5.4</v>
       </c>
       <c r="G190" t="inlineStr">
         <is>
@@ -9476,12 +9476,12 @@
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
@@ -10888,7 +10888,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Planta Fotovoltaica San Pedro de Atacama IV</t>
+          <t>Procesamiento de Óxidos DMH</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -10903,11 +10903,11 @@
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>GPG Solar Chile 2017 SpA</t>
+          <t>División Ministro Hales de Codelco Chile</t>
         </is>
       </c>
       <c r="F220" t="n">
-        <v>105250</v>
+        <v>70000</v>
       </c>
       <c r="G220" t="inlineStr">
         <is>
@@ -10921,7 +10921,7 @@
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7052315&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7040302&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J220" t="inlineStr">
@@ -10936,7 +10936,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Procesamiento de Óxidos DMH</t>
+          <t>Planta Fotovoltaica San Pedro de Atacama IV</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -10951,11 +10951,11 @@
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>División Ministro Hales de Codelco Chile</t>
+          <t>GPG Solar Chile 2017 SpA</t>
         </is>
       </c>
       <c r="F221" t="n">
-        <v>70000</v>
+        <v>105250</v>
       </c>
       <c r="G221" t="inlineStr">
         <is>
@@ -10969,7 +10969,7 @@
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7040302&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7052315&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">
@@ -13048,7 +13048,7 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Eléctrica 220 kv Encuentro - MH</t>
+          <t>Portal del Inca</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
@@ -13063,11 +13063,11 @@
       </c>
       <c r="E265" t="inlineStr">
         <is>
-          <t>División Ministro Hales de Codelco Chile</t>
+          <t>Inmobiliaria Inca Dos Ltda.</t>
         </is>
       </c>
       <c r="F265" t="n">
-        <v>45000</v>
+        <v>13948</v>
       </c>
       <c r="G265" t="inlineStr">
         <is>
@@ -13076,12 +13076,12 @@
       </c>
       <c r="H265" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I265" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5773970&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5787635&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J265" t="inlineStr">
@@ -13096,7 +13096,7 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>Portal del Inca</t>
+          <t>Línea de Transmisión Eléctrica 220 kv Encuentro - MH</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
@@ -13111,11 +13111,11 @@
       </c>
       <c r="E266" t="inlineStr">
         <is>
-          <t>Inmobiliaria Inca Dos Ltda.</t>
+          <t>División Ministro Hales de Codelco Chile</t>
         </is>
       </c>
       <c r="F266" t="n">
-        <v>13948</v>
+        <v>45000</v>
       </c>
       <c r="G266" t="inlineStr">
         <is>
@@ -13124,12 +13124,12 @@
       </c>
       <c r="H266" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I266" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5787635&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5773970&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J266" t="inlineStr">
@@ -13864,7 +13864,7 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
@@ -13879,11 +13879,11 @@
       </c>
       <c r="E282" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F282" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G282" t="inlineStr">
         <is>
@@ -13892,12 +13892,12 @@
       </c>
       <c r="H282" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I282" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J282" t="inlineStr">
@@ -13912,7 +13912,7 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
@@ -13927,11 +13927,11 @@
       </c>
       <c r="E283" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F283" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G283" t="inlineStr">
         <is>
@@ -13940,12 +13940,12 @@
       </c>
       <c r="H283" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I283" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J283" t="inlineStr">
@@ -19720,7 +19720,7 @@
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Proyecto Explotación Subterránea Mina Santa Rosa (e-seia)</t>
         </is>
       </c>
       <c r="C404" t="inlineStr">
@@ -19730,16 +19730,16 @@
       </c>
       <c r="D404" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E404" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Minera Quimal.S.A.</t>
         </is>
       </c>
       <c r="F404" t="n">
-        <v>1750</v>
+        <v>500</v>
       </c>
       <c r="G404" t="inlineStr">
         <is>
@@ -19748,12 +19748,12 @@
       </c>
       <c r="H404" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I404" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3310659&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J404" t="inlineStr">
@@ -19768,7 +19768,7 @@
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>Proyecto Explotación Subterránea Mina Santa Rosa (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C405" t="inlineStr">
@@ -19778,16 +19778,16 @@
       </c>
       <c r="D405" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E405" t="inlineStr">
         <is>
-          <t>Minera Quimal.S.A.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F405" t="n">
-        <v>500</v>
+        <v>1750</v>
       </c>
       <c r="G405" t="inlineStr">
         <is>
@@ -19796,12 +19796,12 @@
       </c>
       <c r="H405" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I405" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3310659&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J405" t="inlineStr">
@@ -20248,7 +20248,7 @@
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>Tratamiento de Impurezas en Ánodos y Cátodos de División Codelco Norte (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C415" t="inlineStr">
@@ -20258,16 +20258,16 @@
       </c>
       <c r="D415" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E415" t="inlineStr">
         <is>
-          <t>Codelco Chile, División Chuquicamata</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F415" t="n">
-        <v>50000</v>
+        <v>250</v>
       </c>
       <c r="G415" t="inlineStr">
         <is>
@@ -20276,12 +20276,12 @@
       </c>
       <c r="H415" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I415" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3118819&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J415" t="inlineStr">
@@ -20296,7 +20296,7 @@
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>Tratamiento de Impurezas en Ánodos y Cátodos de División Codelco Norte (e-seia)</t>
         </is>
       </c>
       <c r="C416" t="inlineStr">
@@ -20306,16 +20306,16 @@
       </c>
       <c r="D416" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E416" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Codelco Chile, División Chuquicamata</t>
         </is>
       </c>
       <c r="F416" t="n">
-        <v>250</v>
+        <v>50000</v>
       </c>
       <c r="G416" t="inlineStr">
         <is>
@@ -20324,12 +20324,12 @@
       </c>
       <c r="H416" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I416" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3118819&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J416" t="inlineStr">
@@ -23464,26 +23464,26 @@
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>LIXIVIACIÓN DE SULFUROS SULFOLIX</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C482" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D482" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E482" t="inlineStr">
         <is>
-          <t>SOCIEDAD CONTRACTUAL MINERA EL ABRA</t>
+          <t>Empresa de Residuos RESITER S.A.</t>
         </is>
       </c>
       <c r="F482" t="n">
-        <v>343000</v>
+        <v>1</v>
       </c>
       <c r="G482" t="inlineStr">
         <is>
@@ -23497,7 +23497,7 @@
       </c>
       <c r="I482" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2088630&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J482" t="inlineStr">
@@ -23512,26 +23512,26 @@
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
+          <t>LIXIVIACIÓN DE SULFUROS SULFOLIX</t>
         </is>
       </c>
       <c r="C483" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D483" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E483" t="inlineStr">
         <is>
-          <t>Empresa de Residuos RESITER S.A.</t>
+          <t>SOCIEDAD CONTRACTUAL MINERA EL ABRA</t>
         </is>
       </c>
       <c r="F483" t="n">
-        <v>1</v>
+        <v>343000</v>
       </c>
       <c r="G483" t="inlineStr">
         <is>
@@ -23545,7 +23545,7 @@
       </c>
       <c r="I483" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2088630&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J483" t="inlineStr">

--- a/data/Calama.xlsx
+++ b/data/Calama.xlsx
@@ -1220,7 +1220,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -3880,7 +3880,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Verano de San Juan I</t>
+          <t>MODIFICACIONES AL PROYECTO EXTRACCIÓN Y MOVIMIENTO DE MINERALES MINA RADOMIRO TOMIC</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3895,11 +3895,11 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Victoria Solar SpA</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>15000</v>
+        <v>208848</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
@@ -3908,12 +3908,12 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138522682&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138513102&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -3928,7 +3928,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Verano de San Juan II</t>
+          <t>Parque Fotovoltaico Verano de San Juan I</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3943,7 +3943,7 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Paine Energy SpA</t>
+          <t>Victoria Solar SpA</t>
         </is>
       </c>
       <c r="F75" t="n">
@@ -3961,7 +3961,7 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138526892&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138522682&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3976,7 +3976,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>MODIFICACIONES AL PROYECTO EXTRACCIÓN Y MOVIMIENTO DE MINERALES MINA RADOMIRO TOMIC</t>
+          <t>Parque Fotovoltaico Verano de San Juan II</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3991,11 +3991,11 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Paine Energy SpA</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>208848</v>
+        <v>15000</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
@@ -4004,12 +4004,12 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138513102&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138526892&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -7864,7 +7864,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>AUMENTO CAPACIDAD DE TRATAMIENTO DE EFLUENTES DE FUNDICIÓN</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -7874,16 +7874,16 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>Codelco Chile, División Chuquicamata</t>
         </is>
       </c>
       <c r="F157" t="n">
-        <v>1200</v>
+        <v>67700</v>
       </c>
       <c r="G157" t="inlineStr">
         <is>
@@ -7897,7 +7897,7 @@
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128952737&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -7912,7 +7912,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Proyecto Fotovoltaico Azabache</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -7922,16 +7922,16 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>Almeyda Solar SpA.</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F158" t="n">
-        <v>140000</v>
+        <v>1200</v>
       </c>
       <c r="G158" t="inlineStr">
         <is>
@@ -7945,7 +7945,7 @@
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128969457&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -7960,7 +7960,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Proyecto Fotovoltaico Azabache</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -7970,16 +7970,16 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Almeyda Solar SpA.</t>
         </is>
       </c>
       <c r="F159" t="n">
-        <v>0</v>
+        <v>140000</v>
       </c>
       <c r="G159" t="inlineStr">
         <is>
@@ -7993,7 +7993,7 @@
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128969457&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -8008,7 +8008,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>AUMENTO CAPACIDAD DE TRATAMIENTO DE EFLUENTES DE FUNDICIÓN</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -8018,16 +8018,16 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>Codelco Chile, División Chuquicamata</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F160" t="n">
-        <v>67700</v>
+        <v>0</v>
       </c>
       <c r="G160" t="inlineStr">
         <is>
@@ -8041,7 +8041,7 @@
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128952737&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
@@ -8776,7 +8776,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -8791,11 +8791,11 @@
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F176" t="n">
-        <v>12500</v>
+        <v>219</v>
       </c>
       <c r="G176" t="inlineStr">
         <is>
@@ -8804,12 +8804,12 @@
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556590&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -8824,7 +8824,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
+          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -8843,7 +8843,7 @@
         </is>
       </c>
       <c r="F177" t="n">
-        <v>10000</v>
+        <v>12500</v>
       </c>
       <c r="G177" t="inlineStr">
         <is>
@@ -8857,7 +8857,7 @@
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
@@ -8872,7 +8872,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -8887,11 +8887,11 @@
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F178" t="n">
-        <v>219</v>
+        <v>10000</v>
       </c>
       <c r="G178" t="inlineStr">
         <is>
@@ -8900,12 +8900,12 @@
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556590&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
@@ -9400,26 +9400,26 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>RT Sulfuros</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F189" t="n">
-        <v>2050</v>
+        <v>5.4</v>
       </c>
       <c r="G189" t="inlineStr">
         <is>
@@ -9428,12 +9428,12 @@
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
@@ -9448,26 +9448,26 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>RT Sulfuros</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F190" t="n">
-        <v>5.4</v>
+        <v>2050</v>
       </c>
       <c r="G190" t="inlineStr">
         <is>
@@ -9476,12 +9476,12 @@
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
@@ -10888,7 +10888,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Procesamiento de Óxidos DMH</t>
+          <t>Planta Fotovoltaica San Pedro de Atacama IV</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -10903,11 +10903,11 @@
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>División Ministro Hales de Codelco Chile</t>
+          <t>GPG Solar Chile 2017 SpA</t>
         </is>
       </c>
       <c r="F220" t="n">
-        <v>70000</v>
+        <v>105250</v>
       </c>
       <c r="G220" t="inlineStr">
         <is>
@@ -10921,7 +10921,7 @@
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7040302&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7052315&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J220" t="inlineStr">
@@ -10936,7 +10936,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Planta Fotovoltaica San Pedro de Atacama IV</t>
+          <t>Procesamiento de Óxidos DMH</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -10951,11 +10951,11 @@
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>GPG Solar Chile 2017 SpA</t>
+          <t>División Ministro Hales de Codelco Chile</t>
         </is>
       </c>
       <c r="F221" t="n">
-        <v>105250</v>
+        <v>70000</v>
       </c>
       <c r="G221" t="inlineStr">
         <is>
@@ -10969,7 +10969,7 @@
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7052315&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7040302&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">
@@ -13048,7 +13048,7 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>Portal del Inca</t>
+          <t>Línea de Transmisión Eléctrica 220 kv Encuentro - MH</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
@@ -13063,11 +13063,11 @@
       </c>
       <c r="E265" t="inlineStr">
         <is>
-          <t>Inmobiliaria Inca Dos Ltda.</t>
+          <t>División Ministro Hales de Codelco Chile</t>
         </is>
       </c>
       <c r="F265" t="n">
-        <v>13948</v>
+        <v>45000</v>
       </c>
       <c r="G265" t="inlineStr">
         <is>
@@ -13076,12 +13076,12 @@
       </c>
       <c r="H265" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I265" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5787635&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5773970&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J265" t="inlineStr">
@@ -13096,7 +13096,7 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Eléctrica 220 kv Encuentro - MH</t>
+          <t>Portal del Inca</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
@@ -13111,11 +13111,11 @@
       </c>
       <c r="E266" t="inlineStr">
         <is>
-          <t>División Ministro Hales de Codelco Chile</t>
+          <t>Inmobiliaria Inca Dos Ltda.</t>
         </is>
       </c>
       <c r="F266" t="n">
-        <v>45000</v>
+        <v>13948</v>
       </c>
       <c r="G266" t="inlineStr">
         <is>
@@ -13124,12 +13124,12 @@
       </c>
       <c r="H266" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I266" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5773970&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5787635&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J266" t="inlineStr">
@@ -13864,7 +13864,7 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
@@ -13879,11 +13879,11 @@
       </c>
       <c r="E282" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F282" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G282" t="inlineStr">
         <is>
@@ -13892,12 +13892,12 @@
       </c>
       <c r="H282" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I282" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J282" t="inlineStr">
@@ -13912,7 +13912,7 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
@@ -13927,11 +13927,11 @@
       </c>
       <c r="E283" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F283" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G283" t="inlineStr">
         <is>
@@ -13940,12 +13940,12 @@
       </c>
       <c r="H283" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I283" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J283" t="inlineStr">
@@ -19720,7 +19720,7 @@
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>Proyecto Explotación Subterránea Mina Santa Rosa (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C404" t="inlineStr">
@@ -19730,16 +19730,16 @@
       </c>
       <c r="D404" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E404" t="inlineStr">
         <is>
-          <t>Minera Quimal.S.A.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F404" t="n">
-        <v>500</v>
+        <v>1750</v>
       </c>
       <c r="G404" t="inlineStr">
         <is>
@@ -19748,12 +19748,12 @@
       </c>
       <c r="H404" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I404" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3310659&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J404" t="inlineStr">
@@ -19768,7 +19768,7 @@
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Proyecto Explotación Subterránea Mina Santa Rosa (e-seia)</t>
         </is>
       </c>
       <c r="C405" t="inlineStr">
@@ -19778,16 +19778,16 @@
       </c>
       <c r="D405" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E405" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Minera Quimal.S.A.</t>
         </is>
       </c>
       <c r="F405" t="n">
-        <v>1750</v>
+        <v>500</v>
       </c>
       <c r="G405" t="inlineStr">
         <is>
@@ -19796,12 +19796,12 @@
       </c>
       <c r="H405" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I405" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3310659&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J405" t="inlineStr">
@@ -20248,7 +20248,7 @@
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>Tratamiento de Impurezas en Ánodos y Cátodos de División Codelco Norte (e-seia)</t>
         </is>
       </c>
       <c r="C415" t="inlineStr">
@@ -20258,16 +20258,16 @@
       </c>
       <c r="D415" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E415" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Codelco Chile, División Chuquicamata</t>
         </is>
       </c>
       <c r="F415" t="n">
-        <v>250</v>
+        <v>50000</v>
       </c>
       <c r="G415" t="inlineStr">
         <is>
@@ -20276,12 +20276,12 @@
       </c>
       <c r="H415" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I415" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3118819&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J415" t="inlineStr">
@@ -20296,7 +20296,7 @@
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>Tratamiento de Impurezas en Ánodos y Cátodos de División Codelco Norte (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C416" t="inlineStr">
@@ -20306,16 +20306,16 @@
       </c>
       <c r="D416" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E416" t="inlineStr">
         <is>
-          <t>Codelco Chile, División Chuquicamata</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F416" t="n">
-        <v>50000</v>
+        <v>250</v>
       </c>
       <c r="G416" t="inlineStr">
         <is>
@@ -20324,12 +20324,12 @@
       </c>
       <c r="H416" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I416" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3118819&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J416" t="inlineStr">
@@ -23464,26 +23464,26 @@
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
+          <t>LIXIVIACIÓN DE SULFUROS SULFOLIX</t>
         </is>
       </c>
       <c r="C482" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D482" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E482" t="inlineStr">
         <is>
-          <t>Empresa de Residuos RESITER S.A.</t>
+          <t>SOCIEDAD CONTRACTUAL MINERA EL ABRA</t>
         </is>
       </c>
       <c r="F482" t="n">
-        <v>1</v>
+        <v>343000</v>
       </c>
       <c r="G482" t="inlineStr">
         <is>
@@ -23497,7 +23497,7 @@
       </c>
       <c r="I482" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2088630&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J482" t="inlineStr">
@@ -23512,26 +23512,26 @@
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>LIXIVIACIÓN DE SULFUROS SULFOLIX</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C483" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D483" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E483" t="inlineStr">
         <is>
-          <t>SOCIEDAD CONTRACTUAL MINERA EL ABRA</t>
+          <t>Empresa de Residuos RESITER S.A.</t>
         </is>
       </c>
       <c r="F483" t="n">
-        <v>343000</v>
+        <v>1</v>
       </c>
       <c r="G483" t="inlineStr">
         <is>
@@ -23545,7 +23545,7 @@
       </c>
       <c r="I483" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2088630&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J483" t="inlineStr">

--- a/data/Calama.xlsx
+++ b/data/Calama.xlsx
@@ -3880,7 +3880,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>MODIFICACIONES AL PROYECTO EXTRACCIÓN Y MOVIMIENTO DE MINERALES MINA RADOMIRO TOMIC</t>
+          <t>Parque Fotovoltaico Verano de San Juan I</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3895,11 +3895,11 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Victoria Solar SpA</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>208848</v>
+        <v>15000</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
@@ -3908,12 +3908,12 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138513102&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138522682&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -3928,7 +3928,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Verano de San Juan I</t>
+          <t>Parque Fotovoltaico Verano de San Juan II</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3943,7 +3943,7 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Victoria Solar SpA</t>
+          <t>Paine Energy SpA</t>
         </is>
       </c>
       <c r="F75" t="n">
@@ -3961,7 +3961,7 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138522682&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138526892&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3976,7 +3976,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Verano de San Juan II</t>
+          <t>MODIFICACIONES AL PROYECTO EXTRACCIÓN Y MOVIMIENTO DE MINERALES MINA RADOMIRO TOMIC</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3991,11 +3991,11 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Paine Energy SpA</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>15000</v>
+        <v>208848</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
@@ -4004,12 +4004,12 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138526892&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138513102&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -7864,7 +7864,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>AUMENTO CAPACIDAD DE TRATAMIENTO DE EFLUENTES DE FUNDICIÓN</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -7874,16 +7874,16 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>Codelco Chile, División Chuquicamata</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F157" t="n">
-        <v>67700</v>
+        <v>1200</v>
       </c>
       <c r="G157" t="inlineStr">
         <is>
@@ -7897,7 +7897,7 @@
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128952737&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -7912,7 +7912,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Proyecto Fotovoltaico Azabache</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -7922,16 +7922,16 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>Almeyda Solar SpA.</t>
         </is>
       </c>
       <c r="F158" t="n">
-        <v>1200</v>
+        <v>140000</v>
       </c>
       <c r="G158" t="inlineStr">
         <is>
@@ -7945,7 +7945,7 @@
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128969457&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -7960,7 +7960,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Proyecto Fotovoltaico Azabache</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -7970,16 +7970,16 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>Almeyda Solar SpA.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F159" t="n">
-        <v>140000</v>
+        <v>0</v>
       </c>
       <c r="G159" t="inlineStr">
         <is>
@@ -7993,7 +7993,7 @@
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128969457&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -8008,7 +8008,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>BARRIO CONTRATISTA GERENCIA DE PROYECTOS</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -8018,16 +8018,16 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Codelco Chile, División Chuquicamata</t>
         </is>
       </c>
       <c r="F160" t="n">
-        <v>0</v>
+        <v>8000</v>
       </c>
       <c r="G160" t="inlineStr">
         <is>
@@ -8041,7 +8041,7 @@
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128904823&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
@@ -8056,7 +8056,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>BARRIO CONTRATISTA GERENCIA DE PROYECTOS</t>
+          <t>AUMENTO CAPACIDAD DE TRATAMIENTO DE EFLUENTES DE FUNDICIÓN</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -8075,7 +8075,7 @@
         </is>
       </c>
       <c r="F161" t="n">
-        <v>8000</v>
+        <v>67700</v>
       </c>
       <c r="G161" t="inlineStr">
         <is>
@@ -8089,7 +8089,7 @@
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128904823&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128952737&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
@@ -8104,7 +8104,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Remodelación Parque El Loa</t>
+          <t>Aumento Áreas de Lixiviación, sector Quebrada Portezuelo</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -8119,11 +8119,11 @@
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Calama</t>
+          <t>Codelco Chile, División Chuquicamata</t>
         </is>
       </c>
       <c r="F162" t="n">
-        <v>9074</v>
+        <v>5888</v>
       </c>
       <c r="G162" t="inlineStr">
         <is>
@@ -8137,7 +8137,7 @@
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128906904&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128955081&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
@@ -8152,7 +8152,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Aumento Áreas de Lixiviación, sector Quebrada Portezuelo</t>
+          <t>Remodelación Parque El Loa</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -8167,11 +8167,11 @@
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>Codelco Chile, División Chuquicamata</t>
+          <t>Ilustre Municipalidad de Calama</t>
         </is>
       </c>
       <c r="F163" t="n">
-        <v>5888</v>
+        <v>9074</v>
       </c>
       <c r="G163" t="inlineStr">
         <is>
@@ -8185,7 +8185,7 @@
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128955081&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128906904&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -8776,7 +8776,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -8791,11 +8791,11 @@
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F176" t="n">
-        <v>219</v>
+        <v>12500</v>
       </c>
       <c r="G176" t="inlineStr">
         <is>
@@ -8804,12 +8804,12 @@
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556590&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -8824,7 +8824,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -8843,7 +8843,7 @@
         </is>
       </c>
       <c r="F177" t="n">
-        <v>12500</v>
+        <v>10000</v>
       </c>
       <c r="G177" t="inlineStr">
         <is>
@@ -8857,7 +8857,7 @@
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
@@ -8872,7 +8872,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -8887,11 +8887,11 @@
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F178" t="n">
-        <v>10000</v>
+        <v>219</v>
       </c>
       <c r="G178" t="inlineStr">
         <is>
@@ -8900,12 +8900,12 @@
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556590&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
@@ -9400,26 +9400,26 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>RT Sulfuros</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F189" t="n">
-        <v>5.4</v>
+        <v>2050</v>
       </c>
       <c r="G189" t="inlineStr">
         <is>
@@ -9428,12 +9428,12 @@
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
@@ -9448,26 +9448,26 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>RT Sulfuros</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F190" t="n">
-        <v>2050</v>
+        <v>5.4</v>
       </c>
       <c r="G190" t="inlineStr">
         <is>
@@ -9476,12 +9476,12 @@
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
@@ -10888,7 +10888,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Planta Fotovoltaica San Pedro de Atacama IV</t>
+          <t>Procesamiento de Óxidos DMH</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -10903,11 +10903,11 @@
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>GPG Solar Chile 2017 SpA</t>
+          <t>División Ministro Hales de Codelco Chile</t>
         </is>
       </c>
       <c r="F220" t="n">
-        <v>105250</v>
+        <v>70000</v>
       </c>
       <c r="G220" t="inlineStr">
         <is>
@@ -10921,7 +10921,7 @@
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7052315&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7040302&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J220" t="inlineStr">
@@ -10936,7 +10936,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Procesamiento de Óxidos DMH</t>
+          <t>Planta Fotovoltaica San Pedro de Atacama IV</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -10951,11 +10951,11 @@
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>División Ministro Hales de Codelco Chile</t>
+          <t>GPG Solar Chile 2017 SpA</t>
         </is>
       </c>
       <c r="F221" t="n">
-        <v>70000</v>
+        <v>105250</v>
       </c>
       <c r="G221" t="inlineStr">
         <is>
@@ -10969,7 +10969,7 @@
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7040302&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7052315&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">
@@ -13048,7 +13048,7 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Eléctrica 220 kv Encuentro - MH</t>
+          <t>Portal del Inca</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
@@ -13063,11 +13063,11 @@
       </c>
       <c r="E265" t="inlineStr">
         <is>
-          <t>División Ministro Hales de Codelco Chile</t>
+          <t>Inmobiliaria Inca Dos Ltda.</t>
         </is>
       </c>
       <c r="F265" t="n">
-        <v>45000</v>
+        <v>13948</v>
       </c>
       <c r="G265" t="inlineStr">
         <is>
@@ -13076,12 +13076,12 @@
       </c>
       <c r="H265" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I265" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5773970&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5787635&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J265" t="inlineStr">
@@ -13096,7 +13096,7 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>Portal del Inca</t>
+          <t>Línea de Transmisión Eléctrica 220 kv Encuentro - MH</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
@@ -13111,11 +13111,11 @@
       </c>
       <c r="E266" t="inlineStr">
         <is>
-          <t>Inmobiliaria Inca Dos Ltda.</t>
+          <t>División Ministro Hales de Codelco Chile</t>
         </is>
       </c>
       <c r="F266" t="n">
-        <v>13948</v>
+        <v>45000</v>
       </c>
       <c r="G266" t="inlineStr">
         <is>
@@ -13124,12 +13124,12 @@
       </c>
       <c r="H266" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I266" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5787635&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5773970&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J266" t="inlineStr">
@@ -13864,7 +13864,7 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
@@ -13879,11 +13879,11 @@
       </c>
       <c r="E282" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F282" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G282" t="inlineStr">
         <is>
@@ -13892,12 +13892,12 @@
       </c>
       <c r="H282" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I282" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J282" t="inlineStr">
@@ -13912,7 +13912,7 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
@@ -13927,11 +13927,11 @@
       </c>
       <c r="E283" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F283" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G283" t="inlineStr">
         <is>
@@ -13940,12 +13940,12 @@
       </c>
       <c r="H283" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I283" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J283" t="inlineStr">
@@ -19720,7 +19720,7 @@
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Proyecto Explotación Subterránea Mina Santa Rosa (e-seia)</t>
         </is>
       </c>
       <c r="C404" t="inlineStr">
@@ -19730,16 +19730,16 @@
       </c>
       <c r="D404" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E404" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Minera Quimal.S.A.</t>
         </is>
       </c>
       <c r="F404" t="n">
-        <v>1750</v>
+        <v>500</v>
       </c>
       <c r="G404" t="inlineStr">
         <is>
@@ -19748,12 +19748,12 @@
       </c>
       <c r="H404" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I404" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3310659&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J404" t="inlineStr">
@@ -19768,7 +19768,7 @@
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>Proyecto Explotación Subterránea Mina Santa Rosa (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C405" t="inlineStr">
@@ -19778,16 +19778,16 @@
       </c>
       <c r="D405" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E405" t="inlineStr">
         <is>
-          <t>Minera Quimal.S.A.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F405" t="n">
-        <v>500</v>
+        <v>1750</v>
       </c>
       <c r="G405" t="inlineStr">
         <is>
@@ -19796,12 +19796,12 @@
       </c>
       <c r="H405" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I405" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3310659&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J405" t="inlineStr">
@@ -20248,7 +20248,7 @@
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>Tratamiento de Impurezas en Ánodos y Cátodos de División Codelco Norte (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C415" t="inlineStr">
@@ -20258,16 +20258,16 @@
       </c>
       <c r="D415" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E415" t="inlineStr">
         <is>
-          <t>Codelco Chile, División Chuquicamata</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F415" t="n">
-        <v>50000</v>
+        <v>250</v>
       </c>
       <c r="G415" t="inlineStr">
         <is>
@@ -20276,12 +20276,12 @@
       </c>
       <c r="H415" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I415" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3118819&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J415" t="inlineStr">
@@ -20296,7 +20296,7 @@
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>Tratamiento de Impurezas en Ánodos y Cátodos de División Codelco Norte (e-seia)</t>
         </is>
       </c>
       <c r="C416" t="inlineStr">
@@ -20306,16 +20306,16 @@
       </c>
       <c r="D416" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E416" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Codelco Chile, División Chuquicamata</t>
         </is>
       </c>
       <c r="F416" t="n">
-        <v>250</v>
+        <v>50000</v>
       </c>
       <c r="G416" t="inlineStr">
         <is>
@@ -20324,12 +20324,12 @@
       </c>
       <c r="H416" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I416" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3118819&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J416" t="inlineStr">
@@ -23464,26 +23464,26 @@
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>LIXIVIACIÓN DE SULFUROS SULFOLIX</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C482" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D482" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E482" t="inlineStr">
         <is>
-          <t>SOCIEDAD CONTRACTUAL MINERA EL ABRA</t>
+          <t>Empresa de Residuos RESITER S.A.</t>
         </is>
       </c>
       <c r="F482" t="n">
-        <v>343000</v>
+        <v>1</v>
       </c>
       <c r="G482" t="inlineStr">
         <is>
@@ -23497,7 +23497,7 @@
       </c>
       <c r="I482" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2088630&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J482" t="inlineStr">
@@ -23512,26 +23512,26 @@
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
+          <t>LIXIVIACIÓN DE SULFUROS SULFOLIX</t>
         </is>
       </c>
       <c r="C483" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D483" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E483" t="inlineStr">
         <is>
-          <t>Empresa de Residuos RESITER S.A.</t>
+          <t>SOCIEDAD CONTRACTUAL MINERA EL ABRA</t>
         </is>
       </c>
       <c r="F483" t="n">
-        <v>1</v>
+        <v>343000</v>
       </c>
       <c r="G483" t="inlineStr">
         <is>
@@ -23545,7 +23545,7 @@
       </c>
       <c r="I483" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2088630&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J483" t="inlineStr">

--- a/data/Calama.xlsx
+++ b/data/Calama.xlsx
@@ -3880,7 +3880,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Verano de San Juan I</t>
+          <t>MODIFICACIONES AL PROYECTO EXTRACCIÓN Y MOVIMIENTO DE MINERALES MINA RADOMIRO TOMIC</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3895,11 +3895,11 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Victoria Solar SpA</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>15000</v>
+        <v>208848</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
@@ -3908,12 +3908,12 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138522682&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138513102&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -3928,7 +3928,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Verano de San Juan II</t>
+          <t>Parque Fotovoltaico Verano de San Juan I</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3943,7 +3943,7 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Paine Energy SpA</t>
+          <t>Victoria Solar SpA</t>
         </is>
       </c>
       <c r="F75" t="n">
@@ -3961,7 +3961,7 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138526892&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138522682&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3976,7 +3976,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>MODIFICACIONES AL PROYECTO EXTRACCIÓN Y MOVIMIENTO DE MINERALES MINA RADOMIRO TOMIC</t>
+          <t>Parque Fotovoltaico Verano de San Juan II</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3991,11 +3991,11 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Paine Energy SpA</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>208848</v>
+        <v>15000</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
@@ -4004,12 +4004,12 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138513102&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138526892&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -7864,7 +7864,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>AUMENTO CAPACIDAD DE TRATAMIENTO DE EFLUENTES DE FUNDICIÓN</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -7874,16 +7874,16 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>Codelco Chile, División Chuquicamata</t>
         </is>
       </c>
       <c r="F157" t="n">
-        <v>1200</v>
+        <v>67700</v>
       </c>
       <c r="G157" t="inlineStr">
         <is>
@@ -7897,7 +7897,7 @@
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128952737&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -7912,7 +7912,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Proyecto Fotovoltaico Azabache</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -7922,16 +7922,16 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>Almeyda Solar SpA.</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F158" t="n">
-        <v>140000</v>
+        <v>1200</v>
       </c>
       <c r="G158" t="inlineStr">
         <is>
@@ -7945,7 +7945,7 @@
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128969457&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -7960,7 +7960,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Proyecto Fotovoltaico Azabache</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -7970,16 +7970,16 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Almeyda Solar SpA.</t>
         </is>
       </c>
       <c r="F159" t="n">
-        <v>0</v>
+        <v>140000</v>
       </c>
       <c r="G159" t="inlineStr">
         <is>
@@ -7993,7 +7993,7 @@
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128969457&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -8008,7 +8008,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>BARRIO CONTRATISTA GERENCIA DE PROYECTOS</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -8018,16 +8018,16 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>Codelco Chile, División Chuquicamata</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F160" t="n">
-        <v>8000</v>
+        <v>0</v>
       </c>
       <c r="G160" t="inlineStr">
         <is>
@@ -8041,7 +8041,7 @@
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128904823&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
@@ -8056,7 +8056,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>AUMENTO CAPACIDAD DE TRATAMIENTO DE EFLUENTES DE FUNDICIÓN</t>
+          <t>BARRIO CONTRATISTA GERENCIA DE PROYECTOS</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -8075,7 +8075,7 @@
         </is>
       </c>
       <c r="F161" t="n">
-        <v>67700</v>
+        <v>8000</v>
       </c>
       <c r="G161" t="inlineStr">
         <is>
@@ -8089,7 +8089,7 @@
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128952737&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128904823&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
@@ -8104,7 +8104,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Aumento Áreas de Lixiviación, sector Quebrada Portezuelo</t>
+          <t>Remodelación Parque El Loa</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -8119,11 +8119,11 @@
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>Codelco Chile, División Chuquicamata</t>
+          <t>Ilustre Municipalidad de Calama</t>
         </is>
       </c>
       <c r="F162" t="n">
-        <v>5888</v>
+        <v>9074</v>
       </c>
       <c r="G162" t="inlineStr">
         <is>
@@ -8137,7 +8137,7 @@
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128955081&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128906904&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
@@ -8152,7 +8152,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Remodelación Parque El Loa</t>
+          <t>Aumento Áreas de Lixiviación, sector Quebrada Portezuelo</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -8167,11 +8167,11 @@
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Calama</t>
+          <t>Codelco Chile, División Chuquicamata</t>
         </is>
       </c>
       <c r="F163" t="n">
-        <v>9074</v>
+        <v>5888</v>
       </c>
       <c r="G163" t="inlineStr">
         <is>
@@ -8185,7 +8185,7 @@
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128906904&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128955081&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -8776,7 +8776,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -8791,11 +8791,11 @@
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F176" t="n">
-        <v>12500</v>
+        <v>219</v>
       </c>
       <c r="G176" t="inlineStr">
         <is>
@@ -8804,12 +8804,12 @@
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556590&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -8824,7 +8824,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
+          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -8843,7 +8843,7 @@
         </is>
       </c>
       <c r="F177" t="n">
-        <v>10000</v>
+        <v>12500</v>
       </c>
       <c r="G177" t="inlineStr">
         <is>
@@ -8857,7 +8857,7 @@
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
@@ -8872,7 +8872,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -8887,11 +8887,11 @@
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F178" t="n">
-        <v>219</v>
+        <v>10000</v>
       </c>
       <c r="G178" t="inlineStr">
         <is>
@@ -8900,12 +8900,12 @@
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556590&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
@@ -9400,26 +9400,26 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>RT Sulfuros</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F189" t="n">
-        <v>2050</v>
+        <v>5.4</v>
       </c>
       <c r="G189" t="inlineStr">
         <is>
@@ -9428,12 +9428,12 @@
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
@@ -9448,26 +9448,26 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>RT Sulfuros</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F190" t="n">
-        <v>5.4</v>
+        <v>2050</v>
       </c>
       <c r="G190" t="inlineStr">
         <is>
@@ -9476,12 +9476,12 @@
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
@@ -10888,7 +10888,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Procesamiento de Óxidos DMH</t>
+          <t>Planta Fotovoltaica San Pedro de Atacama IV</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -10903,11 +10903,11 @@
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>División Ministro Hales de Codelco Chile</t>
+          <t>GPG Solar Chile 2017 SpA</t>
         </is>
       </c>
       <c r="F220" t="n">
-        <v>70000</v>
+        <v>105250</v>
       </c>
       <c r="G220" t="inlineStr">
         <is>
@@ -10921,7 +10921,7 @@
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7040302&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7052315&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J220" t="inlineStr">
@@ -10936,7 +10936,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Planta Fotovoltaica San Pedro de Atacama IV</t>
+          <t>Procesamiento de Óxidos DMH</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -10951,11 +10951,11 @@
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>GPG Solar Chile 2017 SpA</t>
+          <t>División Ministro Hales de Codelco Chile</t>
         </is>
       </c>
       <c r="F221" t="n">
-        <v>105250</v>
+        <v>70000</v>
       </c>
       <c r="G221" t="inlineStr">
         <is>
@@ -10969,7 +10969,7 @@
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7052315&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7040302&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">
@@ -13048,7 +13048,7 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>Portal del Inca</t>
+          <t>Línea de Transmisión Eléctrica 220 kv Encuentro - MH</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
@@ -13063,11 +13063,11 @@
       </c>
       <c r="E265" t="inlineStr">
         <is>
-          <t>Inmobiliaria Inca Dos Ltda.</t>
+          <t>División Ministro Hales de Codelco Chile</t>
         </is>
       </c>
       <c r="F265" t="n">
-        <v>13948</v>
+        <v>45000</v>
       </c>
       <c r="G265" t="inlineStr">
         <is>
@@ -13076,12 +13076,12 @@
       </c>
       <c r="H265" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I265" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5787635&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5773970&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J265" t="inlineStr">
@@ -13096,7 +13096,7 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Eléctrica 220 kv Encuentro - MH</t>
+          <t>Portal del Inca</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
@@ -13111,11 +13111,11 @@
       </c>
       <c r="E266" t="inlineStr">
         <is>
-          <t>División Ministro Hales de Codelco Chile</t>
+          <t>Inmobiliaria Inca Dos Ltda.</t>
         </is>
       </c>
       <c r="F266" t="n">
-        <v>45000</v>
+        <v>13948</v>
       </c>
       <c r="G266" t="inlineStr">
         <is>
@@ -13124,12 +13124,12 @@
       </c>
       <c r="H266" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I266" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5773970&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5787635&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J266" t="inlineStr">
@@ -13864,7 +13864,7 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
@@ -13879,11 +13879,11 @@
       </c>
       <c r="E282" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F282" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G282" t="inlineStr">
         <is>
@@ -13892,12 +13892,12 @@
       </c>
       <c r="H282" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I282" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J282" t="inlineStr">
@@ -13912,7 +13912,7 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
@@ -13927,11 +13927,11 @@
       </c>
       <c r="E283" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F283" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G283" t="inlineStr">
         <is>
@@ -13940,12 +13940,12 @@
       </c>
       <c r="H283" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I283" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J283" t="inlineStr">
@@ -19720,7 +19720,7 @@
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>Proyecto Explotación Subterránea Mina Santa Rosa (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C404" t="inlineStr">
@@ -19730,16 +19730,16 @@
       </c>
       <c r="D404" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E404" t="inlineStr">
         <is>
-          <t>Minera Quimal.S.A.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F404" t="n">
-        <v>500</v>
+        <v>1750</v>
       </c>
       <c r="G404" t="inlineStr">
         <is>
@@ -19748,12 +19748,12 @@
       </c>
       <c r="H404" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I404" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3310659&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J404" t="inlineStr">
@@ -19768,7 +19768,7 @@
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Proyecto Explotación Subterránea Mina Santa Rosa (e-seia)</t>
         </is>
       </c>
       <c r="C405" t="inlineStr">
@@ -19778,16 +19778,16 @@
       </c>
       <c r="D405" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E405" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Minera Quimal.S.A.</t>
         </is>
       </c>
       <c r="F405" t="n">
-        <v>1750</v>
+        <v>500</v>
       </c>
       <c r="G405" t="inlineStr">
         <is>
@@ -19796,12 +19796,12 @@
       </c>
       <c r="H405" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I405" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3310659&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J405" t="inlineStr">
@@ -20248,7 +20248,7 @@
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>Tratamiento de Impurezas en Ánodos y Cátodos de División Codelco Norte (e-seia)</t>
         </is>
       </c>
       <c r="C415" t="inlineStr">
@@ -20258,16 +20258,16 @@
       </c>
       <c r="D415" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E415" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Codelco Chile, División Chuquicamata</t>
         </is>
       </c>
       <c r="F415" t="n">
-        <v>250</v>
+        <v>50000</v>
       </c>
       <c r="G415" t="inlineStr">
         <is>
@@ -20276,12 +20276,12 @@
       </c>
       <c r="H415" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I415" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3118819&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J415" t="inlineStr">
@@ -20296,7 +20296,7 @@
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>Tratamiento de Impurezas en Ánodos y Cátodos de División Codelco Norte (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C416" t="inlineStr">
@@ -20306,16 +20306,16 @@
       </c>
       <c r="D416" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E416" t="inlineStr">
         <is>
-          <t>Codelco Chile, División Chuquicamata</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F416" t="n">
-        <v>50000</v>
+        <v>250</v>
       </c>
       <c r="G416" t="inlineStr">
         <is>
@@ -20324,12 +20324,12 @@
       </c>
       <c r="H416" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I416" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3118819&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J416" t="inlineStr">
@@ -23464,26 +23464,26 @@
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
+          <t>LIXIVIACIÓN DE SULFUROS SULFOLIX</t>
         </is>
       </c>
       <c r="C482" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D482" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E482" t="inlineStr">
         <is>
-          <t>Empresa de Residuos RESITER S.A.</t>
+          <t>SOCIEDAD CONTRACTUAL MINERA EL ABRA</t>
         </is>
       </c>
       <c r="F482" t="n">
-        <v>1</v>
+        <v>343000</v>
       </c>
       <c r="G482" t="inlineStr">
         <is>
@@ -23497,7 +23497,7 @@
       </c>
       <c r="I482" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2088630&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J482" t="inlineStr">
@@ -23512,26 +23512,26 @@
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>LIXIVIACIÓN DE SULFUROS SULFOLIX</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C483" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D483" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E483" t="inlineStr">
         <is>
-          <t>SOCIEDAD CONTRACTUAL MINERA EL ABRA</t>
+          <t>Empresa de Residuos RESITER S.A.</t>
         </is>
       </c>
       <c r="F483" t="n">
-        <v>343000</v>
+        <v>1</v>
       </c>
       <c r="G483" t="inlineStr">
         <is>
@@ -23545,7 +23545,7 @@
       </c>
       <c r="I483" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2088630&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J483" t="inlineStr">

--- a/data/Calama.xlsx
+++ b/data/Calama.xlsx
@@ -3928,7 +3928,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>MODIFICACIONES AL PROYECTO EXTRACCIÓN Y MOVIMIENTO DE MINERALES MINA RADOMIRO TOMIC</t>
+          <t>Parque Fotovoltaico Verano de San Juan I</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3943,11 +3943,11 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Victoria Solar SpA</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>208848</v>
+        <v>15000</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
@@ -3956,12 +3956,12 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138513102&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138522682&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3976,7 +3976,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Verano de San Juan I</t>
+          <t>Parque Fotovoltaico Verano de San Juan II</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3991,7 +3991,7 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Victoria Solar SpA</t>
+          <t>Paine Energy SpA</t>
         </is>
       </c>
       <c r="F76" t="n">
@@ -4009,7 +4009,7 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138522682&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138526892&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4024,7 +4024,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Verano de San Juan II</t>
+          <t>MODIFICACIONES AL PROYECTO EXTRACCIÓN Y MOVIMIENTO DE MINERALES MINA RADOMIRO TOMIC</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4039,11 +4039,11 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Paine Energy SpA</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>15000</v>
+        <v>208848</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
@@ -4052,12 +4052,12 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138526892&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138513102&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -7912,7 +7912,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>AUMENTO CAPACIDAD DE TRATAMIENTO DE EFLUENTES DE FUNDICIÓN</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -7922,16 +7922,16 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>Codelco Chile, División Chuquicamata</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F158" t="n">
-        <v>67700</v>
+        <v>1200</v>
       </c>
       <c r="G158" t="inlineStr">
         <is>
@@ -7945,7 +7945,7 @@
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128952737&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -7960,7 +7960,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Proyecto Fotovoltaico Azabache</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -7970,16 +7970,16 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>Almeyda Solar SpA.</t>
         </is>
       </c>
       <c r="F159" t="n">
-        <v>1200</v>
+        <v>140000</v>
       </c>
       <c r="G159" t="inlineStr">
         <is>
@@ -7993,7 +7993,7 @@
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128969457&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -8008,7 +8008,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Proyecto Fotovoltaico Azabache</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -8018,16 +8018,16 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>Almeyda Solar SpA.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F160" t="n">
-        <v>140000</v>
+        <v>0</v>
       </c>
       <c r="G160" t="inlineStr">
         <is>
@@ -8041,7 +8041,7 @@
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128969457&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
@@ -8056,7 +8056,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>AUMENTO CAPACIDAD DE TRATAMIENTO DE EFLUENTES DE FUNDICIÓN</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -8066,16 +8066,16 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Codelco Chile, División Chuquicamata</t>
         </is>
       </c>
       <c r="F161" t="n">
-        <v>0</v>
+        <v>67700</v>
       </c>
       <c r="G161" t="inlineStr">
         <is>
@@ -8089,7 +8089,7 @@
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128952737&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
@@ -8824,7 +8824,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -8839,11 +8839,11 @@
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F177" t="n">
-        <v>219</v>
+        <v>12500</v>
       </c>
       <c r="G177" t="inlineStr">
         <is>
@@ -8852,12 +8852,12 @@
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556590&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
@@ -8872,7 +8872,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -8891,7 +8891,7 @@
         </is>
       </c>
       <c r="F178" t="n">
-        <v>12500</v>
+        <v>10000</v>
       </c>
       <c r="G178" t="inlineStr">
         <is>
@@ -8905,7 +8905,7 @@
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
@@ -8920,7 +8920,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -8935,11 +8935,11 @@
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F179" t="n">
-        <v>10000</v>
+        <v>219</v>
       </c>
       <c r="G179" t="inlineStr">
         <is>
@@ -8948,12 +8948,12 @@
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556590&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
@@ -9448,26 +9448,26 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>RT Sulfuros</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F190" t="n">
-        <v>5.4</v>
+        <v>2050</v>
       </c>
       <c r="G190" t="inlineStr">
         <is>
@@ -9476,12 +9476,12 @@
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
@@ -9496,26 +9496,26 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>RT Sulfuros</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F191" t="n">
-        <v>2050</v>
+        <v>5.4</v>
       </c>
       <c r="G191" t="inlineStr">
         <is>
@@ -9524,12 +9524,12 @@
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
@@ -10936,7 +10936,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Planta Fotovoltaica San Pedro de Atacama IV</t>
+          <t>Procesamiento de Óxidos DMH</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -10951,11 +10951,11 @@
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>GPG Solar Chile 2017 SpA</t>
+          <t>División Ministro Hales de Codelco Chile</t>
         </is>
       </c>
       <c r="F221" t="n">
-        <v>105250</v>
+        <v>70000</v>
       </c>
       <c r="G221" t="inlineStr">
         <is>
@@ -10969,7 +10969,7 @@
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7052315&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7040302&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">
@@ -10984,7 +10984,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Procesamiento de Óxidos DMH</t>
+          <t>Planta Fotovoltaica San Pedro de Atacama IV</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -10999,11 +10999,11 @@
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>División Ministro Hales de Codelco Chile</t>
+          <t>GPG Solar Chile 2017 SpA</t>
         </is>
       </c>
       <c r="F222" t="n">
-        <v>70000</v>
+        <v>105250</v>
       </c>
       <c r="G222" t="inlineStr">
         <is>
@@ -11017,7 +11017,7 @@
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7040302&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7052315&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J222" t="inlineStr">
@@ -13096,7 +13096,7 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Eléctrica 220 kv Encuentro - MH</t>
+          <t>Portal del Inca</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
@@ -13111,11 +13111,11 @@
       </c>
       <c r="E266" t="inlineStr">
         <is>
-          <t>División Ministro Hales de Codelco Chile</t>
+          <t>Inmobiliaria Inca Dos Ltda.</t>
         </is>
       </c>
       <c r="F266" t="n">
-        <v>45000</v>
+        <v>13948</v>
       </c>
       <c r="G266" t="inlineStr">
         <is>
@@ -13124,12 +13124,12 @@
       </c>
       <c r="H266" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I266" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5773970&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5787635&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J266" t="inlineStr">
@@ -13144,7 +13144,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>Portal del Inca</t>
+          <t>Línea de Transmisión Eléctrica 220 kv Encuentro - MH</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
@@ -13159,11 +13159,11 @@
       </c>
       <c r="E267" t="inlineStr">
         <is>
-          <t>Inmobiliaria Inca Dos Ltda.</t>
+          <t>División Ministro Hales de Codelco Chile</t>
         </is>
       </c>
       <c r="F267" t="n">
-        <v>13948</v>
+        <v>45000</v>
       </c>
       <c r="G267" t="inlineStr">
         <is>
@@ -13172,12 +13172,12 @@
       </c>
       <c r="H267" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I267" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5787635&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5773970&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J267" t="inlineStr">
@@ -13912,7 +13912,7 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
@@ -13927,11 +13927,11 @@
       </c>
       <c r="E283" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F283" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G283" t="inlineStr">
         <is>
@@ -13940,12 +13940,12 @@
       </c>
       <c r="H283" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I283" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J283" t="inlineStr">
@@ -13960,7 +13960,7 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
@@ -13975,11 +13975,11 @@
       </c>
       <c r="E284" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F284" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G284" t="inlineStr">
         <is>
@@ -13988,12 +13988,12 @@
       </c>
       <c r="H284" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I284" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J284" t="inlineStr">
@@ -19768,7 +19768,7 @@
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Proyecto Explotación Subterránea Mina Santa Rosa (e-seia)</t>
         </is>
       </c>
       <c r="C405" t="inlineStr">
@@ -19778,16 +19778,16 @@
       </c>
       <c r="D405" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E405" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Minera Quimal.S.A.</t>
         </is>
       </c>
       <c r="F405" t="n">
-        <v>1750</v>
+        <v>500</v>
       </c>
       <c r="G405" t="inlineStr">
         <is>
@@ -19796,12 +19796,12 @@
       </c>
       <c r="H405" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I405" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3310659&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J405" t="inlineStr">
@@ -19816,7 +19816,7 @@
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>Proyecto Explotación Subterránea Mina Santa Rosa (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C406" t="inlineStr">
@@ -19826,16 +19826,16 @@
       </c>
       <c r="D406" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E406" t="inlineStr">
         <is>
-          <t>Minera Quimal.S.A.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F406" t="n">
-        <v>500</v>
+        <v>1750</v>
       </c>
       <c r="G406" t="inlineStr">
         <is>
@@ -19844,12 +19844,12 @@
       </c>
       <c r="H406" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I406" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3310659&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J406" t="inlineStr">
@@ -20296,7 +20296,7 @@
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>Tratamiento de Impurezas en Ánodos y Cátodos de División Codelco Norte (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C416" t="inlineStr">
@@ -20306,16 +20306,16 @@
       </c>
       <c r="D416" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E416" t="inlineStr">
         <is>
-          <t>Codelco Chile, División Chuquicamata</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F416" t="n">
-        <v>50000</v>
+        <v>250</v>
       </c>
       <c r="G416" t="inlineStr">
         <is>
@@ -20324,12 +20324,12 @@
       </c>
       <c r="H416" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I416" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3118819&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J416" t="inlineStr">
@@ -20344,7 +20344,7 @@
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>Tratamiento de Impurezas en Ánodos y Cátodos de División Codelco Norte (e-seia)</t>
         </is>
       </c>
       <c r="C417" t="inlineStr">
@@ -20354,16 +20354,16 @@
       </c>
       <c r="D417" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E417" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Codelco Chile, División Chuquicamata</t>
         </is>
       </c>
       <c r="F417" t="n">
-        <v>250</v>
+        <v>50000</v>
       </c>
       <c r="G417" t="inlineStr">
         <is>
@@ -20372,12 +20372,12 @@
       </c>
       <c r="H417" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I417" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3118819&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J417" t="inlineStr">
@@ -20488,7 +20488,7 @@
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>Proyecto Exploración Minera Macarena - Leo (e-seia)</t>
         </is>
       </c>
       <c r="C420" t="inlineStr">
@@ -20498,16 +20498,16 @@
       </c>
       <c r="D420" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E420" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Minera Fuego Limitada</t>
         </is>
       </c>
       <c r="F420" t="n">
-        <v>1650</v>
+        <v>150</v>
       </c>
       <c r="G420" t="inlineStr">
         <is>
@@ -20521,7 +20521,7 @@
       </c>
       <c r="I420" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088992&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J420" t="inlineStr">
@@ -20536,7 +20536,7 @@
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>Proyecto Exploración Minera Macarena - Leo (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C421" t="inlineStr">
@@ -20546,16 +20546,16 @@
       </c>
       <c r="D421" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E421" t="inlineStr">
         <is>
-          <t>Minera Fuego Limitada</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F421" t="n">
-        <v>150</v>
+        <v>1650</v>
       </c>
       <c r="G421" t="inlineStr">
         <is>
@@ -20569,7 +20569,7 @@
       </c>
       <c r="I421" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088992&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J421" t="inlineStr">
@@ -23512,26 +23512,26 @@
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>LIXIVIACIÓN DE SULFUROS SULFOLIX</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C483" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D483" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E483" t="inlineStr">
         <is>
-          <t>SOCIEDAD CONTRACTUAL MINERA EL ABRA</t>
+          <t>Empresa de Residuos RESITER S.A.</t>
         </is>
       </c>
       <c r="F483" t="n">
-        <v>343000</v>
+        <v>1</v>
       </c>
       <c r="G483" t="inlineStr">
         <is>
@@ -23545,7 +23545,7 @@
       </c>
       <c r="I483" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2088630&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J483" t="inlineStr">
@@ -23560,26 +23560,26 @@
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
+          <t>LIXIVIACIÓN DE SULFUROS SULFOLIX</t>
         </is>
       </c>
       <c r="C484" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D484" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E484" t="inlineStr">
         <is>
-          <t>Empresa de Residuos RESITER S.A.</t>
+          <t>SOCIEDAD CONTRACTUAL MINERA EL ABRA</t>
         </is>
       </c>
       <c r="F484" t="n">
-        <v>1</v>
+        <v>343000</v>
       </c>
       <c r="G484" t="inlineStr">
         <is>
@@ -23593,7 +23593,7 @@
       </c>
       <c r="I484" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2088630&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J484" t="inlineStr">

--- a/data/Calama.xlsx
+++ b/data/Calama.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>15/12/2022</t>
+          <t>18/01/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Ingresados Art.94 RSEIA</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -3928,7 +3928,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Verano de San Juan I</t>
+          <t>MODIFICACIONES AL PROYECTO EXTRACCIÓN Y MOVIMIENTO DE MINERALES MINA RADOMIRO TOMIC</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3943,11 +3943,11 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Victoria Solar SpA</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>15000</v>
+        <v>208848</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
@@ -3956,12 +3956,12 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138522682&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138513102&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3976,7 +3976,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Verano de San Juan II</t>
+          <t>Parque Fotovoltaico Verano de San Juan I</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3991,7 +3991,7 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Paine Energy SpA</t>
+          <t>Victoria Solar SpA</t>
         </is>
       </c>
       <c r="F76" t="n">
@@ -4009,7 +4009,7 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138526892&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138522682&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4024,7 +4024,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>MODIFICACIONES AL PROYECTO EXTRACCIÓN Y MOVIMIENTO DE MINERALES MINA RADOMIRO TOMIC</t>
+          <t>Parque Fotovoltaico Verano de San Juan II</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4039,11 +4039,11 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Paine Energy SpA</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>208848</v>
+        <v>15000</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
@@ -4052,12 +4052,12 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138513102&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138526892&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -7912,7 +7912,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>AUMENTO CAPACIDAD DE TRATAMIENTO DE EFLUENTES DE FUNDICIÓN</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -7922,16 +7922,16 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>Codelco Chile, División Chuquicamata</t>
         </is>
       </c>
       <c r="F158" t="n">
-        <v>1200</v>
+        <v>67700</v>
       </c>
       <c r="G158" t="inlineStr">
         <is>
@@ -7945,7 +7945,7 @@
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128952737&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -7960,7 +7960,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Proyecto Fotovoltaico Azabache</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -7970,16 +7970,16 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>Almeyda Solar SpA.</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F159" t="n">
-        <v>140000</v>
+        <v>1200</v>
       </c>
       <c r="G159" t="inlineStr">
         <is>
@@ -7993,7 +7993,7 @@
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128969457&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -8008,7 +8008,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Proyecto Fotovoltaico Azabache</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -8018,16 +8018,16 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Almeyda Solar SpA.</t>
         </is>
       </c>
       <c r="F160" t="n">
-        <v>0</v>
+        <v>140000</v>
       </c>
       <c r="G160" t="inlineStr">
         <is>
@@ -8041,7 +8041,7 @@
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128969457&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
@@ -8056,7 +8056,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>AUMENTO CAPACIDAD DE TRATAMIENTO DE EFLUENTES DE FUNDICIÓN</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -8066,16 +8066,16 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>Codelco Chile, División Chuquicamata</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F161" t="n">
-        <v>67700</v>
+        <v>0</v>
       </c>
       <c r="G161" t="inlineStr">
         <is>
@@ -8089,7 +8089,7 @@
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128952737&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
@@ -8824,7 +8824,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -8839,11 +8839,11 @@
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F177" t="n">
-        <v>12500</v>
+        <v>219</v>
       </c>
       <c r="G177" t="inlineStr">
         <is>
@@ -8852,12 +8852,12 @@
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556590&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
@@ -8872,7 +8872,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
+          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -8891,7 +8891,7 @@
         </is>
       </c>
       <c r="F178" t="n">
-        <v>10000</v>
+        <v>12500</v>
       </c>
       <c r="G178" t="inlineStr">
         <is>
@@ -8905,7 +8905,7 @@
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
@@ -8920,7 +8920,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -8935,11 +8935,11 @@
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F179" t="n">
-        <v>219</v>
+        <v>10000</v>
       </c>
       <c r="G179" t="inlineStr">
         <is>
@@ -8948,12 +8948,12 @@
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556590&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
@@ -9448,26 +9448,26 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>RT Sulfuros</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F190" t="n">
-        <v>2050</v>
+        <v>5.4</v>
       </c>
       <c r="G190" t="inlineStr">
         <is>
@@ -9476,12 +9476,12 @@
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
@@ -9496,26 +9496,26 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>RT Sulfuros</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F191" t="n">
-        <v>5.4</v>
+        <v>2050</v>
       </c>
       <c r="G191" t="inlineStr">
         <is>
@@ -9524,12 +9524,12 @@
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
@@ -10936,7 +10936,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Procesamiento de Óxidos DMH</t>
+          <t>Planta Fotovoltaica San Pedro de Atacama IV</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -10951,11 +10951,11 @@
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>División Ministro Hales de Codelco Chile</t>
+          <t>GPG Solar Chile 2017 SpA</t>
         </is>
       </c>
       <c r="F221" t="n">
-        <v>70000</v>
+        <v>105250</v>
       </c>
       <c r="G221" t="inlineStr">
         <is>
@@ -10969,7 +10969,7 @@
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7040302&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7052315&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">
@@ -10984,7 +10984,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Planta Fotovoltaica San Pedro de Atacama IV</t>
+          <t>Procesamiento de Óxidos DMH</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -10999,11 +10999,11 @@
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>GPG Solar Chile 2017 SpA</t>
+          <t>División Ministro Hales de Codelco Chile</t>
         </is>
       </c>
       <c r="F222" t="n">
-        <v>105250</v>
+        <v>70000</v>
       </c>
       <c r="G222" t="inlineStr">
         <is>
@@ -11017,7 +11017,7 @@
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7052315&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7040302&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J222" t="inlineStr">
@@ -13096,7 +13096,7 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>Portal del Inca</t>
+          <t>Línea de Transmisión Eléctrica 220 kv Encuentro - MH</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
@@ -13111,11 +13111,11 @@
       </c>
       <c r="E266" t="inlineStr">
         <is>
-          <t>Inmobiliaria Inca Dos Ltda.</t>
+          <t>División Ministro Hales de Codelco Chile</t>
         </is>
       </c>
       <c r="F266" t="n">
-        <v>13948</v>
+        <v>45000</v>
       </c>
       <c r="G266" t="inlineStr">
         <is>
@@ -13124,12 +13124,12 @@
       </c>
       <c r="H266" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I266" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5787635&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5773970&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J266" t="inlineStr">
@@ -13144,7 +13144,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Eléctrica 220 kv Encuentro - MH</t>
+          <t>Portal del Inca</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
@@ -13159,11 +13159,11 @@
       </c>
       <c r="E267" t="inlineStr">
         <is>
-          <t>División Ministro Hales de Codelco Chile</t>
+          <t>Inmobiliaria Inca Dos Ltda.</t>
         </is>
       </c>
       <c r="F267" t="n">
-        <v>45000</v>
+        <v>13948</v>
       </c>
       <c r="G267" t="inlineStr">
         <is>
@@ -13172,12 +13172,12 @@
       </c>
       <c r="H267" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I267" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5773970&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5787635&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J267" t="inlineStr">
@@ -13912,7 +13912,7 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
@@ -13927,11 +13927,11 @@
       </c>
       <c r="E283" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F283" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G283" t="inlineStr">
         <is>
@@ -13940,12 +13940,12 @@
       </c>
       <c r="H283" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I283" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J283" t="inlineStr">
@@ -13960,7 +13960,7 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
@@ -13975,11 +13975,11 @@
       </c>
       <c r="E284" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F284" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G284" t="inlineStr">
         <is>
@@ -13988,12 +13988,12 @@
       </c>
       <c r="H284" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I284" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J284" t="inlineStr">
@@ -19768,7 +19768,7 @@
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>Proyecto Explotación Subterránea Mina Santa Rosa (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C405" t="inlineStr">
@@ -19778,16 +19778,16 @@
       </c>
       <c r="D405" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E405" t="inlineStr">
         <is>
-          <t>Minera Quimal.S.A.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F405" t="n">
-        <v>500</v>
+        <v>1750</v>
       </c>
       <c r="G405" t="inlineStr">
         <is>
@@ -19796,12 +19796,12 @@
       </c>
       <c r="H405" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I405" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3310659&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J405" t="inlineStr">
@@ -19816,7 +19816,7 @@
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Proyecto Explotación Subterránea Mina Santa Rosa (e-seia)</t>
         </is>
       </c>
       <c r="C406" t="inlineStr">
@@ -19826,16 +19826,16 @@
       </c>
       <c r="D406" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E406" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Minera Quimal.S.A.</t>
         </is>
       </c>
       <c r="F406" t="n">
-        <v>1750</v>
+        <v>500</v>
       </c>
       <c r="G406" t="inlineStr">
         <is>
@@ -19844,12 +19844,12 @@
       </c>
       <c r="H406" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I406" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3310659&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J406" t="inlineStr">
@@ -20296,7 +20296,7 @@
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>Tratamiento de Impurezas en Ánodos y Cátodos de División Codelco Norte (e-seia)</t>
         </is>
       </c>
       <c r="C416" t="inlineStr">
@@ -20306,16 +20306,16 @@
       </c>
       <c r="D416" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E416" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Codelco Chile, División Chuquicamata</t>
         </is>
       </c>
       <c r="F416" t="n">
-        <v>250</v>
+        <v>50000</v>
       </c>
       <c r="G416" t="inlineStr">
         <is>
@@ -20324,12 +20324,12 @@
       </c>
       <c r="H416" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I416" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3118819&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J416" t="inlineStr">
@@ -20344,7 +20344,7 @@
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>Tratamiento de Impurezas en Ánodos y Cátodos de División Codelco Norte (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C417" t="inlineStr">
@@ -20354,16 +20354,16 @@
       </c>
       <c r="D417" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E417" t="inlineStr">
         <is>
-          <t>Codelco Chile, División Chuquicamata</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F417" t="n">
-        <v>50000</v>
+        <v>250</v>
       </c>
       <c r="G417" t="inlineStr">
         <is>
@@ -20372,12 +20372,12 @@
       </c>
       <c r="H417" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I417" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3118819&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J417" t="inlineStr">
@@ -20488,7 +20488,7 @@
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>Proyecto Exploración Minera Macarena - Leo (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C420" t="inlineStr">
@@ -20498,16 +20498,16 @@
       </c>
       <c r="D420" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E420" t="inlineStr">
         <is>
-          <t>Minera Fuego Limitada</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F420" t="n">
-        <v>150</v>
+        <v>1650</v>
       </c>
       <c r="G420" t="inlineStr">
         <is>
@@ -20521,7 +20521,7 @@
       </c>
       <c r="I420" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088992&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J420" t="inlineStr">
@@ -20536,7 +20536,7 @@
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>Proyecto Exploración Minera Macarena - Leo (e-seia)</t>
         </is>
       </c>
       <c r="C421" t="inlineStr">
@@ -20546,16 +20546,16 @@
       </c>
       <c r="D421" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E421" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Minera Fuego Limitada</t>
         </is>
       </c>
       <c r="F421" t="n">
-        <v>1650</v>
+        <v>150</v>
       </c>
       <c r="G421" t="inlineStr">
         <is>
@@ -20569,7 +20569,7 @@
       </c>
       <c r="I421" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088992&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J421" t="inlineStr">
@@ -23512,26 +23512,26 @@
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
+          <t>LIXIVIACIÓN DE SULFUROS SULFOLIX</t>
         </is>
       </c>
       <c r="C483" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D483" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E483" t="inlineStr">
         <is>
-          <t>Empresa de Residuos RESITER S.A.</t>
+          <t>SOCIEDAD CONTRACTUAL MINERA EL ABRA</t>
         </is>
       </c>
       <c r="F483" t="n">
-        <v>1</v>
+        <v>343000</v>
       </c>
       <c r="G483" t="inlineStr">
         <is>
@@ -23545,7 +23545,7 @@
       </c>
       <c r="I483" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2088630&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J483" t="inlineStr">
@@ -23560,26 +23560,26 @@
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>LIXIVIACIÓN DE SULFUROS SULFOLIX</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C484" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D484" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E484" t="inlineStr">
         <is>
-          <t>SOCIEDAD CONTRACTUAL MINERA EL ABRA</t>
+          <t>Empresa de Residuos RESITER S.A.</t>
         </is>
       </c>
       <c r="F484" t="n">
-        <v>343000</v>
+        <v>1</v>
       </c>
       <c r="G484" t="inlineStr">
         <is>
@@ -23593,7 +23593,7 @@
       </c>
       <c r="I484" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2088630&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J484" t="inlineStr">

--- a/data/Calama.xlsx
+++ b/data/Calama.xlsx
@@ -3928,7 +3928,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Verano de San Juan I</t>
+          <t>MODIFICACIONES AL PROYECTO EXTRACCIÓN Y MOVIMIENTO DE MINERALES MINA RADOMIRO TOMIC</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3943,11 +3943,11 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Victoria Solar SpA</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>15000</v>
+        <v>208848</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
@@ -3956,12 +3956,12 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138522682&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138513102&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3976,7 +3976,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Verano de San Juan II</t>
+          <t>Parque Fotovoltaico Verano de San Juan I</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3991,7 +3991,7 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Paine Energy SpA</t>
+          <t>Victoria Solar SpA</t>
         </is>
       </c>
       <c r="F76" t="n">
@@ -4009,7 +4009,7 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138526892&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138522682&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4024,7 +4024,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>MODIFICACIONES AL PROYECTO EXTRACCIÓN Y MOVIMIENTO DE MINERALES MINA RADOMIRO TOMIC</t>
+          <t>Parque Fotovoltaico Verano de San Juan II</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4039,11 +4039,11 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Paine Energy SpA</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>208848</v>
+        <v>15000</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
@@ -4052,12 +4052,12 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138513102&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138526892&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -7912,7 +7912,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>AUMENTO CAPACIDAD DE TRATAMIENTO DE EFLUENTES DE FUNDICIÓN</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -7922,16 +7922,16 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>Codelco Chile, División Chuquicamata</t>
         </is>
       </c>
       <c r="F158" t="n">
-        <v>1200</v>
+        <v>67700</v>
       </c>
       <c r="G158" t="inlineStr">
         <is>
@@ -7945,7 +7945,7 @@
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128952737&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -7960,7 +7960,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Proyecto Fotovoltaico Azabache</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -7970,16 +7970,16 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>Almeyda Solar SpA.</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F159" t="n">
-        <v>140000</v>
+        <v>1200</v>
       </c>
       <c r="G159" t="inlineStr">
         <is>
@@ -7993,7 +7993,7 @@
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128969457&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -8008,7 +8008,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Proyecto Fotovoltaico Azabache</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -8018,16 +8018,16 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Almeyda Solar SpA.</t>
         </is>
       </c>
       <c r="F160" t="n">
-        <v>0</v>
+        <v>140000</v>
       </c>
       <c r="G160" t="inlineStr">
         <is>
@@ -8041,7 +8041,7 @@
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128969457&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
@@ -8056,7 +8056,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>AUMENTO CAPACIDAD DE TRATAMIENTO DE EFLUENTES DE FUNDICIÓN</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -8066,16 +8066,16 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>Codelco Chile, División Chuquicamata</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F161" t="n">
-        <v>67700</v>
+        <v>0</v>
       </c>
       <c r="G161" t="inlineStr">
         <is>
@@ -8089,7 +8089,7 @@
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128952737&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
@@ -8824,7 +8824,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -8839,11 +8839,11 @@
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F177" t="n">
-        <v>12500</v>
+        <v>219</v>
       </c>
       <c r="G177" t="inlineStr">
         <is>
@@ -8852,12 +8852,12 @@
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556590&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
@@ -8872,7 +8872,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
+          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -8891,7 +8891,7 @@
         </is>
       </c>
       <c r="F178" t="n">
-        <v>10000</v>
+        <v>12500</v>
       </c>
       <c r="G178" t="inlineStr">
         <is>
@@ -8905,7 +8905,7 @@
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
@@ -8920,7 +8920,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -8935,11 +8935,11 @@
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F179" t="n">
-        <v>219</v>
+        <v>10000</v>
       </c>
       <c r="G179" t="inlineStr">
         <is>
@@ -8948,12 +8948,12 @@
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556590&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
@@ -9448,26 +9448,26 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>RT Sulfuros</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F190" t="n">
-        <v>2050</v>
+        <v>5.4</v>
       </c>
       <c r="G190" t="inlineStr">
         <is>
@@ -9476,12 +9476,12 @@
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
@@ -9496,26 +9496,26 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>RT Sulfuros</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F191" t="n">
-        <v>5.4</v>
+        <v>2050</v>
       </c>
       <c r="G191" t="inlineStr">
         <is>
@@ -9524,12 +9524,12 @@
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
@@ -10936,7 +10936,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Procesamiento de Óxidos DMH</t>
+          <t>Planta Fotovoltaica San Pedro de Atacama IV</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -10951,11 +10951,11 @@
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>División Ministro Hales de Codelco Chile</t>
+          <t>GPG Solar Chile 2017 SpA</t>
         </is>
       </c>
       <c r="F221" t="n">
-        <v>70000</v>
+        <v>105250</v>
       </c>
       <c r="G221" t="inlineStr">
         <is>
@@ -10969,7 +10969,7 @@
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7040302&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7052315&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">
@@ -10984,7 +10984,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Planta Fotovoltaica San Pedro de Atacama IV</t>
+          <t>Procesamiento de Óxidos DMH</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -10999,11 +10999,11 @@
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>GPG Solar Chile 2017 SpA</t>
+          <t>División Ministro Hales de Codelco Chile</t>
         </is>
       </c>
       <c r="F222" t="n">
-        <v>105250</v>
+        <v>70000</v>
       </c>
       <c r="G222" t="inlineStr">
         <is>
@@ -11017,7 +11017,7 @@
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7052315&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7040302&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J222" t="inlineStr">
@@ -13096,7 +13096,7 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>Portal del Inca</t>
+          <t>Línea de Transmisión Eléctrica 220 kv Encuentro - MH</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
@@ -13111,11 +13111,11 @@
       </c>
       <c r="E266" t="inlineStr">
         <is>
-          <t>Inmobiliaria Inca Dos Ltda.</t>
+          <t>División Ministro Hales de Codelco Chile</t>
         </is>
       </c>
       <c r="F266" t="n">
-        <v>13948</v>
+        <v>45000</v>
       </c>
       <c r="G266" t="inlineStr">
         <is>
@@ -13124,12 +13124,12 @@
       </c>
       <c r="H266" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I266" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5787635&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5773970&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J266" t="inlineStr">
@@ -13144,7 +13144,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Eléctrica 220 kv Encuentro - MH</t>
+          <t>Portal del Inca</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
@@ -13159,11 +13159,11 @@
       </c>
       <c r="E267" t="inlineStr">
         <is>
-          <t>División Ministro Hales de Codelco Chile</t>
+          <t>Inmobiliaria Inca Dos Ltda.</t>
         </is>
       </c>
       <c r="F267" t="n">
-        <v>45000</v>
+        <v>13948</v>
       </c>
       <c r="G267" t="inlineStr">
         <is>
@@ -13172,12 +13172,12 @@
       </c>
       <c r="H267" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I267" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5773970&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5787635&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J267" t="inlineStr">
@@ -13912,7 +13912,7 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
@@ -13927,11 +13927,11 @@
       </c>
       <c r="E283" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F283" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G283" t="inlineStr">
         <is>
@@ -13940,12 +13940,12 @@
       </c>
       <c r="H283" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I283" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J283" t="inlineStr">
@@ -13960,7 +13960,7 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
@@ -13975,11 +13975,11 @@
       </c>
       <c r="E284" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F284" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G284" t="inlineStr">
         <is>
@@ -13988,12 +13988,12 @@
       </c>
       <c r="H284" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I284" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J284" t="inlineStr">
@@ -19768,7 +19768,7 @@
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>Proyecto Explotación Subterránea Mina Santa Rosa (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C405" t="inlineStr">
@@ -19778,16 +19778,16 @@
       </c>
       <c r="D405" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E405" t="inlineStr">
         <is>
-          <t>Minera Quimal.S.A.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F405" t="n">
-        <v>500</v>
+        <v>1750</v>
       </c>
       <c r="G405" t="inlineStr">
         <is>
@@ -19796,12 +19796,12 @@
       </c>
       <c r="H405" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I405" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3310659&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J405" t="inlineStr">
@@ -19816,7 +19816,7 @@
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Proyecto Explotación Subterránea Mina Santa Rosa (e-seia)</t>
         </is>
       </c>
       <c r="C406" t="inlineStr">
@@ -19826,16 +19826,16 @@
       </c>
       <c r="D406" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E406" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Minera Quimal.S.A.</t>
         </is>
       </c>
       <c r="F406" t="n">
-        <v>1750</v>
+        <v>500</v>
       </c>
       <c r="G406" t="inlineStr">
         <is>
@@ -19844,12 +19844,12 @@
       </c>
       <c r="H406" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I406" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3310659&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J406" t="inlineStr">
@@ -20296,7 +20296,7 @@
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>Tratamiento de Impurezas en Ánodos y Cátodos de División Codelco Norte (e-seia)</t>
         </is>
       </c>
       <c r="C416" t="inlineStr">
@@ -20306,16 +20306,16 @@
       </c>
       <c r="D416" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E416" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Codelco Chile, División Chuquicamata</t>
         </is>
       </c>
       <c r="F416" t="n">
-        <v>250</v>
+        <v>50000</v>
       </c>
       <c r="G416" t="inlineStr">
         <is>
@@ -20324,12 +20324,12 @@
       </c>
       <c r="H416" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I416" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3118819&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J416" t="inlineStr">
@@ -20344,7 +20344,7 @@
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>Tratamiento de Impurezas en Ánodos y Cátodos de División Codelco Norte (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C417" t="inlineStr">
@@ -20354,16 +20354,16 @@
       </c>
       <c r="D417" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E417" t="inlineStr">
         <is>
-          <t>Codelco Chile, División Chuquicamata</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F417" t="n">
-        <v>50000</v>
+        <v>250</v>
       </c>
       <c r="G417" t="inlineStr">
         <is>
@@ -20372,12 +20372,12 @@
       </c>
       <c r="H417" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I417" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3118819&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J417" t="inlineStr">
@@ -20488,7 +20488,7 @@
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>Proyecto Exploración Minera Macarena - Leo (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C420" t="inlineStr">
@@ -20498,16 +20498,16 @@
       </c>
       <c r="D420" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E420" t="inlineStr">
         <is>
-          <t>Minera Fuego Limitada</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F420" t="n">
-        <v>150</v>
+        <v>1650</v>
       </c>
       <c r="G420" t="inlineStr">
         <is>
@@ -20521,7 +20521,7 @@
       </c>
       <c r="I420" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088992&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J420" t="inlineStr">
@@ -20536,7 +20536,7 @@
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>Proyecto Exploración Minera Macarena - Leo (e-seia)</t>
         </is>
       </c>
       <c r="C421" t="inlineStr">
@@ -20546,16 +20546,16 @@
       </c>
       <c r="D421" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E421" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Minera Fuego Limitada</t>
         </is>
       </c>
       <c r="F421" t="n">
-        <v>1650</v>
+        <v>150</v>
       </c>
       <c r="G421" t="inlineStr">
         <is>
@@ -20569,7 +20569,7 @@
       </c>
       <c r="I421" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088992&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J421" t="inlineStr">
@@ -23512,26 +23512,26 @@
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
+          <t>LIXIVIACIÓN DE SULFUROS SULFOLIX</t>
         </is>
       </c>
       <c r="C483" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D483" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E483" t="inlineStr">
         <is>
-          <t>Empresa de Residuos RESITER S.A.</t>
+          <t>SOCIEDAD CONTRACTUAL MINERA EL ABRA</t>
         </is>
       </c>
       <c r="F483" t="n">
-        <v>1</v>
+        <v>343000</v>
       </c>
       <c r="G483" t="inlineStr">
         <is>
@@ -23545,7 +23545,7 @@
       </c>
       <c r="I483" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2088630&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J483" t="inlineStr">
@@ -23560,26 +23560,26 @@
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>LIXIVIACIÓN DE SULFUROS SULFOLIX</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C484" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D484" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E484" t="inlineStr">
         <is>
-          <t>SOCIEDAD CONTRACTUAL MINERA EL ABRA</t>
+          <t>Empresa de Residuos RESITER S.A.</t>
         </is>
       </c>
       <c r="F484" t="n">
-        <v>343000</v>
+        <v>1</v>
       </c>
       <c r="G484" t="inlineStr">
         <is>
@@ -23593,7 +23593,7 @@
       </c>
       <c r="I484" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2088630&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J484" t="inlineStr">

--- a/data/Calama.xlsx
+++ b/data/Calama.xlsx
@@ -447,7 +447,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>18/01/2023</t>
+          <t>18/12/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -3928,7 +3928,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Verano de San Juan I</t>
+          <t>MODIFICACIONES AL PROYECTO EXTRACCIÓN Y MOVIMIENTO DE MINERALES MINA RADOMIRO TOMIC</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3943,11 +3943,11 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Victoria Solar SpA</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>15000</v>
+        <v>208848</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
@@ -3956,12 +3956,12 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138522682&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138513102&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3976,7 +3976,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Verano de San Juan II</t>
+          <t>Parque Fotovoltaico Verano de San Juan I</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3991,7 +3991,7 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Paine Energy SpA</t>
+          <t>Victoria Solar SpA</t>
         </is>
       </c>
       <c r="F76" t="n">
@@ -4009,7 +4009,7 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138526892&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138522682&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4024,7 +4024,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>MODIFICACIONES AL PROYECTO EXTRACCIÓN Y MOVIMIENTO DE MINERALES MINA RADOMIRO TOMIC</t>
+          <t>Parque Fotovoltaico Verano de San Juan II</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4039,11 +4039,11 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Paine Energy SpA</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>208848</v>
+        <v>15000</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
@@ -4052,12 +4052,12 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138513102&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138526892&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -7912,7 +7912,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>AUMENTO CAPACIDAD DE TRATAMIENTO DE EFLUENTES DE FUNDICIÓN</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -7922,16 +7922,16 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>Codelco Chile, División Chuquicamata</t>
         </is>
       </c>
       <c r="F158" t="n">
-        <v>1200</v>
+        <v>67700</v>
       </c>
       <c r="G158" t="inlineStr">
         <is>
@@ -7945,7 +7945,7 @@
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128952737&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -7960,7 +7960,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Proyecto Fotovoltaico Azabache</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -7970,16 +7970,16 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>Almeyda Solar SpA.</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F159" t="n">
-        <v>140000</v>
+        <v>1200</v>
       </c>
       <c r="G159" t="inlineStr">
         <is>
@@ -7993,7 +7993,7 @@
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128969457&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -8008,7 +8008,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Proyecto Fotovoltaico Azabache</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -8018,16 +8018,16 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Almeyda Solar SpA.</t>
         </is>
       </c>
       <c r="F160" t="n">
-        <v>0</v>
+        <v>140000</v>
       </c>
       <c r="G160" t="inlineStr">
         <is>
@@ -8041,7 +8041,7 @@
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128969457&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
@@ -8056,7 +8056,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>AUMENTO CAPACIDAD DE TRATAMIENTO DE EFLUENTES DE FUNDICIÓN</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -8066,16 +8066,16 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>Codelco Chile, División Chuquicamata</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F161" t="n">
-        <v>67700</v>
+        <v>0</v>
       </c>
       <c r="G161" t="inlineStr">
         <is>
@@ -8089,7 +8089,7 @@
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128952737&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
@@ -8824,7 +8824,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -8839,11 +8839,11 @@
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F177" t="n">
-        <v>12500</v>
+        <v>219</v>
       </c>
       <c r="G177" t="inlineStr">
         <is>
@@ -8852,12 +8852,12 @@
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556590&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
@@ -8872,7 +8872,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
+          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -8891,7 +8891,7 @@
         </is>
       </c>
       <c r="F178" t="n">
-        <v>10000</v>
+        <v>12500</v>
       </c>
       <c r="G178" t="inlineStr">
         <is>
@@ -8905,7 +8905,7 @@
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
@@ -8920,7 +8920,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -8935,11 +8935,11 @@
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F179" t="n">
-        <v>219</v>
+        <v>10000</v>
       </c>
       <c r="G179" t="inlineStr">
         <is>
@@ -8948,12 +8948,12 @@
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556590&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
@@ -9448,26 +9448,26 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>RT Sulfuros</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F190" t="n">
-        <v>2050</v>
+        <v>5.4</v>
       </c>
       <c r="G190" t="inlineStr">
         <is>
@@ -9476,12 +9476,12 @@
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
@@ -9496,26 +9496,26 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>RT Sulfuros</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F191" t="n">
-        <v>5.4</v>
+        <v>2050</v>
       </c>
       <c r="G191" t="inlineStr">
         <is>
@@ -9524,12 +9524,12 @@
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
@@ -10936,7 +10936,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Procesamiento de Óxidos DMH</t>
+          <t>Planta Fotovoltaica San Pedro de Atacama IV</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -10951,11 +10951,11 @@
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>División Ministro Hales de Codelco Chile</t>
+          <t>GPG Solar Chile 2017 SpA</t>
         </is>
       </c>
       <c r="F221" t="n">
-        <v>70000</v>
+        <v>105250</v>
       </c>
       <c r="G221" t="inlineStr">
         <is>
@@ -10969,7 +10969,7 @@
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7040302&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7052315&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">
@@ -10984,7 +10984,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Planta Fotovoltaica San Pedro de Atacama IV</t>
+          <t>Procesamiento de Óxidos DMH</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -10999,11 +10999,11 @@
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>GPG Solar Chile 2017 SpA</t>
+          <t>División Ministro Hales de Codelco Chile</t>
         </is>
       </c>
       <c r="F222" t="n">
-        <v>105250</v>
+        <v>70000</v>
       </c>
       <c r="G222" t="inlineStr">
         <is>
@@ -11017,7 +11017,7 @@
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7052315&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7040302&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J222" t="inlineStr">
@@ -13096,7 +13096,7 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>Portal del Inca</t>
+          <t>Línea de Transmisión Eléctrica 220 kv Encuentro - MH</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
@@ -13111,11 +13111,11 @@
       </c>
       <c r="E266" t="inlineStr">
         <is>
-          <t>Inmobiliaria Inca Dos Ltda.</t>
+          <t>División Ministro Hales de Codelco Chile</t>
         </is>
       </c>
       <c r="F266" t="n">
-        <v>13948</v>
+        <v>45000</v>
       </c>
       <c r="G266" t="inlineStr">
         <is>
@@ -13124,12 +13124,12 @@
       </c>
       <c r="H266" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I266" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5787635&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5773970&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J266" t="inlineStr">
@@ -13144,7 +13144,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Eléctrica 220 kv Encuentro - MH</t>
+          <t>Portal del Inca</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
@@ -13159,11 +13159,11 @@
       </c>
       <c r="E267" t="inlineStr">
         <is>
-          <t>División Ministro Hales de Codelco Chile</t>
+          <t>Inmobiliaria Inca Dos Ltda.</t>
         </is>
       </c>
       <c r="F267" t="n">
-        <v>45000</v>
+        <v>13948</v>
       </c>
       <c r="G267" t="inlineStr">
         <is>
@@ -13172,12 +13172,12 @@
       </c>
       <c r="H267" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I267" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5773970&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5787635&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J267" t="inlineStr">
@@ -13912,7 +13912,7 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
@@ -13927,11 +13927,11 @@
       </c>
       <c r="E283" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F283" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G283" t="inlineStr">
         <is>
@@ -13940,12 +13940,12 @@
       </c>
       <c r="H283" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I283" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J283" t="inlineStr">
@@ -13960,7 +13960,7 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
@@ -13975,11 +13975,11 @@
       </c>
       <c r="E284" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F284" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G284" t="inlineStr">
         <is>
@@ -13988,12 +13988,12 @@
       </c>
       <c r="H284" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I284" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J284" t="inlineStr">
@@ -19768,7 +19768,7 @@
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>Proyecto Explotación Subterránea Mina Santa Rosa (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C405" t="inlineStr">
@@ -19778,16 +19778,16 @@
       </c>
       <c r="D405" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E405" t="inlineStr">
         <is>
-          <t>Minera Quimal.S.A.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F405" t="n">
-        <v>500</v>
+        <v>1750</v>
       </c>
       <c r="G405" t="inlineStr">
         <is>
@@ -19796,12 +19796,12 @@
       </c>
       <c r="H405" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I405" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3310659&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J405" t="inlineStr">
@@ -19816,7 +19816,7 @@
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Proyecto Explotación Subterránea Mina Santa Rosa (e-seia)</t>
         </is>
       </c>
       <c r="C406" t="inlineStr">
@@ -19826,16 +19826,16 @@
       </c>
       <c r="D406" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E406" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Minera Quimal.S.A.</t>
         </is>
       </c>
       <c r="F406" t="n">
-        <v>1750</v>
+        <v>500</v>
       </c>
       <c r="G406" t="inlineStr">
         <is>
@@ -19844,12 +19844,12 @@
       </c>
       <c r="H406" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I406" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3310659&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J406" t="inlineStr">
@@ -20296,7 +20296,7 @@
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>Tratamiento de Impurezas en Ánodos y Cátodos de División Codelco Norte (e-seia)</t>
         </is>
       </c>
       <c r="C416" t="inlineStr">
@@ -20306,16 +20306,16 @@
       </c>
       <c r="D416" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E416" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Codelco Chile, División Chuquicamata</t>
         </is>
       </c>
       <c r="F416" t="n">
-        <v>250</v>
+        <v>50000</v>
       </c>
       <c r="G416" t="inlineStr">
         <is>
@@ -20324,12 +20324,12 @@
       </c>
       <c r="H416" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I416" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3118819&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J416" t="inlineStr">
@@ -20344,7 +20344,7 @@
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>Tratamiento de Impurezas en Ánodos y Cátodos de División Codelco Norte (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C417" t="inlineStr">
@@ -20354,16 +20354,16 @@
       </c>
       <c r="D417" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E417" t="inlineStr">
         <is>
-          <t>Codelco Chile, División Chuquicamata</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F417" t="n">
-        <v>50000</v>
+        <v>250</v>
       </c>
       <c r="G417" t="inlineStr">
         <is>
@@ -20372,12 +20372,12 @@
       </c>
       <c r="H417" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I417" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3118819&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J417" t="inlineStr">
@@ -20488,7 +20488,7 @@
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>Proyecto Exploración Minera Macarena - Leo (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C420" t="inlineStr">
@@ -20498,16 +20498,16 @@
       </c>
       <c r="D420" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E420" t="inlineStr">
         <is>
-          <t>Minera Fuego Limitada</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F420" t="n">
-        <v>150</v>
+        <v>1650</v>
       </c>
       <c r="G420" t="inlineStr">
         <is>
@@ -20521,7 +20521,7 @@
       </c>
       <c r="I420" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088992&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J420" t="inlineStr">
@@ -20536,7 +20536,7 @@
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>Proyecto Exploración Minera Macarena - Leo (e-seia)</t>
         </is>
       </c>
       <c r="C421" t="inlineStr">
@@ -20546,16 +20546,16 @@
       </c>
       <c r="D421" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E421" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Minera Fuego Limitada</t>
         </is>
       </c>
       <c r="F421" t="n">
-        <v>1650</v>
+        <v>150</v>
       </c>
       <c r="G421" t="inlineStr">
         <is>
@@ -20569,7 +20569,7 @@
       </c>
       <c r="I421" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088992&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J421" t="inlineStr">
@@ -23512,26 +23512,26 @@
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
+          <t>LIXIVIACIÓN DE SULFUROS SULFOLIX</t>
         </is>
       </c>
       <c r="C483" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D483" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E483" t="inlineStr">
         <is>
-          <t>Empresa de Residuos RESITER S.A.</t>
+          <t>SOCIEDAD CONTRACTUAL MINERA EL ABRA</t>
         </is>
       </c>
       <c r="F483" t="n">
-        <v>1</v>
+        <v>343000</v>
       </c>
       <c r="G483" t="inlineStr">
         <is>
@@ -23545,7 +23545,7 @@
       </c>
       <c r="I483" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2088630&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J483" t="inlineStr">
@@ -23560,26 +23560,26 @@
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>LIXIVIACIÓN DE SULFUROS SULFOLIX</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C484" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D484" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E484" t="inlineStr">
         <is>
-          <t>SOCIEDAD CONTRACTUAL MINERA EL ABRA</t>
+          <t>Empresa de Residuos RESITER S.A.</t>
         </is>
       </c>
       <c r="F484" t="n">
-        <v>343000</v>
+        <v>1</v>
       </c>
       <c r="G484" t="inlineStr">
         <is>
@@ -23593,7 +23593,7 @@
       </c>
       <c r="I484" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2088630&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J484" t="inlineStr">

--- a/data/Calama.xlsx
+++ b/data/Calama.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>18/12/2022</t>
+          <t>22/12/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -3928,7 +3928,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>MODIFICACIONES AL PROYECTO EXTRACCIÓN Y MOVIMIENTO DE MINERALES MINA RADOMIRO TOMIC</t>
+          <t>Parque Fotovoltaico Verano de San Juan I</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3943,11 +3943,11 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Victoria Solar SpA</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>208848</v>
+        <v>15000</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
@@ -3956,12 +3956,12 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138513102&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138522682&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3976,7 +3976,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Verano de San Juan I</t>
+          <t>Parque Fotovoltaico Verano de San Juan II</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3991,7 +3991,7 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Victoria Solar SpA</t>
+          <t>Paine Energy SpA</t>
         </is>
       </c>
       <c r="F76" t="n">
@@ -4009,7 +4009,7 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138522682&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138526892&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4024,7 +4024,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Verano de San Juan II</t>
+          <t>MODIFICACIONES AL PROYECTO EXTRACCIÓN Y MOVIMIENTO DE MINERALES MINA RADOMIRO TOMIC</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4039,11 +4039,11 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Paine Energy SpA</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>15000</v>
+        <v>208848</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
@@ -4052,12 +4052,12 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138526892&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138513102&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -7912,7 +7912,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>AUMENTO CAPACIDAD DE TRATAMIENTO DE EFLUENTES DE FUNDICIÓN</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -7922,16 +7922,16 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>Codelco Chile, División Chuquicamata</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F158" t="n">
-        <v>67700</v>
+        <v>1200</v>
       </c>
       <c r="G158" t="inlineStr">
         <is>
@@ -7945,7 +7945,7 @@
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128952737&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -7960,7 +7960,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Proyecto Fotovoltaico Azabache</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -7970,16 +7970,16 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>Almeyda Solar SpA.</t>
         </is>
       </c>
       <c r="F159" t="n">
-        <v>1200</v>
+        <v>140000</v>
       </c>
       <c r="G159" t="inlineStr">
         <is>
@@ -7993,7 +7993,7 @@
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128969457&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -8008,7 +8008,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Proyecto Fotovoltaico Azabache</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -8018,16 +8018,16 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>Almeyda Solar SpA.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F160" t="n">
-        <v>140000</v>
+        <v>0</v>
       </c>
       <c r="G160" t="inlineStr">
         <is>
@@ -8041,7 +8041,7 @@
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128969457&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
@@ -8056,7 +8056,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>BARRIO CONTRATISTA GERENCIA DE PROYECTOS</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -8066,16 +8066,16 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Codelco Chile, División Chuquicamata</t>
         </is>
       </c>
       <c r="F161" t="n">
-        <v>0</v>
+        <v>8000</v>
       </c>
       <c r="G161" t="inlineStr">
         <is>
@@ -8089,7 +8089,7 @@
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128904823&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
@@ -8104,7 +8104,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>BARRIO CONTRATISTA GERENCIA DE PROYECTOS</t>
+          <t>AUMENTO CAPACIDAD DE TRATAMIENTO DE EFLUENTES DE FUNDICIÓN</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -8123,7 +8123,7 @@
         </is>
       </c>
       <c r="F162" t="n">
-        <v>8000</v>
+        <v>67700</v>
       </c>
       <c r="G162" t="inlineStr">
         <is>
@@ -8137,7 +8137,7 @@
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128904823&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128952737&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
@@ -8152,7 +8152,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Remodelación Parque El Loa</t>
+          <t>Aumento Áreas de Lixiviación, sector Quebrada Portezuelo</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -8167,11 +8167,11 @@
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Calama</t>
+          <t>Codelco Chile, División Chuquicamata</t>
         </is>
       </c>
       <c r="F163" t="n">
-        <v>9074</v>
+        <v>5888</v>
       </c>
       <c r="G163" t="inlineStr">
         <is>
@@ -8185,7 +8185,7 @@
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128906904&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128955081&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -8200,7 +8200,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Aumento Áreas de Lixiviación, sector Quebrada Portezuelo</t>
+          <t>Remodelación Parque El Loa</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -8215,11 +8215,11 @@
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>Codelco Chile, División Chuquicamata</t>
+          <t>Ilustre Municipalidad de Calama</t>
         </is>
       </c>
       <c r="F164" t="n">
-        <v>5888</v>
+        <v>9074</v>
       </c>
       <c r="G164" t="inlineStr">
         <is>
@@ -8233,7 +8233,7 @@
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128955081&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128906904&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
@@ -8824,7 +8824,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -8839,11 +8839,11 @@
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F177" t="n">
-        <v>219</v>
+        <v>12500</v>
       </c>
       <c r="G177" t="inlineStr">
         <is>
@@ -8852,12 +8852,12 @@
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556590&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
@@ -8872,7 +8872,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -8891,7 +8891,7 @@
         </is>
       </c>
       <c r="F178" t="n">
-        <v>12500</v>
+        <v>10000</v>
       </c>
       <c r="G178" t="inlineStr">
         <is>
@@ -8905,7 +8905,7 @@
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
@@ -8920,7 +8920,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -8935,11 +8935,11 @@
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F179" t="n">
-        <v>10000</v>
+        <v>219</v>
       </c>
       <c r="G179" t="inlineStr">
         <is>
@@ -8948,12 +8948,12 @@
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556590&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
@@ -9448,26 +9448,26 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>RT Sulfuros</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F190" t="n">
-        <v>5.4</v>
+        <v>2050</v>
       </c>
       <c r="G190" t="inlineStr">
         <is>
@@ -9476,12 +9476,12 @@
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
@@ -9496,26 +9496,26 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>RT Sulfuros</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F191" t="n">
-        <v>2050</v>
+        <v>5.4</v>
       </c>
       <c r="G191" t="inlineStr">
         <is>
@@ -9524,12 +9524,12 @@
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
@@ -10936,7 +10936,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Planta Fotovoltaica San Pedro de Atacama IV</t>
+          <t>Procesamiento de Óxidos DMH</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -10951,11 +10951,11 @@
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>GPG Solar Chile 2017 SpA</t>
+          <t>División Ministro Hales de Codelco Chile</t>
         </is>
       </c>
       <c r="F221" t="n">
-        <v>105250</v>
+        <v>70000</v>
       </c>
       <c r="G221" t="inlineStr">
         <is>
@@ -10969,7 +10969,7 @@
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7052315&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7040302&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">
@@ -10984,7 +10984,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Procesamiento de Óxidos DMH</t>
+          <t>Planta Fotovoltaica San Pedro de Atacama IV</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -10999,11 +10999,11 @@
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>División Ministro Hales de Codelco Chile</t>
+          <t>GPG Solar Chile 2017 SpA</t>
         </is>
       </c>
       <c r="F222" t="n">
-        <v>70000</v>
+        <v>105250</v>
       </c>
       <c r="G222" t="inlineStr">
         <is>
@@ -11017,7 +11017,7 @@
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7040302&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7052315&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J222" t="inlineStr">
@@ -13096,7 +13096,7 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Eléctrica 220 kv Encuentro - MH</t>
+          <t>Portal del Inca</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
@@ -13111,11 +13111,11 @@
       </c>
       <c r="E266" t="inlineStr">
         <is>
-          <t>División Ministro Hales de Codelco Chile</t>
+          <t>Inmobiliaria Inca Dos Ltda.</t>
         </is>
       </c>
       <c r="F266" t="n">
-        <v>45000</v>
+        <v>13948</v>
       </c>
       <c r="G266" t="inlineStr">
         <is>
@@ -13124,12 +13124,12 @@
       </c>
       <c r="H266" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I266" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5773970&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5787635&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J266" t="inlineStr">
@@ -13144,7 +13144,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>Portal del Inca</t>
+          <t>Línea de Transmisión Eléctrica 220 kv Encuentro - MH</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
@@ -13159,11 +13159,11 @@
       </c>
       <c r="E267" t="inlineStr">
         <is>
-          <t>Inmobiliaria Inca Dos Ltda.</t>
+          <t>División Ministro Hales de Codelco Chile</t>
         </is>
       </c>
       <c r="F267" t="n">
-        <v>13948</v>
+        <v>45000</v>
       </c>
       <c r="G267" t="inlineStr">
         <is>
@@ -13172,12 +13172,12 @@
       </c>
       <c r="H267" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I267" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5787635&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5773970&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J267" t="inlineStr">
@@ -13912,7 +13912,7 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
@@ -13927,11 +13927,11 @@
       </c>
       <c r="E283" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F283" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G283" t="inlineStr">
         <is>
@@ -13940,12 +13940,12 @@
       </c>
       <c r="H283" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I283" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J283" t="inlineStr">
@@ -13960,7 +13960,7 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
@@ -13975,11 +13975,11 @@
       </c>
       <c r="E284" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F284" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G284" t="inlineStr">
         <is>
@@ -13988,12 +13988,12 @@
       </c>
       <c r="H284" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I284" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J284" t="inlineStr">
@@ -19768,7 +19768,7 @@
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Proyecto Explotación Subterránea Mina Santa Rosa (e-seia)</t>
         </is>
       </c>
       <c r="C405" t="inlineStr">
@@ -19778,16 +19778,16 @@
       </c>
       <c r="D405" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E405" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Minera Quimal.S.A.</t>
         </is>
       </c>
       <c r="F405" t="n">
-        <v>1750</v>
+        <v>500</v>
       </c>
       <c r="G405" t="inlineStr">
         <is>
@@ -19796,12 +19796,12 @@
       </c>
       <c r="H405" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I405" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3310659&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J405" t="inlineStr">
@@ -19816,7 +19816,7 @@
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>Proyecto Explotación Subterránea Mina Santa Rosa (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C406" t="inlineStr">
@@ -19826,16 +19826,16 @@
       </c>
       <c r="D406" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E406" t="inlineStr">
         <is>
-          <t>Minera Quimal.S.A.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F406" t="n">
-        <v>500</v>
+        <v>1750</v>
       </c>
       <c r="G406" t="inlineStr">
         <is>
@@ -19844,12 +19844,12 @@
       </c>
       <c r="H406" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I406" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3310659&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J406" t="inlineStr">
@@ -20296,7 +20296,7 @@
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>Tratamiento de Impurezas en Ánodos y Cátodos de División Codelco Norte (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C416" t="inlineStr">
@@ -20306,16 +20306,16 @@
       </c>
       <c r="D416" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E416" t="inlineStr">
         <is>
-          <t>Codelco Chile, División Chuquicamata</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F416" t="n">
-        <v>50000</v>
+        <v>250</v>
       </c>
       <c r="G416" t="inlineStr">
         <is>
@@ -20324,12 +20324,12 @@
       </c>
       <c r="H416" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I416" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3118819&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J416" t="inlineStr">
@@ -20344,7 +20344,7 @@
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>Tratamiento de Impurezas en Ánodos y Cátodos de División Codelco Norte (e-seia)</t>
         </is>
       </c>
       <c r="C417" t="inlineStr">
@@ -20354,16 +20354,16 @@
       </c>
       <c r="D417" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E417" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Codelco Chile, División Chuquicamata</t>
         </is>
       </c>
       <c r="F417" t="n">
-        <v>250</v>
+        <v>50000</v>
       </c>
       <c r="G417" t="inlineStr">
         <is>
@@ -20372,12 +20372,12 @@
       </c>
       <c r="H417" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I417" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3118819&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J417" t="inlineStr">
@@ -23512,26 +23512,26 @@
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>LIXIVIACIÓN DE SULFUROS SULFOLIX</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C483" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D483" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E483" t="inlineStr">
         <is>
-          <t>SOCIEDAD CONTRACTUAL MINERA EL ABRA</t>
+          <t>Empresa de Residuos RESITER S.A.</t>
         </is>
       </c>
       <c r="F483" t="n">
-        <v>343000</v>
+        <v>1</v>
       </c>
       <c r="G483" t="inlineStr">
         <is>
@@ -23545,7 +23545,7 @@
       </c>
       <c r="I483" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2088630&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J483" t="inlineStr">
@@ -23560,26 +23560,26 @@
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
+          <t>LIXIVIACIÓN DE SULFUROS SULFOLIX</t>
         </is>
       </c>
       <c r="C484" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D484" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E484" t="inlineStr">
         <is>
-          <t>Empresa de Residuos RESITER S.A.</t>
+          <t>SOCIEDAD CONTRACTUAL MINERA EL ABRA</t>
         </is>
       </c>
       <c r="F484" t="n">
-        <v>1</v>
+        <v>343000</v>
       </c>
       <c r="G484" t="inlineStr">
         <is>
@@ -23593,7 +23593,7 @@
       </c>
       <c r="I484" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2088630&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J484" t="inlineStr">

--- a/data/Calama.xlsx
+++ b/data/Calama.xlsx
@@ -3928,7 +3928,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Verano de San Juan I</t>
+          <t>MODIFICACIONES AL PROYECTO EXTRACCIÓN Y MOVIMIENTO DE MINERALES MINA RADOMIRO TOMIC</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3943,11 +3943,11 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Victoria Solar SpA</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>15000</v>
+        <v>208848</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
@@ -3956,12 +3956,12 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138522682&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138513102&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3976,7 +3976,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Verano de San Juan II</t>
+          <t>Parque Fotovoltaico Verano de San Juan I</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3991,7 +3991,7 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Paine Energy SpA</t>
+          <t>Victoria Solar SpA</t>
         </is>
       </c>
       <c r="F76" t="n">
@@ -4009,7 +4009,7 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138526892&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138522682&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4024,7 +4024,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>MODIFICACIONES AL PROYECTO EXTRACCIÓN Y MOVIMIENTO DE MINERALES MINA RADOMIRO TOMIC</t>
+          <t>Parque Fotovoltaico Verano de San Juan II</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4039,11 +4039,11 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Paine Energy SpA</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>208848</v>
+        <v>15000</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
@@ -4052,12 +4052,12 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138513102&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138526892&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -7912,7 +7912,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>AUMENTO CAPACIDAD DE TRATAMIENTO DE EFLUENTES DE FUNDICIÓN</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -7922,16 +7922,16 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>Codelco Chile, División Chuquicamata</t>
         </is>
       </c>
       <c r="F158" t="n">
-        <v>1200</v>
+        <v>67700</v>
       </c>
       <c r="G158" t="inlineStr">
         <is>
@@ -7945,7 +7945,7 @@
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128952737&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -7960,7 +7960,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Proyecto Fotovoltaico Azabache</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -7970,16 +7970,16 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>Almeyda Solar SpA.</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F159" t="n">
-        <v>140000</v>
+        <v>1200</v>
       </c>
       <c r="G159" t="inlineStr">
         <is>
@@ -7993,7 +7993,7 @@
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128969457&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -8008,7 +8008,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Proyecto Fotovoltaico Azabache</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -8018,16 +8018,16 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Almeyda Solar SpA.</t>
         </is>
       </c>
       <c r="F160" t="n">
-        <v>0</v>
+        <v>140000</v>
       </c>
       <c r="G160" t="inlineStr">
         <is>
@@ -8041,7 +8041,7 @@
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128969457&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
@@ -8056,7 +8056,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>BARRIO CONTRATISTA GERENCIA DE PROYECTOS</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -8066,16 +8066,16 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>Codelco Chile, División Chuquicamata</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F161" t="n">
-        <v>8000</v>
+        <v>0</v>
       </c>
       <c r="G161" t="inlineStr">
         <is>
@@ -8089,7 +8089,7 @@
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128904823&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
@@ -8104,7 +8104,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>AUMENTO CAPACIDAD DE TRATAMIENTO DE EFLUENTES DE FUNDICIÓN</t>
+          <t>BARRIO CONTRATISTA GERENCIA DE PROYECTOS</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -8123,7 +8123,7 @@
         </is>
       </c>
       <c r="F162" t="n">
-        <v>67700</v>
+        <v>8000</v>
       </c>
       <c r="G162" t="inlineStr">
         <is>
@@ -8137,7 +8137,7 @@
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128952737&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128904823&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
@@ -8152,7 +8152,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Aumento Áreas de Lixiviación, sector Quebrada Portezuelo</t>
+          <t>Remodelación Parque El Loa</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -8167,11 +8167,11 @@
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>Codelco Chile, División Chuquicamata</t>
+          <t>Ilustre Municipalidad de Calama</t>
         </is>
       </c>
       <c r="F163" t="n">
-        <v>5888</v>
+        <v>9074</v>
       </c>
       <c r="G163" t="inlineStr">
         <is>
@@ -8185,7 +8185,7 @@
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128955081&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128906904&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -8200,7 +8200,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Remodelación Parque El Loa</t>
+          <t>Aumento Áreas de Lixiviación, sector Quebrada Portezuelo</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -8215,11 +8215,11 @@
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Calama</t>
+          <t>Codelco Chile, División Chuquicamata</t>
         </is>
       </c>
       <c r="F164" t="n">
-        <v>9074</v>
+        <v>5888</v>
       </c>
       <c r="G164" t="inlineStr">
         <is>
@@ -8233,7 +8233,7 @@
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128906904&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128955081&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
@@ -8824,7 +8824,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -8839,11 +8839,11 @@
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F177" t="n">
-        <v>12500</v>
+        <v>219</v>
       </c>
       <c r="G177" t="inlineStr">
         <is>
@@ -8852,12 +8852,12 @@
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556590&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
@@ -8872,7 +8872,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
+          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -8891,7 +8891,7 @@
         </is>
       </c>
       <c r="F178" t="n">
-        <v>10000</v>
+        <v>12500</v>
       </c>
       <c r="G178" t="inlineStr">
         <is>
@@ -8905,7 +8905,7 @@
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
@@ -8920,7 +8920,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -8935,11 +8935,11 @@
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F179" t="n">
-        <v>219</v>
+        <v>10000</v>
       </c>
       <c r="G179" t="inlineStr">
         <is>
@@ -8948,12 +8948,12 @@
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556590&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
@@ -9448,26 +9448,26 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>RT Sulfuros</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F190" t="n">
-        <v>2050</v>
+        <v>5.4</v>
       </c>
       <c r="G190" t="inlineStr">
         <is>
@@ -9476,12 +9476,12 @@
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
@@ -9496,26 +9496,26 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>RT Sulfuros</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F191" t="n">
-        <v>5.4</v>
+        <v>2050</v>
       </c>
       <c r="G191" t="inlineStr">
         <is>
@@ -9524,12 +9524,12 @@
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
@@ -10936,7 +10936,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Procesamiento de Óxidos DMH</t>
+          <t>Planta Fotovoltaica San Pedro de Atacama IV</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -10951,11 +10951,11 @@
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>División Ministro Hales de Codelco Chile</t>
+          <t>GPG Solar Chile 2017 SpA</t>
         </is>
       </c>
       <c r="F221" t="n">
-        <v>70000</v>
+        <v>105250</v>
       </c>
       <c r="G221" t="inlineStr">
         <is>
@@ -10969,7 +10969,7 @@
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7040302&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7052315&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">
@@ -10984,7 +10984,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Planta Fotovoltaica San Pedro de Atacama IV</t>
+          <t>Procesamiento de Óxidos DMH</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -10999,11 +10999,11 @@
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>GPG Solar Chile 2017 SpA</t>
+          <t>División Ministro Hales de Codelco Chile</t>
         </is>
       </c>
       <c r="F222" t="n">
-        <v>105250</v>
+        <v>70000</v>
       </c>
       <c r="G222" t="inlineStr">
         <is>
@@ -11017,7 +11017,7 @@
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7052315&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7040302&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J222" t="inlineStr">
@@ -13096,7 +13096,7 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>Portal del Inca</t>
+          <t>Línea de Transmisión Eléctrica 220 kv Encuentro - MH</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
@@ -13111,11 +13111,11 @@
       </c>
       <c r="E266" t="inlineStr">
         <is>
-          <t>Inmobiliaria Inca Dos Ltda.</t>
+          <t>División Ministro Hales de Codelco Chile</t>
         </is>
       </c>
       <c r="F266" t="n">
-        <v>13948</v>
+        <v>45000</v>
       </c>
       <c r="G266" t="inlineStr">
         <is>
@@ -13124,12 +13124,12 @@
       </c>
       <c r="H266" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I266" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5787635&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5773970&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J266" t="inlineStr">
@@ -13144,7 +13144,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Eléctrica 220 kv Encuentro - MH</t>
+          <t>Portal del Inca</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
@@ -13159,11 +13159,11 @@
       </c>
       <c r="E267" t="inlineStr">
         <is>
-          <t>División Ministro Hales de Codelco Chile</t>
+          <t>Inmobiliaria Inca Dos Ltda.</t>
         </is>
       </c>
       <c r="F267" t="n">
-        <v>45000</v>
+        <v>13948</v>
       </c>
       <c r="G267" t="inlineStr">
         <is>
@@ -13172,12 +13172,12 @@
       </c>
       <c r="H267" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I267" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5773970&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5787635&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J267" t="inlineStr">
@@ -13912,7 +13912,7 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
@@ -13927,11 +13927,11 @@
       </c>
       <c r="E283" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F283" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G283" t="inlineStr">
         <is>
@@ -13940,12 +13940,12 @@
       </c>
       <c r="H283" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I283" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J283" t="inlineStr">
@@ -13960,7 +13960,7 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
@@ -13975,11 +13975,11 @@
       </c>
       <c r="E284" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F284" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G284" t="inlineStr">
         <is>
@@ -13988,12 +13988,12 @@
       </c>
       <c r="H284" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I284" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J284" t="inlineStr">
@@ -19768,7 +19768,7 @@
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>Proyecto Explotación Subterránea Mina Santa Rosa (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C405" t="inlineStr">
@@ -19778,16 +19778,16 @@
       </c>
       <c r="D405" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E405" t="inlineStr">
         <is>
-          <t>Minera Quimal.S.A.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F405" t="n">
-        <v>500</v>
+        <v>1750</v>
       </c>
       <c r="G405" t="inlineStr">
         <is>
@@ -19796,12 +19796,12 @@
       </c>
       <c r="H405" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I405" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3310659&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J405" t="inlineStr">
@@ -19816,7 +19816,7 @@
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Proyecto Explotación Subterránea Mina Santa Rosa (e-seia)</t>
         </is>
       </c>
       <c r="C406" t="inlineStr">
@@ -19826,16 +19826,16 @@
       </c>
       <c r="D406" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E406" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Minera Quimal.S.A.</t>
         </is>
       </c>
       <c r="F406" t="n">
-        <v>1750</v>
+        <v>500</v>
       </c>
       <c r="G406" t="inlineStr">
         <is>
@@ -19844,12 +19844,12 @@
       </c>
       <c r="H406" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I406" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3310659&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J406" t="inlineStr">
@@ -20296,7 +20296,7 @@
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>Tratamiento de Impurezas en Ánodos y Cátodos de División Codelco Norte (e-seia)</t>
         </is>
       </c>
       <c r="C416" t="inlineStr">
@@ -20306,16 +20306,16 @@
       </c>
       <c r="D416" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E416" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Codelco Chile, División Chuquicamata</t>
         </is>
       </c>
       <c r="F416" t="n">
-        <v>250</v>
+        <v>50000</v>
       </c>
       <c r="G416" t="inlineStr">
         <is>
@@ -20324,12 +20324,12 @@
       </c>
       <c r="H416" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I416" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3118819&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J416" t="inlineStr">
@@ -20344,7 +20344,7 @@
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>Tratamiento de Impurezas en Ánodos y Cátodos de División Codelco Norte (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C417" t="inlineStr">
@@ -20354,16 +20354,16 @@
       </c>
       <c r="D417" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E417" t="inlineStr">
         <is>
-          <t>Codelco Chile, División Chuquicamata</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F417" t="n">
-        <v>50000</v>
+        <v>250</v>
       </c>
       <c r="G417" t="inlineStr">
         <is>
@@ -20372,12 +20372,12 @@
       </c>
       <c r="H417" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I417" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3118819&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J417" t="inlineStr">
@@ -23512,26 +23512,26 @@
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
+          <t>LIXIVIACIÓN DE SULFUROS SULFOLIX</t>
         </is>
       </c>
       <c r="C483" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D483" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E483" t="inlineStr">
         <is>
-          <t>Empresa de Residuos RESITER S.A.</t>
+          <t>SOCIEDAD CONTRACTUAL MINERA EL ABRA</t>
         </is>
       </c>
       <c r="F483" t="n">
-        <v>1</v>
+        <v>343000</v>
       </c>
       <c r="G483" t="inlineStr">
         <is>
@@ -23545,7 +23545,7 @@
       </c>
       <c r="I483" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2088630&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J483" t="inlineStr">
@@ -23560,26 +23560,26 @@
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>LIXIVIACIÓN DE SULFUROS SULFOLIX</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C484" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D484" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E484" t="inlineStr">
         <is>
-          <t>SOCIEDAD CONTRACTUAL MINERA EL ABRA</t>
+          <t>Empresa de Residuos RESITER S.A.</t>
         </is>
       </c>
       <c r="F484" t="n">
-        <v>343000</v>
+        <v>1</v>
       </c>
       <c r="G484" t="inlineStr">
         <is>
@@ -23593,7 +23593,7 @@
       </c>
       <c r="I484" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2088630&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J484" t="inlineStr">

--- a/data/Calama.xlsx
+++ b/data/Calama.xlsx
@@ -3928,7 +3928,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>MODIFICACIONES AL PROYECTO EXTRACCIÓN Y MOVIMIENTO DE MINERALES MINA RADOMIRO TOMIC</t>
+          <t>Parque Fotovoltaico Verano de San Juan I</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3943,11 +3943,11 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Victoria Solar SpA</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>208848</v>
+        <v>15000</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
@@ -3956,12 +3956,12 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138513102&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138522682&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3976,7 +3976,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Verano de San Juan I</t>
+          <t>Parque Fotovoltaico Verano de San Juan II</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3991,7 +3991,7 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Victoria Solar SpA</t>
+          <t>Paine Energy SpA</t>
         </is>
       </c>
       <c r="F76" t="n">
@@ -4009,7 +4009,7 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138522682&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138526892&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4024,7 +4024,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Verano de San Juan II</t>
+          <t>MODIFICACIONES AL PROYECTO EXTRACCIÓN Y MOVIMIENTO DE MINERALES MINA RADOMIRO TOMIC</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4039,11 +4039,11 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Paine Energy SpA</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>15000</v>
+        <v>208848</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
@@ -4052,12 +4052,12 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138526892&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138513102&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -7912,7 +7912,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>AUMENTO CAPACIDAD DE TRATAMIENTO DE EFLUENTES DE FUNDICIÓN</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -7922,16 +7922,16 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>Codelco Chile, División Chuquicamata</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F158" t="n">
-        <v>67700</v>
+        <v>1200</v>
       </c>
       <c r="G158" t="inlineStr">
         <is>
@@ -7945,7 +7945,7 @@
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128952737&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -7960,7 +7960,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Proyecto Fotovoltaico Azabache</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -7970,16 +7970,16 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>Almeyda Solar SpA.</t>
         </is>
       </c>
       <c r="F159" t="n">
-        <v>1200</v>
+        <v>140000</v>
       </c>
       <c r="G159" t="inlineStr">
         <is>
@@ -7993,7 +7993,7 @@
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128969457&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -8008,7 +8008,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Proyecto Fotovoltaico Azabache</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -8018,16 +8018,16 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>Almeyda Solar SpA.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F160" t="n">
-        <v>140000</v>
+        <v>0</v>
       </c>
       <c r="G160" t="inlineStr">
         <is>
@@ -8041,7 +8041,7 @@
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128969457&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
@@ -8056,7 +8056,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>BARRIO CONTRATISTA GERENCIA DE PROYECTOS</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -8066,16 +8066,16 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Codelco Chile, División Chuquicamata</t>
         </is>
       </c>
       <c r="F161" t="n">
-        <v>0</v>
+        <v>8000</v>
       </c>
       <c r="G161" t="inlineStr">
         <is>
@@ -8089,7 +8089,7 @@
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128904823&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
@@ -8104,7 +8104,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>BARRIO CONTRATISTA GERENCIA DE PROYECTOS</t>
+          <t>AUMENTO CAPACIDAD DE TRATAMIENTO DE EFLUENTES DE FUNDICIÓN</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -8123,7 +8123,7 @@
         </is>
       </c>
       <c r="F162" t="n">
-        <v>8000</v>
+        <v>67700</v>
       </c>
       <c r="G162" t="inlineStr">
         <is>
@@ -8137,7 +8137,7 @@
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128904823&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128952737&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
@@ -8152,7 +8152,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Remodelación Parque El Loa</t>
+          <t>Aumento Áreas de Lixiviación, sector Quebrada Portezuelo</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -8167,11 +8167,11 @@
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Calama</t>
+          <t>Codelco Chile, División Chuquicamata</t>
         </is>
       </c>
       <c r="F163" t="n">
-        <v>9074</v>
+        <v>5888</v>
       </c>
       <c r="G163" t="inlineStr">
         <is>
@@ -8185,7 +8185,7 @@
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128906904&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128955081&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -8200,7 +8200,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Aumento Áreas de Lixiviación, sector Quebrada Portezuelo</t>
+          <t>Remodelación Parque El Loa</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -8215,11 +8215,11 @@
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>Codelco Chile, División Chuquicamata</t>
+          <t>Ilustre Municipalidad de Calama</t>
         </is>
       </c>
       <c r="F164" t="n">
-        <v>5888</v>
+        <v>9074</v>
       </c>
       <c r="G164" t="inlineStr">
         <is>
@@ -8233,7 +8233,7 @@
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128955081&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128906904&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
@@ -8824,7 +8824,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -8839,11 +8839,11 @@
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F177" t="n">
-        <v>219</v>
+        <v>12500</v>
       </c>
       <c r="G177" t="inlineStr">
         <is>
@@ -8852,12 +8852,12 @@
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556590&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
@@ -8872,7 +8872,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -8891,7 +8891,7 @@
         </is>
       </c>
       <c r="F178" t="n">
-        <v>12500</v>
+        <v>10000</v>
       </c>
       <c r="G178" t="inlineStr">
         <is>
@@ -8905,7 +8905,7 @@
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
@@ -8920,7 +8920,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -8935,11 +8935,11 @@
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F179" t="n">
-        <v>10000</v>
+        <v>219</v>
       </c>
       <c r="G179" t="inlineStr">
         <is>
@@ -8948,12 +8948,12 @@
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556590&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
@@ -9448,26 +9448,26 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>RT Sulfuros</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F190" t="n">
-        <v>5.4</v>
+        <v>2050</v>
       </c>
       <c r="G190" t="inlineStr">
         <is>
@@ -9476,12 +9476,12 @@
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
@@ -9496,26 +9496,26 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>RT Sulfuros</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F191" t="n">
-        <v>2050</v>
+        <v>5.4</v>
       </c>
       <c r="G191" t="inlineStr">
         <is>
@@ -9524,12 +9524,12 @@
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
@@ -10936,7 +10936,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Planta Fotovoltaica San Pedro de Atacama IV</t>
+          <t>Procesamiento de Óxidos DMH</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -10951,11 +10951,11 @@
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>GPG Solar Chile 2017 SpA</t>
+          <t>División Ministro Hales de Codelco Chile</t>
         </is>
       </c>
       <c r="F221" t="n">
-        <v>105250</v>
+        <v>70000</v>
       </c>
       <c r="G221" t="inlineStr">
         <is>
@@ -10969,7 +10969,7 @@
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7052315&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7040302&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">
@@ -10984,7 +10984,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Procesamiento de Óxidos DMH</t>
+          <t>Planta Fotovoltaica San Pedro de Atacama IV</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -10999,11 +10999,11 @@
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>División Ministro Hales de Codelco Chile</t>
+          <t>GPG Solar Chile 2017 SpA</t>
         </is>
       </c>
       <c r="F222" t="n">
-        <v>70000</v>
+        <v>105250</v>
       </c>
       <c r="G222" t="inlineStr">
         <is>
@@ -11017,7 +11017,7 @@
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7040302&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7052315&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J222" t="inlineStr">
@@ -13096,7 +13096,7 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Eléctrica 220 kv Encuentro - MH</t>
+          <t>Portal del Inca</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
@@ -13111,11 +13111,11 @@
       </c>
       <c r="E266" t="inlineStr">
         <is>
-          <t>División Ministro Hales de Codelco Chile</t>
+          <t>Inmobiliaria Inca Dos Ltda.</t>
         </is>
       </c>
       <c r="F266" t="n">
-        <v>45000</v>
+        <v>13948</v>
       </c>
       <c r="G266" t="inlineStr">
         <is>
@@ -13124,12 +13124,12 @@
       </c>
       <c r="H266" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I266" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5773970&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5787635&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J266" t="inlineStr">
@@ -13144,7 +13144,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>Portal del Inca</t>
+          <t>Línea de Transmisión Eléctrica 220 kv Encuentro - MH</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
@@ -13159,11 +13159,11 @@
       </c>
       <c r="E267" t="inlineStr">
         <is>
-          <t>Inmobiliaria Inca Dos Ltda.</t>
+          <t>División Ministro Hales de Codelco Chile</t>
         </is>
       </c>
       <c r="F267" t="n">
-        <v>13948</v>
+        <v>45000</v>
       </c>
       <c r="G267" t="inlineStr">
         <is>
@@ -13172,12 +13172,12 @@
       </c>
       <c r="H267" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I267" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5787635&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5773970&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J267" t="inlineStr">
@@ -13912,7 +13912,7 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
@@ -13927,11 +13927,11 @@
       </c>
       <c r="E283" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F283" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G283" t="inlineStr">
         <is>
@@ -13940,12 +13940,12 @@
       </c>
       <c r="H283" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I283" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J283" t="inlineStr">
@@ -13960,7 +13960,7 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
@@ -13975,11 +13975,11 @@
       </c>
       <c r="E284" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F284" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G284" t="inlineStr">
         <is>
@@ -13988,12 +13988,12 @@
       </c>
       <c r="H284" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I284" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J284" t="inlineStr">
@@ -19768,7 +19768,7 @@
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Proyecto Explotación Subterránea Mina Santa Rosa (e-seia)</t>
         </is>
       </c>
       <c r="C405" t="inlineStr">
@@ -19778,16 +19778,16 @@
       </c>
       <c r="D405" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E405" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Minera Quimal.S.A.</t>
         </is>
       </c>
       <c r="F405" t="n">
-        <v>1750</v>
+        <v>500</v>
       </c>
       <c r="G405" t="inlineStr">
         <is>
@@ -19796,12 +19796,12 @@
       </c>
       <c r="H405" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I405" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3310659&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J405" t="inlineStr">
@@ -19816,7 +19816,7 @@
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>Proyecto Explotación Subterránea Mina Santa Rosa (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C406" t="inlineStr">
@@ -19826,16 +19826,16 @@
       </c>
       <c r="D406" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E406" t="inlineStr">
         <is>
-          <t>Minera Quimal.S.A.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F406" t="n">
-        <v>500</v>
+        <v>1750</v>
       </c>
       <c r="G406" t="inlineStr">
         <is>
@@ -19844,12 +19844,12 @@
       </c>
       <c r="H406" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I406" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3310659&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J406" t="inlineStr">
@@ -20296,7 +20296,7 @@
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>Tratamiento de Impurezas en Ánodos y Cátodos de División Codelco Norte (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C416" t="inlineStr">
@@ -20306,16 +20306,16 @@
       </c>
       <c r="D416" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E416" t="inlineStr">
         <is>
-          <t>Codelco Chile, División Chuquicamata</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F416" t="n">
-        <v>50000</v>
+        <v>250</v>
       </c>
       <c r="G416" t="inlineStr">
         <is>
@@ -20324,12 +20324,12 @@
       </c>
       <c r="H416" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I416" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3118819&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J416" t="inlineStr">
@@ -20344,7 +20344,7 @@
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>Tratamiento de Impurezas en Ánodos y Cátodos de División Codelco Norte (e-seia)</t>
         </is>
       </c>
       <c r="C417" t="inlineStr">
@@ -20354,16 +20354,16 @@
       </c>
       <c r="D417" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E417" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Codelco Chile, División Chuquicamata</t>
         </is>
       </c>
       <c r="F417" t="n">
-        <v>250</v>
+        <v>50000</v>
       </c>
       <c r="G417" t="inlineStr">
         <is>
@@ -20372,12 +20372,12 @@
       </c>
       <c r="H417" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I417" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3118819&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J417" t="inlineStr">
@@ -23512,26 +23512,26 @@
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>LIXIVIACIÓN DE SULFUROS SULFOLIX</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C483" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D483" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E483" t="inlineStr">
         <is>
-          <t>SOCIEDAD CONTRACTUAL MINERA EL ABRA</t>
+          <t>Empresa de Residuos RESITER S.A.</t>
         </is>
       </c>
       <c r="F483" t="n">
-        <v>343000</v>
+        <v>1</v>
       </c>
       <c r="G483" t="inlineStr">
         <is>
@@ -23545,7 +23545,7 @@
       </c>
       <c r="I483" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2088630&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J483" t="inlineStr">
@@ -23560,26 +23560,26 @@
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
+          <t>LIXIVIACIÓN DE SULFUROS SULFOLIX</t>
         </is>
       </c>
       <c r="C484" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D484" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E484" t="inlineStr">
         <is>
-          <t>Empresa de Residuos RESITER S.A.</t>
+          <t>SOCIEDAD CONTRACTUAL MINERA EL ABRA</t>
         </is>
       </c>
       <c r="F484" t="n">
-        <v>1</v>
+        <v>343000</v>
       </c>
       <c r="G484" t="inlineStr">
         <is>
@@ -23593,7 +23593,7 @@
       </c>
       <c r="I484" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2088630&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J484" t="inlineStr">

--- a/data/Calama.xlsx
+++ b/data/Calama.xlsx
@@ -17719,7 +17719,7 @@
       </c>
       <c r="E362" t="inlineStr">
         <is>
-          <t>Sociedad Transportes Ilzauspe Limitada</t>
+          <t>Sociedad de Transportes Ilzauspe Limitada</t>
         </is>
       </c>
       <c r="F362" t="n">

--- a/data/Calama.xlsx
+++ b/data/Calama.xlsx
@@ -836,7 +836,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -3976,7 +3976,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Verano de San Juan I</t>
+          <t>MODIFICACIONES AL PROYECTO EXTRACCIÓN Y MOVIMIENTO DE MINERALES MINA RADOMIRO TOMIC</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3991,11 +3991,11 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Victoria Solar SpA</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>15000</v>
+        <v>208848</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
@@ -4004,12 +4004,12 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138522682&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138513102&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4024,7 +4024,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Verano de San Juan II</t>
+          <t>Parque Fotovoltaico Verano de San Juan I</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4039,7 +4039,7 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Paine Energy SpA</t>
+          <t>Victoria Solar SpA</t>
         </is>
       </c>
       <c r="F77" t="n">
@@ -4057,7 +4057,7 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138526892&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138522682&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4072,7 +4072,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>MODIFICACIONES AL PROYECTO EXTRACCIÓN Y MOVIMIENTO DE MINERALES MINA RADOMIRO TOMIC</t>
+          <t>Parque Fotovoltaico Verano de San Juan II</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4087,11 +4087,11 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Paine Energy SpA</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>208848</v>
+        <v>15000</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
@@ -4100,12 +4100,12 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138513102&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138526892&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -7960,7 +7960,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>AUMENTO CAPACIDAD DE TRATAMIENTO DE EFLUENTES DE FUNDICIÓN</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -7970,16 +7970,16 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>Codelco Chile, División Chuquicamata</t>
         </is>
       </c>
       <c r="F159" t="n">
-        <v>1200</v>
+        <v>67700</v>
       </c>
       <c r="G159" t="inlineStr">
         <is>
@@ -7993,7 +7993,7 @@
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128952737&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -8008,7 +8008,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Proyecto Fotovoltaico Azabache</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -8018,16 +8018,16 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>Almeyda Solar SpA.</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F160" t="n">
-        <v>140000</v>
+        <v>1200</v>
       </c>
       <c r="G160" t="inlineStr">
         <is>
@@ -8041,7 +8041,7 @@
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128969457&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
@@ -8056,7 +8056,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Proyecto Fotovoltaico Azabache</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -8066,16 +8066,16 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Almeyda Solar SpA.</t>
         </is>
       </c>
       <c r="F161" t="n">
-        <v>0</v>
+        <v>140000</v>
       </c>
       <c r="G161" t="inlineStr">
         <is>
@@ -8089,7 +8089,7 @@
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128969457&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
@@ -8104,7 +8104,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>BARRIO CONTRATISTA GERENCIA DE PROYECTOS</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -8114,16 +8114,16 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>Codelco Chile, División Chuquicamata</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F162" t="n">
-        <v>8000</v>
+        <v>0</v>
       </c>
       <c r="G162" t="inlineStr">
         <is>
@@ -8137,7 +8137,7 @@
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128904823&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
@@ -8152,7 +8152,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>AUMENTO CAPACIDAD DE TRATAMIENTO DE EFLUENTES DE FUNDICIÓN</t>
+          <t>BARRIO CONTRATISTA GERENCIA DE PROYECTOS</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="F163" t="n">
-        <v>67700</v>
+        <v>8000</v>
       </c>
       <c r="G163" t="inlineStr">
         <is>
@@ -8185,7 +8185,7 @@
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128952737&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128904823&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -8200,7 +8200,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Aumento Áreas de Lixiviación, sector Quebrada Portezuelo</t>
+          <t>Remodelación Parque El Loa</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -8215,11 +8215,11 @@
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>Codelco Chile, División Chuquicamata</t>
+          <t>Ilustre Municipalidad de Calama</t>
         </is>
       </c>
       <c r="F164" t="n">
-        <v>5888</v>
+        <v>9074</v>
       </c>
       <c r="G164" t="inlineStr">
         <is>
@@ -8233,7 +8233,7 @@
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128955081&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128906904&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
@@ -8248,7 +8248,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Remodelación Parque El Loa</t>
+          <t>Aumento Áreas de Lixiviación, sector Quebrada Portezuelo</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -8263,11 +8263,11 @@
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Calama</t>
+          <t>Codelco Chile, División Chuquicamata</t>
         </is>
       </c>
       <c r="F165" t="n">
-        <v>9074</v>
+        <v>5888</v>
       </c>
       <c r="G165" t="inlineStr">
         <is>
@@ -8281,7 +8281,7 @@
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128906904&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128955081&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
@@ -8872,7 +8872,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -8887,11 +8887,11 @@
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F178" t="n">
-        <v>12500</v>
+        <v>219</v>
       </c>
       <c r="G178" t="inlineStr">
         <is>
@@ -8900,12 +8900,12 @@
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556590&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
@@ -8920,7 +8920,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
+          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -8939,7 +8939,7 @@
         </is>
       </c>
       <c r="F179" t="n">
-        <v>10000</v>
+        <v>12500</v>
       </c>
       <c r="G179" t="inlineStr">
         <is>
@@ -8953,7 +8953,7 @@
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
@@ -8968,7 +8968,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -8983,11 +8983,11 @@
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F180" t="n">
-        <v>219</v>
+        <v>10000</v>
       </c>
       <c r="G180" t="inlineStr">
         <is>
@@ -8996,12 +8996,12 @@
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556590&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
@@ -9496,26 +9496,26 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>RT Sulfuros</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F191" t="n">
-        <v>2050</v>
+        <v>5.4</v>
       </c>
       <c r="G191" t="inlineStr">
         <is>
@@ -9524,12 +9524,12 @@
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
@@ -9544,26 +9544,26 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>RT Sulfuros</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F192" t="n">
-        <v>5.4</v>
+        <v>2050</v>
       </c>
       <c r="G192" t="inlineStr">
         <is>
@@ -9572,12 +9572,12 @@
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
@@ -10984,7 +10984,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Procesamiento de Óxidos DMH</t>
+          <t>Planta Fotovoltaica San Pedro de Atacama IV</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -10999,11 +10999,11 @@
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>División Ministro Hales de Codelco Chile</t>
+          <t>GPG Solar Chile 2017 SpA</t>
         </is>
       </c>
       <c r="F222" t="n">
-        <v>70000</v>
+        <v>105250</v>
       </c>
       <c r="G222" t="inlineStr">
         <is>
@@ -11017,7 +11017,7 @@
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7040302&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7052315&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J222" t="inlineStr">
@@ -11032,7 +11032,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Planta Fotovoltaica San Pedro de Atacama IV</t>
+          <t>Procesamiento de Óxidos DMH</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -11047,11 +11047,11 @@
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>GPG Solar Chile 2017 SpA</t>
+          <t>División Ministro Hales de Codelco Chile</t>
         </is>
       </c>
       <c r="F223" t="n">
-        <v>105250</v>
+        <v>70000</v>
       </c>
       <c r="G223" t="inlineStr">
         <is>
@@ -11065,7 +11065,7 @@
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7052315&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7040302&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J223" t="inlineStr">
@@ -13144,7 +13144,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>Portal del Inca</t>
+          <t>Línea de Transmisión Eléctrica 220 kv Encuentro - MH</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
@@ -13159,11 +13159,11 @@
       </c>
       <c r="E267" t="inlineStr">
         <is>
-          <t>Inmobiliaria Inca Dos Ltda.</t>
+          <t>División Ministro Hales de Codelco Chile</t>
         </is>
       </c>
       <c r="F267" t="n">
-        <v>13948</v>
+        <v>45000</v>
       </c>
       <c r="G267" t="inlineStr">
         <is>
@@ -13172,12 +13172,12 @@
       </c>
       <c r="H267" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I267" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5787635&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5773970&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J267" t="inlineStr">
@@ -13192,7 +13192,7 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Eléctrica 220 kv Encuentro - MH</t>
+          <t>Portal del Inca</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
@@ -13207,11 +13207,11 @@
       </c>
       <c r="E268" t="inlineStr">
         <is>
-          <t>División Ministro Hales de Codelco Chile</t>
+          <t>Inmobiliaria Inca Dos Ltda.</t>
         </is>
       </c>
       <c r="F268" t="n">
-        <v>45000</v>
+        <v>13948</v>
       </c>
       <c r="G268" t="inlineStr">
         <is>
@@ -13220,12 +13220,12 @@
       </c>
       <c r="H268" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I268" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5773970&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5787635&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J268" t="inlineStr">
@@ -13960,7 +13960,7 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
@@ -13975,11 +13975,11 @@
       </c>
       <c r="E284" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F284" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G284" t="inlineStr">
         <is>
@@ -13988,12 +13988,12 @@
       </c>
       <c r="H284" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I284" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J284" t="inlineStr">
@@ -14008,7 +14008,7 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
@@ -14023,11 +14023,11 @@
       </c>
       <c r="E285" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F285" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G285" t="inlineStr">
         <is>
@@ -14036,12 +14036,12 @@
       </c>
       <c r="H285" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I285" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J285" t="inlineStr">
@@ -19816,7 +19816,7 @@
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>Proyecto Explotación Subterránea Mina Santa Rosa (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C406" t="inlineStr">
@@ -19826,16 +19826,16 @@
       </c>
       <c r="D406" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E406" t="inlineStr">
         <is>
-          <t>Minera Quimal.S.A.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F406" t="n">
-        <v>500</v>
+        <v>1750</v>
       </c>
       <c r="G406" t="inlineStr">
         <is>
@@ -19844,12 +19844,12 @@
       </c>
       <c r="H406" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I406" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3310659&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J406" t="inlineStr">
@@ -19864,7 +19864,7 @@
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Proyecto Explotación Subterránea Mina Santa Rosa (e-seia)</t>
         </is>
       </c>
       <c r="C407" t="inlineStr">
@@ -19874,16 +19874,16 @@
       </c>
       <c r="D407" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E407" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Minera Quimal.S.A.</t>
         </is>
       </c>
       <c r="F407" t="n">
-        <v>1750</v>
+        <v>500</v>
       </c>
       <c r="G407" t="inlineStr">
         <is>
@@ -19892,12 +19892,12 @@
       </c>
       <c r="H407" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I407" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3310659&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J407" t="inlineStr">
@@ -20344,7 +20344,7 @@
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>Tratamiento de Impurezas en Ánodos y Cátodos de División Codelco Norte (e-seia)</t>
         </is>
       </c>
       <c r="C417" t="inlineStr">
@@ -20354,16 +20354,16 @@
       </c>
       <c r="D417" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E417" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Codelco Chile, División Chuquicamata</t>
         </is>
       </c>
       <c r="F417" t="n">
-        <v>250</v>
+        <v>50000</v>
       </c>
       <c r="G417" t="inlineStr">
         <is>
@@ -20372,12 +20372,12 @@
       </c>
       <c r="H417" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I417" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3118819&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J417" t="inlineStr">
@@ -20392,7 +20392,7 @@
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>Tratamiento de Impurezas en Ánodos y Cátodos de División Codelco Norte (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C418" t="inlineStr">
@@ -20402,16 +20402,16 @@
       </c>
       <c r="D418" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E418" t="inlineStr">
         <is>
-          <t>Codelco Chile, División Chuquicamata</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F418" t="n">
-        <v>50000</v>
+        <v>250</v>
       </c>
       <c r="G418" t="inlineStr">
         <is>
@@ -20420,12 +20420,12 @@
       </c>
       <c r="H418" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I418" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3118819&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J418" t="inlineStr">
@@ -20536,7 +20536,7 @@
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>Proyecto Exploración Minera Macarena - Leo (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C421" t="inlineStr">
@@ -20546,16 +20546,16 @@
       </c>
       <c r="D421" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E421" t="inlineStr">
         <is>
-          <t>Minera Fuego Limitada</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F421" t="n">
-        <v>150</v>
+        <v>1650</v>
       </c>
       <c r="G421" t="inlineStr">
         <is>
@@ -20569,7 +20569,7 @@
       </c>
       <c r="I421" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088992&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J421" t="inlineStr">
@@ -20584,7 +20584,7 @@
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>Proyecto Exploración Minera Macarena - Leo (e-seia)</t>
         </is>
       </c>
       <c r="C422" t="inlineStr">
@@ -20594,16 +20594,16 @@
       </c>
       <c r="D422" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E422" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Minera Fuego Limitada</t>
         </is>
       </c>
       <c r="F422" t="n">
-        <v>1650</v>
+        <v>150</v>
       </c>
       <c r="G422" t="inlineStr">
         <is>
@@ -20617,7 +20617,7 @@
       </c>
       <c r="I422" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088992&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J422" t="inlineStr">
@@ -23560,26 +23560,26 @@
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
+          <t>LIXIVIACIÓN DE SULFUROS SULFOLIX</t>
         </is>
       </c>
       <c r="C484" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D484" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E484" t="inlineStr">
         <is>
-          <t>Empresa de Residuos RESITER S.A.</t>
+          <t>SOCIEDAD CONTRACTUAL MINERA EL ABRA</t>
         </is>
       </c>
       <c r="F484" t="n">
-        <v>1</v>
+        <v>343000</v>
       </c>
       <c r="G484" t="inlineStr">
         <is>
@@ -23593,7 +23593,7 @@
       </c>
       <c r="I484" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2088630&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J484" t="inlineStr">
@@ -23608,26 +23608,26 @@
       </c>
       <c r="B485" t="inlineStr">
         <is>
-          <t>LIXIVIACIÓN DE SULFUROS SULFOLIX</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C485" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D485" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E485" t="inlineStr">
         <is>
-          <t>SOCIEDAD CONTRACTUAL MINERA EL ABRA</t>
+          <t>Empresa de Residuos RESITER S.A.</t>
         </is>
       </c>
       <c r="F485" t="n">
-        <v>343000</v>
+        <v>1</v>
       </c>
       <c r="G485" t="inlineStr">
         <is>
@@ -23641,7 +23641,7 @@
       </c>
       <c r="I485" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2088630&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J485" t="inlineStr">

--- a/data/Calama.xlsx
+++ b/data/Calama.xlsx
@@ -3976,7 +3976,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>MODIFICACIONES AL PROYECTO EXTRACCIÓN Y MOVIMIENTO DE MINERALES MINA RADOMIRO TOMIC</t>
+          <t>Parque Fotovoltaico Verano de San Juan I</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3991,11 +3991,11 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Victoria Solar SpA</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>208848</v>
+        <v>15000</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
@@ -4004,12 +4004,12 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138513102&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138522682&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4024,7 +4024,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Verano de San Juan I</t>
+          <t>Parque Fotovoltaico Verano de San Juan II</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4039,7 +4039,7 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Victoria Solar SpA</t>
+          <t>Paine Energy SpA</t>
         </is>
       </c>
       <c r="F77" t="n">
@@ -4057,7 +4057,7 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138522682&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138526892&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4072,7 +4072,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Verano de San Juan II</t>
+          <t>MODIFICACIONES AL PROYECTO EXTRACCIÓN Y MOVIMIENTO DE MINERALES MINA RADOMIRO TOMIC</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4087,11 +4087,11 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Paine Energy SpA</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>15000</v>
+        <v>208848</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
@@ -4100,12 +4100,12 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138526892&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138513102&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -8008,7 +8008,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>BARRIO CONTRATISTA GERENCIA DE PROYECTOS</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -8018,16 +8018,16 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>Codelco Chile, División Chuquicamata</t>
         </is>
       </c>
       <c r="F160" t="n">
-        <v>1200</v>
+        <v>8000</v>
       </c>
       <c r="G160" t="inlineStr">
         <is>
@@ -8041,7 +8041,7 @@
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128904823&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
@@ -8056,7 +8056,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Proyecto Fotovoltaico Azabache</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -8066,16 +8066,16 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>Almeyda Solar SpA.</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F161" t="n">
-        <v>140000</v>
+        <v>1200</v>
       </c>
       <c r="G161" t="inlineStr">
         <is>
@@ -8089,7 +8089,7 @@
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128969457&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
@@ -8104,7 +8104,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Proyecto Fotovoltaico Azabache</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -8114,16 +8114,16 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Almeyda Solar SpA.</t>
         </is>
       </c>
       <c r="F162" t="n">
-        <v>0</v>
+        <v>140000</v>
       </c>
       <c r="G162" t="inlineStr">
         <is>
@@ -8137,7 +8137,7 @@
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128969457&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
@@ -8152,7 +8152,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>BARRIO CONTRATISTA GERENCIA DE PROYECTOS</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -8162,16 +8162,16 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>Codelco Chile, División Chuquicamata</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F163" t="n">
-        <v>8000</v>
+        <v>0</v>
       </c>
       <c r="G163" t="inlineStr">
         <is>
@@ -8185,7 +8185,7 @@
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128904823&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -8872,7 +8872,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -8887,11 +8887,11 @@
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F178" t="n">
-        <v>219</v>
+        <v>12500</v>
       </c>
       <c r="G178" t="inlineStr">
         <is>
@@ -8900,12 +8900,12 @@
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556590&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
@@ -8920,7 +8920,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -8939,7 +8939,7 @@
         </is>
       </c>
       <c r="F179" t="n">
-        <v>12500</v>
+        <v>10000</v>
       </c>
       <c r="G179" t="inlineStr">
         <is>
@@ -8953,7 +8953,7 @@
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
@@ -8968,7 +8968,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -8983,11 +8983,11 @@
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F180" t="n">
-        <v>10000</v>
+        <v>219</v>
       </c>
       <c r="G180" t="inlineStr">
         <is>
@@ -8996,12 +8996,12 @@
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556590&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
@@ -9496,26 +9496,26 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>RT Sulfuros</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F191" t="n">
-        <v>5.4</v>
+        <v>2050</v>
       </c>
       <c r="G191" t="inlineStr">
         <is>
@@ -9524,12 +9524,12 @@
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
@@ -9544,26 +9544,26 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>RT Sulfuros</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F192" t="n">
-        <v>2050</v>
+        <v>5.4</v>
       </c>
       <c r="G192" t="inlineStr">
         <is>
@@ -9572,12 +9572,12 @@
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
@@ -10984,7 +10984,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Planta Fotovoltaica San Pedro de Atacama IV</t>
+          <t>Procesamiento de Óxidos DMH</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -10999,11 +10999,11 @@
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>GPG Solar Chile 2017 SpA</t>
+          <t>División Ministro Hales de Codelco Chile</t>
         </is>
       </c>
       <c r="F222" t="n">
-        <v>105250</v>
+        <v>70000</v>
       </c>
       <c r="G222" t="inlineStr">
         <is>
@@ -11017,7 +11017,7 @@
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7052315&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7040302&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J222" t="inlineStr">
@@ -11032,7 +11032,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Procesamiento de Óxidos DMH</t>
+          <t>Planta Fotovoltaica San Pedro de Atacama IV</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -11047,11 +11047,11 @@
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>División Ministro Hales de Codelco Chile</t>
+          <t>GPG Solar Chile 2017 SpA</t>
         </is>
       </c>
       <c r="F223" t="n">
-        <v>70000</v>
+        <v>105250</v>
       </c>
       <c r="G223" t="inlineStr">
         <is>
@@ -11065,7 +11065,7 @@
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7040302&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7052315&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J223" t="inlineStr">
@@ -13144,7 +13144,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Eléctrica 220 kv Encuentro - MH</t>
+          <t>Portal del Inca</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
@@ -13159,11 +13159,11 @@
       </c>
       <c r="E267" t="inlineStr">
         <is>
-          <t>División Ministro Hales de Codelco Chile</t>
+          <t>Inmobiliaria Inca Dos Ltda.</t>
         </is>
       </c>
       <c r="F267" t="n">
-        <v>45000</v>
+        <v>13948</v>
       </c>
       <c r="G267" t="inlineStr">
         <is>
@@ -13172,12 +13172,12 @@
       </c>
       <c r="H267" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I267" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5773970&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5787635&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J267" t="inlineStr">
@@ -13192,7 +13192,7 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>Portal del Inca</t>
+          <t>Línea de Transmisión Eléctrica 220 kv Encuentro - MH</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
@@ -13207,11 +13207,11 @@
       </c>
       <c r="E268" t="inlineStr">
         <is>
-          <t>Inmobiliaria Inca Dos Ltda.</t>
+          <t>División Ministro Hales de Codelco Chile</t>
         </is>
       </c>
       <c r="F268" t="n">
-        <v>13948</v>
+        <v>45000</v>
       </c>
       <c r="G268" t="inlineStr">
         <is>
@@ -13220,12 +13220,12 @@
       </c>
       <c r="H268" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I268" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5787635&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5773970&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J268" t="inlineStr">
@@ -13960,7 +13960,7 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
@@ -13975,11 +13975,11 @@
       </c>
       <c r="E284" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F284" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G284" t="inlineStr">
         <is>
@@ -13988,12 +13988,12 @@
       </c>
       <c r="H284" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I284" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J284" t="inlineStr">
@@ -14008,7 +14008,7 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
@@ -14023,11 +14023,11 @@
       </c>
       <c r="E285" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F285" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G285" t="inlineStr">
         <is>
@@ -14036,12 +14036,12 @@
       </c>
       <c r="H285" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I285" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J285" t="inlineStr">
@@ -19816,7 +19816,7 @@
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Proyecto Explotación Subterránea Mina Santa Rosa (e-seia)</t>
         </is>
       </c>
       <c r="C406" t="inlineStr">
@@ -19826,16 +19826,16 @@
       </c>
       <c r="D406" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E406" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Minera Quimal.S.A.</t>
         </is>
       </c>
       <c r="F406" t="n">
-        <v>1750</v>
+        <v>500</v>
       </c>
       <c r="G406" t="inlineStr">
         <is>
@@ -19844,12 +19844,12 @@
       </c>
       <c r="H406" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I406" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3310659&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J406" t="inlineStr">
@@ -19864,7 +19864,7 @@
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>Proyecto Explotación Subterránea Mina Santa Rosa (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C407" t="inlineStr">
@@ -19874,16 +19874,16 @@
       </c>
       <c r="D407" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E407" t="inlineStr">
         <is>
-          <t>Minera Quimal.S.A.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F407" t="n">
-        <v>500</v>
+        <v>1750</v>
       </c>
       <c r="G407" t="inlineStr">
         <is>
@@ -19892,12 +19892,12 @@
       </c>
       <c r="H407" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I407" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3310659&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J407" t="inlineStr">
@@ -20344,7 +20344,7 @@
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>Tratamiento de Impurezas en Ánodos y Cátodos de División Codelco Norte (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C417" t="inlineStr">
@@ -20354,16 +20354,16 @@
       </c>
       <c r="D417" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E417" t="inlineStr">
         <is>
-          <t>Codelco Chile, División Chuquicamata</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F417" t="n">
-        <v>50000</v>
+        <v>250</v>
       </c>
       <c r="G417" t="inlineStr">
         <is>
@@ -20372,12 +20372,12 @@
       </c>
       <c r="H417" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I417" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3118819&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J417" t="inlineStr">
@@ -20392,7 +20392,7 @@
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>Tratamiento de Impurezas en Ánodos y Cátodos de División Codelco Norte (e-seia)</t>
         </is>
       </c>
       <c r="C418" t="inlineStr">
@@ -20402,16 +20402,16 @@
       </c>
       <c r="D418" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E418" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Codelco Chile, División Chuquicamata</t>
         </is>
       </c>
       <c r="F418" t="n">
-        <v>250</v>
+        <v>50000</v>
       </c>
       <c r="G418" t="inlineStr">
         <is>
@@ -20420,12 +20420,12 @@
       </c>
       <c r="H418" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I418" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3118819&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J418" t="inlineStr">
@@ -23560,26 +23560,26 @@
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>LIXIVIACIÓN DE SULFUROS SULFOLIX</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C484" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D484" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E484" t="inlineStr">
         <is>
-          <t>SOCIEDAD CONTRACTUAL MINERA EL ABRA</t>
+          <t>Empresa de Residuos RESITER S.A.</t>
         </is>
       </c>
       <c r="F484" t="n">
-        <v>343000</v>
+        <v>1</v>
       </c>
       <c r="G484" t="inlineStr">
         <is>
@@ -23593,7 +23593,7 @@
       </c>
       <c r="I484" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2088630&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J484" t="inlineStr">
@@ -23608,26 +23608,26 @@
       </c>
       <c r="B485" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
+          <t>LIXIVIACIÓN DE SULFUROS SULFOLIX</t>
         </is>
       </c>
       <c r="C485" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D485" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E485" t="inlineStr">
         <is>
-          <t>Empresa de Residuos RESITER S.A.</t>
+          <t>SOCIEDAD CONTRACTUAL MINERA EL ABRA</t>
         </is>
       </c>
       <c r="F485" t="n">
-        <v>1</v>
+        <v>343000</v>
       </c>
       <c r="G485" t="inlineStr">
         <is>
@@ -23641,7 +23641,7 @@
       </c>
       <c r="I485" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2088630&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J485" t="inlineStr">

--- a/data/Calama.xlsx
+++ b/data/Calama.xlsx
@@ -3976,7 +3976,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Verano de San Juan I</t>
+          <t>MODIFICACIONES AL PROYECTO EXTRACCIÓN Y MOVIMIENTO DE MINERALES MINA RADOMIRO TOMIC</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3991,11 +3991,11 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Victoria Solar SpA</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>15000</v>
+        <v>208848</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
@@ -4004,12 +4004,12 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138522682&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138513102&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4024,7 +4024,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Verano de San Juan II</t>
+          <t>Parque Fotovoltaico Verano de San Juan I</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4039,7 +4039,7 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Paine Energy SpA</t>
+          <t>Victoria Solar SpA</t>
         </is>
       </c>
       <c r="F77" t="n">
@@ -4057,7 +4057,7 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138526892&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138522682&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4072,7 +4072,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>MODIFICACIONES AL PROYECTO EXTRACCIÓN Y MOVIMIENTO DE MINERALES MINA RADOMIRO TOMIC</t>
+          <t>Parque Fotovoltaico Verano de San Juan II</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4087,11 +4087,11 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Paine Energy SpA</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>208848</v>
+        <v>15000</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
@@ -4100,12 +4100,12 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138513102&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138526892&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -8008,7 +8008,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>BARRIO CONTRATISTA GERENCIA DE PROYECTOS</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -8018,16 +8018,16 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>Codelco Chile, División Chuquicamata</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F160" t="n">
-        <v>8000</v>
+        <v>1200</v>
       </c>
       <c r="G160" t="inlineStr">
         <is>
@@ -8041,7 +8041,7 @@
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128904823&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
@@ -8056,7 +8056,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Proyecto Fotovoltaico Azabache</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -8066,16 +8066,16 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>Almeyda Solar SpA.</t>
         </is>
       </c>
       <c r="F161" t="n">
-        <v>1200</v>
+        <v>140000</v>
       </c>
       <c r="G161" t="inlineStr">
         <is>
@@ -8089,7 +8089,7 @@
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128969457&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
@@ -8104,7 +8104,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Proyecto Fotovoltaico Azabache</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -8114,16 +8114,16 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>Almeyda Solar SpA.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F162" t="n">
-        <v>140000</v>
+        <v>0</v>
       </c>
       <c r="G162" t="inlineStr">
         <is>
@@ -8137,7 +8137,7 @@
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128969457&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
@@ -8152,7 +8152,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>BARRIO CONTRATISTA GERENCIA DE PROYECTOS</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -8162,16 +8162,16 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Codelco Chile, División Chuquicamata</t>
         </is>
       </c>
       <c r="F163" t="n">
-        <v>0</v>
+        <v>8000</v>
       </c>
       <c r="G163" t="inlineStr">
         <is>
@@ -8185,7 +8185,7 @@
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128904823&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -8872,7 +8872,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -8887,11 +8887,11 @@
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F178" t="n">
-        <v>12500</v>
+        <v>219</v>
       </c>
       <c r="G178" t="inlineStr">
         <is>
@@ -8900,12 +8900,12 @@
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556590&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
@@ -8920,7 +8920,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
+          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -8939,7 +8939,7 @@
         </is>
       </c>
       <c r="F179" t="n">
-        <v>10000</v>
+        <v>12500</v>
       </c>
       <c r="G179" t="inlineStr">
         <is>
@@ -8953,7 +8953,7 @@
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
@@ -8968,7 +8968,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -8983,11 +8983,11 @@
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F180" t="n">
-        <v>219</v>
+        <v>10000</v>
       </c>
       <c r="G180" t="inlineStr">
         <is>
@@ -8996,12 +8996,12 @@
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556590&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
@@ -9496,26 +9496,26 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>RT Sulfuros</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F191" t="n">
-        <v>2050</v>
+        <v>5.4</v>
       </c>
       <c r="G191" t="inlineStr">
         <is>
@@ -9524,12 +9524,12 @@
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
@@ -9544,26 +9544,26 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>RT Sulfuros</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F192" t="n">
-        <v>5.4</v>
+        <v>2050</v>
       </c>
       <c r="G192" t="inlineStr">
         <is>
@@ -9572,12 +9572,12 @@
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
@@ -10984,7 +10984,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Procesamiento de Óxidos DMH</t>
+          <t>Planta Fotovoltaica San Pedro de Atacama IV</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -10999,11 +10999,11 @@
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>División Ministro Hales de Codelco Chile</t>
+          <t>GPG Solar Chile 2017 SpA</t>
         </is>
       </c>
       <c r="F222" t="n">
-        <v>70000</v>
+        <v>105250</v>
       </c>
       <c r="G222" t="inlineStr">
         <is>
@@ -11017,7 +11017,7 @@
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7040302&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7052315&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J222" t="inlineStr">
@@ -11032,7 +11032,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Planta Fotovoltaica San Pedro de Atacama IV</t>
+          <t>Procesamiento de Óxidos DMH</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -11047,11 +11047,11 @@
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>GPG Solar Chile 2017 SpA</t>
+          <t>División Ministro Hales de Codelco Chile</t>
         </is>
       </c>
       <c r="F223" t="n">
-        <v>105250</v>
+        <v>70000</v>
       </c>
       <c r="G223" t="inlineStr">
         <is>
@@ -11065,7 +11065,7 @@
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7052315&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7040302&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J223" t="inlineStr">
@@ -13144,7 +13144,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>Portal del Inca</t>
+          <t>Línea de Transmisión Eléctrica 220 kv Encuentro - MH</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
@@ -13159,11 +13159,11 @@
       </c>
       <c r="E267" t="inlineStr">
         <is>
-          <t>Inmobiliaria Inca Dos Ltda.</t>
+          <t>División Ministro Hales de Codelco Chile</t>
         </is>
       </c>
       <c r="F267" t="n">
-        <v>13948</v>
+        <v>45000</v>
       </c>
       <c r="G267" t="inlineStr">
         <is>
@@ -13172,12 +13172,12 @@
       </c>
       <c r="H267" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I267" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5787635&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5773970&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J267" t="inlineStr">
@@ -13192,7 +13192,7 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Eléctrica 220 kv Encuentro - MH</t>
+          <t>Portal del Inca</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
@@ -13207,11 +13207,11 @@
       </c>
       <c r="E268" t="inlineStr">
         <is>
-          <t>División Ministro Hales de Codelco Chile</t>
+          <t>Inmobiliaria Inca Dos Ltda.</t>
         </is>
       </c>
       <c r="F268" t="n">
-        <v>45000</v>
+        <v>13948</v>
       </c>
       <c r="G268" t="inlineStr">
         <is>
@@ -13220,12 +13220,12 @@
       </c>
       <c r="H268" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I268" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5773970&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5787635&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J268" t="inlineStr">
@@ -13960,7 +13960,7 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
@@ -13975,11 +13975,11 @@
       </c>
       <c r="E284" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F284" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G284" t="inlineStr">
         <is>
@@ -13988,12 +13988,12 @@
       </c>
       <c r="H284" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I284" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J284" t="inlineStr">
@@ -14008,7 +14008,7 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
@@ -14023,11 +14023,11 @@
       </c>
       <c r="E285" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F285" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G285" t="inlineStr">
         <is>
@@ -14036,12 +14036,12 @@
       </c>
       <c r="H285" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I285" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J285" t="inlineStr">
@@ -19816,7 +19816,7 @@
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>Proyecto Explotación Subterránea Mina Santa Rosa (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C406" t="inlineStr">
@@ -19826,16 +19826,16 @@
       </c>
       <c r="D406" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E406" t="inlineStr">
         <is>
-          <t>Minera Quimal.S.A.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F406" t="n">
-        <v>500</v>
+        <v>1750</v>
       </c>
       <c r="G406" t="inlineStr">
         <is>
@@ -19844,12 +19844,12 @@
       </c>
       <c r="H406" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I406" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3310659&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J406" t="inlineStr">
@@ -19864,7 +19864,7 @@
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Proyecto Explotación Subterránea Mina Santa Rosa (e-seia)</t>
         </is>
       </c>
       <c r="C407" t="inlineStr">
@@ -19874,16 +19874,16 @@
       </c>
       <c r="D407" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E407" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Minera Quimal.S.A.</t>
         </is>
       </c>
       <c r="F407" t="n">
-        <v>1750</v>
+        <v>500</v>
       </c>
       <c r="G407" t="inlineStr">
         <is>
@@ -19892,12 +19892,12 @@
       </c>
       <c r="H407" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I407" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3310659&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J407" t="inlineStr">
@@ -20344,7 +20344,7 @@
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>Tratamiento de Impurezas en Ánodos y Cátodos de División Codelco Norte (e-seia)</t>
         </is>
       </c>
       <c r="C417" t="inlineStr">
@@ -20354,16 +20354,16 @@
       </c>
       <c r="D417" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E417" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Codelco Chile, División Chuquicamata</t>
         </is>
       </c>
       <c r="F417" t="n">
-        <v>250</v>
+        <v>50000</v>
       </c>
       <c r="G417" t="inlineStr">
         <is>
@@ -20372,12 +20372,12 @@
       </c>
       <c r="H417" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I417" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3118819&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J417" t="inlineStr">
@@ -20392,7 +20392,7 @@
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>Tratamiento de Impurezas en Ánodos y Cátodos de División Codelco Norte (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C418" t="inlineStr">
@@ -20402,16 +20402,16 @@
       </c>
       <c r="D418" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E418" t="inlineStr">
         <is>
-          <t>Codelco Chile, División Chuquicamata</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F418" t="n">
-        <v>50000</v>
+        <v>250</v>
       </c>
       <c r="G418" t="inlineStr">
         <is>
@@ -20420,12 +20420,12 @@
       </c>
       <c r="H418" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I418" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3118819&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J418" t="inlineStr">
@@ -23560,26 +23560,26 @@
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
+          <t>LIXIVIACIÓN DE SULFUROS SULFOLIX</t>
         </is>
       </c>
       <c r="C484" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D484" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E484" t="inlineStr">
         <is>
-          <t>Empresa de Residuos RESITER S.A.</t>
+          <t>SOCIEDAD CONTRACTUAL MINERA EL ABRA</t>
         </is>
       </c>
       <c r="F484" t="n">
-        <v>1</v>
+        <v>343000</v>
       </c>
       <c r="G484" t="inlineStr">
         <is>
@@ -23593,7 +23593,7 @@
       </c>
       <c r="I484" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2088630&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J484" t="inlineStr">
@@ -23608,26 +23608,26 @@
       </c>
       <c r="B485" t="inlineStr">
         <is>
-          <t>LIXIVIACIÓN DE SULFUROS SULFOLIX</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C485" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D485" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E485" t="inlineStr">
         <is>
-          <t>SOCIEDAD CONTRACTUAL MINERA EL ABRA</t>
+          <t>Empresa de Residuos RESITER S.A.</t>
         </is>
       </c>
       <c r="F485" t="n">
-        <v>343000</v>
+        <v>1</v>
       </c>
       <c r="G485" t="inlineStr">
         <is>
@@ -23641,7 +23641,7 @@
       </c>
       <c r="I485" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2088630&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J485" t="inlineStr">

--- a/data/Calama.xlsx
+++ b/data/Calama.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>01/02/2023</t>
+          <t>07/02/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Calama.xlsx
+++ b/data/Calama.xlsx
@@ -3976,7 +3976,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>MODIFICACIONES AL PROYECTO EXTRACCIÓN Y MOVIMIENTO DE MINERALES MINA RADOMIRO TOMIC</t>
+          <t>Parque Fotovoltaico Verano de San Juan I</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3991,11 +3991,11 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Victoria Solar SpA</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>208848</v>
+        <v>15000</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
@@ -4004,12 +4004,12 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138513102&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138522682&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4024,7 +4024,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Verano de San Juan I</t>
+          <t>Parque Fotovoltaico Verano de San Juan II</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4039,7 +4039,7 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Victoria Solar SpA</t>
+          <t>Paine Energy SpA</t>
         </is>
       </c>
       <c r="F77" t="n">
@@ -4057,7 +4057,7 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138522682&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138526892&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4072,7 +4072,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Verano de San Juan II</t>
+          <t>MODIFICACIONES AL PROYECTO EXTRACCIÓN Y MOVIMIENTO DE MINERALES MINA RADOMIRO TOMIC</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4087,11 +4087,11 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Paine Energy SpA</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>15000</v>
+        <v>208848</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
@@ -4100,12 +4100,12 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138526892&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138513102&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -7960,7 +7960,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>AUMENTO CAPACIDAD DE TRATAMIENTO DE EFLUENTES DE FUNDICIÓN</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -7970,16 +7970,16 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>Codelco Chile, División Chuquicamata</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F159" t="n">
-        <v>67700</v>
+        <v>1200</v>
       </c>
       <c r="G159" t="inlineStr">
         <is>
@@ -7993,7 +7993,7 @@
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128952737&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -8008,7 +8008,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Proyecto Fotovoltaico Azabache</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -8018,16 +8018,16 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>Almeyda Solar SpA.</t>
         </is>
       </c>
       <c r="F160" t="n">
-        <v>1200</v>
+        <v>140000</v>
       </c>
       <c r="G160" t="inlineStr">
         <is>
@@ -8041,7 +8041,7 @@
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128969457&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
@@ -8056,7 +8056,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Proyecto Fotovoltaico Azabache</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -8066,16 +8066,16 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>Almeyda Solar SpA.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F161" t="n">
-        <v>140000</v>
+        <v>0</v>
       </c>
       <c r="G161" t="inlineStr">
         <is>
@@ -8089,7 +8089,7 @@
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128969457&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
@@ -8104,7 +8104,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>BARRIO CONTRATISTA GERENCIA DE PROYECTOS</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -8114,16 +8114,16 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Codelco Chile, División Chuquicamata</t>
         </is>
       </c>
       <c r="F162" t="n">
-        <v>0</v>
+        <v>8000</v>
       </c>
       <c r="G162" t="inlineStr">
         <is>
@@ -8137,7 +8137,7 @@
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128904823&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
@@ -8152,7 +8152,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>BARRIO CONTRATISTA GERENCIA DE PROYECTOS</t>
+          <t>AUMENTO CAPACIDAD DE TRATAMIENTO DE EFLUENTES DE FUNDICIÓN</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="F163" t="n">
-        <v>8000</v>
+        <v>67700</v>
       </c>
       <c r="G163" t="inlineStr">
         <is>
@@ -8185,7 +8185,7 @@
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128904823&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128952737&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -8200,7 +8200,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Remodelación Parque El Loa</t>
+          <t>Aumento Áreas de Lixiviación, sector Quebrada Portezuelo</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -8215,11 +8215,11 @@
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Calama</t>
+          <t>Codelco Chile, División Chuquicamata</t>
         </is>
       </c>
       <c r="F164" t="n">
-        <v>9074</v>
+        <v>5888</v>
       </c>
       <c r="G164" t="inlineStr">
         <is>
@@ -8233,7 +8233,7 @@
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128906904&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128955081&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
@@ -8248,7 +8248,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Aumento Áreas de Lixiviación, sector Quebrada Portezuelo</t>
+          <t>Remodelación Parque El Loa</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -8263,11 +8263,11 @@
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>Codelco Chile, División Chuquicamata</t>
+          <t>Ilustre Municipalidad de Calama</t>
         </is>
       </c>
       <c r="F165" t="n">
-        <v>5888</v>
+        <v>9074</v>
       </c>
       <c r="G165" t="inlineStr">
         <is>
@@ -8281,7 +8281,7 @@
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128955081&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128906904&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
@@ -8872,7 +8872,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -8887,11 +8887,11 @@
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F178" t="n">
-        <v>219</v>
+        <v>12500</v>
       </c>
       <c r="G178" t="inlineStr">
         <is>
@@ -8900,12 +8900,12 @@
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556590&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
@@ -8920,7 +8920,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -8939,7 +8939,7 @@
         </is>
       </c>
       <c r="F179" t="n">
-        <v>12500</v>
+        <v>10000</v>
       </c>
       <c r="G179" t="inlineStr">
         <is>
@@ -8953,7 +8953,7 @@
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
@@ -8968,7 +8968,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -8983,11 +8983,11 @@
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F180" t="n">
-        <v>10000</v>
+        <v>219</v>
       </c>
       <c r="G180" t="inlineStr">
         <is>
@@ -8996,12 +8996,12 @@
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556590&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
@@ -9496,26 +9496,26 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>RT Sulfuros</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F191" t="n">
-        <v>5.4</v>
+        <v>2050</v>
       </c>
       <c r="G191" t="inlineStr">
         <is>
@@ -9524,12 +9524,12 @@
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
@@ -9544,26 +9544,26 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>RT Sulfuros</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F192" t="n">
-        <v>2050</v>
+        <v>5.4</v>
       </c>
       <c r="G192" t="inlineStr">
         <is>
@@ -9572,12 +9572,12 @@
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
@@ -10984,7 +10984,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Planta Fotovoltaica San Pedro de Atacama IV</t>
+          <t>Procesamiento de Óxidos DMH</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -10999,11 +10999,11 @@
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>GPG Solar Chile 2017 SpA</t>
+          <t>División Ministro Hales de Codelco Chile</t>
         </is>
       </c>
       <c r="F222" t="n">
-        <v>105250</v>
+        <v>70000</v>
       </c>
       <c r="G222" t="inlineStr">
         <is>
@@ -11017,7 +11017,7 @@
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7052315&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7040302&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J222" t="inlineStr">
@@ -11032,7 +11032,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Procesamiento de Óxidos DMH</t>
+          <t>Planta Fotovoltaica San Pedro de Atacama IV</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -11047,11 +11047,11 @@
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>División Ministro Hales de Codelco Chile</t>
+          <t>GPG Solar Chile 2017 SpA</t>
         </is>
       </c>
       <c r="F223" t="n">
-        <v>70000</v>
+        <v>105250</v>
       </c>
       <c r="G223" t="inlineStr">
         <is>
@@ -11065,7 +11065,7 @@
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7040302&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7052315&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J223" t="inlineStr">
@@ -13144,7 +13144,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Eléctrica 220 kv Encuentro - MH</t>
+          <t>Portal del Inca</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
@@ -13159,11 +13159,11 @@
       </c>
       <c r="E267" t="inlineStr">
         <is>
-          <t>División Ministro Hales de Codelco Chile</t>
+          <t>Inmobiliaria Inca Dos Ltda.</t>
         </is>
       </c>
       <c r="F267" t="n">
-        <v>45000</v>
+        <v>13948</v>
       </c>
       <c r="G267" t="inlineStr">
         <is>
@@ -13172,12 +13172,12 @@
       </c>
       <c r="H267" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I267" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5773970&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5787635&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J267" t="inlineStr">
@@ -13192,7 +13192,7 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>Portal del Inca</t>
+          <t>Línea de Transmisión Eléctrica 220 kv Encuentro - MH</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
@@ -13207,11 +13207,11 @@
       </c>
       <c r="E268" t="inlineStr">
         <is>
-          <t>Inmobiliaria Inca Dos Ltda.</t>
+          <t>División Ministro Hales de Codelco Chile</t>
         </is>
       </c>
       <c r="F268" t="n">
-        <v>13948</v>
+        <v>45000</v>
       </c>
       <c r="G268" t="inlineStr">
         <is>
@@ -13220,12 +13220,12 @@
       </c>
       <c r="H268" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I268" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5787635&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5773970&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J268" t="inlineStr">
@@ -13960,7 +13960,7 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
@@ -13975,11 +13975,11 @@
       </c>
       <c r="E284" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F284" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G284" t="inlineStr">
         <is>
@@ -13988,12 +13988,12 @@
       </c>
       <c r="H284" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I284" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J284" t="inlineStr">
@@ -14008,7 +14008,7 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
@@ -14023,11 +14023,11 @@
       </c>
       <c r="E285" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F285" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G285" t="inlineStr">
         <is>
@@ -14036,12 +14036,12 @@
       </c>
       <c r="H285" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I285" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J285" t="inlineStr">
@@ -18520,7 +18520,7 @@
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>Sondajes Prospección Ingeniería de Detalles Explotación Subterránea Yacimiento Chuquicamata (e-seia)</t>
+          <t>Planta de Tratamiento de Efluentes Hospital del Cobre (e-seia)</t>
         </is>
       </c>
       <c r="C379" t="inlineStr">
@@ -18539,7 +18539,7 @@
         </is>
       </c>
       <c r="F379" t="n">
-        <v>83584</v>
+        <v>200</v>
       </c>
       <c r="G379" t="inlineStr">
         <is>
@@ -18553,7 +18553,7 @@
       </c>
       <c r="I379" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3737660&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3826608&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J379" t="inlineStr">
@@ -18568,7 +18568,7 @@
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Efluentes Hospital del Cobre (e-seia)</t>
+          <t>Sondajes Prospección Ingeniería de Detalles Explotación Subterránea Yacimiento Chuquicamata (e-seia)</t>
         </is>
       </c>
       <c r="C380" t="inlineStr">
@@ -18587,7 +18587,7 @@
         </is>
       </c>
       <c r="F380" t="n">
-        <v>200</v>
+        <v>83584</v>
       </c>
       <c r="G380" t="inlineStr">
         <is>
@@ -18601,7 +18601,7 @@
       </c>
       <c r="I380" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3826608&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3737660&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J380" t="inlineStr">
@@ -19816,7 +19816,7 @@
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Proyecto Explotación Subterránea Mina Santa Rosa (e-seia)</t>
         </is>
       </c>
       <c r="C406" t="inlineStr">
@@ -19826,16 +19826,16 @@
       </c>
       <c r="D406" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E406" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Minera Quimal.S.A.</t>
         </is>
       </c>
       <c r="F406" t="n">
-        <v>1750</v>
+        <v>500</v>
       </c>
       <c r="G406" t="inlineStr">
         <is>
@@ -19844,12 +19844,12 @@
       </c>
       <c r="H406" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I406" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3310659&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J406" t="inlineStr">
@@ -19864,7 +19864,7 @@
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>Proyecto Explotación Subterránea Mina Santa Rosa (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C407" t="inlineStr">
@@ -19874,16 +19874,16 @@
       </c>
       <c r="D407" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E407" t="inlineStr">
         <is>
-          <t>Minera Quimal.S.A.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F407" t="n">
-        <v>500</v>
+        <v>1750</v>
       </c>
       <c r="G407" t="inlineStr">
         <is>
@@ -19892,12 +19892,12 @@
       </c>
       <c r="H407" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I407" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3310659&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J407" t="inlineStr">
@@ -20344,7 +20344,7 @@
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>Tratamiento de Impurezas en Ánodos y Cátodos de División Codelco Norte (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C417" t="inlineStr">
@@ -20354,16 +20354,16 @@
       </c>
       <c r="D417" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E417" t="inlineStr">
         <is>
-          <t>Codelco Chile, División Chuquicamata</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F417" t="n">
-        <v>50000</v>
+        <v>250</v>
       </c>
       <c r="G417" t="inlineStr">
         <is>
@@ -20372,12 +20372,12 @@
       </c>
       <c r="H417" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I417" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3118819&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J417" t="inlineStr">
@@ -20392,7 +20392,7 @@
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>Tratamiento de Impurezas en Ánodos y Cátodos de División Codelco Norte (e-seia)</t>
         </is>
       </c>
       <c r="C418" t="inlineStr">
@@ -20402,16 +20402,16 @@
       </c>
       <c r="D418" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E418" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Codelco Chile, División Chuquicamata</t>
         </is>
       </c>
       <c r="F418" t="n">
-        <v>250</v>
+        <v>50000</v>
       </c>
       <c r="G418" t="inlineStr">
         <is>
@@ -20420,12 +20420,12 @@
       </c>
       <c r="H418" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I418" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3118819&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J418" t="inlineStr">
@@ -20536,7 +20536,7 @@
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>Proyecto Exploración Minera Macarena - Leo (e-seia)</t>
         </is>
       </c>
       <c r="C421" t="inlineStr">
@@ -20546,16 +20546,16 @@
       </c>
       <c r="D421" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E421" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Minera Fuego Limitada</t>
         </is>
       </c>
       <c r="F421" t="n">
-        <v>1650</v>
+        <v>150</v>
       </c>
       <c r="G421" t="inlineStr">
         <is>
@@ -20569,7 +20569,7 @@
       </c>
       <c r="I421" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088992&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J421" t="inlineStr">
@@ -20584,7 +20584,7 @@
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>Proyecto Exploración Minera Macarena - Leo (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C422" t="inlineStr">
@@ -20594,16 +20594,16 @@
       </c>
       <c r="D422" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E422" t="inlineStr">
         <is>
-          <t>Minera Fuego Limitada</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F422" t="n">
-        <v>150</v>
+        <v>1650</v>
       </c>
       <c r="G422" t="inlineStr">
         <is>
@@ -20617,7 +20617,7 @@
       </c>
       <c r="I422" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088992&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J422" t="inlineStr">
@@ -23560,26 +23560,26 @@
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>LIXIVIACIÓN DE SULFUROS SULFOLIX</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C484" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D484" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E484" t="inlineStr">
         <is>
-          <t>SOCIEDAD CONTRACTUAL MINERA EL ABRA</t>
+          <t>Empresa de Residuos RESITER S.A.</t>
         </is>
       </c>
       <c r="F484" t="n">
-        <v>343000</v>
+        <v>1</v>
       </c>
       <c r="G484" t="inlineStr">
         <is>
@@ -23593,7 +23593,7 @@
       </c>
       <c r="I484" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2088630&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J484" t="inlineStr">
@@ -23608,26 +23608,26 @@
       </c>
       <c r="B485" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
+          <t>LIXIVIACIÓN DE SULFUROS SULFOLIX</t>
         </is>
       </c>
       <c r="C485" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D485" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E485" t="inlineStr">
         <is>
-          <t>Empresa de Residuos RESITER S.A.</t>
+          <t>SOCIEDAD CONTRACTUAL MINERA EL ABRA</t>
         </is>
       </c>
       <c r="F485" t="n">
-        <v>1</v>
+        <v>343000</v>
       </c>
       <c r="G485" t="inlineStr">
         <is>
@@ -23641,7 +23641,7 @@
       </c>
       <c r="I485" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2088630&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J485" t="inlineStr">

--- a/data/Calama.xlsx
+++ b/data/Calama.xlsx
@@ -3976,7 +3976,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Verano de San Juan I</t>
+          <t>MODIFICACIONES AL PROYECTO EXTRACCIÓN Y MOVIMIENTO DE MINERALES MINA RADOMIRO TOMIC</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3991,11 +3991,11 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Victoria Solar SpA</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>15000</v>
+        <v>208848</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
@@ -4004,12 +4004,12 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138522682&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138513102&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4024,7 +4024,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Verano de San Juan II</t>
+          <t>Parque Fotovoltaico Verano de San Juan I</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4039,7 +4039,7 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Paine Energy SpA</t>
+          <t>Victoria Solar SpA</t>
         </is>
       </c>
       <c r="F77" t="n">
@@ -4057,7 +4057,7 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138526892&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138522682&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4072,7 +4072,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>MODIFICACIONES AL PROYECTO EXTRACCIÓN Y MOVIMIENTO DE MINERALES MINA RADOMIRO TOMIC</t>
+          <t>Parque Fotovoltaico Verano de San Juan II</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4087,11 +4087,11 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Paine Energy SpA</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>208848</v>
+        <v>15000</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
@@ -4100,12 +4100,12 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138513102&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138526892&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -7960,7 +7960,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>AUMENTO CAPACIDAD DE TRATAMIENTO DE EFLUENTES DE FUNDICIÓN</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -7970,16 +7970,16 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>Codelco Chile, División Chuquicamata</t>
         </is>
       </c>
       <c r="F159" t="n">
-        <v>1200</v>
+        <v>67700</v>
       </c>
       <c r="G159" t="inlineStr">
         <is>
@@ -7993,7 +7993,7 @@
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128952737&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -8008,7 +8008,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Proyecto Fotovoltaico Azabache</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -8018,16 +8018,16 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>Almeyda Solar SpA.</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F160" t="n">
-        <v>140000</v>
+        <v>1200</v>
       </c>
       <c r="G160" t="inlineStr">
         <is>
@@ -8041,7 +8041,7 @@
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128969457&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
@@ -8056,7 +8056,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Proyecto Fotovoltaico Azabache</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -8066,16 +8066,16 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Almeyda Solar SpA.</t>
         </is>
       </c>
       <c r="F161" t="n">
-        <v>0</v>
+        <v>140000</v>
       </c>
       <c r="G161" t="inlineStr">
         <is>
@@ -8089,7 +8089,7 @@
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128969457&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
@@ -8104,7 +8104,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>BARRIO CONTRATISTA GERENCIA DE PROYECTOS</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -8114,16 +8114,16 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>Codelco Chile, División Chuquicamata</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F162" t="n">
-        <v>8000</v>
+        <v>0</v>
       </c>
       <c r="G162" t="inlineStr">
         <is>
@@ -8137,7 +8137,7 @@
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128904823&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
@@ -8152,7 +8152,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>AUMENTO CAPACIDAD DE TRATAMIENTO DE EFLUENTES DE FUNDICIÓN</t>
+          <t>BARRIO CONTRATISTA GERENCIA DE PROYECTOS</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="F163" t="n">
-        <v>67700</v>
+        <v>8000</v>
       </c>
       <c r="G163" t="inlineStr">
         <is>
@@ -8185,7 +8185,7 @@
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128952737&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128904823&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -8200,7 +8200,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Aumento Áreas de Lixiviación, sector Quebrada Portezuelo</t>
+          <t>Remodelación Parque El Loa</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -8215,11 +8215,11 @@
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>Codelco Chile, División Chuquicamata</t>
+          <t>Ilustre Municipalidad de Calama</t>
         </is>
       </c>
       <c r="F164" t="n">
-        <v>5888</v>
+        <v>9074</v>
       </c>
       <c r="G164" t="inlineStr">
         <is>
@@ -8233,7 +8233,7 @@
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128955081&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128906904&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
@@ -8248,7 +8248,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Remodelación Parque El Loa</t>
+          <t>Aumento Áreas de Lixiviación, sector Quebrada Portezuelo</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -8263,11 +8263,11 @@
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Calama</t>
+          <t>Codelco Chile, División Chuquicamata</t>
         </is>
       </c>
       <c r="F165" t="n">
-        <v>9074</v>
+        <v>5888</v>
       </c>
       <c r="G165" t="inlineStr">
         <is>
@@ -8281,7 +8281,7 @@
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128906904&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128955081&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
@@ -8872,7 +8872,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -8887,11 +8887,11 @@
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F178" t="n">
-        <v>12500</v>
+        <v>219</v>
       </c>
       <c r="G178" t="inlineStr">
         <is>
@@ -8900,12 +8900,12 @@
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556590&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
@@ -8920,7 +8920,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
+          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -8939,7 +8939,7 @@
         </is>
       </c>
       <c r="F179" t="n">
-        <v>10000</v>
+        <v>12500</v>
       </c>
       <c r="G179" t="inlineStr">
         <is>
@@ -8953,7 +8953,7 @@
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
@@ -8968,7 +8968,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -8983,11 +8983,11 @@
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F180" t="n">
-        <v>219</v>
+        <v>10000</v>
       </c>
       <c r="G180" t="inlineStr">
         <is>
@@ -8996,12 +8996,12 @@
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556590&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
@@ -9496,26 +9496,26 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>RT Sulfuros</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F191" t="n">
-        <v>2050</v>
+        <v>5.4</v>
       </c>
       <c r="G191" t="inlineStr">
         <is>
@@ -9524,12 +9524,12 @@
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
@@ -9544,26 +9544,26 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>RT Sulfuros</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F192" t="n">
-        <v>5.4</v>
+        <v>2050</v>
       </c>
       <c r="G192" t="inlineStr">
         <is>
@@ -9572,12 +9572,12 @@
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
@@ -10984,7 +10984,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Procesamiento de Óxidos DMH</t>
+          <t>Planta Fotovoltaica San Pedro de Atacama IV</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -10999,11 +10999,11 @@
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>División Ministro Hales de Codelco Chile</t>
+          <t>GPG Solar Chile 2017 SpA</t>
         </is>
       </c>
       <c r="F222" t="n">
-        <v>70000</v>
+        <v>105250</v>
       </c>
       <c r="G222" t="inlineStr">
         <is>
@@ -11017,7 +11017,7 @@
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7040302&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7052315&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J222" t="inlineStr">
@@ -11032,7 +11032,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Planta Fotovoltaica San Pedro de Atacama IV</t>
+          <t>Procesamiento de Óxidos DMH</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -11047,11 +11047,11 @@
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>GPG Solar Chile 2017 SpA</t>
+          <t>División Ministro Hales de Codelco Chile</t>
         </is>
       </c>
       <c r="F223" t="n">
-        <v>105250</v>
+        <v>70000</v>
       </c>
       <c r="G223" t="inlineStr">
         <is>
@@ -11065,7 +11065,7 @@
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7052315&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7040302&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J223" t="inlineStr">
@@ -13144,7 +13144,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>Portal del Inca</t>
+          <t>Línea de Transmisión Eléctrica 220 kv Encuentro - MH</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
@@ -13159,11 +13159,11 @@
       </c>
       <c r="E267" t="inlineStr">
         <is>
-          <t>Inmobiliaria Inca Dos Ltda.</t>
+          <t>División Ministro Hales de Codelco Chile</t>
         </is>
       </c>
       <c r="F267" t="n">
-        <v>13948</v>
+        <v>45000</v>
       </c>
       <c r="G267" t="inlineStr">
         <is>
@@ -13172,12 +13172,12 @@
       </c>
       <c r="H267" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I267" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5787635&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5773970&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J267" t="inlineStr">
@@ -13192,7 +13192,7 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Eléctrica 220 kv Encuentro - MH</t>
+          <t>Portal del Inca</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
@@ -13207,11 +13207,11 @@
       </c>
       <c r="E268" t="inlineStr">
         <is>
-          <t>División Ministro Hales de Codelco Chile</t>
+          <t>Inmobiliaria Inca Dos Ltda.</t>
         </is>
       </c>
       <c r="F268" t="n">
-        <v>45000</v>
+        <v>13948</v>
       </c>
       <c r="G268" t="inlineStr">
         <is>
@@ -13220,12 +13220,12 @@
       </c>
       <c r="H268" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I268" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5773970&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5787635&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J268" t="inlineStr">
@@ -13960,7 +13960,7 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
@@ -13975,11 +13975,11 @@
       </c>
       <c r="E284" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F284" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G284" t="inlineStr">
         <is>
@@ -13988,12 +13988,12 @@
       </c>
       <c r="H284" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I284" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J284" t="inlineStr">
@@ -14008,7 +14008,7 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
@@ -14023,11 +14023,11 @@
       </c>
       <c r="E285" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F285" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G285" t="inlineStr">
         <is>
@@ -14036,12 +14036,12 @@
       </c>
       <c r="H285" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I285" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J285" t="inlineStr">
@@ -18520,7 +18520,7 @@
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Efluentes Hospital del Cobre (e-seia)</t>
+          <t>Sondajes Prospección Ingeniería de Detalles Explotación Subterránea Yacimiento Chuquicamata (e-seia)</t>
         </is>
       </c>
       <c r="C379" t="inlineStr">
@@ -18539,7 +18539,7 @@
         </is>
       </c>
       <c r="F379" t="n">
-        <v>200</v>
+        <v>83584</v>
       </c>
       <c r="G379" t="inlineStr">
         <is>
@@ -18553,7 +18553,7 @@
       </c>
       <c r="I379" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3826608&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3737660&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J379" t="inlineStr">
@@ -18568,7 +18568,7 @@
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>Sondajes Prospección Ingeniería de Detalles Explotación Subterránea Yacimiento Chuquicamata (e-seia)</t>
+          <t>Planta de Tratamiento de Efluentes Hospital del Cobre (e-seia)</t>
         </is>
       </c>
       <c r="C380" t="inlineStr">
@@ -18587,7 +18587,7 @@
         </is>
       </c>
       <c r="F380" t="n">
-        <v>83584</v>
+        <v>200</v>
       </c>
       <c r="G380" t="inlineStr">
         <is>
@@ -18601,7 +18601,7 @@
       </c>
       <c r="I380" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3737660&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3826608&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J380" t="inlineStr">
@@ -19816,7 +19816,7 @@
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>Proyecto Explotación Subterránea Mina Santa Rosa (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C406" t="inlineStr">
@@ -19826,16 +19826,16 @@
       </c>
       <c r="D406" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E406" t="inlineStr">
         <is>
-          <t>Minera Quimal.S.A.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F406" t="n">
-        <v>500</v>
+        <v>1750</v>
       </c>
       <c r="G406" t="inlineStr">
         <is>
@@ -19844,12 +19844,12 @@
       </c>
       <c r="H406" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I406" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3310659&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J406" t="inlineStr">
@@ -19864,7 +19864,7 @@
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Proyecto Explotación Subterránea Mina Santa Rosa (e-seia)</t>
         </is>
       </c>
       <c r="C407" t="inlineStr">
@@ -19874,16 +19874,16 @@
       </c>
       <c r="D407" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E407" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Minera Quimal.S.A.</t>
         </is>
       </c>
       <c r="F407" t="n">
-        <v>1750</v>
+        <v>500</v>
       </c>
       <c r="G407" t="inlineStr">
         <is>
@@ -19892,12 +19892,12 @@
       </c>
       <c r="H407" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I407" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3310659&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J407" t="inlineStr">
@@ -20344,7 +20344,7 @@
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>Tratamiento de Impurezas en Ánodos y Cátodos de División Codelco Norte (e-seia)</t>
         </is>
       </c>
       <c r="C417" t="inlineStr">
@@ -20354,16 +20354,16 @@
       </c>
       <c r="D417" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E417" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Codelco Chile, División Chuquicamata</t>
         </is>
       </c>
       <c r="F417" t="n">
-        <v>250</v>
+        <v>50000</v>
       </c>
       <c r="G417" t="inlineStr">
         <is>
@@ -20372,12 +20372,12 @@
       </c>
       <c r="H417" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I417" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3118819&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J417" t="inlineStr">
@@ -20392,7 +20392,7 @@
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>Tratamiento de Impurezas en Ánodos y Cátodos de División Codelco Norte (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C418" t="inlineStr">
@@ -20402,16 +20402,16 @@
       </c>
       <c r="D418" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E418" t="inlineStr">
         <is>
-          <t>Codelco Chile, División Chuquicamata</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F418" t="n">
-        <v>50000</v>
+        <v>250</v>
       </c>
       <c r="G418" t="inlineStr">
         <is>
@@ -20420,12 +20420,12 @@
       </c>
       <c r="H418" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I418" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3118819&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J418" t="inlineStr">
@@ -20536,7 +20536,7 @@
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>Proyecto Exploración Minera Macarena - Leo (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C421" t="inlineStr">
@@ -20546,16 +20546,16 @@
       </c>
       <c r="D421" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E421" t="inlineStr">
         <is>
-          <t>Minera Fuego Limitada</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F421" t="n">
-        <v>150</v>
+        <v>1650</v>
       </c>
       <c r="G421" t="inlineStr">
         <is>
@@ -20569,7 +20569,7 @@
       </c>
       <c r="I421" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088992&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J421" t="inlineStr">
@@ -20584,7 +20584,7 @@
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>Proyecto Exploración Minera Macarena - Leo (e-seia)</t>
         </is>
       </c>
       <c r="C422" t="inlineStr">
@@ -20594,16 +20594,16 @@
       </c>
       <c r="D422" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E422" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Minera Fuego Limitada</t>
         </is>
       </c>
       <c r="F422" t="n">
-        <v>1650</v>
+        <v>150</v>
       </c>
       <c r="G422" t="inlineStr">
         <is>
@@ -20617,7 +20617,7 @@
       </c>
       <c r="I422" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088992&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J422" t="inlineStr">
@@ -23560,26 +23560,26 @@
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
+          <t>LIXIVIACIÓN DE SULFUROS SULFOLIX</t>
         </is>
       </c>
       <c r="C484" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D484" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E484" t="inlineStr">
         <is>
-          <t>Empresa de Residuos RESITER S.A.</t>
+          <t>SOCIEDAD CONTRACTUAL MINERA EL ABRA</t>
         </is>
       </c>
       <c r="F484" t="n">
-        <v>1</v>
+        <v>343000</v>
       </c>
       <c r="G484" t="inlineStr">
         <is>
@@ -23593,7 +23593,7 @@
       </c>
       <c r="I484" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2088630&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J484" t="inlineStr">
@@ -23608,26 +23608,26 @@
       </c>
       <c r="B485" t="inlineStr">
         <is>
-          <t>LIXIVIACIÓN DE SULFUROS SULFOLIX</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C485" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D485" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E485" t="inlineStr">
         <is>
-          <t>SOCIEDAD CONTRACTUAL MINERA EL ABRA</t>
+          <t>Empresa de Residuos RESITER S.A.</t>
         </is>
       </c>
       <c r="F485" t="n">
-        <v>343000</v>
+        <v>1</v>
       </c>
       <c r="G485" t="inlineStr">
         <is>
@@ -23641,7 +23641,7 @@
       </c>
       <c r="I485" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2088630&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J485" t="inlineStr">

--- a/data/Calama.xlsx
+++ b/data/Calama.xlsx
@@ -3655,7 +3655,7 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Paine Energy SpA</t>
+          <t>Sonnedix Paine Energy SpA</t>
         </is>
       </c>
       <c r="F69" t="n">
@@ -3703,7 +3703,7 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Victoria Solar SpA</t>
+          <t>Sonnedix Victoria Solar SpA</t>
         </is>
       </c>
       <c r="F70" t="n">
@@ -4039,7 +4039,7 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Victoria Solar SpA</t>
+          <t>Sonnedix Victoria Solar SpA</t>
         </is>
       </c>
       <c r="F77" t="n">
@@ -4087,7 +4087,7 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Paine Energy SpA</t>
+          <t>Sonnedix Paine Energy SpA</t>
         </is>
       </c>
       <c r="F78" t="n">
@@ -4855,7 +4855,7 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Victoria Solar SpA</t>
+          <t>Sonnedix Victoria Solar SpA</t>
         </is>
       </c>
       <c r="F94" t="n">

--- a/data/Calama.xlsx
+++ b/data/Calama.xlsx
@@ -3976,7 +3976,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>MODIFICACIONES AL PROYECTO EXTRACCIÓN Y MOVIMIENTO DE MINERALES MINA RADOMIRO TOMIC</t>
+          <t>Parque Fotovoltaico Verano de San Juan I</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3991,11 +3991,11 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Sonnedix Victoria Solar SpA</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>208848</v>
+        <v>15000</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
@@ -4004,12 +4004,12 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138513102&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138522682&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4024,7 +4024,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Verano de San Juan I</t>
+          <t>Parque Fotovoltaico Verano de San Juan II</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4039,7 +4039,7 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Sonnedix Victoria Solar SpA</t>
+          <t>Sonnedix Paine Energy SpA</t>
         </is>
       </c>
       <c r="F77" t="n">
@@ -4057,7 +4057,7 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138522682&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138526892&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4072,7 +4072,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Verano de San Juan II</t>
+          <t>MODIFICACIONES AL PROYECTO EXTRACCIÓN Y MOVIMIENTO DE MINERALES MINA RADOMIRO TOMIC</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4087,11 +4087,11 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Sonnedix Paine Energy SpA</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>15000</v>
+        <v>208848</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
@@ -4100,12 +4100,12 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138526892&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138513102&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -7960,7 +7960,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>AUMENTO CAPACIDAD DE TRATAMIENTO DE EFLUENTES DE FUNDICIÓN</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -7970,16 +7970,16 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>Codelco Chile, División Chuquicamata</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F159" t="n">
-        <v>67700</v>
+        <v>1200</v>
       </c>
       <c r="G159" t="inlineStr">
         <is>
@@ -7993,7 +7993,7 @@
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128952737&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -8008,7 +8008,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Proyecto Fotovoltaico Azabache</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -8018,16 +8018,16 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>Almeyda Solar SpA.</t>
         </is>
       </c>
       <c r="F160" t="n">
-        <v>1200</v>
+        <v>140000</v>
       </c>
       <c r="G160" t="inlineStr">
         <is>
@@ -8041,7 +8041,7 @@
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128969457&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
@@ -8056,7 +8056,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Proyecto Fotovoltaico Azabache</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -8066,16 +8066,16 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>Almeyda Solar SpA.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F161" t="n">
-        <v>140000</v>
+        <v>0</v>
       </c>
       <c r="G161" t="inlineStr">
         <is>
@@ -8089,7 +8089,7 @@
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128969457&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
@@ -8104,7 +8104,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>BARRIO CONTRATISTA GERENCIA DE PROYECTOS</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -8114,16 +8114,16 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Codelco Chile, División Chuquicamata</t>
         </is>
       </c>
       <c r="F162" t="n">
-        <v>0</v>
+        <v>8000</v>
       </c>
       <c r="G162" t="inlineStr">
         <is>
@@ -8137,7 +8137,7 @@
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128904823&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
@@ -8152,7 +8152,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>BARRIO CONTRATISTA GERENCIA DE PROYECTOS</t>
+          <t>AUMENTO CAPACIDAD DE TRATAMIENTO DE EFLUENTES DE FUNDICIÓN</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="F163" t="n">
-        <v>8000</v>
+        <v>67700</v>
       </c>
       <c r="G163" t="inlineStr">
         <is>
@@ -8185,7 +8185,7 @@
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128904823&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128952737&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -8200,7 +8200,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Remodelación Parque El Loa</t>
+          <t>Aumento Áreas de Lixiviación, sector Quebrada Portezuelo</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -8215,11 +8215,11 @@
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Calama</t>
+          <t>Codelco Chile, División Chuquicamata</t>
         </is>
       </c>
       <c r="F164" t="n">
-        <v>9074</v>
+        <v>5888</v>
       </c>
       <c r="G164" t="inlineStr">
         <is>
@@ -8233,7 +8233,7 @@
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128906904&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128955081&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
@@ -8248,7 +8248,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Aumento Áreas de Lixiviación, sector Quebrada Portezuelo</t>
+          <t>Remodelación Parque El Loa</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -8263,11 +8263,11 @@
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>Codelco Chile, División Chuquicamata</t>
+          <t>Ilustre Municipalidad de Calama</t>
         </is>
       </c>
       <c r="F165" t="n">
-        <v>5888</v>
+        <v>9074</v>
       </c>
       <c r="G165" t="inlineStr">
         <is>
@@ -8281,7 +8281,7 @@
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128955081&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128906904&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
@@ -8872,7 +8872,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -8887,11 +8887,11 @@
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F178" t="n">
-        <v>219</v>
+        <v>12500</v>
       </c>
       <c r="G178" t="inlineStr">
         <is>
@@ -8900,12 +8900,12 @@
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556590&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
@@ -8920,7 +8920,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -8939,7 +8939,7 @@
         </is>
       </c>
       <c r="F179" t="n">
-        <v>12500</v>
+        <v>10000</v>
       </c>
       <c r="G179" t="inlineStr">
         <is>
@@ -8953,7 +8953,7 @@
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
@@ -8968,7 +8968,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -8983,11 +8983,11 @@
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F180" t="n">
-        <v>10000</v>
+        <v>219</v>
       </c>
       <c r="G180" t="inlineStr">
         <is>
@@ -8996,12 +8996,12 @@
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556590&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
@@ -9496,26 +9496,26 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>RT Sulfuros</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F191" t="n">
-        <v>5.4</v>
+        <v>2050</v>
       </c>
       <c r="G191" t="inlineStr">
         <is>
@@ -9524,12 +9524,12 @@
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
@@ -9544,26 +9544,26 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>RT Sulfuros</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F192" t="n">
-        <v>2050</v>
+        <v>5.4</v>
       </c>
       <c r="G192" t="inlineStr">
         <is>
@@ -9572,12 +9572,12 @@
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
@@ -10984,7 +10984,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Planta Fotovoltaica San Pedro de Atacama IV</t>
+          <t>Procesamiento de Óxidos DMH</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -10999,11 +10999,11 @@
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>GPG Solar Chile 2017 SpA</t>
+          <t>División Ministro Hales de Codelco Chile</t>
         </is>
       </c>
       <c r="F222" t="n">
-        <v>105250</v>
+        <v>70000</v>
       </c>
       <c r="G222" t="inlineStr">
         <is>
@@ -11017,7 +11017,7 @@
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7052315&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7040302&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J222" t="inlineStr">
@@ -11032,7 +11032,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Procesamiento de Óxidos DMH</t>
+          <t>Planta Fotovoltaica San Pedro de Atacama IV</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -11047,11 +11047,11 @@
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>División Ministro Hales de Codelco Chile</t>
+          <t>GPG Solar Chile 2017 SpA</t>
         </is>
       </c>
       <c r="F223" t="n">
-        <v>70000</v>
+        <v>105250</v>
       </c>
       <c r="G223" t="inlineStr">
         <is>
@@ -11065,7 +11065,7 @@
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7040302&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7052315&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J223" t="inlineStr">
@@ -13144,7 +13144,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Eléctrica 220 kv Encuentro - MH</t>
+          <t>Portal del Inca</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
@@ -13159,11 +13159,11 @@
       </c>
       <c r="E267" t="inlineStr">
         <is>
-          <t>División Ministro Hales de Codelco Chile</t>
+          <t>Inmobiliaria Inca Dos Ltda.</t>
         </is>
       </c>
       <c r="F267" t="n">
-        <v>45000</v>
+        <v>13948</v>
       </c>
       <c r="G267" t="inlineStr">
         <is>
@@ -13172,12 +13172,12 @@
       </c>
       <c r="H267" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I267" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5773970&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5787635&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J267" t="inlineStr">
@@ -13192,7 +13192,7 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>Portal del Inca</t>
+          <t>Línea de Transmisión Eléctrica 220 kv Encuentro - MH</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
@@ -13207,11 +13207,11 @@
       </c>
       <c r="E268" t="inlineStr">
         <is>
-          <t>Inmobiliaria Inca Dos Ltda.</t>
+          <t>División Ministro Hales de Codelco Chile</t>
         </is>
       </c>
       <c r="F268" t="n">
-        <v>13948</v>
+        <v>45000</v>
       </c>
       <c r="G268" t="inlineStr">
         <is>
@@ -13220,12 +13220,12 @@
       </c>
       <c r="H268" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I268" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5787635&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5773970&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J268" t="inlineStr">
@@ -13960,7 +13960,7 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
@@ -13975,11 +13975,11 @@
       </c>
       <c r="E284" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F284" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G284" t="inlineStr">
         <is>
@@ -13988,12 +13988,12 @@
       </c>
       <c r="H284" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I284" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J284" t="inlineStr">
@@ -14008,7 +14008,7 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
@@ -14023,11 +14023,11 @@
       </c>
       <c r="E285" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F285" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G285" t="inlineStr">
         <is>
@@ -14036,12 +14036,12 @@
       </c>
       <c r="H285" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I285" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J285" t="inlineStr">
@@ -18520,7 +18520,7 @@
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>Sondajes Prospección Ingeniería de Detalles Explotación Subterránea Yacimiento Chuquicamata (e-seia)</t>
+          <t>Planta de Tratamiento de Efluentes Hospital del Cobre (e-seia)</t>
         </is>
       </c>
       <c r="C379" t="inlineStr">
@@ -18539,7 +18539,7 @@
         </is>
       </c>
       <c r="F379" t="n">
-        <v>83584</v>
+        <v>200</v>
       </c>
       <c r="G379" t="inlineStr">
         <is>
@@ -18553,7 +18553,7 @@
       </c>
       <c r="I379" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3737660&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3826608&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J379" t="inlineStr">
@@ -18568,7 +18568,7 @@
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Efluentes Hospital del Cobre (e-seia)</t>
+          <t>Sondajes Prospección Ingeniería de Detalles Explotación Subterránea Yacimiento Chuquicamata (e-seia)</t>
         </is>
       </c>
       <c r="C380" t="inlineStr">
@@ -18587,7 +18587,7 @@
         </is>
       </c>
       <c r="F380" t="n">
-        <v>200</v>
+        <v>83584</v>
       </c>
       <c r="G380" t="inlineStr">
         <is>
@@ -18601,7 +18601,7 @@
       </c>
       <c r="I380" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3826608&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3737660&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J380" t="inlineStr">
@@ -19816,7 +19816,7 @@
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Proyecto Explotación Subterránea Mina Santa Rosa (e-seia)</t>
         </is>
       </c>
       <c r="C406" t="inlineStr">
@@ -19826,16 +19826,16 @@
       </c>
       <c r="D406" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E406" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Minera Quimal.S.A.</t>
         </is>
       </c>
       <c r="F406" t="n">
-        <v>1750</v>
+        <v>500</v>
       </c>
       <c r="G406" t="inlineStr">
         <is>
@@ -19844,12 +19844,12 @@
       </c>
       <c r="H406" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I406" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3310659&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J406" t="inlineStr">
@@ -19864,7 +19864,7 @@
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>Proyecto Explotación Subterránea Mina Santa Rosa (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C407" t="inlineStr">
@@ -19874,16 +19874,16 @@
       </c>
       <c r="D407" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E407" t="inlineStr">
         <is>
-          <t>Minera Quimal.S.A.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F407" t="n">
-        <v>500</v>
+        <v>1750</v>
       </c>
       <c r="G407" t="inlineStr">
         <is>
@@ -19892,12 +19892,12 @@
       </c>
       <c r="H407" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I407" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3310659&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J407" t="inlineStr">
@@ -20344,7 +20344,7 @@
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>Tratamiento de Impurezas en Ánodos y Cátodos de División Codelco Norte (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C417" t="inlineStr">
@@ -20354,16 +20354,16 @@
       </c>
       <c r="D417" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E417" t="inlineStr">
         <is>
-          <t>Codelco Chile, División Chuquicamata</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F417" t="n">
-        <v>50000</v>
+        <v>250</v>
       </c>
       <c r="G417" t="inlineStr">
         <is>
@@ -20372,12 +20372,12 @@
       </c>
       <c r="H417" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I417" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3118819&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J417" t="inlineStr">
@@ -20392,7 +20392,7 @@
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>Tratamiento de Impurezas en Ánodos y Cátodos de División Codelco Norte (e-seia)</t>
         </is>
       </c>
       <c r="C418" t="inlineStr">
@@ -20402,16 +20402,16 @@
       </c>
       <c r="D418" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E418" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Codelco Chile, División Chuquicamata</t>
         </is>
       </c>
       <c r="F418" t="n">
-        <v>250</v>
+        <v>50000</v>
       </c>
       <c r="G418" t="inlineStr">
         <is>
@@ -20420,12 +20420,12 @@
       </c>
       <c r="H418" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I418" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3118819&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J418" t="inlineStr">
@@ -20536,7 +20536,7 @@
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>Proyecto Exploración Minera Macarena - Leo (e-seia)</t>
         </is>
       </c>
       <c r="C421" t="inlineStr">
@@ -20546,16 +20546,16 @@
       </c>
       <c r="D421" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E421" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Minera Fuego Limitada</t>
         </is>
       </c>
       <c r="F421" t="n">
-        <v>1650</v>
+        <v>150</v>
       </c>
       <c r="G421" t="inlineStr">
         <is>
@@ -20569,7 +20569,7 @@
       </c>
       <c r="I421" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088992&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J421" t="inlineStr">
@@ -20584,7 +20584,7 @@
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>Proyecto Exploración Minera Macarena - Leo (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C422" t="inlineStr">
@@ -20594,16 +20594,16 @@
       </c>
       <c r="D422" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E422" t="inlineStr">
         <is>
-          <t>Minera Fuego Limitada</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F422" t="n">
-        <v>150</v>
+        <v>1650</v>
       </c>
       <c r="G422" t="inlineStr">
         <is>
@@ -20617,7 +20617,7 @@
       </c>
       <c r="I422" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088992&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J422" t="inlineStr">
@@ -23560,26 +23560,26 @@
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>LIXIVIACIÓN DE SULFUROS SULFOLIX</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C484" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D484" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E484" t="inlineStr">
         <is>
-          <t>SOCIEDAD CONTRACTUAL MINERA EL ABRA</t>
+          <t>Empresa de Residuos RESITER S.A.</t>
         </is>
       </c>
       <c r="F484" t="n">
-        <v>343000</v>
+        <v>1</v>
       </c>
       <c r="G484" t="inlineStr">
         <is>
@@ -23593,7 +23593,7 @@
       </c>
       <c r="I484" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2088630&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J484" t="inlineStr">
@@ -23608,26 +23608,26 @@
       </c>
       <c r="B485" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
+          <t>LIXIVIACIÓN DE SULFUROS SULFOLIX</t>
         </is>
       </c>
       <c r="C485" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D485" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E485" t="inlineStr">
         <is>
-          <t>Empresa de Residuos RESITER S.A.</t>
+          <t>SOCIEDAD CONTRACTUAL MINERA EL ABRA</t>
         </is>
       </c>
       <c r="F485" t="n">
-        <v>1</v>
+        <v>343000</v>
       </c>
       <c r="G485" t="inlineStr">
         <is>
@@ -23641,7 +23641,7 @@
       </c>
       <c r="I485" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2088630&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J485" t="inlineStr">

--- a/data/Calama.xlsx
+++ b/data/Calama.xlsx
@@ -3976,7 +3976,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Verano de San Juan I</t>
+          <t>MODIFICACIONES AL PROYECTO EXTRACCIÓN Y MOVIMIENTO DE MINERALES MINA RADOMIRO TOMIC</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3991,11 +3991,11 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Sonnedix Victoria Solar SpA</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>15000</v>
+        <v>208848</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
@@ -4004,12 +4004,12 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138522682&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138513102&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4024,7 +4024,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Verano de San Juan II</t>
+          <t>Parque Fotovoltaico Verano de San Juan I</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4039,7 +4039,7 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Sonnedix Paine Energy SpA</t>
+          <t>Sonnedix Victoria Solar SpA</t>
         </is>
       </c>
       <c r="F77" t="n">
@@ -4057,7 +4057,7 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138526892&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138522682&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4072,7 +4072,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>MODIFICACIONES AL PROYECTO EXTRACCIÓN Y MOVIMIENTO DE MINERALES MINA RADOMIRO TOMIC</t>
+          <t>Parque Fotovoltaico Verano de San Juan II</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4087,11 +4087,11 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Sonnedix Paine Energy SpA</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>208848</v>
+        <v>15000</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
@@ -4100,12 +4100,12 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138513102&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138526892&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -7960,7 +7960,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>AUMENTO CAPACIDAD DE TRATAMIENTO DE EFLUENTES DE FUNDICIÓN</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -7970,16 +7970,16 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>Codelco Chile, División Chuquicamata</t>
         </is>
       </c>
       <c r="F159" t="n">
-        <v>1200</v>
+        <v>67700</v>
       </c>
       <c r="G159" t="inlineStr">
         <is>
@@ -7993,7 +7993,7 @@
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128952737&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -8008,7 +8008,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Proyecto Fotovoltaico Azabache</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -8018,16 +8018,16 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>Almeyda Solar SpA.</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F160" t="n">
-        <v>140000</v>
+        <v>1200</v>
       </c>
       <c r="G160" t="inlineStr">
         <is>
@@ -8041,7 +8041,7 @@
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128969457&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
@@ -8056,7 +8056,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Proyecto Fotovoltaico Azabache</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -8066,16 +8066,16 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Almeyda Solar SpA.</t>
         </is>
       </c>
       <c r="F161" t="n">
-        <v>0</v>
+        <v>140000</v>
       </c>
       <c r="G161" t="inlineStr">
         <is>
@@ -8089,7 +8089,7 @@
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128969457&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
@@ -8104,7 +8104,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>BARRIO CONTRATISTA GERENCIA DE PROYECTOS</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -8114,16 +8114,16 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>Codelco Chile, División Chuquicamata</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F162" t="n">
-        <v>8000</v>
+        <v>0</v>
       </c>
       <c r="G162" t="inlineStr">
         <is>
@@ -8137,7 +8137,7 @@
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128904823&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
@@ -8152,7 +8152,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>AUMENTO CAPACIDAD DE TRATAMIENTO DE EFLUENTES DE FUNDICIÓN</t>
+          <t>BARRIO CONTRATISTA GERENCIA DE PROYECTOS</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="F163" t="n">
-        <v>67700</v>
+        <v>8000</v>
       </c>
       <c r="G163" t="inlineStr">
         <is>
@@ -8185,7 +8185,7 @@
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128952737&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128904823&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -8200,7 +8200,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Aumento Áreas de Lixiviación, sector Quebrada Portezuelo</t>
+          <t>Remodelación Parque El Loa</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -8215,11 +8215,11 @@
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>Codelco Chile, División Chuquicamata</t>
+          <t>Ilustre Municipalidad de Calama</t>
         </is>
       </c>
       <c r="F164" t="n">
-        <v>5888</v>
+        <v>9074</v>
       </c>
       <c r="G164" t="inlineStr">
         <is>
@@ -8233,7 +8233,7 @@
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128955081&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128906904&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
@@ -8248,7 +8248,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Remodelación Parque El Loa</t>
+          <t>Aumento Áreas de Lixiviación, sector Quebrada Portezuelo</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -8263,11 +8263,11 @@
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Calama</t>
+          <t>Codelco Chile, División Chuquicamata</t>
         </is>
       </c>
       <c r="F165" t="n">
-        <v>9074</v>
+        <v>5888</v>
       </c>
       <c r="G165" t="inlineStr">
         <is>
@@ -8281,7 +8281,7 @@
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128906904&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128955081&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
@@ -8872,7 +8872,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -8887,11 +8887,11 @@
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F178" t="n">
-        <v>12500</v>
+        <v>219</v>
       </c>
       <c r="G178" t="inlineStr">
         <is>
@@ -8900,12 +8900,12 @@
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556590&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
@@ -8920,7 +8920,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
+          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -8939,7 +8939,7 @@
         </is>
       </c>
       <c r="F179" t="n">
-        <v>10000</v>
+        <v>12500</v>
       </c>
       <c r="G179" t="inlineStr">
         <is>
@@ -8953,7 +8953,7 @@
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
@@ -8968,7 +8968,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -8983,11 +8983,11 @@
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F180" t="n">
-        <v>219</v>
+        <v>10000</v>
       </c>
       <c r="G180" t="inlineStr">
         <is>
@@ -8996,12 +8996,12 @@
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556590&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
@@ -9496,26 +9496,26 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>RT Sulfuros</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F191" t="n">
-        <v>2050</v>
+        <v>5.4</v>
       </c>
       <c r="G191" t="inlineStr">
         <is>
@@ -9524,12 +9524,12 @@
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
@@ -9544,26 +9544,26 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>RT Sulfuros</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F192" t="n">
-        <v>5.4</v>
+        <v>2050</v>
       </c>
       <c r="G192" t="inlineStr">
         <is>
@@ -9572,12 +9572,12 @@
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
@@ -10984,7 +10984,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Procesamiento de Óxidos DMH</t>
+          <t>Planta Fotovoltaica San Pedro de Atacama IV</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -10999,11 +10999,11 @@
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>División Ministro Hales de Codelco Chile</t>
+          <t>GPG Solar Chile 2017 SpA</t>
         </is>
       </c>
       <c r="F222" t="n">
-        <v>70000</v>
+        <v>105250</v>
       </c>
       <c r="G222" t="inlineStr">
         <is>
@@ -11017,7 +11017,7 @@
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7040302&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7052315&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J222" t="inlineStr">
@@ -11032,7 +11032,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Planta Fotovoltaica San Pedro de Atacama IV</t>
+          <t>Procesamiento de Óxidos DMH</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -11047,11 +11047,11 @@
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>GPG Solar Chile 2017 SpA</t>
+          <t>División Ministro Hales de Codelco Chile</t>
         </is>
       </c>
       <c r="F223" t="n">
-        <v>105250</v>
+        <v>70000</v>
       </c>
       <c r="G223" t="inlineStr">
         <is>
@@ -11065,7 +11065,7 @@
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7052315&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7040302&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J223" t="inlineStr">
@@ -13144,7 +13144,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>Portal del Inca</t>
+          <t>Línea de Transmisión Eléctrica 220 kv Encuentro - MH</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
@@ -13159,11 +13159,11 @@
       </c>
       <c r="E267" t="inlineStr">
         <is>
-          <t>Inmobiliaria Inca Dos Ltda.</t>
+          <t>División Ministro Hales de Codelco Chile</t>
         </is>
       </c>
       <c r="F267" t="n">
-        <v>13948</v>
+        <v>45000</v>
       </c>
       <c r="G267" t="inlineStr">
         <is>
@@ -13172,12 +13172,12 @@
       </c>
       <c r="H267" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I267" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5787635&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5773970&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J267" t="inlineStr">
@@ -13192,7 +13192,7 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Eléctrica 220 kv Encuentro - MH</t>
+          <t>Portal del Inca</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
@@ -13207,11 +13207,11 @@
       </c>
       <c r="E268" t="inlineStr">
         <is>
-          <t>División Ministro Hales de Codelco Chile</t>
+          <t>Inmobiliaria Inca Dos Ltda.</t>
         </is>
       </c>
       <c r="F268" t="n">
-        <v>45000</v>
+        <v>13948</v>
       </c>
       <c r="G268" t="inlineStr">
         <is>
@@ -13220,12 +13220,12 @@
       </c>
       <c r="H268" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I268" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5773970&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5787635&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J268" t="inlineStr">
@@ -13960,7 +13960,7 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
@@ -13975,11 +13975,11 @@
       </c>
       <c r="E284" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F284" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G284" t="inlineStr">
         <is>
@@ -13988,12 +13988,12 @@
       </c>
       <c r="H284" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I284" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J284" t="inlineStr">
@@ -14008,7 +14008,7 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
@@ -14023,11 +14023,11 @@
       </c>
       <c r="E285" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F285" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G285" t="inlineStr">
         <is>
@@ -14036,12 +14036,12 @@
       </c>
       <c r="H285" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I285" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J285" t="inlineStr">
@@ -18520,7 +18520,7 @@
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Efluentes Hospital del Cobre (e-seia)</t>
+          <t>Sondajes Prospección Ingeniería de Detalles Explotación Subterránea Yacimiento Chuquicamata (e-seia)</t>
         </is>
       </c>
       <c r="C379" t="inlineStr">
@@ -18539,7 +18539,7 @@
         </is>
       </c>
       <c r="F379" t="n">
-        <v>200</v>
+        <v>83584</v>
       </c>
       <c r="G379" t="inlineStr">
         <is>
@@ -18553,7 +18553,7 @@
       </c>
       <c r="I379" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3826608&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3737660&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J379" t="inlineStr">
@@ -18568,7 +18568,7 @@
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>Sondajes Prospección Ingeniería de Detalles Explotación Subterránea Yacimiento Chuquicamata (e-seia)</t>
+          <t>Planta de Tratamiento de Efluentes Hospital del Cobre (e-seia)</t>
         </is>
       </c>
       <c r="C380" t="inlineStr">
@@ -18587,7 +18587,7 @@
         </is>
       </c>
       <c r="F380" t="n">
-        <v>83584</v>
+        <v>200</v>
       </c>
       <c r="G380" t="inlineStr">
         <is>
@@ -18601,7 +18601,7 @@
       </c>
       <c r="I380" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3737660&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3826608&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J380" t="inlineStr">
@@ -19816,7 +19816,7 @@
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>Proyecto Explotación Subterránea Mina Santa Rosa (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C406" t="inlineStr">
@@ -19826,16 +19826,16 @@
       </c>
       <c r="D406" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E406" t="inlineStr">
         <is>
-          <t>Minera Quimal.S.A.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F406" t="n">
-        <v>500</v>
+        <v>1750</v>
       </c>
       <c r="G406" t="inlineStr">
         <is>
@@ -19844,12 +19844,12 @@
       </c>
       <c r="H406" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I406" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3310659&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J406" t="inlineStr">
@@ -19864,7 +19864,7 @@
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Proyecto Explotación Subterránea Mina Santa Rosa (e-seia)</t>
         </is>
       </c>
       <c r="C407" t="inlineStr">
@@ -19874,16 +19874,16 @@
       </c>
       <c r="D407" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E407" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Minera Quimal.S.A.</t>
         </is>
       </c>
       <c r="F407" t="n">
-        <v>1750</v>
+        <v>500</v>
       </c>
       <c r="G407" t="inlineStr">
         <is>
@@ -19892,12 +19892,12 @@
       </c>
       <c r="H407" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I407" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3310659&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J407" t="inlineStr">
@@ -20344,7 +20344,7 @@
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>Tratamiento de Impurezas en Ánodos y Cátodos de División Codelco Norte (e-seia)</t>
         </is>
       </c>
       <c r="C417" t="inlineStr">
@@ -20354,16 +20354,16 @@
       </c>
       <c r="D417" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E417" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Codelco Chile, División Chuquicamata</t>
         </is>
       </c>
       <c r="F417" t="n">
-        <v>250</v>
+        <v>50000</v>
       </c>
       <c r="G417" t="inlineStr">
         <is>
@@ -20372,12 +20372,12 @@
       </c>
       <c r="H417" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I417" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3118819&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J417" t="inlineStr">
@@ -20392,7 +20392,7 @@
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>Tratamiento de Impurezas en Ánodos y Cátodos de División Codelco Norte (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C418" t="inlineStr">
@@ -20402,16 +20402,16 @@
       </c>
       <c r="D418" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E418" t="inlineStr">
         <is>
-          <t>Codelco Chile, División Chuquicamata</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F418" t="n">
-        <v>50000</v>
+        <v>250</v>
       </c>
       <c r="G418" t="inlineStr">
         <is>
@@ -20420,12 +20420,12 @@
       </c>
       <c r="H418" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I418" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3118819&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J418" t="inlineStr">
@@ -20536,7 +20536,7 @@
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>Proyecto Exploración Minera Macarena - Leo (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C421" t="inlineStr">
@@ -20546,16 +20546,16 @@
       </c>
       <c r="D421" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E421" t="inlineStr">
         <is>
-          <t>Minera Fuego Limitada</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F421" t="n">
-        <v>150</v>
+        <v>1650</v>
       </c>
       <c r="G421" t="inlineStr">
         <is>
@@ -20569,7 +20569,7 @@
       </c>
       <c r="I421" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088992&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J421" t="inlineStr">
@@ -20584,7 +20584,7 @@
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>Proyecto Exploración Minera Macarena - Leo (e-seia)</t>
         </is>
       </c>
       <c r="C422" t="inlineStr">
@@ -20594,16 +20594,16 @@
       </c>
       <c r="D422" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E422" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Minera Fuego Limitada</t>
         </is>
       </c>
       <c r="F422" t="n">
-        <v>1650</v>
+        <v>150</v>
       </c>
       <c r="G422" t="inlineStr">
         <is>
@@ -20617,7 +20617,7 @@
       </c>
       <c r="I422" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088992&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J422" t="inlineStr">
@@ -23560,26 +23560,26 @@
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
+          <t>LIXIVIACIÓN DE SULFUROS SULFOLIX</t>
         </is>
       </c>
       <c r="C484" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D484" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E484" t="inlineStr">
         <is>
-          <t>Empresa de Residuos RESITER S.A.</t>
+          <t>SOCIEDAD CONTRACTUAL MINERA EL ABRA</t>
         </is>
       </c>
       <c r="F484" t="n">
-        <v>1</v>
+        <v>343000</v>
       </c>
       <c r="G484" t="inlineStr">
         <is>
@@ -23593,7 +23593,7 @@
       </c>
       <c r="I484" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2088630&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J484" t="inlineStr">
@@ -23608,26 +23608,26 @@
       </c>
       <c r="B485" t="inlineStr">
         <is>
-          <t>LIXIVIACIÓN DE SULFUROS SULFOLIX</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C485" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D485" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E485" t="inlineStr">
         <is>
-          <t>SOCIEDAD CONTRACTUAL MINERA EL ABRA</t>
+          <t>Empresa de Residuos RESITER S.A.</t>
         </is>
       </c>
       <c r="F485" t="n">
-        <v>343000</v>
+        <v>1</v>
       </c>
       <c r="G485" t="inlineStr">
         <is>
@@ -23641,7 +23641,7 @@
       </c>
       <c r="I485" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2088630&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J485" t="inlineStr">

--- a/data/Calama.xlsx
+++ b/data/Calama.xlsx
@@ -4024,7 +4024,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Verano de San Juan I</t>
+          <t>MODIFICACIONES AL PROYECTO EXTRACCIÓN Y MOVIMIENTO DE MINERALES MINA RADOMIRO TOMIC</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4039,11 +4039,11 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Sonnedix Victoria Solar SpA</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>15000</v>
+        <v>208848</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
@@ -4052,12 +4052,12 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138522682&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138513102&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4072,7 +4072,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Verano de San Juan II</t>
+          <t>Parque Fotovoltaico Verano de San Juan I</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4087,7 +4087,7 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Sonnedix Paine Energy SpA</t>
+          <t>Sonnedix Victoria Solar SpA</t>
         </is>
       </c>
       <c r="F78" t="n">
@@ -4105,7 +4105,7 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138526892&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138522682&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -4120,7 +4120,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>MODIFICACIONES AL PROYECTO EXTRACCIÓN Y MOVIMIENTO DE MINERALES MINA RADOMIRO TOMIC</t>
+          <t>Parque Fotovoltaico Verano de San Juan II</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4135,11 +4135,11 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Sonnedix Paine Energy SpA</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>208848</v>
+        <v>15000</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
@@ -4148,12 +4148,12 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138513102&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138526892&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -8008,7 +8008,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>AUMENTO CAPACIDAD DE TRATAMIENTO DE EFLUENTES DE FUNDICIÓN</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -8018,16 +8018,16 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>Codelco Chile, División Chuquicamata</t>
         </is>
       </c>
       <c r="F160" t="n">
-        <v>1200</v>
+        <v>67700</v>
       </c>
       <c r="G160" t="inlineStr">
         <is>
@@ -8041,7 +8041,7 @@
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128952737&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
@@ -8056,7 +8056,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Proyecto Fotovoltaico Azabache</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -8066,16 +8066,16 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>Almeyda Solar SpA.</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F161" t="n">
-        <v>140000</v>
+        <v>1200</v>
       </c>
       <c r="G161" t="inlineStr">
         <is>
@@ -8089,7 +8089,7 @@
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128969457&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
@@ -8104,7 +8104,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Proyecto Fotovoltaico Azabache</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -8114,16 +8114,16 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Almeyda Solar SpA.</t>
         </is>
       </c>
       <c r="F162" t="n">
-        <v>0</v>
+        <v>140000</v>
       </c>
       <c r="G162" t="inlineStr">
         <is>
@@ -8137,7 +8137,7 @@
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128969457&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
@@ -8152,7 +8152,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>BARRIO CONTRATISTA GERENCIA DE PROYECTOS</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -8162,16 +8162,16 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>Codelco Chile, División Chuquicamata</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F163" t="n">
-        <v>8000</v>
+        <v>0</v>
       </c>
       <c r="G163" t="inlineStr">
         <is>
@@ -8185,7 +8185,7 @@
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128904823&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -8200,7 +8200,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>AUMENTO CAPACIDAD DE TRATAMIENTO DE EFLUENTES DE FUNDICIÓN</t>
+          <t>BARRIO CONTRATISTA GERENCIA DE PROYECTOS</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -8219,7 +8219,7 @@
         </is>
       </c>
       <c r="F164" t="n">
-        <v>67700</v>
+        <v>8000</v>
       </c>
       <c r="G164" t="inlineStr">
         <is>
@@ -8233,7 +8233,7 @@
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128952737&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128904823&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
@@ -8248,7 +8248,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Aumento Áreas de Lixiviación, sector Quebrada Portezuelo</t>
+          <t>Remodelación Parque El Loa</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -8263,11 +8263,11 @@
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>Codelco Chile, División Chuquicamata</t>
+          <t>Ilustre Municipalidad de Calama</t>
         </is>
       </c>
       <c r="F165" t="n">
-        <v>5888</v>
+        <v>9074</v>
       </c>
       <c r="G165" t="inlineStr">
         <is>
@@ -8281,7 +8281,7 @@
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128955081&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128906904&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
@@ -8296,7 +8296,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Remodelación Parque El Loa</t>
+          <t>Aumento Áreas de Lixiviación, sector Quebrada Portezuelo</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -8311,11 +8311,11 @@
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Calama</t>
+          <t>Codelco Chile, División Chuquicamata</t>
         </is>
       </c>
       <c r="F166" t="n">
-        <v>9074</v>
+        <v>5888</v>
       </c>
       <c r="G166" t="inlineStr">
         <is>
@@ -8329,7 +8329,7 @@
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128906904&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128955081&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
@@ -8920,7 +8920,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -8935,11 +8935,11 @@
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F179" t="n">
-        <v>12500</v>
+        <v>219</v>
       </c>
       <c r="G179" t="inlineStr">
         <is>
@@ -8948,12 +8948,12 @@
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556590&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
@@ -8968,7 +8968,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
+          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -8987,7 +8987,7 @@
         </is>
       </c>
       <c r="F180" t="n">
-        <v>10000</v>
+        <v>12500</v>
       </c>
       <c r="G180" t="inlineStr">
         <is>
@@ -9001,7 +9001,7 @@
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
@@ -9016,7 +9016,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -9031,11 +9031,11 @@
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F181" t="n">
-        <v>219</v>
+        <v>10000</v>
       </c>
       <c r="G181" t="inlineStr">
         <is>
@@ -9044,12 +9044,12 @@
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556590&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -9544,26 +9544,26 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>RT Sulfuros</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F192" t="n">
-        <v>2050</v>
+        <v>5.4</v>
       </c>
       <c r="G192" t="inlineStr">
         <is>
@@ -9572,12 +9572,12 @@
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
@@ -9592,26 +9592,26 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>RT Sulfuros</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F193" t="n">
-        <v>5.4</v>
+        <v>2050</v>
       </c>
       <c r="G193" t="inlineStr">
         <is>
@@ -9620,12 +9620,12 @@
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
@@ -11032,7 +11032,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Procesamiento de Óxidos DMH</t>
+          <t>Planta Fotovoltaica San Pedro de Atacama IV</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -11047,11 +11047,11 @@
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>División Ministro Hales de Codelco Chile</t>
+          <t>GPG Solar Chile 2017 SpA</t>
         </is>
       </c>
       <c r="F223" t="n">
-        <v>70000</v>
+        <v>105250</v>
       </c>
       <c r="G223" t="inlineStr">
         <is>
@@ -11065,7 +11065,7 @@
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7040302&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7052315&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J223" t="inlineStr">
@@ -11080,7 +11080,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Planta Fotovoltaica San Pedro de Atacama IV</t>
+          <t>Procesamiento de Óxidos DMH</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -11095,11 +11095,11 @@
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>GPG Solar Chile 2017 SpA</t>
+          <t>División Ministro Hales de Codelco Chile</t>
         </is>
       </c>
       <c r="F224" t="n">
-        <v>105250</v>
+        <v>70000</v>
       </c>
       <c r="G224" t="inlineStr">
         <is>
@@ -11113,7 +11113,7 @@
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7052315&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7040302&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J224" t="inlineStr">
@@ -13192,7 +13192,7 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>Portal del Inca</t>
+          <t>Línea de Transmisión Eléctrica 220 kv Encuentro - MH</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
@@ -13207,11 +13207,11 @@
       </c>
       <c r="E268" t="inlineStr">
         <is>
-          <t>Inmobiliaria Inca Dos Ltda.</t>
+          <t>División Ministro Hales de Codelco Chile</t>
         </is>
       </c>
       <c r="F268" t="n">
-        <v>13948</v>
+        <v>45000</v>
       </c>
       <c r="G268" t="inlineStr">
         <is>
@@ -13220,12 +13220,12 @@
       </c>
       <c r="H268" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I268" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5787635&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5773970&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J268" t="inlineStr">
@@ -13240,7 +13240,7 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Eléctrica 220 kv Encuentro - MH</t>
+          <t>Portal del Inca</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
@@ -13255,11 +13255,11 @@
       </c>
       <c r="E269" t="inlineStr">
         <is>
-          <t>División Ministro Hales de Codelco Chile</t>
+          <t>Inmobiliaria Inca Dos Ltda.</t>
         </is>
       </c>
       <c r="F269" t="n">
-        <v>45000</v>
+        <v>13948</v>
       </c>
       <c r="G269" t="inlineStr">
         <is>
@@ -13268,12 +13268,12 @@
       </c>
       <c r="H269" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I269" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5773970&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5787635&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J269" t="inlineStr">
@@ -14008,7 +14008,7 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
@@ -14023,11 +14023,11 @@
       </c>
       <c r="E285" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F285" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G285" t="inlineStr">
         <is>
@@ -14036,12 +14036,12 @@
       </c>
       <c r="H285" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I285" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J285" t="inlineStr">
@@ -14056,7 +14056,7 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
@@ -14071,11 +14071,11 @@
       </c>
       <c r="E286" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F286" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G286" t="inlineStr">
         <is>
@@ -14084,12 +14084,12 @@
       </c>
       <c r="H286" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I286" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J286" t="inlineStr">
@@ -18568,7 +18568,7 @@
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Efluentes Hospital del Cobre (e-seia)</t>
+          <t>Sondajes Prospección Ingeniería de Detalles Explotación Subterránea Yacimiento Chuquicamata (e-seia)</t>
         </is>
       </c>
       <c r="C380" t="inlineStr">
@@ -18587,7 +18587,7 @@
         </is>
       </c>
       <c r="F380" t="n">
-        <v>200</v>
+        <v>83584</v>
       </c>
       <c r="G380" t="inlineStr">
         <is>
@@ -18601,7 +18601,7 @@
       </c>
       <c r="I380" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3826608&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3737660&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J380" t="inlineStr">
@@ -18616,7 +18616,7 @@
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>Sondajes Prospección Ingeniería de Detalles Explotación Subterránea Yacimiento Chuquicamata (e-seia)</t>
+          <t>Planta de Tratamiento de Efluentes Hospital del Cobre (e-seia)</t>
         </is>
       </c>
       <c r="C381" t="inlineStr">
@@ -18635,7 +18635,7 @@
         </is>
       </c>
       <c r="F381" t="n">
-        <v>83584</v>
+        <v>200</v>
       </c>
       <c r="G381" t="inlineStr">
         <is>
@@ -18649,7 +18649,7 @@
       </c>
       <c r="I381" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3737660&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3826608&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J381" t="inlineStr">
@@ -19864,7 +19864,7 @@
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>Proyecto Explotación Subterránea Mina Santa Rosa (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C407" t="inlineStr">
@@ -19874,16 +19874,16 @@
       </c>
       <c r="D407" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E407" t="inlineStr">
         <is>
-          <t>Minera Quimal.S.A.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F407" t="n">
-        <v>500</v>
+        <v>1750</v>
       </c>
       <c r="G407" t="inlineStr">
         <is>
@@ -19892,12 +19892,12 @@
       </c>
       <c r="H407" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I407" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3310659&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J407" t="inlineStr">
@@ -19912,7 +19912,7 @@
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Proyecto Explotación Subterránea Mina Santa Rosa (e-seia)</t>
         </is>
       </c>
       <c r="C408" t="inlineStr">
@@ -19922,16 +19922,16 @@
       </c>
       <c r="D408" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E408" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Minera Quimal.S.A.</t>
         </is>
       </c>
       <c r="F408" t="n">
-        <v>1750</v>
+        <v>500</v>
       </c>
       <c r="G408" t="inlineStr">
         <is>
@@ -19940,12 +19940,12 @@
       </c>
       <c r="H408" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I408" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3310659&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J408" t="inlineStr">
@@ -20392,7 +20392,7 @@
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>Tratamiento de Impurezas en Ánodos y Cátodos de División Codelco Norte (e-seia)</t>
         </is>
       </c>
       <c r="C418" t="inlineStr">
@@ -20402,16 +20402,16 @@
       </c>
       <c r="D418" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E418" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Codelco Chile, División Chuquicamata</t>
         </is>
       </c>
       <c r="F418" t="n">
-        <v>250</v>
+        <v>50000</v>
       </c>
       <c r="G418" t="inlineStr">
         <is>
@@ -20420,12 +20420,12 @@
       </c>
       <c r="H418" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I418" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3118819&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J418" t="inlineStr">
@@ -20440,7 +20440,7 @@
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>Tratamiento de Impurezas en Ánodos y Cátodos de División Codelco Norte (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C419" t="inlineStr">
@@ -20450,16 +20450,16 @@
       </c>
       <c r="D419" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E419" t="inlineStr">
         <is>
-          <t>Codelco Chile, División Chuquicamata</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F419" t="n">
-        <v>50000</v>
+        <v>250</v>
       </c>
       <c r="G419" t="inlineStr">
         <is>
@@ -20468,12 +20468,12 @@
       </c>
       <c r="H419" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I419" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3118819&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J419" t="inlineStr">
@@ -20584,7 +20584,7 @@
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>Proyecto Exploración Minera Macarena - Leo (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C422" t="inlineStr">
@@ -20594,16 +20594,16 @@
       </c>
       <c r="D422" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E422" t="inlineStr">
         <is>
-          <t>Minera Fuego Limitada</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F422" t="n">
-        <v>150</v>
+        <v>1650</v>
       </c>
       <c r="G422" t="inlineStr">
         <is>
@@ -20617,7 +20617,7 @@
       </c>
       <c r="I422" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088992&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J422" t="inlineStr">
@@ -20632,7 +20632,7 @@
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>Proyecto Exploración Minera Macarena - Leo (e-seia)</t>
         </is>
       </c>
       <c r="C423" t="inlineStr">
@@ -20642,16 +20642,16 @@
       </c>
       <c r="D423" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E423" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Minera Fuego Limitada</t>
         </is>
       </c>
       <c r="F423" t="n">
-        <v>1650</v>
+        <v>150</v>
       </c>
       <c r="G423" t="inlineStr">
         <is>
@@ -20665,7 +20665,7 @@
       </c>
       <c r="I423" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088992&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J423" t="inlineStr">
@@ -23608,26 +23608,26 @@
       </c>
       <c r="B485" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
+          <t>LIXIVIACIÓN DE SULFUROS SULFOLIX</t>
         </is>
       </c>
       <c r="C485" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D485" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E485" t="inlineStr">
         <is>
-          <t>Empresa de Residuos RESITER S.A.</t>
+          <t>SOCIEDAD CONTRACTUAL MINERA EL ABRA</t>
         </is>
       </c>
       <c r="F485" t="n">
-        <v>1</v>
+        <v>343000</v>
       </c>
       <c r="G485" t="inlineStr">
         <is>
@@ -23641,7 +23641,7 @@
       </c>
       <c r="I485" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2088630&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J485" t="inlineStr">
@@ -23656,26 +23656,26 @@
       </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t>LIXIVIACIÓN DE SULFUROS SULFOLIX</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C486" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D486" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E486" t="inlineStr">
         <is>
-          <t>SOCIEDAD CONTRACTUAL MINERA EL ABRA</t>
+          <t>Empresa de Residuos RESITER S.A.</t>
         </is>
       </c>
       <c r="F486" t="n">
-        <v>343000</v>
+        <v>1</v>
       </c>
       <c r="G486" t="inlineStr">
         <is>
@@ -23689,7 +23689,7 @@
       </c>
       <c r="I486" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2088630&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J486" t="inlineStr">

--- a/data/Calama.xlsx
+++ b/data/Calama.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>15/05/2023</t>
+          <t>16/06/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Ingresados Art.94 RSEIA</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Calama.xlsx
+++ b/data/Calama.xlsx
@@ -4024,7 +4024,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>MODIFICACIONES AL PROYECTO EXTRACCIÓN Y MOVIMIENTO DE MINERALES MINA RADOMIRO TOMIC</t>
+          <t>Parque Fotovoltaico Verano de San Juan I</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4039,11 +4039,11 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Sonnedix Victoria Solar SpA</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>208848</v>
+        <v>15000</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
@@ -4052,12 +4052,12 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138513102&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138522682&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4072,7 +4072,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Verano de San Juan I</t>
+          <t>Parque Fotovoltaico Verano de San Juan II</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4087,7 +4087,7 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Sonnedix Victoria Solar SpA</t>
+          <t>Sonnedix Paine Energy SpA</t>
         </is>
       </c>
       <c r="F78" t="n">
@@ -4105,7 +4105,7 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138522682&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138526892&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -4120,7 +4120,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Verano de San Juan II</t>
+          <t>MODIFICACIONES AL PROYECTO EXTRACCIÓN Y MOVIMIENTO DE MINERALES MINA RADOMIRO TOMIC</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4135,11 +4135,11 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Sonnedix Paine Energy SpA</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>15000</v>
+        <v>208848</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
@@ -4148,12 +4148,12 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138526892&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138513102&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -8008,7 +8008,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>AUMENTO CAPACIDAD DE TRATAMIENTO DE EFLUENTES DE FUNDICIÓN</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -8018,16 +8018,16 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>Codelco Chile, División Chuquicamata</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F160" t="n">
-        <v>67700</v>
+        <v>1200</v>
       </c>
       <c r="G160" t="inlineStr">
         <is>
@@ -8041,7 +8041,7 @@
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128952737&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
@@ -8056,7 +8056,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Proyecto Fotovoltaico Azabache</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -8066,16 +8066,16 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>Almeyda Solar SpA.</t>
         </is>
       </c>
       <c r="F161" t="n">
-        <v>1200</v>
+        <v>140000</v>
       </c>
       <c r="G161" t="inlineStr">
         <is>
@@ -8089,7 +8089,7 @@
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128969457&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
@@ -8104,7 +8104,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Proyecto Fotovoltaico Azabache</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -8114,16 +8114,16 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>Almeyda Solar SpA.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F162" t="n">
-        <v>140000</v>
+        <v>0</v>
       </c>
       <c r="G162" t="inlineStr">
         <is>
@@ -8137,7 +8137,7 @@
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128969457&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
@@ -8152,7 +8152,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>BARRIO CONTRATISTA GERENCIA DE PROYECTOS</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -8162,16 +8162,16 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Codelco Chile, División Chuquicamata</t>
         </is>
       </c>
       <c r="F163" t="n">
-        <v>0</v>
+        <v>8000</v>
       </c>
       <c r="G163" t="inlineStr">
         <is>
@@ -8185,7 +8185,7 @@
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128904823&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -8200,7 +8200,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>BARRIO CONTRATISTA GERENCIA DE PROYECTOS</t>
+          <t>AUMENTO CAPACIDAD DE TRATAMIENTO DE EFLUENTES DE FUNDICIÓN</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -8219,7 +8219,7 @@
         </is>
       </c>
       <c r="F164" t="n">
-        <v>8000</v>
+        <v>67700</v>
       </c>
       <c r="G164" t="inlineStr">
         <is>
@@ -8233,7 +8233,7 @@
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128904823&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128952737&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
@@ -8248,7 +8248,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Remodelación Parque El Loa</t>
+          <t>Aumento Áreas de Lixiviación, sector Quebrada Portezuelo</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -8263,11 +8263,11 @@
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Calama</t>
+          <t>Codelco Chile, División Chuquicamata</t>
         </is>
       </c>
       <c r="F165" t="n">
-        <v>9074</v>
+        <v>5888</v>
       </c>
       <c r="G165" t="inlineStr">
         <is>
@@ -8281,7 +8281,7 @@
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128906904&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128955081&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
@@ -8296,7 +8296,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Aumento Áreas de Lixiviación, sector Quebrada Portezuelo</t>
+          <t>Remodelación Parque El Loa</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -8311,11 +8311,11 @@
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>Codelco Chile, División Chuquicamata</t>
+          <t>Ilustre Municipalidad de Calama</t>
         </is>
       </c>
       <c r="F166" t="n">
-        <v>5888</v>
+        <v>9074</v>
       </c>
       <c r="G166" t="inlineStr">
         <is>
@@ -8329,7 +8329,7 @@
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128955081&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128906904&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
@@ -8920,7 +8920,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -8935,11 +8935,11 @@
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F179" t="n">
-        <v>219</v>
+        <v>12500</v>
       </c>
       <c r="G179" t="inlineStr">
         <is>
@@ -8948,12 +8948,12 @@
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556590&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
@@ -8968,7 +8968,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -8987,7 +8987,7 @@
         </is>
       </c>
       <c r="F180" t="n">
-        <v>12500</v>
+        <v>10000</v>
       </c>
       <c r="G180" t="inlineStr">
         <is>
@@ -9001,7 +9001,7 @@
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
@@ -9016,7 +9016,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -9031,11 +9031,11 @@
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F181" t="n">
-        <v>10000</v>
+        <v>219</v>
       </c>
       <c r="G181" t="inlineStr">
         <is>
@@ -9044,12 +9044,12 @@
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556590&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -9544,26 +9544,26 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>RT Sulfuros</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F192" t="n">
-        <v>5.4</v>
+        <v>2050</v>
       </c>
       <c r="G192" t="inlineStr">
         <is>
@@ -9572,12 +9572,12 @@
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
@@ -9592,26 +9592,26 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>RT Sulfuros</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F193" t="n">
-        <v>2050</v>
+        <v>5.4</v>
       </c>
       <c r="G193" t="inlineStr">
         <is>
@@ -9620,12 +9620,12 @@
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
@@ -11032,7 +11032,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Planta Fotovoltaica San Pedro de Atacama IV</t>
+          <t>Procesamiento de Óxidos DMH</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -11047,11 +11047,11 @@
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>GPG Solar Chile 2017 SpA</t>
+          <t>División Ministro Hales de Codelco Chile</t>
         </is>
       </c>
       <c r="F223" t="n">
-        <v>105250</v>
+        <v>70000</v>
       </c>
       <c r="G223" t="inlineStr">
         <is>
@@ -11065,7 +11065,7 @@
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7052315&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7040302&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J223" t="inlineStr">
@@ -11080,7 +11080,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Procesamiento de Óxidos DMH</t>
+          <t>Planta Fotovoltaica San Pedro de Atacama IV</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -11095,11 +11095,11 @@
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>División Ministro Hales de Codelco Chile</t>
+          <t>GPG Solar Chile 2017 SpA</t>
         </is>
       </c>
       <c r="F224" t="n">
-        <v>70000</v>
+        <v>105250</v>
       </c>
       <c r="G224" t="inlineStr">
         <is>
@@ -11113,7 +11113,7 @@
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7040302&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7052315&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J224" t="inlineStr">
@@ -13192,7 +13192,7 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Eléctrica 220 kv Encuentro - MH</t>
+          <t>Portal del Inca</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
@@ -13207,11 +13207,11 @@
       </c>
       <c r="E268" t="inlineStr">
         <is>
-          <t>División Ministro Hales de Codelco Chile</t>
+          <t>Inmobiliaria Inca Dos Ltda.</t>
         </is>
       </c>
       <c r="F268" t="n">
-        <v>45000</v>
+        <v>13948</v>
       </c>
       <c r="G268" t="inlineStr">
         <is>
@@ -13220,12 +13220,12 @@
       </c>
       <c r="H268" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I268" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5773970&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5787635&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J268" t="inlineStr">
@@ -13240,7 +13240,7 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>Portal del Inca</t>
+          <t>Línea de Transmisión Eléctrica 220 kv Encuentro - MH</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
@@ -13255,11 +13255,11 @@
       </c>
       <c r="E269" t="inlineStr">
         <is>
-          <t>Inmobiliaria Inca Dos Ltda.</t>
+          <t>División Ministro Hales de Codelco Chile</t>
         </is>
       </c>
       <c r="F269" t="n">
-        <v>13948</v>
+        <v>45000</v>
       </c>
       <c r="G269" t="inlineStr">
         <is>
@@ -13268,12 +13268,12 @@
       </c>
       <c r="H269" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I269" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5787635&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5773970&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J269" t="inlineStr">
@@ -14008,7 +14008,7 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
@@ -14023,11 +14023,11 @@
       </c>
       <c r="E285" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F285" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G285" t="inlineStr">
         <is>
@@ -14036,12 +14036,12 @@
       </c>
       <c r="H285" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I285" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J285" t="inlineStr">
@@ -14056,7 +14056,7 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
@@ -14071,11 +14071,11 @@
       </c>
       <c r="E286" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F286" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G286" t="inlineStr">
         <is>
@@ -14084,12 +14084,12 @@
       </c>
       <c r="H286" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I286" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J286" t="inlineStr">
@@ -18568,7 +18568,7 @@
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>Sondajes Prospección Ingeniería de Detalles Explotación Subterránea Yacimiento Chuquicamata (e-seia)</t>
+          <t>Planta de Tratamiento de Efluentes Hospital del Cobre (e-seia)</t>
         </is>
       </c>
       <c r="C380" t="inlineStr">
@@ -18587,7 +18587,7 @@
         </is>
       </c>
       <c r="F380" t="n">
-        <v>83584</v>
+        <v>200</v>
       </c>
       <c r="G380" t="inlineStr">
         <is>
@@ -18601,7 +18601,7 @@
       </c>
       <c r="I380" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3737660&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3826608&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J380" t="inlineStr">
@@ -18616,7 +18616,7 @@
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Efluentes Hospital del Cobre (e-seia)</t>
+          <t>Sondajes Prospección Ingeniería de Detalles Explotación Subterránea Yacimiento Chuquicamata (e-seia)</t>
         </is>
       </c>
       <c r="C381" t="inlineStr">
@@ -18635,7 +18635,7 @@
         </is>
       </c>
       <c r="F381" t="n">
-        <v>200</v>
+        <v>83584</v>
       </c>
       <c r="G381" t="inlineStr">
         <is>
@@ -18649,7 +18649,7 @@
       </c>
       <c r="I381" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3826608&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3737660&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J381" t="inlineStr">
@@ -19864,7 +19864,7 @@
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Proyecto Explotación Subterránea Mina Santa Rosa (e-seia)</t>
         </is>
       </c>
       <c r="C407" t="inlineStr">
@@ -19874,16 +19874,16 @@
       </c>
       <c r="D407" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E407" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Minera Quimal.S.A.</t>
         </is>
       </c>
       <c r="F407" t="n">
-        <v>1750</v>
+        <v>500</v>
       </c>
       <c r="G407" t="inlineStr">
         <is>
@@ -19892,12 +19892,12 @@
       </c>
       <c r="H407" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I407" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3310659&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J407" t="inlineStr">
@@ -19912,7 +19912,7 @@
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>Proyecto Explotación Subterránea Mina Santa Rosa (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C408" t="inlineStr">
@@ -19922,16 +19922,16 @@
       </c>
       <c r="D408" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E408" t="inlineStr">
         <is>
-          <t>Minera Quimal.S.A.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F408" t="n">
-        <v>500</v>
+        <v>1750</v>
       </c>
       <c r="G408" t="inlineStr">
         <is>
@@ -19940,12 +19940,12 @@
       </c>
       <c r="H408" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I408" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3310659&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J408" t="inlineStr">
@@ -20392,7 +20392,7 @@
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>Tratamiento de Impurezas en Ánodos y Cátodos de División Codelco Norte (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C418" t="inlineStr">
@@ -20402,16 +20402,16 @@
       </c>
       <c r="D418" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E418" t="inlineStr">
         <is>
-          <t>Codelco Chile, División Chuquicamata</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F418" t="n">
-        <v>50000</v>
+        <v>250</v>
       </c>
       <c r="G418" t="inlineStr">
         <is>
@@ -20420,12 +20420,12 @@
       </c>
       <c r="H418" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I418" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3118819&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J418" t="inlineStr">
@@ -20440,7 +20440,7 @@
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>Tratamiento de Impurezas en Ánodos y Cátodos de División Codelco Norte (e-seia)</t>
         </is>
       </c>
       <c r="C419" t="inlineStr">
@@ -20450,16 +20450,16 @@
       </c>
       <c r="D419" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E419" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Codelco Chile, División Chuquicamata</t>
         </is>
       </c>
       <c r="F419" t="n">
-        <v>250</v>
+        <v>50000</v>
       </c>
       <c r="G419" t="inlineStr">
         <is>
@@ -20468,12 +20468,12 @@
       </c>
       <c r="H419" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I419" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3118819&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J419" t="inlineStr">
@@ -20584,7 +20584,7 @@
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>Proyecto Exploración Minera Macarena - Leo (e-seia)</t>
         </is>
       </c>
       <c r="C422" t="inlineStr">
@@ -20594,16 +20594,16 @@
       </c>
       <c r="D422" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E422" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Minera Fuego Limitada</t>
         </is>
       </c>
       <c r="F422" t="n">
-        <v>1650</v>
+        <v>150</v>
       </c>
       <c r="G422" t="inlineStr">
         <is>
@@ -20617,7 +20617,7 @@
       </c>
       <c r="I422" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088992&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J422" t="inlineStr">
@@ -20632,7 +20632,7 @@
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>Proyecto Exploración Minera Macarena - Leo (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C423" t="inlineStr">
@@ -20642,16 +20642,16 @@
       </c>
       <c r="D423" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E423" t="inlineStr">
         <is>
-          <t>Minera Fuego Limitada</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F423" t="n">
-        <v>150</v>
+        <v>1650</v>
       </c>
       <c r="G423" t="inlineStr">
         <is>
@@ -20665,7 +20665,7 @@
       </c>
       <c r="I423" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088992&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J423" t="inlineStr">
@@ -23608,26 +23608,26 @@
       </c>
       <c r="B485" t="inlineStr">
         <is>
-          <t>LIXIVIACIÓN DE SULFUROS SULFOLIX</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C485" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D485" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E485" t="inlineStr">
         <is>
-          <t>SOCIEDAD CONTRACTUAL MINERA EL ABRA</t>
+          <t>Empresa de Residuos RESITER S.A.</t>
         </is>
       </c>
       <c r="F485" t="n">
-        <v>343000</v>
+        <v>1</v>
       </c>
       <c r="G485" t="inlineStr">
         <is>
@@ -23641,7 +23641,7 @@
       </c>
       <c r="I485" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2088630&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J485" t="inlineStr">
@@ -23656,26 +23656,26 @@
       </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
+          <t>LIXIVIACIÓN DE SULFUROS SULFOLIX</t>
         </is>
       </c>
       <c r="C486" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D486" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E486" t="inlineStr">
         <is>
-          <t>Empresa de Residuos RESITER S.A.</t>
+          <t>SOCIEDAD CONTRACTUAL MINERA EL ABRA</t>
         </is>
       </c>
       <c r="F486" t="n">
-        <v>1</v>
+        <v>343000</v>
       </c>
       <c r="G486" t="inlineStr">
         <is>
@@ -23689,7 +23689,7 @@
       </c>
       <c r="I486" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2088630&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J486" t="inlineStr">

--- a/data/Calama.xlsx
+++ b/data/Calama.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>16/06/2023</t>
+          <t>22/05/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Calama.xlsx
+++ b/data/Calama.xlsx
@@ -4024,7 +4024,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>MODIFICACIONES AL PROYECTO EXTRACCIÓN Y MOVIMIENTO DE MINERALES MINA RADOMIRO TOMIC</t>
+          <t>Parque Fotovoltaico Verano de San Juan I</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4039,11 +4039,11 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Sonnedix Victoria Solar SpA</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>208848</v>
+        <v>15000</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
@@ -4052,12 +4052,12 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138513102&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138522682&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4072,7 +4072,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Verano de San Juan I</t>
+          <t>Parque Fotovoltaico Verano de San Juan II</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4087,7 +4087,7 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Sonnedix Victoria Solar SpA</t>
+          <t>Sonnedix Paine Energy SpA</t>
         </is>
       </c>
       <c r="F78" t="n">
@@ -4105,7 +4105,7 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138522682&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138526892&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -4120,7 +4120,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Verano de San Juan II</t>
+          <t>MODIFICACIONES AL PROYECTO EXTRACCIÓN Y MOVIMIENTO DE MINERALES MINA RADOMIRO TOMIC</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4135,11 +4135,11 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Sonnedix Paine Energy SpA</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>15000</v>
+        <v>208848</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
@@ -4148,12 +4148,12 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138526892&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138513102&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -8008,7 +8008,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>AUMENTO CAPACIDAD DE TRATAMIENTO DE EFLUENTES DE FUNDICIÓN</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -8018,16 +8018,16 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>Codelco Chile, División Chuquicamata</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F160" t="n">
-        <v>67700</v>
+        <v>1200</v>
       </c>
       <c r="G160" t="inlineStr">
         <is>
@@ -8041,7 +8041,7 @@
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128952737&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
@@ -8056,7 +8056,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Proyecto Fotovoltaico Azabache</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -8066,16 +8066,16 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>Almeyda Solar SpA.</t>
         </is>
       </c>
       <c r="F161" t="n">
-        <v>1200</v>
+        <v>140000</v>
       </c>
       <c r="G161" t="inlineStr">
         <is>
@@ -8089,7 +8089,7 @@
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128969457&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
@@ -8104,7 +8104,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Proyecto Fotovoltaico Azabache</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -8114,16 +8114,16 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>Almeyda Solar SpA.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F162" t="n">
-        <v>140000</v>
+        <v>0</v>
       </c>
       <c r="G162" t="inlineStr">
         <is>
@@ -8137,7 +8137,7 @@
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128969457&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
@@ -8152,7 +8152,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>AUMENTO CAPACIDAD DE TRATAMIENTO DE EFLUENTES DE FUNDICIÓN</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -8162,16 +8162,16 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Codelco Chile, División Chuquicamata</t>
         </is>
       </c>
       <c r="F163" t="n">
-        <v>0</v>
+        <v>67700</v>
       </c>
       <c r="G163" t="inlineStr">
         <is>
@@ -8185,7 +8185,7 @@
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128952737&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -8920,7 +8920,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -8935,11 +8935,11 @@
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F179" t="n">
-        <v>219</v>
+        <v>12500</v>
       </c>
       <c r="G179" t="inlineStr">
         <is>
@@ -8948,12 +8948,12 @@
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556590&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
@@ -8968,7 +8968,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -8987,7 +8987,7 @@
         </is>
       </c>
       <c r="F180" t="n">
-        <v>12500</v>
+        <v>10000</v>
       </c>
       <c r="G180" t="inlineStr">
         <is>
@@ -9001,7 +9001,7 @@
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
@@ -9016,7 +9016,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -9031,11 +9031,11 @@
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F181" t="n">
-        <v>10000</v>
+        <v>219</v>
       </c>
       <c r="G181" t="inlineStr">
         <is>
@@ -9044,12 +9044,12 @@
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556590&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -9544,26 +9544,26 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>RT Sulfuros</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F192" t="n">
-        <v>5.4</v>
+        <v>2050</v>
       </c>
       <c r="G192" t="inlineStr">
         <is>
@@ -9572,12 +9572,12 @@
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
@@ -9592,26 +9592,26 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>RT Sulfuros</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F193" t="n">
-        <v>2050</v>
+        <v>5.4</v>
       </c>
       <c r="G193" t="inlineStr">
         <is>
@@ -9620,12 +9620,12 @@
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
@@ -11032,7 +11032,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Planta Fotovoltaica San Pedro de Atacama IV</t>
+          <t>Procesamiento de Óxidos DMH</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -11047,11 +11047,11 @@
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>GPG Solar Chile 2017 SpA</t>
+          <t>División Ministro Hales de Codelco Chile</t>
         </is>
       </c>
       <c r="F223" t="n">
-        <v>105250</v>
+        <v>70000</v>
       </c>
       <c r="G223" t="inlineStr">
         <is>
@@ -11065,7 +11065,7 @@
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7052315&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7040302&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J223" t="inlineStr">
@@ -11080,7 +11080,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Procesamiento de Óxidos DMH</t>
+          <t>Planta Fotovoltaica San Pedro de Atacama IV</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -11095,11 +11095,11 @@
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>División Ministro Hales de Codelco Chile</t>
+          <t>GPG Solar Chile 2017 SpA</t>
         </is>
       </c>
       <c r="F224" t="n">
-        <v>70000</v>
+        <v>105250</v>
       </c>
       <c r="G224" t="inlineStr">
         <is>
@@ -11113,7 +11113,7 @@
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7040302&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7052315&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J224" t="inlineStr">
@@ -13192,7 +13192,7 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Eléctrica 220 kv Encuentro - MH</t>
+          <t>Portal del Inca</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
@@ -13207,11 +13207,11 @@
       </c>
       <c r="E268" t="inlineStr">
         <is>
-          <t>División Ministro Hales de Codelco Chile</t>
+          <t>Inmobiliaria Inca Dos Ltda.</t>
         </is>
       </c>
       <c r="F268" t="n">
-        <v>45000</v>
+        <v>13948</v>
       </c>
       <c r="G268" t="inlineStr">
         <is>
@@ -13220,12 +13220,12 @@
       </c>
       <c r="H268" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I268" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5773970&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5787635&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J268" t="inlineStr">
@@ -13240,7 +13240,7 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>Portal del Inca</t>
+          <t>Línea de Transmisión Eléctrica 220 kv Encuentro - MH</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
@@ -13255,11 +13255,11 @@
       </c>
       <c r="E269" t="inlineStr">
         <is>
-          <t>Inmobiliaria Inca Dos Ltda.</t>
+          <t>División Ministro Hales de Codelco Chile</t>
         </is>
       </c>
       <c r="F269" t="n">
-        <v>13948</v>
+        <v>45000</v>
       </c>
       <c r="G269" t="inlineStr">
         <is>
@@ -13268,12 +13268,12 @@
       </c>
       <c r="H269" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I269" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5787635&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5773970&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J269" t="inlineStr">
@@ -14008,7 +14008,7 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
@@ -14023,11 +14023,11 @@
       </c>
       <c r="E285" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F285" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G285" t="inlineStr">
         <is>
@@ -14036,12 +14036,12 @@
       </c>
       <c r="H285" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I285" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J285" t="inlineStr">
@@ -14056,7 +14056,7 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
@@ -14071,11 +14071,11 @@
       </c>
       <c r="E286" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F286" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G286" t="inlineStr">
         <is>
@@ -14084,12 +14084,12 @@
       </c>
       <c r="H286" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I286" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J286" t="inlineStr">
@@ -19864,7 +19864,7 @@
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Proyecto Explotación Subterránea Mina Santa Rosa (e-seia)</t>
         </is>
       </c>
       <c r="C407" t="inlineStr">
@@ -19874,16 +19874,16 @@
       </c>
       <c r="D407" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E407" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Minera Quimal.S.A.</t>
         </is>
       </c>
       <c r="F407" t="n">
-        <v>1750</v>
+        <v>500</v>
       </c>
       <c r="G407" t="inlineStr">
         <is>
@@ -19892,12 +19892,12 @@
       </c>
       <c r="H407" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I407" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3310659&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J407" t="inlineStr">
@@ -19912,7 +19912,7 @@
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>Proyecto Explotación Subterránea Mina Santa Rosa (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C408" t="inlineStr">
@@ -19922,16 +19922,16 @@
       </c>
       <c r="D408" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E408" t="inlineStr">
         <is>
-          <t>Minera Quimal.S.A.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F408" t="n">
-        <v>500</v>
+        <v>1750</v>
       </c>
       <c r="G408" t="inlineStr">
         <is>
@@ -19940,12 +19940,12 @@
       </c>
       <c r="H408" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I408" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3310659&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J408" t="inlineStr">
@@ -20392,7 +20392,7 @@
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>Tratamiento de Impurezas en Ánodos y Cátodos de División Codelco Norte (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C418" t="inlineStr">
@@ -20402,16 +20402,16 @@
       </c>
       <c r="D418" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E418" t="inlineStr">
         <is>
-          <t>Codelco Chile, División Chuquicamata</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F418" t="n">
-        <v>50000</v>
+        <v>250</v>
       </c>
       <c r="G418" t="inlineStr">
         <is>
@@ -20420,12 +20420,12 @@
       </c>
       <c r="H418" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I418" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3118819&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J418" t="inlineStr">
@@ -20440,7 +20440,7 @@
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>Tratamiento de Impurezas en Ánodos y Cátodos de División Codelco Norte (e-seia)</t>
         </is>
       </c>
       <c r="C419" t="inlineStr">
@@ -20450,16 +20450,16 @@
       </c>
       <c r="D419" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E419" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Codelco Chile, División Chuquicamata</t>
         </is>
       </c>
       <c r="F419" t="n">
-        <v>250</v>
+        <v>50000</v>
       </c>
       <c r="G419" t="inlineStr">
         <is>
@@ -20468,12 +20468,12 @@
       </c>
       <c r="H419" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I419" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3118819&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J419" t="inlineStr">
@@ -20584,7 +20584,7 @@
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>Proyecto Exploración Minera Macarena - Leo (e-seia)</t>
         </is>
       </c>
       <c r="C422" t="inlineStr">
@@ -20594,16 +20594,16 @@
       </c>
       <c r="D422" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E422" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Minera Fuego Limitada</t>
         </is>
       </c>
       <c r="F422" t="n">
-        <v>1650</v>
+        <v>150</v>
       </c>
       <c r="G422" t="inlineStr">
         <is>
@@ -20617,7 +20617,7 @@
       </c>
       <c r="I422" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088992&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J422" t="inlineStr">
@@ -20632,7 +20632,7 @@
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>Proyecto Exploración Minera Macarena - Leo (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C423" t="inlineStr">
@@ -20642,16 +20642,16 @@
       </c>
       <c r="D423" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E423" t="inlineStr">
         <is>
-          <t>Minera Fuego Limitada</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F423" t="n">
-        <v>150</v>
+        <v>1650</v>
       </c>
       <c r="G423" t="inlineStr">
         <is>
@@ -20665,7 +20665,7 @@
       </c>
       <c r="I423" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088992&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J423" t="inlineStr">
@@ -23608,26 +23608,26 @@
       </c>
       <c r="B485" t="inlineStr">
         <is>
-          <t>LIXIVIACIÓN DE SULFUROS SULFOLIX</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C485" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D485" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E485" t="inlineStr">
         <is>
-          <t>SOCIEDAD CONTRACTUAL MINERA EL ABRA</t>
+          <t>Empresa de Residuos RESITER S.A.</t>
         </is>
       </c>
       <c r="F485" t="n">
-        <v>343000</v>
+        <v>1</v>
       </c>
       <c r="G485" t="inlineStr">
         <is>
@@ -23641,7 +23641,7 @@
       </c>
       <c r="I485" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2088630&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J485" t="inlineStr">
@@ -23656,26 +23656,26 @@
       </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
+          <t>LIXIVIACIÓN DE SULFUROS SULFOLIX</t>
         </is>
       </c>
       <c r="C486" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D486" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E486" t="inlineStr">
         <is>
-          <t>Empresa de Residuos RESITER S.A.</t>
+          <t>SOCIEDAD CONTRACTUAL MINERA EL ABRA</t>
         </is>
       </c>
       <c r="F486" t="n">
-        <v>1</v>
+        <v>343000</v>
       </c>
       <c r="G486" t="inlineStr">
         <is>
@@ -23689,7 +23689,7 @@
       </c>
       <c r="I486" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2088630&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J486" t="inlineStr">

--- a/data/Calama.xlsx
+++ b/data/Calama.xlsx
@@ -4024,7 +4024,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Verano de San Juan I</t>
+          <t>MODIFICACIONES AL PROYECTO EXTRACCIÓN Y MOVIMIENTO DE MINERALES MINA RADOMIRO TOMIC</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4039,11 +4039,11 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Sonnedix Victoria Solar SpA</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>15000</v>
+        <v>208848</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
@@ -4052,12 +4052,12 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138522682&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138513102&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4072,7 +4072,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Verano de San Juan II</t>
+          <t>Parque Fotovoltaico Verano de San Juan I</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4087,7 +4087,7 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Sonnedix Paine Energy SpA</t>
+          <t>Sonnedix Victoria Solar SpA</t>
         </is>
       </c>
       <c r="F78" t="n">
@@ -4105,7 +4105,7 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138526892&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138522682&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -4120,7 +4120,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>MODIFICACIONES AL PROYECTO EXTRACCIÓN Y MOVIMIENTO DE MINERALES MINA RADOMIRO TOMIC</t>
+          <t>Parque Fotovoltaico Verano de San Juan II</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4135,11 +4135,11 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Sonnedix Paine Energy SpA</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>208848</v>
+        <v>15000</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
@@ -4148,12 +4148,12 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138513102&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138526892&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -8008,7 +8008,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>AUMENTO CAPACIDAD DE TRATAMIENTO DE EFLUENTES DE FUNDICIÓN</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -8018,16 +8018,16 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>Codelco Chile, División Chuquicamata</t>
         </is>
       </c>
       <c r="F160" t="n">
-        <v>1200</v>
+        <v>67700</v>
       </c>
       <c r="G160" t="inlineStr">
         <is>
@@ -8041,7 +8041,7 @@
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128952737&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
@@ -8056,7 +8056,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Proyecto Fotovoltaico Azabache</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -8066,16 +8066,16 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>Almeyda Solar SpA.</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F161" t="n">
-        <v>140000</v>
+        <v>1200</v>
       </c>
       <c r="G161" t="inlineStr">
         <is>
@@ -8089,7 +8089,7 @@
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128969457&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
@@ -8104,7 +8104,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Proyecto Fotovoltaico Azabache</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -8114,16 +8114,16 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Almeyda Solar SpA.</t>
         </is>
       </c>
       <c r="F162" t="n">
-        <v>0</v>
+        <v>140000</v>
       </c>
       <c r="G162" t="inlineStr">
         <is>
@@ -8137,7 +8137,7 @@
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128969457&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
@@ -8152,7 +8152,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>AUMENTO CAPACIDAD DE TRATAMIENTO DE EFLUENTES DE FUNDICIÓN</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -8162,16 +8162,16 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>Codelco Chile, División Chuquicamata</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F163" t="n">
-        <v>67700</v>
+        <v>0</v>
       </c>
       <c r="G163" t="inlineStr">
         <is>
@@ -8185,7 +8185,7 @@
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128952737&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -8920,7 +8920,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -8935,11 +8935,11 @@
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F179" t="n">
-        <v>12500</v>
+        <v>219</v>
       </c>
       <c r="G179" t="inlineStr">
         <is>
@@ -8948,12 +8948,12 @@
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556590&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
@@ -8968,7 +8968,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
+          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -8987,7 +8987,7 @@
         </is>
       </c>
       <c r="F180" t="n">
-        <v>10000</v>
+        <v>12500</v>
       </c>
       <c r="G180" t="inlineStr">
         <is>
@@ -9001,7 +9001,7 @@
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
@@ -9016,7 +9016,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -9031,11 +9031,11 @@
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F181" t="n">
-        <v>219</v>
+        <v>10000</v>
       </c>
       <c r="G181" t="inlineStr">
         <is>
@@ -9044,12 +9044,12 @@
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556590&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -9544,26 +9544,26 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>RT Sulfuros</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F192" t="n">
-        <v>2050</v>
+        <v>5.4</v>
       </c>
       <c r="G192" t="inlineStr">
         <is>
@@ -9572,12 +9572,12 @@
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
@@ -9592,26 +9592,26 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>RT Sulfuros</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F193" t="n">
-        <v>5.4</v>
+        <v>2050</v>
       </c>
       <c r="G193" t="inlineStr">
         <is>
@@ -9620,12 +9620,12 @@
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
@@ -11032,7 +11032,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Procesamiento de Óxidos DMH</t>
+          <t>Planta Fotovoltaica San Pedro de Atacama IV</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -11047,11 +11047,11 @@
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>División Ministro Hales de Codelco Chile</t>
+          <t>GPG Solar Chile 2017 SpA</t>
         </is>
       </c>
       <c r="F223" t="n">
-        <v>70000</v>
+        <v>105250</v>
       </c>
       <c r="G223" t="inlineStr">
         <is>
@@ -11065,7 +11065,7 @@
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7040302&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7052315&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J223" t="inlineStr">
@@ -11080,7 +11080,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Planta Fotovoltaica San Pedro de Atacama IV</t>
+          <t>Procesamiento de Óxidos DMH</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -11095,11 +11095,11 @@
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>GPG Solar Chile 2017 SpA</t>
+          <t>División Ministro Hales de Codelco Chile</t>
         </is>
       </c>
       <c r="F224" t="n">
-        <v>105250</v>
+        <v>70000</v>
       </c>
       <c r="G224" t="inlineStr">
         <is>
@@ -11113,7 +11113,7 @@
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7052315&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7040302&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J224" t="inlineStr">
@@ -13192,7 +13192,7 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>Portal del Inca</t>
+          <t>Línea de Transmisión Eléctrica 220 kv Encuentro - MH</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
@@ -13207,11 +13207,11 @@
       </c>
       <c r="E268" t="inlineStr">
         <is>
-          <t>Inmobiliaria Inca Dos Ltda.</t>
+          <t>División Ministro Hales de Codelco Chile</t>
         </is>
       </c>
       <c r="F268" t="n">
-        <v>13948</v>
+        <v>45000</v>
       </c>
       <c r="G268" t="inlineStr">
         <is>
@@ -13220,12 +13220,12 @@
       </c>
       <c r="H268" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I268" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5787635&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5773970&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J268" t="inlineStr">
@@ -13240,7 +13240,7 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Eléctrica 220 kv Encuentro - MH</t>
+          <t>Portal del Inca</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
@@ -13255,11 +13255,11 @@
       </c>
       <c r="E269" t="inlineStr">
         <is>
-          <t>División Ministro Hales de Codelco Chile</t>
+          <t>Inmobiliaria Inca Dos Ltda.</t>
         </is>
       </c>
       <c r="F269" t="n">
-        <v>45000</v>
+        <v>13948</v>
       </c>
       <c r="G269" t="inlineStr">
         <is>
@@ -13268,12 +13268,12 @@
       </c>
       <c r="H269" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I269" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5773970&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5787635&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J269" t="inlineStr">
@@ -14008,7 +14008,7 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
@@ -14023,11 +14023,11 @@
       </c>
       <c r="E285" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F285" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G285" t="inlineStr">
         <is>
@@ -14036,12 +14036,12 @@
       </c>
       <c r="H285" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I285" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J285" t="inlineStr">
@@ -14056,7 +14056,7 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
@@ -14071,11 +14071,11 @@
       </c>
       <c r="E286" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F286" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G286" t="inlineStr">
         <is>
@@ -14084,12 +14084,12 @@
       </c>
       <c r="H286" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I286" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J286" t="inlineStr">
@@ -19864,7 +19864,7 @@
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>Proyecto Explotación Subterránea Mina Santa Rosa (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C407" t="inlineStr">
@@ -19874,16 +19874,16 @@
       </c>
       <c r="D407" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E407" t="inlineStr">
         <is>
-          <t>Minera Quimal.S.A.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F407" t="n">
-        <v>500</v>
+        <v>1750</v>
       </c>
       <c r="G407" t="inlineStr">
         <is>
@@ -19892,12 +19892,12 @@
       </c>
       <c r="H407" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I407" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3310659&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J407" t="inlineStr">
@@ -19912,7 +19912,7 @@
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Proyecto Explotación Subterránea Mina Santa Rosa (e-seia)</t>
         </is>
       </c>
       <c r="C408" t="inlineStr">
@@ -19922,16 +19922,16 @@
       </c>
       <c r="D408" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E408" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Minera Quimal.S.A.</t>
         </is>
       </c>
       <c r="F408" t="n">
-        <v>1750</v>
+        <v>500</v>
       </c>
       <c r="G408" t="inlineStr">
         <is>
@@ -19940,12 +19940,12 @@
       </c>
       <c r="H408" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I408" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3310659&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J408" t="inlineStr">
@@ -20392,7 +20392,7 @@
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>Tratamiento de Impurezas en Ánodos y Cátodos de División Codelco Norte (e-seia)</t>
         </is>
       </c>
       <c r="C418" t="inlineStr">
@@ -20402,16 +20402,16 @@
       </c>
       <c r="D418" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E418" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Codelco Chile, División Chuquicamata</t>
         </is>
       </c>
       <c r="F418" t="n">
-        <v>250</v>
+        <v>50000</v>
       </c>
       <c r="G418" t="inlineStr">
         <is>
@@ -20420,12 +20420,12 @@
       </c>
       <c r="H418" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I418" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3118819&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J418" t="inlineStr">
@@ -20440,7 +20440,7 @@
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>Tratamiento de Impurezas en Ánodos y Cátodos de División Codelco Norte (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C419" t="inlineStr">
@@ -20450,16 +20450,16 @@
       </c>
       <c r="D419" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E419" t="inlineStr">
         <is>
-          <t>Codelco Chile, División Chuquicamata</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F419" t="n">
-        <v>50000</v>
+        <v>250</v>
       </c>
       <c r="G419" t="inlineStr">
         <is>
@@ -20468,12 +20468,12 @@
       </c>
       <c r="H419" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I419" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3118819&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J419" t="inlineStr">
@@ -20584,7 +20584,7 @@
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>Proyecto Exploración Minera Macarena - Leo (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C422" t="inlineStr">
@@ -20594,16 +20594,16 @@
       </c>
       <c r="D422" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E422" t="inlineStr">
         <is>
-          <t>Minera Fuego Limitada</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F422" t="n">
-        <v>150</v>
+        <v>1650</v>
       </c>
       <c r="G422" t="inlineStr">
         <is>
@@ -20617,7 +20617,7 @@
       </c>
       <c r="I422" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088992&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J422" t="inlineStr">
@@ -20632,7 +20632,7 @@
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>Proyecto Exploración Minera Macarena - Leo (e-seia)</t>
         </is>
       </c>
       <c r="C423" t="inlineStr">
@@ -20642,16 +20642,16 @@
       </c>
       <c r="D423" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E423" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Minera Fuego Limitada</t>
         </is>
       </c>
       <c r="F423" t="n">
-        <v>1650</v>
+        <v>150</v>
       </c>
       <c r="G423" t="inlineStr">
         <is>
@@ -20665,7 +20665,7 @@
       </c>
       <c r="I423" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088992&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J423" t="inlineStr">
@@ -23608,26 +23608,26 @@
       </c>
       <c r="B485" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
+          <t>LIXIVIACIÓN DE SULFUROS SULFOLIX</t>
         </is>
       </c>
       <c r="C485" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D485" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E485" t="inlineStr">
         <is>
-          <t>Empresa de Residuos RESITER S.A.</t>
+          <t>SOCIEDAD CONTRACTUAL MINERA EL ABRA</t>
         </is>
       </c>
       <c r="F485" t="n">
-        <v>1</v>
+        <v>343000</v>
       </c>
       <c r="G485" t="inlineStr">
         <is>
@@ -23641,7 +23641,7 @@
       </c>
       <c r="I485" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2088630&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J485" t="inlineStr">
@@ -23656,26 +23656,26 @@
       </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t>LIXIVIACIÓN DE SULFUROS SULFOLIX</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C486" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D486" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E486" t="inlineStr">
         <is>
-          <t>SOCIEDAD CONTRACTUAL MINERA EL ABRA</t>
+          <t>Empresa de Residuos RESITER S.A.</t>
         </is>
       </c>
       <c r="F486" t="n">
-        <v>343000</v>
+        <v>1</v>
       </c>
       <c r="G486" t="inlineStr">
         <is>
@@ -23689,7 +23689,7 @@
       </c>
       <c r="I486" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2088630&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J486" t="inlineStr">

--- a/data/Calama.xlsx
+++ b/data/Calama.xlsx
@@ -4072,7 +4072,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>MODIFICACIONES AL PROYECTO EXTRACCIÓN Y MOVIMIENTO DE MINERALES MINA RADOMIRO TOMIC</t>
+          <t>Parque Fotovoltaico Verano de San Juan I</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4087,11 +4087,11 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Sonnedix Victoria Solar SpA</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>208848</v>
+        <v>15000</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
@@ -4100,12 +4100,12 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138513102&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138522682&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -4120,7 +4120,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Verano de San Juan I</t>
+          <t>Parque Fotovoltaico Verano de San Juan II</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4135,7 +4135,7 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Sonnedix Victoria Solar SpA</t>
+          <t>Sonnedix Paine Energy SpA</t>
         </is>
       </c>
       <c r="F79" t="n">
@@ -4153,7 +4153,7 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138522682&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138526892&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -4168,7 +4168,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Verano de San Juan II</t>
+          <t>MODIFICACIONES AL PROYECTO EXTRACCIÓN Y MOVIMIENTO DE MINERALES MINA RADOMIRO TOMIC</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4183,11 +4183,11 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Sonnedix Paine Energy SpA</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>15000</v>
+        <v>208848</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
@@ -4196,12 +4196,12 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138526892&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138513102&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -8056,7 +8056,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>AUMENTO CAPACIDAD DE TRATAMIENTO DE EFLUENTES DE FUNDICIÓN</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -8066,16 +8066,16 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>Codelco Chile, División Chuquicamata</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F161" t="n">
-        <v>67700</v>
+        <v>1200</v>
       </c>
       <c r="G161" t="inlineStr">
         <is>
@@ -8089,7 +8089,7 @@
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128952737&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
@@ -8104,7 +8104,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Proyecto Fotovoltaico Azabache</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -8114,16 +8114,16 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>Enel Green Power Chile S.A.</t>
         </is>
       </c>
       <c r="F162" t="n">
-        <v>1200</v>
+        <v>140000</v>
       </c>
       <c r="G162" t="inlineStr">
         <is>
@@ -8137,7 +8137,7 @@
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128969457&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
@@ -8152,7 +8152,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Proyecto Fotovoltaico Azabache</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -8162,16 +8162,16 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>Enel Green Power Chile S.A.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F163" t="n">
-        <v>140000</v>
+        <v>0</v>
       </c>
       <c r="G163" t="inlineStr">
         <is>
@@ -8185,7 +8185,7 @@
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128969457&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -8200,7 +8200,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>AUMENTO CAPACIDAD DE TRATAMIENTO DE EFLUENTES DE FUNDICIÓN</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -8210,16 +8210,16 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Codelco Chile, División Chuquicamata</t>
         </is>
       </c>
       <c r="F164" t="n">
-        <v>0</v>
+        <v>67700</v>
       </c>
       <c r="G164" t="inlineStr">
         <is>
@@ -8233,7 +8233,7 @@
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128952737&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
@@ -8968,7 +8968,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -8983,11 +8983,11 @@
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F180" t="n">
-        <v>219</v>
+        <v>12500</v>
       </c>
       <c r="G180" t="inlineStr">
         <is>
@@ -8996,12 +8996,12 @@
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556590&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
@@ -9016,7 +9016,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -9035,7 +9035,7 @@
         </is>
       </c>
       <c r="F181" t="n">
-        <v>12500</v>
+        <v>10000</v>
       </c>
       <c r="G181" t="inlineStr">
         <is>
@@ -9049,7 +9049,7 @@
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -9064,7 +9064,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -9079,11 +9079,11 @@
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F182" t="n">
-        <v>10000</v>
+        <v>219</v>
       </c>
       <c r="G182" t="inlineStr">
         <is>
@@ -9092,12 +9092,12 @@
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556590&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -9592,26 +9592,26 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>RT Sulfuros</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F193" t="n">
-        <v>5.4</v>
+        <v>2050</v>
       </c>
       <c r="G193" t="inlineStr">
         <is>
@@ -9620,12 +9620,12 @@
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
@@ -9640,26 +9640,26 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>RT Sulfuros</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F194" t="n">
-        <v>2050</v>
+        <v>5.4</v>
       </c>
       <c r="G194" t="inlineStr">
         <is>
@@ -9668,12 +9668,12 @@
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J194" t="inlineStr">
@@ -11080,7 +11080,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Planta Fotovoltaica San Pedro de Atacama IV</t>
+          <t>Procesamiento de Óxidos DMH</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -11095,11 +11095,11 @@
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>GPG Solar Chile 2017 SpA</t>
+          <t>División Ministro Hales de Codelco Chile</t>
         </is>
       </c>
       <c r="F224" t="n">
-        <v>105250</v>
+        <v>70000</v>
       </c>
       <c r="G224" t="inlineStr">
         <is>
@@ -11113,7 +11113,7 @@
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7052315&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7040302&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J224" t="inlineStr">
@@ -11128,7 +11128,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>Procesamiento de Óxidos DMH</t>
+          <t>Planta Fotovoltaica San Pedro de Atacama IV</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -11143,11 +11143,11 @@
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>División Ministro Hales de Codelco Chile</t>
+          <t>GPG Solar Chile 2017 SpA</t>
         </is>
       </c>
       <c r="F225" t="n">
-        <v>70000</v>
+        <v>105250</v>
       </c>
       <c r="G225" t="inlineStr">
         <is>
@@ -11161,7 +11161,7 @@
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7040302&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7052315&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J225" t="inlineStr">
@@ -13240,7 +13240,7 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Eléctrica 220 kv Encuentro - MH</t>
+          <t>Portal del Inca</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
@@ -13255,11 +13255,11 @@
       </c>
       <c r="E269" t="inlineStr">
         <is>
-          <t>División Ministro Hales de Codelco Chile</t>
+          <t>Inmobiliaria Inca Dos Ltda.</t>
         </is>
       </c>
       <c r="F269" t="n">
-        <v>45000</v>
+        <v>13948</v>
       </c>
       <c r="G269" t="inlineStr">
         <is>
@@ -13268,12 +13268,12 @@
       </c>
       <c r="H269" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I269" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5773970&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5787635&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J269" t="inlineStr">
@@ -13288,7 +13288,7 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>Portal del Inca</t>
+          <t>Línea de Transmisión Eléctrica 220 kv Encuentro - MH</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
@@ -13303,11 +13303,11 @@
       </c>
       <c r="E270" t="inlineStr">
         <is>
-          <t>Inmobiliaria Inca Dos Ltda.</t>
+          <t>División Ministro Hales de Codelco Chile</t>
         </is>
       </c>
       <c r="F270" t="n">
-        <v>13948</v>
+        <v>45000</v>
       </c>
       <c r="G270" t="inlineStr">
         <is>
@@ -13316,12 +13316,12 @@
       </c>
       <c r="H270" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I270" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5787635&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5773970&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J270" t="inlineStr">
@@ -14056,7 +14056,7 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
@@ -14071,11 +14071,11 @@
       </c>
       <c r="E286" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F286" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G286" t="inlineStr">
         <is>
@@ -14084,12 +14084,12 @@
       </c>
       <c r="H286" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I286" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J286" t="inlineStr">
@@ -14104,7 +14104,7 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
@@ -14119,11 +14119,11 @@
       </c>
       <c r="E287" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F287" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G287" t="inlineStr">
         <is>
@@ -14132,12 +14132,12 @@
       </c>
       <c r="H287" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I287" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J287" t="inlineStr">
@@ -19912,7 +19912,7 @@
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Proyecto Explotación Subterránea Mina Santa Rosa (e-seia)</t>
         </is>
       </c>
       <c r="C408" t="inlineStr">
@@ -19922,16 +19922,16 @@
       </c>
       <c r="D408" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E408" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Minera Quimal.S.A.</t>
         </is>
       </c>
       <c r="F408" t="n">
-        <v>1750</v>
+        <v>500</v>
       </c>
       <c r="G408" t="inlineStr">
         <is>
@@ -19940,12 +19940,12 @@
       </c>
       <c r="H408" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I408" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3310659&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J408" t="inlineStr">
@@ -19960,7 +19960,7 @@
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>Proyecto Explotación Subterránea Mina Santa Rosa (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C409" t="inlineStr">
@@ -19970,16 +19970,16 @@
       </c>
       <c r="D409" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E409" t="inlineStr">
         <is>
-          <t>Minera Quimal.S.A.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F409" t="n">
-        <v>500</v>
+        <v>1750</v>
       </c>
       <c r="G409" t="inlineStr">
         <is>
@@ -19988,12 +19988,12 @@
       </c>
       <c r="H409" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I409" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3310659&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J409" t="inlineStr">
@@ -20440,7 +20440,7 @@
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>Tratamiento de Impurezas en Ánodos y Cátodos de División Codelco Norte (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C419" t="inlineStr">
@@ -20450,16 +20450,16 @@
       </c>
       <c r="D419" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E419" t="inlineStr">
         <is>
-          <t>Codelco Chile, División Chuquicamata</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F419" t="n">
-        <v>50000</v>
+        <v>250</v>
       </c>
       <c r="G419" t="inlineStr">
         <is>
@@ -20468,12 +20468,12 @@
       </c>
       <c r="H419" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I419" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3118819&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J419" t="inlineStr">
@@ -20488,7 +20488,7 @@
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>Tratamiento de Impurezas en Ánodos y Cátodos de División Codelco Norte (e-seia)</t>
         </is>
       </c>
       <c r="C420" t="inlineStr">
@@ -20498,16 +20498,16 @@
       </c>
       <c r="D420" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E420" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Codelco Chile, División Chuquicamata</t>
         </is>
       </c>
       <c r="F420" t="n">
-        <v>250</v>
+        <v>50000</v>
       </c>
       <c r="G420" t="inlineStr">
         <is>
@@ -20516,12 +20516,12 @@
       </c>
       <c r="H420" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I420" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3118819&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J420" t="inlineStr">
@@ -20632,7 +20632,7 @@
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>Proyecto Exploración Minera Macarena - Leo (e-seia)</t>
         </is>
       </c>
       <c r="C423" t="inlineStr">
@@ -20642,16 +20642,16 @@
       </c>
       <c r="D423" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E423" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Minera Fuego Limitada</t>
         </is>
       </c>
       <c r="F423" t="n">
-        <v>1650</v>
+        <v>150</v>
       </c>
       <c r="G423" t="inlineStr">
         <is>
@@ -20665,7 +20665,7 @@
       </c>
       <c r="I423" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088992&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J423" t="inlineStr">
@@ -20680,7 +20680,7 @@
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>Proyecto Exploración Minera Macarena - Leo (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C424" t="inlineStr">
@@ -20690,16 +20690,16 @@
       </c>
       <c r="D424" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E424" t="inlineStr">
         <is>
-          <t>Minera Fuego Limitada</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F424" t="n">
-        <v>150</v>
+        <v>1650</v>
       </c>
       <c r="G424" t="inlineStr">
         <is>
@@ -20713,7 +20713,7 @@
       </c>
       <c r="I424" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088992&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J424" t="inlineStr">
@@ -23656,26 +23656,26 @@
       </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t>LIXIVIACIÓN DE SULFUROS SULFOLIX</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C486" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D486" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E486" t="inlineStr">
         <is>
-          <t>SOCIEDAD CONTRACTUAL MINERA EL ABRA</t>
+          <t>Empresa de Residuos RESITER S.A.</t>
         </is>
       </c>
       <c r="F486" t="n">
-        <v>343000</v>
+        <v>1</v>
       </c>
       <c r="G486" t="inlineStr">
         <is>
@@ -23689,7 +23689,7 @@
       </c>
       <c r="I486" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2088630&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J486" t="inlineStr">
@@ -23704,26 +23704,26 @@
       </c>
       <c r="B487" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
+          <t>LIXIVIACIÓN DE SULFUROS SULFOLIX</t>
         </is>
       </c>
       <c r="C487" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D487" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E487" t="inlineStr">
         <is>
-          <t>Empresa de Residuos RESITER S.A.</t>
+          <t>SOCIEDAD CONTRACTUAL MINERA EL ABRA</t>
         </is>
       </c>
       <c r="F487" t="n">
-        <v>1</v>
+        <v>343000</v>
       </c>
       <c r="G487" t="inlineStr">
         <is>
@@ -23737,7 +23737,7 @@
       </c>
       <c r="I487" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2088630&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J487" t="inlineStr">

--- a/data/Calama.xlsx
+++ b/data/Calama.xlsx
@@ -4072,7 +4072,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Verano de San Juan I</t>
+          <t>MODIFICACIONES AL PROYECTO EXTRACCIÓN Y MOVIMIENTO DE MINERALES MINA RADOMIRO TOMIC</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4087,11 +4087,11 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Sonnedix Victoria Solar SpA</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>15000</v>
+        <v>208848</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
@@ -4100,12 +4100,12 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138522682&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138513102&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -4120,7 +4120,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Verano de San Juan II</t>
+          <t>Parque Fotovoltaico Verano de San Juan I</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4135,7 +4135,7 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Sonnedix Paine Energy SpA</t>
+          <t>Sonnedix Victoria Solar SpA</t>
         </is>
       </c>
       <c r="F79" t="n">
@@ -4153,7 +4153,7 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138526892&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138522682&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -4168,7 +4168,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>MODIFICACIONES AL PROYECTO EXTRACCIÓN Y MOVIMIENTO DE MINERALES MINA RADOMIRO TOMIC</t>
+          <t>Parque Fotovoltaico Verano de San Juan II</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4183,11 +4183,11 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Sonnedix Paine Energy SpA</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>208848</v>
+        <v>15000</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
@@ -4196,12 +4196,12 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138513102&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138526892&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -8056,7 +8056,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>AUMENTO CAPACIDAD DE TRATAMIENTO DE EFLUENTES DE FUNDICIÓN</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -8066,16 +8066,16 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>Codelco Chile, División Chuquicamata</t>
         </is>
       </c>
       <c r="F161" t="n">
-        <v>1200</v>
+        <v>67700</v>
       </c>
       <c r="G161" t="inlineStr">
         <is>
@@ -8089,7 +8089,7 @@
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128952737&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
@@ -8104,7 +8104,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Proyecto Fotovoltaico Azabache</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -8114,16 +8114,16 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>Enel Green Power Chile S.A.</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F162" t="n">
-        <v>140000</v>
+        <v>1200</v>
       </c>
       <c r="G162" t="inlineStr">
         <is>
@@ -8137,7 +8137,7 @@
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128969457&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
@@ -8152,7 +8152,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Proyecto Fotovoltaico Azabache</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -8162,16 +8162,16 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Enel Green Power Chile S.A.</t>
         </is>
       </c>
       <c r="F163" t="n">
-        <v>0</v>
+        <v>140000</v>
       </c>
       <c r="G163" t="inlineStr">
         <is>
@@ -8185,7 +8185,7 @@
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128969457&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -8200,7 +8200,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>AUMENTO CAPACIDAD DE TRATAMIENTO DE EFLUENTES DE FUNDICIÓN</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -8210,16 +8210,16 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>Codelco Chile, División Chuquicamata</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F164" t="n">
-        <v>67700</v>
+        <v>0</v>
       </c>
       <c r="G164" t="inlineStr">
         <is>
@@ -8233,7 +8233,7 @@
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128952737&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
@@ -8968,7 +8968,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -8983,11 +8983,11 @@
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F180" t="n">
-        <v>12500</v>
+        <v>219</v>
       </c>
       <c r="G180" t="inlineStr">
         <is>
@@ -8996,12 +8996,12 @@
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556590&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
@@ -9016,7 +9016,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
+          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -9035,7 +9035,7 @@
         </is>
       </c>
       <c r="F181" t="n">
-        <v>10000</v>
+        <v>12500</v>
       </c>
       <c r="G181" t="inlineStr">
         <is>
@@ -9049,7 +9049,7 @@
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -9064,7 +9064,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -9079,11 +9079,11 @@
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F182" t="n">
-        <v>219</v>
+        <v>10000</v>
       </c>
       <c r="G182" t="inlineStr">
         <is>
@@ -9092,12 +9092,12 @@
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556590&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -9592,26 +9592,26 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>RT Sulfuros</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F193" t="n">
-        <v>2050</v>
+        <v>5.4</v>
       </c>
       <c r="G193" t="inlineStr">
         <is>
@@ -9620,12 +9620,12 @@
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
@@ -9640,26 +9640,26 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>RT Sulfuros</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F194" t="n">
-        <v>5.4</v>
+        <v>2050</v>
       </c>
       <c r="G194" t="inlineStr">
         <is>
@@ -9668,12 +9668,12 @@
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J194" t="inlineStr">
@@ -11080,7 +11080,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Procesamiento de Óxidos DMH</t>
+          <t>Planta Fotovoltaica San Pedro de Atacama IV</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -11095,11 +11095,11 @@
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>División Ministro Hales de Codelco Chile</t>
+          <t>GPG Solar Chile 2017 SpA</t>
         </is>
       </c>
       <c r="F224" t="n">
-        <v>70000</v>
+        <v>105250</v>
       </c>
       <c r="G224" t="inlineStr">
         <is>
@@ -11113,7 +11113,7 @@
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7040302&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7052315&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J224" t="inlineStr">
@@ -11128,7 +11128,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>Planta Fotovoltaica San Pedro de Atacama IV</t>
+          <t>Procesamiento de Óxidos DMH</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -11143,11 +11143,11 @@
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>GPG Solar Chile 2017 SpA</t>
+          <t>División Ministro Hales de Codelco Chile</t>
         </is>
       </c>
       <c r="F225" t="n">
-        <v>105250</v>
+        <v>70000</v>
       </c>
       <c r="G225" t="inlineStr">
         <is>
@@ -11161,7 +11161,7 @@
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7052315&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7040302&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J225" t="inlineStr">
@@ -13240,7 +13240,7 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>Portal del Inca</t>
+          <t>Línea de Transmisión Eléctrica 220 kv Encuentro - MH</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
@@ -13255,11 +13255,11 @@
       </c>
       <c r="E269" t="inlineStr">
         <is>
-          <t>Inmobiliaria Inca Dos Ltda.</t>
+          <t>División Ministro Hales de Codelco Chile</t>
         </is>
       </c>
       <c r="F269" t="n">
-        <v>13948</v>
+        <v>45000</v>
       </c>
       <c r="G269" t="inlineStr">
         <is>
@@ -13268,12 +13268,12 @@
       </c>
       <c r="H269" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I269" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5787635&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5773970&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J269" t="inlineStr">
@@ -13288,7 +13288,7 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Eléctrica 220 kv Encuentro - MH</t>
+          <t>Portal del Inca</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
@@ -13303,11 +13303,11 @@
       </c>
       <c r="E270" t="inlineStr">
         <is>
-          <t>División Ministro Hales de Codelco Chile</t>
+          <t>Inmobiliaria Inca Dos Ltda.</t>
         </is>
       </c>
       <c r="F270" t="n">
-        <v>45000</v>
+        <v>13948</v>
       </c>
       <c r="G270" t="inlineStr">
         <is>
@@ -13316,12 +13316,12 @@
       </c>
       <c r="H270" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I270" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5773970&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5787635&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J270" t="inlineStr">
@@ -14056,7 +14056,7 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
@@ -14071,11 +14071,11 @@
       </c>
       <c r="E286" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F286" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G286" t="inlineStr">
         <is>
@@ -14084,12 +14084,12 @@
       </c>
       <c r="H286" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I286" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J286" t="inlineStr">
@@ -14104,7 +14104,7 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
@@ -14119,11 +14119,11 @@
       </c>
       <c r="E287" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F287" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G287" t="inlineStr">
         <is>
@@ -14132,12 +14132,12 @@
       </c>
       <c r="H287" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I287" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J287" t="inlineStr">
@@ -19912,7 +19912,7 @@
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>Proyecto Explotación Subterránea Mina Santa Rosa (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C408" t="inlineStr">
@@ -19922,16 +19922,16 @@
       </c>
       <c r="D408" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E408" t="inlineStr">
         <is>
-          <t>Minera Quimal.S.A.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F408" t="n">
-        <v>500</v>
+        <v>1750</v>
       </c>
       <c r="G408" t="inlineStr">
         <is>
@@ -19940,12 +19940,12 @@
       </c>
       <c r="H408" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I408" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3310659&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J408" t="inlineStr">
@@ -19960,7 +19960,7 @@
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Proyecto Explotación Subterránea Mina Santa Rosa (e-seia)</t>
         </is>
       </c>
       <c r="C409" t="inlineStr">
@@ -19970,16 +19970,16 @@
       </c>
       <c r="D409" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E409" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Minera Quimal.S.A.</t>
         </is>
       </c>
       <c r="F409" t="n">
-        <v>1750</v>
+        <v>500</v>
       </c>
       <c r="G409" t="inlineStr">
         <is>
@@ -19988,12 +19988,12 @@
       </c>
       <c r="H409" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I409" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3310659&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J409" t="inlineStr">
@@ -20440,7 +20440,7 @@
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>Tratamiento de Impurezas en Ánodos y Cátodos de División Codelco Norte (e-seia)</t>
         </is>
       </c>
       <c r="C419" t="inlineStr">
@@ -20450,16 +20450,16 @@
       </c>
       <c r="D419" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E419" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Codelco Chile, División Chuquicamata</t>
         </is>
       </c>
       <c r="F419" t="n">
-        <v>250</v>
+        <v>50000</v>
       </c>
       <c r="G419" t="inlineStr">
         <is>
@@ -20468,12 +20468,12 @@
       </c>
       <c r="H419" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I419" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3118819&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J419" t="inlineStr">
@@ -20488,7 +20488,7 @@
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>Tratamiento de Impurezas en Ánodos y Cátodos de División Codelco Norte (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C420" t="inlineStr">
@@ -20498,16 +20498,16 @@
       </c>
       <c r="D420" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E420" t="inlineStr">
         <is>
-          <t>Codelco Chile, División Chuquicamata</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F420" t="n">
-        <v>50000</v>
+        <v>250</v>
       </c>
       <c r="G420" t="inlineStr">
         <is>
@@ -20516,12 +20516,12 @@
       </c>
       <c r="H420" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I420" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3118819&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J420" t="inlineStr">
@@ -20632,7 +20632,7 @@
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>Proyecto Exploración Minera Macarena - Leo (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C423" t="inlineStr">
@@ -20642,16 +20642,16 @@
       </c>
       <c r="D423" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E423" t="inlineStr">
         <is>
-          <t>Minera Fuego Limitada</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F423" t="n">
-        <v>150</v>
+        <v>1650</v>
       </c>
       <c r="G423" t="inlineStr">
         <is>
@@ -20665,7 +20665,7 @@
       </c>
       <c r="I423" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088992&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J423" t="inlineStr">
@@ -20680,7 +20680,7 @@
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>Proyecto Exploración Minera Macarena - Leo (e-seia)</t>
         </is>
       </c>
       <c r="C424" t="inlineStr">
@@ -20690,16 +20690,16 @@
       </c>
       <c r="D424" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E424" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Minera Fuego Limitada</t>
         </is>
       </c>
       <c r="F424" t="n">
-        <v>1650</v>
+        <v>150</v>
       </c>
       <c r="G424" t="inlineStr">
         <is>
@@ -20713,7 +20713,7 @@
       </c>
       <c r="I424" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088992&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J424" t="inlineStr">
@@ -23656,26 +23656,26 @@
       </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
+          <t>LIXIVIACIÓN DE SULFUROS SULFOLIX</t>
         </is>
       </c>
       <c r="C486" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D486" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E486" t="inlineStr">
         <is>
-          <t>Empresa de Residuos RESITER S.A.</t>
+          <t>SOCIEDAD CONTRACTUAL MINERA EL ABRA</t>
         </is>
       </c>
       <c r="F486" t="n">
-        <v>1</v>
+        <v>343000</v>
       </c>
       <c r="G486" t="inlineStr">
         <is>
@@ -23689,7 +23689,7 @@
       </c>
       <c r="I486" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2088630&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J486" t="inlineStr">
@@ -23704,26 +23704,26 @@
       </c>
       <c r="B487" t="inlineStr">
         <is>
-          <t>LIXIVIACIÓN DE SULFUROS SULFOLIX</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C487" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D487" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E487" t="inlineStr">
         <is>
-          <t>SOCIEDAD CONTRACTUAL MINERA EL ABRA</t>
+          <t>Empresa de Residuos RESITER S.A.</t>
         </is>
       </c>
       <c r="F487" t="n">
-        <v>343000</v>
+        <v>1</v>
       </c>
       <c r="G487" t="inlineStr">
         <is>
@@ -23737,7 +23737,7 @@
       </c>
       <c r="I487" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2088630&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J487" t="inlineStr">

--- a/data/Calama.xlsx
+++ b/data/Calama.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>01/08/2023</t>
+          <t>08/08/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Calama.xlsx
+++ b/data/Calama.xlsx
@@ -4072,7 +4072,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>MODIFICACIONES AL PROYECTO EXTRACCIÓN Y MOVIMIENTO DE MINERALES MINA RADOMIRO TOMIC</t>
+          <t>Parque Fotovoltaico Verano de San Juan I</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4087,11 +4087,11 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Sonnedix Victoria Solar SpA</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>208848</v>
+        <v>15000</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
@@ -4100,12 +4100,12 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138513102&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138522682&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -4120,7 +4120,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Verano de San Juan I</t>
+          <t>Parque Fotovoltaico Verano de San Juan II</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4135,7 +4135,7 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Sonnedix Victoria Solar SpA</t>
+          <t>Sonnedix Paine Energy SpA</t>
         </is>
       </c>
       <c r="F79" t="n">
@@ -4153,7 +4153,7 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138522682&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138526892&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -4168,7 +4168,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Verano de San Juan II</t>
+          <t>MODIFICACIONES AL PROYECTO EXTRACCIÓN Y MOVIMIENTO DE MINERALES MINA RADOMIRO TOMIC</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4183,11 +4183,11 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Sonnedix Paine Energy SpA</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>15000</v>
+        <v>208848</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
@@ -4196,12 +4196,12 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138526892&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138513102&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -8056,7 +8056,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>AUMENTO CAPACIDAD DE TRATAMIENTO DE EFLUENTES DE FUNDICIÓN</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -8066,16 +8066,16 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>Codelco Chile, División Chuquicamata</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F161" t="n">
-        <v>67700</v>
+        <v>1200</v>
       </c>
       <c r="G161" t="inlineStr">
         <is>
@@ -8089,7 +8089,7 @@
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128952737&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
@@ -8104,7 +8104,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Proyecto Fotovoltaico Azabache</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -8114,16 +8114,16 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>Enel Green Power Chile S.A.</t>
         </is>
       </c>
       <c r="F162" t="n">
-        <v>1200</v>
+        <v>140000</v>
       </c>
       <c r="G162" t="inlineStr">
         <is>
@@ -8137,7 +8137,7 @@
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128969457&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
@@ -8152,7 +8152,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Proyecto Fotovoltaico Azabache</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -8162,16 +8162,16 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>Enel Green Power Chile S.A.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F163" t="n">
-        <v>140000</v>
+        <v>0</v>
       </c>
       <c r="G163" t="inlineStr">
         <is>
@@ -8185,7 +8185,7 @@
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128969457&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -8200,7 +8200,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>AUMENTO CAPACIDAD DE TRATAMIENTO DE EFLUENTES DE FUNDICIÓN</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -8210,16 +8210,16 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Codelco Chile, División Chuquicamata</t>
         </is>
       </c>
       <c r="F164" t="n">
-        <v>0</v>
+        <v>67700</v>
       </c>
       <c r="G164" t="inlineStr">
         <is>
@@ -8233,7 +8233,7 @@
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128952737&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
@@ -8968,7 +8968,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -8983,11 +8983,11 @@
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F180" t="n">
-        <v>219</v>
+        <v>12500</v>
       </c>
       <c r="G180" t="inlineStr">
         <is>
@@ -8996,12 +8996,12 @@
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556590&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
@@ -9016,7 +9016,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -9035,7 +9035,7 @@
         </is>
       </c>
       <c r="F181" t="n">
-        <v>12500</v>
+        <v>10000</v>
       </c>
       <c r="G181" t="inlineStr">
         <is>
@@ -9049,7 +9049,7 @@
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -9064,7 +9064,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -9079,11 +9079,11 @@
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F182" t="n">
-        <v>10000</v>
+        <v>219</v>
       </c>
       <c r="G182" t="inlineStr">
         <is>
@@ -9092,12 +9092,12 @@
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556590&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -9592,26 +9592,26 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>RT Sulfuros</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F193" t="n">
-        <v>5.4</v>
+        <v>2050</v>
       </c>
       <c r="G193" t="inlineStr">
         <is>
@@ -9620,12 +9620,12 @@
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
@@ -9640,26 +9640,26 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>RT Sulfuros</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F194" t="n">
-        <v>2050</v>
+        <v>5.4</v>
       </c>
       <c r="G194" t="inlineStr">
         <is>
@@ -9668,12 +9668,12 @@
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J194" t="inlineStr">
@@ -11080,7 +11080,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Planta Fotovoltaica San Pedro de Atacama IV</t>
+          <t>Procesamiento de Óxidos DMH</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -11095,11 +11095,11 @@
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>GPG Solar Chile 2017 SpA</t>
+          <t>División Ministro Hales de Codelco Chile</t>
         </is>
       </c>
       <c r="F224" t="n">
-        <v>105250</v>
+        <v>70000</v>
       </c>
       <c r="G224" t="inlineStr">
         <is>
@@ -11113,7 +11113,7 @@
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7052315&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7040302&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J224" t="inlineStr">
@@ -11128,7 +11128,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>Procesamiento de Óxidos DMH</t>
+          <t>Planta Fotovoltaica San Pedro de Atacama IV</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -11143,11 +11143,11 @@
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>División Ministro Hales de Codelco Chile</t>
+          <t>GPG Solar Chile 2017 SpA</t>
         </is>
       </c>
       <c r="F225" t="n">
-        <v>70000</v>
+        <v>105250</v>
       </c>
       <c r="G225" t="inlineStr">
         <is>
@@ -11161,7 +11161,7 @@
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7040302&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7052315&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J225" t="inlineStr">
@@ -13240,7 +13240,7 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Eléctrica 220 kv Encuentro - MH</t>
+          <t>Portal del Inca</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
@@ -13255,11 +13255,11 @@
       </c>
       <c r="E269" t="inlineStr">
         <is>
-          <t>División Ministro Hales de Codelco Chile</t>
+          <t>Inmobiliaria Inca Dos Ltda.</t>
         </is>
       </c>
       <c r="F269" t="n">
-        <v>45000</v>
+        <v>13948</v>
       </c>
       <c r="G269" t="inlineStr">
         <is>
@@ -13268,12 +13268,12 @@
       </c>
       <c r="H269" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I269" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5773970&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5787635&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J269" t="inlineStr">
@@ -13288,7 +13288,7 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>Portal del Inca</t>
+          <t>Línea de Transmisión Eléctrica 220 kv Encuentro - MH</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
@@ -13303,11 +13303,11 @@
       </c>
       <c r="E270" t="inlineStr">
         <is>
-          <t>Inmobiliaria Inca Dos Ltda.</t>
+          <t>División Ministro Hales de Codelco Chile</t>
         </is>
       </c>
       <c r="F270" t="n">
-        <v>13948</v>
+        <v>45000</v>
       </c>
       <c r="G270" t="inlineStr">
         <is>
@@ -13316,12 +13316,12 @@
       </c>
       <c r="H270" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I270" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5787635&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5773970&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J270" t="inlineStr">
@@ -14056,7 +14056,7 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
@@ -14071,11 +14071,11 @@
       </c>
       <c r="E286" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F286" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G286" t="inlineStr">
         <is>
@@ -14084,12 +14084,12 @@
       </c>
       <c r="H286" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I286" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J286" t="inlineStr">
@@ -14104,7 +14104,7 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
@@ -14119,11 +14119,11 @@
       </c>
       <c r="E287" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F287" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G287" t="inlineStr">
         <is>
@@ -14132,12 +14132,12 @@
       </c>
       <c r="H287" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I287" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J287" t="inlineStr">
@@ -15928,7 +15928,7 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
+          <t>Modificación de la DIA de Ampliación y Desarrollo de Faenas Mineras en Tuina</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
@@ -15938,16 +15938,16 @@
       </c>
       <c r="D325" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E325" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Explotadora Minera del Cerro S.A</t>
         </is>
       </c>
       <c r="F325" t="n">
-        <v>4050</v>
+        <v>1000</v>
       </c>
       <c r="G325" t="inlineStr">
         <is>
@@ -15956,12 +15956,12 @@
       </c>
       <c r="H325" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I325" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550686&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J325" t="inlineStr">
@@ -15976,7 +15976,7 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>Modificación de la DIA de Ampliación y Desarrollo de Faenas Mineras en Tuina</t>
+          <t>Modificación Proyecto Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
@@ -15986,16 +15986,16 @@
       </c>
       <c r="D326" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E326" t="inlineStr">
         <is>
-          <t>Explotadora Minera del Cerro S.A</t>
+          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
         </is>
       </c>
       <c r="F326" t="n">
-        <v>1000</v>
+        <v>4000</v>
       </c>
       <c r="G326" t="inlineStr">
         <is>
@@ -16009,7 +16009,7 @@
       </c>
       <c r="I326" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550686&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4555621&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J326" t="inlineStr">
@@ -16024,7 +16024,7 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
+          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
@@ -16039,11 +16039,11 @@
       </c>
       <c r="E327" t="inlineStr">
         <is>
-          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F327" t="n">
-        <v>4000</v>
+        <v>4050</v>
       </c>
       <c r="G327" t="inlineStr">
         <is>
@@ -16052,12 +16052,12 @@
       </c>
       <c r="H327" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I327" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4555621&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J327" t="inlineStr">
@@ -19912,7 +19912,7 @@
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Proyecto Explotación Subterránea Mina Santa Rosa (e-seia)</t>
         </is>
       </c>
       <c r="C408" t="inlineStr">
@@ -19922,16 +19922,16 @@
       </c>
       <c r="D408" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E408" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Minera Quimal.S.A.</t>
         </is>
       </c>
       <c r="F408" t="n">
-        <v>1750</v>
+        <v>500</v>
       </c>
       <c r="G408" t="inlineStr">
         <is>
@@ -19940,12 +19940,12 @@
       </c>
       <c r="H408" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I408" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3310659&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J408" t="inlineStr">
@@ -19960,7 +19960,7 @@
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>Proyecto Explotación Subterránea Mina Santa Rosa (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C409" t="inlineStr">
@@ -19970,16 +19970,16 @@
       </c>
       <c r="D409" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E409" t="inlineStr">
         <is>
-          <t>Minera Quimal.S.A.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F409" t="n">
-        <v>500</v>
+        <v>1750</v>
       </c>
       <c r="G409" t="inlineStr">
         <is>
@@ -19988,12 +19988,12 @@
       </c>
       <c r="H409" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I409" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3310659&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J409" t="inlineStr">
@@ -20440,7 +20440,7 @@
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>Tratamiento de Impurezas en Ánodos y Cátodos de División Codelco Norte (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C419" t="inlineStr">
@@ -20450,16 +20450,16 @@
       </c>
       <c r="D419" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E419" t="inlineStr">
         <is>
-          <t>Codelco Chile, División Chuquicamata</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F419" t="n">
-        <v>50000</v>
+        <v>250</v>
       </c>
       <c r="G419" t="inlineStr">
         <is>
@@ -20468,12 +20468,12 @@
       </c>
       <c r="H419" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I419" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3118819&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J419" t="inlineStr">
@@ -20488,7 +20488,7 @@
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>Tratamiento de Impurezas en Ánodos y Cátodos de División Codelco Norte (e-seia)</t>
         </is>
       </c>
       <c r="C420" t="inlineStr">
@@ -20498,16 +20498,16 @@
       </c>
       <c r="D420" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E420" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Codelco Chile, División Chuquicamata</t>
         </is>
       </c>
       <c r="F420" t="n">
-        <v>250</v>
+        <v>50000</v>
       </c>
       <c r="G420" t="inlineStr">
         <is>
@@ -20516,12 +20516,12 @@
       </c>
       <c r="H420" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I420" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3118819&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J420" t="inlineStr">
@@ -23656,26 +23656,26 @@
       </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t>LIXIVIACIÓN DE SULFUROS SULFOLIX</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C486" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D486" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E486" t="inlineStr">
         <is>
-          <t>SOCIEDAD CONTRACTUAL MINERA EL ABRA</t>
+          <t>Empresa de Residuos RESITER S.A.</t>
         </is>
       </c>
       <c r="F486" t="n">
-        <v>343000</v>
+        <v>1</v>
       </c>
       <c r="G486" t="inlineStr">
         <is>
@@ -23689,7 +23689,7 @@
       </c>
       <c r="I486" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2088630&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J486" t="inlineStr">
@@ -23704,26 +23704,26 @@
       </c>
       <c r="B487" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
+          <t>LIXIVIACIÓN DE SULFUROS SULFOLIX</t>
         </is>
       </c>
       <c r="C487" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D487" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E487" t="inlineStr">
         <is>
-          <t>Empresa de Residuos RESITER S.A.</t>
+          <t>SOCIEDAD CONTRACTUAL MINERA EL ABRA</t>
         </is>
       </c>
       <c r="F487" t="n">
-        <v>1</v>
+        <v>343000</v>
       </c>
       <c r="G487" t="inlineStr">
         <is>
@@ -23737,7 +23737,7 @@
       </c>
       <c r="I487" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2088630&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J487" t="inlineStr">

--- a/data/Calama.xlsx
+++ b/data/Calama.xlsx
@@ -4072,7 +4072,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Verano de San Juan I</t>
+          <t>MODIFICACIONES AL PROYECTO EXTRACCIÓN Y MOVIMIENTO DE MINERALES MINA RADOMIRO TOMIC</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4087,11 +4087,11 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Sonnedix Victoria Solar SpA</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>15000</v>
+        <v>208848</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
@@ -4100,12 +4100,12 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138522682&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138513102&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -4120,7 +4120,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Verano de San Juan II</t>
+          <t>Parque Fotovoltaico Verano de San Juan I</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4135,7 +4135,7 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Sonnedix Paine Energy SpA</t>
+          <t>Sonnedix Victoria Solar SpA</t>
         </is>
       </c>
       <c r="F79" t="n">
@@ -4153,7 +4153,7 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138526892&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138522682&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -4168,7 +4168,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>MODIFICACIONES AL PROYECTO EXTRACCIÓN Y MOVIMIENTO DE MINERALES MINA RADOMIRO TOMIC</t>
+          <t>Parque Fotovoltaico Verano de San Juan II</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4183,11 +4183,11 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Sonnedix Paine Energy SpA</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>208848</v>
+        <v>15000</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
@@ -4196,12 +4196,12 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138513102&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138526892&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -8056,7 +8056,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>AUMENTO CAPACIDAD DE TRATAMIENTO DE EFLUENTES DE FUNDICIÓN</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -8066,16 +8066,16 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>Codelco Chile, División Chuquicamata</t>
         </is>
       </c>
       <c r="F161" t="n">
-        <v>1200</v>
+        <v>67700</v>
       </c>
       <c r="G161" t="inlineStr">
         <is>
@@ -8089,7 +8089,7 @@
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128952737&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
@@ -8104,7 +8104,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Proyecto Fotovoltaico Azabache</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -8114,16 +8114,16 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>Enel Green Power Chile S.A.</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F162" t="n">
-        <v>140000</v>
+        <v>1200</v>
       </c>
       <c r="G162" t="inlineStr">
         <is>
@@ -8137,7 +8137,7 @@
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128969457&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
@@ -8152,7 +8152,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Proyecto Fotovoltaico Azabache</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -8162,16 +8162,16 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Enel Green Power Chile S.A.</t>
         </is>
       </c>
       <c r="F163" t="n">
-        <v>0</v>
+        <v>140000</v>
       </c>
       <c r="G163" t="inlineStr">
         <is>
@@ -8185,7 +8185,7 @@
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128969457&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -8200,7 +8200,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>AUMENTO CAPACIDAD DE TRATAMIENTO DE EFLUENTES DE FUNDICIÓN</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -8210,16 +8210,16 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>Codelco Chile, División Chuquicamata</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F164" t="n">
-        <v>67700</v>
+        <v>0</v>
       </c>
       <c r="G164" t="inlineStr">
         <is>
@@ -8233,7 +8233,7 @@
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128952737&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
@@ -8968,7 +8968,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -8983,11 +8983,11 @@
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F180" t="n">
-        <v>12500</v>
+        <v>219</v>
       </c>
       <c r="G180" t="inlineStr">
         <is>
@@ -8996,12 +8996,12 @@
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556590&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
@@ -9016,7 +9016,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
+          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -9035,7 +9035,7 @@
         </is>
       </c>
       <c r="F181" t="n">
-        <v>10000</v>
+        <v>12500</v>
       </c>
       <c r="G181" t="inlineStr">
         <is>
@@ -9049,7 +9049,7 @@
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -9064,7 +9064,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -9079,11 +9079,11 @@
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F182" t="n">
-        <v>219</v>
+        <v>10000</v>
       </c>
       <c r="G182" t="inlineStr">
         <is>
@@ -9092,12 +9092,12 @@
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556590&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -9592,26 +9592,26 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>RT Sulfuros</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F193" t="n">
-        <v>2050</v>
+        <v>5.4</v>
       </c>
       <c r="G193" t="inlineStr">
         <is>
@@ -9620,12 +9620,12 @@
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
@@ -9640,26 +9640,26 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>RT Sulfuros</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F194" t="n">
-        <v>5.4</v>
+        <v>2050</v>
       </c>
       <c r="G194" t="inlineStr">
         <is>
@@ -9668,12 +9668,12 @@
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J194" t="inlineStr">
@@ -11080,7 +11080,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Procesamiento de Óxidos DMH</t>
+          <t>Planta Fotovoltaica San Pedro de Atacama IV</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -11095,11 +11095,11 @@
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>División Ministro Hales de Codelco Chile</t>
+          <t>GPG Solar Chile 2017 SpA</t>
         </is>
       </c>
       <c r="F224" t="n">
-        <v>70000</v>
+        <v>105250</v>
       </c>
       <c r="G224" t="inlineStr">
         <is>
@@ -11113,7 +11113,7 @@
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7040302&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7052315&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J224" t="inlineStr">
@@ -11128,7 +11128,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>Planta Fotovoltaica San Pedro de Atacama IV</t>
+          <t>Procesamiento de Óxidos DMH</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -11143,11 +11143,11 @@
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>GPG Solar Chile 2017 SpA</t>
+          <t>División Ministro Hales de Codelco Chile</t>
         </is>
       </c>
       <c r="F225" t="n">
-        <v>105250</v>
+        <v>70000</v>
       </c>
       <c r="G225" t="inlineStr">
         <is>
@@ -11161,7 +11161,7 @@
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7052315&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7040302&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J225" t="inlineStr">
@@ -13240,7 +13240,7 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>Portal del Inca</t>
+          <t>Línea de Transmisión Eléctrica 220 kv Encuentro - MH</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
@@ -13255,11 +13255,11 @@
       </c>
       <c r="E269" t="inlineStr">
         <is>
-          <t>Inmobiliaria Inca Dos Ltda.</t>
+          <t>División Ministro Hales de Codelco Chile</t>
         </is>
       </c>
       <c r="F269" t="n">
-        <v>13948</v>
+        <v>45000</v>
       </c>
       <c r="G269" t="inlineStr">
         <is>
@@ -13268,12 +13268,12 @@
       </c>
       <c r="H269" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I269" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5787635&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5773970&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J269" t="inlineStr">
@@ -13288,7 +13288,7 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Eléctrica 220 kv Encuentro - MH</t>
+          <t>Portal del Inca</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
@@ -13303,11 +13303,11 @@
       </c>
       <c r="E270" t="inlineStr">
         <is>
-          <t>División Ministro Hales de Codelco Chile</t>
+          <t>Inmobiliaria Inca Dos Ltda.</t>
         </is>
       </c>
       <c r="F270" t="n">
-        <v>45000</v>
+        <v>13948</v>
       </c>
       <c r="G270" t="inlineStr">
         <is>
@@ -13316,12 +13316,12 @@
       </c>
       <c r="H270" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I270" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5773970&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5787635&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J270" t="inlineStr">
@@ -14056,7 +14056,7 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
@@ -14071,11 +14071,11 @@
       </c>
       <c r="E286" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F286" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G286" t="inlineStr">
         <is>
@@ -14084,12 +14084,12 @@
       </c>
       <c r="H286" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I286" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J286" t="inlineStr">
@@ -14104,7 +14104,7 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
@@ -14119,11 +14119,11 @@
       </c>
       <c r="E287" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F287" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G287" t="inlineStr">
         <is>
@@ -14132,12 +14132,12 @@
       </c>
       <c r="H287" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I287" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J287" t="inlineStr">
@@ -15928,7 +15928,7 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>Modificación de la DIA de Ampliación y Desarrollo de Faenas Mineras en Tuina</t>
+          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
@@ -15938,16 +15938,16 @@
       </c>
       <c r="D325" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E325" t="inlineStr">
         <is>
-          <t>Explotadora Minera del Cerro S.A</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F325" t="n">
-        <v>1000</v>
+        <v>4050</v>
       </c>
       <c r="G325" t="inlineStr">
         <is>
@@ -15956,12 +15956,12 @@
       </c>
       <c r="H325" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I325" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550686&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J325" t="inlineStr">
@@ -15976,7 +15976,7 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
+          <t>Modificación de la DIA de Ampliación y Desarrollo de Faenas Mineras en Tuina</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
@@ -15986,16 +15986,16 @@
       </c>
       <c r="D326" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E326" t="inlineStr">
         <is>
-          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
+          <t>Explotadora Minera del Cerro S.A</t>
         </is>
       </c>
       <c r="F326" t="n">
-        <v>4000</v>
+        <v>1000</v>
       </c>
       <c r="G326" t="inlineStr">
         <is>
@@ -16009,7 +16009,7 @@
       </c>
       <c r="I326" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4555621&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550686&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J326" t="inlineStr">
@@ -16024,7 +16024,7 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
+          <t>Modificación Proyecto Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
@@ -16039,11 +16039,11 @@
       </c>
       <c r="E327" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
         </is>
       </c>
       <c r="F327" t="n">
-        <v>4050</v>
+        <v>4000</v>
       </c>
       <c r="G327" t="inlineStr">
         <is>
@@ -16052,12 +16052,12 @@
       </c>
       <c r="H327" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I327" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4555621&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J327" t="inlineStr">
@@ -19912,7 +19912,7 @@
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>Proyecto Explotación Subterránea Mina Santa Rosa (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C408" t="inlineStr">
@@ -19922,16 +19922,16 @@
       </c>
       <c r="D408" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E408" t="inlineStr">
         <is>
-          <t>Minera Quimal.S.A.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F408" t="n">
-        <v>500</v>
+        <v>1750</v>
       </c>
       <c r="G408" t="inlineStr">
         <is>
@@ -19940,12 +19940,12 @@
       </c>
       <c r="H408" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I408" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3310659&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J408" t="inlineStr">
@@ -19960,7 +19960,7 @@
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Proyecto Explotación Subterránea Mina Santa Rosa (e-seia)</t>
         </is>
       </c>
       <c r="C409" t="inlineStr">
@@ -19970,16 +19970,16 @@
       </c>
       <c r="D409" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E409" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Minera Quimal.S.A.</t>
         </is>
       </c>
       <c r="F409" t="n">
-        <v>1750</v>
+        <v>500</v>
       </c>
       <c r="G409" t="inlineStr">
         <is>
@@ -19988,12 +19988,12 @@
       </c>
       <c r="H409" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I409" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3310659&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J409" t="inlineStr">
@@ -20440,7 +20440,7 @@
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>Tratamiento de Impurezas en Ánodos y Cátodos de División Codelco Norte (e-seia)</t>
         </is>
       </c>
       <c r="C419" t="inlineStr">
@@ -20450,16 +20450,16 @@
       </c>
       <c r="D419" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E419" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Codelco Chile, División Chuquicamata</t>
         </is>
       </c>
       <c r="F419" t="n">
-        <v>250</v>
+        <v>50000</v>
       </c>
       <c r="G419" t="inlineStr">
         <is>
@@ -20468,12 +20468,12 @@
       </c>
       <c r="H419" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I419" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3118819&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J419" t="inlineStr">
@@ -20488,7 +20488,7 @@
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>Tratamiento de Impurezas en Ánodos y Cátodos de División Codelco Norte (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C420" t="inlineStr">
@@ -20498,16 +20498,16 @@
       </c>
       <c r="D420" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E420" t="inlineStr">
         <is>
-          <t>Codelco Chile, División Chuquicamata</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F420" t="n">
-        <v>50000</v>
+        <v>250</v>
       </c>
       <c r="G420" t="inlineStr">
         <is>
@@ -20516,12 +20516,12 @@
       </c>
       <c r="H420" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I420" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3118819&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J420" t="inlineStr">
@@ -23656,26 +23656,26 @@
       </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
+          <t>LIXIVIACIÓN DE SULFUROS SULFOLIX</t>
         </is>
       </c>
       <c r="C486" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D486" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E486" t="inlineStr">
         <is>
-          <t>Empresa de Residuos RESITER S.A.</t>
+          <t>SOCIEDAD CONTRACTUAL MINERA EL ABRA</t>
         </is>
       </c>
       <c r="F486" t="n">
-        <v>1</v>
+        <v>343000</v>
       </c>
       <c r="G486" t="inlineStr">
         <is>
@@ -23689,7 +23689,7 @@
       </c>
       <c r="I486" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2088630&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J486" t="inlineStr">
@@ -23704,26 +23704,26 @@
       </c>
       <c r="B487" t="inlineStr">
         <is>
-          <t>LIXIVIACIÓN DE SULFUROS SULFOLIX</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C487" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D487" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E487" t="inlineStr">
         <is>
-          <t>SOCIEDAD CONTRACTUAL MINERA EL ABRA</t>
+          <t>Empresa de Residuos RESITER S.A.</t>
         </is>
       </c>
       <c r="F487" t="n">
-        <v>343000</v>
+        <v>1</v>
       </c>
       <c r="G487" t="inlineStr">
         <is>
@@ -23737,7 +23737,7 @@
       </c>
       <c r="I487" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2088630&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J487" t="inlineStr">

--- a/data/Calama.xlsx
+++ b/data/Calama.xlsx
@@ -443,7 +443,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2500</v>
+        <v>2.5</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>

--- a/data/Calama.xlsx
+++ b/data/Calama.xlsx
@@ -644,7 +644,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -4072,7 +4072,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>MODIFICACIONES AL PROYECTO EXTRACCIÓN Y MOVIMIENTO DE MINERALES MINA RADOMIRO TOMIC</t>
+          <t>Parque Fotovoltaico Verano de San Juan I</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4087,11 +4087,11 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Sonnedix Victoria Solar SpA</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>208848</v>
+        <v>15000</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
@@ -4100,12 +4100,12 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138513102&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138522682&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -4120,7 +4120,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Verano de San Juan I</t>
+          <t>Parque Fotovoltaico Verano de San Juan II</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4135,7 +4135,7 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Sonnedix Victoria Solar SpA</t>
+          <t>Sonnedix Paine Energy SpA</t>
         </is>
       </c>
       <c r="F79" t="n">
@@ -4153,7 +4153,7 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138522682&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138526892&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -4168,7 +4168,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Verano de San Juan II</t>
+          <t>MODIFICACIONES AL PROYECTO EXTRACCIÓN Y MOVIMIENTO DE MINERALES MINA RADOMIRO TOMIC</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4183,11 +4183,11 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Sonnedix Paine Energy SpA</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>15000</v>
+        <v>208848</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
@@ -4196,12 +4196,12 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138526892&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138513102&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -8056,7 +8056,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>AUMENTO CAPACIDAD DE TRATAMIENTO DE EFLUENTES DE FUNDICIÓN</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -8066,16 +8066,16 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>Codelco Chile, División Chuquicamata</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F161" t="n">
-        <v>67700</v>
+        <v>1200</v>
       </c>
       <c r="G161" t="inlineStr">
         <is>
@@ -8089,7 +8089,7 @@
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128952737&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
@@ -8104,7 +8104,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Proyecto Fotovoltaico Azabache</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -8114,16 +8114,16 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>Enel Green Power Chile S.A.</t>
         </is>
       </c>
       <c r="F162" t="n">
-        <v>1200</v>
+        <v>140000</v>
       </c>
       <c r="G162" t="inlineStr">
         <is>
@@ -8137,7 +8137,7 @@
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128969457&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
@@ -8152,7 +8152,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Proyecto Fotovoltaico Azabache</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -8162,16 +8162,16 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>Enel Green Power Chile S.A.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F163" t="n">
-        <v>140000</v>
+        <v>0</v>
       </c>
       <c r="G163" t="inlineStr">
         <is>
@@ -8185,7 +8185,7 @@
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128969457&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -8200,7 +8200,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>AUMENTO CAPACIDAD DE TRATAMIENTO DE EFLUENTES DE FUNDICIÓN</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -8210,16 +8210,16 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Codelco Chile, División Chuquicamata</t>
         </is>
       </c>
       <c r="F164" t="n">
-        <v>0</v>
+        <v>67700</v>
       </c>
       <c r="G164" t="inlineStr">
         <is>
@@ -8233,7 +8233,7 @@
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128952737&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
@@ -8968,7 +8968,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -8983,11 +8983,11 @@
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F180" t="n">
-        <v>219</v>
+        <v>12500</v>
       </c>
       <c r="G180" t="inlineStr">
         <is>
@@ -8996,12 +8996,12 @@
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556590&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
@@ -9016,7 +9016,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -9035,7 +9035,7 @@
         </is>
       </c>
       <c r="F181" t="n">
-        <v>12500</v>
+        <v>10000</v>
       </c>
       <c r="G181" t="inlineStr">
         <is>
@@ -9049,7 +9049,7 @@
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -9064,7 +9064,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -9079,11 +9079,11 @@
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F182" t="n">
-        <v>10000</v>
+        <v>219</v>
       </c>
       <c r="G182" t="inlineStr">
         <is>
@@ -9092,12 +9092,12 @@
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556590&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -9592,26 +9592,26 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>RT Sulfuros</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F193" t="n">
-        <v>5.4</v>
+        <v>2050</v>
       </c>
       <c r="G193" t="inlineStr">
         <is>
@@ -9620,12 +9620,12 @@
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
@@ -9640,26 +9640,26 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>RT Sulfuros</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F194" t="n">
-        <v>2050</v>
+        <v>5.4</v>
       </c>
       <c r="G194" t="inlineStr">
         <is>
@@ -9668,12 +9668,12 @@
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J194" t="inlineStr">
@@ -11080,7 +11080,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Planta Fotovoltaica San Pedro de Atacama IV</t>
+          <t>Procesamiento de Óxidos DMH</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -11095,11 +11095,11 @@
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>GPG Solar Chile 2017 SpA</t>
+          <t>División Ministro Hales de Codelco Chile</t>
         </is>
       </c>
       <c r="F224" t="n">
-        <v>105250</v>
+        <v>70000</v>
       </c>
       <c r="G224" t="inlineStr">
         <is>
@@ -11113,7 +11113,7 @@
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7052315&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7040302&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J224" t="inlineStr">
@@ -11128,7 +11128,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>Procesamiento de Óxidos DMH</t>
+          <t>Planta Fotovoltaica San Pedro de Atacama IV</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -11143,11 +11143,11 @@
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>División Ministro Hales de Codelco Chile</t>
+          <t>GPG Solar Chile 2017 SpA</t>
         </is>
       </c>
       <c r="F225" t="n">
-        <v>70000</v>
+        <v>105250</v>
       </c>
       <c r="G225" t="inlineStr">
         <is>
@@ -11161,7 +11161,7 @@
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7040302&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7052315&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J225" t="inlineStr">
@@ -13240,7 +13240,7 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Eléctrica 220 kv Encuentro - MH</t>
+          <t>Portal del Inca</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
@@ -13255,11 +13255,11 @@
       </c>
       <c r="E269" t="inlineStr">
         <is>
-          <t>División Ministro Hales de Codelco Chile</t>
+          <t>Inmobiliaria Inca Dos Ltda.</t>
         </is>
       </c>
       <c r="F269" t="n">
-        <v>45000</v>
+        <v>13948</v>
       </c>
       <c r="G269" t="inlineStr">
         <is>
@@ -13268,12 +13268,12 @@
       </c>
       <c r="H269" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I269" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5773970&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5787635&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J269" t="inlineStr">
@@ -13288,7 +13288,7 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>Portal del Inca</t>
+          <t>Línea de Transmisión Eléctrica 220 kv Encuentro - MH</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
@@ -13303,11 +13303,11 @@
       </c>
       <c r="E270" t="inlineStr">
         <is>
-          <t>Inmobiliaria Inca Dos Ltda.</t>
+          <t>División Ministro Hales de Codelco Chile</t>
         </is>
       </c>
       <c r="F270" t="n">
-        <v>13948</v>
+        <v>45000</v>
       </c>
       <c r="G270" t="inlineStr">
         <is>
@@ -13316,12 +13316,12 @@
       </c>
       <c r="H270" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I270" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5787635&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5773970&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J270" t="inlineStr">
@@ -14056,7 +14056,7 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
@@ -14071,11 +14071,11 @@
       </c>
       <c r="E286" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F286" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G286" t="inlineStr">
         <is>
@@ -14084,12 +14084,12 @@
       </c>
       <c r="H286" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I286" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J286" t="inlineStr">
@@ -14104,7 +14104,7 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
@@ -14119,11 +14119,11 @@
       </c>
       <c r="E287" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F287" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G287" t="inlineStr">
         <is>
@@ -14132,12 +14132,12 @@
       </c>
       <c r="H287" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I287" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J287" t="inlineStr">
@@ -15928,7 +15928,7 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
+          <t>Modificación de la DIA de Ampliación y Desarrollo de Faenas Mineras en Tuina</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
@@ -15938,16 +15938,16 @@
       </c>
       <c r="D325" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E325" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Explotadora Minera del Cerro S.A</t>
         </is>
       </c>
       <c r="F325" t="n">
-        <v>4050</v>
+        <v>1000</v>
       </c>
       <c r="G325" t="inlineStr">
         <is>
@@ -15956,12 +15956,12 @@
       </c>
       <c r="H325" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I325" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550686&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J325" t="inlineStr">
@@ -15976,7 +15976,7 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>Modificación de la DIA de Ampliación y Desarrollo de Faenas Mineras en Tuina</t>
+          <t>Modificación Proyecto Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
@@ -15986,16 +15986,16 @@
       </c>
       <c r="D326" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E326" t="inlineStr">
         <is>
-          <t>Explotadora Minera del Cerro S.A</t>
+          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
         </is>
       </c>
       <c r="F326" t="n">
-        <v>1000</v>
+        <v>4000</v>
       </c>
       <c r="G326" t="inlineStr">
         <is>
@@ -16009,7 +16009,7 @@
       </c>
       <c r="I326" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550686&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4555621&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J326" t="inlineStr">
@@ -16024,7 +16024,7 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
+          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
@@ -16039,11 +16039,11 @@
       </c>
       <c r="E327" t="inlineStr">
         <is>
-          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F327" t="n">
-        <v>4000</v>
+        <v>4050</v>
       </c>
       <c r="G327" t="inlineStr">
         <is>
@@ -16052,12 +16052,12 @@
       </c>
       <c r="H327" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I327" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4555621&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J327" t="inlineStr">
@@ -19912,7 +19912,7 @@
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Proyecto Explotación Subterránea Mina Santa Rosa (e-seia)</t>
         </is>
       </c>
       <c r="C408" t="inlineStr">
@@ -19922,16 +19922,16 @@
       </c>
       <c r="D408" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E408" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Minera Quimal.S.A.</t>
         </is>
       </c>
       <c r="F408" t="n">
-        <v>1750</v>
+        <v>500</v>
       </c>
       <c r="G408" t="inlineStr">
         <is>
@@ -19940,12 +19940,12 @@
       </c>
       <c r="H408" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I408" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3310659&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J408" t="inlineStr">
@@ -19960,7 +19960,7 @@
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>Proyecto Explotación Subterránea Mina Santa Rosa (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C409" t="inlineStr">
@@ -19970,16 +19970,16 @@
       </c>
       <c r="D409" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E409" t="inlineStr">
         <is>
-          <t>Minera Quimal.S.A.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F409" t="n">
-        <v>500</v>
+        <v>1750</v>
       </c>
       <c r="G409" t="inlineStr">
         <is>
@@ -19988,12 +19988,12 @@
       </c>
       <c r="H409" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I409" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3310659&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J409" t="inlineStr">
@@ -20440,7 +20440,7 @@
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>Tratamiento de Impurezas en Ánodos y Cátodos de División Codelco Norte (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C419" t="inlineStr">
@@ -20450,16 +20450,16 @@
       </c>
       <c r="D419" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E419" t="inlineStr">
         <is>
-          <t>Codelco Chile, División Chuquicamata</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F419" t="n">
-        <v>50000</v>
+        <v>250</v>
       </c>
       <c r="G419" t="inlineStr">
         <is>
@@ -20468,12 +20468,12 @@
       </c>
       <c r="H419" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I419" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3118819&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J419" t="inlineStr">
@@ -20488,7 +20488,7 @@
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>Tratamiento de Impurezas en Ánodos y Cátodos de División Codelco Norte (e-seia)</t>
         </is>
       </c>
       <c r="C420" t="inlineStr">
@@ -20498,16 +20498,16 @@
       </c>
       <c r="D420" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E420" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Codelco Chile, División Chuquicamata</t>
         </is>
       </c>
       <c r="F420" t="n">
-        <v>250</v>
+        <v>50000</v>
       </c>
       <c r="G420" t="inlineStr">
         <is>
@@ -20516,12 +20516,12 @@
       </c>
       <c r="H420" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I420" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3118819&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J420" t="inlineStr">
@@ -23656,26 +23656,26 @@
       </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t>LIXIVIACIÓN DE SULFUROS SULFOLIX</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C486" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D486" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E486" t="inlineStr">
         <is>
-          <t>SOCIEDAD CONTRACTUAL MINERA EL ABRA</t>
+          <t>Empresa de Residuos RESITER S.A.</t>
         </is>
       </c>
       <c r="F486" t="n">
-        <v>343000</v>
+        <v>1</v>
       </c>
       <c r="G486" t="inlineStr">
         <is>
@@ -23689,7 +23689,7 @@
       </c>
       <c r="I486" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2088630&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J486" t="inlineStr">
@@ -23704,26 +23704,26 @@
       </c>
       <c r="B487" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
+          <t>LIXIVIACIÓN DE SULFUROS SULFOLIX</t>
         </is>
       </c>
       <c r="C487" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D487" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E487" t="inlineStr">
         <is>
-          <t>Empresa de Residuos RESITER S.A.</t>
+          <t>SOCIEDAD CONTRACTUAL MINERA EL ABRA</t>
         </is>
       </c>
       <c r="F487" t="n">
-        <v>1</v>
+        <v>343000</v>
       </c>
       <c r="G487" t="inlineStr">
         <is>
@@ -23737,7 +23737,7 @@
       </c>
       <c r="I487" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2088630&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J487" t="inlineStr">

--- a/data/Calama.xlsx
+++ b/data/Calama.xlsx
@@ -4120,7 +4120,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Verano de San Juan I</t>
+          <t>MODIFICACIONES AL PROYECTO EXTRACCIÓN Y MOVIMIENTO DE MINERALES MINA RADOMIRO TOMIC</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4135,11 +4135,11 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Sonnedix Victoria Solar SpA</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>15000</v>
+        <v>208848</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
@@ -4148,12 +4148,12 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138522682&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138513102&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -4168,7 +4168,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Verano de San Juan II</t>
+          <t>Parque Fotovoltaico Verano de San Juan I</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4183,7 +4183,7 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Sonnedix Paine Energy SpA</t>
+          <t>Sonnedix Victoria Solar SpA</t>
         </is>
       </c>
       <c r="F80" t="n">
@@ -4201,7 +4201,7 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138526892&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138522682&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -4216,7 +4216,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>MODIFICACIONES AL PROYECTO EXTRACCIÓN Y MOVIMIENTO DE MINERALES MINA RADOMIRO TOMIC</t>
+          <t>Parque Fotovoltaico Verano de San Juan II</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -4231,11 +4231,11 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Sonnedix Paine Energy SpA</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>208848</v>
+        <v>15000</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
@@ -4244,12 +4244,12 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138513102&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138526892&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -8104,7 +8104,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>AUMENTO CAPACIDAD DE TRATAMIENTO DE EFLUENTES DE FUNDICIÓN</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -8114,16 +8114,16 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>Codelco Chile, División Chuquicamata</t>
         </is>
       </c>
       <c r="F162" t="n">
-        <v>1200</v>
+        <v>67700</v>
       </c>
       <c r="G162" t="inlineStr">
         <is>
@@ -8137,7 +8137,7 @@
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128952737&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
@@ -8152,7 +8152,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Proyecto Fotovoltaico Azabache</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -8162,16 +8162,16 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>Enel Green Power Chile S.A.</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F163" t="n">
-        <v>140000</v>
+        <v>1200</v>
       </c>
       <c r="G163" t="inlineStr">
         <is>
@@ -8185,7 +8185,7 @@
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128969457&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -8200,7 +8200,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Proyecto Fotovoltaico Azabache</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -8210,16 +8210,16 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Enel Green Power Chile S.A.</t>
         </is>
       </c>
       <c r="F164" t="n">
-        <v>0</v>
+        <v>140000</v>
       </c>
       <c r="G164" t="inlineStr">
         <is>
@@ -8233,7 +8233,7 @@
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128969457&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
@@ -8248,7 +8248,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>AUMENTO CAPACIDAD DE TRATAMIENTO DE EFLUENTES DE FUNDICIÓN</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -8258,16 +8258,16 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>Codelco Chile, División Chuquicamata</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F165" t="n">
-        <v>67700</v>
+        <v>0</v>
       </c>
       <c r="G165" t="inlineStr">
         <is>
@@ -8281,7 +8281,7 @@
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128952737&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
@@ -9016,7 +9016,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -9031,11 +9031,11 @@
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F181" t="n">
-        <v>12500</v>
+        <v>219</v>
       </c>
       <c r="G181" t="inlineStr">
         <is>
@@ -9044,12 +9044,12 @@
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556590&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -9064,7 +9064,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
+          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -9083,7 +9083,7 @@
         </is>
       </c>
       <c r="F182" t="n">
-        <v>10000</v>
+        <v>12500</v>
       </c>
       <c r="G182" t="inlineStr">
         <is>
@@ -9097,7 +9097,7 @@
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -9112,7 +9112,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -9127,11 +9127,11 @@
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F183" t="n">
-        <v>219</v>
+        <v>10000</v>
       </c>
       <c r="G183" t="inlineStr">
         <is>
@@ -9140,12 +9140,12 @@
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556590&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -9640,26 +9640,26 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>RT Sulfuros</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F194" t="n">
-        <v>2050</v>
+        <v>5.4</v>
       </c>
       <c r="G194" t="inlineStr">
         <is>
@@ -9668,12 +9668,12 @@
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J194" t="inlineStr">
@@ -9688,26 +9688,26 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>RT Sulfuros</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F195" t="n">
-        <v>5.4</v>
+        <v>2050</v>
       </c>
       <c r="G195" t="inlineStr">
         <is>
@@ -9716,12 +9716,12 @@
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">
@@ -11128,7 +11128,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>Procesamiento de Óxidos DMH</t>
+          <t>Planta Fotovoltaica San Pedro de Atacama IV</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -11143,11 +11143,11 @@
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>División Ministro Hales de Codelco Chile</t>
+          <t>GPG Solar Chile 2017 SpA</t>
         </is>
       </c>
       <c r="F225" t="n">
-        <v>70000</v>
+        <v>105250</v>
       </c>
       <c r="G225" t="inlineStr">
         <is>
@@ -11161,7 +11161,7 @@
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7040302&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7052315&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J225" t="inlineStr">
@@ -11176,7 +11176,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Planta Fotovoltaica San Pedro de Atacama IV</t>
+          <t>Procesamiento de Óxidos DMH</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -11191,11 +11191,11 @@
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>GPG Solar Chile 2017 SpA</t>
+          <t>División Ministro Hales de Codelco Chile</t>
         </is>
       </c>
       <c r="F226" t="n">
-        <v>105250</v>
+        <v>70000</v>
       </c>
       <c r="G226" t="inlineStr">
         <is>
@@ -11209,7 +11209,7 @@
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7052315&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7040302&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J226" t="inlineStr">
@@ -13288,7 +13288,7 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>Portal del Inca</t>
+          <t>Línea de Transmisión Eléctrica 220 kv Encuentro - MH</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
@@ -13303,11 +13303,11 @@
       </c>
       <c r="E270" t="inlineStr">
         <is>
-          <t>Inmobiliaria Inca Dos Ltda.</t>
+          <t>División Ministro Hales de Codelco Chile</t>
         </is>
       </c>
       <c r="F270" t="n">
-        <v>13948</v>
+        <v>45000</v>
       </c>
       <c r="G270" t="inlineStr">
         <is>
@@ -13316,12 +13316,12 @@
       </c>
       <c r="H270" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I270" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5787635&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5773970&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J270" t="inlineStr">
@@ -13336,7 +13336,7 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Eléctrica 220 kv Encuentro - MH</t>
+          <t>Portal del Inca</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
@@ -13351,11 +13351,11 @@
       </c>
       <c r="E271" t="inlineStr">
         <is>
-          <t>División Ministro Hales de Codelco Chile</t>
+          <t>Inmobiliaria Inca Dos Ltda.</t>
         </is>
       </c>
       <c r="F271" t="n">
-        <v>45000</v>
+        <v>13948</v>
       </c>
       <c r="G271" t="inlineStr">
         <is>
@@ -13364,12 +13364,12 @@
       </c>
       <c r="H271" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I271" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5773970&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5787635&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J271" t="inlineStr">
@@ -14104,7 +14104,7 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
@@ -14119,11 +14119,11 @@
       </c>
       <c r="E287" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F287" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G287" t="inlineStr">
         <is>
@@ -14132,12 +14132,12 @@
       </c>
       <c r="H287" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I287" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J287" t="inlineStr">
@@ -14152,7 +14152,7 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
@@ -14167,11 +14167,11 @@
       </c>
       <c r="E288" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F288" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G288" t="inlineStr">
         <is>
@@ -14180,12 +14180,12 @@
       </c>
       <c r="H288" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I288" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J288" t="inlineStr">
@@ -15976,7 +15976,7 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>Modificación de la DIA de Ampliación y Desarrollo de Faenas Mineras en Tuina</t>
+          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
@@ -15986,16 +15986,16 @@
       </c>
       <c r="D326" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E326" t="inlineStr">
         <is>
-          <t>Explotadora Minera del Cerro S.A</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F326" t="n">
-        <v>1000</v>
+        <v>4050</v>
       </c>
       <c r="G326" t="inlineStr">
         <is>
@@ -16004,12 +16004,12 @@
       </c>
       <c r="H326" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I326" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550686&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J326" t="inlineStr">
@@ -16024,7 +16024,7 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
+          <t>Modificación de la DIA de Ampliación y Desarrollo de Faenas Mineras en Tuina</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
@@ -16034,16 +16034,16 @@
       </c>
       <c r="D327" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E327" t="inlineStr">
         <is>
-          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
+          <t>Explotadora Minera del Cerro S.A</t>
         </is>
       </c>
       <c r="F327" t="n">
-        <v>4000</v>
+        <v>1000</v>
       </c>
       <c r="G327" t="inlineStr">
         <is>
@@ -16057,7 +16057,7 @@
       </c>
       <c r="I327" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4555621&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550686&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J327" t="inlineStr">
@@ -16072,7 +16072,7 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
+          <t>Modificación Proyecto Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
@@ -16087,11 +16087,11 @@
       </c>
       <c r="E328" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
         </is>
       </c>
       <c r="F328" t="n">
-        <v>4050</v>
+        <v>4000</v>
       </c>
       <c r="G328" t="inlineStr">
         <is>
@@ -16100,12 +16100,12 @@
       </c>
       <c r="H328" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I328" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4555621&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J328" t="inlineStr">
@@ -19960,7 +19960,7 @@
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>Proyecto Explotación Subterránea Mina Santa Rosa (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C409" t="inlineStr">
@@ -19970,16 +19970,16 @@
       </c>
       <c r="D409" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E409" t="inlineStr">
         <is>
-          <t>Minera Quimal.S.A.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F409" t="n">
-        <v>500</v>
+        <v>1750</v>
       </c>
       <c r="G409" t="inlineStr">
         <is>
@@ -19988,12 +19988,12 @@
       </c>
       <c r="H409" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I409" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3310659&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J409" t="inlineStr">
@@ -20008,7 +20008,7 @@
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Proyecto Explotación Subterránea Mina Santa Rosa (e-seia)</t>
         </is>
       </c>
       <c r="C410" t="inlineStr">
@@ -20018,16 +20018,16 @@
       </c>
       <c r="D410" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E410" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Minera Quimal.S.A.</t>
         </is>
       </c>
       <c r="F410" t="n">
-        <v>1750</v>
+        <v>500</v>
       </c>
       <c r="G410" t="inlineStr">
         <is>
@@ -20036,12 +20036,12 @@
       </c>
       <c r="H410" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I410" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3310659&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J410" t="inlineStr">
@@ -20488,7 +20488,7 @@
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>Tratamiento de Impurezas en Ánodos y Cátodos de División Codelco Norte (e-seia)</t>
         </is>
       </c>
       <c r="C420" t="inlineStr">
@@ -20498,16 +20498,16 @@
       </c>
       <c r="D420" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E420" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Codelco Chile, División Chuquicamata</t>
         </is>
       </c>
       <c r="F420" t="n">
-        <v>250</v>
+        <v>50000</v>
       </c>
       <c r="G420" t="inlineStr">
         <is>
@@ -20516,12 +20516,12 @@
       </c>
       <c r="H420" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I420" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3118819&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J420" t="inlineStr">
@@ -20536,7 +20536,7 @@
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>Tratamiento de Impurezas en Ánodos y Cátodos de División Codelco Norte (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C421" t="inlineStr">
@@ -20546,16 +20546,16 @@
       </c>
       <c r="D421" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E421" t="inlineStr">
         <is>
-          <t>Codelco Chile, División Chuquicamata</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F421" t="n">
-        <v>50000</v>
+        <v>250</v>
       </c>
       <c r="G421" t="inlineStr">
         <is>
@@ -20564,12 +20564,12 @@
       </c>
       <c r="H421" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I421" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3118819&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J421" t="inlineStr">
@@ -20680,7 +20680,7 @@
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>Proyecto Exploración Minera Macarena - Leo (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C424" t="inlineStr">
@@ -20690,16 +20690,16 @@
       </c>
       <c r="D424" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E424" t="inlineStr">
         <is>
-          <t>Minera Fuego Limitada</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F424" t="n">
-        <v>150</v>
+        <v>1650</v>
       </c>
       <c r="G424" t="inlineStr">
         <is>
@@ -20713,7 +20713,7 @@
       </c>
       <c r="I424" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088992&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J424" t="inlineStr">
@@ -20728,7 +20728,7 @@
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>Proyecto Exploración Minera Macarena - Leo (e-seia)</t>
         </is>
       </c>
       <c r="C425" t="inlineStr">
@@ -20738,16 +20738,16 @@
       </c>
       <c r="D425" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E425" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Minera Fuego Limitada</t>
         </is>
       </c>
       <c r="F425" t="n">
-        <v>1650</v>
+        <v>150</v>
       </c>
       <c r="G425" t="inlineStr">
         <is>
@@ -20761,7 +20761,7 @@
       </c>
       <c r="I425" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088992&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J425" t="inlineStr">
@@ -23704,26 +23704,26 @@
       </c>
       <c r="B487" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
+          <t>LIXIVIACIÓN DE SULFUROS SULFOLIX</t>
         </is>
       </c>
       <c r="C487" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D487" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E487" t="inlineStr">
         <is>
-          <t>Empresa de Residuos RESITER S.A.</t>
+          <t>SOCIEDAD CONTRACTUAL MINERA EL ABRA</t>
         </is>
       </c>
       <c r="F487" t="n">
-        <v>1</v>
+        <v>343000</v>
       </c>
       <c r="G487" t="inlineStr">
         <is>
@@ -23737,7 +23737,7 @@
       </c>
       <c r="I487" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2088630&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J487" t="inlineStr">
@@ -23752,26 +23752,26 @@
       </c>
       <c r="B488" t="inlineStr">
         <is>
-          <t>LIXIVIACIÓN DE SULFUROS SULFOLIX</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C488" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D488" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E488" t="inlineStr">
         <is>
-          <t>SOCIEDAD CONTRACTUAL MINERA EL ABRA</t>
+          <t>Empresa de Residuos RESITER S.A.</t>
         </is>
       </c>
       <c r="F488" t="n">
-        <v>343000</v>
+        <v>1</v>
       </c>
       <c r="G488" t="inlineStr">
         <is>
@@ -23785,7 +23785,7 @@
       </c>
       <c r="I488" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2088630&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J488" t="inlineStr">

--- a/data/Calama.xlsx
+++ b/data/Calama.xlsx
@@ -4120,7 +4120,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>MODIFICACIONES AL PROYECTO EXTRACCIÓN Y MOVIMIENTO DE MINERALES MINA RADOMIRO TOMIC</t>
+          <t>Parque Fotovoltaico Verano de San Juan I</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4135,11 +4135,11 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Sonnedix Victoria Solar SpA</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>208848</v>
+        <v>15000</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
@@ -4148,12 +4148,12 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138513102&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138522682&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -4168,7 +4168,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Verano de San Juan I</t>
+          <t>Parque Fotovoltaico Verano de San Juan II</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4183,7 +4183,7 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Sonnedix Victoria Solar SpA</t>
+          <t>Sonnedix Paine Energy SpA</t>
         </is>
       </c>
       <c r="F80" t="n">
@@ -4201,7 +4201,7 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138522682&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138526892&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -4216,7 +4216,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Verano de San Juan II</t>
+          <t>MODIFICACIONES AL PROYECTO EXTRACCIÓN Y MOVIMIENTO DE MINERALES MINA RADOMIRO TOMIC</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -4231,11 +4231,11 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Sonnedix Paine Energy SpA</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>15000</v>
+        <v>208848</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
@@ -4244,12 +4244,12 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138526892&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138513102&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -8104,7 +8104,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>AUMENTO CAPACIDAD DE TRATAMIENTO DE EFLUENTES DE FUNDICIÓN</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -8114,16 +8114,16 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>Codelco Chile, División Chuquicamata</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F162" t="n">
-        <v>67700</v>
+        <v>1200</v>
       </c>
       <c r="G162" t="inlineStr">
         <is>
@@ -8137,7 +8137,7 @@
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128952737&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
@@ -8152,7 +8152,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Proyecto Fotovoltaico Azabache</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -8162,16 +8162,16 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>Enel Green Power Chile S.A.</t>
         </is>
       </c>
       <c r="F163" t="n">
-        <v>1200</v>
+        <v>140000</v>
       </c>
       <c r="G163" t="inlineStr">
         <is>
@@ -8185,7 +8185,7 @@
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128969457&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -8200,7 +8200,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Proyecto Fotovoltaico Azabache</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -8210,16 +8210,16 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>Enel Green Power Chile S.A.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F164" t="n">
-        <v>140000</v>
+        <v>0</v>
       </c>
       <c r="G164" t="inlineStr">
         <is>
@@ -8233,7 +8233,7 @@
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128969457&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
@@ -8248,7 +8248,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>AUMENTO CAPACIDAD DE TRATAMIENTO DE EFLUENTES DE FUNDICIÓN</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -8258,16 +8258,16 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Codelco Chile, División Chuquicamata</t>
         </is>
       </c>
       <c r="F165" t="n">
-        <v>0</v>
+        <v>67700</v>
       </c>
       <c r="G165" t="inlineStr">
         <is>
@@ -8281,7 +8281,7 @@
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128952737&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
@@ -9016,7 +9016,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -9031,11 +9031,11 @@
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F181" t="n">
-        <v>219</v>
+        <v>12500</v>
       </c>
       <c r="G181" t="inlineStr">
         <is>
@@ -9044,12 +9044,12 @@
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556590&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -9064,7 +9064,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -9083,7 +9083,7 @@
         </is>
       </c>
       <c r="F182" t="n">
-        <v>12500</v>
+        <v>10000</v>
       </c>
       <c r="G182" t="inlineStr">
         <is>
@@ -9097,7 +9097,7 @@
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -9112,7 +9112,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -9127,11 +9127,11 @@
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F183" t="n">
-        <v>10000</v>
+        <v>219</v>
       </c>
       <c r="G183" t="inlineStr">
         <is>
@@ -9140,12 +9140,12 @@
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556590&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -9640,26 +9640,26 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>RT Sulfuros</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F194" t="n">
-        <v>5.4</v>
+        <v>2050</v>
       </c>
       <c r="G194" t="inlineStr">
         <is>
@@ -9668,12 +9668,12 @@
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J194" t="inlineStr">
@@ -9688,26 +9688,26 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>RT Sulfuros</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F195" t="n">
-        <v>2050</v>
+        <v>5.4</v>
       </c>
       <c r="G195" t="inlineStr">
         <is>
@@ -9716,12 +9716,12 @@
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">
@@ -11128,7 +11128,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>Planta Fotovoltaica San Pedro de Atacama IV</t>
+          <t>Procesamiento de Óxidos DMH</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -11143,11 +11143,11 @@
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>GPG Solar Chile 2017 SpA</t>
+          <t>División Ministro Hales de Codelco Chile</t>
         </is>
       </c>
       <c r="F225" t="n">
-        <v>105250</v>
+        <v>70000</v>
       </c>
       <c r="G225" t="inlineStr">
         <is>
@@ -11161,7 +11161,7 @@
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7052315&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7040302&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J225" t="inlineStr">
@@ -11176,7 +11176,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Procesamiento de Óxidos DMH</t>
+          <t>Planta Fotovoltaica San Pedro de Atacama IV</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -11191,11 +11191,11 @@
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>División Ministro Hales de Codelco Chile</t>
+          <t>GPG Solar Chile 2017 SpA</t>
         </is>
       </c>
       <c r="F226" t="n">
-        <v>70000</v>
+        <v>105250</v>
       </c>
       <c r="G226" t="inlineStr">
         <is>
@@ -11209,7 +11209,7 @@
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7040302&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7052315&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J226" t="inlineStr">
@@ -13288,7 +13288,7 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Eléctrica 220 kv Encuentro - MH</t>
+          <t>Portal del Inca</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
@@ -13303,11 +13303,11 @@
       </c>
       <c r="E270" t="inlineStr">
         <is>
-          <t>División Ministro Hales de Codelco Chile</t>
+          <t>Inmobiliaria Inca Dos Ltda.</t>
         </is>
       </c>
       <c r="F270" t="n">
-        <v>45000</v>
+        <v>13948</v>
       </c>
       <c r="G270" t="inlineStr">
         <is>
@@ -13316,12 +13316,12 @@
       </c>
       <c r="H270" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I270" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5773970&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5787635&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J270" t="inlineStr">
@@ -13336,7 +13336,7 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>Portal del Inca</t>
+          <t>Línea de Transmisión Eléctrica 220 kv Encuentro - MH</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
@@ -13351,11 +13351,11 @@
       </c>
       <c r="E271" t="inlineStr">
         <is>
-          <t>Inmobiliaria Inca Dos Ltda.</t>
+          <t>División Ministro Hales de Codelco Chile</t>
         </is>
       </c>
       <c r="F271" t="n">
-        <v>13948</v>
+        <v>45000</v>
       </c>
       <c r="G271" t="inlineStr">
         <is>
@@ -13364,12 +13364,12 @@
       </c>
       <c r="H271" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I271" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5787635&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5773970&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J271" t="inlineStr">
@@ -14104,7 +14104,7 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
@@ -14119,11 +14119,11 @@
       </c>
       <c r="E287" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F287" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G287" t="inlineStr">
         <is>
@@ -14132,12 +14132,12 @@
       </c>
       <c r="H287" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I287" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J287" t="inlineStr">
@@ -14152,7 +14152,7 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
@@ -14167,11 +14167,11 @@
       </c>
       <c r="E288" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F288" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G288" t="inlineStr">
         <is>
@@ -14180,12 +14180,12 @@
       </c>
       <c r="H288" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I288" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J288" t="inlineStr">
@@ -15976,7 +15976,7 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
+          <t>Modificación de la DIA de Ampliación y Desarrollo de Faenas Mineras en Tuina</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
@@ -15986,16 +15986,16 @@
       </c>
       <c r="D326" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E326" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Explotadora Minera del Cerro S.A</t>
         </is>
       </c>
       <c r="F326" t="n">
-        <v>4050</v>
+        <v>1000</v>
       </c>
       <c r="G326" t="inlineStr">
         <is>
@@ -16004,12 +16004,12 @@
       </c>
       <c r="H326" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I326" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550686&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J326" t="inlineStr">
@@ -16024,7 +16024,7 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>Modificación de la DIA de Ampliación y Desarrollo de Faenas Mineras en Tuina</t>
+          <t>Modificación Proyecto Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
@@ -16034,16 +16034,16 @@
       </c>
       <c r="D327" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E327" t="inlineStr">
         <is>
-          <t>Explotadora Minera del Cerro S.A</t>
+          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
         </is>
       </c>
       <c r="F327" t="n">
-        <v>1000</v>
+        <v>4000</v>
       </c>
       <c r="G327" t="inlineStr">
         <is>
@@ -16057,7 +16057,7 @@
       </c>
       <c r="I327" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550686&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4555621&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J327" t="inlineStr">
@@ -16072,7 +16072,7 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
+          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
@@ -16087,11 +16087,11 @@
       </c>
       <c r="E328" t="inlineStr">
         <is>
-          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F328" t="n">
-        <v>4000</v>
+        <v>4050</v>
       </c>
       <c r="G328" t="inlineStr">
         <is>
@@ -16100,12 +16100,12 @@
       </c>
       <c r="H328" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I328" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4555621&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J328" t="inlineStr">
@@ -19960,7 +19960,7 @@
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Proyecto Explotación Subterránea Mina Santa Rosa (e-seia)</t>
         </is>
       </c>
       <c r="C409" t="inlineStr">
@@ -19970,16 +19970,16 @@
       </c>
       <c r="D409" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E409" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Minera Quimal.S.A.</t>
         </is>
       </c>
       <c r="F409" t="n">
-        <v>1750</v>
+        <v>500</v>
       </c>
       <c r="G409" t="inlineStr">
         <is>
@@ -19988,12 +19988,12 @@
       </c>
       <c r="H409" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I409" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3310659&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J409" t="inlineStr">
@@ -20008,7 +20008,7 @@
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>Proyecto Explotación Subterránea Mina Santa Rosa (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C410" t="inlineStr">
@@ -20018,16 +20018,16 @@
       </c>
       <c r="D410" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E410" t="inlineStr">
         <is>
-          <t>Minera Quimal.S.A.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F410" t="n">
-        <v>500</v>
+        <v>1750</v>
       </c>
       <c r="G410" t="inlineStr">
         <is>
@@ -20036,12 +20036,12 @@
       </c>
       <c r="H410" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I410" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3310659&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J410" t="inlineStr">
@@ -20488,7 +20488,7 @@
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>Tratamiento de Impurezas en Ánodos y Cátodos de División Codelco Norte (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C420" t="inlineStr">
@@ -20498,16 +20498,16 @@
       </c>
       <c r="D420" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E420" t="inlineStr">
         <is>
-          <t>Codelco Chile, División Chuquicamata</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F420" t="n">
-        <v>50000</v>
+        <v>250</v>
       </c>
       <c r="G420" t="inlineStr">
         <is>
@@ -20516,12 +20516,12 @@
       </c>
       <c r="H420" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I420" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3118819&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J420" t="inlineStr">
@@ -20536,7 +20536,7 @@
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>Tratamiento de Impurezas en Ánodos y Cátodos de División Codelco Norte (e-seia)</t>
         </is>
       </c>
       <c r="C421" t="inlineStr">
@@ -20546,16 +20546,16 @@
       </c>
       <c r="D421" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E421" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Codelco Chile, División Chuquicamata</t>
         </is>
       </c>
       <c r="F421" t="n">
-        <v>250</v>
+        <v>50000</v>
       </c>
       <c r="G421" t="inlineStr">
         <is>
@@ -20564,12 +20564,12 @@
       </c>
       <c r="H421" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I421" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3118819&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J421" t="inlineStr">
@@ -20680,7 +20680,7 @@
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>Proyecto Exploración Minera Macarena - Leo (e-seia)</t>
         </is>
       </c>
       <c r="C424" t="inlineStr">
@@ -20690,16 +20690,16 @@
       </c>
       <c r="D424" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E424" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Minera Fuego Limitada</t>
         </is>
       </c>
       <c r="F424" t="n">
-        <v>1650</v>
+        <v>150</v>
       </c>
       <c r="G424" t="inlineStr">
         <is>
@@ -20713,7 +20713,7 @@
       </c>
       <c r="I424" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088992&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J424" t="inlineStr">
@@ -20728,7 +20728,7 @@
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>Proyecto Exploración Minera Macarena - Leo (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C425" t="inlineStr">
@@ -20738,16 +20738,16 @@
       </c>
       <c r="D425" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E425" t="inlineStr">
         <is>
-          <t>Minera Fuego Limitada</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F425" t="n">
-        <v>150</v>
+        <v>1650</v>
       </c>
       <c r="G425" t="inlineStr">
         <is>
@@ -20761,7 +20761,7 @@
       </c>
       <c r="I425" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088992&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J425" t="inlineStr">
@@ -23704,26 +23704,26 @@
       </c>
       <c r="B487" t="inlineStr">
         <is>
-          <t>LIXIVIACIÓN DE SULFUROS SULFOLIX</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C487" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D487" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E487" t="inlineStr">
         <is>
-          <t>SOCIEDAD CONTRACTUAL MINERA EL ABRA</t>
+          <t>Empresa de Residuos RESITER S.A.</t>
         </is>
       </c>
       <c r="F487" t="n">
-        <v>343000</v>
+        <v>1</v>
       </c>
       <c r="G487" t="inlineStr">
         <is>
@@ -23737,7 +23737,7 @@
       </c>
       <c r="I487" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2088630&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J487" t="inlineStr">
@@ -23752,26 +23752,26 @@
       </c>
       <c r="B488" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
+          <t>LIXIVIACIÓN DE SULFUROS SULFOLIX</t>
         </is>
       </c>
       <c r="C488" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D488" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E488" t="inlineStr">
         <is>
-          <t>Empresa de Residuos RESITER S.A.</t>
+          <t>SOCIEDAD CONTRACTUAL MINERA EL ABRA</t>
         </is>
       </c>
       <c r="F488" t="n">
-        <v>1</v>
+        <v>343000</v>
       </c>
       <c r="G488" t="inlineStr">
         <is>
@@ -23785,7 +23785,7 @@
       </c>
       <c r="I488" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2088630&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J488" t="inlineStr">

--- a/data/Calama.xlsx
+++ b/data/Calama.xlsx
@@ -4168,7 +4168,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>MODIFICACIONES AL PROYECTO EXTRACCIÓN Y MOVIMIENTO DE MINERALES MINA RADOMIRO TOMIC</t>
+          <t>Parque Fotovoltaico Verano de San Juan I</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4183,11 +4183,11 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Sonnedix Victoria Solar SpA</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>208848</v>
+        <v>15000</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
@@ -4196,12 +4196,12 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138513102&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138522682&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -4216,7 +4216,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Verano de San Juan I</t>
+          <t>Parque Fotovoltaico Verano de San Juan II</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -4231,7 +4231,7 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Sonnedix Victoria Solar SpA</t>
+          <t>Sonnedix Paine Energy SpA</t>
         </is>
       </c>
       <c r="F81" t="n">
@@ -4249,7 +4249,7 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138522682&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138526892&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -4264,7 +4264,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Verano de San Juan II</t>
+          <t>MODIFICACIONES AL PROYECTO EXTRACCIÓN Y MOVIMIENTO DE MINERALES MINA RADOMIRO TOMIC</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4279,11 +4279,11 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Sonnedix Paine Energy SpA</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>15000</v>
+        <v>208848</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
@@ -4292,12 +4292,12 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138526892&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138513102&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -9064,7 +9064,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -9079,11 +9079,11 @@
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F182" t="n">
-        <v>219</v>
+        <v>12500</v>
       </c>
       <c r="G182" t="inlineStr">
         <is>
@@ -9092,12 +9092,12 @@
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556590&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -9112,7 +9112,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -9131,7 +9131,7 @@
         </is>
       </c>
       <c r="F183" t="n">
-        <v>12500</v>
+        <v>10000</v>
       </c>
       <c r="G183" t="inlineStr">
         <is>
@@ -9145,7 +9145,7 @@
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -9160,7 +9160,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -9175,11 +9175,11 @@
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F184" t="n">
-        <v>10000</v>
+        <v>219</v>
       </c>
       <c r="G184" t="inlineStr">
         <is>
@@ -9188,12 +9188,12 @@
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556590&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
@@ -9688,26 +9688,26 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>RT Sulfuros</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F195" t="n">
-        <v>5.4</v>
+        <v>2050</v>
       </c>
       <c r="G195" t="inlineStr">
         <is>
@@ -9716,12 +9716,12 @@
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">
@@ -9736,26 +9736,26 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>RT Sulfuros</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F196" t="n">
-        <v>2050</v>
+        <v>5.4</v>
       </c>
       <c r="G196" t="inlineStr">
         <is>
@@ -9764,12 +9764,12 @@
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
@@ -11176,7 +11176,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Planta Fotovoltaica San Pedro de Atacama IV</t>
+          <t>Procesamiento de Óxidos DMH</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -11191,11 +11191,11 @@
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>GPG Solar Chile 2017 SpA</t>
+          <t>División Ministro Hales de Codelco Chile</t>
         </is>
       </c>
       <c r="F226" t="n">
-        <v>105250</v>
+        <v>70000</v>
       </c>
       <c r="G226" t="inlineStr">
         <is>
@@ -11209,7 +11209,7 @@
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7052315&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7040302&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J226" t="inlineStr">
@@ -11224,7 +11224,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Procesamiento de Óxidos DMH</t>
+          <t>Planta Fotovoltaica San Pedro de Atacama IV</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -11239,11 +11239,11 @@
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>División Ministro Hales de Codelco Chile</t>
+          <t>GPG Solar Chile 2017 SpA</t>
         </is>
       </c>
       <c r="F227" t="n">
-        <v>70000</v>
+        <v>105250</v>
       </c>
       <c r="G227" t="inlineStr">
         <is>
@@ -11257,7 +11257,7 @@
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7040302&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7052315&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
@@ -13336,7 +13336,7 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Eléctrica 220 kv Encuentro - MH</t>
+          <t>Portal del Inca</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
@@ -13351,11 +13351,11 @@
       </c>
       <c r="E271" t="inlineStr">
         <is>
-          <t>División Ministro Hales de Codelco Chile</t>
+          <t>Inmobiliaria Inca Dos Ltda.</t>
         </is>
       </c>
       <c r="F271" t="n">
-        <v>45000</v>
+        <v>13948</v>
       </c>
       <c r="G271" t="inlineStr">
         <is>
@@ -13364,12 +13364,12 @@
       </c>
       <c r="H271" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I271" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5773970&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5787635&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J271" t="inlineStr">
@@ -13384,7 +13384,7 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>Portal del Inca</t>
+          <t>Línea de Transmisión Eléctrica 220 kv Encuentro - MH</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
@@ -13399,11 +13399,11 @@
       </c>
       <c r="E272" t="inlineStr">
         <is>
-          <t>Inmobiliaria Inca Dos Ltda.</t>
+          <t>División Ministro Hales de Codelco Chile</t>
         </is>
       </c>
       <c r="F272" t="n">
-        <v>13948</v>
+        <v>45000</v>
       </c>
       <c r="G272" t="inlineStr">
         <is>
@@ -13412,12 +13412,12 @@
       </c>
       <c r="H272" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I272" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5787635&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5773970&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J272" t="inlineStr">
@@ -14152,7 +14152,7 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
@@ -14167,11 +14167,11 @@
       </c>
       <c r="E288" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F288" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G288" t="inlineStr">
         <is>
@@ -14180,12 +14180,12 @@
       </c>
       <c r="H288" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I288" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J288" t="inlineStr">
@@ -14200,7 +14200,7 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
@@ -14215,11 +14215,11 @@
       </c>
       <c r="E289" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F289" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G289" t="inlineStr">
         <is>
@@ -14228,12 +14228,12 @@
       </c>
       <c r="H289" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I289" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J289" t="inlineStr">
@@ -16024,7 +16024,7 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
+          <t>Modificación de la DIA de Ampliación y Desarrollo de Faenas Mineras en Tuina</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
@@ -16034,16 +16034,16 @@
       </c>
       <c r="D327" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E327" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Explotadora Minera del Cerro S.A</t>
         </is>
       </c>
       <c r="F327" t="n">
-        <v>4050</v>
+        <v>1000</v>
       </c>
       <c r="G327" t="inlineStr">
         <is>
@@ -16052,12 +16052,12 @@
       </c>
       <c r="H327" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I327" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550686&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J327" t="inlineStr">
@@ -16072,7 +16072,7 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>Modificación de la DIA de Ampliación y Desarrollo de Faenas Mineras en Tuina</t>
+          <t>Modificación Proyecto Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
@@ -16082,16 +16082,16 @@
       </c>
       <c r="D328" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E328" t="inlineStr">
         <is>
-          <t>Explotadora Minera del Cerro S.A</t>
+          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
         </is>
       </c>
       <c r="F328" t="n">
-        <v>1000</v>
+        <v>4000</v>
       </c>
       <c r="G328" t="inlineStr">
         <is>
@@ -16105,7 +16105,7 @@
       </c>
       <c r="I328" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550686&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4555621&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J328" t="inlineStr">
@@ -16120,7 +16120,7 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
+          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
@@ -16135,11 +16135,11 @@
       </c>
       <c r="E329" t="inlineStr">
         <is>
-          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F329" t="n">
-        <v>4000</v>
+        <v>4050</v>
       </c>
       <c r="G329" t="inlineStr">
         <is>
@@ -16148,12 +16148,12 @@
       </c>
       <c r="H329" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I329" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4555621&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J329" t="inlineStr">
@@ -18712,7 +18712,7 @@
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>Sondajes Prospección Ingeniería de Detalles Explotación Subterránea Yacimiento Chuquicamata (e-seia)</t>
+          <t>Planta de Tratamiento de Efluentes Hospital del Cobre (e-seia)</t>
         </is>
       </c>
       <c r="C383" t="inlineStr">
@@ -18731,7 +18731,7 @@
         </is>
       </c>
       <c r="F383" t="n">
-        <v>83584</v>
+        <v>200</v>
       </c>
       <c r="G383" t="inlineStr">
         <is>
@@ -18745,7 +18745,7 @@
       </c>
       <c r="I383" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3737660&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3826608&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J383" t="inlineStr">
@@ -18760,7 +18760,7 @@
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Efluentes Hospital del Cobre (e-seia)</t>
+          <t>Sondajes Prospección Ingeniería de Detalles Explotación Subterránea Yacimiento Chuquicamata (e-seia)</t>
         </is>
       </c>
       <c r="C384" t="inlineStr">
@@ -18779,7 +18779,7 @@
         </is>
       </c>
       <c r="F384" t="n">
-        <v>200</v>
+        <v>83584</v>
       </c>
       <c r="G384" t="inlineStr">
         <is>
@@ -18793,7 +18793,7 @@
       </c>
       <c r="I384" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3826608&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3737660&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J384" t="inlineStr">
@@ -20008,7 +20008,7 @@
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Proyecto Explotación Subterránea Mina Santa Rosa (e-seia)</t>
         </is>
       </c>
       <c r="C410" t="inlineStr">
@@ -20018,16 +20018,16 @@
       </c>
       <c r="D410" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E410" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Minera Quimal.S.A.</t>
         </is>
       </c>
       <c r="F410" t="n">
-        <v>1750</v>
+        <v>500</v>
       </c>
       <c r="G410" t="inlineStr">
         <is>
@@ -20036,12 +20036,12 @@
       </c>
       <c r="H410" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I410" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3310659&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J410" t="inlineStr">
@@ -20056,7 +20056,7 @@
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>Proyecto Explotación Subterránea Mina Santa Rosa (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C411" t="inlineStr">
@@ -20066,16 +20066,16 @@
       </c>
       <c r="D411" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E411" t="inlineStr">
         <is>
-          <t>Minera Quimal.S.A.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F411" t="n">
-        <v>500</v>
+        <v>1750</v>
       </c>
       <c r="G411" t="inlineStr">
         <is>
@@ -20084,12 +20084,12 @@
       </c>
       <c r="H411" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I411" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3310659&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J411" t="inlineStr">
@@ -20536,7 +20536,7 @@
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>Tratamiento de Impurezas en Ánodos y Cátodos de División Codelco Norte (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C421" t="inlineStr">
@@ -20546,16 +20546,16 @@
       </c>
       <c r="D421" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E421" t="inlineStr">
         <is>
-          <t>Codelco Chile, División Chuquicamata</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F421" t="n">
-        <v>50000</v>
+        <v>250</v>
       </c>
       <c r="G421" t="inlineStr">
         <is>
@@ -20564,12 +20564,12 @@
       </c>
       <c r="H421" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I421" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3118819&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J421" t="inlineStr">
@@ -20584,7 +20584,7 @@
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>Tratamiento de Impurezas en Ánodos y Cátodos de División Codelco Norte (e-seia)</t>
         </is>
       </c>
       <c r="C422" t="inlineStr">
@@ -20594,16 +20594,16 @@
       </c>
       <c r="D422" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E422" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Codelco Chile, División Chuquicamata</t>
         </is>
       </c>
       <c r="F422" t="n">
-        <v>250</v>
+        <v>50000</v>
       </c>
       <c r="G422" t="inlineStr">
         <is>
@@ -20612,12 +20612,12 @@
       </c>
       <c r="H422" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I422" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3118819&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J422" t="inlineStr">
@@ -20728,7 +20728,7 @@
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>Proyecto Exploración Minera Macarena - Leo (e-seia)</t>
         </is>
       </c>
       <c r="C425" t="inlineStr">
@@ -20738,16 +20738,16 @@
       </c>
       <c r="D425" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E425" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Minera Fuego Limitada</t>
         </is>
       </c>
       <c r="F425" t="n">
-        <v>1650</v>
+        <v>150</v>
       </c>
       <c r="G425" t="inlineStr">
         <is>
@@ -20761,7 +20761,7 @@
       </c>
       <c r="I425" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088992&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J425" t="inlineStr">
@@ -20776,7 +20776,7 @@
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>Proyecto Exploración Minera Macarena - Leo (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C426" t="inlineStr">
@@ -20786,16 +20786,16 @@
       </c>
       <c r="D426" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E426" t="inlineStr">
         <is>
-          <t>Minera Fuego Limitada</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F426" t="n">
-        <v>150</v>
+        <v>1650</v>
       </c>
       <c r="G426" t="inlineStr">
         <is>
@@ -20809,7 +20809,7 @@
       </c>
       <c r="I426" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088992&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J426" t="inlineStr">
@@ -23752,26 +23752,26 @@
       </c>
       <c r="B488" t="inlineStr">
         <is>
-          <t>LIXIVIACIÓN DE SULFUROS SULFOLIX</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C488" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D488" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E488" t="inlineStr">
         <is>
-          <t>SOCIEDAD CONTRACTUAL MINERA EL ABRA</t>
+          <t>Empresa de Residuos RESITER S.A.</t>
         </is>
       </c>
       <c r="F488" t="n">
-        <v>343000</v>
+        <v>1</v>
       </c>
       <c r="G488" t="inlineStr">
         <is>
@@ -23785,7 +23785,7 @@
       </c>
       <c r="I488" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2088630&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J488" t="inlineStr">
@@ -23800,26 +23800,26 @@
       </c>
       <c r="B489" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
+          <t>LIXIVIACIÓN DE SULFUROS SULFOLIX</t>
         </is>
       </c>
       <c r="C489" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D489" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E489" t="inlineStr">
         <is>
-          <t>Empresa de Residuos RESITER S.A.</t>
+          <t>SOCIEDAD CONTRACTUAL MINERA EL ABRA</t>
         </is>
       </c>
       <c r="F489" t="n">
-        <v>1</v>
+        <v>343000</v>
       </c>
       <c r="G489" t="inlineStr">
         <is>
@@ -23833,7 +23833,7 @@
       </c>
       <c r="I489" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2088630&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J489" t="inlineStr">

--- a/data/Calama.xlsx
+++ b/data/Calama.xlsx
@@ -4168,7 +4168,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Verano de San Juan I</t>
+          <t>MODIFICACIONES AL PROYECTO EXTRACCIÓN Y MOVIMIENTO DE MINERALES MINA RADOMIRO TOMIC</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4183,11 +4183,11 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Sonnedix Victoria Solar SpA</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>15000</v>
+        <v>208848</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
@@ -4196,12 +4196,12 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138522682&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138513102&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -4216,7 +4216,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Verano de San Juan II</t>
+          <t>Parque Fotovoltaico Verano de San Juan I</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -4231,7 +4231,7 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Sonnedix Paine Energy SpA</t>
+          <t>Sonnedix Victoria Solar SpA</t>
         </is>
       </c>
       <c r="F81" t="n">
@@ -4249,7 +4249,7 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138526892&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138522682&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -4264,7 +4264,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>MODIFICACIONES AL PROYECTO EXTRACCIÓN Y MOVIMIENTO DE MINERALES MINA RADOMIRO TOMIC</t>
+          <t>Parque Fotovoltaico Verano de San Juan II</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4279,11 +4279,11 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Sonnedix Paine Energy SpA</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>208848</v>
+        <v>15000</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
@@ -4292,12 +4292,12 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138513102&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138526892&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -9064,7 +9064,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -9079,11 +9079,11 @@
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F182" t="n">
-        <v>12500</v>
+        <v>219</v>
       </c>
       <c r="G182" t="inlineStr">
         <is>
@@ -9092,12 +9092,12 @@
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556590&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -9112,7 +9112,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
+          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -9131,7 +9131,7 @@
         </is>
       </c>
       <c r="F183" t="n">
-        <v>10000</v>
+        <v>12500</v>
       </c>
       <c r="G183" t="inlineStr">
         <is>
@@ -9145,7 +9145,7 @@
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -9160,7 +9160,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -9175,11 +9175,11 @@
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F184" t="n">
-        <v>219</v>
+        <v>10000</v>
       </c>
       <c r="G184" t="inlineStr">
         <is>
@@ -9188,12 +9188,12 @@
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556590&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
@@ -9688,26 +9688,26 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>RT Sulfuros</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F195" t="n">
-        <v>2050</v>
+        <v>5.4</v>
       </c>
       <c r="G195" t="inlineStr">
         <is>
@@ -9716,12 +9716,12 @@
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">
@@ -9736,26 +9736,26 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>RT Sulfuros</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F196" t="n">
-        <v>5.4</v>
+        <v>2050</v>
       </c>
       <c r="G196" t="inlineStr">
         <is>
@@ -9764,12 +9764,12 @@
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
@@ -11176,7 +11176,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Procesamiento de Óxidos DMH</t>
+          <t>Planta Fotovoltaica San Pedro de Atacama IV</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -11191,11 +11191,11 @@
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>División Ministro Hales de Codelco Chile</t>
+          <t>GPG Solar Chile 2017 SpA</t>
         </is>
       </c>
       <c r="F226" t="n">
-        <v>70000</v>
+        <v>105250</v>
       </c>
       <c r="G226" t="inlineStr">
         <is>
@@ -11209,7 +11209,7 @@
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7040302&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7052315&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J226" t="inlineStr">
@@ -11224,7 +11224,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Planta Fotovoltaica San Pedro de Atacama IV</t>
+          <t>Procesamiento de Óxidos DMH</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -11239,11 +11239,11 @@
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>GPG Solar Chile 2017 SpA</t>
+          <t>División Ministro Hales de Codelco Chile</t>
         </is>
       </c>
       <c r="F227" t="n">
-        <v>105250</v>
+        <v>70000</v>
       </c>
       <c r="G227" t="inlineStr">
         <is>
@@ -11257,7 +11257,7 @@
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7052315&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7040302&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
@@ -13336,7 +13336,7 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>Portal del Inca</t>
+          <t>Línea de Transmisión Eléctrica 220 kv Encuentro - MH</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
@@ -13351,11 +13351,11 @@
       </c>
       <c r="E271" t="inlineStr">
         <is>
-          <t>Inmobiliaria Inca Dos Ltda.</t>
+          <t>División Ministro Hales de Codelco Chile</t>
         </is>
       </c>
       <c r="F271" t="n">
-        <v>13948</v>
+        <v>45000</v>
       </c>
       <c r="G271" t="inlineStr">
         <is>
@@ -13364,12 +13364,12 @@
       </c>
       <c r="H271" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I271" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5787635&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5773970&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J271" t="inlineStr">
@@ -13384,7 +13384,7 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Eléctrica 220 kv Encuentro - MH</t>
+          <t>Portal del Inca</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
@@ -13399,11 +13399,11 @@
       </c>
       <c r="E272" t="inlineStr">
         <is>
-          <t>División Ministro Hales de Codelco Chile</t>
+          <t>Inmobiliaria Inca Dos Ltda.</t>
         </is>
       </c>
       <c r="F272" t="n">
-        <v>45000</v>
+        <v>13948</v>
       </c>
       <c r="G272" t="inlineStr">
         <is>
@@ -13412,12 +13412,12 @@
       </c>
       <c r="H272" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I272" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5773970&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5787635&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J272" t="inlineStr">
@@ -14152,7 +14152,7 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
@@ -14167,11 +14167,11 @@
       </c>
       <c r="E288" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F288" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G288" t="inlineStr">
         <is>
@@ -14180,12 +14180,12 @@
       </c>
       <c r="H288" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I288" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J288" t="inlineStr">
@@ -14200,7 +14200,7 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
@@ -14215,11 +14215,11 @@
       </c>
       <c r="E289" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F289" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G289" t="inlineStr">
         <is>
@@ -14228,12 +14228,12 @@
       </c>
       <c r="H289" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I289" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J289" t="inlineStr">
@@ -16024,7 +16024,7 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>Modificación de la DIA de Ampliación y Desarrollo de Faenas Mineras en Tuina</t>
+          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
@@ -16034,16 +16034,16 @@
       </c>
       <c r="D327" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E327" t="inlineStr">
         <is>
-          <t>Explotadora Minera del Cerro S.A</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F327" t="n">
-        <v>1000</v>
+        <v>4050</v>
       </c>
       <c r="G327" t="inlineStr">
         <is>
@@ -16052,12 +16052,12 @@
       </c>
       <c r="H327" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I327" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550686&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J327" t="inlineStr">
@@ -16072,7 +16072,7 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
+          <t>Modificación de la DIA de Ampliación y Desarrollo de Faenas Mineras en Tuina</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
@@ -16082,16 +16082,16 @@
       </c>
       <c r="D328" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E328" t="inlineStr">
         <is>
-          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
+          <t>Explotadora Minera del Cerro S.A</t>
         </is>
       </c>
       <c r="F328" t="n">
-        <v>4000</v>
+        <v>1000</v>
       </c>
       <c r="G328" t="inlineStr">
         <is>
@@ -16105,7 +16105,7 @@
       </c>
       <c r="I328" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4555621&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550686&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J328" t="inlineStr">
@@ -16120,7 +16120,7 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
+          <t>Modificación Proyecto Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
@@ -16135,11 +16135,11 @@
       </c>
       <c r="E329" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
         </is>
       </c>
       <c r="F329" t="n">
-        <v>4050</v>
+        <v>4000</v>
       </c>
       <c r="G329" t="inlineStr">
         <is>
@@ -16148,12 +16148,12 @@
       </c>
       <c r="H329" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I329" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4555621&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J329" t="inlineStr">
@@ -18712,7 +18712,7 @@
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Efluentes Hospital del Cobre (e-seia)</t>
+          <t>Sondajes Prospección Ingeniería de Detalles Explotación Subterránea Yacimiento Chuquicamata (e-seia)</t>
         </is>
       </c>
       <c r="C383" t="inlineStr">
@@ -18731,7 +18731,7 @@
         </is>
       </c>
       <c r="F383" t="n">
-        <v>200</v>
+        <v>83584</v>
       </c>
       <c r="G383" t="inlineStr">
         <is>
@@ -18745,7 +18745,7 @@
       </c>
       <c r="I383" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3826608&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3737660&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J383" t="inlineStr">
@@ -18760,7 +18760,7 @@
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>Sondajes Prospección Ingeniería de Detalles Explotación Subterránea Yacimiento Chuquicamata (e-seia)</t>
+          <t>Planta de Tratamiento de Efluentes Hospital del Cobre (e-seia)</t>
         </is>
       </c>
       <c r="C384" t="inlineStr">
@@ -18779,7 +18779,7 @@
         </is>
       </c>
       <c r="F384" t="n">
-        <v>83584</v>
+        <v>200</v>
       </c>
       <c r="G384" t="inlineStr">
         <is>
@@ -18793,7 +18793,7 @@
       </c>
       <c r="I384" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3737660&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3826608&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J384" t="inlineStr">
@@ -20008,7 +20008,7 @@
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>Proyecto Explotación Subterránea Mina Santa Rosa (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C410" t="inlineStr">
@@ -20018,16 +20018,16 @@
       </c>
       <c r="D410" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E410" t="inlineStr">
         <is>
-          <t>Minera Quimal.S.A.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F410" t="n">
-        <v>500</v>
+        <v>1750</v>
       </c>
       <c r="G410" t="inlineStr">
         <is>
@@ -20036,12 +20036,12 @@
       </c>
       <c r="H410" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I410" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3310659&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J410" t="inlineStr">
@@ -20056,7 +20056,7 @@
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Proyecto Explotación Subterránea Mina Santa Rosa (e-seia)</t>
         </is>
       </c>
       <c r="C411" t="inlineStr">
@@ -20066,16 +20066,16 @@
       </c>
       <c r="D411" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E411" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Minera Quimal.S.A.</t>
         </is>
       </c>
       <c r="F411" t="n">
-        <v>1750</v>
+        <v>500</v>
       </c>
       <c r="G411" t="inlineStr">
         <is>
@@ -20084,12 +20084,12 @@
       </c>
       <c r="H411" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I411" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3310659&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J411" t="inlineStr">
@@ -20536,7 +20536,7 @@
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>Tratamiento de Impurezas en Ánodos y Cátodos de División Codelco Norte (e-seia)</t>
         </is>
       </c>
       <c r="C421" t="inlineStr">
@@ -20546,16 +20546,16 @@
       </c>
       <c r="D421" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E421" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Codelco Chile, División Chuquicamata</t>
         </is>
       </c>
       <c r="F421" t="n">
-        <v>250</v>
+        <v>50000</v>
       </c>
       <c r="G421" t="inlineStr">
         <is>
@@ -20564,12 +20564,12 @@
       </c>
       <c r="H421" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I421" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3118819&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J421" t="inlineStr">
@@ -20584,7 +20584,7 @@
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>Tratamiento de Impurezas en Ánodos y Cátodos de División Codelco Norte (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C422" t="inlineStr">
@@ -20594,16 +20594,16 @@
       </c>
       <c r="D422" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E422" t="inlineStr">
         <is>
-          <t>Codelco Chile, División Chuquicamata</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F422" t="n">
-        <v>50000</v>
+        <v>250</v>
       </c>
       <c r="G422" t="inlineStr">
         <is>
@@ -20612,12 +20612,12 @@
       </c>
       <c r="H422" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I422" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3118819&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J422" t="inlineStr">
@@ -20728,7 +20728,7 @@
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>Proyecto Exploración Minera Macarena - Leo (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C425" t="inlineStr">
@@ -20738,16 +20738,16 @@
       </c>
       <c r="D425" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E425" t="inlineStr">
         <is>
-          <t>Minera Fuego Limitada</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F425" t="n">
-        <v>150</v>
+        <v>1650</v>
       </c>
       <c r="G425" t="inlineStr">
         <is>
@@ -20761,7 +20761,7 @@
       </c>
       <c r="I425" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088992&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J425" t="inlineStr">
@@ -20776,7 +20776,7 @@
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>Proyecto Exploración Minera Macarena - Leo (e-seia)</t>
         </is>
       </c>
       <c r="C426" t="inlineStr">
@@ -20786,16 +20786,16 @@
       </c>
       <c r="D426" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E426" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Minera Fuego Limitada</t>
         </is>
       </c>
       <c r="F426" t="n">
-        <v>1650</v>
+        <v>150</v>
       </c>
       <c r="G426" t="inlineStr">
         <is>
@@ -20809,7 +20809,7 @@
       </c>
       <c r="I426" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088992&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J426" t="inlineStr">
@@ -23752,26 +23752,26 @@
       </c>
       <c r="B488" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
+          <t>LIXIVIACIÓN DE SULFUROS SULFOLIX</t>
         </is>
       </c>
       <c r="C488" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D488" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E488" t="inlineStr">
         <is>
-          <t>Empresa de Residuos RESITER S.A.</t>
+          <t>SOCIEDAD CONTRACTUAL MINERA EL ABRA</t>
         </is>
       </c>
       <c r="F488" t="n">
-        <v>1</v>
+        <v>343000</v>
       </c>
       <c r="G488" t="inlineStr">
         <is>
@@ -23785,7 +23785,7 @@
       </c>
       <c r="I488" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2088630&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J488" t="inlineStr">
@@ -23800,26 +23800,26 @@
       </c>
       <c r="B489" t="inlineStr">
         <is>
-          <t>LIXIVIACIÓN DE SULFUROS SULFOLIX</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C489" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D489" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E489" t="inlineStr">
         <is>
-          <t>SOCIEDAD CONTRACTUAL MINERA EL ABRA</t>
+          <t>Empresa de Residuos RESITER S.A.</t>
         </is>
       </c>
       <c r="F489" t="n">
-        <v>343000</v>
+        <v>1</v>
       </c>
       <c r="G489" t="inlineStr">
         <is>
@@ -23833,7 +23833,7 @@
       </c>
       <c r="I489" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2088630&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J489" t="inlineStr">

--- a/data/Calama.xlsx
+++ b/data/Calama.xlsx
@@ -424,40 +424,40 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Eléctrica HVDC Kimal - Lo Aguirre</t>
+          <t>Ampliación de Zona de Extracción en Pozo Lastrero 2</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Conexión Kimal Lo Aguirre S.A</t>
+          <t>Aridos Arenex Ltda</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.48</v>
+        <v>500</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>23/10/2023</t>
+          <t>26/10/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2160211381&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2160304431&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,30 +472,30 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ampliación de Zona de Extracción en Pozo Lastrero 2</t>
+          <t>Línea de Transmisión Eléctrica HVDC Kimal - Lo Aguirre</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Aridos Arenex Ltda</t>
+          <t>Conexión Kimal Lo Aguirre S.A</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>500</v>
+        <v>1.48</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>20/10/2023</t>
+          <t>23/10/2023</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -505,7 +505,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2160304431&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2160211381&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">

--- a/data/Calama.xlsx
+++ b/data/Calama.xlsx
@@ -424,30 +424,30 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ampliación de Zona de Extracción en Pozo Lastrero 2</t>
+          <t>Línea de Transmisión Eléctrica HVDC Kimal - Lo Aguirre</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Aridos Arenex Ltda</t>
+          <t>Conexión Kimal Lo Aguirre S.A</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>500</v>
+        <v>1.48</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>26/10/2023</t>
+          <t>31/10/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -457,7 +457,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2160304431&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2160211381&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,40 +472,40 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Eléctrica HVDC Kimal - Lo Aguirre</t>
+          <t>Ampliación de Zona de Extracción en Pozo Lastrero 2</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Conexión Kimal Lo Aguirre S.A</t>
+          <t>Aridos Arenex Ltda</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.48</v>
+        <v>500</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>23/10/2023</t>
+          <t>26/10/2023</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2160211381&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2160304431&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">

--- a/data/Calama.xlsx
+++ b/data/Calama.xlsx
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Obras Complementarias y Ajustes Operacionales Mina Chuquicamata Subterránea</t>
+          <t>Modificación Línea de Transmisión 2 X 220 kV Crucero - El Abra</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -439,25 +439,25 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Codelco Chile, División Chuquicamata</t>
+          <t>Engie Energía Chile S.A.</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>720000</v>
+        <v>15000</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>17/11/2023</t>
+          <t>21/11/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2160526080&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2160461467&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Modificación Línea de Transmisión 2 X 220 kV Crucero - El Abra</t>
+          <t>Obras Complementarias y Ajustes Operacionales Mina Chuquicamata Subterránea</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -487,11 +487,11 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Engie Energía Chile S.A.</t>
+          <t>Codelco Chile, División Chuquicamata</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>15000</v>
+        <v>720000</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -505,7 +505,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2160461467&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2160526080&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">

--- a/data/Calama.xlsx
+++ b/data/Calama.xlsx
@@ -4264,7 +4264,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>MODIFICACIONES AL PROYECTO EXTRACCIÓN Y MOVIMIENTO DE MINERALES MINA RADOMIRO TOMIC</t>
+          <t>Parque Fotovoltaico Verano de San Juan I</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4279,11 +4279,11 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Sonnedix Victoria Solar SpA</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>208848</v>
+        <v>15000</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
@@ -4292,12 +4292,12 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138513102&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138522682&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -4312,7 +4312,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Verano de San Juan I</t>
+          <t>Parque Fotovoltaico Verano de San Juan II</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4327,7 +4327,7 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Sonnedix Victoria Solar SpA</t>
+          <t>Sonnedix Paine Energy SpA</t>
         </is>
       </c>
       <c r="F83" t="n">
@@ -4345,7 +4345,7 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138522682&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138526892&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4360,7 +4360,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Verano de San Juan II</t>
+          <t>MODIFICACIONES AL PROYECTO EXTRACCIÓN Y MOVIMIENTO DE MINERALES MINA RADOMIRO TOMIC</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4375,11 +4375,11 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Sonnedix Paine Energy SpA</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>15000</v>
+        <v>208848</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
@@ -4388,12 +4388,12 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138526892&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138513102&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -8296,7 +8296,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>BARRIO CONTRATISTA GERENCIA DE PROYECTOS</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -8306,16 +8306,16 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>Codelco Chile, División Chuquicamata</t>
         </is>
       </c>
       <c r="F166" t="n">
-        <v>1200</v>
+        <v>8000</v>
       </c>
       <c r="G166" t="inlineStr">
         <is>
@@ -8329,7 +8329,7 @@
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128904823&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
@@ -8344,7 +8344,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Proyecto Fotovoltaico Azabache</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -8354,16 +8354,16 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>Enel Green Power Chile S.A.</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F167" t="n">
-        <v>140000</v>
+        <v>1200</v>
       </c>
       <c r="G167" t="inlineStr">
         <is>
@@ -8377,7 +8377,7 @@
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128969457&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
@@ -8392,7 +8392,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Proyecto Fotovoltaico Azabache</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -8402,16 +8402,16 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Enel Green Power Chile S.A.</t>
         </is>
       </c>
       <c r="F168" t="n">
-        <v>0</v>
+        <v>140000</v>
       </c>
       <c r="G168" t="inlineStr">
         <is>
@@ -8425,7 +8425,7 @@
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128969457&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
@@ -8440,7 +8440,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>BARRIO CONTRATISTA GERENCIA DE PROYECTOS</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -8450,16 +8450,16 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>Codelco Chile, División Chuquicamata</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F169" t="n">
-        <v>8000</v>
+        <v>0</v>
       </c>
       <c r="G169" t="inlineStr">
         <is>
@@ -8473,7 +8473,7 @@
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128904823&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
@@ -9160,7 +9160,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -9175,11 +9175,11 @@
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F184" t="n">
-        <v>219</v>
+        <v>12500</v>
       </c>
       <c r="G184" t="inlineStr">
         <is>
@@ -9188,12 +9188,12 @@
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556590&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
@@ -9208,7 +9208,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -9227,7 +9227,7 @@
         </is>
       </c>
       <c r="F185" t="n">
-        <v>12500</v>
+        <v>10000</v>
       </c>
       <c r="G185" t="inlineStr">
         <is>
@@ -9241,7 +9241,7 @@
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -9256,7 +9256,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -9271,11 +9271,11 @@
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F186" t="n">
-        <v>10000</v>
+        <v>219</v>
       </c>
       <c r="G186" t="inlineStr">
         <is>
@@ -9284,12 +9284,12 @@
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556590&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
@@ -9784,26 +9784,26 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>RT Sulfuros</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F197" t="n">
-        <v>5.4</v>
+        <v>2050</v>
       </c>
       <c r="G197" t="inlineStr">
         <is>
@@ -9812,12 +9812,12 @@
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
@@ -9832,26 +9832,26 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>RT Sulfuros</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F198" t="n">
-        <v>2050</v>
+        <v>5.4</v>
       </c>
       <c r="G198" t="inlineStr">
         <is>
@@ -9860,12 +9860,12 @@
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
@@ -11272,7 +11272,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Planta Fotovoltaica San Pedro de Atacama IV</t>
+          <t>Procesamiento de Óxidos DMH</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -11287,11 +11287,11 @@
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>GPG Solar Chile 2017 SpA</t>
+          <t>División Ministro Hales de Codelco Chile</t>
         </is>
       </c>
       <c r="F228" t="n">
-        <v>105250</v>
+        <v>70000</v>
       </c>
       <c r="G228" t="inlineStr">
         <is>
@@ -11305,7 +11305,7 @@
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7052315&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7040302&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
@@ -11320,7 +11320,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Procesamiento de Óxidos DMH</t>
+          <t>Planta Fotovoltaica San Pedro de Atacama IV</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -11335,11 +11335,11 @@
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>División Ministro Hales de Codelco Chile</t>
+          <t>GPG Solar Chile 2017 SpA</t>
         </is>
       </c>
       <c r="F229" t="n">
-        <v>70000</v>
+        <v>105250</v>
       </c>
       <c r="G229" t="inlineStr">
         <is>
@@ -11353,7 +11353,7 @@
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7040302&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7052315&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J229" t="inlineStr">
@@ -13432,7 +13432,7 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Eléctrica 220 kv Encuentro - MH</t>
+          <t>Portal del Inca</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
@@ -13447,11 +13447,11 @@
       </c>
       <c r="E273" t="inlineStr">
         <is>
-          <t>División Ministro Hales de Codelco Chile</t>
+          <t>Inmobiliaria Inca Dos Ltda.</t>
         </is>
       </c>
       <c r="F273" t="n">
-        <v>45000</v>
+        <v>13948</v>
       </c>
       <c r="G273" t="inlineStr">
         <is>
@@ -13460,12 +13460,12 @@
       </c>
       <c r="H273" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I273" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5773970&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5787635&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J273" t="inlineStr">
@@ -13480,7 +13480,7 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>Portal del Inca</t>
+          <t>Línea de Transmisión Eléctrica 220 kv Encuentro - MH</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
@@ -13495,11 +13495,11 @@
       </c>
       <c r="E274" t="inlineStr">
         <is>
-          <t>Inmobiliaria Inca Dos Ltda.</t>
+          <t>División Ministro Hales de Codelco Chile</t>
         </is>
       </c>
       <c r="F274" t="n">
-        <v>13948</v>
+        <v>45000</v>
       </c>
       <c r="G274" t="inlineStr">
         <is>
@@ -13508,12 +13508,12 @@
       </c>
       <c r="H274" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I274" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5787635&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5773970&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J274" t="inlineStr">
@@ -14248,7 +14248,7 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
@@ -14263,11 +14263,11 @@
       </c>
       <c r="E290" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F290" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G290" t="inlineStr">
         <is>
@@ -14276,12 +14276,12 @@
       </c>
       <c r="H290" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I290" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J290" t="inlineStr">
@@ -14296,7 +14296,7 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
@@ -14311,11 +14311,11 @@
       </c>
       <c r="E291" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F291" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G291" t="inlineStr">
         <is>
@@ -14324,12 +14324,12 @@
       </c>
       <c r="H291" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I291" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J291" t="inlineStr">
@@ -16120,7 +16120,7 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
+          <t>Modificación de la DIA de Ampliación y Desarrollo de Faenas Mineras en Tuina</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
@@ -16130,16 +16130,16 @@
       </c>
       <c r="D329" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E329" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Explotadora Minera del Cerro S.A</t>
         </is>
       </c>
       <c r="F329" t="n">
-        <v>4050</v>
+        <v>1000</v>
       </c>
       <c r="G329" t="inlineStr">
         <is>
@@ -16148,12 +16148,12 @@
       </c>
       <c r="H329" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I329" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550686&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J329" t="inlineStr">
@@ -16168,7 +16168,7 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>Modificación de la DIA de Ampliación y Desarrollo de Faenas Mineras en Tuina</t>
+          <t>Modificación Proyecto Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
@@ -16178,16 +16178,16 @@
       </c>
       <c r="D330" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E330" t="inlineStr">
         <is>
-          <t>Explotadora Minera del Cerro S.A</t>
+          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
         </is>
       </c>
       <c r="F330" t="n">
-        <v>1000</v>
+        <v>4000</v>
       </c>
       <c r="G330" t="inlineStr">
         <is>
@@ -16201,7 +16201,7 @@
       </c>
       <c r="I330" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550686&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4555621&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J330" t="inlineStr">
@@ -16216,7 +16216,7 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
+          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
         </is>
       </c>
       <c r="C331" t="inlineStr">
@@ -16231,11 +16231,11 @@
       </c>
       <c r="E331" t="inlineStr">
         <is>
-          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F331" t="n">
-        <v>4000</v>
+        <v>4050</v>
       </c>
       <c r="G331" t="inlineStr">
         <is>
@@ -16244,12 +16244,12 @@
       </c>
       <c r="H331" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I331" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4555621&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J331" t="inlineStr">
@@ -20104,7 +20104,7 @@
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Proyecto Explotación Subterránea Mina Santa Rosa (e-seia)</t>
         </is>
       </c>
       <c r="C412" t="inlineStr">
@@ -20114,16 +20114,16 @@
       </c>
       <c r="D412" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E412" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Minera Quimal.S.A.</t>
         </is>
       </c>
       <c r="F412" t="n">
-        <v>1750</v>
+        <v>500</v>
       </c>
       <c r="G412" t="inlineStr">
         <is>
@@ -20132,12 +20132,12 @@
       </c>
       <c r="H412" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I412" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3310659&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J412" t="inlineStr">
@@ -20152,7 +20152,7 @@
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>Proyecto Explotación Subterránea Mina Santa Rosa (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C413" t="inlineStr">
@@ -20162,16 +20162,16 @@
       </c>
       <c r="D413" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E413" t="inlineStr">
         <is>
-          <t>Minera Quimal.S.A.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F413" t="n">
-        <v>500</v>
+        <v>1750</v>
       </c>
       <c r="G413" t="inlineStr">
         <is>
@@ -20180,12 +20180,12 @@
       </c>
       <c r="H413" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I413" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3310659&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J413" t="inlineStr">
@@ -20632,7 +20632,7 @@
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>Tratamiento de Impurezas en Ánodos y Cátodos de División Codelco Norte (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C423" t="inlineStr">
@@ -20642,16 +20642,16 @@
       </c>
       <c r="D423" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E423" t="inlineStr">
         <is>
-          <t>Codelco Chile, División Chuquicamata</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F423" t="n">
-        <v>50000</v>
+        <v>250</v>
       </c>
       <c r="G423" t="inlineStr">
         <is>
@@ -20660,12 +20660,12 @@
       </c>
       <c r="H423" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I423" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3118819&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J423" t="inlineStr">
@@ -20680,7 +20680,7 @@
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>Tratamiento de Impurezas en Ánodos y Cátodos de División Codelco Norte (e-seia)</t>
         </is>
       </c>
       <c r="C424" t="inlineStr">
@@ -20690,16 +20690,16 @@
       </c>
       <c r="D424" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E424" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Codelco Chile, División Chuquicamata</t>
         </is>
       </c>
       <c r="F424" t="n">
-        <v>250</v>
+        <v>50000</v>
       </c>
       <c r="G424" t="inlineStr">
         <is>
@@ -20708,12 +20708,12 @@
       </c>
       <c r="H424" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I424" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3118819&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J424" t="inlineStr">
@@ -23848,26 +23848,26 @@
       </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t>LIXIVIACIÓN DE SULFUROS SULFOLIX</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C490" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D490" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E490" t="inlineStr">
         <is>
-          <t>SOCIEDAD CONTRACTUAL MINERA EL ABRA</t>
+          <t>Empresa de Residuos RESITER S.A.</t>
         </is>
       </c>
       <c r="F490" t="n">
-        <v>343000</v>
+        <v>1</v>
       </c>
       <c r="G490" t="inlineStr">
         <is>
@@ -23881,7 +23881,7 @@
       </c>
       <c r="I490" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2088630&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J490" t="inlineStr">
@@ -23896,26 +23896,26 @@
       </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
+          <t>LIXIVIACIÓN DE SULFUROS SULFOLIX</t>
         </is>
       </c>
       <c r="C491" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D491" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E491" t="inlineStr">
         <is>
-          <t>Empresa de Residuos RESITER S.A.</t>
+          <t>SOCIEDAD CONTRACTUAL MINERA EL ABRA</t>
         </is>
       </c>
       <c r="F491" t="n">
-        <v>1</v>
+        <v>343000</v>
       </c>
       <c r="G491" t="inlineStr">
         <is>
@@ -23929,7 +23929,7 @@
       </c>
       <c r="I491" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2088630&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J491" t="inlineStr">

--- a/data/Calama.xlsx
+++ b/data/Calama.xlsx
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Modificación Línea de Transmisión 2 X 220 kV Crucero - El Abra</t>
+          <t>Obras Complementarias y Ajustes Operacionales Mina Chuquicamata Subterránea</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -439,15 +439,15 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Engie Energía Chile S.A.</t>
+          <t>Codelco Chile, División Chuquicamata</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>15000</v>
+        <v>720000</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>21/11/2023</t>
+          <t>22/11/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -457,7 +457,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2160461467&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2160526080&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Obras Complementarias y Ajustes Operacionales Mina Chuquicamata Subterránea</t>
+          <t>Modificación Línea de Transmisión 2 X 220 kV Crucero - El Abra</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -487,25 +487,25 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Codelco Chile, División Chuquicamata</t>
+          <t>Engie Energía Chile S.A.</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>720000</v>
+        <v>15000</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>17/11/2023</t>
+          <t>21/11/2023</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2160526080&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2160461467&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">

--- a/data/Calama.xlsx
+++ b/data/Calama.xlsx
@@ -4264,7 +4264,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Verano de San Juan I</t>
+          <t>MODIFICACIONES AL PROYECTO EXTRACCIÓN Y MOVIMIENTO DE MINERALES MINA RADOMIRO TOMIC</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4279,11 +4279,11 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Sonnedix Victoria Solar SpA</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>15000</v>
+        <v>208848</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
@@ -4292,12 +4292,12 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138522682&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138513102&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -4312,7 +4312,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Verano de San Juan II</t>
+          <t>Parque Fotovoltaico Verano de San Juan I</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4327,7 +4327,7 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Sonnedix Paine Energy SpA</t>
+          <t>Sonnedix Victoria Solar SpA</t>
         </is>
       </c>
       <c r="F83" t="n">
@@ -4345,7 +4345,7 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138526892&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138522682&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4360,7 +4360,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>MODIFICACIONES AL PROYECTO EXTRACCIÓN Y MOVIMIENTO DE MINERALES MINA RADOMIRO TOMIC</t>
+          <t>Parque Fotovoltaico Verano de San Juan II</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4375,11 +4375,11 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Sonnedix Paine Energy SpA</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>208848</v>
+        <v>15000</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
@@ -4388,12 +4388,12 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138513102&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138526892&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -8296,7 +8296,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>BARRIO CONTRATISTA GERENCIA DE PROYECTOS</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -8306,16 +8306,16 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>Codelco Chile, División Chuquicamata</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F166" t="n">
-        <v>8000</v>
+        <v>1200</v>
       </c>
       <c r="G166" t="inlineStr">
         <is>
@@ -8329,7 +8329,7 @@
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128904823&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
@@ -8344,7 +8344,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Proyecto Fotovoltaico Azabache</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -8354,16 +8354,16 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>Enel Green Power Chile S.A.</t>
         </is>
       </c>
       <c r="F167" t="n">
-        <v>1200</v>
+        <v>140000</v>
       </c>
       <c r="G167" t="inlineStr">
         <is>
@@ -8377,7 +8377,7 @@
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128969457&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
@@ -8392,7 +8392,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Proyecto Fotovoltaico Azabache</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -8402,16 +8402,16 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>Enel Green Power Chile S.A.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F168" t="n">
-        <v>140000</v>
+        <v>0</v>
       </c>
       <c r="G168" t="inlineStr">
         <is>
@@ -8425,7 +8425,7 @@
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128969457&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
@@ -8440,7 +8440,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>BARRIO CONTRATISTA GERENCIA DE PROYECTOS</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -8450,16 +8450,16 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Codelco Chile, División Chuquicamata</t>
         </is>
       </c>
       <c r="F169" t="n">
-        <v>0</v>
+        <v>8000</v>
       </c>
       <c r="G169" t="inlineStr">
         <is>
@@ -8473,7 +8473,7 @@
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128904823&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
@@ -9160,7 +9160,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -9175,11 +9175,11 @@
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F184" t="n">
-        <v>12500</v>
+        <v>219</v>
       </c>
       <c r="G184" t="inlineStr">
         <is>
@@ -9188,12 +9188,12 @@
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556590&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
@@ -9208,7 +9208,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
+          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -9227,7 +9227,7 @@
         </is>
       </c>
       <c r="F185" t="n">
-        <v>10000</v>
+        <v>12500</v>
       </c>
       <c r="G185" t="inlineStr">
         <is>
@@ -9241,7 +9241,7 @@
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -9256,7 +9256,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -9271,11 +9271,11 @@
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F186" t="n">
-        <v>219</v>
+        <v>10000</v>
       </c>
       <c r="G186" t="inlineStr">
         <is>
@@ -9284,12 +9284,12 @@
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556590&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
@@ -9784,26 +9784,26 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>RT Sulfuros</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F197" t="n">
-        <v>2050</v>
+        <v>5.4</v>
       </c>
       <c r="G197" t="inlineStr">
         <is>
@@ -9812,12 +9812,12 @@
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
@@ -9832,26 +9832,26 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>RT Sulfuros</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F198" t="n">
-        <v>5.4</v>
+        <v>2050</v>
       </c>
       <c r="G198" t="inlineStr">
         <is>
@@ -9860,12 +9860,12 @@
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
@@ -11272,7 +11272,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Procesamiento de Óxidos DMH</t>
+          <t>Planta Fotovoltaica San Pedro de Atacama IV</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -11287,11 +11287,11 @@
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>División Ministro Hales de Codelco Chile</t>
+          <t>GPG Solar Chile 2017 SpA</t>
         </is>
       </c>
       <c r="F228" t="n">
-        <v>70000</v>
+        <v>105250</v>
       </c>
       <c r="G228" t="inlineStr">
         <is>
@@ -11305,7 +11305,7 @@
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7040302&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7052315&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
@@ -11320,7 +11320,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Planta Fotovoltaica San Pedro de Atacama IV</t>
+          <t>Procesamiento de Óxidos DMH</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -11335,11 +11335,11 @@
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>GPG Solar Chile 2017 SpA</t>
+          <t>División Ministro Hales de Codelco Chile</t>
         </is>
       </c>
       <c r="F229" t="n">
-        <v>105250</v>
+        <v>70000</v>
       </c>
       <c r="G229" t="inlineStr">
         <is>
@@ -11353,7 +11353,7 @@
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7052315&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7040302&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J229" t="inlineStr">
@@ -13432,7 +13432,7 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>Portal del Inca</t>
+          <t>Línea de Transmisión Eléctrica 220 kv Encuentro - MH</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
@@ -13447,11 +13447,11 @@
       </c>
       <c r="E273" t="inlineStr">
         <is>
-          <t>Inmobiliaria Inca Dos Ltda.</t>
+          <t>División Ministro Hales de Codelco Chile</t>
         </is>
       </c>
       <c r="F273" t="n">
-        <v>13948</v>
+        <v>45000</v>
       </c>
       <c r="G273" t="inlineStr">
         <is>
@@ -13460,12 +13460,12 @@
       </c>
       <c r="H273" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I273" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5787635&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5773970&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J273" t="inlineStr">
@@ -13480,7 +13480,7 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Eléctrica 220 kv Encuentro - MH</t>
+          <t>Portal del Inca</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
@@ -13495,11 +13495,11 @@
       </c>
       <c r="E274" t="inlineStr">
         <is>
-          <t>División Ministro Hales de Codelco Chile</t>
+          <t>Inmobiliaria Inca Dos Ltda.</t>
         </is>
       </c>
       <c r="F274" t="n">
-        <v>45000</v>
+        <v>13948</v>
       </c>
       <c r="G274" t="inlineStr">
         <is>
@@ -13508,12 +13508,12 @@
       </c>
       <c r="H274" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I274" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5773970&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5787635&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J274" t="inlineStr">
@@ -14248,7 +14248,7 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
@@ -14263,11 +14263,11 @@
       </c>
       <c r="E290" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F290" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G290" t="inlineStr">
         <is>
@@ -14276,12 +14276,12 @@
       </c>
       <c r="H290" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I290" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J290" t="inlineStr">
@@ -14296,7 +14296,7 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
@@ -14311,11 +14311,11 @@
       </c>
       <c r="E291" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F291" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G291" t="inlineStr">
         <is>
@@ -14324,12 +14324,12 @@
       </c>
       <c r="H291" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I291" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J291" t="inlineStr">
@@ -16120,7 +16120,7 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>Modificación de la DIA de Ampliación y Desarrollo de Faenas Mineras en Tuina</t>
+          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
@@ -16130,16 +16130,16 @@
       </c>
       <c r="D329" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E329" t="inlineStr">
         <is>
-          <t>Explotadora Minera del Cerro S.A</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F329" t="n">
-        <v>1000</v>
+        <v>4050</v>
       </c>
       <c r="G329" t="inlineStr">
         <is>
@@ -16148,12 +16148,12 @@
       </c>
       <c r="H329" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I329" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550686&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J329" t="inlineStr">
@@ -16168,7 +16168,7 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
+          <t>Modificación de la DIA de Ampliación y Desarrollo de Faenas Mineras en Tuina</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
@@ -16178,16 +16178,16 @@
       </c>
       <c r="D330" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E330" t="inlineStr">
         <is>
-          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
+          <t>Explotadora Minera del Cerro S.A</t>
         </is>
       </c>
       <c r="F330" t="n">
-        <v>4000</v>
+        <v>1000</v>
       </c>
       <c r="G330" t="inlineStr">
         <is>
@@ -16201,7 +16201,7 @@
       </c>
       <c r="I330" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4555621&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550686&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J330" t="inlineStr">
@@ -16216,7 +16216,7 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
+          <t>Modificación Proyecto Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
         </is>
       </c>
       <c r="C331" t="inlineStr">
@@ -16231,11 +16231,11 @@
       </c>
       <c r="E331" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
         </is>
       </c>
       <c r="F331" t="n">
-        <v>4050</v>
+        <v>4000</v>
       </c>
       <c r="G331" t="inlineStr">
         <is>
@@ -16244,12 +16244,12 @@
       </c>
       <c r="H331" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I331" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4555621&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J331" t="inlineStr">
@@ -20104,7 +20104,7 @@
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>Proyecto Explotación Subterránea Mina Santa Rosa (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C412" t="inlineStr">
@@ -20114,16 +20114,16 @@
       </c>
       <c r="D412" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E412" t="inlineStr">
         <is>
-          <t>Minera Quimal.S.A.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F412" t="n">
-        <v>500</v>
+        <v>1750</v>
       </c>
       <c r="G412" t="inlineStr">
         <is>
@@ -20132,12 +20132,12 @@
       </c>
       <c r="H412" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I412" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3310659&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J412" t="inlineStr">
@@ -20152,7 +20152,7 @@
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Proyecto Explotación Subterránea Mina Santa Rosa (e-seia)</t>
         </is>
       </c>
       <c r="C413" t="inlineStr">
@@ -20162,16 +20162,16 @@
       </c>
       <c r="D413" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E413" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Minera Quimal.S.A.</t>
         </is>
       </c>
       <c r="F413" t="n">
-        <v>1750</v>
+        <v>500</v>
       </c>
       <c r="G413" t="inlineStr">
         <is>
@@ -20180,12 +20180,12 @@
       </c>
       <c r="H413" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I413" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3310659&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J413" t="inlineStr">
@@ -20632,7 +20632,7 @@
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>Tratamiento de Impurezas en Ánodos y Cátodos de División Codelco Norte (e-seia)</t>
         </is>
       </c>
       <c r="C423" t="inlineStr">
@@ -20642,16 +20642,16 @@
       </c>
       <c r="D423" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E423" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Codelco Chile, División Chuquicamata</t>
         </is>
       </c>
       <c r="F423" t="n">
-        <v>250</v>
+        <v>50000</v>
       </c>
       <c r="G423" t="inlineStr">
         <is>
@@ -20660,12 +20660,12 @@
       </c>
       <c r="H423" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I423" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3118819&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J423" t="inlineStr">
@@ -20680,7 +20680,7 @@
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>Tratamiento de Impurezas en Ánodos y Cátodos de División Codelco Norte (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C424" t="inlineStr">
@@ -20690,16 +20690,16 @@
       </c>
       <c r="D424" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E424" t="inlineStr">
         <is>
-          <t>Codelco Chile, División Chuquicamata</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F424" t="n">
-        <v>50000</v>
+        <v>250</v>
       </c>
       <c r="G424" t="inlineStr">
         <is>
@@ -20708,12 +20708,12 @@
       </c>
       <c r="H424" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I424" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3118819&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J424" t="inlineStr">
@@ -23848,26 +23848,26 @@
       </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
+          <t>LIXIVIACIÓN DE SULFUROS SULFOLIX</t>
         </is>
       </c>
       <c r="C490" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D490" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E490" t="inlineStr">
         <is>
-          <t>Empresa de Residuos RESITER S.A.</t>
+          <t>SOCIEDAD CONTRACTUAL MINERA EL ABRA</t>
         </is>
       </c>
       <c r="F490" t="n">
-        <v>1</v>
+        <v>343000</v>
       </c>
       <c r="G490" t="inlineStr">
         <is>
@@ -23881,7 +23881,7 @@
       </c>
       <c r="I490" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2088630&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J490" t="inlineStr">
@@ -23896,26 +23896,26 @@
       </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t>LIXIVIACIÓN DE SULFUROS SULFOLIX</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C491" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D491" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E491" t="inlineStr">
         <is>
-          <t>SOCIEDAD CONTRACTUAL MINERA EL ABRA</t>
+          <t>Empresa de Residuos RESITER S.A.</t>
         </is>
       </c>
       <c r="F491" t="n">
-        <v>343000</v>
+        <v>1</v>
       </c>
       <c r="G491" t="inlineStr">
         <is>
@@ -23929,7 +23929,7 @@
       </c>
       <c r="I491" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2088630&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J491" t="inlineStr">

--- a/data/Calama.xlsx
+++ b/data/Calama.xlsx
@@ -4312,7 +4312,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Verano de San Juan I</t>
+          <t>MODIFICACIONES AL PROYECTO EXTRACCIÓN Y MOVIMIENTO DE MINERALES MINA RADOMIRO TOMIC</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4327,11 +4327,11 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Sonnedix Victoria Solar SpA</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>15000</v>
+        <v>208848</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
@@ -4340,12 +4340,12 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138522682&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138513102&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4360,7 +4360,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Verano de San Juan II</t>
+          <t>Parque Fotovoltaico Verano de San Juan I</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4375,7 +4375,7 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Sonnedix Paine Energy SpA</t>
+          <t>Sonnedix Victoria Solar SpA</t>
         </is>
       </c>
       <c r="F84" t="n">
@@ -4393,7 +4393,7 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138526892&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138522682&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -4408,7 +4408,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>MODIFICACIONES AL PROYECTO EXTRACCIÓN Y MOVIMIENTO DE MINERALES MINA RADOMIRO TOMIC</t>
+          <t>Parque Fotovoltaico Verano de San Juan II</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -4423,11 +4423,11 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Sonnedix Paine Energy SpA</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>208848</v>
+        <v>15000</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
@@ -4436,12 +4436,12 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138513102&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138526892&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -8344,7 +8344,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>BARRIO CONTRATISTA GERENCIA DE PROYECTOS</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -8354,16 +8354,16 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>Codelco Chile, División Chuquicamata</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F167" t="n">
-        <v>8000</v>
+        <v>1200</v>
       </c>
       <c r="G167" t="inlineStr">
         <is>
@@ -8377,7 +8377,7 @@
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128904823&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
@@ -8392,7 +8392,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Proyecto Fotovoltaico Azabache</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -8402,16 +8402,16 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>Enel Green Power Chile S.A.</t>
         </is>
       </c>
       <c r="F168" t="n">
-        <v>1200</v>
+        <v>140000</v>
       </c>
       <c r="G168" t="inlineStr">
         <is>
@@ -8425,7 +8425,7 @@
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128969457&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
@@ -8440,7 +8440,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Proyecto Fotovoltaico Azabache</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -8450,16 +8450,16 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>Enel Green Power Chile S.A.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F169" t="n">
-        <v>140000</v>
+        <v>0</v>
       </c>
       <c r="G169" t="inlineStr">
         <is>
@@ -8473,7 +8473,7 @@
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128969457&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
@@ -8488,7 +8488,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>BARRIO CONTRATISTA GERENCIA DE PROYECTOS</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -8498,16 +8498,16 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Codelco Chile, División Chuquicamata</t>
         </is>
       </c>
       <c r="F170" t="n">
-        <v>0</v>
+        <v>8000</v>
       </c>
       <c r="G170" t="inlineStr">
         <is>
@@ -8521,7 +8521,7 @@
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128904823&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
@@ -9208,7 +9208,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -9223,11 +9223,11 @@
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F185" t="n">
-        <v>12500</v>
+        <v>219</v>
       </c>
       <c r="G185" t="inlineStr">
         <is>
@@ -9236,12 +9236,12 @@
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556590&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -9256,7 +9256,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
+          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -9275,7 +9275,7 @@
         </is>
       </c>
       <c r="F186" t="n">
-        <v>10000</v>
+        <v>12500</v>
       </c>
       <c r="G186" t="inlineStr">
         <is>
@@ -9289,7 +9289,7 @@
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
@@ -9304,7 +9304,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -9319,11 +9319,11 @@
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F187" t="n">
-        <v>219</v>
+        <v>10000</v>
       </c>
       <c r="G187" t="inlineStr">
         <is>
@@ -9332,12 +9332,12 @@
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556590&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
@@ -9832,26 +9832,26 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>RT Sulfuros</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F198" t="n">
-        <v>2050</v>
+        <v>5.4</v>
       </c>
       <c r="G198" t="inlineStr">
         <is>
@@ -9860,12 +9860,12 @@
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
@@ -9880,26 +9880,26 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>RT Sulfuros</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F199" t="n">
-        <v>5.4</v>
+        <v>2050</v>
       </c>
       <c r="G199" t="inlineStr">
         <is>
@@ -9908,12 +9908,12 @@
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
@@ -11320,7 +11320,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Procesamiento de Óxidos DMH</t>
+          <t>Planta Fotovoltaica San Pedro de Atacama IV</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -11335,11 +11335,11 @@
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>División Ministro Hales de Codelco Chile</t>
+          <t>GPG Solar Chile 2017 SpA</t>
         </is>
       </c>
       <c r="F229" t="n">
-        <v>70000</v>
+        <v>105250</v>
       </c>
       <c r="G229" t="inlineStr">
         <is>
@@ -11353,7 +11353,7 @@
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7040302&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7052315&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J229" t="inlineStr">
@@ -11368,7 +11368,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Planta Fotovoltaica San Pedro de Atacama IV</t>
+          <t>Procesamiento de Óxidos DMH</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -11383,11 +11383,11 @@
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>GPG Solar Chile 2017 SpA</t>
+          <t>División Ministro Hales de Codelco Chile</t>
         </is>
       </c>
       <c r="F230" t="n">
-        <v>105250</v>
+        <v>70000</v>
       </c>
       <c r="G230" t="inlineStr">
         <is>
@@ -11401,7 +11401,7 @@
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7052315&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7040302&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
@@ -13480,7 +13480,7 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>Portal del Inca</t>
+          <t>Línea de Transmisión Eléctrica 220 kv Encuentro - MH</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
@@ -13495,11 +13495,11 @@
       </c>
       <c r="E274" t="inlineStr">
         <is>
-          <t>Inmobiliaria Inca Dos Ltda.</t>
+          <t>División Ministro Hales de Codelco Chile</t>
         </is>
       </c>
       <c r="F274" t="n">
-        <v>13948</v>
+        <v>45000</v>
       </c>
       <c r="G274" t="inlineStr">
         <is>
@@ -13508,12 +13508,12 @@
       </c>
       <c r="H274" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I274" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5787635&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5773970&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J274" t="inlineStr">
@@ -13528,7 +13528,7 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Eléctrica 220 kv Encuentro - MH</t>
+          <t>Portal del Inca</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
@@ -13543,11 +13543,11 @@
       </c>
       <c r="E275" t="inlineStr">
         <is>
-          <t>División Ministro Hales de Codelco Chile</t>
+          <t>Inmobiliaria Inca Dos Ltda.</t>
         </is>
       </c>
       <c r="F275" t="n">
-        <v>45000</v>
+        <v>13948</v>
       </c>
       <c r="G275" t="inlineStr">
         <is>
@@ -13556,12 +13556,12 @@
       </c>
       <c r="H275" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I275" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5773970&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5787635&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J275" t="inlineStr">
@@ -14296,7 +14296,7 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
@@ -14311,11 +14311,11 @@
       </c>
       <c r="E291" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F291" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G291" t="inlineStr">
         <is>
@@ -14324,12 +14324,12 @@
       </c>
       <c r="H291" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I291" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J291" t="inlineStr">
@@ -14344,7 +14344,7 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
@@ -14359,11 +14359,11 @@
       </c>
       <c r="E292" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F292" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G292" t="inlineStr">
         <is>
@@ -14372,12 +14372,12 @@
       </c>
       <c r="H292" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I292" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J292" t="inlineStr">
@@ -16168,7 +16168,7 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>Modificación de la DIA de Ampliación y Desarrollo de Faenas Mineras en Tuina</t>
+          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
@@ -16178,16 +16178,16 @@
       </c>
       <c r="D330" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E330" t="inlineStr">
         <is>
-          <t>Explotadora Minera del Cerro S.A</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F330" t="n">
-        <v>1000</v>
+        <v>4050</v>
       </c>
       <c r="G330" t="inlineStr">
         <is>
@@ -16196,12 +16196,12 @@
       </c>
       <c r="H330" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I330" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550686&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J330" t="inlineStr">
@@ -16216,7 +16216,7 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
+          <t>Modificación de la DIA de Ampliación y Desarrollo de Faenas Mineras en Tuina</t>
         </is>
       </c>
       <c r="C331" t="inlineStr">
@@ -16226,16 +16226,16 @@
       </c>
       <c r="D331" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E331" t="inlineStr">
         <is>
-          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
+          <t>Explotadora Minera del Cerro S.A</t>
         </is>
       </c>
       <c r="F331" t="n">
-        <v>4000</v>
+        <v>1000</v>
       </c>
       <c r="G331" t="inlineStr">
         <is>
@@ -16249,7 +16249,7 @@
       </c>
       <c r="I331" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4555621&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550686&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J331" t="inlineStr">
@@ -16264,7 +16264,7 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
+          <t>Modificación Proyecto Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
@@ -16279,11 +16279,11 @@
       </c>
       <c r="E332" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
         </is>
       </c>
       <c r="F332" t="n">
-        <v>4050</v>
+        <v>4000</v>
       </c>
       <c r="G332" t="inlineStr">
         <is>
@@ -16292,12 +16292,12 @@
       </c>
       <c r="H332" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I332" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4555621&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J332" t="inlineStr">
@@ -20152,7 +20152,7 @@
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>Proyecto Explotación Subterránea Mina Santa Rosa (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C413" t="inlineStr">
@@ -20162,16 +20162,16 @@
       </c>
       <c r="D413" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E413" t="inlineStr">
         <is>
-          <t>Minera Quimal.S.A.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F413" t="n">
-        <v>500</v>
+        <v>1750</v>
       </c>
       <c r="G413" t="inlineStr">
         <is>
@@ -20180,12 +20180,12 @@
       </c>
       <c r="H413" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I413" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3310659&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J413" t="inlineStr">
@@ -20200,7 +20200,7 @@
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Proyecto Explotación Subterránea Mina Santa Rosa (e-seia)</t>
         </is>
       </c>
       <c r="C414" t="inlineStr">
@@ -20210,16 +20210,16 @@
       </c>
       <c r="D414" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E414" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Minera Quimal.S.A.</t>
         </is>
       </c>
       <c r="F414" t="n">
-        <v>1750</v>
+        <v>500</v>
       </c>
       <c r="G414" t="inlineStr">
         <is>
@@ -20228,12 +20228,12 @@
       </c>
       <c r="H414" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I414" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3310659&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J414" t="inlineStr">
@@ -20680,7 +20680,7 @@
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>Tratamiento de Impurezas en Ánodos y Cátodos de División Codelco Norte (e-seia)</t>
         </is>
       </c>
       <c r="C424" t="inlineStr">
@@ -20690,16 +20690,16 @@
       </c>
       <c r="D424" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E424" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Codelco Chile, División Chuquicamata</t>
         </is>
       </c>
       <c r="F424" t="n">
-        <v>250</v>
+        <v>50000</v>
       </c>
       <c r="G424" t="inlineStr">
         <is>
@@ -20708,12 +20708,12 @@
       </c>
       <c r="H424" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I424" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3118819&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J424" t="inlineStr">
@@ -20728,7 +20728,7 @@
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>Tratamiento de Impurezas en Ánodos y Cátodos de División Codelco Norte (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C425" t="inlineStr">
@@ -20738,16 +20738,16 @@
       </c>
       <c r="D425" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E425" t="inlineStr">
         <is>
-          <t>Codelco Chile, División Chuquicamata</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F425" t="n">
-        <v>50000</v>
+        <v>250</v>
       </c>
       <c r="G425" t="inlineStr">
         <is>
@@ -20756,12 +20756,12 @@
       </c>
       <c r="H425" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I425" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3118819&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J425" t="inlineStr">
@@ -20872,7 +20872,7 @@
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>Proyecto Exploración Minera Macarena - Leo (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C428" t="inlineStr">
@@ -20882,16 +20882,16 @@
       </c>
       <c r="D428" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E428" t="inlineStr">
         <is>
-          <t>Minera Fuego Limitada</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F428" t="n">
-        <v>150</v>
+        <v>1650</v>
       </c>
       <c r="G428" t="inlineStr">
         <is>
@@ -20905,7 +20905,7 @@
       </c>
       <c r="I428" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088992&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J428" t="inlineStr">
@@ -20920,7 +20920,7 @@
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>Proyecto Exploración Minera Macarena - Leo (e-seia)</t>
         </is>
       </c>
       <c r="C429" t="inlineStr">
@@ -20930,16 +20930,16 @@
       </c>
       <c r="D429" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E429" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Minera Fuego Limitada</t>
         </is>
       </c>
       <c r="F429" t="n">
-        <v>1650</v>
+        <v>150</v>
       </c>
       <c r="G429" t="inlineStr">
         <is>
@@ -20953,7 +20953,7 @@
       </c>
       <c r="I429" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088992&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J429" t="inlineStr">
@@ -23896,26 +23896,26 @@
       </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
+          <t>LIXIVIACIÓN DE SULFUROS SULFOLIX</t>
         </is>
       </c>
       <c r="C491" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D491" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E491" t="inlineStr">
         <is>
-          <t>Empresa de Residuos RESITER S.A.</t>
+          <t>SOCIEDAD CONTRACTUAL MINERA EL ABRA</t>
         </is>
       </c>
       <c r="F491" t="n">
-        <v>1</v>
+        <v>343000</v>
       </c>
       <c r="G491" t="inlineStr">
         <is>
@@ -23929,7 +23929,7 @@
       </c>
       <c r="I491" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2088630&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J491" t="inlineStr">
@@ -23944,26 +23944,26 @@
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>LIXIVIACIÓN DE SULFUROS SULFOLIX</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C492" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D492" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E492" t="inlineStr">
         <is>
-          <t>SOCIEDAD CONTRACTUAL MINERA EL ABRA</t>
+          <t>Empresa de Residuos RESITER S.A.</t>
         </is>
       </c>
       <c r="F492" t="n">
-        <v>343000</v>
+        <v>1</v>
       </c>
       <c r="G492" t="inlineStr">
         <is>
@@ -23977,7 +23977,7 @@
       </c>
       <c r="I492" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2088630&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J492" t="inlineStr">

--- a/data/Calama.xlsx
+++ b/data/Calama.xlsx
@@ -4312,7 +4312,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>MODIFICACIONES AL PROYECTO EXTRACCIÓN Y MOVIMIENTO DE MINERALES MINA RADOMIRO TOMIC</t>
+          <t>Parque Fotovoltaico Verano de San Juan I</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4327,11 +4327,11 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Sonnedix Victoria Solar SpA</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>208848</v>
+        <v>15000</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
@@ -4340,12 +4340,12 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138513102&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138522682&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4360,7 +4360,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Verano de San Juan I</t>
+          <t>Parque Fotovoltaico Verano de San Juan II</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4375,7 +4375,7 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Sonnedix Victoria Solar SpA</t>
+          <t>Sonnedix Paine Energy SpA</t>
         </is>
       </c>
       <c r="F84" t="n">
@@ -4393,7 +4393,7 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138522682&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138526892&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -4408,7 +4408,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Verano de San Juan II</t>
+          <t>MODIFICACIONES AL PROYECTO EXTRACCIÓN Y MOVIMIENTO DE MINERALES MINA RADOMIRO TOMIC</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -4423,11 +4423,11 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Sonnedix Paine Energy SpA</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>15000</v>
+        <v>208848</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
@@ -4436,12 +4436,12 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138526892&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138513102&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -8344,7 +8344,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>BARRIO CONTRATISTA GERENCIA DE PROYECTOS</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -8354,16 +8354,16 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>Codelco Chile, División Chuquicamata</t>
         </is>
       </c>
       <c r="F167" t="n">
-        <v>1200</v>
+        <v>8000</v>
       </c>
       <c r="G167" t="inlineStr">
         <is>
@@ -8377,7 +8377,7 @@
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128904823&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
@@ -8392,7 +8392,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Proyecto Fotovoltaico Azabache</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -8402,16 +8402,16 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>Enel Green Power Chile S.A.</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F168" t="n">
-        <v>140000</v>
+        <v>1200</v>
       </c>
       <c r="G168" t="inlineStr">
         <is>
@@ -8425,7 +8425,7 @@
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128969457&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
@@ -8440,7 +8440,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Proyecto Fotovoltaico Azabache</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -8450,16 +8450,16 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Enel Green Power Chile S.A.</t>
         </is>
       </c>
       <c r="F169" t="n">
-        <v>0</v>
+        <v>140000</v>
       </c>
       <c r="G169" t="inlineStr">
         <is>
@@ -8473,7 +8473,7 @@
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128969457&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
@@ -8488,7 +8488,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>BARRIO CONTRATISTA GERENCIA DE PROYECTOS</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -8498,16 +8498,16 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>Codelco Chile, División Chuquicamata</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F170" t="n">
-        <v>8000</v>
+        <v>0</v>
       </c>
       <c r="G170" t="inlineStr">
         <is>
@@ -8521,7 +8521,7 @@
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128904823&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
@@ -9208,7 +9208,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -9223,11 +9223,11 @@
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F185" t="n">
-        <v>219</v>
+        <v>12500</v>
       </c>
       <c r="G185" t="inlineStr">
         <is>
@@ -9236,12 +9236,12 @@
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556590&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -9256,7 +9256,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -9275,7 +9275,7 @@
         </is>
       </c>
       <c r="F186" t="n">
-        <v>12500</v>
+        <v>10000</v>
       </c>
       <c r="G186" t="inlineStr">
         <is>
@@ -9289,7 +9289,7 @@
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
@@ -9304,7 +9304,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -9319,11 +9319,11 @@
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F187" t="n">
-        <v>10000</v>
+        <v>219</v>
       </c>
       <c r="G187" t="inlineStr">
         <is>
@@ -9332,12 +9332,12 @@
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556590&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
@@ -9832,26 +9832,26 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>RT Sulfuros</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F198" t="n">
-        <v>5.4</v>
+        <v>2050</v>
       </c>
       <c r="G198" t="inlineStr">
         <is>
@@ -9860,12 +9860,12 @@
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
@@ -9880,26 +9880,26 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>RT Sulfuros</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F199" t="n">
-        <v>2050</v>
+        <v>5.4</v>
       </c>
       <c r="G199" t="inlineStr">
         <is>
@@ -9908,12 +9908,12 @@
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
@@ -11320,7 +11320,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Planta Fotovoltaica San Pedro de Atacama IV</t>
+          <t>Procesamiento de Óxidos DMH</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -11335,11 +11335,11 @@
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>GPG Solar Chile 2017 SpA</t>
+          <t>División Ministro Hales de Codelco Chile</t>
         </is>
       </c>
       <c r="F229" t="n">
-        <v>105250</v>
+        <v>70000</v>
       </c>
       <c r="G229" t="inlineStr">
         <is>
@@ -11353,7 +11353,7 @@
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7052315&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7040302&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J229" t="inlineStr">
@@ -11368,7 +11368,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Procesamiento de Óxidos DMH</t>
+          <t>Planta Fotovoltaica San Pedro de Atacama IV</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -11383,11 +11383,11 @@
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>División Ministro Hales de Codelco Chile</t>
+          <t>GPG Solar Chile 2017 SpA</t>
         </is>
       </c>
       <c r="F230" t="n">
-        <v>70000</v>
+        <v>105250</v>
       </c>
       <c r="G230" t="inlineStr">
         <is>
@@ -11401,7 +11401,7 @@
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7040302&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7052315&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
@@ -13480,7 +13480,7 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Eléctrica 220 kv Encuentro - MH</t>
+          <t>Portal del Inca</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
@@ -13495,11 +13495,11 @@
       </c>
       <c r="E274" t="inlineStr">
         <is>
-          <t>División Ministro Hales de Codelco Chile</t>
+          <t>Inmobiliaria Inca Dos Ltda.</t>
         </is>
       </c>
       <c r="F274" t="n">
-        <v>45000</v>
+        <v>13948</v>
       </c>
       <c r="G274" t="inlineStr">
         <is>
@@ -13508,12 +13508,12 @@
       </c>
       <c r="H274" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I274" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5773970&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5787635&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J274" t="inlineStr">
@@ -13528,7 +13528,7 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>Portal del Inca</t>
+          <t>Línea de Transmisión Eléctrica 220 kv Encuentro - MH</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
@@ -13543,11 +13543,11 @@
       </c>
       <c r="E275" t="inlineStr">
         <is>
-          <t>Inmobiliaria Inca Dos Ltda.</t>
+          <t>División Ministro Hales de Codelco Chile</t>
         </is>
       </c>
       <c r="F275" t="n">
-        <v>13948</v>
+        <v>45000</v>
       </c>
       <c r="G275" t="inlineStr">
         <is>
@@ -13556,12 +13556,12 @@
       </c>
       <c r="H275" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I275" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5787635&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5773970&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J275" t="inlineStr">
@@ -14296,7 +14296,7 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
@@ -14311,11 +14311,11 @@
       </c>
       <c r="E291" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F291" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G291" t="inlineStr">
         <is>
@@ -14324,12 +14324,12 @@
       </c>
       <c r="H291" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I291" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J291" t="inlineStr">
@@ -14344,7 +14344,7 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
@@ -14359,11 +14359,11 @@
       </c>
       <c r="E292" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F292" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G292" t="inlineStr">
         <is>
@@ -14372,12 +14372,12 @@
       </c>
       <c r="H292" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I292" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J292" t="inlineStr">
@@ -16168,7 +16168,7 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
+          <t>Modificación de la DIA de Ampliación y Desarrollo de Faenas Mineras en Tuina</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
@@ -16178,16 +16178,16 @@
       </c>
       <c r="D330" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E330" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Explotadora Minera del Cerro S.A</t>
         </is>
       </c>
       <c r="F330" t="n">
-        <v>4050</v>
+        <v>1000</v>
       </c>
       <c r="G330" t="inlineStr">
         <is>
@@ -16196,12 +16196,12 @@
       </c>
       <c r="H330" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I330" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550686&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J330" t="inlineStr">
@@ -16216,7 +16216,7 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>Modificación de la DIA de Ampliación y Desarrollo de Faenas Mineras en Tuina</t>
+          <t>Modificación Proyecto Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
         </is>
       </c>
       <c r="C331" t="inlineStr">
@@ -16226,16 +16226,16 @@
       </c>
       <c r="D331" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E331" t="inlineStr">
         <is>
-          <t>Explotadora Minera del Cerro S.A</t>
+          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
         </is>
       </c>
       <c r="F331" t="n">
-        <v>1000</v>
+        <v>4000</v>
       </c>
       <c r="G331" t="inlineStr">
         <is>
@@ -16249,7 +16249,7 @@
       </c>
       <c r="I331" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550686&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4555621&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J331" t="inlineStr">
@@ -16264,7 +16264,7 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
+          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
@@ -16279,11 +16279,11 @@
       </c>
       <c r="E332" t="inlineStr">
         <is>
-          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F332" t="n">
-        <v>4000</v>
+        <v>4050</v>
       </c>
       <c r="G332" t="inlineStr">
         <is>
@@ -16292,12 +16292,12 @@
       </c>
       <c r="H332" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I332" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4555621&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J332" t="inlineStr">
@@ -20152,7 +20152,7 @@
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Proyecto Explotación Subterránea Mina Santa Rosa (e-seia)</t>
         </is>
       </c>
       <c r="C413" t="inlineStr">
@@ -20162,16 +20162,16 @@
       </c>
       <c r="D413" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E413" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Minera Quimal.S.A.</t>
         </is>
       </c>
       <c r="F413" t="n">
-        <v>1750</v>
+        <v>500</v>
       </c>
       <c r="G413" t="inlineStr">
         <is>
@@ -20180,12 +20180,12 @@
       </c>
       <c r="H413" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I413" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3310659&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J413" t="inlineStr">
@@ -20200,7 +20200,7 @@
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>Proyecto Explotación Subterránea Mina Santa Rosa (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C414" t="inlineStr">
@@ -20210,16 +20210,16 @@
       </c>
       <c r="D414" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E414" t="inlineStr">
         <is>
-          <t>Minera Quimal.S.A.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F414" t="n">
-        <v>500</v>
+        <v>1750</v>
       </c>
       <c r="G414" t="inlineStr">
         <is>
@@ -20228,12 +20228,12 @@
       </c>
       <c r="H414" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I414" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3310659&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J414" t="inlineStr">
@@ -20680,7 +20680,7 @@
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>Tratamiento de Impurezas en Ánodos y Cátodos de División Codelco Norte (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C424" t="inlineStr">
@@ -20690,16 +20690,16 @@
       </c>
       <c r="D424" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E424" t="inlineStr">
         <is>
-          <t>Codelco Chile, División Chuquicamata</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F424" t="n">
-        <v>50000</v>
+        <v>250</v>
       </c>
       <c r="G424" t="inlineStr">
         <is>
@@ -20708,12 +20708,12 @@
       </c>
       <c r="H424" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I424" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3118819&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J424" t="inlineStr">
@@ -20728,7 +20728,7 @@
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>Tratamiento de Impurezas en Ánodos y Cátodos de División Codelco Norte (e-seia)</t>
         </is>
       </c>
       <c r="C425" t="inlineStr">
@@ -20738,16 +20738,16 @@
       </c>
       <c r="D425" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E425" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Codelco Chile, División Chuquicamata</t>
         </is>
       </c>
       <c r="F425" t="n">
-        <v>250</v>
+        <v>50000</v>
       </c>
       <c r="G425" t="inlineStr">
         <is>
@@ -20756,12 +20756,12 @@
       </c>
       <c r="H425" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I425" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3118819&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J425" t="inlineStr">
@@ -20872,7 +20872,7 @@
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>Proyecto Exploración Minera Macarena - Leo (e-seia)</t>
         </is>
       </c>
       <c r="C428" t="inlineStr">
@@ -20882,16 +20882,16 @@
       </c>
       <c r="D428" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E428" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Minera Fuego Limitada</t>
         </is>
       </c>
       <c r="F428" t="n">
-        <v>1650</v>
+        <v>150</v>
       </c>
       <c r="G428" t="inlineStr">
         <is>
@@ -20905,7 +20905,7 @@
       </c>
       <c r="I428" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088992&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J428" t="inlineStr">
@@ -20920,7 +20920,7 @@
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>Proyecto Exploración Minera Macarena - Leo (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C429" t="inlineStr">
@@ -20930,16 +20930,16 @@
       </c>
       <c r="D429" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E429" t="inlineStr">
         <is>
-          <t>Minera Fuego Limitada</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F429" t="n">
-        <v>150</v>
+        <v>1650</v>
       </c>
       <c r="G429" t="inlineStr">
         <is>
@@ -20953,7 +20953,7 @@
       </c>
       <c r="I429" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088992&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J429" t="inlineStr">
@@ -23896,26 +23896,26 @@
       </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t>LIXIVIACIÓN DE SULFUROS SULFOLIX</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C491" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D491" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E491" t="inlineStr">
         <is>
-          <t>SOCIEDAD CONTRACTUAL MINERA EL ABRA</t>
+          <t>Empresa de Residuos RESITER S.A.</t>
         </is>
       </c>
       <c r="F491" t="n">
-        <v>343000</v>
+        <v>1</v>
       </c>
       <c r="G491" t="inlineStr">
         <is>
@@ -23929,7 +23929,7 @@
       </c>
       <c r="I491" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2088630&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J491" t="inlineStr">
@@ -23944,26 +23944,26 @@
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
+          <t>LIXIVIACIÓN DE SULFUROS SULFOLIX</t>
         </is>
       </c>
       <c r="C492" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D492" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E492" t="inlineStr">
         <is>
-          <t>Empresa de Residuos RESITER S.A.</t>
+          <t>SOCIEDAD CONTRACTUAL MINERA EL ABRA</t>
         </is>
       </c>
       <c r="F492" t="n">
-        <v>1</v>
+        <v>343000</v>
       </c>
       <c r="G492" t="inlineStr">
         <is>
@@ -23977,7 +23977,7 @@
       </c>
       <c r="I492" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2088630&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J492" t="inlineStr">

--- a/data/Calama.xlsx
+++ b/data/Calama.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>18/12/2023</t>
+          <t>20/12/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Calama.xlsx
+++ b/data/Calama.xlsx
@@ -500,7 +500,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">

--- a/data/Calama.xlsx
+++ b/data/Calama.xlsx
@@ -4312,7 +4312,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>MODIFICACIONES AL PROYECTO EXTRACCIÓN Y MOVIMIENTO DE MINERALES MINA RADOMIRO TOMIC</t>
+          <t>Parque Fotovoltaico Verano de San Juan I</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4327,11 +4327,11 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Sonnedix Victoria Solar SpA</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>208848</v>
+        <v>15000</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
@@ -4340,12 +4340,12 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138513102&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138522682&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4360,7 +4360,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Verano de San Juan I</t>
+          <t>Parque Fotovoltaico Verano de San Juan II</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4375,7 +4375,7 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Sonnedix Victoria Solar SpA</t>
+          <t>Sonnedix Paine Energy SpA</t>
         </is>
       </c>
       <c r="F84" t="n">
@@ -4393,7 +4393,7 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138522682&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138526892&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -4408,7 +4408,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Verano de San Juan II</t>
+          <t>MODIFICACIONES AL PROYECTO EXTRACCIÓN Y MOVIMIENTO DE MINERALES MINA RADOMIRO TOMIC</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -4423,11 +4423,11 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Sonnedix Paine Energy SpA</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>15000</v>
+        <v>208848</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
@@ -4436,12 +4436,12 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138526892&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138513102&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -8344,7 +8344,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>BARRIO CONTRATISTA GERENCIA DE PROYECTOS</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -8354,16 +8354,16 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>Codelco Chile, División Chuquicamata</t>
         </is>
       </c>
       <c r="F167" t="n">
-        <v>1200</v>
+        <v>8000</v>
       </c>
       <c r="G167" t="inlineStr">
         <is>
@@ -8377,7 +8377,7 @@
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128904823&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
@@ -8392,7 +8392,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Proyecto Fotovoltaico Azabache</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -8402,16 +8402,16 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>Enel Green Power Chile S.A.</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F168" t="n">
-        <v>140000</v>
+        <v>1200</v>
       </c>
       <c r="G168" t="inlineStr">
         <is>
@@ -8425,7 +8425,7 @@
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128969457&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
@@ -8440,7 +8440,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Proyecto Fotovoltaico Azabache</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -8450,16 +8450,16 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Enel Green Power Chile S.A.</t>
         </is>
       </c>
       <c r="F169" t="n">
-        <v>0</v>
+        <v>140000</v>
       </c>
       <c r="G169" t="inlineStr">
         <is>
@@ -8473,7 +8473,7 @@
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128969457&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
@@ -8488,7 +8488,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>BARRIO CONTRATISTA GERENCIA DE PROYECTOS</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -8498,16 +8498,16 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>Codelco Chile, División Chuquicamata</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F170" t="n">
-        <v>8000</v>
+        <v>0</v>
       </c>
       <c r="G170" t="inlineStr">
         <is>
@@ -8521,7 +8521,7 @@
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128904823&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
@@ -9208,7 +9208,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -9223,11 +9223,11 @@
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F185" t="n">
-        <v>219</v>
+        <v>12500</v>
       </c>
       <c r="G185" t="inlineStr">
         <is>
@@ -9236,12 +9236,12 @@
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556590&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -9256,7 +9256,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -9275,7 +9275,7 @@
         </is>
       </c>
       <c r="F186" t="n">
-        <v>12500</v>
+        <v>10000</v>
       </c>
       <c r="G186" t="inlineStr">
         <is>
@@ -9289,7 +9289,7 @@
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
@@ -9304,7 +9304,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -9319,11 +9319,11 @@
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F187" t="n">
-        <v>10000</v>
+        <v>219</v>
       </c>
       <c r="G187" t="inlineStr">
         <is>
@@ -9332,12 +9332,12 @@
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556590&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
@@ -9832,26 +9832,26 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>RT Sulfuros</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F198" t="n">
-        <v>5.4</v>
+        <v>2050</v>
       </c>
       <c r="G198" t="inlineStr">
         <is>
@@ -9860,12 +9860,12 @@
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
@@ -9880,26 +9880,26 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>RT Sulfuros</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F199" t="n">
-        <v>2050</v>
+        <v>5.4</v>
       </c>
       <c r="G199" t="inlineStr">
         <is>
@@ -9908,12 +9908,12 @@
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
@@ -11320,7 +11320,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Planta Fotovoltaica San Pedro de Atacama IV</t>
+          <t>Procesamiento de Óxidos DMH</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -11335,11 +11335,11 @@
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>GPG Solar Chile 2017 SpA</t>
+          <t>División Ministro Hales de Codelco Chile</t>
         </is>
       </c>
       <c r="F229" t="n">
-        <v>105250</v>
+        <v>70000</v>
       </c>
       <c r="G229" t="inlineStr">
         <is>
@@ -11353,7 +11353,7 @@
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7052315&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7040302&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J229" t="inlineStr">
@@ -11368,7 +11368,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Procesamiento de Óxidos DMH</t>
+          <t>Planta Fotovoltaica San Pedro de Atacama IV</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -11383,11 +11383,11 @@
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>División Ministro Hales de Codelco Chile</t>
+          <t>GPG Solar Chile 2017 SpA</t>
         </is>
       </c>
       <c r="F230" t="n">
-        <v>70000</v>
+        <v>105250</v>
       </c>
       <c r="G230" t="inlineStr">
         <is>
@@ -11401,7 +11401,7 @@
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7040302&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7052315&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
@@ -13480,7 +13480,7 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Eléctrica 220 kv Encuentro - MH</t>
+          <t>Portal del Inca</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
@@ -13495,11 +13495,11 @@
       </c>
       <c r="E274" t="inlineStr">
         <is>
-          <t>División Ministro Hales de Codelco Chile</t>
+          <t>Inmobiliaria Inca Dos Ltda.</t>
         </is>
       </c>
       <c r="F274" t="n">
-        <v>45000</v>
+        <v>13948</v>
       </c>
       <c r="G274" t="inlineStr">
         <is>
@@ -13508,12 +13508,12 @@
       </c>
       <c r="H274" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I274" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5773970&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5787635&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J274" t="inlineStr">
@@ -13528,7 +13528,7 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>Portal del Inca</t>
+          <t>Línea de Transmisión Eléctrica 220 kv Encuentro - MH</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
@@ -13543,11 +13543,11 @@
       </c>
       <c r="E275" t="inlineStr">
         <is>
-          <t>Inmobiliaria Inca Dos Ltda.</t>
+          <t>División Ministro Hales de Codelco Chile</t>
         </is>
       </c>
       <c r="F275" t="n">
-        <v>13948</v>
+        <v>45000</v>
       </c>
       <c r="G275" t="inlineStr">
         <is>
@@ -13556,12 +13556,12 @@
       </c>
       <c r="H275" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I275" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5787635&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5773970&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J275" t="inlineStr">
@@ -14296,7 +14296,7 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
@@ -14311,11 +14311,11 @@
       </c>
       <c r="E291" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F291" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G291" t="inlineStr">
         <is>
@@ -14324,12 +14324,12 @@
       </c>
       <c r="H291" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I291" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J291" t="inlineStr">
@@ -14344,7 +14344,7 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
@@ -14359,11 +14359,11 @@
       </c>
       <c r="E292" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F292" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G292" t="inlineStr">
         <is>
@@ -14372,12 +14372,12 @@
       </c>
       <c r="H292" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I292" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J292" t="inlineStr">
@@ -16168,7 +16168,7 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
+          <t>Modificación de la DIA de Ampliación y Desarrollo de Faenas Mineras en Tuina</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
@@ -16178,16 +16178,16 @@
       </c>
       <c r="D330" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E330" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Explotadora Minera del Cerro S.A</t>
         </is>
       </c>
       <c r="F330" t="n">
-        <v>4050</v>
+        <v>1000</v>
       </c>
       <c r="G330" t="inlineStr">
         <is>
@@ -16196,12 +16196,12 @@
       </c>
       <c r="H330" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I330" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550686&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J330" t="inlineStr">
@@ -16216,7 +16216,7 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>Modificación de la DIA de Ampliación y Desarrollo de Faenas Mineras en Tuina</t>
+          <t>Modificación Proyecto Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
         </is>
       </c>
       <c r="C331" t="inlineStr">
@@ -16226,16 +16226,16 @@
       </c>
       <c r="D331" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E331" t="inlineStr">
         <is>
-          <t>Explotadora Minera del Cerro S.A</t>
+          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
         </is>
       </c>
       <c r="F331" t="n">
-        <v>1000</v>
+        <v>4000</v>
       </c>
       <c r="G331" t="inlineStr">
         <is>
@@ -16249,7 +16249,7 @@
       </c>
       <c r="I331" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550686&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4555621&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J331" t="inlineStr">
@@ -16264,7 +16264,7 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
+          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
@@ -16279,11 +16279,11 @@
       </c>
       <c r="E332" t="inlineStr">
         <is>
-          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F332" t="n">
-        <v>4000</v>
+        <v>4050</v>
       </c>
       <c r="G332" t="inlineStr">
         <is>
@@ -16292,12 +16292,12 @@
       </c>
       <c r="H332" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I332" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4555621&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J332" t="inlineStr">
@@ -20152,7 +20152,7 @@
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Proyecto Explotación Subterránea Mina Santa Rosa (e-seia)</t>
         </is>
       </c>
       <c r="C413" t="inlineStr">
@@ -20162,16 +20162,16 @@
       </c>
       <c r="D413" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E413" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Minera Quimal.S.A.</t>
         </is>
       </c>
       <c r="F413" t="n">
-        <v>1750</v>
+        <v>500</v>
       </c>
       <c r="G413" t="inlineStr">
         <is>
@@ -20180,12 +20180,12 @@
       </c>
       <c r="H413" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I413" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3310659&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J413" t="inlineStr">
@@ -20200,7 +20200,7 @@
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>Proyecto Explotación Subterránea Mina Santa Rosa (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C414" t="inlineStr">
@@ -20210,16 +20210,16 @@
       </c>
       <c r="D414" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E414" t="inlineStr">
         <is>
-          <t>Minera Quimal.S.A.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F414" t="n">
-        <v>500</v>
+        <v>1750</v>
       </c>
       <c r="G414" t="inlineStr">
         <is>
@@ -20228,12 +20228,12 @@
       </c>
       <c r="H414" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I414" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3310659&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J414" t="inlineStr">
@@ -20680,7 +20680,7 @@
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>Tratamiento de Impurezas en Ánodos y Cátodos de División Codelco Norte (e-seia)</t>
+          <t>Proyecto Interregional de Man